--- a/000_final_results/group_fam/results_summary_group_fam_cross.xlsx
+++ b/000_final_results/group_fam/results_summary_group_fam_cross.xlsx
@@ -648,52 +648,52 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.7744107744107743</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.8236842105263158</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.806060606060606</v>
+        <v>0.8375</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[[6, 0, 3], [0, 20, 0], [5, 0, 6]]</t>
+          <t>[[7, 0, 2], [0, 20, 0], [5, 0, 6]]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50})</t>
+          <t>OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 278})</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.9358333333333333, 0.931388888888889, 0.9319444444444445, 0.9402777777777779, 0.9272222222222222, 0.9191666666666667, 0.9150000000000003, 0.9444444444444446, 0.9361111111111111, 0.945, 0.9488888888888889, 0.9613888888888888, 0.931388888888889, 0.9444444444444444, 0.9441666666666666, 0.931388888888889, 0.9105555555555556, 0.9447222222222222, 0.9316666666666666, 0.9402777777777779, 0.9697222222222223, 0.9655555555555555, 0.97, 0.9697222222222223, 0.9697222222222223, 0.9613888888888888, 0.9572222222222223, 0.9616666666666667, 0.9697222222222223, 0.9397222222222222, 0.9491666666666667, 0.9444444444444446, 0.9275, 0.9152777777777779, 0.8972222222222224, 0.9402777777777779, 0.9147222222222222, 0.9230555555555556, 0.9402777777777779, 0.9191666666666667, 0.9400000000000001, 0.9358333333333334, 0.9400000000000001, 0.9400000000000001, 0.9488888888888891, 0.9574999999999999, 0.9483333333333335, 0.9488888888888891, 0.9491666666666667, 0.9491666666666667]</t>
+          <t>[0.9400000000000002, 0.9272222222222222, 0.9400000000000002, 0.9230555555555556, 0.9272222222222222, 0.9272222222222222, 0.9319444444444445, 0.915, 0.9441666666666666, 0.9275, 0.9361111111111111, 0.9402777777777779, 0.9230555555555556, 0.9572222222222223, 0.9230555555555556, 0.9275, 0.9488888888888891, 0.9316666666666666, 0.9316666666666666, 0.9230555555555556, 0.9525, 0.9525, 0.9697222222222223, 0.9400000000000001, 0.9441666666666666, 0.9188888888888889, 0.9572222222222223, 0.9525, 0.9525, 0.9741666666666667, 0.9358333333333333, 0.9275, 0.9530555555555555, 0.9572222222222223, 0.9658333333333333, 0.9572222222222223, 0.9655555555555555, 0.9316666666666666, 0.9275, 0.9572222222222223, 0.9441666666666666, 0.9525, 0.9400000000000001, 0.9402777777777779, 0.9441666666666666, 0.9100000000000001, 0.9525, 0.9483333333333335, 0.9441666666666666, 0.9441666666666666]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.018350160627681973, 0.042306203029990934, 0.03063121944908941, 0.024311507207823446, 0.038375580584340145, 0.0395713919609659, 0.06446240171268752, 0.03081956649617815, 0.03909666715611513, 0.04071695433563727, 0.020812952994365794, 0.024742501046270397, 0.042306203029990934, 0.03369021911768359, 0.038703925216449206, 0.042306203029990934, 0.06063323254527082, 0.03889285694041587, 0.05334056663912296, 0.024072293381437015, 0.0104453309316462, 0.009992280971447214, 0.021202288485845985, 0.0104453309316462, 0.0104453309316462, 0.01514844244937334, 0.026808074147655077, 0.024447600806320125, 0.0104453309316462, 0.0357524927905837, 0.03816387665687913, 0.027860986484710755, 0.0244602221808348, 0.04304211259673629, 0.05765478361830935, 0.024311507207823446, 0.04714536228713472, 0.04650268809434569, 0.024311507207823446, 0.048027448427635, 0.02364213647883691, 0.0259302245113666, 0.014943308507014207, 0.02364213647883691, 0.03069915750643556, 0.029470638244166323, 0.031296570237679025, 0.036402669146474054, 0.04274168751759636, 0.040660063216142954]</t>
+          <t>[0.03822246446951656, 0.038375580584340145, 0.03822246446951656, 0.050097127883963796, 0.05014331313198055, 0.027507013695949194, 0.04590482639570437, 0.038803477634655525, 0.038703925216449206, 0.030560605643277953, 0.03909666715611513, 0.03044170709510554, 0.04650268809434569, 0.03789809272376071, 0.04650268809434569, 0.030560605643277953, 0.036402669146474054, 0.02378854896222962, 0.029832350490741927, 0.04650268809434569, 0.024491747161285698, 0.024491747161285698, 0.0104453309316462, 0.02364213647883691, 0.038703925216449206, 0.03495588048164307, 0.03173725076971467, 0.024491747161285698, 0.024491747161285698, 0.016115899671511412, 0.018350160627681973, 0.0244602221808348, 0.03589035084741604, 0.030256108453755787, 0.021311186420907374, 0.01895006433423389, 0.009992280971447214, 0.02009621916409549, 0.0244602221808348, 0.02231577529821663, 0.038703925216449206, 0.024491747161285698, 0.02021107751509031, 0.03044170709510554, 0.038703925216449206, 0.051530585428150325, 0.024491747161285698, 0.031296570237679025, 0.01683709162299085, 0.038703925216449206]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35, 38, 36, 25, 42, 44, 47, 21, 33, 19, 17, 8, 38, 23, 24, 38, 49, 20, 37, 25, 2, 6, 1, 2, 2, 8, 11, 7, 2, 32, 12, 21, 41, 46, 50, 25, 48, 43, 25, 44, 29, 34, 29, 29, 15, 10, 18, 15, 12, 12]</t>
+          <t>[27, 41, 27, 44, 41, 41, 33, 49, 19, 37, 31, 25, 44, 5, 44, 37, 17, 34, 34, 44, 11, 11, 2, 29, 19, 48, 5, 11, 11, 1, 32, 37, 10, 5, 3, 5, 4, 34, 37, 5, 19, 11, 29, 25, 19, 50, 11, 18, 19, 19]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 4, 'min_samples_split': 12, 'n_estimators': 214}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 3, 'min_samples_split': 15, 'n_estimators': 65}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 10, 'n_estimators': 268}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 9, 'min_samples_split': 4, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 7, 'min_samples_split': 8, 'n_estimators': 288}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 9, 'n_estimators': 64}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 9, 'min_samples_split': 8, 'n_estimators': 77}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 2, 'min_samples_split': 14, 'n_estimators': 120}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 12, 'n_estimators': 93}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 8, 'n_estimators': 98}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 4, 'min_samples_split': 11, 'n_estimators': 131}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 2, 'min_samples_split': 8, 'n_estimators': 154}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 254}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 3, 'min_samples_split': 4, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 4, 'n_estimators': 149}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 142}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 202}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 132}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 8, 'min_samples_split': 2, 'n_estimators': 181}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 246}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 282}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 180}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 185}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 218}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 188}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 273}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 299}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 16, 'n_estimators': 249}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 18, 'n_estimators': 71}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 282}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 15, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 226}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 16, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 251}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 114}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 196}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 99}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 128}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 260}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 292}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 80}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 76})]</t>
+          <t>[OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 2, 'min_samples_split': 19, 'n_estimators': 161}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 8, 'min_samples_split': 9, 'n_estimators': 191}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 227}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 8, 'min_samples_split': 10, 'n_estimators': 66}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 6, 'min_samples_split': 3, 'n_estimators': 108}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 4, 'min_samples_split': 18, 'n_estimators': 95}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 7, 'min_samples_split': 5, 'n_estimators': 94}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 73}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 3, 'min_samples_split': 7, 'n_estimators': 120}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 3, 'min_samples_split': 13, 'n_estimators': 257}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 51}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 296}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 59}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 228}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 6, 'min_samples_split': 18, 'n_estimators': 291}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 68}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 18, 'n_estimators': 269}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 4, 'min_samples_split': 17, 'n_estimators': 288}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 8, 'min_samples_split': 20, 'n_estimators': 257}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 293}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 267}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 256}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 223}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 73}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 85}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 62}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 292}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 103}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 278}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 128}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 289}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 270}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 145}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 142}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 18, 'n_estimators': 139}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 285}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 266}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 15, 'n_estimators': 276}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 296}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 288}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 300})]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -702,27 +702,27 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9361111111111112, 0.9361111111111112, 0.8944444444444445, 0.9361111111111112, 0.9361111111111112, 0.8944444444444445, 0.8736111111111112, 0.9361111111111112, 0.9152777777777779, 0.9361111111111112, 0.9361111111111112, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9361111111111112, 0.9361111111111112, 0.9361111111111112, 0.9152777777777779, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9583333333333334, 0.9569444444444445, 0.9152777777777779, 0.8736111111111112, 0.8930555555555556, 0.9361111111111112, 0.8944444444444445, 0.9361111111111112, 0.9361111111111112, 0.8722222222222222, 0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9361111111111112, 0.9361111111111112, 0.9569444444444445, 0.9361111111111112, 0.9361111111111112, 0.9569444444444445]</t>
+          <t>[0.9361111111111112, 0.9361111111111112, 0.9361111111111112, 0.9152777777777779, 0.9361111111111112, 0.9361111111111112, 0.9152777777777779, 0.8944444444444445, 0.9569444444444445, 0.9361111111111112, 0.9152777777777779, 0.9569444444444445, 0.9361111111111112, 0.9791666666666666, 0.9361111111111112, 0.9361111111111112, 0.9361111111111112, 0.9361111111111112, 0.9361111111111112, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9152777777777779, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9152777777777779, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9152777777777779, 0.9152777777777779, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9361111111111112, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445]</t>
+          <t>[0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[0.9138888888888889, 0.9347222222222222, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9569444444444445, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9347222222222222, 0.9569444444444445, 0.9569444444444445, 0.9347222222222222, 0.9569444444444445, 0.9347222222222222, 0.9138888888888889, 0.9361111111111112, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9569444444444445, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9569444444444445]</t>
+          <t>[0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9138888888888889, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9138888888888889, 0.9138888888888889, 0.9569444444444445, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.9166666666666666, 0.8527777777777779, 0.9166666666666666, 0.9166666666666666, 0.8527777777777779, 0.8541666666666666, 0.8111111111111112, 0.8958333333333334, 0.875, 0.875, 0.9166666666666666, 0.9375, 0.8527777777777779, 0.8958333333333334, 0.8736111111111112, 0.8527777777777779, 0.7902777777777779, 0.8958333333333334, 0.8319444444444445, 0.9166666666666666, 0.9791666666666666, 0.9583333333333334, 0.9375, 0.9791666666666666, 0.9791666666666666, 0.9375, 0.9375, 0.9375, 0.9791666666666666, 0.8736111111111112, 0.875, 0.8958333333333334, 0.8958333333333334, 0.8541666666666666, 0.7902777777777779, 0.9166666666666666, 0.8319444444444445, 0.8319444444444445, 0.9166666666666666, 0.8541666666666666, 0.8958333333333334, 0.8958333333333334, 0.9166666666666666, 0.8958333333333334, 0.8958333333333334, 0.9166666666666666, 0.8944444444444445, 0.8958333333333334, 0.875, 0.875]</t>
+          <t>[0.8736111111111112, 0.8527777777777779, 0.8736111111111112, 0.8319444444444445, 0.8319444444444445, 0.875, 0.8541666666666666, 0.8541666666666666, 0.8736111111111112, 0.875, 0.875, 0.8958333333333334, 0.8319444444444445, 0.8944444444444445, 0.8319444444444445, 0.875, 0.8958333333333334, 0.8958333333333334, 0.875, 0.8319444444444445, 0.9152777777777779, 0.9152777777777779, 0.9791666666666666, 0.8958333333333334, 0.8736111111111112, 0.8541666666666666, 0.8958333333333334, 0.9152777777777779, 0.9152777777777779, 0.9791666666666666, 0.9166666666666666, 0.8958333333333334, 0.8958333333333334, 0.9583333333333334, 0.9375, 0.9791666666666666, 0.9583333333333334, 0.9166666666666666, 0.8958333333333334, 0.9166666666666666, 0.8736111111111112, 0.9152777777777779, 0.9166666666666666, 0.8958333333333334, 0.8736111111111112, 0.8111111111111112, 0.9152777777777779, 0.8944444444444445, 0.9375, 0.8736111111111112]</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 1.0, 0.9777777777777779, 1.0, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 1.0, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 1.0, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 1.0, 1.0, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 1.0, 0.9777777777777779, 1.0, 1.0, 1.0]</t>
+          <t>[0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 1.0, 0.9555555555555556, 0.9555555555555556, 1.0, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 1.0, 0.9555555555555556, 0.9555555555555556, 1.0, 1.0, 1.0, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9111111111111111, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779]</t>
         </is>
       </c>
     </row>
@@ -834,52 +834,52 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7744107744107743</v>
+        <v>0.8047138047138046</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8189890885750962</v>
+        <v>0.85</v>
       </c>
       <c r="F5" t="n">
-        <v>0.825</v>
+        <v>0.85</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8256222943722943</v>
+        <v>0.8570707070707071</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[[7, 0, 2], [0, 20, 0], [4, 1, 6]]</t>
+          <t>[[7, 0, 2], [0, 20, 0], [4, 0, 7]]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00844705333150613, 'max_iter': 3000, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0.6872222222222222, 0.6505555555555556, 0.7422222222222222, 0.6322222222222222, 0.6997222222222222, 0.8122222222222224, 0.7561111111111112, 0.6027777777777777, 0.7386111111111112, 0.9358333333333334, 0.9316666666666666, 0.9316666666666666, 0.9316666666666666, 0.7391666666666665, 0.7211111111111111, 0.7230555555555556, 0.68, 0.7958333333333334, 0.9316666666666666, 0.8358333333333332, 0.9319444444444445, 0.7044444444444444, 0.9274999999999999, 0.8, 0.7291666666666667, 0.7527777777777779, 0.7097222222222224, 0.5430555555555555, 0.5255555555555557, 0.5255555555555557, 0.9402777777777777, 0.9358333333333334, 0.8694444444444442, 0.4530555555555556, 0.5399999999999999, 0.5988888888888888, 0.5988888888888888, 0.4530555555555556, 0.5988888888888888, 0.5988888888888888, 0.9402777777777777, 0.9319444444444445, 0.9402777777777779, 0.9402777777777779, 0.9402777777777779, 0.9402777777777779, 0.9316666666666666, 0.8286111111111112, 0.8205555555555556, 0.7916666666666667]</t>
+          <t>[0.9272222222222222, 0.5955555555555556, 0.6786111111111112, 0.6477777777777778, 0.8447222222222223, 0.6505555555555556, 0.6069444444444445, 0.7394444444444445, 0.6497222222222223, 0.593888888888889, 0.9402777777777777, 0.9316666666666666, 0.9316666666666666, 0.8286111111111112, 0.8244444444444443, 0.8163888888888889, 0.9319444444444445, 0.9319444444444445, 0.9358333333333334, 0.861111111111111, 0.7683333333333333, 0.826388888888889, 0.7958333333333333, 0.8308333333333333, 0.9316666666666666, 0.8399999999999999, 0.9402777777777777, 0.7880555555555555, 0.9402777777777777, 0.9402777777777777, 0.931388888888889, 0.9358333333333334, 0.9361111111111111, 0.9361111111111111, 0.9402777777777777, 0.768888888888889, 0.7652777777777777, 0.7894444444444445, 0.6997222222222222, 0.7561111111111112, 0.9358333333333334, 0.8122222222222222, 0.7875000000000001, 0.7958333333333334, 0.8122222222222222, 0.8083333333333333, 0.8002777777777779, 0.7186111111111111, 0.783888888888889, 0.7488888888888889]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[0.0509962477438352, 0.022405494255639785, 0.07571979697754734, 0.016882857110025302, 0.07662539146577951, 0.04615961304585656, 0.054860935302109295, 0.03008475681458291, 0.054676376734742634, 0.023625812416627725, 0.02846917327848659, 0.02846917327848659, 0.02846917327848659, 0.064754998853704, 0.06885527853923801, 0.13201489347329504, 0.05746442807361057, 0.07290277645477443, 0.028671726512970414, 0.09005485296867619, 0.028504385627478483, 0.06867012756470672, 0.03994015585075647, 0.0935290606452625, 0.10363382235449235, 0.07755424226840955, 0.07380739030881349, 0.0972856935671402, 0.06534334768298726, 0.06534334768298726, 0.03650427000222113, 0.023625812416627725, 0.13550033028067807, 0.13005637429140934, 0.06222098213049963, 0.04817182466295028, 0.04817182466295028, 0.13005637429140934, 0.04817182466295028, 0.04817182466295028, 0.03650427000222113, 0.036819965732509986, 0.02504625350855524, 0.02504625350855524, 0.02504625350855524, 0.02504625350855524, 0.02475808883906356, 0.08905626602613946, 0.025495097567963948, 0.058379611272649665]</t>
+          <t>[0.029141523554229807, 0.06977366406840664, 0.05403188359149112, 0.08631517040460099, 0.10870094324212827, 0.031212631979083878, 0.02481412381569699, 0.0872620220590101, 0.030217830563272076, 0.06546721920261668, 0.03650427000222113, 0.02846917327848659, 0.02846917327848659, 0.08905626602613946, 0.09019269494932629, 0.050379730884063084, 0.036819965732509986, 0.028504385627478483, 0.023625812416627725, 0.1337810769249892, 0.10692965265670673, 0.11304565886248936, 0.08538221979305834, 0.08822844926246443, 0.02846917327848659, 0.09441747981082296, 0.03650427000222113, 0.08322029370262173, 0.03650427000222113, 0.03650427000222113, 0.024947475688130813, 0.023625812416627725, 0.035702820029021386, 0.035702820029021386, 0.03650427000222113, 0.0568026690383167, 0.06356803490535473, 0.11311594073950286, 0.07662539146577951, 0.054860935302109295, 0.023625812416627725, 0.044064346888007644, 0.056245713142546075, 0.06080732574449833, 0.044064346888007644, 0.04985317949913366, 0.10940142978730291, 0.0430833243785362, 0.024823450680832117, 0.08047601437005246]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[36, 38, 27, 39, 35, 21, 25, 40, 29, 7, 11, 11, 11, 28, 32, 31, 37, 23, 11, 18, 9, 34, 16, 22, 30, 26, 33, 45, 47, 47, 5, 7, 17, 49, 46, 41, 41, 49, 41, 41, 5, 9, 1, 1, 1, 1, 11, 19, 20, 24]</t>
+          <t>[17, 49, 44, 47, 19, 45, 48, 41, 46, 50, 1, 13, 13, 22, 24, 25, 11, 11, 8, 18, 37, 23, 31, 21, 13, 20, 1, 33, 1, 1, 16, 8, 6, 6, 1, 36, 38, 32, 43, 39, 8, 26, 34, 30, 26, 28, 29, 42, 35, 40]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'relu', 'alpha': 0.014878689389234652, 'learning_rate_init': 0.0014318988305647626, 'max_iter': 1659, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.017377155784060114, 'learning_rate_init': 0.00029505465478646046, 'max_iter': 1711, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00020691533807530962, 'learning_rate_init': 0.0011735407798482704, 'max_iter': 1746, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.016672148120176002, 'learning_rate_init': 0.00031542722426747277, 'max_iter': 1688, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00033755199773512624, 'learning_rate_init': 0.0017027848967688375, 'max_iter': 1732, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 4.54595222425194e-06, 'learning_rate_init': 0.006565592370038068, 'max_iter': 2113, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.2157769276445386e-05, 'learning_rate_init': 0.001701120511945232, 'max_iter': 2698, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.03193391646918447, 'learning_rate_init': 0.0003475889598304099, 'max_iter': 2639, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.2749654723509801e-06, 'learning_rate_init': 0.0006654415325954039, 'max_iter': 2518, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00013820520524203926, 'learning_rate_init': 0.006301027414300954, 'max_iter': 757, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0001398343056308961, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 4.458581106307587e-06, 'learning_rate_init': 0.01, 'max_iter': 2043, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0017217788601177864, 'max_iter': 711, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0020339386169011494, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00043252444748442955, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.004529548924495064, 'learning_rate_init': 0.0017657117394486391, 'max_iter': 591, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 3.4034839779618435e-06, 'learning_rate_init': 0.0023126279463789195, 'max_iter': 1944, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.479179508120822e-05, 'learning_rate_init': 0.005662348948519317, 'max_iter': 2013, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.003715751838250172, 'learning_rate_init': 0.0035209541098773414, 'max_iter': 540, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.007370703091531791, 'max_iter': 1550, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0015937584289168099, 'learning_rate_init': 0.00817486187959874, 'max_iter': 2172, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.007039594911400153, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008012464637010953, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006583781772145178, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.1703481247291523e-05, 'learning_rate_init': 0.006537390276411694, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00595377440449121, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 1001, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 2875, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0004111250015012657, 'learning_rate_init': 0.0001, 'max_iter': 817, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0006798946369070556, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.00858131330169139, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00844705333150613, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008481001306391768, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008364905161826081, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008414401208279161, 'max_iter': 2005, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00897649240314867, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.06279244070566378, 'learning_rate_init': 0.01, 'max_iter': 2492, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0018470917613020801, 'learning_rate_init': 0.002823635606475169, 'max_iter': 2720, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0032813902804243477, 'max_iter': 3000, 'solver': 'adam'})]</t>
+          <t>[OrderedDict({'activation': 'relu', 'alpha': 5.2065583969659925e-06, 'learning_rate_init': 0.00950682287036787, 'max_iter': 1246, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.91099200986734e-05, 'learning_rate_init': 0.00013997096984791877, 'max_iter': 1364, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 9.285448179286567e-06, 'learning_rate_init': 0.0006251278237812581, 'max_iter': 1815, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.6150222923331137e-06, 'learning_rate_init': 0.00025168692403614766, 'max_iter': 1624, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.148380888565432e-05, 'learning_rate_init': 0.003215669891179015, 'max_iter': 749, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.004562354154295323, 'learning_rate_init': 0.004390045457130351, 'max_iter': 1629, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.3678596044088074e-05, 'learning_rate_init': 0.00024192385279992408, 'max_iter': 2597, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.008403106035092358, 'learning_rate_init': 0.007360393397641942, 'max_iter': 1528, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 8.145962188515403e-06, 'learning_rate_init': 0.0006478977523794662, 'max_iter': 2456, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.0539141778633636e-06, 'learning_rate_init': 0.000102063633389998, 'max_iter': 2541, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.3866033712036697e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.024990044008508034, 'learning_rate_init': 0.01, 'max_iter': 1564, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 2.4165110185338845e-06, 'learning_rate_init': 0.009845222802526407, 'max_iter': 2233, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.006589282444475276, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.7382707956332452e-06, 'learning_rate_init': 0.007652367288573111, 'max_iter': 2901, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.007815015286925749, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.2968342815557137e-06, 'learning_rate_init': 0.005248266964993388, 'max_iter': 859, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.012194763213002053, 'learning_rate_init': 0.005753698526369912, 'max_iter': 610, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.2265002625954742e-06, 'learning_rate_init': 0.0029681103710564017, 'max_iter': 2951, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.004198410337424963, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 3.5840189877834698e-06, 'learning_rate_init': 0.0026798604744482854, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.003183612494545362, 'max_iter': 1626, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0035565125614711226, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 3.425072423955784e-05, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.003317223448888553, 'max_iter': 1745, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0003636643157625249, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006214379103625282, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006437542640779071, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.6011135482948003e-06, 'learning_rate_init': 0.009080523251388369, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 3.2075252965356285e-06, 'learning_rate_init': 0.009227241504074234, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0015860466947830562, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0015323286520096072, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0018591797976630026, 'max_iter': 1282, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0017225973141348373, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0016800962010754975, 'max_iter': 510, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006431099588517067, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.002690507140760775, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0023506988633011875, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.00345317869329721, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0027129060791109094, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0030710516745747407, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00497524144415542, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0010893470267051006, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0010797999492925905, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0010445367314144134, 'max_iter': 500, 'solver': 'adam'})]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>0.825</v>
+        <v>0.85</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -888,27 +888,27 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6124999999999999, 0.65, 0.6277777777777778, 0.6458333333333334, 0.6055555555555555, 0.7847222222222222, 0.6708333333333334, 0.6055555555555555, 0.65, 0.9375, 0.9375, 0.9375, 0.9375, 0.625, 0.6041666666666666, 0.6041666666666666, 0.6041666666666666, 0.85, 0.9375, 0.9152777777777779, 0.9375, 0.6055555555555555, 0.9375, 0.625, 0.6055555555555555, 0.625, 0.625, 0.625, 0.4791666666666667, 0.4791666666666667, 0.9375, 0.9375, 0.6055555555555555, 0.3333333333333333, 0.46388888888888885, 0.5430555555555555, 0.5430555555555555, 0.3333333333333333, 0.5430555555555555, 0.5430555555555555, 0.9375, 0.9375, 0.9375, 0.9375, 0.9375, 0.9375, 0.9152777777777779, 0.7833333333333333, 0.8055555555555555, 0.7013888888888888]</t>
+          <t>[0.9375, 0.5416666666666666, 0.6666666666666666, 0.6041666666666666, 0.6486111111111111, 0.5944444444444444, 0.6055555555555555, 0.625, 0.6055555555555555, 0.65, 0.9375, 0.9375, 0.9375, 0.7833333333333333, 0.7833333333333333, 0.7847222222222222, 0.9375, 0.9375, 0.9375, 0.6055555555555555, 0.6472222222222223, 0.9375, 0.85, 0.9375, 0.9375, 0.9375, 0.9375, 0.7666666666666666, 0.9375, 0.9375, 0.9375, 0.9375, 0.9375, 0.9375, 0.9375, 0.6708333333333334, 0.65, 0.6277777777777778, 0.6055555555555555, 0.6708333333333334, 0.9375, 0.7847222222222222, 0.7027777777777778, 0.7027777777777778, 0.7847222222222222, 0.7847222222222222, 0.7652777777777778, 0.7847222222222222, 0.8277777777777778, 0.6041666666666666]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.7611111111111111, 0.6444444444444445, 0.8319444444444445, 0.6444444444444445, 0.8319444444444445, 0.8527777777777779, 0.7694444444444445, 0.6236111111111111, 0.7694444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.8055555555555555, 0.7374999999999999, 0.8472222222222222, 0.65, 0.7361111111111112, 0.9777777777777779, 0.8055555555555555, 0.9777777777777779, 0.8111111111111112, 0.9569444444444445, 0.8041666666666667, 0.9152777777777779, 0.7597222222222223, 0.7166666666666667, 0.3541666666666667, 0.6236111111111111, 0.6236111111111111, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.3541666666666667, 0.5611111111111111, 0.6444444444444445, 0.6444444444444445, 0.3541666666666667, 0.6444444444444445, 0.6444444444444445, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.8527777777777779, 0.8527777777777779]</t>
+          <t>[0.9777777777777779, 0.6319444444444444, 0.6861111111111112, 0.7847222222222222, 0.9569444444444445, 0.6861111111111112, 0.6236111111111111, 0.7597222222222223, 0.6236111111111111, 0.5805555555555556, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.8736111111111112, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.7361111111111112, 0.7361111111111112, 0.7361111111111112, 0.7361111111111112, 0.9777777777777779, 0.8041666666666667, 0.9569444444444445, 0.7361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.8319444444444445, 0.7902777777777779, 0.9777777777777779, 0.8319444444444445, 0.7694444444444445, 0.9777777777777779, 0.8736111111111112, 0.8527777777777779, 0.8527777777777779, 0.8736111111111112, 0.8527777777777779, 0.7347222222222222, 0.6861111111111112, 0.7805555555555556, 0.8472222222222222]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[0.7041666666666666, 0.6430555555555556, 0.7472222222222222, 0.6027777777777777, 0.6625, 0.7416666666666667, 0.725, 0.5805555555555556, 0.7472222222222222, 0.9125, 0.9125, 0.9125, 0.9125, 0.7152777777777778, 0.6930555555555555, 0.5569444444444445, 0.7458333333333332, 0.6944444444444445, 0.8916666666666666, 0.6722222222222222, 0.8916666666666666, 0.6625, 0.8722222222222222, 0.8902777777777778, 0.6833333333333332, 0.8486111111111111, 0.7666666666666666, 0.6027777777777777, 0.4930555555555555, 0.4930555555555555, 0.8722222222222222, 0.9125, 0.9138888888888889, 0.3541666666666667, 0.5375, 0.5791666666666667, 0.5791666666666667, 0.3541666666666667, 0.5791666666666667, 0.5791666666666667, 0.8722222222222222, 0.8722222222222222, 0.9125, 0.9125, 0.9125, 0.9125, 0.9125, 0.6986111111111111, 0.7861111111111111, 0.7444444444444445]</t>
+          <t>[0.8916666666666666, 0.5277777777777778, 0.6027777777777777, 0.5569444444444445, 0.9138888888888889, 0.6625, 0.5805555555555556, 0.8486111111111111, 0.6625, 0.6430555555555556, 0.8722222222222222, 0.9125, 0.9125, 0.6986111111111111, 0.6986111111111111, 0.7416666666666667, 0.8722222222222222, 0.8916666666666666, 0.9125, 0.8722222222222222, 0.6722222222222222, 0.65, 0.6722222222222222, 0.7166666666666667, 0.9125, 0.6722222222222222, 0.8722222222222222, 0.6722222222222222, 0.8722222222222222, 0.8722222222222222, 0.9125, 0.9125, 0.8722222222222222, 0.8722222222222222, 0.8722222222222222, 0.7472222222222222, 0.7472222222222222, 0.7472222222222222, 0.6625, 0.725, 0.9125, 0.7444444444444445, 0.7666666666666666, 0.7444444444444445, 0.7444444444444445, 0.7222222222222222, 0.65, 0.7055555555555556, 0.7597222222222223, 0.7388888888888889]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.7069444444444445, 0.6236111111111111, 0.8125, 0.6236111111111111, 0.7277777777777779, 0.8125, 0.8333333333333334, 0.5597222222222222, 0.8125, 0.9375, 0.9375, 0.9375, 0.9375, 0.7888888888888889, 0.7666666666666666, 0.8958333333333334, 0.7486111111111112, 0.8944444444444445, 0.9375, 0.8944444444444445, 0.9152777777777779, 0.7277777777777779, 0.9791666666666666, 0.8111111111111112, 0.7486111111111112, 0.8111111111111112, 0.8111111111111112, 0.5777777777777778, 0.45138888888888884, 0.45138888888888884, 0.9791666666666666, 0.9375, 0.9791666666666666, 0.6236111111111111, 0.4930555555555555, 0.5611111111111111, 0.5611111111111111, 0.6236111111111111, 0.5611111111111111, 0.5611111111111111, 0.9791666666666666, 0.9791666666666666, 0.9152777777777779, 0.9152777777777779, 0.9152777777777779, 0.9152777777777779, 0.9152777777777779, 0.8125, 0.8111111111111112, 0.8319444444444445]</t>
+          <t>[0.9152777777777779, 0.5611111111111111, 0.7708333333333334, 0.5819444444444445, 0.8125, 0.6430555555555556, 0.5805555555555556, 0.8111111111111112, 0.6861111111111112, 0.47222222222222215, 0.9791666666666666, 0.9375, 0.9375, 0.8125, 0.7916666666666666, 0.8125, 0.9791666666666666, 0.9152777777777779, 0.9375, 0.9791666666666666, 0.9166666666666666, 0.8944444444444445, 0.9166666666666666, 0.8944444444444445, 0.9375, 0.8944444444444445, 0.9791666666666666, 0.8736111111111112, 0.9791666666666666, 0.9791666666666666, 0.9152777777777779, 0.9375, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.8125, 0.8125, 0.8125, 0.7277777777777779, 0.8333333333333334, 0.9375, 0.8319444444444445, 0.7680555555555556, 0.8319444444444445, 0.8319444444444445, 0.8541666666666666, 0.9375, 0.75, 0.7902777777777779, 0.7708333333333334]</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[0.6513888888888889, 0.6916666666666668, 0.6916666666666668, 0.6444444444444445, 0.6708333333333334, 0.8694444444444445, 0.7819444444444444, 0.6444444444444445, 0.7138888888888889, 0.9138888888888889, 0.8930555555555556, 0.8930555555555556, 0.8930555555555556, 0.7611111111111111, 0.8041666666666667, 0.7111111111111111, 0.6513888888888889, 0.8041666666666667, 0.9138888888888889, 0.8916666666666666, 0.9375, 0.7152777777777778, 0.8916666666666666, 0.8694444444444445, 0.6930555555555555, 0.7194444444444444, 0.6291666666666667, 0.5555555555555555, 0.5805555555555556, 0.5805555555555556, 0.9555555555555556, 0.9138888888888889, 0.8916666666666666, 0.6, 0.6444444444444445, 0.6666666666666666, 0.6666666666666666, 0.6, 0.6666666666666666, 0.6666666666666666, 0.9555555555555556, 0.9138888888888889, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9375, 0.8916666666666666, 0.8472222222222222, 0.8277777777777778]</t>
+          <t>[0.9138888888888889, 0.7152777777777777, 0.6666666666666666, 0.7111111111111111, 0.8916666666666666, 0.6666666666666666, 0.6444444444444445, 0.6527777777777778, 0.6708333333333334, 0.6236111111111111, 0.9555555555555556, 0.8930555555555556, 0.8930555555555556, 0.8916666666666666, 0.8916666666666666, 0.8694444444444445, 0.9138888888888889, 0.9375, 0.9138888888888889, 0.8916666666666666, 0.8694444444444445, 0.9138888888888889, 0.8041666666666667, 0.8694444444444445, 0.8930555555555556, 0.8916666666666666, 0.9555555555555556, 0.8916666666666666, 0.9555555555555556, 0.9555555555555556, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9555555555555556, 0.7819444444444444, 0.826388888888889, 0.7819444444444444, 0.6708333333333334, 0.7819444444444444, 0.9138888888888889, 0.8263888888888888, 0.8472222222222222, 0.8472222222222222, 0.8263888888888888, 0.8277777777777778, 0.9138888888888889, 0.6666666666666666, 0.7611111111111111, 0.7833333333333333]</t>
         </is>
       </c>
     </row>
@@ -1020,52 +1020,52 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8183501683501685</v>
+        <v>0.7609427609427609</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8542032967032966</v>
+        <v>0.8197342258748674</v>
       </c>
       <c r="F7" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8631818181818183</v>
+        <v>0.8202380952380952</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[[7, 0, 2], [1, 19, 0], [3, 0, 8]]</t>
+          <t>[[5, 0, 4], [0, 20, 0], [2, 1, 8]]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 22, 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 9})</t>
+          <t>OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0.8077777777777777, 0.8227777777777778, 0.9183333333333333, 0.8544444444444445, 0.8058333333333334, 0.8975000000000002, 0.8208333333333334, 0.8408333333333333, 0.8119444444444444, 0.8150000000000001, 0.7738888888888888, 0.7333333333333333, 0.8541666666666667, 0.7277777777777777, 0.7955555555555557, 0.7544444444444445, 0.85, 0.5186111111111111, 0.5877777777777777, 0.7911111111111111, 0.6722222222222223, 0.7738888888888888, 0.8594444444444445, 0.5061111111111111, 0.5061111111111111, 0.7997222222222222, 0.85, 0.7544444444444445, 0.8444444444444444, 0.7608333333333334, 0.7911111111111111, 0.5061111111111111, 0.5186111111111111, 0.7333333333333333, 0.8258333333333333, 0.5186111111111111, 0.8397222222222223, 0.8375, 0.5877777777777777, 0.7327777777777778, 0.5877777777777777, 0.7738888888888888, 0.8247222222222221, 0.7991666666666666, 0.7911111111111111, 0.8838888888888888, 0.8541666666666667, 0.5061111111111111, 0.7327777777777778, 0.6597222222222222]</t>
+          <t>[0.8019444444444443, 0.7530555555555556, 0.8897222222222222, 0.7930555555555555, 0.7947222222222222, 0.7680555555555555, 0.6722222222222223, 0.818611111111111, 0.7502777777777777, 0.8119444444444444, 0.8550000000000001, 0.7738888888888888, 0.8927777777777777, 0.5186111111111111, 0.7911111111111111, 0.8658333333333333, 0.7319444444444444, 0.7911111111111111, 0.85, 0.5877777777777777, 0.8594444444444445, 0.7655555555555555, 0.7738888888888888, 0.7677777777777778, 0.8486111111111112, 0.7683333333333333, 0.7377777777777778, 0.8541666666666667, 0.8211111111111112, 0.7608333333333334, 0.5877777777777777, 0.7738888888888888, 0.8211111111111112, 0.7333333333333333, 0.5061111111111111, 0.8444444444444444, 0.8594444444444445, 0.7911111111111111, 0.5061111111111111, 0.5186111111111111, 0.8583333333333334, 0.5877777777777777, 0.7911111111111111, 0.5186111111111111, 0.5186111111111111, 0.7333333333333333, 0.8927777777777777, 0.7319444444444444, 0.8116666666666665, 0.6322222222222222]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.07558210317917635, 0.06060777564913432, 0.0499026830719329, 0.053028643552678584, 0.08339072098068834, 0.04126098806139365, 0.07401096848974568, 0.05126185499743231, 0.05099019513592785, 0.06563671999990309, 0.05786451822261902, 0.05309117477986498, 0.0763510007049153, 0.05536773807690799, 0.04454329285393714, 0.05772433425715796, 0.06581633629621747, 0.06404931549060315, 0.04818783976517903, 0.042732660189994984, 0.07682953714410738, 0.05786451822261902, 0.0691181221881412, 0.05699252712547627, 0.05699252712547627, 0.046641858485302244, 0.07910572703276746, 0.05772433425715796, 0.050947806747157244, 0.07967139301027398, 0.042732660189994984, 0.05699252712547627, 0.06404931549060315, 0.05309117477986498, 0.05641419793274618, 0.06404931549060315, 0.04489872004554689, 0.09302445583133528, 0.04818783976517903, 0.05234176624672843, 0.04818783976517903, 0.05786451822261902, 0.08193926537305875, 0.13535390283381443, 0.042732660189994984, 0.05562911796381551, 0.0763510007049153, 0.05699252712547627, 0.05234176624672843, 0.07890062510509852]</t>
+          <t>[0.078575276481054, 0.08595595340595048, 0.047835881981398355, 0.04301521407566523, 0.06127125481550599, 0.05429116746025575, 0.07682953714410738, 0.06637435917246626, 0.0488320376518794, 0.05099019513592785, 0.04784394642874418, 0.05786451822261902, 0.038524082575339895, 0.06404931549060315, 0.042732660189994984, 0.06987974679651952, 0.06422015567609388, 0.042732660189994984, 0.06581633629621747, 0.04818783976517903, 0.0691181221881412, 0.07703714832613048, 0.05786451822261902, 0.06583626341346323, 0.04850384991719859, 0.07810150881392978, 0.05791783238901448, 0.0763510007049153, 0.06631504493842394, 0.07967139301027398, 0.04818783976517903, 0.05786451822261902, 0.06631504493842394, 0.05309117477986498, 0.05699252712547627, 0.050947806747157244, 0.0691181221881412, 0.042732660189994984, 0.05699252712547627, 0.06404931549060315, 0.07900812585182165, 0.04818783976517903, 0.042732660189994984, 0.06404931549060315, 0.06404931549060315, 0.05309117477986498, 0.038524082575339895, 0.06422015567609388, 0.08573664097069746, 0.01724460910574309]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[20, 16, 1, 5, 21, 2, 17, 11, 19, 18, 28, 34, 6, 38, 24, 32, 8, 44, 41, 25, 39, 28, 4, 47, 47, 22, 8, 32, 10, 31, 25, 47, 44, 34, 14, 44, 12, 13, 41, 36, 41, 28, 15, 23, 25, 3, 6, 47, 36, 40]</t>
+          <t>[18, 33, 3, 20, 19, 29, 40, 15, 34, 16, 8, 25, 1, 45, 21, 4, 38, 21, 10, 42, 5, 31, 25, 30, 11, 28, 35, 9, 13, 32, 42, 25, 13, 36, 49, 12, 5, 21, 49, 45, 7, 42, 21, 45, 45, 36, 1, 38, 17, 41]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 13}), OrderedDict({'criterion': 'gini', 'max_depth': 17, 'max_features': 'log2', 'min_samples_leaf': 13, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 22, 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 9}), OrderedDict({'criterion': 'gini', 'max_depth': 74, 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 24}), OrderedDict({'criterion': 'entropy', 'max_depth': 74, 'max_features': 'log2', 'min_samples_leaf': 11, 'min_samples_split': 43}), OrderedDict({'criterion': 'entropy', 'max_depth': 50, 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 20}), OrderedDict({'criterion': 'gini', 'max_depth': 28, 'max_features': None, 'min_samples_leaf': 8, 'min_samples_split': 24}), OrderedDict({'criterion': 'gini', 'max_depth': 63, 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 29}), OrderedDict({'criterion': 'gini', 'max_depth': 24, 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 28}), OrderedDict({'criterion': 'gini', 'max_depth': 84, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 33}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': 'sqrt', 'min_samples_leaf': 18, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 92, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 87, 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 43}), OrderedDict({'criterion': 'gini', 'max_depth': 44, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 45, 'max_features': None, 'min_samples_leaf': 9, 'min_samples_split': 8}), OrderedDict({'criterion': 'gini', 'max_depth': 48, 'max_features': 'log2', 'min_samples_leaf': 17, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 6, 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 91, 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 42}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 9}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 40}), OrderedDict({'criterion': 'gini', 'max_depth': 27, 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 37}), OrderedDict({'criterion': 'gini', 'max_depth': 58, 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 31}), OrderedDict({'criterion': 'entropy', 'max_depth': 7, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 88, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 45}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 45}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 9, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50})]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>0.85</v>
+        <v>0.825</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1074,27 +1074,27 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.7875, 0.8680555555555555, 0.8277777777777778, 0.8291666666666666, 0.7847222222222222, 0.8277777777777778, 0.7875, 0.8083333333333332, 0.7888888888888889, 0.8486111111111111, 0.8319444444444445, 0.7847222222222222, 0.9375, 0.7652777777777778, 0.8097222222222222, 0.7638888888888888, 0.8513888888888889, 0.5208333333333334, 0.625, 0.8097222222222222, 0.7069444444444445, 0.8319444444444445, 0.9152777777777779, 0.5208333333333334, 0.5208333333333334, 0.8097222222222222, 0.9375, 0.7638888888888888, 0.8902777777777778, 0.7652777777777778, 0.8097222222222222, 0.5208333333333334, 0.5208333333333334, 0.7847222222222222, 0.7902777777777779, 0.5208333333333334, 0.8902777777777778, 0.9375, 0.625, 0.7847222222222222, 0.625, 0.8319444444444445, 0.7666666666666666, 0.9166666666666666, 0.8097222222222222, 0.8930555555555556, 0.9375, 0.5208333333333334, 0.7847222222222222, 0.5958333333333333]</t>
+          <t>[0.7847222222222222, 0.7055555555555556, 0.8305555555555556, 0.8472222222222222, 0.7694444444444445, 0.7638888888888888, 0.7069444444444445, 0.8902777777777778, 0.7861111111111111, 0.7888888888888889, 0.8111111111111112, 0.8319444444444445, 0.85, 0.5208333333333334, 0.8097222222222222, 0.9375, 0.8319444444444445, 0.8097222222222222, 0.8513888888888889, 0.625, 0.9152777777777779, 0.7472222222222222, 0.8319444444444445, 0.8305555555555556, 0.8902777777777778, 0.8319444444444445, 0.8069444444444445, 0.9375, 0.8111111111111112, 0.7652777777777778, 0.625, 0.8319444444444445, 0.8111111111111112, 0.7847222222222222, 0.5208333333333334, 0.8902777777777778, 0.9152777777777779, 0.8097222222222222, 0.5208333333333334, 0.5208333333333334, 0.9152777777777779, 0.625, 0.8097222222222222, 0.5208333333333334, 0.5208333333333334, 0.7847222222222222, 0.85, 0.8319444444444445, 0.9152777777777779, 0.625]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.8930555555555556, 0.8916666666666666, 0.9777777777777779, 0.9569444444444445, 0.9138888888888889, 0.9361111111111112, 0.9361111111111112, 0.9333333333333332, 0.9138888888888889, 0.8944444444444445, 0.8250000000000001, 0.8055555555555555, 0.9555555555555556, 0.8027777777777777, 0.8527777777777779, 0.8250000000000001, 0.8930555555555556, 0.6, 0.6444444444444445, 0.8527777777777779, 0.7819444444444444, 0.8250000000000001, 0.8111111111111112, 0.6, 0.6, 0.8708333333333332, 0.9555555555555556, 0.8250000000000001, 0.9152777777777779, 0.8736111111111112, 0.8527777777777779, 0.6, 0.6, 0.8055555555555555, 0.9152777777777779, 0.6, 0.8916666666666666, 0.9555555555555556, 0.6444444444444445, 0.8027777777777777, 0.6444444444444445, 0.8250000000000001, 0.9569444444444445, 0.8916666666666666, 0.8527777777777779, 0.9777777777777779, 0.9555555555555556, 0.6, 0.8027777777777777, 0.8083333333333332]</t>
+          <t>[0.8944444444444445, 0.8736111111111112, 0.9361111111111112, 0.8055555555555555, 0.9138888888888889, 0.8083333333333332, 0.7819444444444444, 0.8916666666666666, 0.8083333333333332, 0.9138888888888889, 0.9152777777777779, 0.8250000000000001, 0.9569444444444445, 0.6, 0.8527777777777779, 0.9555555555555556, 0.7847222222222222, 0.8527777777777779, 0.8930555555555556, 0.6444444444444445, 0.8111111111111112, 0.8736111111111112, 0.8250000000000001, 0.8513888888888889, 0.9152777777777779, 0.8666666666666667, 0.8055555555555555, 0.9555555555555556, 0.9152777777777779, 0.8736111111111112, 0.6444444444444445, 0.8250000000000001, 0.9152777777777779, 0.8055555555555555, 0.6, 0.9152777777777779, 0.8111111111111112, 0.8527777777777779, 0.6, 0.6, 0.8916666666666666, 0.6444444444444445, 0.8527777777777779, 0.6, 0.6, 0.8055555555555555, 0.9569444444444445, 0.7847222222222222, 0.8916666666666666, 0.6444444444444445]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[0.8930555555555556, 0.8069444444444445, 0.9361111111111112, 0.85, 0.8722222222222222, 0.9138888888888889, 0.8708333333333332, 0.85, 0.7861111111111111, 0.8277777777777778, 0.7902777777777779, 0.7194444444444444, 0.7875, 0.7416666666666667, 0.7680555555555556, 0.8055555555555555, 0.8930555555555556, 0.5777777777777778, 0.6013888888888889, 0.7680555555555556, 0.7013888888888888, 0.7902777777777779, 0.9555555555555556, 0.5152777777777778, 0.5152777777777778, 0.7888888888888889, 0.7875, 0.8055555555555555, 0.8069444444444445, 0.8097222222222222, 0.7680555555555556, 0.5152777777777778, 0.5777777777777778, 0.7194444444444444, 0.7888888888888889, 0.5777777777777778, 0.8069444444444445, 0.7875, 0.6013888888888889, 0.7194444444444444, 0.6013888888888889, 0.7902777777777779, 0.8708333333333332, 0.9138888888888889, 0.7680555555555556, 0.8291666666666666, 0.7875, 0.5152777777777778, 0.7194444444444444, 0.6611111111111111]</t>
+          <t>[0.8722222222222222, 0.8305555555555556, 0.9138888888888889, 0.7861111111111111, 0.7652777777777778, 0.7652777777777778, 0.7013888888888888, 0.7861111111111111, 0.7652777777777778, 0.7861111111111111, 0.7888888888888889, 0.7902777777777779, 0.9152777777777779, 0.5777777777777778, 0.7680555555555556, 0.85, 0.6833333333333332, 0.7680555555555556, 0.8930555555555556, 0.6013888888888889, 0.9555555555555556, 0.8305555555555556, 0.7902777777777779, 0.7625000000000001, 0.8277777777777778, 0.7875, 0.7194444444444444, 0.7875, 0.7888888888888889, 0.8097222222222222, 0.6013888888888889, 0.7902777777777779, 0.7888888888888889, 0.7194444444444444, 0.5152777777777778, 0.8069444444444445, 0.9555555555555556, 0.7680555555555556, 0.5152777777777778, 0.5777777777777778, 0.8930555555555556, 0.6013888888888889, 0.7680555555555556, 0.5777777777777778, 0.5777777777777778, 0.7194444444444444, 0.9152777777777779, 0.6833333333333332, 0.8083333333333332, 0.6013888888888889]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[0.7666666666666666, 0.8305555555555556, 0.9375, 0.8291666666666666, 0.7861111111111111, 0.875, 0.725, 0.8291666666666666, 0.7861111111111111, 0.8069444444444445, 0.7472222222222222, 0.6819444444444445, 0.8111111111111112, 0.6569444444444444, 0.725, 0.7027777777777778, 0.7222222222222222, 0.4375, 0.5569444444444445, 0.725, 0.5986111111111111, 0.7472222222222222, 0.8513888888888889, 0.4375, 0.4375, 0.725, 0.7902777777777779, 0.7027777777777778, 0.8305555555555556, 0.6402777777777778, 0.725, 0.4375, 0.4375, 0.6819444444444445, 0.7666666666666666, 0.4375, 0.8305555555555556, 0.7902777777777779, 0.5569444444444445, 0.6819444444444445, 0.5569444444444445, 0.7472222222222222, 0.7236111111111111, 0.5958333333333333, 0.725, 0.8944444444444445, 0.8111111111111112, 0.4375, 0.6819444444444445, 0.6416666666666667]</t>
+          <t>[0.7861111111111111, 0.6402777777777778, 0.8333333333333334, 0.8097222222222222, 0.7402777777777777, 0.8305555555555556, 0.5986111111111111, 0.8083333333333332, 0.7194444444444444, 0.7861111111111111, 0.8916666666666666, 0.7472222222222222, 0.8722222222222222, 0.4375, 0.725, 0.8069444444444445, 0.6847222222222222, 0.725, 0.7222222222222222, 0.5569444444444445, 0.8513888888888889, 0.6611111111111111, 0.7472222222222222, 0.6777777777777777, 0.8305555555555556, 0.6805555555555555, 0.6819444444444445, 0.8111111111111112, 0.7222222222222222, 0.6402777777777778, 0.5569444444444445, 0.7472222222222222, 0.7222222222222222, 0.6819444444444445, 0.4375, 0.8305555555555556, 0.8513888888888889, 0.725, 0.4375, 0.4375, 0.7013888888888888, 0.5569444444444445, 0.725, 0.4375, 0.4375, 0.6819444444444445, 0.8722222222222222, 0.6847222222222222, 0.6805555555555555, 0.6458333333333334]</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[0.6986111111111111, 0.7166666666666667, 0.9125, 0.8069444444444445, 0.6722222222222222, 0.9347222222222222, 0.7847222222222222, 0.7833333333333333, 0.7847222222222222, 0.6972222222222223, 0.6749999999999999, 0.6749999999999999, 0.7791666666666667, 0.6722222222222222, 0.8222222222222223, 0.6749999999999999, 0.8902777777777778, 0.45694444444444443, 0.5111111111111111, 0.7999999999999999, 0.5722222222222223, 0.6749999999999999, 0.7638888888888888, 0.45694444444444443, 0.45694444444444443, 0.8041666666666667, 0.7791666666666667, 0.6749999999999999, 0.7791666666666667, 0.7152777777777778, 0.7999999999999999, 0.45694444444444443, 0.45694444444444443, 0.6749999999999999, 0.8680555555555555, 0.45694444444444443, 0.7791666666666667, 0.7166666666666667, 0.5111111111111111, 0.6749999999999999, 0.5111111111111111, 0.6749999999999999, 0.8055555555555557, 0.6777777777777777, 0.7999999999999999, 0.8250000000000001, 0.7791666666666667, 0.45694444444444443, 0.6749999999999999, 0.5916666666666667]</t>
+          <t>[0.6722222222222222, 0.7152777777777778, 0.9347222222222222, 0.7166666666666667, 0.7847222222222222, 0.6722222222222222, 0.5722222222222223, 0.7166666666666667, 0.6722222222222222, 0.7847222222222222, 0.8680555555555555, 0.6749999999999999, 0.8694444444444445, 0.45694444444444443, 0.7999999999999999, 0.7791666666666667, 0.6749999999999999, 0.7999999999999999, 0.8902777777777778, 0.5111111111111111, 0.7638888888888888, 0.7152777777777778, 0.6749999999999999, 0.7166666666666667, 0.7791666666666667, 0.6749999999999999, 0.6749999999999999, 0.7791666666666667, 0.8680555555555555, 0.7152777777777778, 0.5111111111111111, 0.6749999999999999, 0.8680555555555555, 0.6749999999999999, 0.45694444444444443, 0.7791666666666667, 0.7638888888888888, 0.7999999999999999, 0.45694444444444443, 0.45694444444444443, 0.8902777777777778, 0.5111111111111111, 0.7999999999999999, 0.45694444444444443, 0.45694444444444443, 0.6749999999999999, 0.8694444444444445, 0.6749999999999999, 0.7625000000000001, 0.6444444444444445]</t>
         </is>
       </c>
     </row>
@@ -1224,31 +1224,31 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.7580184583869787, 'gamma': 0.0, 'learning_rate': 0.07161811197654572, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 455, 'subsample': 0.5})</t>
+          <t>OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.05906068386418747, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5})</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[0.923611111111111, 0.9319444444444445, 0.8936111111111111, 0.9441666666666666, 0.915, 0.9319444444444445, 0.9275, 0.918888888888889, 0.9191666666666667, 0.923611111111111, 0.9397222222222222, 0.9402777777777779, 0.9525, 0.9572222222222223, 0.9524999999999999, 0.9527777777777778, 0.9400000000000001, 0.9566666666666667, 0.9441666666666666, 0.9397222222222222, 0.9233333333333332, 0.961111111111111, 0.9783333333333333, 0.9483333333333335, 0.9608333333333334, 0.9613888888888888, 0.9569444444444445, 0.9655555555555555, 0.9361111111111111, 0.9102777777777777, 0.9352777777777778, 0.8938888888888888, 0.9652777777777779, 0.9613888888888888, 0.9480555555555557, 0.9616666666666667, 0.9183333333333333, 0.9569444444444445, 0.9522222222222222, 0.8980555555555556, 0.9527777777777778, 0.961111111111111, 0.9569444444444446, 0.9530555555555555, 0.9066666666666666, 0.961111111111111, 0.961111111111111, 0.9572222222222223, 0.9655555555555555, 0.9186111111111112]</t>
+          <t>[0.9569444444444445, 0.9230555555555556, 0.8936111111111111, 0.9400000000000001, 0.9402777777777779, 0.9275, 0.9233333333333335, 0.8936111111111111, 0.9233333333333332, 0.9277777777777778, 0.9316666666666666, 0.9400000000000002, 0.9527777777777778, 0.9277777777777778, 0.9402777777777779, 0.9361111111111111, 0.8552777777777779, 0.9613888888888888, 0.9188888888888889, 0.9355555555555556, 0.9319444444444442, 0.97, 0.9022222222222223, 0.9063888888888888, 0.9361111111111111, 0.97, 0.9313888888888888, 0.9574999999999999, 0.97, 0.9652777777777779, 0.9658333333333333, 0.9608333333333332, 0.9400000000000001, 0.9697222222222222, 0.9191666666666667, 0.9527777777777778, 0.9652777777777779, 0.9319444444444445, 0.9572222222222223, 0.888888888888889, 0.9572222222222223, 0.9744444444444443, 0.9655555555555555, 0.9441666666666666, 0.9533333333333334, 0.9702777777777778, 0.9405555555555555, 0.8675, 0.9230555555555554, 0.9613888888888891]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[0.04250090776082118, 0.035366249517559435, 0.046544151347847756, 0.017177360926378137, 0.038803477634655525, 0.035366249517559435, 0.0244602221808348, 0.023937289469789486, 0.02685121327465463, 0.04989185836250439, 0.02488554044936115, 0.024072293381437015, 0.015550594446976035, 0.02359313040842899, 0.025205941882279273, 0.01636297386113685, 0.01569874572327198, 0.013647909440598073, 0.01683709162299081, 0.02443181491921785, 0.03795912356375471, 0.01633937907761416, 0.0006804138174397149, 0.017244609105743075, 0.021325664130743608, 0.01514844244937334, 0.018654592655978717, 0.010555555555555544, 0.02283867199010496, 0.03625611910891055, 0.019277057303219443, 0.058145199264693116, 0.01736944244540388, 0.028644802169992812, 0.017449220860599315, 0.021165864668387484, 0.028251515855758042, 0.018654592655978717, 0.01656450168430618, 0.05097506047199414, 0.020990150541458436, 0.028477303069698465, 0.01896227573986224, 0.024835881052507922, 0.0420390764719836, 0.020990150541458388, 0.01633937907761416, 0.013187863856076898, 0.017244609105743016, 0.03060097634204537]</t>
+          <t>[0.01926504542711076, 0.03331712568931377, 0.040839946554420234, 0.014943308507014207, 0.031192848974732876, 0.0244602221808348, 0.037033101642772945, 0.046544151347847756, 0.030522709618727113, 0.04250090776082119, 0.02378854896222962, 0.027065877565581764, 0.01636297386113685, 0.03634539385288031, 0.015239851915939101, 0.03437044021384988, 0.03643444984904358, 0.01589413277879993, 0.03494484189846399, 0.013252067157640617, 0.02408831487630982, 0.017293758240303735, 0.053131853225353395, 0.04802905499233553, 0.03437044021384988, 0.010671873729054726, 0.03397075721380101, 0.012747548783981986, 0.01695582495781313, 0.01736944244540388, 0.01709180006990569, 0.016419463006812945, 0.01535083542183125, 0.011020463569376296, 0.03286006619922249, 0.020431306164925875, 0.01736944244540385, 0.035366249517559435, 0.013187863856076898, 0.056873261742532155, 0.013619611857923576, 0.016187558093703827, 0.011124991330278175, 0.02164885307599861, 0.007983393257333302, 0.01709180006990571, 0.04261332023825877, 0.045808916054884546, 0.03134830217703532, 0.016277872582204013]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[38, 35, 50, 27, 45, 35, 37, 42, 41, 38, 31, 29, 22, 13, 23, 20, 30, 18, 27, 31, 40, 8, 1, 25, 12, 6, 16, 2, 33, 46, 34, 49, 4, 6, 26, 5, 44, 16, 24, 48, 20, 8, 15, 19, 47, 8, 8, 13, 2, 43]</t>
+          <t>[17, 40, 46, 26, 23, 37, 38, 46, 39, 35, 33, 25, 19, 35, 23, 28, 50, 12, 43, 30, 32, 3, 45, 44, 28, 3, 34, 14, 3, 9, 7, 13, 26, 6, 42, 19, 9, 31, 15, 48, 15, 1, 8, 21, 18, 2, 22, 49, 41, 11]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.9397083777920896, 'gamma': 2.777955572822019, 'learning_rate': 0.02964215946533106, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 338, 'subsample': 0.9188690079741687}), OrderedDict({'colsample_bytree': 0.9856660530449146, 'gamma': 1.9326819560355872, 'learning_rate': 0.01714936711997288, 'max_depth': 5, 'min_child_weight': 9, 'n_estimators': 438, 'subsample': 0.939347902746255}), OrderedDict({'colsample_bytree': 0.6585360922452003, 'gamma': 3.934300553722352, 'learning_rate': 0.011427996868669835, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 453, 'subsample': 0.6653242772985527}), OrderedDict({'colsample_bytree': 0.6588722304702342, 'gamma': 1.8770255407380643, 'learning_rate': 0.08598776226741497, 'max_depth': 11, 'min_child_weight': 6, 'n_estimators': 437, 'subsample': 0.6136131098675893}), OrderedDict({'colsample_bytree': 0.6798518912120848, 'gamma': 1.917951987398665, 'learning_rate': 0.029120690585728394, 'max_depth': 8, 'min_child_weight': 9, 'n_estimators': 135, 'subsample': 0.5615185884797432}), OrderedDict({'colsample_bytree': 0.7747084545134622, 'gamma': 2.3816185065592705, 'learning_rate': 0.02216203059250878, 'max_depth': 2, 'min_child_weight': 2, 'n_estimators': 328, 'subsample': 0.8289728497219733}), OrderedDict({'colsample_bytree': 0.931479824187207, 'gamma': 1.9822880098033646, 'learning_rate': 0.024388011439655917, 'max_depth': 14, 'min_child_weight': 7, 'n_estimators': 377, 'subsample': 0.5264590727864942}), OrderedDict({'colsample_bytree': 0.8070169594224577, 'gamma': 3.867025167702502, 'learning_rate': 0.15026607167740136, 'max_depth': 4, 'min_child_weight': 8, 'n_estimators': 286, 'subsample': 0.6146273786717119}), OrderedDict({'colsample_bytree': 0.6038959330835145, 'gamma': 3.4536662885782206, 'learning_rate': 0.12045296654294783, 'max_depth': 11, 'min_child_weight': 9, 'n_estimators': 298, 'subsample': 0.9411018269884963}), OrderedDict({'colsample_bytree': 0.6411115022150762, 'gamma': 3.026728708830542, 'learning_rate': 0.03591910306330669, 'max_depth': 12, 'min_child_weight': 6, 'n_estimators': 226, 'subsample': 0.6660110055549866}), OrderedDict({'colsample_bytree': 0.9361709361539039, 'gamma': 0.9243570815324653, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8448529916889703}), OrderedDict({'colsample_bytree': 0.552272512705446, 'gamma': 2.0142383387741467, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8682256202494711, 'gamma': 0.0, 'learning_rate': 0.02417780516375174, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5479246551313447, 'gamma': 0.0, 'learning_rate': 0.06348049529949257, 'max_depth': 10, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.08408026858029453, 'max_depth': 5, 'min_child_weight': 2, 'n_estimators': 353, 'subsample': 0.9367477752311615}), OrderedDict({'colsample_bytree': 0.5379755173208428, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5179987536770876, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 5, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9366369647970391, 'gamma': 0.0, 'learning_rate': 0.06416256413907198, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9826935469621176, 'gamma': 0.0, 'learning_rate': 0.10479161520619923, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8216388784194848, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 492, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5808082687623288, 'gamma': 0.012582745754615156, 'learning_rate': 0.010273921046998575, 'max_depth': 1, 'min_child_weight': 9, 'n_estimators': 491, 'subsample': 0.5105512467706932}), OrderedDict({'colsample_bytree': 0.9572268401804925, 'gamma': 0.019926002898957854, 'learning_rate': 0.08185709105436317, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 402, 'subsample': 0.5584527050854375}), OrderedDict({'colsample_bytree': 0.7580184583869787, 'gamma': 0.0, 'learning_rate': 0.07161811197654572, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 455, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5295139890165048, 'gamma': 0.0, 'learning_rate': 0.06037575909453945, 'max_depth': 7, 'min_child_weight': 7, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5141778404588684, 'gamma': 0.0, 'learning_rate': 0.07904727169748452, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 430, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7098181381741933, 'gamma': 0.0, 'learning_rate': 0.1117113697431631, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6670101950931868, 'gamma': 0.0, 'learning_rate': 0.04632632340796257, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7538001507593486, 'gamma': 0.0, 'learning_rate': 0.12938645895823095, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9861792578701132, 'gamma': 4.929323879703496, 'learning_rate': 0.2857965402452036, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 448, 'subsample': 0.5812301907373089}), OrderedDict({'colsample_bytree': 0.7949298417591595, 'gamma': 0.005986483123866516, 'learning_rate': 0.10664387034064425, 'max_depth': 14, 'min_child_weight': 10, 'n_estimators': 388, 'subsample': 0.5790828396971371}), OrderedDict({'colsample_bytree': 0.9845584574945427, 'gamma': 4.857326886618315, 'learning_rate': 0.014968912553228764, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 368, 'subsample': 0.6933181032188138}), OrderedDict({'colsample_bytree': 0.7972288066082984, 'gamma': 0.04552444244713572, 'learning_rate': 0.22886194738038174, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 139, 'subsample': 0.7292274043371635}), OrderedDict({'colsample_bytree': 0.5897832554829924, 'gamma': 0.005851950194054601, 'learning_rate': 0.27869286398370513, 'max_depth': 13, 'min_child_weight': 2, 'n_estimators': 384, 'subsample': 0.9506514596644248}), OrderedDict({'colsample_bytree': 0.5898115140846656, 'gamma': 0.16450841051691148, 'learning_rate': 0.29416734285281027, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 472, 'subsample': 0.9425476825604279}), OrderedDict({'colsample_bytree': 0.594734868330379, 'gamma': 0.1686953001489089, 'learning_rate': 0.28694641272357096, 'max_depth': 11, 'min_child_weight': 9, 'n_estimators': 407, 'subsample': 0.9365983849573394}), OrderedDict({'colsample_bytree': 0.8858366680711534, 'gamma': 0.01629963716381744, 'learning_rate': 0.29946266939174226, 'max_depth': 13, 'min_child_weight': 10, 'n_estimators': 422, 'subsample': 0.6544673075759235}), OrderedDict({'colsample_bytree': 0.5268492611710476, 'gamma': 0.2811744485459245, 'learning_rate': 0.013999035733825622, 'max_depth': 13, 'min_child_weight': 2, 'n_estimators': 412, 'subsample': 0.9955911592972129}), OrderedDict({'colsample_bytree': 0.6640040714890938, 'gamma': 0.010096537979397692, 'learning_rate': 0.0731905357560019, 'max_depth': 4, 'min_child_weight': 6, 'n_estimators': 324, 'subsample': 0.9862899647008694}), OrderedDict({'colsample_bytree': 0.5024297577147585, 'gamma': 4.856060732943025, 'learning_rate': 0.025418726723520937, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 268, 'subsample': 0.6376976980742068}), OrderedDict({'colsample_bytree': 0.5762711766877874, 'gamma': 1.3618368446185283, 'learning_rate': 0.2768476548526858, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 372, 'subsample': 0.5177581029508366}), OrderedDict({'colsample_bytree': 0.534377564083116, 'gamma': 0.05325680688718594, 'learning_rate': 0.07402572301044794, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 474, 'subsample': 0.7246125345267527}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.09970682335508328, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6826983168932994, 'gamma': 0.005262733280778088, 'learning_rate': 0.01668768787638154, 'max_depth': 10, 'min_child_weight': 9, 'n_estimators': 459, 'subsample': 0.9839557518653772}), OrderedDict({'colsample_bytree': 0.5759766202582449, 'gamma': 4.61745610409951, 'learning_rate': 0.2972000174179596, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 168, 'subsample': 0.9815401896153559}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.08474368973671147, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6598759000605661}), OrderedDict({'colsample_bytree': 0.7497088156116232, 'gamma': 0.0, 'learning_rate': 0.08287362440449207, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6570864192486363}), OrderedDict({'colsample_bytree': 0.9512476557278488, 'gamma': 0.7572459230400409, 'learning_rate': 0.24493078838924723, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 66, 'subsample': 0.5057906684734566}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.10225885474806203, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.10240368319447046, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.5072730735692768, 'gamma': 0.24142175264997406, 'learning_rate': 0.0163343675590135, 'max_depth': 12, 'min_child_weight': 4, 'n_estimators': 434, 'subsample': 0.5533659907353731}), OrderedDict({'colsample_bytree': 0.9911766124650162, 'gamma': 1.6535589659929375, 'learning_rate': 0.0672716924606335, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 189, 'subsample': 0.9780621502191451}), OrderedDict({'colsample_bytree': 0.8539370461231492, 'gamma': 4.896027742990493, 'learning_rate': 0.20309979809175802, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 434, 'subsample': 0.8673785032494821}), OrderedDict({'colsample_bytree': 0.6497015766962018, 'gamma': 2.4315582361474, 'learning_rate': 0.10261008850151748, 'max_depth': 3, 'min_child_weight': 3, 'n_estimators': 332, 'subsample': 0.5988659218721429}), OrderedDict({'colsample_bytree': 0.6848725539649381, 'gamma': 0.26444205308383545, 'learning_rate': 0.11076549488556811, 'max_depth': 14, 'min_child_weight': 10, 'n_estimators': 377, 'subsample': 0.8882878540504766}), OrderedDict({'colsample_bytree': 0.8089608953817523, 'gamma': 2.6882476565401396, 'learning_rate': 0.017910214432528118, 'max_depth': 3, 'min_child_weight': 9, 'n_estimators': 439, 'subsample': 0.6408300299001395}), OrderedDict({'colsample_bytree': 0.5162778064601209, 'gamma': 1.0521678057394799, 'learning_rate': 0.1600335253440794, 'max_depth': 5, 'min_child_weight': 9, 'n_estimators': 163, 'subsample': 0.5124453988619762}), OrderedDict({'colsample_bytree': 0.9481734147244267, 'gamma': 4.46625265143169, 'learning_rate': 0.10375463993633331, 'max_depth': 12, 'min_child_weight': 9, 'n_estimators': 379, 'subsample': 0.779436066578806}), OrderedDict({'colsample_bytree': 0.9404218829606338, 'gamma': 1.753868940613503, 'learning_rate': 0.04233059649134819, 'max_depth': 6, 'min_child_weight': 9, 'n_estimators': 97, 'subsample': 0.6687702482121639}), OrderedDict({'colsample_bytree': 0.5191120896607566, 'gamma': 4.051404123400518, 'learning_rate': 0.022240488542758154, 'max_depth': 14, 'min_child_weight': 3, 'n_estimators': 425, 'subsample': 0.8409492954802955}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.024125835635417, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 3, 'min_child_weight': 4, 'n_estimators': 89, 'subsample': 0.8215365486571045}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.0120272943270505, 'learning_rate': 0.06978294573379672, 'max_depth': 10, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 0.5388934218490401}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01519377441742025, 'max_depth': 13, 'min_child_weight': 9, 'n_estimators': 479, 'subsample': 0.9674598147646527}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.048673278578656, 'learning_rate': 0.011525413455201803, 'max_depth': 9, 'min_child_weight': 9, 'n_estimators': 500, 'subsample': 0.9500416602452296}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.556692981816923, 'learning_rate': 0.011943872803323334, 'max_depth': 4, 'min_child_weight': 9, 'n_estimators': 50, 'subsample': 0.5329554732569632}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.21884799446840927, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.6717333996269192}), OrderedDict({'colsample_bytree': 0.6805387762800442, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.954571878949074}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 2.423408431263266, 'learning_rate': 0.1875894548071918, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 246, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6537604745260335, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.18540069805402223, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 308, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.04799106601695073, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 383, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.7883508240076256, 'learning_rate': 0.10436594320342593, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 248, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.2529039254866269, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 285, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9758102296953685, 'gamma': 0.7164525563441131, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6244043847805554, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.5237745639588964}), OrderedDict({'colsample_bytree': 0.9697945958349656, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7049722643906324, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9034829478676232, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6428328081629646}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.9306708820320777, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 7, 'n_estimators': 500, 'subsample': 0.7901910278578863}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.0097835732126677, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.6159618636715831, 'learning_rate': 0.29999999999999993, 'max_depth': 13, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.6606821491420343, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6384002432680447}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.5243720452210656, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 475, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6904988007357415, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.05906068386418747, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.1299342883056501, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.8918973627143258, 'learning_rate': 0.011878052151583303, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.030319680602092603, 'max_depth': 2, 'min_child_weight': 2, 'n_estimators': 477, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.0769821693327493, 'learning_rate': 0.01, 'max_depth': 11, 'min_child_weight': 6, 'n_estimators': 195, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 10, 'n_estimators': 121, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 3.0518803537190458, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 72, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 7, 'n_estimators': 277, 'subsample': 0.7221079092289042})]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.9152777777777779, 0.9152777777777779, 0.8722222222222222, 0.9361111111111112, 0.8944444444444445, 0.9152777777777779, 0.9152777777777779, 0.8930555555555556, 0.9152777777777779, 0.9361111111111112, 0.8930555555555556, 0.9152777777777779, 0.9347222222222222, 0.9791666666666666, 0.9138888888888889, 0.9583333333333334, 0.9152777777777779, 0.9347222222222222, 0.9152777777777779, 0.9138888888888889, 0.9361111111111112, 0.9569444444444445, 0.9777777777777779, 0.9361111111111112, 0.9347222222222222, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9152777777777779, 0.85, 0.9138888888888889, 0.8722222222222222, 0.9569444444444445, 0.9138888888888889, 0.9361111111111112, 0.9583333333333334, 0.8722222222222222, 0.9569444444444445, 0.9347222222222222, 0.8722222222222222, 0.9138888888888889, 0.9138888888888889, 0.9361111111111112, 0.9791666666666666, 0.8944444444444445, 0.9361111111111112, 0.9569444444444445, 0.9361111111111112, 0.9361111111111112, 0.9583333333333334]</t>
+          <t>[0.9361111111111112, 0.8930555555555556, 0.8722222222222222, 0.9361111111111112, 0.9152777777777779, 0.9152777777777779, 0.8722222222222222, 0.8722222222222222, 0.9152777777777779, 0.9361111111111112, 0.9361111111111112, 0.9361111111111112, 0.9583333333333334, 0.9583333333333334, 0.9152777777777779, 0.9361111111111112, 0.85, 0.9361111111111112, 0.9138888888888889, 0.9152777777777779, 0.9166666666666666, 0.9569444444444445, 0.8930555555555556, 0.8722222222222222, 0.9361111111111112, 0.9791666666666666, 0.8722222222222222, 0.9583333333333334, 0.9777777777777779, 0.9777777777777779, 0.9791666666666666, 0.9777777777777779, 0.9583333333333334, 0.9791666666666666, 0.9152777777777779, 0.9152777777777779, 0.9569444444444445, 0.9152777777777779, 0.9361111111111112, 0.8263888888888888, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9138888888888889, 0.9375, 0.9583333333333334, 0.8944444444444445, 0.85, 0.8722222222222222, 0.9791666666666666]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9347222222222222, 0.9347222222222222, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9347222222222222, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9152777777777779, 0.9361111111111112, 0.9347222222222222, 0.9361111111111112, 0.9777777777777779, 0.9569444444444445, 0.9347222222222222, 0.9569444444444445, 0.9138888888888889, 0.9777777777777779, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9361111111111112, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.8916666666666666]</t>
+          <t>[0.9569444444444445, 0.9569444444444445, 0.9138888888888889, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9555555555555556, 0.9347222222222222, 0.9138888888888889, 0.9569444444444445, 0.9569444444444445, 0.8527777777777779, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9138888888888889, 0.9569444444444445, 0.9138888888888889, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9347222222222222, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9361111111111112, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9569444444444445, 0.9777777777777779, 0.9152777777777779, 0.9569444444444445, 0.9569444444444445]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[0.9138888888888889, 0.9347222222222222, 0.9138888888888889, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9138888888888889, 0.9138888888888889, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9361111111111112, 0.9569444444444445, 0.9347222222222222, 0.9569444444444445, 0.9138888888888889, 0.9347222222222222, 0.9791666666666666, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9347222222222222, 0.9569444444444445, 0.9347222222222222, 0.9138888888888889, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9569444444444445, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9569444444444445, 0.9569444444444445, 0.9347222222222222, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9791666666666666, 0.9347222222222222]</t>
+          <t>[0.9347222222222222, 0.9347222222222222, 0.8930555555555556, 0.9347222222222222, 0.8930555555555556, 0.9138888888888889, 0.8930555555555556, 0.9138888888888889, 0.9138888888888889, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9347222222222222, 0.9138888888888889, 0.9361111111111112, 0.9347222222222222, 0.8930555555555556, 0.9569444444444445, 0.9347222222222222, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222, 0.9569444444444445, 0.9138888888888889, 0.9569444444444445, 0.9791666666666666, 0.9347222222222222, 0.9569444444444445, 0.9347222222222222, 0.9347222222222222, 0.9569444444444445, 0.8930555555555556, 0.9569444444444445, 0.9569444444444445, 0.9347222222222222, 0.9569444444444445, 0.9347222222222222, 0.9569444444444445, 0.9791666666666666, 0.9791666666666666, 0.9347222222222222, 0.9583333333333334, 0.9569444444444445, 0.9347222222222222, 0.9138888888888889, 0.9138888888888889, 0.9347222222222222]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.8541666666666666, 0.875, 0.8125, 0.9583333333333334, 0.8541666666666666, 0.875, 0.8958333333333334, 0.8958333333333334, 0.875, 0.8333333333333334, 0.9583333333333334, 0.9166666666666666, 0.9375, 0.9583333333333334, 0.9791666666666666, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9166666666666666, 0.8541666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9375, 0.9375, 0.9791666666666666, 0.9375, 0.8958333333333334, 0.9583333333333334, 0.7916666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9583333333333334, 0.9375, 0.9791666666666666, 0.8125, 0.9583333333333334, 1.0, 0.9583333333333334, 0.9375, 0.8333333333333334, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.875]</t>
+          <t>[0.9791666666666666, 0.875, 0.8333333333333334, 0.9166666666666666, 0.9583333333333334, 0.8958333333333334, 0.9375, 0.8125, 0.875, 0.8541666666666666, 0.8958333333333334, 0.8958333333333334, 0.9583333333333334, 0.875, 0.9375, 0.875, 0.7916666666666666, 0.9791666666666666, 0.8541666666666666, 0.9375, 0.9166666666666666, 0.9791666666666666, 0.8125, 0.8333333333333334, 0.875, 0.9791666666666666, 0.9583333333333334, 0.9375, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9166666666666666, 0.9791666666666666, 0.875, 0.9583333333333334, 1.0, 0.875, 0.9583333333333334, 0.8125, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9375, 0.9583333333333334, 0.9791666666666666, 0.8958333333333334, 0.7916666666666666, 0.9166666666666666, 0.9583333333333334]</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 1.0, 0.9555555555555556, 1.0, 0.9333333333333332, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9569444444444445, 0.9777777777777779, 0.9555555555555556, 0.9333333333333332]</t>
+          <t>[0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.888888888888889, 0.9777777777777779, 0.9555555555555556, 0.9333333333333332, 0.9777777777777779, 1.0, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9347222222222222, 0.9569444444444445, 1.0, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 1.0, 1.0, 0.8666666666666667, 0.9555555555555556, 0.9777777777777779]</t>
         </is>
       </c>
     </row>
@@ -1392,52 +1392,52 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7737556561085973</v>
+        <v>0.7993966817496229</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8304699453551911</v>
+        <v>0.8478638847491307</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.85</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8283154121863798</v>
+        <v>0.8463709677419354</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[[8, 0, 5], [0, 30, 0], [4, 1, 12]]</t>
+          <t>[[9, 0, 4], [0, 30, 0], [4, 1, 12]]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 131})</t>
+          <t>OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 69})</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.9501831501831504, 0.9307692307692308, 0.9505494505494507, 0.9747252747252748, 0.9600732600732602, 0.9157509157509157, 0.9553113553113555, 0.9553113553113555, 0.94981684981685, 0.9304029304029303, 0.9304029304029304, 0.9307692307692308, 0.9695970695970697, 0.9205128205128206, 0.9157509157509158, 0.9205128205128206, 0.9205128205128206, 0.9205128205128206, 0.9256410256410257, 0.9208791208791209, 0.9695970695970697, 0.9695970695970697, 0.9695970695970697, 0.9798534798534799, 0.9798534798534799, 0.9798534798534799, 0.9747252747252748, 0.9406593406593406, 0.9355311355311355, 0.9747252747252748, 0.9747252747252748, 0.9798534798534799, 0.9798534798534799, 0.964835164835165, 0.9304029304029304, 0.9600732600732602, 0.9747252747252748, 0.9747252747252748, 0.9655677655677657, 0.9553113553113555, 0.9798534798534799, 0.9750915750915752, 0.9600732600732602, 0.9597069597069596, 0.9648351648351647, 0.9208791208791209, 0.9157509157509158, 0.9208791208791209, 0.8963369963369964, 0.8963369963369964]</t>
+          <t>[0.9362637362637363, 0.9501831501831504, 0.9307692307692308, 0.926007326007326, 0.9256410256410257, 0.9501831501831504, 0.9307692307692308, 0.9600732600732602, 0.9402930402930403, 0.9597069597069599, 0.9355311355311355, 0.9501831501831501, 0.9304029304029304, 0.9695970695970697, 0.9798534798534799, 0.9355311355311355, 0.9304029304029304, 0.9699633699633701, 0.9205128205128206, 0.9747252747252748, 0.9798534798534799, 0.9695970695970697, 0.9747252747252748, 0.9747252747252748, 0.9644688644688644, 0.9747252747252748, 0.9597069597069599, 0.9747252747252748, 0.9798534798534799, 0.9747252747252748, 0.9798534798534799, 0.9798534798534799, 0.9747252747252748, 0.9695970695970697, 0.9798534798534799, 0.9747252747252748, 0.9798534798534799, 0.9695970695970697, 0.9747252747252748, 0.9798534798534799, 0.9798534798534799, 0.910989010989011, 0.9347985347985348, 0.9699633699633701, 0.9161172161172161, 0.8912087912087913, 0.9505494505494507, 0.9750915750915752, 0.9747252747252748, 0.9695970695970697]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.02776160486666144, 0.043393840571087035, 0.015669779953265572, 0.022532683515354836, 0.026092313287191412, 0.047997929173039376, 0.029659021948713813, 0.018806589967756002, 0.028434913838938262, 0.04597033112824595, 0.04121489576274055, 0.030103561628284797, 0.036987269044291095, 0.04999161329923551, 0.05937004653780669, 0.04999161329923551, 0.04999161329923551, 0.04999161329923551, 0.051654845927401105, 0.04927250542054009, 0.036987269044291095, 0.036987269044291095, 0.036987269044291095, 0.0186057510610993, 0.0186057510610993, 0.019103889832095645, 0.027421197468443834, 0.02526145003599515, 0.02533570178137818, 0.027421197468443834, 0.016233347843340885, 0.019103889832095645, 0.019103889832095645, 0.02609231328719142, 0.04121489576274055, 0.01997596806510772, 0.027421197468443834, 0.027421197468443834, 0.019908686068426634, 0.03352398883120161, 0.019103889832095645, 0.01565264514228679, 0.012443434250156074, 0.034303398588844417, 0.02572983051844097, 0.04927250542054009, 0.05937004653780669, 0.04927250542054009, 0.05500119232343322, 0.05500119232343322]</t>
+          <t>[0.01172161172161179, 0.02776160486666144, 0.043393840571087035, 0.03925742041485376, 0.05308954869969742, 0.02776160486666144, 0.030103561628284797, 0.01997596806510772, 0.04737327389353535, 0.020623719062650966, 0.030960507852183818, 0.02253268351535494, 0.04121489576274055, 0.01880658996775593, 0.0186057510610993, 0.030960507852183818, 0.04121489576274055, 0.024533922417055494, 0.04999161329923551, 0.027421197468443834, 0.0186057510610993, 0.036987269044291095, 0.022532683515354836, 0.027421197468443834, 0.02557815421259503, 0.027421197468443834, 0.03022810408172568, 0.027421197468443834, 0.019103889832095645, 0.022532683515354836, 0.0186057510610993, 0.019103889832095645, 0.027421197468443834, 0.036987269044291095, 0.0186057510610993, 0.027421197468443834, 0.0186057510610993, 0.036987269044291095, 0.027421197468443834, 0.019103889832095645, 0.019103889832095645, 0.04785234482479954, 0.04130594976999402, 0.009732842678085302, 0.047100586996218746, 0.0507375594302416, 0.02777610052766138, 0.022117991413114296, 0.015644070698946955, 0.024451749843631736]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[29, 33, 28, 8, 21, 48, 25, 25, 30, 37, 35, 33, 14, 42, 46, 42, 42, 42, 38, 39, 14, 14, 14, 1, 1, 1, 8, 31, 32, 8, 8, 1, 1, 19, 35, 21, 8, 8, 18, 25, 1, 7, 21, 24, 20, 39, 46, 39, 49, 49]</t>
+          <t>[37, 33, 41, 45, 46, 33, 41, 29, 36, 30, 38, 35, 43, 23, 1, 38, 43, 21, 47, 11, 1, 23, 11, 11, 28, 11, 30, 11, 1, 11, 1, 1, 11, 23, 1, 11, 1, 23, 11, 1, 1, 49, 40, 21, 48, 50, 32, 10, 11, 23]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 7, 'min_samples_split': 14, 'n_estimators': 223}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 7, 'min_samples_split': 20, 'n_estimators': 256}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 16, 'n_estimators': 152}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 2, 'min_samples_split': 4, 'n_estimators': 150}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 3, 'min_samples_split': 5, 'n_estimators': 104}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 9, 'min_samples_split': 17, 'n_estimators': 185}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 279}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 3, 'min_samples_split': 19, 'n_estimators': 232}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 14, 'n_estimators': 245}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 8, 'min_samples_split': 16, 'n_estimators': 149}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 207}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 75}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 8, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 5, 'n_estimators': 132}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 7, 'min_samples_split': 6, 'n_estimators': 282}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 8, 'min_samples_split': 6, 'n_estimators': 80}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 131}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 234}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 268}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 133}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 248}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 133}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 242}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 2, 'min_samples_split': 17, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 119}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 10, 'min_samples_split': 12, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50})]</t>
+          <t>[OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 5, 'min_samples_split': 13, 'n_estimators': 130}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 15, 'n_estimators': 222}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 9, 'min_samples_split': 5, 'n_estimators': 167}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 8, 'min_samples_split': 11, 'n_estimators': 182}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 9, 'min_samples_split': 13, 'n_estimators': 294}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 5, 'min_samples_split': 17, 'n_estimators': 178}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 7, 'min_samples_split': 20, 'n_estimators': 294}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 65}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 17, 'n_estimators': 286}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 9, 'n_estimators': 240}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 80}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 19, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 299}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 69}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 267}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 69}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 112}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 121}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 60}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 264}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 147}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 263}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 194}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 256}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 76}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 74}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 141}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 76}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 122}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 209}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 265}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 160}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 275}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 50})]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.85</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1446,27 +1446,27 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.9505494505494506, 0.9267399267399267, 0.9505494505494506, 1.0, 1.0, 0.9267399267399267, 0.9761904761904763, 0.9505494505494506, 0.9505494505494506, 0.9267399267399267, 0.9505494505494506, 0.9267399267399267, 1.0, 0.9267399267399267, 0.9267399267399267, 0.9267399267399267, 0.9267399267399267, 0.9267399267399267, 0.9523809523809524, 0.9267399267399267, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9505494505494506, 0.9505494505494506, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9505494505494506, 0.9505494505494506, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9505494505494506, 1.0, 1.0, 0.9267399267399267, 0.9267399267399267, 0.9267399267399267, 0.8791208791208792, 0.8791208791208792]</t>
+          <t>[0.9267399267399267, 0.9505494505494506, 0.9267399267399267, 0.9267399267399267, 0.9267399267399267, 0.9505494505494506, 0.9267399267399267, 0.9505494505494506, 0.9761904761904763, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 1.0, 0.9505494505494506, 0.9505494505494506, 1.0, 0.9267399267399267, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9029304029304029, 0.9505494505494506, 0.9743589743589745, 0.9267399267399267, 0.8791208791208792, 0.9761904761904763, 1.0, 0.9743589743589745, 0.9743589743589745]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9267399267399267, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9267399267399267, 0.9267399267399267]</t>
+          <t>[0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9267399267399267, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9267399267399267, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9249084249084248, 0.9505494505494506, 0.9505494505494506, 0.8992673992673993, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.8992673992673993, 0.8992673992673993, 0.8992673992673993, 0.9505494505494506, 0.9505494505494506, 0.9761904761904763, 0.9249084249084248, 0.9505494505494506, 0.9249084249084248, 0.9249084249084248, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9505494505494506, 0.9505494505494506, 0.9249084249084248, 0.9249084249084248, 0.9249084249084248, 0.9761904761904763, 0.9505494505494506, 0.9761904761904763, 0.9505494505494506, 0.9505494505494506, 0.8992673992673993, 0.9249084249084248, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506]</t>
+          <t>[0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9249084249084248, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9249084249084248, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9249084249084248, 0.9505494505494506, 0.9249084249084248, 0.9505494505494506, 0.8992673992673993, 0.9505494505494506, 0.9249084249084248, 0.9249084249084248, 0.9249084249084248, 0.8992673992673993, 0.9249084249084248, 0.9761904761904763, 0.9505494505494506, 0.9505494505494506, 0.9761904761904763, 0.9249084249084248, 0.8992673992673993, 0.9505494505494506, 0.9249084249084248, 0.9505494505494506, 0.8992673992673993, 0.9249084249084248, 0.9761904761904763, 0.9761904761904763, 0.9505494505494506, 0.8992673992673993, 0.9505494505494506, 0.9505494505494506, 0.9249084249084248, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9249084249084248]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 1.0, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 1.0, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9285714285714285, 0.9285714285714285, 1.0, 1.0, 1.0, 1.0, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 1.0, 1.0, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285]</t>
+          <t>[0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 1.0, 1.0, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 1.0, 1.0, 1.0]</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[0.8992673992673993, 0.8498168498168498, 0.9249084249084248, 0.9487179487179488, 0.923076923076923, 0.8223443223443224, 0.8992673992673993, 0.9249084249084248, 0.8974358974358975, 0.8498168498168498, 0.847985347985348, 0.8736263736263736, 0.9743589743589745, 0.8223443223443224, 0.7985347985347985, 0.8223443223443224, 0.8223443223443224, 0.8223443223443224, 0.8223443223443224, 0.8241758241758242, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.8992673992673993, 0.8992673992673993, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.923076923076923, 0.847985347985348, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.8992673992673993, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.8241758241758242, 0.7985347985347985, 0.8241758241758242, 0.7967032967032966, 0.7967032967032966]</t>
+          <t>[0.9249084249084248, 0.8992673992673993, 0.8498168498168498, 0.8498168498168498, 0.8241758241758242, 0.8992673992673993, 0.8736263736263736, 0.9743589743589745, 0.847985347985348, 0.923076923076923, 0.8736263736263736, 0.9249084249084248, 0.847985347985348, 0.9487179487179488, 0.9743589743589745, 0.8736263736263736, 0.847985347985348, 0.9743589743589745, 0.8223443223443224, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.8223443223443224, 0.8736263736263736, 0.9743589743589745, 0.8241758241758242, 0.7967032967032966, 0.8992673992673993, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745]</t>
         </is>
       </c>
     </row>
@@ -1596,31 +1596,31 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1870, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1620, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[0.5794871794871794, 0.641025641025641, 0.821978021978022, 0.847985347985348, 0.787912087912088, 0.21245421245421242, 0.7897435897435897, 0.8241758241758241, 0.4981684981684982, 0.5886446886446887, 0.8967032967032967, 0.756043956043956, 0.8967032967032967, 0.778021978021978, 0.8183150183150183, 0.756043956043956, 0.6542124542124542, 0.7439560439560439, 0.7058608058608058, 0.6010989010989011, 0.41025641025641024, 0.5117216117216117, 0.5783882783882783, 0.5783882783882783, 0.5593406593406594, 0.5073260073260073, 0.49194139194139197, 0.4739926739926739, 0.5545787545787546, 0.49304029304029307, 0.8172161172161172, 0.871062271062271, 0.8659340659340659, 0.8805860805860805, 0.8223443223443223, 0.8608058608058607, 0.8084249084249084, 0.7750915750915751, 0.7893772893772893, 0.7846153846153846, 0.8816849816849816, 0.8377289377289378, 0.798901098901099, 0.7113553113553113, 0.8230769230769232, 0.8040293040293041, 0.7893772893772893, 0.7846153846153846, 0.7732600732600733, 0.7846153846153846]</t>
+          <t>[0.7846153846153846, 0.6461538461538462, 0.734065934065934, 0.5934065934065934, 0.661904761904762, 0.6952380952380952, 0.5593406593406594, 0.6542124542124542, 0.5688644688644688, 0.7589743589743589, 0.7802197802197802, 0.8161172161172161, 0.7897435897435897, 0.8040293040293041, 0.8512820512820513, 0.8967032967032967, 0.6937728937728938, 0.8567765567765567, 0.7395604395604394, 0.7395604395604394, 0.8567765567765567, 0.8567765567765567, 0.6413919413919413, 0.7879120879120879, 0.8967032967032967, 0.5293040293040293, 0.8567765567765567, 0.5293040293040293, 0.6457875457875458, 0.7333333333333333, 0.8967032967032967, 0.8113553113553114, 0.6139194139194138, 0.6421245421245421, 0.6355311355311355, 0.8117216117216117, 0.6421245421245421, 0.6421245421245421, 0.8095238095238095, 0.7992673992673993, 0.8967032967032967, 0.8967032967032967, 0.7879120879120879, 0.8567765567765567, 0.7879120879120879, 0.8666666666666666, 0.8135531135531135, 0.8567765567765567, 0.806959706959707, 0.8087912087912088]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.08954227251566226, 0.0758073630738258, 0.06955271383932596, 0.06058922528391303, 0.04581537615752258, 0.08645775060558657, 0.05977995044110839, 0.049348694451675765, 0.12552403271585016, 0.06088304382524205, 0.040914291591042345, 0.09432785644834783, 0.040914291591042345, 0.08326709116974136, 0.05178196936871004, 0.09432785644834783, 0.04562461855040053, 0.07170885180975717, 0.04217388414541903, 0.11827248353698647, 0.10722657259823354, 0.10875235181308139, 0.05960012014589479, 0.05960012014589479, 0.08938479521716905, 0.10826019564931613, 0.043888837511355756, 0.04981415635898964, 0.08535191551893657, 0.06620214123125194, 0.06588724426255488, 0.07300872633790369, 0.06987989573729182, 0.05956634152484554, 0.05725311050531704, 0.0782975065828596, 0.07177618056761616, 0.05640787778630009, 0.06203359158979206, 0.053291353280563496, 0.056588368257298634, 0.03096484132660519, 0.06900072250458433, 0.09245438660636203, 0.04854827375311519, 0.08430480718140523, 0.06025613191202399, 0.06501805705979885, 0.03956043956043953, 0.06143153102928686]</t>
+          <t>[0.06143153102928686, 0.08715639796439394, 0.08045610563980458, 0.04329478188158939, 0.11564654264037591, 0.037168207747885214, 0.08938479521716905, 0.04562461855040053, 0.06181257630956147, 0.09254142163248234, 0.04178072783182083, 0.07789892099649212, 0.059936859351409334, 0.08430480718140523, 0.06047174190412807, 0.040914291591042345, 0.03115491747247606, 0.05619338932517641, 0.08333152193820872, 0.08333152193820872, 0.05619338932517641, 0.05619338932517641, 0.08049778712884585, 0.03996536761021497, 0.040914291591042345, 0.04147451972078583, 0.05619338932517641, 0.04147451972078583, 0.08321228579183537, 0.08064100692251731, 0.040914291591042345, 0.08892125294703482, 0.04583001693256072, 0.07324725162526151, 0.06349793341890005, 0.08844769683684434, 0.07324725162526151, 0.07324725162526151, 0.05930220795552405, 0.03716820774788522, 0.040914291591042345, 0.040914291591042345, 0.09809329578131082, 0.05619338932517641, 0.09809329578131082, 0.05206621805489056, 0.07768159081090618, 0.05619338932517641, 0.08787850396368384, 0.07404886706765973]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[38, 35, 13, 8, 22, 50, 19, 10, 45, 37, 1, 29, 1, 26, 14, 29, 34, 31, 33, 36, 49, 43, 39, 39, 41, 44, 47, 48, 42, 46, 15, 5, 6, 4, 12, 7, 16, 27, 20, 23, 3, 9, 18, 32, 11, 17, 20, 23, 28, 23]</t>
+          <t>[27, 38, 32, 46, 36, 34, 48, 37, 47, 29, 28, 14, 23, 21, 13, 1, 35, 7, 30, 30, 7, 7, 43, 24, 1, 49, 7, 49, 39, 33, 1, 17, 45, 40, 44, 16, 40, 40, 18, 22, 1, 1, 24, 7, 24, 6, 15, 7, 20, 19]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'logistic', 'alpha': 0.007372308756331266, 'learning_rate_init': 0.00026503300923422994, 'max_iter': 1803, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.001746407508030863, 'learning_rate_init': 0.0034105090649534163, 'max_iter': 1810, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.02894309596621046, 'learning_rate_init': 0.006505170535321973, 'max_iter': 603, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 9.399266201092586e-06, 'learning_rate_init': 0.006434489423842812, 'max_iter': 1812, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.8596655068100088e-05, 'learning_rate_init': 0.001770063866101032, 'max_iter': 2397, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.9690490911368877e-05, 'learning_rate_init': 0.00010614722630875751, 'max_iter': 2979, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.0161300380007572e-05, 'learning_rate_init': 0.002447544141842194, 'max_iter': 616, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00011610628171761725, 'learning_rate_init': 0.004100858472324183, 'max_iter': 1727, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 3.6127042591874506e-06, 'learning_rate_init': 0.00011756105221274809, 'max_iter': 1122, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.09199804942205718, 'learning_rate_init': 0.00020196774120978664, 'max_iter': 1074, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1870, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.009455683829344209, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.008792603517977799, 'max_iter': 2499, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2027, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0016108167936411096, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.002849079103456527, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0008553249861346543, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.00034745611603886596, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0010913412226138336, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0013422724854347849, 'learning_rate_init': 0.00021724063534078218, 'max_iter': 554, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0006013188544595764, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.00037523016476955255, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0003395484211368808, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.00021046532066466391, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00013423222634112878, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.06033898241112103, 'learning_rate_init': 0.00011376449160240679, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.346942646643412e-06, 'learning_rate_init': 0.0005334963612466868, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00012428305948838816, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006241208899142009, 'max_iter': 721, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0068590250976448865, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006940032552209757, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.007376847921408966, 'max_iter': 2973, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006362981186149644, 'max_iter': 2317, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0071527475097596955, 'max_iter': 1760, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0002044868557345222, 'learning_rate_init': 0.004413675576869315, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0036369476995655008, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.844273220291447e-06, 'learning_rate_init': 0.004034698373779374, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0037857534957132658, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.008671116631488179, 'max_iter': 557, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.001297030704906507, 'max_iter': 1176, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.001331060224657142, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.008855078100499689, 'max_iter': 2253, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0022680358405695144, 'learning_rate_init': 0.0010846310341377766, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0012216854502826201, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0011586737295040449, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0010609787044827262, 'max_iter': 609, 'solver': 'adam'})]</t>
+          <t>[OrderedDict({'activation': 'relu', 'alpha': 0.00024570890583993315, 'learning_rate_init': 0.0010543884875341687, 'max_iter': 1869, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.683196773937574e-06, 'learning_rate_init': 0.00020736996587484698, 'max_iter': 635, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.2203333280306422e-06, 'learning_rate_init': 0.0015132747999705351, 'max_iter': 568, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00045042262403988115, 'learning_rate_init': 0.00030359958275359103, 'max_iter': 1773, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.09658572706001835, 'learning_rate_init': 0.006593935112926353, 'max_iter': 586, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 3.859597117728674e-05, 'learning_rate_init': 0.0009944983883041826, 'max_iter': 1953, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.08950910356166136, 'learning_rate_init': 0.0004993801545168992, 'max_iter': 2328, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.000183403239138821, 'learning_rate_init': 0.001313938449775227, 'max_iter': 1255, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 5.427450570255989e-05, 'learning_rate_init': 0.0006381581674748027, 'max_iter': 924, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.07667399284407642, 'learning_rate_init': 0.0037122440928749304, 'max_iter': 2593, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 8.56941762965011e-05, 'learning_rate_init': 0.0023996786779753015, 'max_iter': 1216, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.018612689622778723, 'learning_rate_init': 0.009639757372855948, 'max_iter': 2905, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.001567051307645117, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0018108741429336847, 'learning_rate_init': 0.01, 'max_iter': 1245, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.005164440152211125, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1620, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.008301624568508468, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.008050312943681555, 'max_iter': 2589, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.00800557862793811, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 5.296665816273546e-06, 'learning_rate_init': 0.0002973358408992738, 'max_iter': 1054, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.013014903503393899, 'learning_rate_init': 0.0008120160230840393, 'max_iter': 2143, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.6278152078840656e-06, 'learning_rate_init': 0.00021047678815384408, 'max_iter': 535, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.018060725617537115, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.1548986805389757e-06, 'learning_rate_init': 0.00021049378557099556, 'max_iter': 517, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.6130753548931048e-05, 'learning_rate_init': 0.0003501655826792317, 'max_iter': 1224, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.015377968811484044, 'learning_rate_init': 0.0005848172187467332, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.6316909522991495e-06, 'learning_rate_init': 0.01, 'max_iter': 2214, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.010110754847147374, 'learning_rate_init': 0.004864851846673625, 'max_iter': 1596, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00012614844062049931, 'learning_rate_init': 0.0048952993878610025, 'max_iter': 1461, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00014626350745290448, 'learning_rate_init': 0.004593222586735639, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.458473529792043e-05, 'learning_rate_init': 0.004697722032301208, 'max_iter': 915, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.011634781424592202, 'learning_rate_init': 0.004675526756013736, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0009066640254694741, 'learning_rate_init': 0.004602262108781079, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.003680362443203982, 'learning_rate_init': 0.004599400927339688, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.001805306638838172, 'learning_rate_init': 0.0045972659899115075, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0048467044230952085, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2440, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2521, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.09421194815336281, 'learning_rate_init': 0.005796175711866415, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2090, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.007824678991507107, 'learning_rate_init': 0.005851094228969255, 'max_iter': 1018, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008088770184331724, 'max_iter': 1868, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0050971760195488896, 'max_iter': 2085, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1830, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006110235463731651, 'max_iter': 2010, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.050293443803219734, 'learning_rate_init': 0.005085720599248176, 'max_iter': 2999, 'solver': 'adam'})]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>0.7333333333333333</v>
@@ -1632,27 +1632,27 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.6428571428571429, 0.7106227106227107, 0.7234432234432234, 0.805860805860806, 0.7545787545787546, 0.31868131868131866, 0.7728937728937729, 0.7802197802197802, 0.3333333333333333, 0.6428571428571429, 0.9505494505494506, 0.8534798534798536, 0.9505494505494506, 0.8534798534798536, 0.7545787545787546, 0.8534798534798536, 0.5805860805860806, 0.7326007326007326, 0.6868131868131869, 0.5805860805860806, 0.3333333333333333, 0.6428571428571429, 0.6428571428571429, 0.6428571428571429, 0.6428571428571429, 0.6190476190476191, 0.5494505494505494, 0.5146520146520147, 0.6190476190476191, 0.5384615384615384, 0.7032967032967034, 0.7545787545787546, 0.7545787545787546, 0.9505494505494506, 0.728937728937729, 0.728937728937729, 0.7472527472527473, 0.7472527472527473, 0.7472527472527473, 0.7472527472527473, 0.9505494505494506, 0.804029304029304, 0.7472527472527473, 0.706959706959707, 0.7545787545787546, 0.7564102564102564, 0.7472527472527473, 0.7472527472527473, 0.7545787545787546, 0.7472527472527473]</t>
+          <t>[0.7472527472527473, 0.683150183150183, 0.8772893772893773, 0.6428571428571429, 0.7087912087912088, 0.683150183150183, 0.6428571428571429, 0.5805860805860806, 0.6190476190476191, 0.7326007326007326, 0.7728937728937729, 0.8534798534798536, 0.7472527472527473, 0.7564102564102564, 0.8296703296703297, 0.9505494505494506, 0.7326007326007326, 0.8772893772893773, 0.7069597069597068, 0.7069597069597068, 0.8772893772893773, 0.8772893772893773, 0.683150183150183, 0.7802197802197802, 0.9505494505494506, 0.46520146520146516, 0.8772893772893773, 0.46520146520146516, 0.7051282051282052, 0.782051282051282, 0.9505494505494506, 0.8296703296703297, 0.683150183150183, 0.683150183150183, 0.683150183150183, 0.8296703296703297, 0.683150183150183, 0.683150183150183, 0.7802197802197802, 0.7802197802197802, 0.9505494505494506, 0.9505494505494506, 0.6721611721611721, 0.8772893772893773, 0.6721611721611721, 0.8516483516483516, 0.7234432234432234, 0.8772893772893773, 0.6721611721611721, 0.7234432234432234]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.6428571428571429, 0.7234432234432234, 0.9267399267399267, 0.9267399267399267, 0.8534798534798536, 0.09706959706959706, 0.7838827838827839, 0.8553113553113554, 0.35714285714285715, 0.6428571428571429, 0.9029304029304029, 0.6483516483516484, 0.9029304029304029, 0.9010989010989011, 0.9029304029304029, 0.6483516483516484, 0.6483516483516484, 0.8278388278388279, 0.7271062271062272, 0.38278388278388276, 0.35714285714285715, 0.35714285714285715, 0.6190476190476191, 0.6190476190476191, 0.6190476190476191, 0.35714285714285715, 0.5036630036630036, 0.5, 0.6190476190476191, 0.5714285714285715, 0.9029304029304029, 0.9029304029304029, 0.9029304029304029, 0.9029304029304029, 0.9029304029304029, 0.9029304029304029, 0.9267399267399267, 0.7838827838827839, 0.7838827838827839, 0.7838827838827839, 0.9029304029304029, 0.8534798534798536, 0.7838827838827839, 0.7454212454212454, 0.9029304029304029, 0.9267399267399267, 0.7838827838827839, 0.7838827838827839, 0.8296703296703297, 0.76007326007326]</t>
+          <t>[0.76007326007326, 0.5274725274725275, 0.7271062271062272, 0.6190476190476191, 0.6153846153846154, 0.7271062271062272, 0.6190476190476191, 0.6483516483516484, 0.6190476190476191, 0.9029304029304029, 0.7838827838827839, 0.9010989010989011, 0.7838827838827839, 0.9267399267399267, 0.9267399267399267, 0.9029304029304029, 0.6483516483516484, 0.9010989010989011, 0.9029304029304029, 0.9029304029304029, 0.9010989010989011, 0.9010989010989011, 0.5274725274725275, 0.8534798534798536, 0.9029304029304029, 0.5238095238095238, 0.9010989010989011, 0.5238095238095238, 0.5274725274725275, 0.5787545787545788, 0.9029304029304029, 0.9267399267399267, 0.6153846153846154, 0.6153846153846154, 0.7234432234432234, 0.9267399267399267, 0.6153846153846154, 0.6153846153846154, 0.76007326007326, 0.7838827838827839, 0.9029304029304029, 0.9029304029304029, 0.9267399267399267, 0.9010989010989011, 0.9267399267399267, 0.9267399267399267, 0.9267399267399267, 0.9010989010989011, 0.9267399267399267, 0.9267399267399267]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[0.4047619047619047, 0.6153846153846154, 0.8278388278388279, 0.7545787545787546, 0.7509157509157509, 0.1703296703296703, 0.7380952380952381, 0.8772893772893773, 0.6190476190476191, 0.4761904761904762, 0.9249084249084248, 0.7234432234432234, 0.9249084249084248, 0.7234432234432234, 0.8260073260073261, 0.7234432234432234, 0.7234432234432234, 0.7234432234432234, 0.7747252747252746, 0.7234432234432234, 0.3333333333333333, 0.42857142857142855, 0.5, 0.5, 0.4047619047619047, 0.4047619047619047, 0.5238095238095238, 0.5238095238095238, 0.4047619047619047, 0.5238095238095238, 0.8003663003663003, 0.9249084249084248, 0.8992673992673993, 0.8003663003663003, 0.8003663003663003, 0.8992673992673993, 0.76007326007326, 0.7380952380952381, 0.7857142857142857, 0.7857142857142857, 0.9249084249084248, 0.8498168498168498, 0.7124542124542125, 0.7564102564102564, 0.8260073260073261, 0.7087912087912088, 0.7362637362637363, 0.7124542124542125, 0.7252747252747254, 0.7362637362637363]</t>
+          <t>[0.7362637362637363, 0.7728937728937729, 0.7490842490842491, 0.5238095238095238, 0.6153846153846154, 0.7490842490842491, 0.4047619047619047, 0.7234432234432234, 0.4761904761904762, 0.7234432234432234, 0.7380952380952381, 0.7234432234432234, 0.7380952380952381, 0.7087912087912088, 0.7472527472527473, 0.9249084249084248, 0.7234432234432234, 0.8992673992673993, 0.7234432234432234, 0.7234432234432234, 0.8992673992673993, 0.8992673992673993, 0.7490842490842491, 0.7490842490842491, 0.9249084249084248, 0.5952380952380952, 0.8992673992673993, 0.5952380952380952, 0.7490842490842491, 0.7490842490842491, 0.9249084249084248, 0.7234432234432234, 0.6153846153846154, 0.7564102564102564, 0.6153846153846154, 0.7234432234432234, 0.7564102564102564, 0.7564102564102564, 0.8516483516483516, 0.8241758241758242, 0.9249084249084248, 0.9249084249084248, 0.7344322344322344, 0.8992673992673993, 0.7344322344322344, 0.8992673992673993, 0.7857142857142857, 0.8992673992673993, 0.8278388278388279, 0.7857142857142857]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[0.6172161172161172, 0.6428571428571429, 0.8571428571428572, 0.8809523809523809, 0.8333333333333334, 0.16849816849816848, 0.9047619047619048, 0.8571428571428572, 0.5915750915750916, 0.5915750915750916, 0.8333333333333334, 0.880952380952381, 0.8333333333333334, 0.6904761904761904, 0.8333333333333334, 0.880952380952381, 0.6666666666666666, 0.8095238095238094, 0.6904761904761904, 0.6666666666666666, 0.6172161172161172, 0.6172161172161172, 0.6172161172161172, 0.6172161172161172, 0.6172161172161172, 0.6172161172161172, 0.4468864468864469, 0.3956043956043956, 0.6172161172161172, 0.3956043956043956, 0.8333333333333334, 0.9523809523809524, 0.9523809523809524, 0.9285714285714285, 0.8333333333333334, 0.9523809523809524, 0.8571428571428571, 0.8809523809523809, 0.9047619047619048, 0.8809523809523809, 0.8095238095238094, 0.8809523809523809, 0.9047619047619048, 0.8095238095238094, 0.8333333333333334, 0.8809523809523809, 0.9047619047619048, 0.9047619047619048, 0.8095238095238094, 0.9047619047619048]</t>
+          <t>[0.9047619047619048, 0.5714285714285715, 0.6666666666666666, 0.6172161172161172, 0.8571428571428572, 0.6666666666666666, 0.6172161172161172, 0.6666666666666666, 0.6172161172161172, 0.8095238095238094, 0.8571428571428571, 0.880952380952381, 0.9047619047619048, 0.8809523809523809, 0.8809523809523809, 0.8333333333333334, 0.6904761904761904, 0.8571428571428572, 0.6904761904761904, 0.6904761904761904, 0.8571428571428572, 0.8571428571428572, 0.5714285714285715, 0.8095238095238094, 0.8333333333333334, 0.5238095238095238, 0.8571428571428572, 0.5238095238095238, 0.5714285714285715, 0.8095238095238094, 0.8333333333333334, 0.8809523809523809, 0.6172161172161172, 0.6172161172161172, 0.6172161172161172, 0.8809523809523809, 0.6172161172161172, 0.6172161172161172, 0.9047619047619048, 0.8571428571428572, 0.8333333333333334, 0.8333333333333334, 0.8809523809523809, 0.8571428571428572, 0.8809523809523809, 0.8809523809523809, 0.8809523809523809, 0.8571428571428572, 0.8571428571428572, 0.8571428571428571]</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[0.5897435897435898, 0.5128205128205128, 0.7747252747252747, 0.8717948717948718, 0.7472527472527473, 0.3076923076923077, 0.7490842490842491, 0.7509157509157509, 0.5897435897435898, 0.5897435897435898, 0.8717948717948718, 0.6739926739926739, 0.8717948717948718, 0.7216117216117216, 0.7747252747252746, 0.6739926739926739, 0.6520146520146519, 0.6263736263736264, 0.6501831501831502, 0.6520146520146519, 0.4102564102564103, 0.5128205128205128, 0.5128205128205128, 0.5128205128205128, 0.5128205128205128, 0.5384615384615384, 0.4358974358974359, 0.4358974358974359, 0.5128205128205128, 0.4358974358974359, 0.8461538461538461, 0.8205128205128206, 0.8205128205128206, 0.8205128205128206, 0.8461538461538461, 0.8205128205128206, 0.7509157509157509, 0.7252747252747254, 0.7252747252747254, 0.7252747252747254, 0.8205128205128206, 0.8003663003663005, 0.8461538461538461, 0.5384615384615384, 0.7985347985347985, 0.7472527472527473, 0.7747252747252746, 0.7747252747252746, 0.7472527472527473, 0.7747252747252746]</t>
+          <t>[0.7747252747252746, 0.6758241758241758, 0.6501831501831502, 0.5641025641025642, 0.5128205128205128, 0.6501831501831502, 0.5128205128205128, 0.6520146520146519, 0.5128205128205128, 0.6263736263736264, 0.7490842490842491, 0.7216117216117216, 0.7747252747252747, 0.7472527472527473, 0.8717948717948718, 0.8717948717948718, 0.6739926739926739, 0.7490842490842491, 0.6739926739926739, 0.6739926739926739, 0.7490842490842491, 0.7490842490842491, 0.6758241758241758, 0.7472527472527473, 0.8717948717948718, 0.5384615384615384, 0.7490842490842491, 0.5384615384615384, 0.6758241758241758, 0.7472527472527473, 0.8717948717948718, 0.6959706959706958, 0.5384615384615384, 0.5384615384615384, 0.5384615384615384, 0.6978021978021979, 0.5384615384615384, 0.5384615384615384, 0.7509157509157509, 0.7509157509157509, 0.8717948717948718, 0.8717948717948718, 0.7252747252747254, 0.7490842490842491, 0.7252747252747254, 0.7747252747252747, 0.7509157509157509, 0.7490842490842491, 0.7509157509157509, 0.7509157509157509]</t>
         </is>
       </c>
     </row>
@@ -1764,52 +1764,52 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.7345399698340875</v>
+        <v>0.7088989441930619</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7972816737502531</v>
+        <v>0.780187117072363</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7965693804403481</v>
+        <v>0.7776209677419355</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[[8, 0, 5], [0, 30, 0], [6, 1, 10]]</t>
+          <t>[[7, 0, 6], [0, 30, 0], [6, 1, 10]]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 35, 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 5})</t>
+          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 5})</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.8139194139194139, 0.765934065934066, 0.7842490842490842, 0.798901098901099, 0.8714285714285716, 0.883882783882784, 0.7575091575091575, 0.7897435897435898, 0.7322344322344322, 0.8043956043956044, 0.5043956043956044, 0.8168498168498168, 0.7267399267399266, 0.49010989010989003, 0.784981684981685, 0.7329670329670329, 0.6670329670329671, 0.7498168498168498, 0.7267399267399266, 0.6860805860805861, 0.5934065934065933, 0.6816849816849817, 0.7113553113553113, 0.7644688644688645, 0.784981684981685, 0.7172161172161172, 0.5043956043956044, 0.76996336996337, 0.7706959706959708, 0.6567765567765568, 0.5043956043956044, 0.83003663003663, 0.76996336996337, 0.7018315018315018, 0.7208791208791209, 0.7630036630036631, 0.6124542124542124, 0.652014652014652, 0.6567765567765568, 0.6670329670329671, 0.7498168498168498, 0.5043956043956044, 0.652014652014652, 0.7018315018315018, 0.49010989010989003, 0.7644688644688645, 0.7981684981684982, 0.8073260073260075, 0.7934065934065934, 0.7208791208791209]</t>
+          <t>[0.7600732600732601, 0.7897435897435898, 0.8043956043956044, 0.7450549450549451, 0.7351648351648351, 0.7351648351648351, 0.823076923076923, 0.8706959706959706, 0.7267399267399267, 0.8139194139194139, 0.76996336996337, 0.632967032967033, 0.6860805860805861, 0.6912087912087912, 0.76996336996337, 0.7267399267399266, 0.5043956043956044, 0.8157509157509157, 0.49010989010989003, 0.652014652014652, 0.7798534798534799, 0.6380952380952383, 0.7626373626373627, 0.7113553113553113, 0.76996336996337, 0.7113553113553113, 0.784981684981685, 0.6670329670329671, 0.7172161172161172, 0.6567765567765568, 0.8216117216117216, 0.7630036630036631, 0.5043956043956044, 0.6670329670329671, 0.6326007326007327, 0.784981684981685, 0.7113553113553113, 0.7827838827838829, 0.5043956043956044, 0.7630036630036631, 0.8956043956043956, 0.6567765567765568, 0.76996336996337, 0.652014652014652, 0.7018315018315018, 0.8853479853479854, 0.7131868131868131, 0.6567765567765568, 0.9245421245421246, 0.5934065934065933]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.0717107229066227, 0.041722882015220696, 0.041738958339176874, 0.08740236846218978, 0.0334999659052708, 0.03483899710454115, 0.07241824016183886, 0.039339363284494826, 0.09419974962618949, 0.08896198473180296, 0.025234878607545554, 0.0888608752432836, 0.059351963830758754, 0.03839345098389415, 0.04016964121246963, 0.02588580182279087, 0.07032967032967034, 0.09077747880467424, 0.059351963830758754, 0.06352539746737688, 0.04213250442347435, 0.08016372838946723, 0.04754290898119433, 0.05425203979948314, 0.04016964121246963, 0.06375731200596217, 0.025234878607545554, 0.03368370383171475, 0.04715752679819465, 0.07971221163477411, 0.025234878607545554, 0.06168002207446462, 0.03368370383171475, 0.04962525102796574, 0.02836404495619918, 0.037258347589601226, 0.03849815107188645, 0.06273261399350248, 0.07971221163477411, 0.07032967032967034, 0.09077747880467424, 0.025234878607545554, 0.06273261399350248, 0.04962525102796574, 0.03839345098389415, 0.05425203979948314, 0.07818089029140755, 0.02400315739986212, 0.024610369278008543, 0.02836404495619918]</t>
+          <t>[0.06822436511410963, 0.039339363284494826, 0.08896198473180296, 0.037631012003993596, 0.05706061518564577, 0.0550377728087705, 0.06124559650850363, 0.05551112554711023, 0.10454266359523316, 0.04657347466868799, 0.03368370383171475, 0.059444579560734935, 0.06352539746737688, 0.059184436879399616, 0.03368370383171475, 0.059351963830758754, 0.025234878607545554, 0.06530633209857803, 0.03839345098389415, 0.06273261399350248, 0.03903119049076189, 0.05228737254228714, 0.03656771254718931, 0.04754290898119433, 0.03368370383171475, 0.04754290898119433, 0.04016964121246963, 0.07032967032967034, 0.06375731200596217, 0.07971221163477411, 0.07155150499374988, 0.037258347589601226, 0.025234878607545554, 0.0800716179047331, 0.05651719087607361, 0.04016964121246963, 0.04754290898119433, 0.07198151712566522, 0.025234878607545554, 0.037258347589601226, 0.04761904761904754, 0.07971221163477411, 0.03368370383171475, 0.06273261399350248, 0.04962525102796574, 0.04609566656919955, 0.06586891367908869, 0.07971221163477411, 0.03550280204091851, 0.04213250442347435]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[5, 18, 14, 8, 2, 1, 22, 11, 26, 7, 45, 4, 27, 49, 12, 25, 37, 23, 27, 35, 44, 36, 32, 19, 12, 31, 45, 16, 15, 39, 45, 3, 16, 33, 29, 21, 43, 41, 39, 37, 23, 45, 41, 33, 49, 19, 9, 6, 10, 29]</t>
+          <t>[22, 10, 9, 23, 24, 24, 5, 4, 26, 8, 15, 44, 35, 34, 15, 27, 47, 7, 50, 41, 14, 43, 21, 30, 15, 30, 11, 36, 28, 38, 6, 19, 47, 36, 45, 11, 30, 13, 47, 19, 2, 38, 15, 41, 33, 3, 29, 38, 1, 46]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 23}), OrderedDict({'criterion': 'gini', 'max_depth': 31, 'max_features': None, 'min_samples_leaf': 16, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 79, 'max_features': 'sqrt', 'min_samples_leaf': 11, 'min_samples_split': 37}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 8}), OrderedDict({'criterion': 'entropy', 'max_depth': 46, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 20}), OrderedDict({'criterion': 'entropy', 'max_depth': 35, 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 92, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 27}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 15, 'min_samples_split': 12}), OrderedDict({'criterion': 'entropy', 'max_depth': 45, 'max_features': 'sqrt', 'min_samples_leaf': 10, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 48, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 9, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 92, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3})]</t>
+          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 30, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 7, 'max_features': None, 'min_samples_leaf': 15, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 92, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 8}), OrderedDict({'criterion': 'gini', 'max_depth': 59, 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 11}), OrderedDict({'criterion': 'gini', 'max_depth': 67, 'max_features': 'sqrt', 'min_samples_leaf': 14, 'min_samples_split': 42}), OrderedDict({'criterion': 'gini', 'max_depth': 46, 'max_features': 'sqrt', 'min_samples_leaf': 16, 'min_samples_split': 44}), OrderedDict({'criterion': 'gini', 'max_depth': 89, 'max_features': None, 'min_samples_leaf': 6, 'min_samples_split': 15}), OrderedDict({'criterion': 'gini', 'max_depth': 64, 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 81, 'max_features': 'sqrt', 'min_samples_leaf': 10, 'min_samples_split': 45}), OrderedDict({'criterion': 'gini', 'max_depth': 28, 'max_features': None, 'min_samples_leaf': 9, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 15, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2})]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1818,27 +1818,27 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.8021978021978023, 0.7582417582417582, 0.8260073260073261, 0.8553113553113553, 0.8553113553113553, 0.8717948717948718, 0.7344322344322345, 0.8058608058608058, 0.7344322344322345, 0.8553113553113553, 0.48901098901098905, 0.8278388278388279, 0.7326007326007327, 0.5128205128205128, 0.7582417582417582, 0.76007326007326, 0.7106227106227107, 0.6868131868131867, 0.7326007326007327, 0.7106227106227107, 0.5476190476190476, 0.7326007326007327, 0.7326007326007327, 0.7069597069597068, 0.7582417582417582, 0.7106227106227107, 0.48901098901098905, 0.7838827838827839, 0.7582417582417582, 0.7106227106227107, 0.48901098901098905, 0.8772893772893773, 0.7838827838827839, 0.7087912087912088, 0.76007326007326, 0.7545787545787546, 0.6428571428571429, 0.706959706959707, 0.7106227106227107, 0.7106227106227107, 0.6868131868131867, 0.48901098901098905, 0.706959706959707, 0.7087912087912088, 0.5128205128205128, 0.7069597069597068, 0.8791208791208792, 0.8076923076923078, 0.8058608058608058, 0.76007326007326]</t>
+          <t>[0.7106227106227107, 0.8058608058608058, 0.8553113553113553, 0.7307692307692308, 0.7783882783882783, 0.7545787545787546, 0.7582417582417582, 0.8534798534798536, 0.7106227106227107, 0.7582417582417582, 0.7838827838827839, 0.6062271062271063, 0.7106227106227107, 0.7326007326007327, 0.7838827838827839, 0.7326007326007327, 0.48901098901098905, 0.8772893772893773, 0.5128205128205128, 0.706959706959707, 0.7582417582417582, 0.6062271062271063, 0.7545787545787546, 0.7326007326007327, 0.7838827838827839, 0.7326007326007327, 0.7582417582417582, 0.7106227106227107, 0.7106227106227107, 0.7106227106227107, 0.8791208791208792, 0.7545787545787546, 0.48901098901098905, 0.7106227106227107, 0.6062271062271063, 0.7582417582417582, 0.7326007326007327, 0.8498168498168498, 0.48901098901098905, 0.7545787545787546, 0.9267399267399267, 0.7106227106227107, 0.7838827838827839, 0.706959706959707, 0.7087912087912088, 0.9267399267399267, 0.7326007326007327, 0.7106227106227107, 0.9743589743589745, 0.5476190476190476]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.8809523809523809, 0.8315018315018315, 0.8058608058608058, 0.8076923076923076, 0.9267399267399267, 0.9505494505494506, 0.7362637362637362, 0.8296703296703297, 0.6098901098901098, 0.8076923076923076, 0.5238095238095238, 0.9505494505494506, 0.6391941391941393, 0.42857142857142855, 0.8553113553113554, 0.6904761904761904, 0.5604395604395604, 0.8772893772893773, 0.6391941391941393, 0.5604395604395604, 0.6190476190476191, 0.5659340659340659, 0.6391941391941393, 0.7783882783882784, 0.8553113553113554, 0.6868131868131867, 0.5238095238095238, 0.7582417582417582, 0.8260073260073261, 0.5604395604395604, 0.5238095238095238, 0.9267399267399267, 0.7582417582417582, 0.6391941391941393, 0.6904761904761904, 0.7527472527472527, 0.6190476190476191, 0.5659340659340659, 0.5604395604395604, 0.5604395604395604, 0.8772893772893773, 0.5238095238095238, 0.5659340659340659, 0.6391941391941393, 0.42857142857142855, 0.7783882783882784, 0.9029304029304029, 0.7802197802197802, 0.8296703296703297, 0.6904761904761904]</t>
+          <t>[0.8534798534798534, 0.8296703296703297, 0.8076923076923076, 0.7106227106227107, 0.6391941391941393, 0.6391941391941393, 0.9267399267399267, 0.9249084249084248, 0.5604395604395604, 0.8553113553113554, 0.7582417582417582, 0.5915750915750916, 0.5604395604395604, 0.6098901098901098, 0.7582417582417582, 0.6391941391941393, 0.5238095238095238, 0.9029304029304029, 0.42857142857142855, 0.5659340659340659, 0.8553113553113554, 0.5934065934065934, 0.7527472527472527, 0.6391941391941393, 0.7582417582417582, 0.6391941391941393, 0.8553113553113554, 0.5604395604395604, 0.6868131868131867, 0.5604395604395604, 0.9267399267399267, 0.7527472527472527, 0.5238095238095238, 0.5604395604395604, 0.5934065934065934, 0.8553113553113554, 0.6391941391941393, 0.8315018315018315, 0.5238095238095238, 0.7527472527472527, 0.9249084249084248, 0.5604395604395604, 0.7582417582417582, 0.5659340659340659, 0.6391941391941393, 0.9249084249084248, 0.8058608058608058, 0.5604395604395604, 0.9505494505494506, 0.6190476190476191]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[0.683150183150183, 0.7783882783882784, 0.706959706959707, 0.63003663003663, 0.8241758241758242, 0.847985347985348, 0.6593406593406593, 0.8241758241758242, 0.6593406593406593, 0.6318681318681318, 0.4688644688644688, 0.683150183150183, 0.683150183150183, 0.4688644688644688, 0.804029304029304, 0.7289377289377289, 0.6062271062271063, 0.6318681318681318, 0.683150183150183, 0.7051282051282052, 0.6190476190476191, 0.6318681318681318, 0.683150183150183, 0.8095238095238094, 0.804029304029304, 0.6355311355311355, 0.4688644688644688, 0.8241758241758242, 0.7252747252747253, 0.5586080586080586, 0.4688644688644688, 0.7765567765567765, 0.8241758241758242, 0.6593406593406593, 0.7490842490842491, 0.7527472527472527, 0.6190476190476191, 0.6062271062271063, 0.5586080586080586, 0.6062271062271063, 0.6318681318681318, 0.4688644688644688, 0.6062271062271063, 0.6593406593406593, 0.4688644688644688, 0.8095238095238094, 0.7582417582417582, 0.8021978021978023, 0.7728937728937729, 0.7490842490842491]</t>
+          <t>[0.683150183150183, 0.8241758241758242, 0.6318681318681318, 0.7051282051282052, 0.7307692307692308, 0.7545787545787546, 0.804029304029304, 0.8754578754578756, 0.7051282051282052, 0.804029304029304, 0.8241758241758242, 0.5622710622710623, 0.7051282051282052, 0.6318681318681318, 0.8241758241758242, 0.683150183150183, 0.4688644688644688, 0.7289377289377289, 0.4688644688644688, 0.6062271062271063, 0.7783882783882784, 0.5879120879120879, 0.7527472527472527, 0.683150183150183, 0.8241758241758242, 0.683150183150183, 0.804029304029304, 0.6062271062271063, 0.6355311355311355, 0.5586080586080586, 0.7765567765567765, 0.7527472527472527, 0.4688644688644688, 0.5824175824175825, 0.5641025641025641, 0.804029304029304, 0.683150183150183, 0.6556776556776557, 0.4688644688644688, 0.7527472527472527, 0.8021978021978023, 0.5586080586080586, 0.8241758241758242, 0.6062271062271063, 0.6593406593406593, 0.8021978021978023, 0.6318681318681318, 0.5586080586080586, 0.8736263736263736, 0.6190476190476191]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[0.8278388278388279, 0.76007326007326, 0.8058608058608058, 0.8278388278388279, 0.8791208791208791, 0.8772893772893773, 0.8809523809523809, 0.7619047619047619, 0.8809523809523809, 0.8534798534798534, 0.5, 0.8534798534798534, 0.7802197802197802, 0.5, 0.76007326007326, 0.76007326007326, 0.7362637362637363, 0.8296703296703297, 0.7802197802197802, 0.7326007326007327, 0.6428571428571429, 0.6794871794871794, 0.7802197802197802, 0.8315018315018315, 0.76007326007326, 0.8296703296703297, 0.5, 0.7619047619047619, 0.8260073260073261, 0.7326007326007327, 0.5, 0.8003663003663003, 0.7619047619047619, 0.7802197802197802, 0.7087912087912088, 0.8333333333333334, 0.6428571428571429, 0.7362637362637363, 0.7326007326007327, 0.7362637362637363, 0.8296703296703297, 0.5, 0.7362637362637363, 0.7802197802197802, 0.5, 0.8315018315018315, 0.7051282051282052, 0.8516483516483517, 0.76007326007326, 0.7087912087912088]</t>
+          <t>[0.8296703296703297, 0.7619047619047619, 0.8534798534798534, 0.7802197802197802, 0.8058608058608058, 0.8058608058608058, 0.8534798534798534, 0.9249084249084248, 0.8809523809523809, 0.8791208791208792, 0.7619047619047619, 0.6849816849816849, 0.7326007326007327, 0.76007326007326, 0.7619047619047619, 0.7802197802197802, 0.5, 0.8003663003663003, 0.5, 0.7362637362637363, 0.76007326007326, 0.7087912087912088, 0.8315018315018315, 0.7802197802197802, 0.7619047619047619, 0.7802197802197802, 0.76007326007326, 0.7362637362637363, 0.8296703296703297, 0.7326007326007327, 0.728937728937729, 0.8333333333333334, 0.5, 0.76007326007326, 0.7051282051282052, 0.76007326007326, 0.7802197802197802, 0.7509157509157509, 0.5, 0.8333333333333334, 0.9010989010989011, 0.7326007326007327, 0.7619047619047619, 0.7362637362637363, 0.7802197802197802, 0.9010989010989011, 0.7509157509157509, 0.7326007326007327, 0.9010989010989011, 0.6428571428571429]</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[0.8754578754578755, 0.7014652014652015, 0.7765567765567766, 0.8736263736263736, 0.8717948717948718, 0.8717948717948718, 0.7765567765567765, 0.7271062271062272, 0.7765567765567765, 0.8736263736263736, 0.5402930402930403, 0.7692307692307692, 0.7985347985347985, 0.5402930402930403, 0.7472527472527473, 0.7252747252747254, 0.7216117216117217, 0.7234432234432234, 0.7985347985347985, 0.7216117216117217, 0.5384615384615384, 0.7985347985347985, 0.7216117216117216, 0.695970695970696, 0.7472527472527473, 0.7234432234432234, 0.5402930402930403, 0.7216117216117216, 0.717948717948718, 0.7216117216117217, 0.5402930402930403, 0.7692307692307692, 0.7216117216117216, 0.7216117216117216, 0.695970695970696, 0.7216117216117216, 0.5384615384615384, 0.6446886446886447, 0.7216117216117217, 0.7216117216117217, 0.7234432234432234, 0.5402930402930403, 0.6446886446886447, 0.7216117216117216, 0.5402930402930403, 0.695970695970696, 0.7454212454212454, 0.7948717948717948, 0.7985347985347985, 0.695970695970696]</t>
+          <t>[0.7234432234432234, 0.7271062271062272, 0.8736263736263736, 0.7985347985347985, 0.7216117216117216, 0.7216117216117216, 0.7728937728937728, 0.7747252747252747, 0.7765567765567765, 0.7728937728937728, 0.7216117216117216, 0.7197802197802199, 0.7216117216117217, 0.7216117216117216, 0.7216117216117216, 0.7985347985347985, 0.5402930402930403, 0.7692307692307692, 0.5402930402930403, 0.6446886446886447, 0.7472527472527473, 0.6941391941391942, 0.7216117216117216, 0.7216117216117216, 0.7216117216117216, 0.7216117216117216, 0.7472527472527473, 0.7216117216117217, 0.7234432234432234, 0.7216117216117217, 0.7967032967032966, 0.7216117216117216, 0.5402930402930403, 0.7216117216117217, 0.6941391941391942, 0.7472527472527473, 0.7216117216117216, 0.8260073260073261, 0.5402930402930403, 0.7216117216117216, 0.923076923076923, 0.7216117216117217, 0.7216117216117216, 0.6446886446886447, 0.7216117216117216, 0.8717948717948718, 0.6446886446886447, 0.7216117216117217, 0.923076923076923, 0.5384615384615384]</t>
         </is>
       </c>
     </row>
@@ -1968,31 +1968,31 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.23157614833395107, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 178, 'subsample': 0.5})</t>
+          <t>OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.027282578513677675, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 439, 'subsample': 0.5})</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.9007326007326008, 0.9604395604395606, 0.8963369963369964, 0.8963369963369964, 0.9347985347985348, 0.9347985347985348, 0.9399267399267399, 0.9208791208791209, 0.9201465201465201, 0.8915750915750916, 0.9699633699633701, 0.964835164835165, 0.8512820512820513, 0.9208791208791209, 0.9699633699633701, 0.9542124542124544, 0.9549450549450549, 0.9593406593406595, 0.8468864468864469, 0.9399267399267399, 0.9553113553113555, 0.9794871794871796, 0.964835164835165, 0.9641025641025642, 0.9641025641025642, 0.9446886446886447, 0.9699633699633701, 0.9695970695970697, 0.8915750915750916, 0.9201465201465201, 0.9699633699633701, 0.9644688644688646, 0.9549450549450549, 0.9652014652014653, 0.9351648351648352, 0.94981684981685, 0.964835164835165, 0.9300366300366301, 0.9054945054945055, 0.9652014652014653, 0.9065934065934066, 0.964835164835165, 0.9593406593406595, 0.9406593406593406, 0.9747252747252748, 0.96007326007326, 0.9106227106227107, 0.9402930402930403, 0.9054945054945055, 0.9153846153846155]</t>
+          <t>[0.9549450549450551, 0.9161172161172161, 0.9106227106227106, 0.9450549450549453, 0.9150183150183151, 0.9304029304029304, 0.9351648351648352, 0.9695970695970697, 0.9300366300366301, 0.9014652014652015, 0.9644688644688646, 0.9549450549450551, 0.9692307692307693, 0.9553113553113555, 0.9549450549450551, 0.9501831501831501, 0.9589743589743591, 0.964835164835165, 0.9549450549450549, 0.9695970695970697, 0.9457875457875458, 0.9600732600732602, 0.9695970695970697, 0.9205128205128206, 0.9157509157509158, 0.9798534798534799, 0.9652014652014653, 0.9113553113553113, 0.9399267399267399, 0.9695970695970697, 0.9296703296703297, 0.9256410256410257, 0.9743589743589745, 0.9098901098901099, 0.9161172161172161, 0.9644688644688646, 0.9798534798534799, 0.9545787545787547, 0.9699633699633701, 0.9846153846153847, 0.9054945054945055, 0.9846153846153847, 0.9846153846153847, 0.9498168498168498, 0.9846153846153847, 0.9545787545787547, 0.880952380952381, 0.9593406593406595, 0.9846153846153847, 0.9846153846153847]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.06658611242426087, 0.021156819162188555, 0.0636730771798997, 0.05650531926234044, 0.06972804333146877, 0.05730698697906067, 0.05237454813689417, 0.063141938729064, 0.07429308327670171, 0.06209196395090208, 0.02972680375864248, 0.0350080448409388, 0.0407137543034037, 0.050042582733884435, 0.03704164345848234, 0.04407797496407715, 0.03731232696922154, 0.03468073371002088, 0.059116385302473665, 0.059588862733077674, 0.030594304788016283, 0.019187986598840693, 0.01997596806510764, 0.034781179400642404, 0.047557017925619, 0.05383992388768681, 0.02972680375864248, 0.029659021948713803, 0.05726951305844119, 0.07429308327670171, 0.02972680375864248, 0.02594275635110006, 0.029726803758642503, 0.02623590414574359, 0.040996195607817455, 0.03925742041485376, 0.01997596806510764, 0.054754247446314415, 0.0707026131366728, 0.02623590414574359, 0.044937158045367354, 0.01997596806510764, 0.04748360563545436, 0.03823586329875425, 0.02809788851394157, 0.04118884336079297, 0.0653761499121635, 0.04737327389353535, 0.05895729282337582, 0.060093358560492104]</t>
+          <t>[0.03413872250456339, 0.04808730046732316, 0.06938854436789527, 0.037391355766080166, 0.06337737363774999, 0.048952861164214254, 0.05741225124370137, 0.03774138277623811, 0.05678719030755741, 0.06501599335482432, 0.02594275635110006, 0.030352135510427272, 0.037684457581279654, 0.03409939669666528, 0.01940354965296566, 0.032462562697589036, 0.04470665583118641, 0.03041396154527044, 0.029111086426821323, 0.03774138277623811, 0.030307896840201652, 0.026092313287191412, 0.03774138277623811, 0.04999161329923551, 0.06349793341890012, 0.019103889832095645, 0.02623590414574359, 0.057412251243701404, 0.0385469137906998, 0.040848650137584305, 0.056813175004663145, 0.06429171465270637, 0.028088336282316235, 0.06544794339337419, 0.06322688117512212, 0.05013901430701442, 0.0246811436306564, 0.033917910709655795, 0.02972680375864248, 0.020512820512820478, 0.06715995098236394, 0.020512820512820478, 0.020512820512820478, 0.0324460254765986, 0.020512820512820478, 0.04425114615674847, 0.05489619317021025, 0.04748360563545436, 0.020512820512820478, 0.020512820512820478]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[44, 17, 45, 45, 32, 32, 29, 35, 37, 47, 3, 10, 49, 35, 3, 24, 22, 19, 50, 29, 21, 1, 10, 15, 15, 26, 3, 7, 47, 37, 3, 14, 22, 8, 31, 25, 10, 34, 42, 8, 41, 10, 19, 27, 2, 18, 40, 28, 42, 39]</t>
+          <t>[24, 41, 46, 33, 44, 36, 35, 11, 37, 49, 18, 24, 15, 23, 24, 30, 22, 17, 27, 11, 32, 20, 11, 40, 43, 7, 16, 45, 34, 11, 38, 39, 9, 47, 41, 18, 7, 28, 10, 1, 48, 1, 1, 31, 1, 28, 50, 21, 1, 1]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.6528588966281498, 'gamma': 4.98328457969666, 'learning_rate': 0.09717334445595123, 'max_depth': 9, 'min_child_weight': 6, 'n_estimators': 415, 'subsample': 0.853724438657324}), OrderedDict({'colsample_bytree': 0.9331537285807124, 'gamma': 0.4775051404115417, 'learning_rate': 0.012737757322023363, 'max_depth': 11, 'min_child_weight': 6, 'n_estimators': 433, 'subsample': 0.9046441812495813}), OrderedDict({'colsample_bytree': 0.8660970952895211, 'gamma': 2.7460851847979018, 'learning_rate': 0.05518645654872307, 'max_depth': 8, 'min_child_weight': 9, 'n_estimators': 92, 'subsample': 0.7317877319973605}), OrderedDict({'colsample_bytree': 0.7017954953689383, 'gamma': 4.875601585499781, 'learning_rate': 0.25432084359601015, 'max_depth': 9, 'min_child_weight': 8, 'n_estimators': 399, 'subsample': 0.7908687039993716}), OrderedDict({'colsample_bytree': 0.8866924765547459, 'gamma': 2.0705316102525337, 'learning_rate': 0.04299719163136266, 'max_depth': 6, 'min_child_weight': 6, 'n_estimators': 375, 'subsample': 0.7979840071532198}), OrderedDict({'colsample_bytree': 0.5133059232699007, 'gamma': 1.8773497700705715, 'learning_rate': 0.011629716355923882, 'max_depth': 3, 'min_child_weight': 3, 'n_estimators': 206, 'subsample': 0.6375220859604791}), OrderedDict({'colsample_bytree': 0.5534865214682603, 'gamma': 1.9924983463890196, 'learning_rate': 0.11574556430486414, 'max_depth': 8, 'min_child_weight': 6, 'n_estimators': 476, 'subsample': 0.9399995546672988}), OrderedDict({'colsample_bytree': 0.5619841161279003, 'gamma': 4.805930404526891, 'learning_rate': 0.23533432295513712, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 218, 'subsample': 0.6337948264742739}), OrderedDict({'colsample_bytree': 0.8563439220385896, 'gamma': 3.3259090180277657, 'learning_rate': 0.0574460922106168, 'max_depth': 9, 'min_child_weight': 8, 'n_estimators': 427, 'subsample': 0.8553837420547115}), OrderedDict({'colsample_bytree': 0.7473781086291772, 'gamma': 2.8481143401579856, 'learning_rate': 0.034733336325053016, 'max_depth': 14, 'min_child_weight': 9, 'n_estimators': 270, 'subsample': 0.6672096297482706}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.021574157310555512, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7841453625296282}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.0224405685127983, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.814848684602874, 'gamma': 0.0, 'learning_rate': 0.013269438530046026, 'max_depth': 1, 'min_child_weight': 5, 'n_estimators': 500, 'subsample': 0.6327986303794542}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.07762316135987524, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.18177675452565079, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 421, 'subsample': 0.8777608225420667}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.1759661895911705, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.9088848994101719}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.012649580478735527, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.018697567050334134, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 69, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9999999999999999, 'gamma': 0.0, 'learning_rate': 0.03022636370609792, 'max_depth': 15, 'min_child_weight': 8, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.23157614833395107, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 178, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.21845352916849095, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 255, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 80, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.08467254023442336, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 155, 'subsample': 0.5426246441477574}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.15912499111560915, 'max_depth': 4, 'min_child_weight': 5, 'n_estimators': 160, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7334311897003467, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8701080173413833}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 240, 'subsample': 0.6514331532321921}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9109323035126446, 'gamma': 3.1451597609564197, 'learning_rate': 0.01, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7506624394590489, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.6545686473961074}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 167, 'subsample': 0.5990735388924807}), OrderedDict({'colsample_bytree': 0.6533292782561985, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 241, 'subsample': 0.7435000327946693}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9125321357461255}), OrderedDict({'colsample_bytree': 0.6840872977617389, 'gamma': 0.18137258632504466, 'learning_rate': 0.038224529388156646, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 491, 'subsample': 0.8524360349476677}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 2.495224014863729, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7468714616124938}), OrderedDict({'colsample_bytree': 0.8087166907176249, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 351, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6232882458138804, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8324959894239667}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 300, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 122, 'subsample': 0.607458722615262}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 198, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 127, 'subsample': 0.53352550015037}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.052368528177449566, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.24932690853099065, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.8082272512650654}), OrderedDict({'colsample_bytree': 0.6829466205267967, 'gamma': 3.275959976111338, 'learning_rate': 0.019325076227010202, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 348, 'subsample': 0.9883283604912977}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.10728611120188741, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.714207356981432})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.6869317139995427, 'gamma': 0.40725403433464763, 'learning_rate': 0.15300275167142868, 'max_depth': 11, 'min_child_weight': 5, 'n_estimators': 126, 'subsample': 0.894043601280599}), OrderedDict({'colsample_bytree': 0.7652739828174211, 'gamma': 1.6680232435316746, 'learning_rate': 0.029255497160268904, 'max_depth': 3, 'min_child_weight': 9, 'n_estimators': 212, 'subsample': 0.645458993988839}), OrderedDict({'colsample_bytree': 0.9280356614770757, 'gamma': 4.650731465631303, 'learning_rate': 0.19282312171311627, 'max_depth': 5, 'min_child_weight': 10, 'n_estimators': 326, 'subsample': 0.9307203280161531}), OrderedDict({'colsample_bytree': 0.8073418381483252, 'gamma': 0.42428647659695734, 'learning_rate': 0.13549520290675982, 'max_depth': 10, 'min_child_weight': 7, 'n_estimators': 347, 'subsample': 0.731865267772206}), OrderedDict({'colsample_bytree': 0.8530189530279009, 'gamma': 3.396048449070244, 'learning_rate': 0.06038814133744424, 'max_depth': 12, 'min_child_weight': 7, 'n_estimators': 366, 'subsample': 0.8945543220880552}), OrderedDict({'colsample_bytree': 0.625125097110052, 'gamma': 1.1737728361883417, 'learning_rate': 0.06858411677442314, 'max_depth': 12, 'min_child_weight': 7, 'n_estimators': 426, 'subsample': 0.8322496689014514}), OrderedDict({'colsample_bytree': 0.9064137257302647, 'gamma': 1.4072561518947138, 'learning_rate': 0.14329284810552212, 'max_depth': 14, 'min_child_weight': 9, 'n_estimators': 137, 'subsample': 0.8478840731640523}), OrderedDict({'colsample_bytree': 0.5459705835861314, 'gamma': 0.32090228602444654, 'learning_rate': 0.10610904892274693, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 286, 'subsample': 0.7908064180806365}), OrderedDict({'colsample_bytree': 0.5070784882576015, 'gamma': 0.2100197988583752, 'learning_rate': 0.03298587352273595, 'max_depth': 5, 'min_child_weight': 10, 'n_estimators': 170, 'subsample': 0.8673446084426567}), OrderedDict({'colsample_bytree': 0.9257470622536095, 'gamma': 4.688151684828467, 'learning_rate': 0.04853982744931487, 'max_depth': 8, 'min_child_weight': 6, 'n_estimators': 93, 'subsample': 0.6171731462514781}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.06775704321538359, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6550492296691157}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.3150386142096666, 'learning_rate': 0.1380758356473987, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.558499335850248}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.07447102267729544, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 58, 'subsample': 0.5266036618531807}), OrderedDict({'colsample_bytree': 0.8422214260511802, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 298, 'subsample': 0.5826529751006347}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.11717141064115581, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 494, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.5854008981005636, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5117079897912038, 'gamma': 0.7943492379676125, 'learning_rate': 0.24495726131118314, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6428638599768253, 'gamma': 0.0, 'learning_rate': 0.01445104667923999, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 440, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.3163926026503952, 'learning_rate': 0.02618908226357027, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7782488645974497}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 2, 'n_estimators': 500, 'subsample': 0.7348178779321255}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 3.524030574470926, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 92, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.03468077362251626, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 435, 'subsample': 0.6210547629744689}), OrderedDict({'colsample_bytree': 0.6563208320761572, 'gamma': 0.0, 'learning_rate': 0.018346312619458207, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 278, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8184036378184542, 'gamma': 0.09912606515387502, 'learning_rate': 0.013980925514563477, 'max_depth': 14, 'min_child_weight': 9, 'n_estimators': 413, 'subsample': 0.5578741019882855}), OrderedDict({'colsample_bytree': 0.788529629547194, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7111156637687022, 'gamma': 0.08488680746177599, 'learning_rate': 0.08081619800044425, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 294, 'subsample': 0.918807489601722}), OrderedDict({'colsample_bytree': 0.5608284693285627, 'gamma': 4.884084842722495, 'learning_rate': 0.18989300160254685, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 461, 'subsample': 0.979443817854217}), OrderedDict({'colsample_bytree': 0.8994416209511503, 'gamma': 4.096406632590513, 'learning_rate': 0.010327786324198071, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 471, 'subsample': 0.6835065420476341}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.036481611074985994, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9754594935558194, 'gamma': 4.8834881550930165, 'learning_rate': 0.17301773236840648, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8918670604970597}), OrderedDict({'colsample_bytree': 0.9430423530157864, 'gamma': 0.18751839428851727, 'learning_rate': 0.2827347446250307, 'max_depth': 1, 'min_child_weight': 9, 'n_estimators': 492, 'subsample': 0.5195289309044604}), OrderedDict({'colsample_bytree': 0.9794302927840961, 'gamma': 0.1090451228852496, 'learning_rate': 0.06665931041151996, 'max_depth': 11, 'min_child_weight': 3, 'n_estimators': 341, 'subsample': 0.8421127344621324}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.052421673413663175, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 374, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.06051982393181104, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 303, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.027282578513677675, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 439, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7376191261167545, 'gamma': 0.5514604407171609, 'learning_rate': 0.010310024898352572, 'max_depth': 14, 'min_child_weight': 9, 'n_estimators': 60, 'subsample': 0.9292198439999073}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.026250558720834344, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 462, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.02036276959538782, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 447, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 220, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.02599783647139012, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 445, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9376911145849396, 'gamma': 0.05592097703845334, 'learning_rate': 0.030416718207108725, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 78, 'subsample': 0.7100436792384632}), OrderedDict({'colsample_bytree': 0.5061993400305969, 'gamma': 3.470974815877963, 'learning_rate': 0.011197738903943008, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 117, 'subsample': 0.5916135407609601}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.22490374645367503, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.04400146187268322, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 364, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8949941821721306, 'gamma': 0.0, 'learning_rate': 0.04229785272561733, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 412, 'subsample': 0.5})]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="O17" t="n">
         <v>0.8166666666666667</v>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[0.9505494505494506, 0.9761904761904763, 0.9029304029304029, 0.8791208791208792, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9523809523809524, 0.9505494505494506, 0.9029304029304029, 1.0, 0.9761904761904763, 0.8498168498168498, 0.9285714285714285, 1.0, 0.9743589743589745, 0.9267399267399267, 0.9505494505494506, 0.8278388278388279, 0.9743589743589745, 0.9761904761904763, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 1.0, 0.9267399267399267, 1.0, 1.0, 0.8553113553113553, 0.9505494505494506, 1.0, 0.9505494505494506, 1.0, 1.0, 0.9010989010989011, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9029304029304029, 1.0, 0.9267399267399267, 0.9505494505494506, 0.9505494505494506, 0.9267399267399267, 1.0, 1.0, 0.8791208791208792, 0.9523809523809524, 0.9267399267399267, 0.9267399267399267]</t>
+          <t>[0.9505494505494506, 0.9285714285714285, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9029304029304029, 0.9523809523809524, 0.9761904761904763, 0.9267399267399267, 0.9267399267399267, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9523809523809524, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 1.0, 0.9267399267399267, 1.0, 0.9523809523809524, 1.0, 1.0, 0.9267399267399267, 0.9505494505494506, 0.9761904761904763, 1.0, 0.9285714285714285, 0.9267399267399267, 1.0, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.8315018315018315, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 0.9249084249084248, 1.0, 1.0, 0.9505494505494506, 1.0, 0.9743589743589745, 0.9010989010989011, 0.9743589743589745, 1.0, 1.0]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.9267399267399267, 0.9505494505494506, 0.9267399267399267, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9267399267399267, 0.9505494505494506, 0.9029304029304029, 0.9505494505494506, 0.9743589743589745, 0.8772893772893773, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745, 0.9267399267399267, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9029304029304029, 0.9505494505494506, 0.9743589743589745, 0.9761904761904763, 0.9743589743589745, 0.9267399267399267, 0.9505494505494506, 0.9505494505494506, 0.9267399267399267, 0.9505494505494506]</t>
+          <t>[0.9505494505494506, 0.9267399267399267, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9267399267399267, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9267399267399267, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9761904761904763, 0.9743589743589745, 0.9505494505494506, 0.9267399267399267, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.9285714285714285, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9761904761904763, 0.9267399267399267, 0.9505494505494506, 0.9743589743589745, 0.9743589743589745]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[0.9010989010989011, 0.9761904761904763, 0.9267399267399267, 0.9010989010989011, 0.9761904761904763, 0.9505494505494506, 0.9249084249084248, 0.9505494505494506, 0.9505494505494506, 0.9267399267399267, 0.9761904761904763, 0.9761904761904763, 0.8754578754578755, 0.9505494505494506, 0.9761904761904763, 0.9743589743589745, 0.9761904761904763, 0.9743589743589745, 0.8498168498168498, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9761904761904763, 0.9743589743589745, 0.9267399267399267, 0.9505494505494506, 0.9761904761904763, 0.9743589743589745, 0.9249084249084248, 0.9761904761904763, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9505494505494506, 0.9249084249084248, 0.9761904761904763, 0.9523809523809524, 0.9743589743589745, 1.0, 0.9505494505494506, 0.9761904761904763, 0.9761904761904763, 0.9743589743589745, 0.9743589743589745, 0.8992673992673993, 0.9505494505494506]</t>
+          <t>[0.9761904761904763, 0.9505494505494506, 0.9505494505494506, 0.9743589743589745, 0.8992673992673993, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9743589743589745, 0.9523809523809524, 0.9743589743589745, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9505494505494506, 0.9523809523809524, 0.9743589743589745, 0.9505494505494506, 0.9743589743589745, 0.9761904761904763, 0.9761904761904763, 0.9505494505494506, 0.9761904761904763, 0.9505494505494506, 0.9010989010989011, 1.0, 0.9761904761904763, 0.9505494505494506, 0.9743589743589745, 1.0, 0.9249084249084248, 0.9761904761904763, 1.0, 0.8736263736263736, 0.9743589743589745, 1.0, 1.0, 0.9505494505494506, 0.9761904761904763, 1.0, 0.9505494505494506, 1.0, 1.0, 0.9505494505494506, 1.0, 0.9505494505494506, 0.9010989010989011, 1.0, 1.0, 1.0]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 1.0, 1.0, 0.8809523809523809, 0.9523809523809524, 1.0, 1.0, 1.0, 1.0, 0.8809523809523809, 0.9761904761904763, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9285714285714285, 0.9761904761904763, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 1.0, 1.0, 0.9761904761904763, 1.0, 1.0, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524]</t>
+          <t>[1.0, 0.9523809523809524, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9285714285714285, 1.0, 0.9761904761904763, 1.0, 1.0, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9523809523809524, 0.9523809523809524, 1.0, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9523809523809524, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9505494505494506, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9029304029304029, 1.0, 1.0, 1.0]</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[0.7728937728937728, 0.923076923076923, 0.7728937728937728, 0.7985347985347985, 0.7967032967032969, 0.8223443223443224, 0.847985347985348, 0.7985347985347985, 0.7728937728937728, 0.7728937728937728, 0.923076923076923, 0.8974358974358975, 0.7728937728937728, 0.8223443223443224, 0.8992673992673993, 0.8717948717948718, 0.8974358974358975, 0.8974358974358975, 0.7490842490842491, 0.8223443223443224, 0.8974358974358975, 0.9487179487179488, 0.9487179487179488, 0.8974358974358975, 0.8717948717948718, 0.8479853479853481, 0.923076923076923, 0.923076923076923, 0.7967032967032969, 0.7728937728937728, 0.923076923076923, 0.923076923076923, 0.923076923076923, 0.923076923076923, 0.8736263736263736, 0.8736263736263736, 0.9487179487179488, 0.8223443223443224, 0.7728937728937728, 0.923076923076923, 0.8223443223443224, 0.9487179487179488, 0.8717948717948718, 0.8736263736263737, 0.923076923076923, 0.8974358974358975, 0.7967032967032969, 0.847985347985348, 0.7985347985347985, 0.7967032967032969]</t>
+          <t>[0.8974358974358975, 0.8223443223443224, 0.7728937728937728, 0.8736263736263736, 0.7985347985347985, 0.8479853479853481, 0.8223443223443224, 0.8974358974358975, 0.8223443223443224, 0.7728937728937728, 0.923076923076923, 0.8974358974358975, 0.8974358974358975, 0.8974358974358975, 0.923076923076923, 0.8974358974358975, 0.8717948717948718, 0.923076923076923, 0.923076923076923, 0.8974358974358975, 0.8974358974358975, 0.923076923076923, 0.8974358974358975, 0.8223443223443224, 0.7985347985347985, 0.9487179487179488, 0.923076923076923, 0.7985347985347985, 0.8717948717948718, 0.8974358974358975, 0.8223443223443224, 0.7985347985347985, 0.923076923076923, 0.7985347985347985, 0.847985347985348, 0.8717948717948718, 0.9487179487179488, 0.8974358974358975, 0.923076923076923, 0.9487179487179488, 0.7728937728937728, 0.9487179487179488, 0.9487179487179488, 0.8974358974358975, 0.9487179487179488, 0.8717948717948718, 0.7728937728937728, 0.8717948717948718, 0.9487179487179488, 0.9487179487179488]</t>
         </is>
       </c>
     </row>
@@ -2136,52 +2136,52 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7809036658141517</v>
+        <v>0.8201193520886615</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8281720916214588</v>
+        <v>0.8559667151825224</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8354430379746836</v>
+        <v>0.8607594936708861</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8308238951809904</v>
+        <v>0.8574748617200936</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[[11, 3, 3], [0, 39, 0], [4, 3, 16]]</t>
+          <t>[[13, 1, 3], [0, 39, 0], [4, 3, 16]]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 50})</t>
+          <t>OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 150})</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[0.96010101010101, 0.942929292929293, 0.942929292929293, 0.942929292929293, 0.9601010101010102, 0.9424242424242424, 0.942929292929293, 0.942929292929293, 0.96010101010101, 0.9484848484848485, 0.9318181818181819, 0.9313131313131313, 0.9661616161616161, 0.9717171717171718, 0.9434343434343434, 0.9540404040404041, 0.9489898989898989, 0.9489898989898989, 0.96010101010101, 0.942929292929293, 0.9712121212121213, 0.9545454545454545, 0.9489898989898989, 0.9656565656565658, 0.9656565656565658, 0.9712121212121213, 0.9712121212121213, 0.954040404040404, 0.9368686868686869, 0.9308080808080808, 0.9656565656565658, 0.9656565656565658, 0.9651515151515152, 0.9606060606060606, 0.9656565656565655, 0.9712121212121213, 0.9656565656565658, 0.9712121212121213, 0.9484848484848485, 0.9545454545454545, 0.9535353535353535, 0.9535353535353537, 0.9772727272727273, 0.9535353535353537, 0.9535353535353535, 0.9368686868686869, 0.9252525252525252, 0.9202020202020202, 0.9252525252525252, 0.942929292929293]</t>
+          <t>[0.954040404040404, 0.9434343434343434, 0.942929292929293, 0.9424242424242424, 0.9484848484848485, 0.9484848484848485, 0.942929292929293, 0.9601010101010102, 0.9434343434343434, 0.9484848484848485, 0.9313131313131313, 0.9545454545454545, 0.9656565656565658, 0.9712121212121213, 0.9772727272727273, 0.942929292929293, 0.954040404040404, 0.9484848484848486, 0.942929292929293, 0.9712121212121213, 0.9712121212121213, 0.9252525252525252, 0.9712121212121213, 0.9545454545454545, 0.9252525252525252, 0.9373737373737374, 0.9252525252525252, 0.96010101010101, 0.9545454545454545, 0.9373737373737374, 0.9606060606060606, 0.9767676767676768, 0.9717171717171718, 0.9601010101010102, 0.9656565656565658, 0.9595959595959597, 0.9590909090909092, 0.9535353535353535, 0.9656565656565655, 0.9434343434343434, 0.9540404040404041, 0.9540404040404041, 0.9540404040404041, 0.9484848484848485, 0.9540404040404041, 0.9656565656565658, 0.9540404040404041, 0.9656565656565658, 0.9540404040404041, 0.9540404040404041]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[0.013868212341157583, 0.03637065027755316, 0.03637065027755316, 0.03637065027755316, 0.013868212341157532, 0.025473778207916145, 0.03637065027755316, 0.03559083419686435, 0.013868212341157583, 0.028101874228774856, 0.03839712688635997, 0.029074420130554002, 0.032754384579981755, 0.018377177170363884, 0.02998996533192629, 0.03511463292074478, 0.032157085615619384, 0.02041553831455329, 0.013868212341157583, 0.03637065027755316, 0.01839105197579103, 0.022130204343643087, 0.02041553831455329, 0.011908915275304634, 0.011908915275304634, 0.01839105197579103, 0.01839105197579103, 0.023656643290162357, 0.049355606782050664, 0.029388558638335626, 0.011908915275304634, 0.011908915275304634, 0.028986555257134818, 0.028641306825773392, 0.02122414281762699, 0.01839105197579103, 0.011908915275304634, 0.01839105197579103, 0.03397755190212957, 0.022755313790037972, 0.029647798225129637, 0.029647798225129623, 0.021605302662835793, 0.030159593185522433, 0.029647798225129637, 0.04551062758007595, 0.03382707484775824, 0.037983021569622556, 0.022956198338108042, 0.03637065027755316]</t>
+          <t>[0.03430627817725595, 0.03515819047264059, 0.03637065027755316, 0.04076230055349708, 0.028101874228774856, 0.028101874228774856, 0.03637065027755316, 0.013868212341157532, 0.03515819047264059, 0.028101874228774856, 0.03864213992603747, 0.022130204343643087, 0.011908915275304634, 0.01839105197579103, 0.021605302662835793, 0.03637065027755316, 0.03430627817725595, 0.03397755190212957, 0.03637065027755316, 0.01839105197579103, 0.01839105197579103, 0.03382707484775824, 0.01839105197579103, 0.013457487469165927, 0.03382707484775824, 0.0416903819868463, 0.03382707484775824, 0.013868212341157583, 0.022130204343643087, 0.0416903819868463, 0.028641306825773392, 0.021746515294556547, 0.018377177170363884, 0.013868212341157532, 0.011908915275304634, 0.029750861565703293, 0.03002396757111483, 0.029647798225129637, 0.02122414281762699, 0.02998996533192629, 0.03511463292074478, 0.03511463292074478, 0.03511463292074478, 0.03397755190212957, 0.03511463292074478, 0.011908915275304634, 0.03511463292074478, 0.011908915275304634, 0.03511463292074478, 0.03511463292074478]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[18, 35, 35, 35, 17, 42, 35, 35, 18, 32, 45, 46, 8, 2, 34, 23, 29, 29, 18, 35, 3, 21, 29, 9, 9, 3, 3, 24, 43, 47, 9, 9, 15, 16, 14, 3, 9, 3, 32, 21, 27, 25, 1, 25, 27, 43, 48, 50, 48, 35]</t>
+          <t>[29, 37, 40, 44, 33, 33, 40, 14, 37, 33, 47, 19, 8, 4, 1, 40, 29, 32, 40, 4, 4, 48, 4, 19, 48, 45, 48, 16, 19, 45, 13, 2, 3, 14, 8, 17, 18, 31, 12, 37, 22, 22, 22, 33, 22, 8, 22, 8, 22, 22]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 5, 'min_samples_split': 8, 'n_estimators': 249}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 6, 'min_samples_split': 10, 'n_estimators': 277}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 5, 'min_samples_split': 14, 'n_estimators': 281}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 6, 'min_samples_split': 11, 'n_estimators': 136}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 6, 'min_samples_split': 13, 'n_estimators': 120}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 87}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 121}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 2, 'min_samples_split': 13, 'n_estimators': 245}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 4, 'min_samples_split': 10, 'n_estimators': 178}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 16, 'n_estimators': 146}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 20, 'n_estimators': 297}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 19, 'n_estimators': 274}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 78}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 92}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 3, 'n_estimators': 51}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 296}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 10, 'min_samples_split': 19, 'n_estimators': 51}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 61}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 272}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 14, 'n_estimators': 295}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 52}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 111}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 108}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 262}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 193}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 137}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 59}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 256}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 17, 'n_estimators': 60}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 3, 'n_estimators': 57}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 295}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 17, 'n_estimators': 288}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 290}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 66}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 265}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 2, 'n_estimators': 53}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 9, 'min_samples_split': 2, 'n_estimators': 66}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50})]</t>
+          <t>[OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 2, 'min_samples_split': 16, 'n_estimators': 69}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 19, 'n_estimators': 71}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 7, 'min_samples_split': 11, 'n_estimators': 260}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 9, 'min_samples_split': 8, 'n_estimators': 68}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 8, 'min_samples_split': 16, 'n_estimators': 197}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 9, 'n_estimators': 286}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 6, 'min_samples_split': 13, 'n_estimators': 173}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 7, 'min_samples_split': 9, 'n_estimators': 104}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 9, 'min_samples_split': 17, 'n_estimators': 166}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 273}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 7, 'min_samples_split': 19, 'n_estimators': 72}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 2, 'min_samples_split': 4, 'n_estimators': 287}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 281}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 150}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 212}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 262}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 4, 'min_samples_split': 13, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 3, 'min_samples_split': 19, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 11, 'n_estimators': 295}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 3, 'min_samples_split': 4, 'n_estimators': 153}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 134}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 10, 'min_samples_split': 15, 'n_estimators': 227}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 8, 'min_samples_split': 19, 'n_estimators': 298}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 19, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 5, 'min_samples_split': 8, 'n_estimators': 142}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 15, 'n_estimators': 202}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 9, 'min_samples_split': 15, 'n_estimators': 249}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 68}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 3, 'min_samples_split': 3, 'n_estimators': 54}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 8, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 146}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 279}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 224}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 281}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 294}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 111}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 292}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 61}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 296}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 273})]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8354430379746836</v>
+        <v>0.8607594936708861</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -2190,27 +2190,27 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[0.9444444444444443, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9444444444444445, 0.9166666666666666, 0.9166666666666666, 0.888888888888889, 0.9444444444444443, 0.9166666666666666, 0.888888888888889, 0.9166666666666666, 0.9166666666666666, 0.9722222222222222, 0.888888888888889, 0.9722222222222222, 0.888888888888889, 0.9166666666666666, 0.9444444444444443, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9166666666666666, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444445, 0.9722222222222222, 0.9444444444444445, 0.9444444444444443, 0.888888888888889, 0.888888888888889, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666]</t>
+          <t>[0.9166666666666666, 0.888888888888889, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9444444444444445, 0.888888888888889, 0.9166666666666666, 0.888888888888889, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9166666666666666, 0.9444444444444445, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.888888888888889, 1.0, 0.9444444444444443, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.9444444444444443, 0.9166666666666666, 0.888888888888889, 0.9166666666666666, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.888888888888889, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 1.0, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9166666666666666, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 0.9166666666666666, 0.9444444444444443, 0.9722222222222222]</t>
+          <t>[1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 1.0, 1.0, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9393939393939394, 0.9393939393939394, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 1.0, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 1.0, 0.9393939393939394, 0.9696969696969697, 0.9393939393939394, 0.9393939393939394, 0.9393939393939394, 0.9393939393939394, 0.9696969696969697]</t>
+          <t>[0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9393939393939394, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9393939393939394, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 1.0, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9393939393939394, 0.9696969696969697, 0.9696969696969697, 0.9393939393939394, 0.9696969696969697, 0.9393939393939394, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 1.0, 0.9696969696969697, 1.0, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9419191919191919, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222]</t>
+          <t>[0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9419191919191919, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[0.9419191919191919, 0.883838383838384, 0.883838383838384, 0.883838383838384, 0.9419191919191919, 0.9116161616161617, 0.883838383838384, 0.9116161616161617, 0.9419191919191919, 0.9116161616161617, 0.883838383838384, 0.883838383838384, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.883838383838384, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.883838383838384, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9116161616161617, 0.8560606060606061, 0.883838383838384, 0.9419191919191919, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.883838383838384, 0.9141414141414143, 0.9116161616161617, 0.9116161616161617, 0.9419191919191919, 0.9116161616161617, 0.9116161616161617, 0.883838383838384, 0.883838383838384, 0.8560606060606061, 0.883838383838384, 0.883838383838384]</t>
+          <t>[0.9116161616161617, 0.9141414141414143, 0.883838383838384, 0.883838383838384, 0.9116161616161617, 0.9116161616161617, 0.883838383838384, 0.9419191919191919, 0.9141414141414143, 0.9116161616161617, 0.883838383838384, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.883838383838384, 0.9116161616161617, 0.883838383838384, 0.883838383838384, 0.9419191919191919, 0.9419191919191919, 0.883838383838384, 0.9419191919191919, 0.9419191919191919, 0.883838383838384, 0.883838383838384, 0.883838383838384, 0.9419191919191919, 0.9419191919191919, 0.883838383838384, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9116161616161617, 0.9116161616161617, 0.9116161616161617, 0.9419191919191919, 0.9419191919191919, 0.883838383838384, 0.883838383838384, 0.883838383838384, 0.883838383838384, 0.883838383838384, 0.9419191919191919, 0.883838383838384, 0.9419191919191919, 0.883838383838384, 0.883838383838384]</t>
         </is>
       </c>
     </row>
@@ -2322,52 +2322,52 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8397271952259165</v>
+        <v>0.8593350383631714</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8740522191554836</v>
+        <v>0.8864321846723823</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8734177215189873</v>
+        <v>0.8860759493670886</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8823006884299355</v>
+        <v>0.8991816903209309</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[[14, 0, 3], [0, 39, 0], [7, 0, 16]]</t>
+          <t>[[15, 0, 2], [0, 39, 0], [7, 0, 16]]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 942, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.009850496093187172, 'max_iter': 500, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.8414141414141414, 0.6267676767676768, 0.7525252525252526, 0.7474747474747475, 0.804040404040404, 0.5712121212121213, 0.4696969696969697, 0.6510101010101009, 0.8686868686868685, 0.7313131313131312, 0.8974747474747474, 0.8196969696969696, 0.8974747474747474, 0.9161616161616163, 0.8671717171717171, 0.88989898989899, 0.8919191919191919, 0.3388888888888889, 0.8747474747474747, 0.4686868686868687, 0.6883838383838383, 0.7373737373737372, 0.6929292929292928, 0.692929292929293, 0.6984848484848485, 0.6707070707070707, 0.6984848484848485, 0.704040404040404, 0.6717171717171717, 0.6212121212121212, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.6545454545454545, 0.6156565656565656, 0.5823232323232322, 0.9161616161616163, 0.5878787878787879, 0.6510101010101009, 0.6232323232323231, 0.6510101010101009, 0.6232323232323232]</t>
+          <t>[0.6227272727272727, 0.891919191919192, 0.6212121212121212, 0.858080808080808, 0.7833333333333334, 0.7873737373737373, 0.6212121212121212, 0.7116161616161617, 0.5262626262626262, 0.5949494949494949, 0.8363636363636363, 0.8803030303030301, 0.8808080808080808, 0.8974747474747474, 0.8747474747474747, 0.8853535353535353, 0.9202020202020202, 0.8868686868686868, 0.8828282828282827, 0.85, 0.4696969696969697, 0.4696969696969696, 0.48535353535353537, 0.5262626262626262, 0.5025252525252525, 0.6101010101010101, 0.542929292929293, 0.3388888888888889, 0.6777777777777778, 0.5929292929292929, 0.8641414141414142, 0.8585858585858587, 0.8641414141414142, 0.8641414141414142, 0.6388888888888888, 0.7222222222222222, 0.6323232323232323, 0.8141414141414142, 0.8641414141414142, 0.8641414141414142, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.8974747474747474, 0.858080808080808, 0.8974747474747474, 0.9161616161616163, 0.8919191919191919, 0.8813131313131313]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.04298570268879437, 0.013868212341157558, 0.12680690768868863, 0.13808306176254867, 0.13763529763689392, 0.12040344722245588, 0.05839834149318083, 0.057327125752172574, 0.05143090754788266, 0.1460687788484246, 0.04771591441992601, 0.10855179169622754, 0.04771591441992601, 0.046492086759050734, 0.06500453234651585, 0.06727985523556301, 0.05604467878214574, 0.011111111111111117, 0.07198697293978519, 0.012535023884839206, 0.11462087553165032, 0.11168355751260599, 0.09161621729977264, 0.08850064431678031, 0.0956614187114895, 0.07948089411508744, 0.0943322944561917, 0.1007749788772867, 0.09543984708597723, 0.021486916551699625, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.08879988657153126, 0.1274629810958533, 0.07588541402421392, 0.046492086759050734, 0.08033955080867951, 0.08444166541268346, 0.11150526965438845, 0.08070384691605659, 0.10230732673251085]</t>
+          <t>[0.08461065755024351, 0.06456750228079552, 0.021486916551699625, 0.04223744348900015, 0.041812569769331724, 0.12811171280591602, 0.021486916551699625, 0.1399673464623323, 0.04830036450911205, 0.11810625228104868, 0.09337836160743088, 0.05445653058256174, 0.06649426744694449, 0.04771591441992601, 0.049034136020282684, 0.06523954588366965, 0.022732883706923043, 0.06385244698698629, 0.07967321790195216, 0.08591204515137336, 0.05012483141737176, 0.0658505293454813, 0.05043935120705613, 0.04830036450911205, 0.05093253428476245, 0.023721249627913873, 0.06978109401207677, 0.011111111111111117, 0.12555965927779242, 0.056044678782145745, 0.07888171050774244, 0.07172784100463504, 0.07888171050774244, 0.07888171050774244, 0.034179645082199235, 0.09662185085711611, 0.010666016203001463, 0.10021912529141387, 0.07888171050774244, 0.07888171050774244, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.04771591441992601, 0.03767284080600306, 0.04771591441992601, 0.046492086759050734, 0.05604467878214574, 0.05527938704045302]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[21, 40, 24, 25, 23, 47, 48, 37, 19, 27, 3, 22, 3, 1, 20, 17, 16, 50, 18, 49, 33, 26, 32, 31, 29, 35, 29, 28, 34, 43, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 36, 44, 46, 1, 45, 37, 42, 37, 41]</t>
+          <t>[37, 10, 38, 25, 31, 30, 38, 33, 44, 41, 28, 17, 16, 3, 18, 13, 1, 12, 14, 27, 48, 49, 47, 44, 46, 40, 43, 50, 34, 42, 19, 24, 19, 19, 35, 32, 36, 29, 19, 19, 3, 3, 3, 3, 3, 25, 3, 2, 11, 15]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'logistic', 'alpha': 6.43806956098269e-06, 'learning_rate_init': 0.002604704481367835, 'max_iter': 2159, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00042834773197896706, 'learning_rate_init': 0.0007588996510123813, 'max_iter': 1654, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 9.003271391614175e-05, 'learning_rate_init': 0.0011472995029626202, 'max_iter': 2940, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.09616287434282947, 'learning_rate_init': 0.0014003295082101067, 'max_iter': 1739, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.04605354288849338, 'learning_rate_init': 0.0012283792588989424, 'max_iter': 2289, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.8032815058522904e-06, 'learning_rate_init': 0.0003754501685667934, 'max_iter': 2660, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 7.601066230732878e-05, 'learning_rate_init': 0.00011037093828854249, 'max_iter': 769, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.08458029038393568, 'learning_rate_init': 0.007804105245530609, 'max_iter': 569, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.943182282670895e-05, 'learning_rate_init': 0.004263793310862991, 'max_iter': 787, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 4.9975907994663495e-05, 'learning_rate_init': 0.0034764304881825213, 'max_iter': 1307, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.006522137221209473, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 942, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006440200010214806, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.005894920196567116, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.006051045853101833, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.560704273117429e-06, 'learning_rate_init': 0.0001, 'max_iter': 759, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1.5853561004549883e-06, 'learning_rate_init': 0.00337165129081114, 'max_iter': 1400, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 2.5771550404160796e-06, 'learning_rate_init': 0.000596153390874966, 'max_iter': 1523, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0006604433608493647, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0005722379635432934, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0006109559709829731, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0006089761547246229, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0005984759422088887, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.000611904171380424, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0005986484166113514, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0007215960651094888, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.000390747920748865, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1295, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1072, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1121, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1203, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1356, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1128, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1147, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1076, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1467, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1107, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2753, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 3.4273090810014107e-06, 'learning_rate_init': 0.0010949374395107187, 'max_iter': 794, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0013827098544408694, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0012242951069492787, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0012418715242537542, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0012591761447677877, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.001143188858509579, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0014484364506180082, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0012717979901949558, 'max_iter': 3000, 'solver': 'sgd'})]</t>
+          <t>[OrderedDict({'activation': 'tanh', 'alpha': 0.004231649230744391, 'learning_rate_init': 0.00047164817707710853, 'max_iter': 2900, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 8.834415595897627e-06, 'learning_rate_init': 0.0036146401824201143, 'max_iter': 1169, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 5.911414809318467e-05, 'learning_rate_init': 0.0001611735883372234, 'max_iter': 2194, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00025646031282154067, 'learning_rate_init': 0.0024512153424326878, 'max_iter': 714, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.9245159699655974e-05, 'learning_rate_init': 0.007595204781615511, 'max_iter': 2374, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.007959236050568579, 'learning_rate_init': 0.0038476559145474384, 'max_iter': 1591, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.050507653211652195, 'learning_rate_init': 0.0004686424185269836, 'max_iter': 2765, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00021604137864823957, 'learning_rate_init': 0.0009809593546280713, 'max_iter': 1732, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.04104119935442339, 'learning_rate_init': 0.00044698887411492063, 'max_iter': 2570, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 2.8131401381970664e-06, 'learning_rate_init': 0.0004075322248693448, 'max_iter': 2236, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.004979674438298766, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006506845798178853, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.005036377022210496, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 5.119122296660362e-05, 'learning_rate_init': 0.007673561215064913, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008195605600343034, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.009850496093187172, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008465094321406855, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008705404754247413, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008904013137571866, 'max_iter': 1169, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 9.465118213903283e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.351107165564503e-06, 'learning_rate_init': 0.00012870795999395479, 'max_iter': 674, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.005294339716641756, 'learning_rate_init': 0.0001, 'max_iter': 602, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00044147242663067696, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.04595618634220343, 'learning_rate_init': 0.00021407737073907425, 'max_iter': 528, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 4.060767024824155e-05, 'learning_rate_init': 0.0001246140626179082, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0003542202886346796, 'max_iter': 705, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00015275554259361028, 'learning_rate_init': 0.0001, 'max_iter': 1002, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.00026314604482247024, 'max_iter': 793, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0006362558079255601, 'max_iter': 1044, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.007944852517119417, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 511, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1346, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0045149463170767595, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.004883194427674297, 'max_iter': 1319, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.005912896612452305, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2290, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2736, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1144, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 825, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2177, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2917, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.07968123412753353, 'learning_rate_init': 0.003128365446491891, 'max_iter': 1716, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.004510283725435681, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.020265047401285624, 'learning_rate_init': 0.0034698900257142786, 'max_iter': 3000, 'solver': 'adam'})]</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8734177215189873</v>
+        <v>0.8860759493670886</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2376,27 +2376,27 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[0.8611111111111112, 0.6388888888888888, 0.5, 0.47222222222222215, 0.7777777777777778, 0.47222222222222227, 0.4444444444444445, 0.6111111111111112, 0.8333333333333334, 0.7777777777777778, 0.9166666666666666, 0.6111111111111112, 0.9166666666666666, 0.9166666666666666, 0.8055555555555555, 0.9166666666666666, 0.9166666666666666, 0.3333333333333333, 0.7777777777777778, 0.47222222222222227, 0.6388888888888888, 0.8055555555555555, 0.75, 0.7777777777777778, 0.7777777777777778, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.6388888888888888, 0.6388888888888888, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.5277777777777778, 0.5, 0.5555555555555556, 0.9166666666666666, 0.5555555555555556, 0.6111111111111112, 0.47222222222222227, 0.5833333333333334, 0.5555555555555556]</t>
+          <t>[0.6111111111111112, 0.8055555555555555, 0.6388888888888888, 0.8611111111111112, 0.7777777777777778, 0.7777777777777778, 0.6388888888888888, 0.5, 0.5, 0.5, 0.6666666666666666, 0.8055555555555555, 0.7777777777777778, 0.9166666666666666, 0.8055555555555555, 0.8055555555555555, 0.9166666666666666, 0.8055555555555555, 0.75, 0.7777777777777778, 0.4444444444444445, 0.4444444444444445, 0.4444444444444445, 0.5, 0.5, 0.5833333333333334, 0.5277777777777778, 0.3333333333333333, 0.5, 0.5, 0.7777777777777778, 0.7777777777777778, 0.7777777777777778, 0.7777777777777778, 0.6111111111111112, 0.6388888888888888, 0.611111111111111, 0.6388888888888888, 0.7777777777777778, 0.7777777777777778, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.8333333333333334, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.861111111111111]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.8055555555555555, 0.6388888888888888, 0.8333333333333334, 0.8333333333333334, 0.9166666666666666, 0.5277777777777778, 0.4166666666666667, 0.6388888888888888, 0.9444444444444443, 0.9444444444444443, 0.9444444444444445, 0.888888888888889, 0.9444444444444445, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.3333333333333333, 0.9722222222222222, 0.47222222222222215, 0.6111111111111112, 0.8611111111111112, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6111111111111112, 0.5833333333333334, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.8055555555555555, 0.47222222222222215, 0.4444444444444444, 0.9722222222222222, 0.4444444444444444, 0.5277777777777778, 0.5277777777777778, 0.5555555555555556, 0.8055555555555555]</t>
+          <t>[0.5277777777777778, 0.9722222222222222, 0.5833333333333334, 0.888888888888889, 0.8055555555555557, 0.9444444444444443, 0.5833333333333334, 0.8333333333333334, 0.4444444444444444, 0.47222222222222215, 0.888888888888889, 0.9444444444444443, 0.9444444444444443, 0.9444444444444445, 0.9444444444444443, 0.9444444444444443, 0.9444444444444445, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.4166666666666667, 0.38888888888888884, 0.4166666666666667, 0.4444444444444444, 0.4166666666666667, 0.5833333333333334, 0.4444444444444444, 0.3333333333333333, 0.6666666666666666, 0.6388888888888888, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.6388888888888888, 0.861111111111111, 0.6388888888888888, 0.861111111111111, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.888888888888889, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[0.9166666666666666, 0.6363636363636364, 0.8030303030303031, 0.8055555555555555, 0.9419191919191919, 0.8030303030303031, 0.5808080808080808, 0.6060606060606061, 0.9166666666666666, 0.8005050505050505, 0.9444444444444443, 0.9166666666666666, 0.9444444444444443, 0.8333333333333334, 0.9419191919191919, 0.9419191919191919, 0.8333333333333334, 0.3333333333333333, 0.9419191919191919, 0.4621212121212121, 0.9166666666666666, 0.6641414141414141, 0.6641414141414141, 0.6641414141414141, 0.6641414141414141, 0.6641414141414141, 0.6641414141414141, 0.6641414141414141, 0.8611111111111112, 0.6363636363636364, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.6363636363636364, 0.8308080808080808, 0.6363636363636364, 0.8333333333333334, 0.6363636363636364, 0.7752525252525252, 0.7752525252525252, 0.7752525252525252, 0.6085858585858586]</t>
+          <t>[0.7752525252525252, 0.9419191919191919, 0.6363636363636364, 0.9166666666666666, 0.8308080808080808, 0.8308080808080808, 0.6363636363636364, 0.8333333333333334, 0.5530303030303031, 0.8030303030303031, 0.9444444444444445, 0.9419191919191919, 0.9419191919191919, 0.9444444444444443, 0.914141414141414, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.5530303030303031, 0.5808080808080808, 0.5227272727272728, 0.5530303030303031, 0.5530303030303031, 0.6363636363636364, 0.5530303030303031, 0.3333333333333333, 0.8308080808080809, 0.6363636363636364, 0.8005050505050505, 0.8005050505050505, 0.8005050505050505, 0.8005050505050505, 0.6060606060606061, 0.8005050505050505, 0.6363636363636364, 0.8005050505050505, 0.8005050505050505, 0.8005050505050505, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9166666666666666, 0.9444444444444443, 0.8333333333333334, 0.8333333333333334, 0.9444444444444445]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[0.8207070707070706, 0.611111111111111, 0.8232323232323232, 0.8232323232323232, 0.5555555555555555, 0.5656565656565656, 0.47222222222222215, 0.7626262626262627, 0.8207070707070706, 0.5555555555555555, 0.8510101010101009, 0.8535353535353535, 0.8510101010101009, 0.9444444444444445, 0.8510101010101009, 0.883838383838384, 0.8232323232323232, 0.3611111111111111, 0.8510101010101009, 0.44949494949494956, 0.6388888888888888, 0.5555555555555555, 0.5555555555555555, 0.5555555555555555, 0.5555555555555555, 0.5555555555555555, 0.5555555555555555, 0.5555555555555555, 0.611111111111111, 0.611111111111111, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.6414141414141414, 0.6414141414141414, 0.6414141414141414, 0.9444444444444445, 0.6414141414141414, 0.7070707070707071, 0.7070707070707071, 0.7070707070707071, 0.6414141414141414]</t>
+          <t>[0.5656565656565656, 0.9116161616161617, 0.611111111111111, 0.8232323232323232, 0.7954545454545454, 0.5555555555555555, 0.611111111111111, 0.5883838383838383, 0.5555555555555555, 0.5656565656565656, 0.8535353535353535, 0.8510101010101009, 0.9116161616161617, 0.8510101010101009, 0.8510101010101009, 0.8813131313131314, 0.9116161616161617, 0.8813131313131314, 0.9444444444444445, 0.8510101010101009, 0.5, 0.5, 0.5555555555555555, 0.5555555555555555, 0.5555555555555555, 0.611111111111111, 0.5277777777777778, 0.3611111111111111, 0.5883838383838383, 0.5555555555555555, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.702020202020202, 0.7070707070707071, 0.6388888888888888, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8510101010101009, 0.8232323232323232, 0.8510101010101009, 0.9444444444444445, 0.8232323232323232, 0.8535353535353535]</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>[0.8030303030303031, 0.6085858585858586, 0.8030303030303031, 0.8030303030303031, 0.8282828282828283, 0.4873737373737373, 0.4343434343434343, 0.6363636363636364, 0.8282828282828283, 0.5782828282828283, 0.8308080808080808, 0.8282828282828283, 0.8308080808080808, 0.914141414141414, 0.7929292929292929, 0.7626262626262625, 0.914141414141414, 0.3333333333333333, 0.8308080808080808, 0.4873737373737373, 0.6363636363636364, 0.8005050505050505, 0.8282828282828283, 0.8005050505050505, 0.8282828282828283, 0.6616161616161617, 0.8005050505050505, 0.8282828282828283, 0.6363636363636364, 0.6363636363636364, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.6616161616161617, 0.6338383838383838, 0.6338383838383838, 0.914141414141414, 0.6616161616161617, 0.6338383838383838, 0.6338383838383838, 0.6338383838383838, 0.5050505050505051]</t>
+          <t>[0.6338383838383838, 0.8282828282828283, 0.6363636363636364, 0.8005050505050505, 0.7070707070707071, 0.8282828282828283, 0.6363636363636364, 0.8030303030303031, 0.5782828282828283, 0.6338383838383838, 0.8282828282828283, 0.8585858585858586, 0.8282828282828283, 0.8308080808080808, 0.8585858585858586, 0.8232323232323232, 0.8838383838383838, 0.8308080808080808, 0.8308080808080808, 0.7323232323232323, 0.4343434343434343, 0.4343434343434343, 0.4873737373737373, 0.5782828282828283, 0.4873737373737373, 0.6363636363636364, 0.6616161616161617, 0.3333333333333333, 0.8030303030303031, 0.6338383838383838, 0.8257575757575758, 0.8257575757575758, 0.8257575757575758, 0.8257575757575758, 0.6363636363636364, 0.6035353535353535, 0.6363636363636364, 0.8257575757575758, 0.8257575757575758, 0.8257575757575758, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8308080808080808, 0.8282828282828283, 0.8308080808080808, 0.914141414141414, 0.914141414141414, 0.8030303030303031]</t>
         </is>
       </c>
     </row>
@@ -2508,52 +2508,52 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6990403742321901</v>
+        <v>0.7331409709926334</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7664556962025316</v>
+        <v>0.7923112986404125</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7721518987341772</v>
+        <v>0.7974683544303798</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7621899763301431</v>
+        <v>0.7895192887281495</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[[8, 1, 8], [1, 38, 0], [6, 2, 15]]</t>
+          <t>[[9, 3, 5], [1, 38, 0], [6, 1, 16]]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
+          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 4})</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[0.8186868686868687, 0.7838383838383838, 0.8186868686868687, 0.8343434343434343, 0.7949494949494949, 0.8565656565656565, 0.6368686868686868, 0.8540404040404042, 0.7702020202020201, 0.8131313131313131, 0.685858585858586, 0.8116161616161616, 0.6914141414141415, 0.7671717171717172, 0.6681818181818182, 0.5368686868686868, 0.8277777777777778, 0.5919191919191921, 0.7030303030303031, 0.903030303030303, 0.6681818181818182, 0.8116161616161616, 0.695959595959596, 0.6489898989898991, 0.6262626262626262, 0.7090909090909091, 0.5368686868686868, 0.6914141414141415, 0.6797979797979797, 0.8277777777777778, 0.657070707070707, 0.6262626262626262, 0.8954545454545453, 0.5984848484848484, 0.5853535353535355, 0.638888888888889, 0.7030303030303031, 0.8919191919191919, 0.6727272727272727, 0.657070707070707, 0.7595959595959596, 0.7732323232323233, 0.6222222222222223, 0.8186868686868687, 0.7752525252525252, 0.7030303030303031, 0.5368686868686868, 0.6262626262626262, 0.6964646464646465, 0.8575757575757577]</t>
+          <t>[0.7949494949494949, 0.8, 0.6272727272727272, 0.7954545454545453, 0.6727272727272727, 0.7904040404040404, 0.6762626262626262, 0.8474747474747476, 0.8429292929292929, 0.7954545454545453, 0.5919191919191921, 0.657070707070707, 0.8575757575757577, 0.8797979797979798, 0.5368686868686868, 0.5919191919191921, 0.7090909090909091, 0.8, 0.8898989898989897, 0.8974747474747474, 0.6904040404040405, 0.6797979797979797, 0.8954545454545453, 0.8277777777777778, 0.6914141414141415, 0.8919191919191919, 0.657070707070707, 0.5368686868686868, 0.5984848484848484, 0.5919191919191921, 0.6727272727272727, 0.6489898989898991, 0.7732323232323233, 0.7752525252525252, 0.8424242424242424, 0.8242424242424242, 0.6914141414141415, 0.6262626262626262, 0.6222222222222223, 0.7732323232323233, 0.5368686868686868, 0.8954545454545453, 0.6489898989898991, 0.7095959595959596, 0.8242424242424242, 0.5919191919191921, 0.8393939393939395, 0.5984848484848484, 0.7752525252525252, 0.5368686868686868]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.04383768560631865, 0.037713443843625204, 0.04383768560631865, 0.056253648885719945, 0.047817375266846984, 0.028898423234181774, 0.08436611320331756, 0.04430073183755227, 0.030762509763315283, 0.03967138764980908, 0.05230626455505008, 0.06580403020162554, 0.03681676155274261, 0.044644864910322345, 0.05620828669070804, 0.02568319623250733, 0.05124209670024565, 0.09718253158075506, 0.0499361902800334, 0.057019284959208855, 0.06607481390475267, 0.06580403020162554, 0.033333333333333326, 0.026676995244937902, 0.015484555269450372, 0.03716155987706494, 0.02568319623250733, 0.03681676155274261, 0.07698334935524197, 0.05124209670024565, 0.05146561294083633, 0.015484555269450372, 0.03623011400901208, 0.05123214001178083, 0.10178240112042457, 0.051257028106526395, 0.0499361902800334, 0.04698327163457666, 0.054339303661869766, 0.05146561294083633, 0.0941536602777588, 0.03695506692914484, 0.09843433047768521, 0.05336355128029213, 0.06426259133299995, 0.0499361902800334, 0.02568319623250733, 0.015484555269450372, 0.07476453531756147, 0.08467093014482983]</t>
+          <t>[0.04175152057664722, 0.08029191206940359, 0.04206194507809497, 0.04592906078541276, 0.054339303661869766, 0.03376669626352883, 0.10610148322419073, 0.037373737373737344, 0.03705845722796798, 0.04592906078541276, 0.09718253158075506, 0.05146561294083633, 0.032832167602313125, 0.03794942907912964, 0.02568319623250733, 0.09718253158075506, 0.03716155987706494, 0.08334710629984891, 0.054221823298597226, 0.05104759098381117, 0.04866863315816808, 0.07698334935524197, 0.03623011400901208, 0.05124209670024565, 0.03681676155274261, 0.04698327163457666, 0.05146561294083633, 0.02568319623250733, 0.05123214001178083, 0.09718253158075506, 0.054339303661869766, 0.026676995244937902, 0.03695506692914484, 0.06426259133299995, 0.05940733718194995, 0.07270973413663809, 0.03681676155274261, 0.015484555269450372, 0.09843433047768521, 0.03695506692914484, 0.02568319623250733, 0.03623011400901208, 0.026676995244937902, 0.0372849067177611, 0.07270973413663809, 0.09718253158075506, 0.05144578415453266, 0.05123214001178083, 0.06426259133299995, 0.02568319623250733]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[10, 17, 10, 7, 16, 5, 40, 6, 20, 13, 31, 14, 29, 21, 34, 48, 8, 46, 24, 1, 34, 14, 28, 38, 41, 23, 48, 29, 32, 8, 36, 41, 2, 45, 47, 39, 24, 3, 33, 36, 22, 19, 44, 10, 18, 24, 48, 41, 27, 4]</t>
+          <t>[19, 15, 38, 17, 32, 20, 31, 8, 9, 17, 43, 34, 7, 6, 47, 43, 26, 15, 5, 1, 29, 30, 2, 12, 27, 4, 34, 47, 41, 43, 32, 36, 23, 21, 10, 13, 27, 39, 40, 23, 47, 2, 36, 25, 13, 43, 11, 41, 21, 47]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 53, 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 39}), OrderedDict({'criterion': 'gini', 'max_depth': 75, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 29}), OrderedDict({'criterion': 'gini', 'max_depth': 43, 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 35}), OrderedDict({'criterion': 'gini', 'max_depth': 64, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 15}), OrderedDict({'criterion': 'gini', 'max_depth': 17, 'max_features': None, 'min_samples_leaf': 17, 'min_samples_split': 11}), OrderedDict({'criterion': 'entropy', 'max_depth': 9, 'max_features': None, 'min_samples_leaf': 16, 'min_samples_split': 13}), OrderedDict({'criterion': 'entropy', 'max_depth': 52, 'max_features': 'log2', 'min_samples_leaf': 6, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 74, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 34}), OrderedDict({'criterion': 'entropy', 'max_depth': 63, 'max_features': 'log2', 'min_samples_leaf': 17, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 83, 'max_features': None, 'min_samples_leaf': 7, 'min_samples_split': 19}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 87, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 43}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 46}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 46}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3})]</t>
+          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 46, 'max_features': None, 'min_samples_leaf': 14, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 52, 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 13}), OrderedDict({'criterion': 'entropy', 'max_depth': 12, 'max_features': 'log2', 'min_samples_leaf': 12, 'min_samples_split': 40}), OrderedDict({'criterion': 'gini', 'max_depth': 79, 'max_features': None, 'min_samples_leaf': 10, 'min_samples_split': 18}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 20}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 20}), OrderedDict({'criterion': 'entropy', 'max_depth': 32, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 41}), OrderedDict({'criterion': 'gini', 'max_depth': 43, 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 24}), OrderedDict({'criterion': 'gini', 'max_depth': 44, 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 34}), OrderedDict({'criterion': 'gini', 'max_depth': 23, 'max_features': None, 'min_samples_leaf': 10, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 45}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49})]</t>
         </is>
       </c>
       <c r="N23" t="n">
         <v>19</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7721518987341772</v>
+        <v>0.7974683544303798</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2562,27 +2562,27 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[0.861111111111111, 0.8333333333333334, 0.861111111111111, 0.8888888888888888, 0.8333333333333334, 0.861111111111111, 0.6944444444444443, 0.9166666666666666, 0.75, 0.861111111111111, 0.638888888888889, 0.75, 0.638888888888889, 0.75, 0.638888888888889, 0.5, 0.8055555555555555, 0.638888888888889, 0.638888888888889, 0.9166666666666666, 0.6944444444444443, 0.75, 0.638888888888889, 0.638888888888889, 0.6388888888888888, 0.638888888888889, 0.5, 0.638888888888889, 0.638888888888889, 0.8055555555555555, 0.6944444444444443, 0.6388888888888888, 0.9166666666666666, 0.6388888888888888, 0.638888888888889, 0.638888888888889, 0.638888888888889, 0.9166666666666666, 0.638888888888889, 0.6944444444444443, 0.638888888888889, 0.8055555555555555, 0.638888888888889, 0.861111111111111, 0.8055555555555555, 0.638888888888889, 0.5, 0.6388888888888888, 0.638888888888889, 0.8888888888888888]</t>
+          <t>[0.861111111111111, 0.8888888888888888, 0.6666666666666666, 0.861111111111111, 0.638888888888889, 0.8055555555555555, 0.6944444444444443, 0.8611111111111112, 0.8888888888888888, 0.861111111111111, 0.638888888888889, 0.6944444444444443, 0.861111111111111, 0.8611111111111112, 0.5, 0.638888888888889, 0.638888888888889, 0.6666666666666666, 0.9166666666666666, 0.9444444444444443, 0.638888888888889, 0.638888888888889, 0.9166666666666666, 0.8055555555555555, 0.638888888888889, 0.9166666666666666, 0.6944444444444443, 0.5, 0.6388888888888888, 0.638888888888889, 0.638888888888889, 0.638888888888889, 0.8055555555555555, 0.8055555555555555, 0.75, 0.6944444444444443, 0.638888888888889, 0.6388888888888888, 0.638888888888889, 0.8055555555555555, 0.5, 0.9166666666666666, 0.638888888888889, 0.638888888888889, 0.6944444444444443, 0.638888888888889, 0.8611111111111112, 0.6388888888888888, 0.8055555555555555, 0.5]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.861111111111111, 0.8055555555555555, 0.861111111111111, 0.8888888888888888, 0.8055555555555555, 0.888888888888889, 0.611111111111111, 0.8055555555555557, 0.75, 0.8333333333333334, 0.7222222222222223, 0.9166666666666666, 0.6944444444444445, 0.8055555555555555, 0.611111111111111, 0.5277777777777778, 0.888888888888889, 0.6944444444444445, 0.6944444444444445, 0.9722222222222222, 0.611111111111111, 0.9166666666666666, 0.6944444444444445, 0.6944444444444445, 0.6388888888888888, 0.7222222222222223, 0.5277777777777778, 0.6944444444444445, 0.611111111111111, 0.888888888888889, 0.611111111111111, 0.6388888888888888, 0.9166666666666666, 0.5, 0.6944444444444445, 0.7222222222222223, 0.6944444444444445, 0.9166666666666666, 0.611111111111111, 0.611111111111111, 0.7222222222222223, 0.8055555555555555, 0.6944444444444445, 0.7777777777777777, 0.6666666666666666, 0.6944444444444445, 0.5277777777777778, 0.6388888888888888, 0.611111111111111, 1.0]</t>
+          <t>[0.7777777777777777, 0.861111111111111, 0.611111111111111, 0.8055555555555555, 0.611111111111111, 0.8055555555555555, 0.8055555555555555, 0.8055555555555557, 0.8055555555555555, 0.8055555555555555, 0.6944444444444445, 0.611111111111111, 0.8888888888888888, 0.9444444444444443, 0.5277777777777778, 0.6944444444444445, 0.7222222222222223, 0.888888888888889, 0.9444444444444443, 0.9166666666666666, 0.7222222222222223, 0.611111111111111, 0.9166666666666666, 0.888888888888889, 0.6944444444444445, 0.9166666666666666, 0.611111111111111, 0.5277777777777778, 0.5, 0.6944444444444445, 0.611111111111111, 0.6944444444444445, 0.8055555555555555, 0.6666666666666666, 0.8055555555555555, 0.8888888888888888, 0.6944444444444445, 0.6388888888888888, 0.6944444444444445, 0.8055555555555555, 0.5277777777777778, 0.9166666666666666, 0.6944444444444445, 0.7222222222222223, 0.8888888888888888, 0.6944444444444445, 0.9166666666666666, 0.5, 0.6666666666666666, 0.5277777777777778]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[0.7424242424242423, 0.7348484848484849, 0.7424242424242423, 0.7449494949494949, 0.7348484848484849, 0.8232323232323232, 0.7676767676767676, 0.8611111111111112, 0.7474747474747474, 0.7424242424242423, 0.6616161616161617, 0.73989898989899, 0.7424242424242425, 0.7954545454545454, 0.6843434343434343, 0.5277777777777778, 0.76010101010101, 0.6616161616161617, 0.7424242424242425, 0.797979797979798, 0.7676767676767676, 0.73989898989899, 0.7146464646464646, 0.6616161616161617, 0.6060606060606061, 0.7171717171717172, 0.5277777777777778, 0.7424242424242425, 0.6868686868686869, 0.76010101010101, 0.712121212121212, 0.6060606060606061, 0.9393939393939394, 0.6060606060606061, 0.6616161616161617, 0.6616161616161617, 0.7424242424242425, 0.797979797979798, 0.6843434343434343, 0.712121212121212, 0.7171717171717172, 0.7045454545454546, 0.6616161616161617, 0.7424242424242423, 0.8005050505050506, 0.7424242424242425, 0.5277777777777778, 0.6060606060606061, 0.6868686868686869, 0.7449494949494949]</t>
+          <t>[0.7676767676767677, 0.6565656565656566, 0.6868686868686869, 0.7424242424242423, 0.6843434343434343, 0.7348484848484849, 0.7702020202020202, 0.8005050505050506, 0.8333333333333334, 0.7424242424242423, 0.6616161616161617, 0.712121212121212, 0.797979797979798, 0.8282828282828283, 0.5277777777777778, 0.6616161616161617, 0.7171717171717172, 0.76010101010101, 0.9393939393939394, 0.797979797979798, 0.6616161616161617, 0.6868686868686869, 0.9393939393939394, 0.76010101010101, 0.7424242424242425, 0.797979797979798, 0.712121212121212, 0.5277777777777778, 0.6060606060606061, 0.6616161616161617, 0.6843434343434343, 0.6616161616161617, 0.7045454545454546, 0.8005050505050506, 0.9166666666666666, 0.797979797979798, 0.7424242424242425, 0.6060606060606061, 0.6616161616161617, 0.7045454545454546, 0.5277777777777778, 0.9393939393939394, 0.6616161616161617, 0.7171717171717172, 0.797979797979798, 0.6616161616161617, 0.7676767676767677, 0.6060606060606061, 0.8005050505050506, 0.5277777777777778]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[0.8055555555555557, 0.7449494949494949, 0.8055555555555557, 0.7954545454545454, 0.7449494949494949, 0.8863636363636364, 0.5303030303030303, 0.8030303030303031, 0.7752525252525252, 0.8055555555555557, 0.6363636363636364, 0.8510101010101009, 0.7171717171717171, 0.797979797979798, 0.6363636363636364, 0.5530303030303031, 0.8863636363636364, 0.5353535353535354, 0.7752525252525252, 0.914141414141414, 0.6868686868686869, 0.8510101010101009, 0.6919191919191919, 0.6313131313131314, 0.6388888888888888, 0.7171717171717171, 0.5530303030303031, 0.7171717171717171, 0.6363636363636364, 0.8863636363636364, 0.6868686868686869, 0.6388888888888888, 0.8510101010101009, 0.6388888888888888, 0.5025252525252525, 0.5909090909090909, 0.7752525252525252, 0.914141414141414, 0.6590909090909092, 0.6868686868686869, 0.8030303030303031, 0.7777777777777778, 0.6868686868686869, 0.888888888888889, 0.7474747474747474, 0.7752525252525252, 0.5530303030303031, 0.6388888888888888, 0.7196969696969697, 0.8308080808080808]</t>
+          <t>[0.7449494949494949, 0.7954545454545454, 0.5909090909090909, 0.7449494949494949, 0.6590909090909092, 0.8333333333333334, 0.5303030303030303, 0.8863636363636364, 0.8030303030303031, 0.7449494949494949, 0.5353535353535354, 0.6868686868686869, 0.8863636363636364, 0.8838383838383838, 0.5530303030303031, 0.5353535353535354, 0.7171717171717171, 0.8863636363636364, 0.8232323232323232, 0.914141414141414, 0.6590909090909092, 0.6363636363636364, 0.8510101010101009, 0.8863636363636364, 0.7171717171717171, 0.914141414141414, 0.6868686868686869, 0.5530303030303031, 0.6388888888888888, 0.5353535353535354, 0.6590909090909092, 0.6313131313131314, 0.7777777777777778, 0.7474747474747474, 0.8510101010101009, 0.8863636363636364, 0.7171717171717171, 0.6388888888888888, 0.6868686868686869, 0.7777777777777778, 0.5530303030303031, 0.8510101010101009, 0.6313131313131314, 0.7196969696969697, 0.8863636363636364, 0.5353535353535354, 0.8510101010101009, 0.6388888888888888, 0.7474747474747474, 0.5530303030303031]</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>[0.8232323232323232, 0.8005050505050506, 0.8232323232323232, 0.8535353535353535, 0.8560606060606061, 0.8232323232323232, 0.5808080808080808, 0.883838383838384, 0.8282828282828283, 0.8232323232323232, 0.7702020202020202, 0.8005050505050506, 0.6641414141414143, 0.6868686868686869, 0.7702020202020202, 0.5757575757575758, 0.797979797979798, 0.4292929292929293, 0.6641414141414143, 0.914141414141414, 0.5808080808080808, 0.8005050505050506, 0.73989898989899, 0.6186868686868687, 0.6085858585858586, 0.75, 0.5757575757575758, 0.6641414141414143, 0.8257575757575758, 0.797979797979798, 0.5808080808080808, 0.6085858585858586, 0.8535353535353535, 0.6085858585858586, 0.4292929292929293, 0.5808080808080808, 0.6641414141414143, 0.914141414141414, 0.7702020202020202, 0.5808080808080808, 0.9166666666666666, 0.7727272727272728, 0.4292929292929293, 0.8232323232323232, 0.8560606060606061, 0.6641414141414143, 0.5757575757575758, 0.6085858585858586, 0.8257575757575758, 0.8232323232323232]</t>
+          <t>[0.8232323232323232, 0.797979797979798, 0.5808080808080808, 0.8232323232323232, 0.7702020202020202, 0.7727272727272728, 0.5808080808080808, 0.883838383838384, 0.883838383838384, 0.8232323232323232, 0.4292929292929293, 0.5808080808080808, 0.8535353535353535, 0.8813131313131312, 0.5757575757575758, 0.4292929292929293, 0.75, 0.797979797979798, 0.8257575757575758, 0.914141414141414, 0.7702020202020202, 0.8257575757575758, 0.8535353535353535, 0.797979797979798, 0.6641414141414143, 0.914141414141414, 0.5808080808080808, 0.5757575757575758, 0.6085858585858586, 0.4292929292929293, 0.7702020202020202, 0.6186868686868687, 0.7727272727272728, 0.8560606060606061, 0.888888888888889, 0.8535353535353535, 0.6641414141414143, 0.6085858585858586, 0.4292929292929293, 0.7727272727272728, 0.5757575757575758, 0.8535353535353535, 0.6186868686868687, 0.75, 0.8535353535353535, 0.4292929292929293, 0.8005050505050506, 0.6085858585858586, 0.8560606060606061, 0.5757575757575758]</t>
         </is>
       </c>
     </row>
@@ -2694,52 +2694,52 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8005115089514067</v>
+        <v>0.8294970161977835</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8488684311469121</v>
+        <v>0.8696905766526019</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8481012658227848</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8514006535325656</v>
+        <v>0.8687654118033864</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[[12, 0, 5], [0, 39, 0], [7, 0, 16]]</t>
+          <t>[[12, 1, 4], [0, 39, 0], [3, 2, 18]]</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.6255104740283609, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5})</t>
+          <t>OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0})</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.9196969696969697, 0.9146464646464647, 0.9252525252525252, 0.9252525252525252, 0.9191919191919192, 0.9318181818181819, 0.930808080808081, 0.9202020202020202, 0.9313131313131313, 0.9424242424242426, 0.9484848484848485, 0.9196969696969697, 0.9257575757575758, 0.9545454545454545, 0.9767676767676768, 0.9252525252525252, 0.942929292929293, 0.9656565656565658, 0.9479797979797981, 0.8914141414141415, 0.9207070707070708, 0.902020202020202, 0.9656565656565658, 0.9707070707070707, 0.9606060606060606, 0.9191919191919192, 0.9712121212121213, 0.9601010101010102, 0.9540404040404041, 0.9601010101010102, 0.9424242424242424, 0.9595959595959597, 0.9656565656565658, 0.942929292929293, 0.9318181818181819, 0.9540404040404041, 0.9434343434343434, 0.9656565656565658, 0.9535353535353537, 0.9136363636363637, 0.9656565656565658, 0.954040404040404, 0.9540404040404041, 0.9656565656565658, 0.9656565656565658, 0.9601010101010102, 0.9191919191919192, 0.942929292929293, 0.9601010101010102, 0.9590909090909092]</t>
+          <t>[0.9313131313131313, 0.9202020202020202, 0.9025252525252526, 0.9313131313131313, 0.9368686868686871, 0.9191919191919192, 0.9313131313131313, 0.9141414141414141, 0.9146464646464647, 0.9080808080808082, 0.9535353535353537, 0.9540404040404041, 0.9146464646464647, 0.9535353535353537, 0.9429292929292931, 0.9373737373737374, 0.954040404040404, 0.9590909090909092, 0.9712121212121213, 0.9373737373737374, 0.9424242424242426, 0.9368686868686869, 0.9368686868686869, 0.930808080808081, 0.9712121212121213, 0.9479797979797981, 0.954040404040404, 0.9434343434343434, 0.9368686868686871, 0.9489898989898989, 0.9489898989898989, 0.9712121212121213, 0.9656565656565658, 0.9712121212121213, 0.9252525252525252, 0.9424242424242426, 0.9424242424242424, 0.9308080808080808, 0.9262626262626263, 0.9656565656565658, 0.9252525252525252, 0.9601010101010102, 0.9207070707070708, 0.96010101010101, 0.9601010101010102, 0.9656565656565658, 0.9262626262626263, 0.942929292929293, 0.9484848484848485, 0.9712121212121213]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.038410410791578864, 0.03597576528991537, 0.039205714535505753, 0.03884623135965537, 0.05022650460788612, 0.03762541521654378, 0.043287277448921455, 0.04148183676440618, 0.03897079136133419, 0.04467342300504237, 0.034387968748584276, 0.03877393478317017, 0.03868172553306384, 0.022130204343643087, 0.033440293651003775, 0.05077202166408963, 0.035947393230857064, 0.028056453358244783, 0.028685801658915017, 0.0346981091662983, 0.04035982429092331, 0.05433460932436701, 0.028056453358244783, 0.03136196908335362, 0.014249228262288792, 0.06269546518659688, 0.03136196908335362, 0.029423255886120252, 0.023000601084314582, 0.029423255886120252, 0.026018680550285382, 0.02923191137068242, 0.028056453358244783, 0.017611712903194607, 0.028255759051917913, 0.013868212341157543, 0.040010711758259314, 0.03352409449550728, 0.02388200084350885, 0.04863717653536764, 0.03352409449550728, 0.023000601084314582, 0.013868212341157543, 0.028056453358244783, 0.03352409449550728, 0.029423255886120252, 0.05022650460788612, 0.018391051975791065, 0.029423255886120252, 0.015100925644167713]</t>
+          <t>[0.03897079136133419, 0.04148183676440618, 0.04016977540433969, 0.03897079136133419, 0.0422857286645141, 0.038892168299350424, 0.03897079136133419, 0.05143090754788267, 0.046820115898290035, 0.04633270683304934, 0.03486677897796609, 0.013868212341157543, 0.057615616187368296, 0.02388200084350885, 0.030911401511311835, 0.03259043596949835, 0.023000601084314582, 0.040448208182173644, 0.01839105197579103, 0.03259043596949835, 0.03636363636363636, 0.033804445516528295, 0.06220533025334206, 0.043287277448921455, 0.03136196908335362, 0.028685801658915017, 0.023000601084314582, 0.040010711758259314, 0.03338685632533012, 0.03344029365100373, 0.03301809924986092, 0.01839105197579103, 0.028056453358244783, 0.03136196908335362, 0.03464661189119693, 0.03636363636363636, 0.03227584910842519, 0.029862112119382746, 0.0330180992498609, 0.028056453358244783, 0.050772021664089645, 0.029423255886120252, 0.040705942787090665, 0.029423255886120252, 0.023000601084314586, 0.028056453358244783, 0.0330180992498609, 0.04467913243352822, 0.021224142817627, 0.01839105197579103]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[42, 47, 37, 37, 44, 32, 35, 41, 34, 30, 24, 42, 36, 18, 1, 37, 27, 4, 25, 50, 40, 49, 4, 3, 11, 44, 2, 12, 19, 12, 31, 16, 4, 27, 32, 19, 26, 4, 23, 48, 4, 22, 19, 4, 4, 12, 44, 27, 12, 17]</t>
+          <t>[34, 44, 50, 34, 30, 45, 34, 48, 46, 49, 16, 13, 46, 16, 23, 28, 14, 12, 1, 28, 25, 32, 32, 37, 1, 21, 14, 22, 30, 18, 18, 1, 6, 1, 41, 25, 27, 38, 39, 6, 41, 9, 43, 11, 9, 6, 39, 24, 20, 1]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.9441037339972547, 'gamma': 3.256330728937976, 'learning_rate': 0.05233382698121288, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 316, 'subsample': 0.7209755891562635}), OrderedDict({'colsample_bytree': 0.517006533309637, 'gamma': 4.930056662205564, 'learning_rate': 0.19079047962494597, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 305, 'subsample': 0.5674619429692711}), OrderedDict({'colsample_bytree': 0.8389200470477505, 'gamma': 3.1461782869285275, 'learning_rate': 0.016635488776024752, 'max_depth': 3, 'min_child_weight': 6, 'n_estimators': 446, 'subsample': 0.676112218970318}), OrderedDict({'colsample_bytree': 0.9931328636224066, 'gamma': 4.584361999862596, 'learning_rate': 0.2616523403596527, 'max_depth': 3, 'min_child_weight': 6, 'n_estimators': 188, 'subsample': 0.6650799549759343}), OrderedDict({'colsample_bytree': 0.8606332386475894, 'gamma': 2.5054310884521396, 'learning_rate': 0.24168119948864222, 'max_depth': 7, 'min_child_weight': 10, 'n_estimators': 476, 'subsample': 0.7832688738371921}), OrderedDict({'colsample_bytree': 0.7372246861354717, 'gamma': 1.1936582389384855, 'learning_rate': 0.15261360861856582, 'max_depth': 9, 'min_child_weight': 9, 'n_estimators': 445, 'subsample': 0.7192653479171278}), OrderedDict({'colsample_bytree': 0.9093825932876067, 'gamma': 1.8457188024865703, 'learning_rate': 0.04840265608695157, 'max_depth': 13, 'min_child_weight': 2, 'n_estimators': 254, 'subsample': 0.6789259354872503}), OrderedDict({'colsample_bytree': 0.7562913631682193, 'gamma': 2.996984379611509, 'learning_rate': 0.10078022637795063, 'max_depth': 12, 'min_child_weight': 9, 'n_estimators': 184, 'subsample': 0.5438362691007123}), OrderedDict({'colsample_bytree': 0.7126797447548441, 'gamma': 1.314662781605058, 'learning_rate': 0.020534864460573926, 'max_depth': 8, 'min_child_weight': 8, 'n_estimators': 86, 'subsample': 0.6844742210738625}), OrderedDict({'colsample_bytree': 0.8222048474105288, 'gamma': 1.7454241921592426, 'learning_rate': 0.10003878141865531, 'max_depth': 3, 'min_child_weight': 2, 'n_estimators': 422, 'subsample': 0.59518396478581}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 3, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9186367149826267, 'gamma': 2.9623805231839224, 'learning_rate': 0.08437663952236704, 'max_depth': 6, 'min_child_weight': 2, 'n_estimators': 402, 'subsample': 0.9855910618876078}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.15782076762382363, 'learning_rate': 0.012742231805886897, 'max_depth': 1, 'min_child_weight': 4, 'n_estimators': 298, 'subsample': 0.5714809332573584}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.2792550905221798, 'max_depth': 12, 'min_child_weight': 5, 'n_estimators': 498, 'subsample': 0.5500635167604183}), OrderedDict({'colsample_bytree': 0.6255104740283609, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5318770711371261, 'gamma': 1.6813133019504445, 'learning_rate': 0.23922414927434102, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7039674514672811, 'gamma': 0.0, 'learning_rate': 0.2317511377925566, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 479, 'subsample': 0.825413092538332}), OrderedDict({'colsample_bytree': 0.733764853475391, 'gamma': 0.0, 'learning_rate': 0.1421614236043804, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6633973930141333, 'gamma': 0.0, 'learning_rate': 0.03075257173027257, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7372205918457709, 'gamma': 5.0, 'learning_rate': 0.010555830616557337, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 444, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6189746387684008, 'gamma': 0.03680031378873739, 'learning_rate': 0.14683653601505894, 'max_depth': 7, 'min_child_weight': 8, 'n_estimators': 195, 'subsample': 0.5219044862112616}), OrderedDict({'colsample_bytree': 0.5698524111244551, 'gamma': 5.0, 'learning_rate': 0.22506760556990993, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5620783221876687, 'gamma': 0.0, 'learning_rate': 0.04957410398187836, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 292, 'subsample': 0.6367191474688232}), OrderedDict({'colsample_bytree': 0.6494710920451763, 'gamma': 0.0, 'learning_rate': 0.25201053947310187, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 291, 'subsample': 0.6041638975872107}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.012807064786459611, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.620593266993678, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 2, 'n_estimators': 176, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7992867553796885, 'gamma': 0.0, 'learning_rate': 0.19711563290870396, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6427552375557536}), OrderedDict({'colsample_bytree': 0.7535158489153302, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 58, 'subsample': 0.8688500566096449}), OrderedDict({'colsample_bytree': 0.7564614201194151, 'gamma': 0.15382593793622393, 'learning_rate': 0.1135265099412792, 'max_depth': 2, 'min_child_weight': 3, 'n_estimators': 288, 'subsample': 0.9231492038946518}), OrderedDict({'colsample_bytree': 0.5398532858333256, 'gamma': 0.0, 'learning_rate': 0.08447125811642013, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 116, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 265, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7206884572837604, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 409, 'subsample': 0.6340050242234334}), OrderedDict({'colsample_bytree': 0.7612262242060281, 'gamma': 0.0, 'learning_rate': 0.0249313716286082, 'max_depth': 13, 'min_child_weight': 3, 'n_estimators': 405, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6088203445607472, 'gamma': 0.0, 'learning_rate': 0.029938429685748946, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5087334723767571, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5783105674368095, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 379, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.522590300830834, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 128, 'subsample': 0.6378067666070786}), OrderedDict({'colsample_bytree': 0.7063253729734494, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 293, 'subsample': 0.6767277336902644}), OrderedDict({'colsample_bytree': 0.6101727627638439, 'gamma': 4.972755038260452, 'learning_rate': 0.013824505109202107, 'max_depth': 12, 'min_child_weight': 10, 'n_estimators': 302, 'subsample': 0.9561322781686926}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.694899321636651}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.616273953546282, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 437, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.07890489619013806, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 212, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5355226788863288, 'gamma': 1.636766118057472, 'learning_rate': 0.020608358616842896, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 175, 'subsample': 0.9650208123887558}), OrderedDict({'colsample_bytree': 0.6796321083994008, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5667878270413705, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.606817915756501, 'gamma': 0.1826420319545913, 'learning_rate': 0.24094167847588827, 'max_depth': 14, 'min_child_weight': 5, 'n_estimators': 399, 'subsample': 0.9734289285889077})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.6565470486405115, 'gamma': 2.774080304922198, 'learning_rate': 0.021266622130751502, 'max_depth': 9, 'min_child_weight': 3, 'n_estimators': 379, 'subsample': 0.6041121664905565}), OrderedDict({'colsample_bytree': 0.7278650312015469, 'gamma': 3.1992904991580966, 'learning_rate': 0.03372216716347125, 'max_depth': 5, 'min_child_weight': 6, 'n_estimators': 67, 'subsample': 0.5153778206627867}), OrderedDict({'colsample_bytree': 0.9915825581185986, 'gamma': 3.759500541591549, 'learning_rate': 0.03218907538002725, 'max_depth': 14, 'min_child_weight': 3, 'n_estimators': 149, 'subsample': 0.9737572228301791}), OrderedDict({'colsample_bytree': 0.9539906035753847, 'gamma': 2.3761338810662505, 'learning_rate': 0.02665766961914983, 'max_depth': 12, 'min_child_weight': 6, 'n_estimators': 349, 'subsample': 0.6483026425584129}), OrderedDict({'colsample_bytree': 0.6678726666155371, 'gamma': 1.0779781376942952, 'learning_rate': 0.013756235610631051, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 429, 'subsample': 0.7371247007040564}), OrderedDict({'colsample_bytree': 0.8027583524107667, 'gamma': 2.9558299429279122, 'learning_rate': 0.020465528485650007, 'max_depth': 2, 'min_child_weight': 2, 'n_estimators': 108, 'subsample': 0.8619930671659518}), OrderedDict({'colsample_bytree': 0.7038936888620688, 'gamma': 4.899537158691506, 'learning_rate': 0.0392805128693706, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 453, 'subsample': 0.5542855040885698}), OrderedDict({'colsample_bytree': 0.6755413581056988, 'gamma': 4.184894919439359, 'learning_rate': 0.19219075106661837, 'max_depth': 13, 'min_child_weight': 9, 'n_estimators': 482, 'subsample': 0.5505983542623172}), OrderedDict({'colsample_bytree': 0.8265918537677047, 'gamma': 4.453972192184503, 'learning_rate': 0.01416340834245879, 'max_depth': 14, 'min_child_weight': 10, 'n_estimators': 313, 'subsample': 0.6320135468952283}), OrderedDict({'colsample_bytree': 0.7273971095827434, 'gamma': 4.538198186163918, 'learning_rate': 0.04096315050908097, 'max_depth': 6, 'min_child_weight': 7, 'n_estimators': 124, 'subsample': 0.992073838870377}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.6737926355404904}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5736713581660782}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 417, 'subsample': 0.6216401872318598}), OrderedDict({'colsample_bytree': 0.5315729998589167, 'gamma': 0.01772083848210038, 'learning_rate': 0.017628985178108767, 'max_depth': 5, 'min_child_weight': 10, 'n_estimators': 212, 'subsample': 0.8389675861498171}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 305, 'subsample': 0.9032347078598769}), OrderedDict({'colsample_bytree': 0.5593501866288614, 'gamma': 0.015384929818634267, 'learning_rate': 0.1444793517081831, 'max_depth': 6, 'min_child_weight': 5, 'n_estimators': 256, 'subsample': 0.9711946567148906}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 63, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5942008987676972, 'gamma': 1.676735176551977, 'learning_rate': 0.190711214549821, 'max_depth': 7, 'min_child_weight': 10, 'n_estimators': 236, 'subsample': 0.9891722458828207}), OrderedDict({'colsample_bytree': 0.9967166170180237, 'gamma': 0.9267639388489114, 'learning_rate': 0.15858618900529525, 'max_depth': 13, 'min_child_weight': 2, 'n_estimators': 373, 'subsample': 0.9927546421918845}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 240, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.36034815548405896, 'learning_rate': 0.1726523266247735, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6979078166225254, 'gamma': 1.6893844002969474, 'learning_rate': 0.07489771955136844, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 438, 'subsample': 0.9380608116947953}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7820069842006336, 'gamma': 0.0, 'learning_rate': 0.22756683408921569, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.8468701020935626}), OrderedDict({'colsample_bytree': 0.543601121763758, 'gamma': 0.015552393144903646, 'learning_rate': 0.28202627940038427, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 66, 'subsample': 0.7810262655358239}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5431712552531633, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 7, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5583319934977162, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 5, 'n_estimators': 142, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5638108267599968, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.15029767942345296, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6365329699578927, 'gamma': 0.0, 'learning_rate': 0.04314051696123923, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7215867001921396, 'gamma': 0.0, 'learning_rate': 0.07727237911175433, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5350444948229728, 'gamma': 5.0, 'learning_rate': 0.2797440060514967, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9091503578753698, 'gamma': 1.1559476626116973, 'learning_rate': 0.18620130211325503, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 143, 'subsample': 0.5424623340282928}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9250997907522323, 'gamma': 0.7707390058930674, 'learning_rate': 0.0110610362093899, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 109, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5280682699327611, 'gamma': 2.034379022298369, 'learning_rate': 0.06753954835788077, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8763361239422067, 'gamma': 0.3435773107100686, 'learning_rate': 0.19231766218516466, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6733345146518218, 'gamma': 0.0, 'learning_rate': 0.012407070182932217, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 352, 'subsample': 0.817485098608027}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.18872360359587073, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.70657116693893}), OrderedDict({'colsample_bytree': 0.5961723153266699, 'gamma': 0.0, 'learning_rate': 0.11890150733176508, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 136, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.0722489065587778, 'max_depth': 14, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5657906720370824, 'gamma': 0.0, 'learning_rate': 0.02961674732295118, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 453, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5397362548526327, 'gamma': 0.0, 'learning_rate': 0.059934804064631246, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 348, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5414285860878572, 'gamma': 0.0, 'learning_rate': 0.0779503932473791, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 117, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 388, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8562871479661626, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 326, 'subsample': 1.0})]</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8481012658227848</v>
+        <v>0.8734177215189873</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2748,27 +2748,27 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[0.9166666666666666, 0.888888888888889, 0.9444444444444445, 0.9166666666666666, 0.9444444444444445, 0.888888888888889, 0.9444444444444445, 0.888888888888889, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9166666666666666, 0.9166666666666666, 1.0, 0.9444444444444443, 1.0, 1.0, 0.9722222222222222, 0.9166666666666666, 0.8611111111111112, 0.9444444444444445, 1.0, 1.0, 0.9722222222222222, 0.9444444444444445, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9444444444444443, 1.0, 1.0, 0.9444444444444443, 0.9166666666666666, 0.9444444444444445, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 1.0, 0.9722222222222222, 0.9444444444444445, 1.0, 1.0, 1.0, 0.9444444444444445, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222]</t>
+          <t>[0.9444444444444445, 0.888888888888889, 0.9166666666666666, 0.9444444444444445, 0.9444444444444445, 0.9166666666666666, 0.9444444444444445, 0.888888888888889, 0.8611111111111112, 0.9166666666666666, 1.0, 0.9444444444444445, 0.888888888888889, 0.9722222222222222, 0.9444444444444445, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9444444444444445, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9444444444444445, 0.9722222222222222, 0.9444444444444443, 1.0, 1.0, 1.0, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.888888888888889, 1.0, 0.9444444444444445, 1.0, 0.8611111111111112, 0.9722222222222222, 0.9722222222222222, 1.0, 0.888888888888889, 0.9444444444444443, 0.9444444444444445, 1.0]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9444444444444443, 0.9166666666666666, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9166666666666666, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 1.0, 0.9722222222222222]</t>
+          <t>[0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[0.9419191919191919, 0.9419191919191919, 0.9696969696969697, 0.9393939393939394, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9722222222222222, 0.914141414141414, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.9696969696969697, 0.9696969696969697, 0.8863636363636364, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9722222222222222, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.9696969696969697, 0.9419191919191919, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.9419191919191919, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.9419191919191919, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.9419191919191919, 0.9696969696969697, 0.9419191919191919, 0.9419191919191919, 0.9696969696969697]</t>
+          <t>[0.9696969696969697, 0.9696969696969697, 0.914141414141414, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 1.0, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.914141414141414, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.9419191919191919, 0.9696969696969697, 0.9141414141414143, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9393939393939394, 0.9696969696969697, 0.9419191919191919, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9696969696969697, 0.9419191919191919, 0.9696969696969697]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[0.9116161616161617, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9722222222222222, 1.0, 0.9419191919191919, 0.9419191919191919, 0.9722222222222222, 0.9116161616161617, 0.9116161616161617, 0.9419191919191919, 0.8535353535353535, 0.9722222222222222, 0.9696969696969697, 0.9722222222222222, 0.9419191919191919, 1.0, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9116161616161617, 0.9419191919191919, 0.9722222222222222, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 1.0, 1.0, 0.9116161616161617, 0.9116161616161617, 0.9722222222222222, 0.9696969696969697, 0.9419191919191919, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9116161616161617, 0.9419191919191919, 0.9722222222222222, 0.9393939393939394]</t>
+          <t>[0.9419191919191919, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9419191919191919, 0.9419191919191919, 0.9116161616161617, 0.9116161616161617, 0.9419191919191919, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9419191919191919, 0.9696969696969697, 1.0, 0.9722222222222222, 0.9419191919191919, 0.9116161616161617, 0.9116161616161617, 0.9722222222222222, 0.9116161616161617, 1.0, 0.9116161616161617, 0.9696969696969697, 1.0, 0.9116161616161617, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9116161616161617, 0.9419191919191919, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9419191919191919, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9419191919191919, 0.9722222222222222, 0.9696969696969697, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>[0.8560606060606061, 0.8560606060606061, 0.8560606060606061, 0.8560606060606061, 0.8257575757575758, 0.8863636363636364, 0.8560606060606061, 0.8560606060606061, 0.8560606060606061, 0.8560606060606061, 0.8838383838383838, 0.8560606060606061, 0.8560606060606061, 0.9419191919191919, 0.914141414141414, 0.8257575757575758, 0.8863636363636364, 0.914141414141414, 0.914141414141414, 0.8257575757575758, 0.8863636363636364, 0.8257575757575758, 0.914141414141414, 0.914141414141414, 0.9419191919191919, 0.7954545454545454, 0.914141414141414, 0.914141414141414, 0.914141414141414, 0.914141414141414, 0.914141414141414, 0.914141414141414, 0.914141414141414, 0.9141414141414143, 0.8863636363636364, 0.9419191919191919, 0.8863636363636364, 0.914141414141414, 0.9419191919191919, 0.8257575757575758, 0.914141414141414, 0.914141414141414, 0.9419191919191919, 0.914141414141414, 0.914141414141414, 0.914141414141414, 0.8257575757575758, 0.914141414141414, 0.914141414141414, 0.9419191919191919]</t>
+          <t>[0.8560606060606061, 0.8560606060606061, 0.8257575757575758, 0.8560606060606061, 0.8560606060606061, 0.8535353535353535, 0.8560606060606061, 0.8257575757575758, 0.8560606060606061, 0.8257575757575758, 0.914141414141414, 0.9419191919191919, 0.8257575757575758, 0.9419191919191919, 0.8863636363636364, 0.8863636363636364, 0.914141414141414, 0.8813131313131312, 0.9419191919191919, 0.8863636363636364, 0.8863636363636364, 0.8863636363636364, 0.8257575757575758, 0.8560606060606061, 0.914141414141414, 0.914141414141414, 0.914141414141414, 0.8863636363636364, 0.8863636363636364, 0.914141414141414, 0.8863636363636364, 0.9419191919191919, 0.914141414141414, 0.914141414141414, 0.8560606060606061, 0.8863636363636364, 0.8838383838383838, 0.883838383838384, 0.8863636363636364, 0.914141414141414, 0.8257575757575758, 0.914141414141414, 0.8863636363636364, 0.914141414141414, 0.914141414141414, 0.914141414141414, 0.8863636363636364, 0.8560606060606061, 0.914141414141414, 0.9419191919191919]</t>
         </is>
       </c>
     </row>
@@ -2880,52 +2880,52 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8090909090909091</v>
+        <v>0.7939393939393939</v>
       </c>
       <c r="E27" t="n">
-        <v>0.856825075834176</v>
+        <v>0.8352159468438537</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8604651162790697</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="G27" t="n">
-        <v>0.859173126614987</v>
+        <v>0.8345803842264914</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[[7, 2, 1], [0, 22, 0], [3, 0, 8]]</t>
+          <t>[[7, 2, 1], [0, 21, 1], [3, 0, 8]]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 300})</t>
+          <t>OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 247})</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.9649237472766885, 0.9416122004357298, 0.9649237472766885, 0.9498910675381265, 0.941830065359477, 0.9420479302832243, 0.9614379084967322, 0.9610021786492375, 0.9531590413943356, 0.9533769063180827, 0.9690631808278868, 0.9651416122004358, 0.9575163398692812, 0.957516339869281, 0.9692810457516341, 0.9577342047930284, 0.957516339869281, 0.9461873638344228, 0.9690631808278868, 0.930718954248366, 0.9612200435729846, 0.9690631808278868, 0.9732026143790851, 0.9614379084967322, 0.9690631808278868, 0.9614379084967319, 0.9570806100217866, 0.9727668845315904, 0.9649237472766885, 0.9577342047930284, 0.9690631808278868, 0.9651416122004356, 0.9727668845315904, 0.9732026143790851, 0.9690631808278868, 0.9727668845315904, 0.9690631808278868, 0.9727668845315904, 0.9610021786492375, 0.9614379084967319, 0.9727668845315904, 0.9727668845315904, 0.9727668845315904, 0.9651416122004356, 0.9727668845315904, 0.9653594771241831, 0.9612200435729846, 0.9533769063180827, 0.9732026143790851, 0.9416122004357298]</t>
+          <t>[0.9577342047930284, 0.9732026143790851, 0.945751633986928, 0.9651416122004358, 0.9653594771241831, 0.9727668845315904, 0.9616557734204794, 0.9461873638344228, 0.9653594771241829, 0.9533769063180827, 0.9651416122004358, 0.9690631808278868, 0.9570806100217863, 0.9108932461873639, 0.9610021786492375, 0.9572984749455337, 0.9612200435729846, 0.9690631808278868, 0.9422657952069716, 0.9614379084967322, 0.9653594771241831, 0.9692810457516341, 0.9535947712418299, 0.9342047930283224, 0.9570806100217866, 0.9498910675381265, 0.9692810457516341, 0.9653594771241831, 0.9575163398692812, 0.9455337690631808, 0.9614379084967322, 0.9267973856209151, 0.9614379084967319, 0.9614379084967319, 0.957516339869281, 0.9538126361655774, 0.9688453159041395, 0.9577342047930284, 0.9653594771241831, 0.9692810457516341, 0.9649237472766885, 0.9612200435729846, 0.9649237472766885, 0.9610021786492375, 0.9649237472766885, 0.9649237472766885, 0.9612200435729846, 0.9612200435729846, 0.9533769063180827, 0.9653594771241831]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.025983532053813665, 0.02109580555452763, 0.025983532053813665, 0.02252558958703765, 0.02091503267973861, 0.01990097995062175, 0.024461099029735364, 0.027733100899293397, 0.020086153501727474, 0.023326812748277494, 0.03383997053390685, 0.01869072818259454, 0.022609719066003696, 0.013984145129308302, 0.022770793255693155, 0.02171447792934724, 0.013984145129308302, 0.027347038404380315, 0.028940794663234976, 0.035268556331872356, 0.027433684076160723, 0.028940794663234976, 0.019408328933612308, 0.034472262320380795, 0.03383997053390685, 0.01681375283797369, 0.02290795543023085, 0.02342427896421025, 0.014621317416612285, 0.030682621942041258, 0.028940794663234976, 0.022430566755963017, 0.026665100271536832, 0.019408328933612308, 0.02614923690552849, 0.02342427896421025, 0.028940794663234976, 0.02342427896421025, 0.021483735138337387, 0.01681375283797369, 0.029407729893502335, 0.029407729893502335, 0.026665100271536832, 0.022430566755963017, 0.026665100271536832, 0.025597042514552536, 0.027433684076160723, 0.01975735781918024, 0.019408328933612308, 0.02128619466331025]</t>
+          <t>[0.025494850886833512, 0.019408328933612308, 0.019097696732733056, 0.02562113734286194, 0.018414419702932915, 0.019872338563819453, 0.03177692668017754, 0.03645317049974375, 0.027852648042696156, 0.015380708143549351, 0.02562113734286194, 0.026312094429013933, 0.026049211638579768, 0.019381408598068944, 0.017543200121305003, 0.028592644386096638, 0.027433684076160723, 0.026312094429013933, 0.023605943478137766, 0.034472262320380795, 0.028140862557677625, 0.02609290618140283, 0.022678890944964093, 0.028452858766561225, 0.014737720719205098, 0.03098740839015096, 0.02609290618140283, 0.028140862557677625, 0.022239303102701294, 0.019142381382561094, 0.034472262320380795, 0.04218598578589524, 0.01681375283797369, 0.01681375283797369, 0.013984145129308302, 0.02812567818275879, 0.029291288798707307, 0.030682621942041258, 0.018414419702932915, 0.015100412593606552, 0.025983532053813665, 0.027433684076160723, 0.025983532053813665, 0.021483735138337387, 0.025983532053813665, 0.014621317416612285, 0.017065931178706955, 0.027433684076160723, 0.015380708143549351, 0.02257189960423429]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[24, 48, 24, 44, 47, 46, 27, 33, 43, 41, 13, 21, 37, 38, 12, 35, 38, 45, 13, 50, 31, 13, 1, 27, 13, 29, 40, 4, 24, 35, 13, 22, 4, 1, 13, 4, 13, 4, 33, 29, 4, 4, 4, 22, 4, 20, 31, 41, 1, 48]</t>
+          <t>[32, 1, 45, 15, 9, 2, 21, 44, 14, 41, 15, 6, 38, 50, 30, 36, 26, 6, 47, 22, 9, 3, 40, 48, 37, 43, 3, 9, 34, 46, 22, 49, 24, 24, 35, 39, 8, 32, 9, 3, 17, 26, 17, 30, 17, 17, 26, 26, 41, 9]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 8, 'n_estimators': 227}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 240}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 6, 'n_estimators': 229}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 6, 'min_samples_split': 6, 'n_estimators': 296}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 6, 'min_samples_split': 16, 'n_estimators': 203}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 9, 'min_samples_split': 6, 'n_estimators': 68}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 12, 'n_estimators': 70}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 4, 'min_samples_split': 4, 'n_estimators': 197}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 7, 'min_samples_split': 10, 'n_estimators': 192}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 6, 'min_samples_split': 16, 'n_estimators': 134}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 70}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 18, 'n_estimators': 266}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 15, 'n_estimators': 296}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 135}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 273}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 67}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 72}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 8, 'n_estimators': 55}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 137}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 6, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 51}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 7, 'min_samples_split': 17, 'n_estimators': 53}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 67}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 75}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 155}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 10, 'min_samples_split': 19, 'n_estimators': 295}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 3, 'n_estimators': 285}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 51}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 150}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 4, 'n_estimators': 52}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50})]</t>
+          <t>[OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 3, 'min_samples_split': 18, 'n_estimators': 58}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 247}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 9, 'min_samples_split': 6, 'n_estimators': 215}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 4, 'min_samples_split': 19, 'n_estimators': 83}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 8, 'min_samples_split': 16, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 6, 'min_samples_split': 12, 'n_estimators': 66}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 7, 'min_samples_split': 18, 'n_estimators': 78}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 18, 'n_estimators': 198}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 3, 'min_samples_split': 7, 'n_estimators': 232}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 4, 'n_estimators': 294}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 13, 'n_estimators': 201}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 6, 'n_estimators': 248}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 5, 'min_samples_split': 14, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 3, 'n_estimators': 280}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 231}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 13, 'n_estimators': 200}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 54}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 3, 'min_samples_split': 4, 'n_estimators': 262}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 91}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 193}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 249}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 8, 'min_samples_split': 12, 'n_estimators': 55}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 7, 'min_samples_split': 12, 'n_estimators': 101}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 7, 'min_samples_split': 12, 'n_estimators': 294}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 6, 'n_estimators': 89}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 6, 'min_samples_split': 6, 'n_estimators': 277}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 6, 'min_samples_split': 5, 'n_estimators': 173}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 5, 'min_samples_split': 5, 'n_estimators': 137}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 7, 'min_samples_split': 11, 'n_estimators': 109}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 247}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 65}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 291}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 292}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 269}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 118}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 281}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 2, 'n_estimators': 97}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 9, 'min_samples_split': 2, 'n_estimators': 280}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 20, 'n_estimators': 253}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 265}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 269}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 13, 'n_estimators': 88}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 50})]</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8604651162790697</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2934,27 +2934,27 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[0.9803921568627452, 0.9411764705882352, 1.0, 0.9803921568627452, 0.9411764705882352, 0.9411764705882352, 0.9618736383442266, 1.0, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9422657952069716, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 1.0, 0.943355119825708, 1.0, 1.0, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 1.0, 1.0, 1.0, 0.9803921568627452, 0.9607843137254902, 1.0, 1.0, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 0.9226579520697168]</t>
+          <t>[0.9618736383442266, 0.9803921568627452, 0.9422657952069716, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9411764705882352, 0.9803921568627452, 0.9803921568627452, 1.0, 0.903050108932462, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9411764705882352, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9411764705882352, 0.9803921568627452, 0.9618736383442266, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 1.0, 1.0, 1.0, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9411764705882352, 0.9618736383442266]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.9215686274509803, 0.9215686274509803, 0.9215686274509803, 0.9226579520697168, 0.9215686274509803, 0.9411764705882352, 0.9226579520697168, 0.9215686274509803, 0.9215686274509803, 0.9215686274509803, 0.903050108932462, 0.9607843137254902, 0.9226579520697168, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9215686274509803, 0.9226579520697168, 0.9422657952069716, 0.903050108932462, 0.903050108932462, 0.9422657952069716, 0.9215686274509803, 0.9411764705882352, 0.9411764705882352, 0.903050108932462, 0.9226579520697168, 0.9411764705882352, 0.9215686274509803, 0.9422657952069716, 0.9226579520697168, 0.9411764705882352, 0.9226579520697168, 0.9411764705882352, 0.9215686274509803, 0.9422657952069716, 0.9215686274509803, 0.9215686274509803, 0.9215686274509803, 0.9411764705882352, 0.9215686274509803, 0.9226579520697168, 0.9215686274509803, 0.9215686274509803, 0.9422657952069716, 0.9215686274509803]</t>
+          <t>[0.9226579520697168, 0.9422657952069716, 0.9215686274509803, 0.9226579520697168, 0.9422657952069716, 0.9411764705882352, 0.9226579520697168, 0.9226579520697168, 0.9411764705882352, 0.9411764705882352, 0.9226579520697168, 0.9226579520697168, 0.9411764705882352, 0.8834422657952071, 0.9411764705882352, 0.9215686274509803, 0.9215686274509803, 0.9226579520697168, 0.9041394335511983, 0.903050108932462, 0.9226579520697168, 0.9226579520697168, 0.9411764705882352, 0.9019607843137255, 0.9411764705882352, 0.903050108932462, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9215686274509803, 0.903050108932462, 0.9226579520697168, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9215686274509803, 0.903050108932462, 0.9422657952069716, 0.9422657952069716, 0.9215686274509803, 0.9215686274509803, 0.9215686274509803, 0.9215686274509803, 0.9215686274509803, 0.9411764705882352, 0.9411764705882352, 0.9215686274509803, 0.9411764705882352, 0.9226579520697168]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[0.9618736383442266, 0.9237472766884531, 0.9618736383442266, 0.9248366013071895, 0.9248366013071895, 0.9063180827886711, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.943355119825708, 0.9814814814814815, 0.943355119825708, 0.9814814814814815, 0.943355119825708, 0.943355119825708, 0.9248366013071895, 0.943355119825708, 0.9063180827886711, 0.9618736383442266, 0.8660130718954248, 0.943355119825708, 0.9618736383442266, 0.9629629629629629, 0.943355119825708, 0.9814814814814815, 0.943355119825708, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.9444444444444445, 0.9618736383442266, 0.943355119825708, 0.9814814814814815, 0.9629629629629629, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.943355119825708, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.943355119825708, 0.9814814814814815, 0.9629629629629629, 0.943355119825708, 0.943355119825708, 0.9629629629629629, 0.9422657952069716]</t>
+          <t>[0.943355119825708, 0.9629629629629629, 0.943355119825708, 0.9618736383442266, 0.943355119825708, 0.9618736383442266, 0.9248366013071895, 0.8867102396514163, 0.9248366013071895, 0.943355119825708, 0.9618736383442266, 0.9814814814814815, 0.9618736383442266, 0.9052287581699346, 0.9618736383442266, 0.943355119825708, 0.943355119825708, 0.9814814814814815, 0.9248366013071895, 0.943355119825708, 0.943355119825708, 0.9629629629629629, 0.9248366013071895, 0.9063180827886711, 0.9618736383442266, 0.9248366013071895, 0.9629629629629629, 0.943355119825708, 0.943355119825708, 0.943355119825708, 0.943355119825708, 0.8474945533769063, 0.943355119825708, 0.943355119825708, 0.943355119825708, 0.9052287581699346, 0.9618736383442266, 0.9444444444444445, 0.943355119825708, 0.9629629629629629, 0.9618736383442266, 0.943355119825708, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.943355119825708, 0.943355119825708, 0.943355119825708, 0.9814814814814815]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[0.9607843137254902, 0.9411764705882352, 0.9607843137254902, 0.9607843137254902, 0.9411764705882352, 0.9607843137254902, 0.9607843137254902, 0.9411764705882352, 0.9411764705882352, 0.9411764705882352, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9411764705882352, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9411764705882352]</t>
+          <t>[0.9607843137254902, 0.9803921568627452, 0.9411764705882352, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9215686274509803, 0.9215686274509803, 0.9411764705882352, 0.9411764705882352, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9411764705882352, 0.9411764705882352, 0.9411764705882352, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9411764705882352, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452]</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>[1.0, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 1.0, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 1.0, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 1.0, 0.9607843137254902, 0.9803921568627452, 1.0, 1.0, 1.0, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9803921568627452, 1.0, 1.0, 0.9803921568627452, 1.0, 1.0, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 1.0, 1.0, 0.9803921568627452, 1.0, 1.0, 0.9803921568627452, 0.9607843137254902, 1.0, 0.9803921568627452]</t>
+          <t>[1.0, 1.0, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9803921568627452, 1.0, 0.9803921568627452, 1.0, 1.0, 0.9607843137254902, 0.9411764705882352, 0.9803921568627452, 1.0, 0.9803921568627452, 1.0, 0.9607843137254902, 1.0, 1.0, 1.0, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 1.0, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9411764705882352, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 1.0, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452]</t>
         </is>
       </c>
     </row>
@@ -3066,52 +3066,52 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.903030303030303</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="E29" t="n">
-        <v>0.929913256346123</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9315245478036176</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[[8, 0, 2], [0, 22, 0], [1, 0, 10]]</t>
+          <t>[[8, 0, 2], [0, 22, 0], [2, 0, 9]]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008608793631980033, 'max_iter': 500, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.8529411764705882, 0.8568627450980392, 0.9074074074074074, 0.9154684095860566, 0.8723311546840959, 0.6978213507625273, 0.9191721132897603, 0.9459694989106753, 0.5572984749455338, 0.5533769063180828, 0.9501089324618738, 0.9461873638344228, 0.9342047930283224, 0.9305010893246187, 0.9461873638344226, 0.9422657952069716, 0.938562091503268, 0.9459694989106755, 0.9069716775599129, 0.9115468409586056, 0.9577342047930284, 0.4363834422657952, 0.4363834422657952, 0.7363834422657952, 0.9459694989106755, 0.5091503267973856, 0.9152505446623094, 0.9577342047930284, 0.6854030501089324, 0.9267973856209151, 0.9538126361655774, 0.8538126361655773, 0.8538126361655773, 0.9540305010893245, 0.9540305010893245, 0.9459694989106755, 0.8577342047930283, 0.8538126361655773, 0.9540305010893245, 0.8538126361655773, 0.8376906318082789, 0.9540305010893245, 0.9540305010893245, 0.9540305010893245, 0.9577342047930284, 0.9579520697167755, 0.9267973856209151, 0.8651416122004358, 0.9540305010893245, 0.9383442265795207]</t>
+          <t>[0.7880174291938997, 0.5032679738562091, 0.7324618736383443, 0.926797385620915, 0.3921568627450981, 0.8810457516339868, 0.926797385620915, 0.9189542483660131, 0.9069716775599129, 0.4908496732026144, 0.9577342047930284, 0.9501089324618738, 0.9305010893246187, 0.4363834422657952, 0.8067538126361654, 0.9305010893246187, 0.7880174291938997, 0.9420479302832243, 0.7235294117647058, 0.9305010893246187, 0.9459694989106755, 0.881045751633987, 0.9577342047930284, 0.9577342047930284, 0.9267973856209151, 0.9540305010893245, 0.9577342047930284, 0.9577342047930284, 0.9538126361655774, 0.9420479302832243, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284, 0.9577342047930284]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.03670231937470933, 0.03226755308335273, 0.034468131349627076, 0.015259878873932368, 0.032162943494603705, 0.10320820457631674, 0.030356019777607227, 0.022373359341943826, 0.12980362172061835, 0.12723759206617213, 0.00922780766211217, 0.014428514762351593, 0.03416105330980611, 0.036032777151279526, 0.02251083460233466, 0.04030795490631712, 0.028125678182758775, 0.028577700060358154, 0.04780931456809886, 0.020008019998115613, 0.02227555648561443, 0.210567998533599, 0.210567998533599, 0.07283664614178552, 0.02236274931652526, 0.20949907380213253, 0.03145414226278684, 0.02189948910349297, 0.07294864648630216, 0.04063867073649626, 0.019273351245835738, 0.08227797996982777, 0.0804933501782539, 0.025800211491220013, 0.025800211491220013, 0.014753815209879778, 0.07665502341286283, 0.08227797996982777, 0.025800211491220013, 0.08227797996982777, 0.07104200687752922, 0.019147339906509696, 0.025800211491220013, 0.019147339906509696, 0.02227555648561443, 0.022128041700382826, 0.025680351374966767, 0.06113974529063126, 0.019147339906509696, 0.02809190574240446]</t>
+          <t>[0.08543972357404224, 0.09070091215030403, 0.07566721990517707, 0.02210443387069416, 0.20988885586054665, 0.03170215381858835, 0.02210443387069416, 0.03017724122975152, 0.05385980485913165, 0.22814899697094737, 0.02227555648561443, 0.00922780766211217, 0.036032777151279526, 0.210567998533599, 0.07092364970119013, 0.036032777151279526, 0.07298182285290919, 0.024488250024093317, 0.17468148189667548, 0.036032777151279526, 0.022542440600867727, 0.07866522870158485, 0.02227555648561443, 0.02227555648561443, 0.025176363503136755, 0.019147339906509696, 0.02227555648561443, 0.02227555648561443, 0.019273351245835738, 0.024488250024093317, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443, 0.02227555648561443]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[41, 36, 31, 28, 33, 44, 27, 19, 46, 47, 13, 14, 23, 24, 15, 20, 21, 16, 32, 30, 2, 49, 49, 43, 16, 48, 29, 2, 45, 25, 12, 37, 37, 5, 5, 16, 35, 37, 5, 37, 42, 5, 5, 5, 2, 1, 25, 34, 5, 22]</t>
+          <t>[43, 47, 45, 36, 50, 41, 36, 38, 39, 48, 1, 28, 32, 49, 42, 32, 43, 30, 46, 32, 29, 40, 1, 1, 35, 26, 1, 1, 27, 30, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'tanh', 'alpha': 1.0621711725700672e-06, 'learning_rate_init': 0.000546159107693822, 'max_iter': 2316, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.005940789751738591, 'learning_rate_init': 0.0004920618460363064, 'max_iter': 1420, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.003470710262315031, 'learning_rate_init': 0.00047487069995846517, 'max_iter': 2222, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.1602977877406211e-05, 'learning_rate_init': 0.001897696154587728, 'max_iter': 2913, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.04257712935075803, 'learning_rate_init': 0.000699981478849523, 'max_iter': 2344, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 8.864027822674639e-05, 'learning_rate_init': 0.0003078613048562583, 'max_iter': 1736, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 2.4365340604277185e-05, 'learning_rate_init': 0.0007318645753948493, 'max_iter': 2289, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00455498202193663, 'learning_rate_init': 0.003328160000271, 'max_iter': 649, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0004895617847850894, 'learning_rate_init': 0.00018605209384172665, 'max_iter': 1664, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.04588300646889023, 'learning_rate_init': 0.00022544943599014388, 'max_iter': 1576, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 2.1301731892150053e-06, 'learning_rate_init': 0.0016927190238673342, 'max_iter': 610, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.02091157525511561, 'learning_rate_init': 0.0013604280038672467, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 8.608594774370898e-05, 'learning_rate_init': 0.006022712767900247, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.005984587519877393, 'learning_rate_init': 0.01, 'max_iter': 2475, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0015839544544510198, 'learning_rate_init': 0.004477265056616039, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 3.6558515407445674e-06, 'learning_rate_init': 0.006406214913504817, 'max_iter': 732, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0075036840410922494, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.005150181948890007, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0001823464425105108, 'learning_rate_init': 0.0024885453114061127, 'max_iter': 2648, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00229069712188525, 'learning_rate_init': 0.00018561924281237455, 'max_iter': 2949, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00276159724761093, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.07968282613477232, 'learning_rate_init': 0.000134487550062641, 'max_iter': 2910, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 7.740463495152081e-06, 'learning_rate_init': 0.0013993525864061992, 'max_iter': 503, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0030200394305535446, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0003737180184502924, 'learning_rate_init': 0.0020180537877133695, 'max_iter': 799, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008111787963865424, 'max_iter': 2961, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0007218358601167829, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0009026281046667009, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.003942580855348022, 'learning_rate_init': 0.008428443534209636, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.012666667185550668, 'learning_rate_init': 0.008471249480473042, 'max_iter': 1649, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0034502792177818777, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.7825832784062518e-05, 'learning_rate_init': 0.0008123777344969427, 'max_iter': 2164, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0008167446977513075, 'max_iter': 2833, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0004344692532245057, 'learning_rate_init': 0.008463065761959305, 'max_iter': 2639, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0008189742332974205, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1.204229977205044e-05, 'learning_rate_init': 0.00031504884608722053, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00954966062065451, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008462533888947419, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008722570716232168, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008608793631980033, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0010135924109444378, 'max_iter': 855, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00034874215600650744, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.009518119890906115, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00016814138496259703, 'learning_rate_init': 0.008040050815407665, 'max_iter': 1381, 'solver': 'sgd'})]</t>
+          <t>[OrderedDict({'activation': 'logistic', 'alpha': 0.04966117437253577, 'learning_rate_init': 0.0011045233241002046, 'max_iter': 2112, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.024364789405001048, 'learning_rate_init': 0.00010893383969859429, 'max_iter': 620, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.003106317349410826, 'learning_rate_init': 0.00018536983129294565, 'max_iter': 1474, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.048441296107575395, 'learning_rate_init': 0.002427345361062143, 'max_iter': 943, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 4.406554372562875e-05, 'learning_rate_init': 0.0002708610768755149, 'max_iter': 780, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.011905255377293375, 'learning_rate_init': 0.0008144809198740065, 'max_iter': 2574, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 2.47670486653088e-06, 'learning_rate_init': 0.0027856222429085377, 'max_iter': 2649, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0016049663932113168, 'learning_rate_init': 0.0005335410103944992, 'max_iter': 2623, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.31905892277023e-06, 'learning_rate_init': 0.009460245753582711, 'max_iter': 2448, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 3.4526155635471367e-06, 'learning_rate_init': 0.00036461747321931196, 'max_iter': 877, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0014981486425179671, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.9616350413566954e-06, 'learning_rate_init': 0.0002232989682345009, 'max_iter': 723, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2746, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0008549052809723945, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 8.864881640166446e-06, 'learning_rate_init': 0.007218815004728989, 'max_iter': 1539, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.753329899662555e-05, 'learning_rate_init': 0.0002614786465447094, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2108, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006889533062846609, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0009906431751452115, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2533, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0009847756322282756, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.009736529321240663, 'max_iter': 2853, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2818, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 994, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.05013853076618477, 'learning_rate_init': 0.008162490294029415, 'max_iter': 985, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0038540231583248687, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 727, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.06485171718448421, 'learning_rate_init': 0.01, 'max_iter': 677, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.05046765057686982, 'learning_rate_init': 0.01, 'max_iter': 931, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.000343855606120304, 'learning_rate_init': 0.01, 'max_iter': 606, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0004283473766844887, 'learning_rate_init': 0.01, 'max_iter': 589, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.06287680435604212, 'learning_rate_init': 0.01, 'max_iter': 1736, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.007706723081344167, 'learning_rate_init': 0.01, 'max_iter': 735, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00963355986244929, 'learning_rate_init': 0.01, 'max_iter': 2146, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.006925033168998028, 'learning_rate_init': 0.01, 'max_iter': 645, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.06753593055490814, 'learning_rate_init': 0.01, 'max_iter': 1732, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2175, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.03622873373191467, 'learning_rate_init': 0.01, 'max_iter': 1595, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 505, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 677, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 602, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2130, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.05873527082290304, 'learning_rate_init': 0.01, 'max_iter': 2783, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.011374937452504579, 'learning_rate_init': 0.01, 'max_iter': 660, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1478, 'solver': 'adam'})]</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -3120,27 +3120,27 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[0.8877995642701526, 0.8877995642701526, 0.8660130718954249, 0.9248366013071895, 0.8877995642701526, 0.6372549019607843, 0.8660130718954249, 0.9618736383442266, 0.4052287581699346, 0.4052287581699346, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.9618736383442266, 0.9814814814814815, 0.9618736383442266, 0.9248366013071895, 0.9814814814814815, 0.7113289760348583, 0.7113289760348583, 0.7113289760348583, 0.9803921568627452, 0.7113289760348583, 0.943355119825708, 0.9803921568627452, 0.65359477124183, 0.9618736383442266, 0.9618736383442266, 0.7886710239651417, 0.7690631808278868, 0.9814814814814815, 0.9814814814814815, 0.9618736383442266, 0.7886710239651417, 0.7886710239651417, 0.9814814814814815, 0.7886710239651417, 0.7505446623093682, 0.9618736383442266, 0.9814814814814815, 0.9618736383442266, 0.9814814814814815, 0.9814814814814815, 0.8845315904139434, 0.7701525054466232, 0.9618736383442266, 0.9618736383442266]</t>
+          <t>[0.7145969498910675, 0.38562091503267976, 0.7113289760348583, 0.9618736383442266, 0.25272331154684097, 0.8507625272331154, 0.9618736383442266, 0.8845315904139434, 0.9618736383442266, 0.25272331154684097, 0.9814814814814815, 0.9618736383442266, 0.9618736383442266, 0.7113289760348583, 0.7494553376906318, 0.9618736383442266, 0.7145969498910675, 0.9618736383442266, 0.8485838779956426, 0.9618736383442266, 0.9618736383442266, 0.9248366013071895, 0.9814814814814815, 0.9814814814814815, 0.8845315904139434, 0.9618736383442266, 0.9814814814814815, 0.9814814814814815, 0.9618736383442266, 0.9618736383442266, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815, 0.9814814814814815]</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.8453159041394335, 0.8453159041394335, 0.9226579520697168, 0.9041394335511983, 0.903050108932462, 0.7320261437908496, 0.9226579520697168, 0.9411764705882352, 0.7320261437908496, 0.7320261437908496, 0.9422657952069716, 0.9226579520697168, 0.9215686274509803, 0.9226579520697168, 0.9237472766884531, 0.8834422657952069, 0.9041394335511983, 0.9215686274509803, 0.9019607843137255, 0.9041394335511983, 0.9237472766884531, 0.6710239651416122, 0.6710239651416122, 0.6906318082788672, 0.9237472766884531, 0.6906318082788672, 0.9041394335511983, 0.9237472766884531, 0.7505446623093682, 0.903050108932462, 0.9237472766884531, 0.7320261437908496, 0.7516339869281046, 0.9237472766884531, 0.9237472766884531, 0.9422657952069716, 0.7516339869281046, 0.7320261437908496, 0.9237472766884531, 0.7320261437908496, 0.8660130718954249, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9226579520697168, 0.8464052287581699, 0.9237472766884531, 0.9226579520697168]</t>
+          <t>[0.7124183006535948, 0.5206971677559913, 0.6710239651416122, 0.9041394335511983, 0.3355119825708061, 0.863834422657952, 0.9041394335511983, 0.9226579520697168, 0.8823529411764706, 0.3355119825708061, 0.9237472766884531, 0.9422657952069716, 0.9226579520697168, 0.6710239651416122, 0.7320261437908496, 0.9226579520697168, 0.7124183006535948, 0.9215686274509803, 0.8453159041394335, 0.9226579520697168, 0.9237472766884531, 0.7320261437908496, 0.9237472766884531, 0.9237472766884531, 0.9226579520697168, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9215686274509803, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531, 0.9237472766884531]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[0.8061002178649237, 0.8257080610021786, 0.8660130718954249, 0.9052287581699346, 0.8453159041394335, 0.6492374727668846, 0.9248366013071895, 0.9248366013071895, 0.6492374727668846, 0.6296296296296297, 0.9444444444444445, 0.9444444444444445, 0.9248366013071895, 0.9052287581699346, 0.943355119825708, 0.9052287581699346, 0.9248366013071895, 0.9248366013071895, 0.8474945533769063, 0.9052287581699346, 0.9422657952069716, 0.3093681917211329, 0.3093681917211329, 0.6525054466230937, 0.943355119825708, 0.6339869281045751, 0.8856209150326797, 0.943355119825708, 0.7875816993464052, 0.8671023965141612, 0.9422657952069716, 0.8856209150326797, 0.8856209150326797, 0.9237472766884531, 0.9237472766884531, 0.943355119825708, 0.8856209150326797, 0.8856209150326797, 0.9237472766884531, 0.8856209150326797, 0.8660130718954249, 0.943355119825708, 0.9237472766884531, 0.943355119825708, 0.9422657952069716, 0.943355119825708, 0.9444444444444445, 0.8464052287581699, 0.943355119825708, 0.9052287581699346]</t>
+          <t>[0.7287581699346406, 0.6100217864923748, 0.6525054466230937, 0.9052287581699346, 0.23529411764705885, 0.8671023965141612, 0.9052287581699346, 0.8856209150326798, 0.8474945533769063, 0.7287581699346406, 0.9422657952069716, 0.9444444444444445, 0.9052287581699346, 0.3093681917211329, 0.7679738562091503, 0.9052287581699346, 0.8660130718954248, 0.9248366013071895, 0.6492374727668846, 0.9052287581699346, 0.9422657952069716, 0.8856209150326797, 0.9422657952069716, 0.9422657952069716, 0.9248366013071895, 0.943355119825708, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9248366013071895, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716, 0.9422657952069716]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[0.823529411764706, 0.823529411764706, 0.9411764705882352, 0.9411764705882352, 0.823529411764706, 0.5882352941176471, 0.9607843137254902, 0.9803921568627452, 0.5882352941176471, 0.5882352941176471, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9411764705882352, 0.9803921568627452, 0.21568627450980393, 0.21568627450980393, 0.8627450980392156, 0.9607843137254902, 0.23529411764705885, 0.9607843137254902, 0.9607843137254902, 0.5882352941176471, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 0.9411764705882352, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9411764705882352, 0.9803921568627452, 0.9803921568627452]</t>
+          <t>[0.8823529411764706, 0.5882352941176471, 0.8627450980392156, 0.9411764705882352, 0.3333333333333333, 0.9411764705882352, 0.9411764705882352, 0.9607843137254902, 0.9803921568627452, 0.3333333333333333, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.21568627450980393, 0.9019607843137255, 0.9803921568627452, 0.8823529411764706, 0.9803921568627452, 0.8627450980392157, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452]</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>[0.9019607843137255, 0.9019607843137255, 0.9411764705882352, 0.9019607843137255, 0.9019607843137255, 0.8823529411764706, 0.9215686274509803, 0.9215686274509803, 0.411764705882353, 0.411764705882353, 0.9411764705882352, 0.9411764705882352, 0.8823529411764706, 0.8823529411764706, 0.9215686274509803, 0.9803921568627452, 0.9215686274509803, 0.9215686274509803, 0.8627450980392157, 0.8823529411764706, 0.9607843137254902, 0.2745098039215686, 0.2745098039215686, 0.7647058823529411, 0.9215686274509803, 0.2745098039215686, 0.8823529411764706, 0.9803921568627452, 0.6470588235294117, 0.9215686274509803, 0.9607843137254902, 0.9019607843137255, 0.9019607843137255, 0.9607843137254902, 0.9607843137254902, 0.9215686274509803, 0.9019607843137255, 0.9019607843137255, 0.9607843137254902, 0.9019607843137255, 0.7647058823529411, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9215686274509803, 0.9215686274509803, 0.9607843137254902, 0.9215686274509803]</t>
+          <t>[0.9019607843137255, 0.411764705882353, 0.7647058823529411, 0.9215686274509803, 0.8039215686274509, 0.8823529411764706, 0.9215686274509803, 0.9411764705882352, 0.8627450980392157, 0.8039215686274509, 0.9607843137254902, 0.9411764705882352, 0.8823529411764706, 0.2745098039215686, 0.8823529411764706, 0.8823529411764706, 0.7647058823529411, 0.9215686274509803, 0.411764705882353, 0.8823529411764706, 0.9215686274509803, 0.9019607843137255, 0.9607843137254902, 0.9607843137254902, 0.9411764705882352, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9215686274509803, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902]</t>
         </is>
       </c>
     </row>
@@ -3252,52 +3252,52 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7013689393354077</v>
+        <v>0.7645504053358878</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7083056478405315</v>
+        <v>0.7649870801033593</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[[6, 1, 3], [3, 18, 1], [3, 2, 6]]</t>
+          <t>[[7, 3, 0], [0, 19, 3], [2, 2, 7]]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3})</t>
+          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3})</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.7361655773420479, 0.7509803921568627, 0.7997821350762526, 0.7904139433551199, 0.7790849673202614, 0.7446623093681917, 0.7908496732026145, 0.7479302832244009, 0.7721132897603485, 0.7825708061002178, 0.7450980392156863, 0.7884531590413943, 0.7376906318082789, 0.8594771241830065, 0.710239651416122, 0.5154684095860566, 0.762962962962963, 0.7629629629629628, 0.7668845315904139, 0.706318082788671, 0.7450980392156863, 0.718082788671024, 0.7867102396514161, 0.710239651416122, 0.7629629629629628, 0.8331154684095861, 0.706318082788671, 0.762962962962963, 0.5154684095860566, 0.6047930283224401, 0.706318082788671, 0.5154684095860566, 0.8644880174291938, 0.7596949891067538, 0.7339869281045752, 0.8209150326797385, 0.683442265795207, 0.6594771241830066, 0.706318082788671, 0.722004357298475, 0.7864923747276689, 0.5154684095860566, 0.7596949891067538, 0.722004357298475, 0.6159041394335512, 0.8235294117647058, 0.7753812636165577, 0.714161220043573, 0.7061002178649238, 0.7629629629629628]</t>
+          <t>[0.771677559912854, 0.706318082788671, 0.722004357298475, 0.7629629629629628, 0.7710239651416122, 0.7596949891067538, 0.7629629629629628, 0.7061002178649237, 0.7520697167755991, 0.7440087145969498, 0.8206971677559913, 0.7976034858387799, 0.7450980392156863, 0.706318082788671, 0.5154684095860566, 0.8374727668845315, 0.7339869281045752, 0.6047930283224401, 0.710239651416122, 0.5154684095860566, 0.7444444444444445, 0.8437908496732026, 0.5154684095860566, 0.7668845315904139, 0.7450980392156863, 0.7398692810457517, 0.7141612200435731, 0.714161220043573, 0.5154684095860566, 0.5154684095860566, 0.706318082788671, 0.8198257080610022, 0.706318082788671, 0.7450980392156863, 0.5154684095860566, 0.8331154684095861, 0.6594771241830066, 0.7409586056644881, 0.5154684095860566, 0.714161220043573, 0.5154684095860566, 0.8198257080610022, 0.7065359477124182, 0.6211328976034859, 0.8331154684095861, 0.706318082788671, 0.5154684095860566, 0.706318082788671, 0.7339869281045752, 0.5154684095860566]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.06449096148258308, 0.061781514160404706, 0.08798992214539811, 0.07381924641095898, 0.0625632805082268, 0.08979259948987564, 0.03981626771785854, 0.04995999462789, 0.040702858904250086, 0.0541279253778803, 0.07801572263764474, 0.08115402611187982, 0.09500359666421675, 0.03741952949306681, 0.08363005541468073, 0.04365134566054271, 0.05225852496928956, 0.06947329487428729, 0.06340206176615831, 0.08046445078833923, 0.07801572263764474, 0.08638392305085893, 0.04440598104957653, 0.08363005541468073, 0.06947329487428729, 0.07294864648630213, 0.08046445078833923, 0.06501214902383375, 0.04365134566054271, 0.03198536078016339, 0.08046445078833926, 0.04365134566054271, 0.05811156324870109, 0.06702879136567987, 0.08318161534656264, 0.039061668016495736, 0.04549987793361785, 0.03734715736481912, 0.08046445078833923, 0.06968749385068525, 0.08829579141245941, 0.04365134566054271, 0.06702879136567987, 0.06968749385068525, 0.01530646454923774, 0.08595316577158545, 0.0651791266276781, 0.05128208961925327, 0.08076414636407957, 0.06947329487428729]</t>
+          <t>[0.0439666314461983, 0.08046445078833923, 0.06968749385068525, 0.06947329487428729, 0.06219805099801472, 0.06702879136567987, 0.08229009371221638, 0.0602442803754401, 0.08499692238934124, 0.0822883632867695, 0.03935824970042031, 0.04493724822432677, 0.07801572263764474, 0.08046445078833923, 0.04365134566054271, 0.10223275274646257, 0.08318161534656264, 0.03198536078016339, 0.08363005541468073, 0.04365134566054271, 0.054490626344931015, 0.032296959407767195, 0.04365134566054271, 0.06340206176615831, 0.07801572263764474, 0.05354072057055422, 0.09163441167566384, 0.05128208961925327, 0.04365134566054271, 0.04365134566054271, 0.08046445078833923, 0.07718262743762701, 0.08046445078833923, 0.07801572263764474, 0.04365134566054271, 0.07294864648630213, 0.03734715736481912, 0.059658402031528744, 0.04365134566054271, 0.05128208961925327, 0.04365134566054271, 0.07718262743762701, 0.07849972814075833, 0.05351855288555736, 0.07294864648630213, 0.08046445078833923, 0.04365134566054271, 0.08046445078833923, 0.08318161534656264, 0.04365134566054271]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[30, 24, 6, 8, 13, 28, 7, 25, 15, 12, 26, 9, 29, 2, 36, 47, 17, 19, 16, 38, 26, 34, 10, 36, 19, 3, 38, 17, 47, 46, 38, 47, 1, 22, 31, 5, 43, 44, 38, 32, 11, 47, 22, 32, 45, 4, 14, 35, 42, 19]</t>
+          <t>[9, 31, 25, 12, 10, 14, 12, 37, 15, 20, 5, 8, 16, 31, 41, 2, 23, 40, 29, 41, 19, 1, 41, 11, 16, 22, 26, 27, 41, 41, 31, 6, 31, 16, 41, 3, 38, 21, 41, 27, 41, 6, 30, 39, 3, 31, 41, 31, 23, 41]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 90, 'max_features': 'log2', 'min_samples_leaf': 14, 'min_samples_split': 38}), OrderedDict({'criterion': 'entropy', 'max_depth': 9, 'max_features': 'log2', 'min_samples_leaf': 16, 'min_samples_split': 15}), OrderedDict({'criterion': 'gini', 'max_depth': 52, 'max_features': None, 'min_samples_leaf': 7, 'min_samples_split': 38}), OrderedDict({'criterion': 'entropy', 'max_depth': 26, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 9}), OrderedDict({'criterion': 'entropy', 'max_depth': 50, 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 19}), OrderedDict({'criterion': 'gini', 'max_depth': 80, 'max_features': 'sqrt', 'min_samples_leaf': 16, 'min_samples_split': 37}), OrderedDict({'criterion': 'entropy', 'max_depth': 81, 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 31}), OrderedDict({'criterion': 'gini', 'max_depth': 90, 'max_features': 'sqrt', 'min_samples_leaf': 10, 'min_samples_split': 33}), OrderedDict({'criterion': 'entropy', 'max_depth': 10, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 26}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 16, 'min_samples_split': 44}), OrderedDict({'criterion': 'gini', 'max_depth': 15, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 10, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3})]</t>
+          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 87, 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 9}), OrderedDict({'criterion': 'entropy', 'max_depth': 88, 'max_features': 'sqrt', 'min_samples_leaf': 14, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 59, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 21}), OrderedDict({'criterion': 'entropy', 'max_depth': 47, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 25}), OrderedDict({'criterion': 'gini', 'max_depth': 28, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 42}), OrderedDict({'criterion': 'gini', 'max_depth': 30, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 16, 'min_samples_split': 16}), OrderedDict({'criterion': 'entropy', 'max_depth': 37, 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 9}), OrderedDict({'criterion': 'gini', 'max_depth': 19, 'max_features': 'log2', 'min_samples_leaf': 13, 'min_samples_split': 35}), OrderedDict({'criterion': 'gini', 'max_depth': 31, 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 19}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 9}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 8}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49})]</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3306,27 +3306,27 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[0.6949891067538125, 0.7690631808278866, 0.7875816993464052, 0.7886710239651417, 0.8474945533769063, 0.6949891067538125, 0.8300653594771242, 0.7505446623093682, 0.7363834422657952, 0.7265795206971677, 0.6525054466230937, 0.7875816993464052, 0.6949891067538125, 0.8431372549019608, 0.6949891067538125, 0.5185185185185185, 0.8474945533769063, 0.648148148148148, 0.7505446623093682, 0.6949891067538125, 0.6525054466230937, 0.7342047930283225, 0.7461873638344226, 0.6949891067538125, 0.648148148148148, 0.8660130718954248, 0.6949891067538125, 0.7505446623093682, 0.5185185185185185, 0.579520697167756, 0.6949891067538125, 0.5185185185185185, 0.8845315904139434, 0.7505446623093682, 0.6525054466230937, 0.7679738562091504, 0.6089324618736384, 0.613289760348584, 0.6949891067538125, 0.6949891067538125, 0.7679738562091504, 0.5185185185185185, 0.7505446623093682, 0.6949891067538125, 0.5893246187363834, 0.8061002178649237, 0.710239651416122, 0.6949891067538125, 0.6949891067538125, 0.648148148148148]</t>
+          <t>[0.7908496732026142, 0.6949891067538125, 0.6949891067538125, 0.648148148148148, 0.8474945533769063, 0.7505446623093682, 0.7690631808278866, 0.6949891067538125, 0.6949891067538125, 0.8660130718954249, 0.7668845315904139, 0.7647058823529411, 0.6525054466230937, 0.6949891067538125, 0.5185185185185185, 0.8845315904139434, 0.6525054466230937, 0.579520697167756, 0.6949891067538125, 0.5185185185185185, 0.6949891067538125, 0.823529411764706, 0.5185185185185185, 0.7505446623093682, 0.6525054466230937, 0.7135076252723311, 0.7538126361655774, 0.6949891067538125, 0.5185185185185185, 0.5185185185185185, 0.6949891067538125, 0.7875816993464052, 0.6949891067538125, 0.6525054466230937, 0.5185185185185185, 0.8660130718954248, 0.613289760348584, 0.6971677559912853, 0.5185185185185185, 0.6949891067538125, 0.5185185185185185, 0.7875816993464052, 0.6960784313725489, 0.6557734204793029, 0.8660130718954248, 0.6949891067538125, 0.5185185185185185, 0.6949891067538125, 0.6525054466230937, 0.5185185185185185]</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.7080610021786492, 0.7080610021786492, 0.6568627450980392, 0.8050108932461875, 0.690631808278867, 0.6525054466230937, 0.7494553376906318, 0.7265795206971678, 0.7668845315904139, 0.7712418300653594, 0.6960784313725491, 0.6568627450980392, 0.6525054466230937, 0.8061002178649237, 0.6525054466230937, 0.4313725490196078, 0.7668845315904139, 0.7712418300653594, 0.6884531590413943, 0.6525054466230937, 0.6960784313725491, 0.6525054466230937, 0.7712418300653594, 0.6525054466230937, 0.7712418300653594, 0.7668845315904139, 0.6525054466230937, 0.6884531590413943, 0.4313725490196078, 0.5544662309368191, 0.6525054466230937, 0.4313725490196078, 0.80718954248366, 0.6884531590413943, 0.6960784313725491, 0.8061002178649237, 0.6623093681917211, 0.6176470588235294, 0.6525054466230937, 0.6525054466230937, 0.7472766884531591, 0.4313725490196078, 0.6884531590413943, 0.6525054466230937, 0.6274509803921569, 0.7156862745098039, 0.7113289760348583, 0.6721132897603486, 0.6525054466230937, 0.7712418300653594]</t>
+          <t>[0.7309368191721134, 0.6525054466230937, 0.6525054466230937, 0.7712418300653594, 0.7461873638344226, 0.6884531590413943, 0.6699346405228758, 0.6699346405228758, 0.7091503267973857, 0.6143790849673203, 0.8061002178649237, 0.7712418300653594, 0.6960784313725491, 0.6525054466230937, 0.4313725490196078, 0.80718954248366, 0.6960784313725491, 0.5544662309368191, 0.6525054466230937, 0.4313725490196078, 0.6721132897603486, 0.8061002178649237, 0.4313725490196078, 0.6884531590413943, 0.6960784313725491, 0.6884531590413943, 0.6525054466230937, 0.6721132897603486, 0.4313725490196078, 0.4313725490196078, 0.6525054466230937, 0.7352941176470589, 0.6525054466230937, 0.6960784313725491, 0.4313725490196078, 0.7668845315904139, 0.6176470588235294, 0.6525054466230937, 0.4313725490196078, 0.6721132897603486, 0.4313725490196078, 0.7352941176470589, 0.6525054466230937, 0.5599128540305011, 0.7668845315904139, 0.6525054466230937, 0.4313725490196078, 0.6525054466230937, 0.6960784313725491, 0.4313725490196078]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[0.6895424836601308, 0.6895424836601308, 0.7701525054466231, 0.6525054466230937, 0.7886710239651414, 0.6895424836601308, 0.7472766884531591, 0.7135076252723312, 0.7298474945533769, 0.7875816993464052, 0.7298474945533769, 0.7527233115468409, 0.6546840958605665, 0.863834422657952, 0.5958605664488018, 0.5490196078431372, 0.710239651416122, 0.7875816993464052, 0.7483660130718954, 0.5958605664488018, 0.7298474945533769, 0.5958605664488018, 0.8082788671023965, 0.5958605664488018, 0.7875816993464052, 0.7287581699346405, 0.5958605664488018, 0.7287581699346406, 0.5490196078431372, 0.6350762527233117, 0.5958605664488018, 0.5490196078431372, 0.7875816993464052, 0.7124183006535948, 0.6742919389978214, 0.8442265795206971, 0.7342047930283225, 0.6742919389978214, 0.5958605664488018, 0.6546840958605665, 0.6525054466230937, 0.5490196078431372, 0.7124183006535948, 0.6546840958605665, 0.6274509803921569, 0.7527233115468409, 0.7494553376906318, 0.6546840958605665, 0.5947712418300654, 0.7875816993464052]</t>
+          <t>[0.7091503267973857, 0.5958605664488018, 0.6546840958605665, 0.7875816993464052, 0.7124183006535948, 0.7124183006535948, 0.6895424836601308, 0.6557734204793029, 0.7875816993464052, 0.7298474945533769, 0.8442265795206971, 0.8050108932461874, 0.7298474945533769, 0.5958605664488018, 0.5490196078431372, 0.6525054466230937, 0.6742919389978214, 0.6350762527233117, 0.5958605664488018, 0.5490196078431372, 0.7668845315904139, 0.8442265795206971, 0.5490196078431372, 0.7483660130718954, 0.7298474945533769, 0.7287581699346406, 0.5762527233115469, 0.6546840958605665, 0.5490196078431372, 0.5490196078431372, 0.5958605664488018, 0.7527233115468409, 0.5958605664488018, 0.7298474945533769, 0.5490196078431372, 0.7287581699346405, 0.6742919389978214, 0.7668845315904139, 0.5490196078431372, 0.6546840958605665, 0.5490196078431372, 0.7527233115468409, 0.5958605664488018, 0.5762527233115469, 0.7287581699346405, 0.5958605664488018, 0.5490196078431372, 0.5958605664488018, 0.6742919389978214, 0.5490196078431372]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[0.7254901960784313, 0.7254901960784313, 0.9019607843137255, 0.8627450980392156, 0.7254901960784313, 0.784313725490196, 0.7843137254901961, 0.7058823529411765, 0.7843137254901961, 0.8823529411764706, 0.8823529411764706, 0.8823529411764706, 0.784313725490196, 0.9215686274509803, 0.784313725490196, 0.5294117647058824, 0.7058823529411765, 0.8627450980392156, 0.7647058823529411, 0.7647058823529411, 0.8823529411764706, 0.7647058823529411, 0.8627450980392156, 0.784313725490196, 0.8627450980392156, 0.9215686274509803, 0.7647058823529411, 0.7647058823529411, 0.5294117647058824, 0.6274509803921569, 0.7647058823529412, 0.5294117647058824, 0.9019607843137255, 0.7647058823529411, 0.8823529411764706, 0.8823529411764706, 0.6862745098039215, 0.7058823529411765, 0.7647058823529411, 0.784313725490196, 0.9019607843137255, 0.5294117647058824, 0.7647058823529411, 0.784313725490196, 0.6274509803921569, 0.9411764705882352, 0.8627450980392156, 0.7647058823529411, 0.7647058823529412, 0.8627450980392156]</t>
+          <t>[0.823529411764706, 0.7647058823529411, 0.784313725490196, 0.8627450980392156, 0.7058823529411765, 0.7647058823529411, 0.784313725490196, 0.6862745098039215, 0.6666666666666666, 0.7254901960784315, 0.8823529411764706, 0.8823529411764706, 0.8823529411764706, 0.7647058823529411, 0.5294117647058824, 0.9019607843137255, 0.8823529411764706, 0.6274509803921569, 0.784313725490196, 0.5294117647058824, 0.7647058823529412, 0.9019607843137255, 0.5294117647058824, 0.7647058823529411, 0.8823529411764706, 0.7254901960784315, 0.7450980392156863, 0.7647058823529411, 0.5294117647058824, 0.5294117647058824, 0.7647058823529411, 0.9215686274509803, 0.7647058823529411, 0.8823529411764706, 0.5294117647058824, 0.9215686274509803, 0.7058823529411765, 0.7647058823529412, 0.5294117647058824, 0.7647058823529411, 0.5294117647058824, 0.9215686274509803, 0.7843137254901961, 0.6078431372549019, 0.9215686274509803, 0.7647058823529411, 0.5294117647058824, 0.7647058823529411, 0.8823529411764706, 0.5294117647058824]</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>[0.8627450980392157, 0.8627450980392157, 0.8823529411764706, 0.8431372549019608, 0.8431372549019608, 0.9019607843137255, 0.8431372549019608, 0.8431372549019608, 0.8431372549019608, 0.7450980392156863, 0.7647058823529411, 0.8627450980392156, 0.9019607843137255, 0.8627450980392156, 0.823529411764706, 0.5490196078431372, 0.7843137254901961, 0.7450980392156863, 0.8823529411764706, 0.823529411764706, 0.7647058823529411, 0.8431372549019608, 0.7450980392156863, 0.823529411764706, 0.7450980392156863, 0.8823529411764706, 0.823529411764706, 0.8823529411764706, 0.5490196078431372, 0.6274509803921569, 0.823529411764706, 0.5490196078431372, 0.9411764705882352, 0.8823529411764706, 0.7647058823529411, 0.8039215686274509, 0.7254901960784315, 0.6862745098039215, 0.823529411764706, 0.823529411764706, 0.8627450980392156, 0.5490196078431372, 0.8823529411764706, 0.823529411764706, 0.6078431372549019, 0.9019607843137255, 0.8431372549019608, 0.7843137254901961, 0.823529411764706, 0.7450980392156863]</t>
+          <t>[0.8039215686274509, 0.823529411764706, 0.823529411764706, 0.7450980392156863, 0.8431372549019608, 0.8823529411764706, 0.9019607843137255, 0.823529411764706, 0.9019607843137255, 0.784313725490196, 0.8039215686274511, 0.7647058823529411, 0.7647058823529411, 0.823529411764706, 0.5490196078431372, 0.9411764705882352, 0.7647058823529411, 0.6274509803921569, 0.823529411764706, 0.5490196078431372, 0.823529411764706, 0.8431372549019608, 0.5490196078431372, 0.8823529411764706, 0.7647058823529411, 0.8431372549019608, 0.8431372549019608, 0.7843137254901961, 0.5490196078431372, 0.5490196078431372, 0.823529411764706, 0.9019607843137255, 0.823529411764706, 0.7647058823529411, 0.5490196078431372, 0.8823529411764706, 0.6862745098039215, 0.823529411764706, 0.5490196078431372, 0.7843137254901961, 0.5490196078431372, 0.9019607843137255, 0.8039215686274509, 0.7058823529411765, 0.8823529411764706, 0.823529411764706, 0.5490196078431372, 0.823529411764706, 0.7647058823529411, 0.5490196078431372]</t>
         </is>
       </c>
     </row>
@@ -3438,52 +3438,52 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8696969696969696</v>
+        <v>0.903030303030303</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9028199078755197</v>
+        <v>0.929913256346123</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9069767441860465</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9050387596899224</v>
+        <v>0.9315245478036176</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[[7, 2, 1], [0, 22, 0], [1, 0, 10]]</t>
+          <t>[[8, 0, 2], [0, 22, 0], [1, 0, 10]]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.6581898024756704, 'gamma': 0.9766296732922244, 'learning_rate': 0.013668071748353569, 'max_depth': 4, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5})</t>
+          <t>OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5})</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[0.9387799564270154, 0.9653594771241831, 0.9616557734204794, 0.9579520697167755, 0.9616557734204794, 0.9653594771241831, 0.9618736383442265, 0.9422657952069716, 0.9540305010893245, 0.9544662309368193, 0.9616557734204794, 0.9350762527233115, 0.9466230936819173, 0.934640522875817, 0.9694989106753813, 0.9655773420479303, 0.9732026143790851, 0.9732026143790851, 0.9074074074074074, 0.9692810457516341, 0.9074074074074074, 0.9535947712418302, 0.8962962962962961, 0.9692810457516341, 0.9076252723311548, 0.9579520697167757, 0.9579520697167755, 0.9538126361655774, 0.977124183006536, 0.9618736383442267, 0.9538126361655774, 0.9732026143790851, 0.9302832244008714, 0.9655773420479303, 0.9616557734204794, 0.9732026143790851, 0.9732026143790851, 0.9732026143790851, 0.9732026143790851, 0.949673202614379, 0.9464052287581699, 0.9616557734204794, 0.9732026143790851, 0.9653594771241831, 0.9692810457516341, 0.9618736383442265, 0.9614379084967322, 0.9577342047930284, 0.9305010893246187, 0.9657952069716774]</t>
+          <t>[0.9692810457516341, 0.9461873638344226, 0.9466230936819173, 0.9692810457516341, 0.9655773420479303, 0.9505446623093683, 0.9427015250544664, 0.9429193899782135, 0.957516339869281, 0.9344226579520697, 0.9501089324618736, 0.9732026143790851, 0.9614379084967322, 0.9732026143790851, 0.9692810457516341, 0.9653594771241831, 0.9653594771241831, 0.9692810457516341, 0.9653594771241831, 0.9498910675381265, 0.9459694989106755, 0.9655773420479303, 0.9692810457516341, 0.9694989106753813, 0.9732026143790851, 0.9575163398692812, 0.9614379084967319, 0.9732026143790851, 0.9692810457516341, 0.9618736383442267, 0.9616557734204794, 0.9653594771241831, 0.9692810457516341, 0.9732026143790851, 0.9732026143790851, 0.9692810457516341, 0.9692810457516341, 0.9692810457516341, 0.9191721132897606, 0.9732026143790851, 0.9507625272331154, 0.8919389978213508, 0.9427015250544664, 0.9614379084967322, 0.9575163398692812, 0.9614379084967322, 0.977124183006536, 0.9655773420479303, 0.9694989106753813, 0.9267973856209151]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[0.04393315198088877, 0.028140862557677625, 0.03434673516850261, 0.025036462224966326, 0.03177692668017754, 0.028140862557677625, 0.0266561985519526, 0.026974809846241826, 0.03542834692000617, 0.03062843010159476, 0.03216294349460369, 0.03903127786764044, 0.03697290359145345, 0.02826372328162044, 0.0373624052522392, 0.027666271988477858, 0.028801050753221334, 0.02582963021399382, 0.0302510761790149, 0.03588097059004822, 0.04803909217992311, 0.02582963021399381, 0.03271893074714722, 0.022770793255693155, 0.04695684100024661, 0.02537541892741774, 0.022138764209952498, 0.025580348184530692, 0.030779926819083852, 0.020702900249594067, 0.03550997762227171, 0.028801050753221334, 0.025879198475641203, 0.028108797034738522, 0.02697832883521331, 0.028801050753221334, 0.028801050753221334, 0.028801050753221334, 0.028801050753221334, 0.03090611873865857, 0.021538898108868137, 0.03436055178886451, 0.028801050753221334, 0.01392291530167366, 0.03116610848322035, 0.0266561985519526, 0.03203133063091785, 0.028501195575621828, 0.010111373756751455, 0.025197093324271842]</t>
+          <t>[0.03116610848322035, 0.038823993991875166, 0.040302066665118985, 0.022770793255693155, 0.025728362428295463, 0.04063983869898295, 0.04318784032545135, 0.04318784032545135, 0.030640825257950626, 0.026138343659104727, 0.028634115478564235, 0.019408328933612308, 0.01681375283797369, 0.028801050753221334, 0.022770793255693155, 0.02798864810937123, 0.028140862557677625, 0.019539945381070754, 0.028140862557677625, 0.026207257749360485, 0.03490329351558063, 0.022352134254781046, 0.022770793255693155, 0.030987408390150933, 0.02582963021399382, 0.030640825257950626, 0.03229695940776721, 0.028801050753221334, 0.03116610848322035, 0.02697480984624181, 0.03177692668017754, 0.028140862557677625, 0.03116610848322035, 0.028801050753221334, 0.028801050753221334, 0.022770793255693155, 0.028889907545535116, 0.03116610848322035, 0.04385204754884275, 0.028801050753221334, 0.04070285890425006, 0.030806131033255968, 0.04318784032545135, 0.034472262320380795, 0.03318419653971201, 0.034472262320380795, 0.02223930310270128, 0.028108797034738522, 0.02618914004394621, 0.045955557571675715]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>[42, 17, 23, 30, 23, 17, 21, 41, 34, 33, 23, 43, 39, 44, 10, 15, 2, 2, 48, 11, 48, 37, 50, 11, 47, 29, 30, 35, 1, 20, 35, 2, 46, 15, 23, 2, 2, 2, 2, 38, 40, 23, 2, 17, 11, 21, 28, 32, 45, 14]</t>
+          <t>[11, 42, 41, 11, 21, 38, 45, 44, 36, 47, 39, 2, 30, 2, 11, 24, 24, 11, 24, 40, 43, 21, 11, 9, 2, 34, 33, 2, 11, 28, 29, 24, 11, 2, 2, 11, 11, 11, 49, 2, 37, 50, 45, 30, 34, 30, 1, 21, 9, 48]</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.6353416882549797, 'gamma': 4.127128040199171, 'learning_rate': 0.049932629361497026, 'max_depth': 2, 'min_child_weight': 4, 'n_estimators': 301, 'subsample': 0.7141036325584327}), OrderedDict({'colsample_bytree': 0.9948948366219235, 'gamma': 0.7036172055050944, 'learning_rate': 0.03474236639639258, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 290, 'subsample': 0.8678323827036125}), OrderedDict({'colsample_bytree': 0.8909661408731474, 'gamma': 1.8294753631077079, 'learning_rate': 0.011516195460307669, 'max_depth': 12, 'min_child_weight': 4, 'n_estimators': 259, 'subsample': 0.8325276660289327}), OrderedDict({'colsample_bytree': 0.7424449789004299, 'gamma': 1.0988498455711018, 'learning_rate': 0.034191691523688325, 'max_depth': 2, 'min_child_weight': 8, 'n_estimators': 268, 'subsample': 0.8367612848904826}), OrderedDict({'colsample_bytree': 0.5139315512637056, 'gamma': 2.9364140396895735, 'learning_rate': 0.021684883019779288, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 306, 'subsample': 0.87847307851488}), OrderedDict({'colsample_bytree': 0.7024132348091385, 'gamma': 0.7003883293781056, 'learning_rate': 0.03183556905322181, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 401, 'subsample': 0.6982249233192067}), OrderedDict({'colsample_bytree': 0.8636991863255123, 'gamma': 2.584089154925458, 'learning_rate': 0.23665818029034358, 'max_depth': 11, 'min_child_weight': 6, 'n_estimators': 466, 'subsample': 0.6301713474647544}), OrderedDict({'colsample_bytree': 0.7917396366234097, 'gamma': 3.005703656767703, 'learning_rate': 0.044064315958923746, 'max_depth': 4, 'min_child_weight': 9, 'n_estimators': 452, 'subsample': 0.537391231197437}), OrderedDict({'colsample_bytree': 0.659716414142861, 'gamma': 2.9365732973743452, 'learning_rate': 0.09586704178316949, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 176, 'subsample': 0.8532716167369074}), OrderedDict({'colsample_bytree': 0.7574054606039826, 'gamma': 1.9205171198421551, 'learning_rate': 0.06094049013798292, 'max_depth': 11, 'min_child_weight': 8, 'n_estimators': 298, 'subsample': 0.8652337124758628}), OrderedDict({'colsample_bytree': 0.8049084716762817, 'gamma': 0.0, 'learning_rate': 0.019296143396705587, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 481, 'subsample': 0.9467917754564315}), OrderedDict({'colsample_bytree': 0.7406441117838031, 'gamma': 0.2147975500185055, 'learning_rate': 0.02247429140529847, 'max_depth': 1, 'min_child_weight': 8, 'n_estimators': 262, 'subsample': 0.8939138956141505}), OrderedDict({'colsample_bytree': 0.9328177146026555, 'gamma': 1.0559667908214145, 'learning_rate': 0.029295861979384163, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 128, 'subsample': 0.9812431073317196}), OrderedDict({'colsample_bytree': 0.5375852859632904, 'gamma': 4.7558420614416965, 'learning_rate': 0.14035131287650568, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 304, 'subsample': 0.5449565636716661}), OrderedDict({'colsample_bytree': 0.5939508092220349, 'gamma': 1.3827502684096737, 'learning_rate': 0.010144647708665053, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 237, 'subsample': 0.540035625023892}), OrderedDict({'colsample_bytree': 0.5457530733087644, 'gamma': 1.60190466534148, 'learning_rate': 0.06521859357032805, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.911234604560061}), OrderedDict({'colsample_bytree': 0.7538053230380398, 'gamma': 0.0, 'learning_rate': 0.0953161478889507, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 55, 'subsample': 0.5406313652451337}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.22243836647900994, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 396, 'subsample': 0.8585977495353418}), OrderedDict({'colsample_bytree': 0.7735191511849364, 'gamma': 5.0, 'learning_rate': 0.03940223207236988, 'max_depth': 13, 'min_child_weight': 10, 'n_estimators': 439, 'subsample': 0.5238706672209695}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 236, 'subsample': 0.9421020827975002}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 271, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7175219893920084, 'gamma': 1.1055525778043063, 'learning_rate': 0.16507351272545367, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 55, 'subsample': 0.7956683517416822}), OrderedDict({'colsample_bytree': 0.6313333733890751, 'gamma': 5.0, 'learning_rate': 0.21497516732516891, 'max_depth': 9, 'min_child_weight': 10, 'n_estimators': 56, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8999122911874387, 'gamma': 0.0, 'learning_rate': 0.010500603337051242, 'max_depth': 11, 'min_child_weight': 2, 'n_estimators': 442, 'subsample': 0.7426940651806769}), OrderedDict({'colsample_bytree': 0.8803715028971282, 'gamma': 5.0, 'learning_rate': 0.22269990306296988, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 433, 'subsample': 0.9906971122214171}), OrderedDict({'colsample_bytree': 0.8758184486796702, 'gamma': 0.0, 'learning_rate': 0.017763424457558494, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 447, 'subsample': 0.8730600719255832}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.123596126706361, 'max_depth': 7, 'min_child_weight': 8, 'n_estimators': 116, 'subsample': 0.6216641246418713}), OrderedDict({'colsample_bytree': 0.5915979602059137, 'gamma': 2.1688744009942598, 'learning_rate': 0.1582809467301751, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 463, 'subsample': 0.5105538163197606}), OrderedDict({'colsample_bytree': 0.6581898024756704, 'gamma': 0.9766296732922244, 'learning_rate': 0.013668071748353569, 'max_depth': 4, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6807483229545321, 'gamma': 0.0, 'learning_rate': 0.0893473025105364, 'max_depth': 10, 'min_child_weight': 10, 'n_estimators': 260, 'subsample': 0.7346798410643718}), OrderedDict({'colsample_bytree': 0.5206433375382047, 'gamma': 1.579271444191514, 'learning_rate': 0.016511630794392156, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.08765528726323407, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 464, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5949201043264165, 'gamma': 5.0, 'learning_rate': 0.2754870753231832, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 343, 'subsample': 0.618165405029661}), OrderedDict({'colsample_bytree': 0.9771545265140719, 'gamma': 0.79082748597771, 'learning_rate': 0.2814656625196177, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 147, 'subsample': 0.8445300623821888}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.08299500192047227, 'max_depth': 12, 'min_child_weight': 6, 'n_estimators': 389, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8798910455905298, 'gamma': 0.0, 'learning_rate': 0.20303382960428648, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7327383183719008, 'gamma': 0.0, 'learning_rate': 0.049088657876840865, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 336, 'subsample': 0.5170984113172632}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5339500296276491}), OrderedDict({'colsample_bytree': 0.7156416915135733, 'gamma': 0.25186054182373807, 'learning_rate': 0.012114833625299885, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.88606595223765, 'learning_rate': 0.29999999999999993, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9123403080642867}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.7335066526376215, 'learning_rate': 0.2928295289206149, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.3405960047215087, 'learning_rate': 0.01, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8511561554238052, 'gamma': 2.1683607944782177, 'learning_rate': 0.29999999999999993, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5426011418724581, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.6125815134476527, 'learning_rate': 0.01, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9319003814431536, 'gamma': 0.0, 'learning_rate': 0.024410215531482232, 'max_depth': 4, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.616397566388261, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.776840472436244}), OrderedDict({'colsample_bytree': 0.6968061516351481, 'gamma': 2.2125199389433563, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8355665097311804, 'gamma': 0.9019722400189254, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6436241180057516})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.7091088839208542, 'gamma': 0.28239153251290344, 'learning_rate': 0.08509786211996807, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 290, 'subsample': 0.745050314684142}), OrderedDict({'colsample_bytree': 0.671499986859452, 'gamma': 2.8544657235772, 'learning_rate': 0.01181275658877557, 'max_depth': 10, 'min_child_weight': 6, 'n_estimators': 89, 'subsample': 0.7222438891823499}), OrderedDict({'colsample_bytree': 0.9162530952094716, 'gamma': 2.804907523642818, 'learning_rate': 0.02541210424198269, 'max_depth': 12, 'min_child_weight': 8, 'n_estimators': 280, 'subsample': 0.9217275222243744}), OrderedDict({'colsample_bytree': 0.6315664222207948, 'gamma': 1.1039238304703212, 'learning_rate': 0.08089724896638738, 'max_depth': 13, 'min_child_weight': 6, 'n_estimators': 236, 'subsample': 0.8427391591107972}), OrderedDict({'colsample_bytree': 0.6086912737933358, 'gamma': 0.18834283672017285, 'learning_rate': 0.0269270273208991, 'max_depth': 12, 'min_child_weight': 9, 'n_estimators': 368, 'subsample': 0.7858739873685492}), OrderedDict({'colsample_bytree': 0.6158241137643188, 'gamma': 3.0131145325877755, 'learning_rate': 0.09671309438791474, 'max_depth': 3, 'min_child_weight': 9, 'n_estimators': 389, 'subsample': 0.7815332805243711}), OrderedDict({'colsample_bytree': 0.6422274559084606, 'gamma': 3.5087942200288103, 'learning_rate': 0.028161714779297766, 'max_depth': 8, 'min_child_weight': 5, 'n_estimators': 340, 'subsample': 0.9846166941112262}), OrderedDict({'colsample_bytree': 0.7051365358306634, 'gamma': 3.1928910045678323, 'learning_rate': 0.06466998590893826, 'max_depth': 13, 'min_child_weight': 8, 'n_estimators': 86, 'subsample': 0.7758394021067088}), OrderedDict({'colsample_bytree': 0.9072593373226854, 'gamma': 2.475042510368665, 'learning_rate': 0.20932481460603217, 'max_depth': 14, 'min_child_weight': 3, 'n_estimators': 206, 'subsample': 0.8940025061711543}), OrderedDict({'colsample_bytree': 0.7892906636527541, 'gamma': 4.79170524745819, 'learning_rate': 0.09166764927645159, 'max_depth': 3, 'min_child_weight': 2, 'n_estimators': 317, 'subsample': 0.5470081408601397}), OrderedDict({'colsample_bytree': 0.9114534364379764, 'gamma': 1.0551061748707669, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 470, 'subsample': 0.946778633228109}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 99, 'subsample': 0.6095633902639009}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.4636999591619995, 'learning_rate': 0.29999999999999993, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 153, 'subsample': 0.8575467128387567}), OrderedDict({'colsample_bytree': 0.7451137731327347, 'gamma': 0.13298912557452494, 'learning_rate': 0.020233555010732637, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 496, 'subsample': 0.7088386974476611}), OrderedDict({'colsample_bytree': 0.9240694453181332, 'gamma': 1.0533884035686572, 'learning_rate': 0.15046277106925657, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 394, 'subsample': 0.6469185090914484}), OrderedDict({'colsample_bytree': 0.9867806994594195, 'gamma': 0.0, 'learning_rate': 0.04413161727559587, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 412, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.05979578619842507, 'learning_rate': 0.25857021548352976, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.9616205445067797}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8286916634369723, 'gamma': 0.0, 'learning_rate': 0.01856359376966984, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 227, 'subsample': 0.6946678441807652}), OrderedDict({'colsample_bytree': 0.5435288782214402, 'gamma': 0.0, 'learning_rate': 0.24849265772412008, 'max_depth': 13, 'min_child_weight': 10, 'n_estimators': 371, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7187741883931229, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 4, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9663764302042119, 'gamma': 0.0, 'learning_rate': 0.027196444203490135, 'max_depth': 15, 'min_child_weight': 7, 'n_estimators': 399, 'subsample': 0.7381499627043792}), OrderedDict({'colsample_bytree': 0.6538134668903974, 'gamma': 1.126519424219396, 'learning_rate': 0.01969904331794644, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5671125114165287}), OrderedDict({'colsample_bytree': 0.5174707675530493, 'gamma': 0.136948536937235, 'learning_rate': 0.04441799487598929, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 161, 'subsample': 0.5428579647144967}), OrderedDict({'colsample_bytree': 0.6799609571246858, 'gamma': 1.1464734026736008, 'learning_rate': 0.03844034368191569, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 499, 'subsample': 0.765566300129136}), OrderedDict({'colsample_bytree': 0.9629534916792225, 'gamma': 0.25200145945052904, 'learning_rate': 0.12274965058658766, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9693017305466014}), OrderedDict({'colsample_bytree': 0.8878187068427459, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.06332275417025686, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5468265544642912, 'gamma': 1.2563558673592181, 'learning_rate': 0.13553262191316243, 'max_depth': 5, 'min_child_weight': 5, 'n_estimators': 499, 'subsample': 0.5456446907615992}), OrderedDict({'colsample_bytree': 0.569232897585631, 'gamma': 1.6878975357053536, 'learning_rate': 0.1403493946452066, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 58, 'subsample': 0.5234967993594166}), OrderedDict({'colsample_bytree': 0.5179062741763646, 'gamma': 1.0598434585416152, 'learning_rate': 0.011278391130908345, 'max_depth': 4, 'min_child_weight': 7, 'n_estimators': 481, 'subsample': 0.9015691474739544}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.02962461846393336, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.039187957224066865, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7394923033304138}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.12470980078531789, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 256, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5382890764068, 'gamma': 1.3610683368330665, 'learning_rate': 0.013981841881386774, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 389, 'subsample': 0.8710638598453634}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5986008787165512}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.5725047063648313, 'learning_rate': 0.03322235276027723, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 383, 'subsample': 0.7563344658705506}), OrderedDict({'colsample_bytree': 0.5045611421314725, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.07131584886026324, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6296498775002055}), OrderedDict({'colsample_bytree': 0.8069480670158071, 'gamma': 0.17594293535445452, 'learning_rate': 0.04191912008418356, 'max_depth': 14, 'min_child_weight': 10, 'n_estimators': 70, 'subsample': 0.9844741017346306}), OrderedDict({'colsample_bytree': 0.7554473987546728, 'gamma': 4.901882396990117, 'learning_rate': 0.011848021058531933, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 367, 'subsample': 0.5047724876669872}), OrderedDict({'colsample_bytree': 0.9608951466168956, 'gamma': 3.103615251391817, 'learning_rate': 0.010574928634841468, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 484, 'subsample': 0.7488690021918838}), OrderedDict({'colsample_bytree': 0.7362123239559464, 'gamma': 0.7942716768951292, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 193, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.582106285476685, 'learning_rate': 0.055335680232640995, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6817843710034581, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9840630374857005}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9303434051710299, 'gamma': 0.03793472166351564, 'learning_rate': 0.1576560482635434, 'max_depth': 11, 'min_child_weight': 5, 'n_estimators': 478, 'subsample': 0.7724165161902316}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7848592323220447, 'gamma': 4.473899447407627, 'learning_rate': 0.2675433113050301, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 300, 'subsample': 0.9901786580697003})]</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9069767441860465</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3492,27 +3492,27 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[0.9226579520697168, 0.9803921568627452, 0.9618736383442266, 0.9618736383442266, 0.9803921568627452, 0.9803921568627452, 0.9618736383442266, 0.903050108932462, 0.9618736383442266, 0.943355119825708, 0.9814814814814815, 0.9237472766884531, 0.9629629629629629, 0.9422657952069716, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 0.8845315904139434, 1.0, 0.9237472766884531, 0.9803921568627452, 0.8845315904139434, 0.9803921568627452, 0.9226579520697168, 0.9618736383442266, 0.9422657952069716, 0.9803921568627452, 1.0, 0.9618736383442266, 1.0, 1.0, 0.9226579520697168, 0.9814814814814815, 0.9803921568627452, 1.0, 1.0, 1.0, 1.0, 0.9607843137254902, 0.9248366013071895, 0.9803921568627452, 1.0, 0.9618736383442266, 1.0, 0.9618736383442266, 0.9803921568627452, 0.9618736383442266, 0.9226579520697168, 0.9618736383442266]</t>
+          <t>[1.0, 0.9803921568627452, 0.9422657952069716, 0.9803921568627452, 0.9814814814814815, 0.9618736383442266, 0.9422657952069716, 0.943355119825708, 0.9607843137254902, 0.9422657952069716, 0.9618736383442266, 1.0, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9411764705882352, 0.9607843137254902, 0.9814814814814815, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 1.0, 1.0, 0.9618736383442266, 0.9803921568627452, 0.9803921568627452, 1.0, 1.0, 1.0, 0.9803921568627452, 1.0, 1.0, 0.903050108932462, 1.0, 0.9629629629629629, 0.9041394335511983, 0.9422657952069716, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9814814814814815, 0.9814814814814815, 0.903050108932462]</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.9041394335511983, 0.9226579520697168, 0.9226579520697168, 0.9422657952069716, 0.9226579520697168, 0.9226579520697168, 0.9422657952069716, 0.9422657952069716, 0.9041394335511983, 0.9237472766884531, 0.9226579520697168, 0.8845315904139434, 0.9041394335511983, 0.903050108932462, 0.9226579520697168, 0.9422657952069716, 0.9226579520697168, 0.9422657952069716, 0.8834422657952069, 0.903050108932462, 0.8246187363834423, 0.9226579520697168, 0.8464052287581699, 0.9422657952069716, 0.8649237472766885, 0.9226579520697168, 0.9422657952069716, 0.9226579520697168, 0.9226579520697168, 0.9422657952069716, 0.903050108932462, 0.9226579520697168, 0.9215686274509803, 0.9422657952069716, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9215686274509803, 0.9411764705882352, 0.903050108932462, 0.9226579520697168, 0.9607843137254902, 0.9226579520697168, 0.9422657952069716, 0.9226579520697168, 0.903050108932462, 0.9226579520697168, 0.9237472766884531]</t>
+          <t>[0.9226579520697168, 0.9041394335511983, 0.9237472766884531, 0.9422657952069716, 0.9226579520697168, 0.9237472766884531, 0.9041394335511983, 0.9041394335511983, 0.9226579520697168, 0.903050108932462, 0.9226579520697168, 0.9422657952069716, 0.9422657952069716, 0.9226579520697168, 0.9422657952069716, 0.9422657952069716, 0.9226579520697168, 0.9422657952069716, 0.9226579520697168, 0.9226579520697168, 0.903050108932462, 0.9422657952069716, 0.9422657952069716, 0.9226579520697168, 0.9422657952069716, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9226579520697168, 0.9422657952069716, 0.9226579520697168, 0.9226579520697168, 0.8834422657952071, 0.9226579520697168, 0.9237472766884531, 0.8442265795206971, 0.9041394335511983, 0.903050108932462, 0.903050108932462, 0.903050108932462, 0.9422657952069716, 0.9422657952069716, 0.9226579520697168, 0.8845315904139434]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>[0.8867102396514163, 0.943355119825708, 0.9237472766884531, 0.9248366013071895, 0.9248366013071895, 0.943355119825708, 0.9248366013071895, 0.9248366013071895, 0.9237472766884531, 0.9248366013071895, 0.9237472766884531, 0.9063180827886711, 0.9052287581699346, 0.9063180827886711, 0.9248366013071895, 0.9248366013071895, 0.9629629629629629, 0.943355119825708, 0.886710239651416, 0.9629629629629629, 0.8867102396514163, 0.9237472766884531, 0.8877995642701526, 0.943355119825708, 0.8485838779956426, 0.9444444444444445, 0.9444444444444445, 0.9248366013071895, 0.9629629629629629, 0.9444444444444445, 0.9248366013071895, 0.9629629629629629, 0.9052287581699346, 0.9237472766884531, 0.9444444444444445, 0.9629629629629629, 0.9629629629629629, 0.9629629629629629, 0.9629629629629629, 0.9052287581699346, 0.9248366013071895, 0.9444444444444445, 0.9629629629629629, 0.943355119825708, 0.943355119825708, 0.9248366013071895, 0.9237472766884531, 0.9629629629629629, 0.9444444444444445, 0.9629629629629629]</t>
+          <t>[0.943355119825708, 0.9052287581699346, 0.8867102396514163, 0.943355119825708, 0.9629629629629629, 0.8867102396514163, 0.8867102396514163, 0.8867102396514163, 0.9237472766884531, 0.9248366013071895, 0.9248366013071895, 0.9629629629629629, 0.943355119825708, 0.9629629629629629, 0.943355119825708, 0.9237472766884531, 0.943355119825708, 0.9629629629629629, 0.943355119825708, 0.9444444444444445, 0.9052287581699346, 0.943355119825708, 0.943355119825708, 0.9444444444444445, 0.943355119825708, 0.9237472766884531, 0.943355119825708, 0.9629629629629629, 0.943355119825708, 0.9444444444444445, 0.9248366013071895, 0.943355119825708, 0.943355119825708, 0.9629629629629629, 0.9629629629629629, 0.943355119825708, 0.9629629629629629, 0.943355119825708, 0.8681917211328974, 0.9629629629629629, 0.8867102396514163, 0.8681917211328977, 0.8867102396514163, 0.943355119825708, 0.943355119825708, 0.943355119825708, 0.9629629629629629, 0.9237472766884531, 0.9629629629629629, 0.8856209150326797]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[0.9803921568627452, 0.9803921568627452, 1.0, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 1.0, 0.9803921568627452, 1.0, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9411764705882352, 0.9607843137254902, 0.9411764705882352, 0.9803921568627452, 0.9215686274509803, 0.9607843137254902, 0.9607843137254902, 0.9607843137254902, 1.0, 0.9607843137254902, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9215686274509803, 0.9803921568627452]</t>
+          <t>[0.9803921568627452, 0.9411764705882352, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9411764705882352, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9411764705882352, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 1.0, 0.9607843137254902, 0.9411764705882352, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9215686274509803, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9607843137254902]</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>[1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9607843137254902, 1.0, 1.0, 1.0, 0.9803921568627452, 1.0, 0.9411764705882352, 1.0, 1.0, 1.0, 1.0, 0.9215686274509803, 1.0, 0.9607843137254902, 0.9803921568627452, 0.9215686274509803, 1.0, 0.9803921568627452, 1.0, 1.0, 0.9803921568627452, 1.0, 1.0, 0.9803921568627452, 1.0, 0.9215686274509803, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 1.0, 0.9803921568627452, 1.0, 1.0, 1.0, 0.9803921568627452, 0.9411764705882352, 1.0]</t>
+          <t>[1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9215686274509803, 1.0, 0.9803921568627452, 0.9803921568627452, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9803921568627452, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9803921568627452, 1.0, 1.0, 0.9215686274509803, 1.0, 0.9803921568627452, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0]</t>
         </is>
       </c>
     </row>
@@ -3624,52 +3624,52 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.7983193277310924</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8566385135135135</v>
+        <v>0.9031381302521009</v>
       </c>
       <c r="F35" t="n">
-        <v>0.859375</v>
+        <v>0.90625</v>
       </c>
       <c r="G35" t="n">
-        <v>0.860653409090909</v>
+        <v>0.9063785173160173</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[[8, 0, 6], [0, 33, 0], [3, 0, 14]]</t>
+          <t>[[10, 1, 3], [0, 33, 0], [1, 1, 15]]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 275})</t>
+          <t>OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 300})</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[0.9511111111111111, 0.9377777777777776, 0.9288888888888888, 0.9111111111111111, 0.9288888888888888, 0.9466666666666667, 0.9422222222222223, 0.9155555555555555, 0.9333333333333332, 0.9333333333333332, 0.9199999999999999, 0.9466666666666665, 0.9555555555555555, 0.9022222222222223, 0.9066666666666666, 0.9022222222222223, 0.9288888888888888, 0.9377777777777776, 0.9333333333333332, 0.8933333333333333, 0.96, 0.9422222222222223, 0.9644444444444444, 0.9422222222222221, 0.9333333333333332, 0.9111111111111111, 0.9022222222222223, 0.9155555555555555, 0.9466666666666667, 0.8977777777777778, 0.9466666666666667, 0.9333333333333332, 0.9511111111111111, 0.9511111111111111, 0.9377777777777776, 0.9466666666666667, 0.9288888888888888, 0.9288888888888888, 0.9111111111111111, 0.9022222222222223, 0.9555555555555555, 0.9555555555555555, 0.96, 0.96, 0.9555555555555555, 0.96, 0.96, 0.9555555555555555, 0.9422222222222223, 0.96]</t>
+          <t>[0.9244444444444444, 0.9288888888888888, 0.8933333333333333, 0.9288888888888888, 0.9333333333333332, 0.9288888888888888, 0.9288888888888888, 0.9333333333333332, 0.8977777777777778, 0.9422222222222223, 0.9511111111111111, 0.8977777777777778, 0.9244444444444444, 0.9422222222222223, 0.9333333333333332, 0.9333333333333333, 0.9333333333333333, 0.9155555555555555, 0.9333333333333332, 0.9288888888888888, 0.9333333333333332, 0.9511111111111111, 0.9377777777777776, 0.96, 0.9511111111111111, 0.9377777777777776, 0.9555555555555555, 0.9288888888888888, 0.9555555555555555, 0.9555555555555555, 0.9555555555555555, 0.9555555555555555, 0.9555555555555555, 0.9244444444444444, 0.9288888888888888, 0.9066666666666666, 0.9066666666666666, 0.9022222222222223, 0.8933333333333333, 0.9111111111111111, 0.9555555555555555, 0.9555555555555555, 0.9466666666666667, 0.96, 0.9511111111111111, 0.9377777777777778, 0.9466666666666667, 0.9511111111111111, 0.9377777777777778, 0.9511111111111111]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[0.038232556742411675, 0.02591534175486804, 0.016629588385661972, 0.01405456737852608, 0.016629588385661972, 0.033259176771323944, 0.022662308949301314, 0.016629588385661902, 0.03142696805273546, 0.02434322477800742, 0.022662308949301255, 0.026666666666666727, 0.02810913475705232, 0.030143688813890058, 0.03823255674241167, 0.04121608220220312, 0.016629588385661975, 0.029481109247603568, 0.02434322477800742, 0.016629588385661937, 0.03265986323710908, 0.017777777777777816, 0.026666666666666727, 0.017777777777777844, 0.02434322477800742, 0.01405456737852608, 0.02266230894930122, 0.016629588385661902, 0.030143688813890124, 0.03014368881389005, 0.033259176771323944, 0.01405456737852615, 0.02177324215807278, 0.02177324215807278, 0.02177324215807274, 0.030143688813890124, 0.016629588385661975, 0.016629588385661975, 0.03142696805273543, 0.010886621079036308, 0.019876159799998207, 0.02810913475705232, 0.02591534175486805, 0.02591534175486805, 0.02810913475705232, 0.03265986323710908, 0.03265986323710908, 0.02810913475705232, 0.017777777777777816, 0.02591534175486805]</t>
+          <t>[0.02666666666666668, 0.016629588385661972, 0.025915341754867992, 0.032659863237109066, 0.02434322477800742, 0.016629588385661972, 0.016629588385661972, 0.02434322477800742, 0.017777777777777753, 0.030143688813890093, 0.03555555555555558, 0.017777777777777753, 0.022662308949301244, 0.030143688813890093, 0.02434322477800742, 0.01987615979999816, 0.024343224778007377, 0.029481109247603547, 0.02434322477800742, 0.016629588385661972, 0.02434322477800742, 0.03555555555555558, 0.02591534175486804, 0.03265986323710908, 0.03555555555555558, 0.02177324215807274, 0.02810913475705232, 0.016629588385661975, 0.03975231959999627, 0.02810913475705232, 0.02810913475705232, 0.019876159799998207, 0.02810913475705232, 0.010886621079036308, 0.016629588385661975, 0.03555555555555554, 0.016629588385661902, 0.010886621079036308, 0.02177324215807267, 0.03142696805273543, 0.02810913475705232, 0.019876159799998207, 0.030143688813890124, 0.02591534175486805, 0.038232556742411675, 0.029481109247603568, 0.017777777777777854, 0.025915341754868055, 0.03265986323710905, 0.035555555555555576]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[13, 25, 33, 41, 33, 16, 21, 39, 28, 28, 38, 20, 8, 45, 44, 45, 33, 25, 28, 50, 2, 21, 1, 24, 28, 41, 45, 39, 16, 49, 16, 28, 13, 13, 25, 16, 33, 33, 41, 45, 8, 8, 2, 2, 8, 2, 2, 8, 21, 2]</t>
+          <t>[39, 32, 49, 32, 27, 32, 32, 27, 47, 19, 11, 47, 39, 19, 27, 25, 25, 42, 27, 32, 27, 11, 23, 1, 11, 23, 3, 32, 3, 3, 3, 3, 3, 39, 32, 44, 44, 46, 49, 43, 3, 3, 17, 1, 11, 21, 17, 11, 21, 11]</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 136}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 4, 'min_samples_split': 4, 'n_estimators': 242}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 140}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 6, 'min_samples_split': 18, 'n_estimators': 103}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 9, 'min_samples_split': 17, 'n_estimators': 148}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 2, 'min_samples_split': 14, 'n_estimators': 71}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 4, 'min_samples_split': 3, 'n_estimators': 160}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 9, 'min_samples_split': 11, 'n_estimators': 211}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 5, 'min_samples_split': 9, 'n_estimators': 59}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 8, 'n_estimators': 290}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 286}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 211}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 246}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 3, 'min_samples_split': 4, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 15, 'n_estimators': 52}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 3, 'min_samples_split': 9, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 294}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 11, 'n_estimators': 64}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 72}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 275}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 53}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 7, 'min_samples_split': 9, 'n_estimators': 265}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 6, 'min_samples_split': 5, 'n_estimators': 298}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 6, 'min_samples_split': 19, 'n_estimators': 281}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 255}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 7, 'min_samples_split': 20, 'n_estimators': 115}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 199}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 137}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50})]</t>
+          <t>[OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 14, 'n_estimators': 263}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 6, 'min_samples_split': 16, 'n_estimators': 184}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 8, 'min_samples_split': 4, 'n_estimators': 82}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 8, 'min_samples_split': 8, 'n_estimators': 52}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 5, 'min_samples_split': 6, 'n_estimators': 117}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 7, 'min_samples_split': 16, 'n_estimators': 115}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 8, 'min_samples_split': 9, 'n_estimators': 233}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 14, 'n_estimators': 104}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 7, 'min_samples_split': 13, 'n_estimators': 114}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 9, 'n_estimators': 237}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 282}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 82}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 283}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 286}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 56}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 281}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 59}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 4, 'n_estimators': 73}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 60}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 67}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 6, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 2, 'min_samples_split': 6, 'n_estimators': 183}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 294}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 18, 'n_estimators': 190}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 142}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 67}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 119}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 288}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 250}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 97})]</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O35" t="n">
-        <v>0.859375</v>
+        <v>0.90625</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3678,27 +3678,27 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9777777777777779, 0.9555555555555556, 0.9111111111111111, 0.888888888888889, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.8444444444444444, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 1.0, 0.9555555555555556, 1.0, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9777777777777779, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.8666666666666667, 0.9111111111111111, 0.9777777777777779, 0.9777777777777779, 1.0, 1.0, 0.9777777777777779, 1.0, 1.0, 0.9777777777777779, 0.9555555555555556, 1.0]</t>
+          <t>[0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9555555555555556, 0.9777777777777779, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.9333333333333332, 0.8666666666666667, 0.9111111111111111, 0.888888888888889, 0.9111111111111111, 0.8666666666666667, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 1.0, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.888888888888889, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9777777777777779, 0.9111111111111111, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779]</t>
+          <t>[0.9555555555555556, 0.9555555555555556, 0.888888888888889, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.888888888888889, 0.9777777777777779, 0.9777777777777779, 0.9111111111111111, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9777777777777779, 0.9111111111111111, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.9555555555555556, 0.9333333333333332, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332]</t>
+          <t>[0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.9111111111111111, 0.9555555555555556, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9555555555555556, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.888888888888889, 0.9111111111111111]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.888888888888889, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.8444444444444444, 0.8444444444444444, 0.8666666666666667, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.8666666666666667, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.8666666666666667, 0.9111111111111111, 0.9111111111111111, 0.8444444444444444, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.888888888888889, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332]</t>
+          <t>[0.888888888888889, 0.9111111111111111, 0.8444444444444444, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.8666666666666667, 0.9333333333333332, 0.9333333333333332, 0.8666666666666667, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.8666666666666667, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.8666666666666667, 0.888888888888889, 0.888888888888889, 0.8666666666666667, 0.888888888888889, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111]</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>[1.0, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9777777777777779, 0.9333333333333332, 0.888888888888889, 0.9777777777777779, 0.9777777777777779, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.9555555555555556, 0.888888888888889, 0.9777777777777779, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9777777777777779, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556]</t>
+          <t>[0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9555555555555556, 0.9777777777777779, 0.888888888888889, 0.888888888888889, 0.9555555555555556, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9777777777777779, 0.9555555555555556, 1.0, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9111111111111111, 1.0, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.9111111111111111, 0.8666666666666667, 0.9111111111111111, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 1.0, 0.888888888888889, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 1.0]</t>
         </is>
       </c>
     </row>
@@ -3828,31 +3828,31 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008311607874578155, 'max_iter': 500, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.007934539768121208, 'max_iter': 2743, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[0.8755555555555556, 0.928888888888889, 0.8266666666666665, 0.7422222222222222, 0.9377777777777778, 0.711111111111111, 0.9244444444444444, 0.7955555555555556, 0.7955555555555555, 0.8933333333333333, 0.9333333333333332, 0.9377777777777778, 0.9288888888888888, 0.9022222222222223, 0.9244444444444444, 0.9022222222222223, 0.9199999999999999, 0.9022222222222223, 0.9022222222222223, 0.8755555555555556, 0.9066666666666666, 0.37333333333333335, 0.5511111111111111, 0.6666666666666666, 0.48888888888888893, 0.9022222222222223, 0.5511111111111111, 0.6044444444444445, 0.6, 0.9466666666666665, 0.9111111111111111, 0.9244444444444445, 0.9199999999999999, 0.9199999999999999, 0.9244444444444445, 0.7333333333333333, 0.9244444444444444, 0.9199999999999999, 0.6533333333333334, 0.9199999999999999, 0.9377777777777778, 0.9199999999999999, 0.928888888888889, 0.9288888888888888, 0.8977777777777778, 0.9377777777777778, 0.9511111111111111, 0.9199999999999999, 0.9333333333333332, 0.9333333333333332]</t>
+          <t>[0.8044444444444444, 0.37333333333333335, 0.8977777777777778, 0.37333333333333335, 0.72, 0.8844444444444445, 0.711111111111111, 0.8755555555555554, 0.8977777777777778, 0.8666666666666666, 0.8933333333333333, 0.9244444444444444, 0.9288888888888888, 0.9244444444444445, 0.8933333333333333, 0.9377777777777778, 0.9377777777777778, 0.9377777777777778, 0.9377777777777778, 0.9333333333333333, 0.9199999999999999, 0.9022222222222223, 0.8755555555555556, 0.9422222222222221, 0.9199999999999999, 0.9199999999999999, 0.9111111111111111, 0.9199999999999999, 0.9377777777777778, 0.9199999999999999, 0.9333333333333332, 0.9377777777777778, 0.9377777777777778, 0.9377777777777778, 0.9377777777777778, 0.9377777777777778, 0.6044444444444445, 0.6044444444444445, 0.9377777777777778, 0.9333333333333332, 0.831111111111111, 0.9288888888888888, 0.831111111111111, 0.928888888888889, 0.9244444444444445, 0.9333333333333332, 0.9377777777777776, 0.9555555555555555, 0.9377777777777776, 0.9555555555555555]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[0.043546484316145384, 0.04309048762147849, 0.1336293011410925, 0.10850271658429957, 0.043090487621478456, 0.08999314102807376, 0.04121608220220313, 0.07749153677405646, 0.06942444156361476, 0.07620634755325446, 0.03142696805273546, 0.05515410509329271, 0.035555555555555556, 0.06222222222222226, 0.05183068350973599, 0.06222222222222226, 0.0435464843161454, 0.06222222222222226, 0.06222222222222226, 0.11975283186939982, 0.025915341754867944, 0.02948110924760356, 0.11708390997617328, 0.08432740427115677, 0.23517789431685251, 0.03014368881389009, 0.11708390997617328, 0.1882472763070877, 0.09216196157034545, 0.030143688813890106, 0.05067446333773945, 0.038745768387028215, 0.0653197264742181, 0.05183068350973598, 0.038745768387028215, 0.15962919996504862, 0.0537024265493092, 0.0361068373539376, 0.20921959637226348, 0.05183068350973598, 0.03265986323710905, 0.0435464843161454, 0.04309048762147849, 0.035555555555555556, 0.049888765156985884, 0.03265986323710905, 0.035555555555555576, 0.05183068350973598, 0.05067446333773947, 0.05067446333773947]</t>
+          <t>[0.10366136701947198, 0.02948110924760356, 0.049888765156985884, 0.02948110924760356, 0.17699829112657667, 0.1064813204507639, 0.08999314102807376, 0.11119996447286051, 0.030143688813890082, 0.050674463337739506, 0.032659863237109045, 0.05183068350973599, 0.035555555555555556, 0.038745768387028215, 0.04745368112013917, 0.05515410509329271, 0.05515410509329271, 0.05515410509329271, 0.05515410509329271, 0.03718489006818114, 0.0435464843161454, 0.06222222222222226, 0.11975283186939982, 0.03325917677132394, 0.0435464843161454, 0.05183068350973598, 0.059628479399994425, 0.0435464843161454, 0.05515410509329271, 0.0435464843161454, 0.03142696805273546, 0.05515410509329271, 0.05515410509329271, 0.05515410509329271, 0.05515410509329271, 0.05515410509329271, 0.1882472763070877, 0.1882472763070877, 0.05515410509329271, 0.03142696805273546, 0.08731947868617115, 0.035555555555555556, 0.08731947868617115, 0.04309048762147849, 0.038745768387028215, 0.03142696805273546, 0.03823255674241167, 0.02434322477800742, 0.02591534175486804, 0.02434322477800742]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[35, 10, 37, 40, 3, 42, 16, 38, 39, 34, 7, 3, 12, 28, 16, 28, 19, 28, 28, 35, 27, 50, 47, 43, 49, 28, 47, 45, 46, 2, 26, 14, 19, 19, 14, 41, 16, 19, 44, 19, 3, 19, 10, 12, 33, 3, 1, 19, 7, 7]</t>
+          <t>[44, 49, 34, 49, 45, 38, 46, 40, 34, 41, 36, 26, 22, 24, 36, 4, 4, 4, 4, 17, 27, 33, 39, 3, 27, 27, 32, 27, 4, 27, 18, 4, 4, 4, 4, 4, 47, 47, 4, 18, 42, 22, 42, 21, 24, 18, 15, 1, 15, 1]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'logistic', 'alpha': 1.2986659960833421e-05, 'learning_rate_init': 0.0037127311427384365, 'max_iter': 2331, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 2.0343117844061042e-05, 'learning_rate_init': 0.00047671378241893897, 'max_iter': 2198, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0001386239760776716, 'learning_rate_init': 0.0020710880131264474, 'max_iter': 1152, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 8.458959327561832e-05, 'learning_rate_init': 0.0003931110552739781, 'max_iter': 1770, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.8656889575186553e-05, 'learning_rate_init': 0.000926933412219996, 'max_iter': 2628, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.2892836271874207e-06, 'learning_rate_init': 0.00030001450475231593, 'max_iter': 1701, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.000543353447611475, 'learning_rate_init': 0.000468545178180945, 'max_iter': 543, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 5.917962557389546e-05, 'learning_rate_init': 0.00010244335867719859, 'max_iter': 2223, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 5.7959027141025584e-05, 'learning_rate_init': 0.00011604958843310525, 'max_iter': 2822, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 9.508411261305869e-05, 'learning_rate_init': 0.006244045257319991, 'max_iter': 2170, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.003555911745065203, 'max_iter': 2452, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2254, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.003394565280826416, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00017233668496443547, 'learning_rate_init': 0.01, 'max_iter': 2522, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.2331244996992636e-05, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.016940350526393522, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0007302409333513647, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.008150895826865075, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0002106068191372175, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001781444873136403, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0014664731838327225, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001178103990548845, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00014772618984364708, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006803263976258427, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0006981029717356028, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0006480050215745038, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0019395769763179667, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.004303163557766496, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0006877165649002291, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0008984853470935339, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0008795524342231061, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.00593002565484095, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0007957458462222312, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0029385640622985707, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0012577343096693775, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0012519621031063235, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0012188333222175397, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 3.714341302051607e-05, 'learning_rate_init': 0.0003212285860714428, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0012586797450077386, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008311607874578155, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.007460110132296829, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00188518752133344, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.001438062381844018, 'max_iter': 3000, 'solver': 'sgd'})]</t>
+          <t>[OrderedDict({'activation': 'tanh', 'alpha': 0.0008516423273779393, 'learning_rate_init': 0.0009549355260509779, 'max_iter': 1425, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 7.1875346348436265e-06, 'learning_rate_init': 0.0002109072167508534, 'max_iter': 2706, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.018124962675522775, 'learning_rate_init': 0.0002598084399744576, 'max_iter': 2474, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 8.101491463443941e-05, 'learning_rate_init': 0.000137977159858217, 'max_iter': 2133, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.007019871999388733, 'learning_rate_init': 0.0001329576665551451, 'max_iter': 1836, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00025299292643061224, 'learning_rate_init': 0.0024488648899319626, 'max_iter': 1589, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.2690758252325706e-06, 'learning_rate_init': 0.00023853011687640637, 'max_iter': 1136, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.1416187844673347e-06, 'learning_rate_init': 0.0018087905528843735, 'max_iter': 1769, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.003180864514784288, 'learning_rate_init': 0.007657501556868865, 'max_iter': 2332, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.01049170758328804, 'learning_rate_init': 0.005155021135475471, 'max_iter': 1425, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.014385186697625294, 'learning_rate_init': 0.01, 'max_iter': 543, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.049977199229849736, 'learning_rate_init': 0.01, 'max_iter': 2676, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0022578687557080015, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0007263281528115957, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.008321574651703485, 'learning_rate_init': 0.00040656411351150894, 'max_iter': 2492, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.8372765685442687e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.423908230318889e-05, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0011485517582867876, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.313855322344103e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 5.145517993223771e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.0595924684923885e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006344695854046482, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.3585668294324244e-05, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.004690818045247228, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006896625464549379, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2938, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 743, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2751, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0041211764029376145, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0002668203241601322, 'learning_rate_init': 0.01, 'max_iter': 2360, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.3952823790868123e-05, 'learning_rate_init': 0.01, 'max_iter': 2711, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2371, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2778, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.017028958697467008, 'learning_rate_init': 0.0001199207766810584, 'max_iter': 2489, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0015573336011466107, 'learning_rate_init': 0.0001143388072418163, 'max_iter': 2649, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1582, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.002962951592444312, 'max_iter': 2563, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00019921422581258875, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0017583610117699099, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.1082360105820653e-06, 'learning_rate_init': 0.00018138103488092727, 'max_iter': 974, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0433630322301097, 'learning_rate_init': 0.0006110396112276296, 'max_iter': 2741, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0007315519972310919, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.004619636537017901, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.005593672932105801, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.007934539768121208, 'max_iter': 2743, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0016735755028611668, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00793836737519373, 'max_iter': 3000, 'solver': 'adam'})]</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O37" t="n">
         <v>0.8125</v>
@@ -3864,27 +3864,27 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[0.8222222222222223, 0.9555555555555556, 0.7777777777777777, 0.7777777777777777, 0.9555555555555556, 0.7777777777777777, 0.9333333333333332, 0.7555555555555555, 0.7555555555555555, 0.8666666666666667, 0.9333333333333332, 0.9555555555555556, 0.888888888888889, 0.8666666666666667, 0.8666666666666667, 0.8666666666666667, 0.9333333333333332, 0.8666666666666667, 0.8666666666666667, 0.9111111111111111, 0.9333333333333332, 0.35555555555555557, 0.5333333333333333, 0.5333333333333333, 0.35555555555555557, 0.9111111111111111, 0.5333333333333333, 0.6, 0.5333333333333333, 0.9333333333333332, 0.9111111111111111, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.7999999999999999, 0.9333333333333332, 0.8666666666666667, 0.7777777777777777, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332]</t>
+          <t>[0.7777777777777777, 0.35555555555555557, 0.9111111111111111, 0.35555555555555557, 0.888888888888889, 0.8666666666666667, 0.7777777777777777, 0.8666666666666667, 0.888888888888889, 0.7999999999999999, 0.888888888888889, 0.8666666666666667, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.8666666666666667, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.6, 0.6, 0.9555555555555556, 0.9333333333333332, 0.888888888888889, 0.9333333333333332, 0.888888888888889, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556]</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.8666666666666667, 0.888888888888889, 0.888888888888889, 0.8000000000000002, 0.888888888888889, 0.7555555555555555, 0.888888888888889, 0.8444444444444444, 0.8444444444444444, 0.8666666666666667, 0.888888888888889, 0.9777777777777779, 0.9333333333333332, 0.8444444444444444, 0.9333333333333332, 0.8444444444444444, 0.9111111111111111, 0.8444444444444444, 0.8444444444444444, 0.888888888888889, 0.888888888888889, 0.37777777777777777, 0.7333333333333334, 0.7777777777777777, 0.37777777777777777, 0.8666666666666667, 0.7333333333333334, 0.4444444444444445, 0.7333333333333334, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.7555555555555555, 0.9333333333333332, 0.9333333333333332, 0.37777777777777777, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.888888888888889, 0.9333333333333332, 0.9111111111111111, 0.9777777777777779, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332]</t>
+          <t>[0.8444444444444444, 0.37777777777777777, 0.9111111111111111, 0.37777777777777777, 0.4444444444444445, 0.9111111111111111, 0.7555555555555555, 0.9111111111111111, 0.888888888888889, 0.8666666666666667, 0.8666666666666667, 0.9333333333333332, 0.888888888888889, 0.888888888888889, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.888888888888889, 0.9111111111111111, 0.8444444444444444, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9777777777777779, 0.9111111111111111, 0.9111111111111111, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.4444444444444445, 0.4444444444444445, 0.9777777777777779, 0.9111111111111111, 0.8666666666666667, 0.888888888888889, 0.8666666666666667, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9777777777777779, 0.9111111111111111, 0.9777777777777779]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[0.8666666666666667, 0.9777777777777779, 0.8666666666666667, 0.8888888888888888, 1.0, 0.8000000000000002, 0.9777777777777779, 0.888888888888889, 0.888888888888889, 0.9777777777777779, 0.9777777777777779, 1.0, 0.9777777777777779, 0.9777777777777779, 1.0, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9111111111111111, 0.4222222222222222, 0.39999999999999997, 0.6444444444444444, 0.4222222222222222, 0.8888888888888888, 0.39999999999999997, 0.9333333333333332, 0.6222222222222222, 1.0, 0.9111111111111111, 0.9555555555555556, 1.0, 0.9777777777777779, 0.9555555555555556, 0.4222222222222222, 0.9555555555555556, 0.9555555555555556, 0.4222222222222222, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9111111111111111, 0.9777777777777779, 1.0, 0.9777777777777779, 1.0, 1.0]</t>
+          <t>[0.8444444444444444, 0.4222222222222222, 0.9333333333333332, 0.4222222222222222, 0.9333333333333332, 0.9777777777777779, 0.8000000000000002, 0.9777777777777779, 0.8666666666666667, 0.8666666666666667, 0.8666666666666667, 1.0, 0.9777777777777779, 0.9555555555555556, 0.9111111111111111, 1.0, 1.0, 1.0, 1.0, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 1.0, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 1.0, 0.9777777777777779, 0.9777777777777779, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9333333333333332, 0.9333333333333332, 1.0, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 1.0, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.8666666666666667, 0.8666666666666667, 0.6000000000000001, 0.6666666666666666, 0.888888888888889, 0.6666666666666666, 0.8666666666666667, 0.8222222222222223, 0.7999999999999999, 0.7777777777777778, 0.9111111111111111, 0.8444444444444444, 0.888888888888889, 0.8444444444444444, 0.8666666666666667, 0.8444444444444444, 0.8444444444444444, 0.8444444444444444, 0.8444444444444444, 0.6444444444444445, 0.8666666666666667, 0.3333333333333333, 0.6222222222222222, 0.6444444444444445, 0.3333333333333333, 0.888888888888889, 0.6222222222222222, 0.39999999999999997, 0.6444444444444445, 0.9111111111111111, 0.8222222222222223, 0.8666666666666667, 0.7999999999999999, 0.8222222222222223, 0.8666666666666667, 0.8666666666666667, 0.8222222222222223, 0.888888888888889, 0.8666666666666667, 0.8222222222222223, 0.888888888888889, 0.8444444444444444, 0.8666666666666667, 0.888888888888889, 0.7999999999999999, 0.888888888888889, 0.9111111111111111, 0.8222222222222223, 0.8444444444444444, 0.8444444444444444]</t>
+          <t>[0.6222222222222222, 0.3333333333333333, 0.7999999999999999, 0.3333333333333333, 0.6888888888888888, 0.688888888888889, 0.6666666666666666, 0.6666666666666666, 0.888888888888889, 0.8444444444444444, 0.888888888888889, 0.8666666666666667, 0.888888888888889, 0.8666666666666667, 0.7999999999999999, 0.8444444444444444, 0.8444444444444444, 0.8444444444444444, 0.8444444444444444, 0.888888888888889, 0.8444444444444444, 0.8444444444444444, 0.6444444444444445, 0.9111111111111111, 0.8444444444444444, 0.8222222222222223, 0.7999999999999999, 0.8444444444444444, 0.8444444444444444, 0.8444444444444444, 0.888888888888889, 0.8444444444444444, 0.8444444444444444, 0.8444444444444444, 0.8444444444444444, 0.8444444444444444, 0.39999999999999997, 0.39999999999999997, 0.8444444444444444, 0.888888888888889, 0.6888888888888888, 0.888888888888889, 0.6888888888888888, 0.8666666666666667, 0.8666666666666667, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111]</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>[0.9555555555555556, 0.9555555555555556, 1.0, 0.5777777777777778, 0.9555555555555556, 0.5555555555555555, 0.9555555555555556, 0.6666666666666666, 0.6888888888888888, 0.9777777777777779, 0.9555555555555556, 0.9111111111111111, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.37777777777777777, 0.4666666666666666, 0.7333333333333334, 0.9555555555555556, 0.9555555555555556, 0.4666666666666666, 0.6444444444444445, 0.4666666666666666, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.8222222222222223, 0.9777777777777779, 0.9555555555555556, 0.8222222222222223, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556]</t>
+          <t>[0.9333333333333332, 0.37777777777777777, 0.9333333333333332, 0.37777777777777777, 0.6444444444444445, 0.9777777777777779, 0.5555555555555555, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9555555555555556, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.6444444444444445, 0.6444444444444445, 0.9111111111111111, 0.9555555555555556, 0.7777777777777777, 0.9555555555555556, 0.7777777777777777, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556]</t>
         </is>
       </c>
     </row>
@@ -4019,26 +4019,26 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[0.7377777777777779, 0.7688888888888888, 0.7777777777777778, 0.7066666666666668, 0.7466666666666667, 0.76, 0.5244444444444445, 0.7555555555555556, 0.7377777777777779, 0.7066666666666668, 0.8533333333333333, 0.7644444444444446, 0.8133333333333332, 0.5377777777777778, 0.528888888888889, 0.7288888888888889, 0.8088888888888889, 0.5377777777777778, 0.7288888888888889, 0.7422222222222222, 0.8222222222222222, 0.7066666666666667, 0.5244444444444445, 0.7955555555555556, 0.7422222222222221, 0.7288888888888889, 0.711111111111111, 0.7066666666666667, 0.7466666666666667, 0.7955555555555557, 0.8355555555555556, 0.7733333333333334, 0.5377777777777778, 0.7422222222222222, 0.7288888888888889, 0.8577777777777778, 0.8222222222222222, 0.5244444444444445, 0.5377777777777778, 0.5244444444444445, 0.7866666666666667, 0.7555555555555555, 0.7066666666666667, 0.7644444444444446, 0.7422222222222221, 0.7244444444444444, 0.528888888888889, 0.7555555555555555, 0.7466666666666667, 0.5377777777777778]</t>
+          <t>[0.7555555555555556, 0.7733333333333334, 0.7911111111111111, 0.76, 0.7644444444444445, 0.7555555555555556, 0.768888888888889, 0.76, 0.7555555555555556, 0.768888888888889, 0.7733333333333333, 0.7244444444444444, 0.5377777777777778, 0.7288888888888889, 0.8222222222222222, 0.7733333333333334, 0.7066666666666667, 0.7866666666666667, 0.7288888888888889, 0.7555555555555555, 0.7644444444444446, 0.5377777777777778, 0.8222222222222222, 0.7155555555555555, 0.7466666666666667, 0.7066666666666668, 0.8, 0.8488888888888889, 0.7466666666666667, 0.5244444444444445, 0.7644444444444446, 0.7422222222222222, 0.5377777777777778, 0.7288888888888889, 0.7422222222222221, 0.7022222222222222, 0.7288888888888889, 0.5377777777777778, 0.7422222222222222, 0.528888888888889, 0.7066666666666668, 0.7066666666666667, 0.8133333333333332, 0.7288888888888889, 0.7644444444444446, 0.7911111111111111, 0.8577777777777778, 0.8133333333333332, 0.5377777777777778, 0.7288888888888889]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[0.0430904876214785, 0.060614140875492724, 0.03142696805273544, 0.038232556742411654, 0.017777777777777753, 0.025915341754868013, 0.02266230894930126, 0.03142696805273546, 0.021773242158072685, 0.05144816401240097, 0.010886621079036363, 0.05726266100766723, 0.017777777777777816, 0.032659863237109045, 0.025915341754868006, 0.05144816401240107, 0.04988876515698592, 0.032659863237109045, 0.05144816401240098, 0.010886621079036308, 0.03142696805273549, 0.05691665988829197, 0.02266230894930126, 0.04309048762147847, 0.030143688813890093, 0.05144816401240098, 0.061262438898178756, 0.05691665988829197, 0.02266230894930122, 0.016629588385661986, 0.0653197264742181, 0.051448164012401, 0.032659863237109045, 0.010886621079036308, 0.05144816401240107, 0.03610683735393754, 0.03142696805273549, 0.02266230894930126, 0.032659863237109045, 0.02266230894930126, 0.043546484316145384, 0.05794846582402359, 0.05691665988829197, 0.05726266100766723, 0.030143688813890093, 0.047868131618973436, 0.025915341754868006, 0.031426968052735406, 0.02266230894930122, 0.032659863237109045]</t>
+          <t>[0.03142696805273546, 0.051448164012401, 0.07900617259836079, 0.016629588385661927, 0.04575835618216444, 0.03142696805273546, 0.03325917677132393, 0.03265986323710905, 0.03142696805273546, 0.03610683735393761, 0.06942444156361473, 0.0572626610076673, 0.032659863237109045, 0.06190394789859614, 0.03142696805273549, 0.051448164012401, 0.0722136747078752, 0.043546484316145384, 0.05144816401240107, 0.05794846582402359, 0.05726266100766723, 0.032659863237109045, 0.03142696805273549, 0.040734006177385255, 0.02266230894930122, 0.038232556742411654, 0.024343224778007398, 0.0217732421580727, 0.02266230894930122, 0.02266230894930126, 0.05726266100766723, 0.07646511348482339, 0.032659863237109045, 0.05144816401240098, 0.030143688813890093, 0.03610683735393763, 0.05144816401240098, 0.032659863237109045, 0.010886621079036308, 0.025915341754868006, 0.038232556742411654, 0.05691665988829197, 0.017777777777777816, 0.035555555555555556, 0.05726266100766723, 0.010886621079036407, 0.03610683735393754, 0.04575835618216448, 0.032659863237109045, 0.05144816401240107]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>[27, 13, 11, 35, 20, 16, 47, 17, 27, 35, 2, 14, 6, 40, 45, 29, 7, 40, 29, 23, 4, 37, 47, 9, 25, 29, 34, 37, 20, 8, 3, 12, 40, 23, 29, 1, 4, 47, 40, 47, 10, 18, 37, 14, 25, 33, 45, 18, 20, 40]</t>
+          <t>[22, 11, 8, 20, 19, 22, 14, 20, 22, 14, 13, 37, 44, 31, 3, 11, 41, 10, 31, 25, 16, 44, 3, 38, 26, 39, 7, 2, 26, 50, 16, 28, 44, 31, 30, 43, 31, 44, 28, 49, 39, 41, 5, 31, 16, 8, 1, 5, 44, 31]</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 49, 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 29}), OrderedDict({'criterion': 'gini', 'max_depth': 61, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 61, 'max_features': 'log2', 'min_samples_leaf': 11, 'min_samples_split': 38}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 19}), OrderedDict({'criterion': 'entropy', 'max_depth': 48, 'max_features': None, 'min_samples_leaf': 14, 'min_samples_split': 16}), OrderedDict({'criterion': 'entropy', 'max_depth': 84, 'max_features': 'sqrt', 'min_samples_leaf': 17, 'min_samples_split': 8}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 10, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 10, 'max_features': 'log2', 'min_samples_leaf': 14, 'min_samples_split': 21}), OrderedDict({'criterion': 'entropy', 'max_depth': 23, 'max_features': 'sqrt', 'min_samples_leaf': 6, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 39, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 84, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 43}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 9, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 72, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 28}), OrderedDict({'criterion': 'gini', 'max_depth': 85, 'max_features': None, 'min_samples_leaf': 14, 'min_samples_split': 41}), OrderedDict({'criterion': 'gini', 'max_depth': 73, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 25}), OrderedDict({'criterion': 'entropy', 'max_depth': 32, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 37}), OrderedDict({'criterion': 'entropy', 'max_depth': 12, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 32}), OrderedDict({'criterion': 'entropy', 'max_depth': 58, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 37}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 17}), OrderedDict({'criterion': 'entropy', 'max_depth': 65, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 16}), OrderedDict({'criterion': 'entropy', 'max_depth': 61, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 19}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 42}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 93, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 9, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 89, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 6, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 48})]</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O39" t="n">
         <v>0.765625</v>
@@ -4050,27 +4050,27 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[0.7333333333333334, 0.7333333333333334, 0.7777777777777778, 0.688888888888889, 0.7333333333333334, 0.7333333333333334, 0.5555555555555556, 0.7111111111111111, 0.7333333333333334, 0.688888888888889, 0.8666666666666667, 0.7333333333333334, 0.8444444444444444, 0.5555555555555556, 0.5555555555555556, 0.6666666666666666, 0.8222222222222223, 0.5555555555555556, 0.688888888888889, 0.7333333333333334, 0.8444444444444444, 0.6666666666666666, 0.5555555555555556, 0.7777777777777778, 0.6888888888888888, 0.688888888888889, 0.7333333333333334, 0.6666666666666666, 0.7333333333333334, 0.7777777777777778, 0.8222222222222223, 0.7333333333333334, 0.5555555555555556, 0.7333333333333334, 0.6666666666666666, 0.8444444444444444, 0.8444444444444444, 0.5555555555555556, 0.5555555555555556, 0.5555555555555556, 0.7777777777777778, 0.7777777777777778, 0.6666666666666666, 0.7333333333333334, 0.6888888888888888, 0.6666666666666666, 0.5555555555555556, 0.7777777777777778, 0.7333333333333334, 0.5555555555555556]</t>
+          <t>[0.7333333333333334, 0.7333333333333334, 0.7333333333333334, 0.7777777777777778, 0.7777777777777778, 0.7333333333333334, 0.7111111111111111, 0.7333333333333334, 0.7333333333333334, 0.7333333333333334, 0.8222222222222223, 0.6444444444444444, 0.5555555555555556, 0.6444444444444444, 0.8444444444444444, 0.7333333333333334, 0.7333333333333334, 0.7777777777777778, 0.6666666666666666, 0.7777777777777778, 0.7333333333333334, 0.5555555555555556, 0.8444444444444444, 0.7333333333333334, 0.7333333333333334, 0.688888888888889, 0.7777777777777778, 0.888888888888889, 0.7333333333333334, 0.5555555555555556, 0.7333333333333334, 0.6666666666666666, 0.5555555555555556, 0.688888888888889, 0.6888888888888888, 0.6888888888888888, 0.688888888888889, 0.5555555555555556, 0.7333333333333334, 0.5555555555555556, 0.688888888888889, 0.6666666666666666, 0.8444444444444444, 0.6666666666666666, 0.7333333333333334, 0.7777777777777778, 0.8444444444444444, 0.8222222222222223, 0.5555555555555556, 0.6666666666666666]</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.7111111111111111, 0.7555555555555555, 0.7555555555555555, 0.6444444444444445, 0.7777777777777778, 0.7555555555555555, 0.48888888888888893, 0.7555555555555555, 0.7777777777777778, 0.7111111111111111, 0.8444444444444444, 0.7111111111111111, 0.7999999999999999, 0.48888888888888893, 0.48888888888888893, 0.7111111111111111, 0.7333333333333333, 0.48888888888888893, 0.7111111111111111, 0.7333333333333334, 0.8222222222222223, 0.7111111111111111, 0.48888888888888893, 0.7777777777777777, 0.7555555555555555, 0.7111111111111111, 0.6222222222222222, 0.7111111111111111, 0.7111111111111111, 0.7777777777777778, 0.8222222222222223, 0.7111111111111111, 0.48888888888888893, 0.7333333333333334, 0.7111111111111111, 0.8666666666666666, 0.8222222222222223, 0.48888888888888893, 0.48888888888888893, 0.48888888888888893, 0.7111111111111111, 0.7555555555555555, 0.7111111111111111, 0.7111111111111111, 0.7555555555555555, 0.7111111111111111, 0.48888888888888893, 0.7111111111111111, 0.7111111111111111, 0.48888888888888893]</t>
+          <t>[0.7111111111111111, 0.7111111111111111, 0.8666666666666666, 0.7555555555555555, 0.7111111111111111, 0.7111111111111111, 0.7555555555555555, 0.7333333333333334, 0.7111111111111111, 0.7555555555555555, 0.6666666666666666, 0.7111111111111111, 0.48888888888888893, 0.7111111111111111, 0.8222222222222223, 0.7111111111111111, 0.6444444444444445, 0.7111111111111111, 0.7111111111111111, 0.7555555555555555, 0.7111111111111111, 0.48888888888888893, 0.8222222222222223, 0.6666666666666666, 0.7111111111111111, 0.6444444444444445, 0.7777777777777777, 0.8444444444444444, 0.7111111111111111, 0.48888888888888893, 0.7111111111111111, 0.7555555555555555, 0.48888888888888893, 0.7111111111111111, 0.7555555555555555, 0.6666666666666666, 0.7111111111111111, 0.48888888888888893, 0.7333333333333334, 0.48888888888888893, 0.6444444444444445, 0.7111111111111111, 0.7999999999999999, 0.7111111111111111, 0.7111111111111111, 0.7777777777777777, 0.8666666666666666, 0.8222222222222223, 0.48888888888888893, 0.7111111111111111]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[0.7111111111111111, 0.6888888888888888, 0.7333333333333334, 0.7111111111111111, 0.7333333333333334, 0.7333333333333334, 0.5111111111111111, 0.7333333333333334, 0.7111111111111111, 0.7333333333333334, 0.8666666666666667, 0.7111111111111111, 0.8222222222222223, 0.5111111111111111, 0.5111111111111111, 0.6888888888888888, 0.8000000000000002, 0.5111111111111111, 0.6666666666666666, 0.7333333333333334, 0.7999999999999999, 0.7777777777777777, 0.5111111111111111, 0.7333333333333334, 0.7333333333333334, 0.6666666666666666, 0.6666666666666666, 0.7777777777777777, 0.7777777777777777, 0.7999999999999999, 0.8222222222222223, 0.7555555555555555, 0.5111111111111111, 0.7333333333333334, 0.6888888888888888, 0.8000000000000002, 0.7999999999999999, 0.5111111111111111, 0.5111111111111111, 0.5111111111111111, 0.7999999999999999, 0.6444444444444444, 0.7777777777777777, 0.7111111111111111, 0.7333333333333334, 0.6888888888888888, 0.5111111111111111, 0.7333333333333334, 0.7777777777777777, 0.5111111111111111]</t>
+          <t>[0.7777777777777777, 0.7555555555555555, 0.6666666666666666, 0.7333333333333334, 0.7111111111111111, 0.7777777777777777, 0.7999999999999999, 0.7555555555555555, 0.7777777777777777, 0.7333333333333333, 0.7333333333333334, 0.6888888888888888, 0.5111111111111111, 0.6888888888888888, 0.7999999999999999, 0.7555555555555555, 0.6, 0.7999999999999999, 0.6888888888888888, 0.6444444444444444, 0.7111111111111111, 0.5111111111111111, 0.7999999999999999, 0.6666666666666666, 0.7777777777777777, 0.7111111111111111, 0.7999999999999999, 0.8222222222222223, 0.7777777777777777, 0.5111111111111111, 0.7111111111111111, 0.6444444444444444, 0.5111111111111111, 0.6666666666666666, 0.7333333333333334, 0.6666666666666666, 0.6666666666666666, 0.5111111111111111, 0.7333333333333334, 0.5111111111111111, 0.7111111111111111, 0.7777777777777777, 0.8222222222222223, 0.7555555555555555, 0.7111111111111111, 0.7999999999999999, 0.8000000000000002, 0.7777777777777778, 0.5111111111111111, 0.6888888888888888]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[0.7111111111111111, 0.8666666666666667, 0.8222222222222223, 0.7555555555555555, 0.7555555555555555, 0.8000000000000002, 0.5333333333333333, 0.8000000000000002, 0.7333333333333334, 0.6222222222222222, 0.8444444444444444, 0.8222222222222223, 0.7999999999999999, 0.5555555555555555, 0.5333333333333333, 0.7777777777777778, 0.888888888888889, 0.5555555555555555, 0.7777777777777778, 0.7555555555555555, 0.8666666666666667, 0.6222222222222222, 0.5333333333333333, 0.8444444444444444, 0.7777777777777777, 0.7777777777777778, 0.7333333333333334, 0.6222222222222222, 0.7555555555555555, 0.8000000000000002, 0.9555555555555556, 0.8222222222222223, 0.5555555555555555, 0.7555555555555555, 0.7777777777777778, 0.9111111111111111, 0.8666666666666667, 0.5333333333333333, 0.5555555555555555, 0.5333333333333333, 0.8000000000000002, 0.8000000000000002, 0.6222222222222222, 0.8222222222222223, 0.7777777777777777, 0.7555555555555555, 0.5333333333333333, 0.7555555555555555, 0.7555555555555555, 0.5555555555555555]</t>
+          <t>[0.8000000000000002, 0.8444444444444444, 0.8222222222222223, 0.7555555555555555, 0.8222222222222223, 0.8000000000000002, 0.7777777777777777, 0.7555555555555555, 0.8000000000000002, 0.8222222222222223, 0.8666666666666667, 0.7777777777777778, 0.5555555555555555, 0.7999999999999999, 0.8666666666666667, 0.8222222222222223, 0.7777777777777778, 0.8000000000000002, 0.7777777777777778, 0.8000000000000002, 0.8222222222222223, 0.5555555555555555, 0.8666666666666667, 0.7555555555555555, 0.7555555555555555, 0.7555555555555555, 0.8000000000000002, 0.8444444444444444, 0.7555555555555555, 0.5333333333333333, 0.8222222222222223, 0.8000000000000002, 0.5555555555555555, 0.7777777777777778, 0.7777777777777777, 0.7555555555555555, 0.7777777777777778, 0.5555555555555555, 0.7555555555555555, 0.5333333333333333, 0.7555555555555555, 0.6222222222222222, 0.7999999999999999, 0.7555555555555555, 0.8222222222222223, 0.8000000000000002, 0.9111111111111111, 0.888888888888889, 0.5555555555555555, 0.7777777777777778]</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>[0.8222222222222223, 0.7999999999999999, 0.7999999999999999, 0.7333333333333334, 0.7333333333333334, 0.7777777777777777, 0.5333333333333333, 0.7777777777777777, 0.7333333333333334, 0.7777777777777777, 0.8444444444444444, 0.8444444444444444, 0.7999999999999999, 0.5777777777777778, 0.5555555555555556, 0.8000000000000002, 0.7999999999999999, 0.5777777777777778, 0.7999999999999999, 0.7555555555555555, 0.7777777777777777, 0.7555555555555555, 0.5333333333333333, 0.8444444444444444, 0.7555555555555555, 0.7999999999999999, 0.7999999999999999, 0.7555555555555555, 0.7555555555555555, 0.8222222222222223, 0.7555555555555555, 0.8444444444444444, 0.5777777777777778, 0.7555555555555555, 0.8000000000000002, 0.8666666666666667, 0.7777777777777777, 0.5333333333333333, 0.5777777777777778, 0.5333333333333333, 0.8444444444444444, 0.7999999999999999, 0.7555555555555555, 0.8444444444444444, 0.7555555555555555, 0.8000000000000002, 0.5555555555555556, 0.7999999999999999, 0.7555555555555555, 0.5777777777777778]</t>
+          <t>[0.7555555555555555, 0.8222222222222223, 0.8666666666666667, 0.7777777777777777, 0.7999999999999999, 0.7555555555555555, 0.8000000000000002, 0.8222222222222223, 0.7555555555555555, 0.7999999999999999, 0.7777777777777777, 0.8000000000000002, 0.5777777777777778, 0.8000000000000002, 0.7777777777777777, 0.8444444444444444, 0.7777777777777777, 0.8444444444444444, 0.8000000000000002, 0.7999999999999999, 0.8444444444444444, 0.5777777777777778, 0.7777777777777777, 0.7555555555555555, 0.7555555555555555, 0.7333333333333334, 0.8444444444444444, 0.8444444444444444, 0.7555555555555555, 0.5333333333333333, 0.8444444444444444, 0.8444444444444444, 0.5777777777777778, 0.7999999999999999, 0.7555555555555555, 0.7333333333333334, 0.7999999999999999, 0.5777777777777778, 0.7555555555555555, 0.5555555555555556, 0.7333333333333334, 0.7555555555555555, 0.7999999999999999, 0.7555555555555555, 0.8444444444444444, 0.8000000000000002, 0.8666666666666667, 0.7555555555555555, 0.5777777777777778, 0.8000000000000002]</t>
         </is>
       </c>
     </row>
@@ -4182,52 +4182,52 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9089635854341737</v>
+        <v>0.9327731092436974</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9368322649572649</v>
+        <v>0.9529265873015873</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="G41" t="n">
-        <v>0.939830043859649</v>
+        <v>0.953659188034188</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[[11, 0, 3], [0, 33, 0], [1, 0, 16]]</t>
+          <t>[[12, 0, 2], [0, 33, 0], [1, 0, 16]]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.5316035668979143, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8876296925215443})</t>
+          <t>OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.11948642111664251, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6107894159607953})</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[0.9377777777777776, 0.9333333333333332, 0.9066666666666666, 0.9155555555555555, 0.9333333333333333, 0.9333333333333332, 0.9288888888888888, 0.9155555555555555, 0.9155555555555555, 0.9244444444444444, 0.8977777777777778, 0.8933333333333333, 0.9155555555555555, 0.9155555555555555, 0.9422222222222223, 0.9199999999999999, 0.9066666666666666, 0.9511111111111111, 0.9244444444444444, 0.9511111111111111, 0.9466666666666667, 0.9377777777777776, 0.9199999999999999, 0.9244444444444444, 0.9466666666666667, 0.9555555555555555, 0.9466666666666665, 0.9422222222222221, 0.9422222222222221, 0.9511111111111111, 0.9555555555555557, 0.9333333333333333, 0.9511111111111111, 0.9199999999999999, 0.9244444444444444, 0.9644444444444445, 0.9377777777777776, 0.9288888888888888, 0.9155555555555555, 0.9555555555555555, 0.8977777777777778, 0.8044444444444444, 0.96, 0.9111111111111111, 0.9377777777777778, 0.9422222222222223, 0.9111111111111111, 0.9333333333333333, 0.8933333333333333, 0.8844444444444445]</t>
+          <t>[0.9111111111111111, 0.9333333333333333, 0.9333333333333332, 0.9333333333333333, 0.9377777777777776, 0.9422222222222223, 0.9199999999999999, 0.9111111111111111, 0.8933333333333333, 0.928888888888889, 0.9555555555555555, 0.8311111111111111, 0.9288888888888888, 0.9244444444444444, 0.888888888888889, 0.9333333333333332, 0.9333333333333332, 0.8933333333333333, 0.8533333333333333, 0.9422222222222223, 0.9466666666666667, 0.9288888888888888, 0.9244444444444444, 0.9288888888888888, 0.9155555555555555, 0.9377777777777776, 0.9155555555555555, 0.9422222222222221, 0.9333333333333332, 0.9377777777777778, 0.9377777777777778, 0.9066666666666666, 0.9244444444444444, 0.9377777777777778, 0.8577777777777778, 0.9466666666666667, 0.9555555555555555, 0.9377777777777778, 0.8933333333333333, 0.9422222222222223, 0.9111111111111111, 0.9600000000000002, 0.9511111111111112, 0.9288888888888888, 0.9644444444444445, 0.9555555555555555, 0.9555555555555555, 0.9377777777777778, 0.9333333333333332, 0.9377777777777778]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[0.02591534175486804, 0.024343224778007377, 0.025915341754867992, 0.02591534175486798, 0.01987615979999816, 0.01405456737852615, 0.038232556742411695, 0.035555555555555576, 0.02591534175486798, 0.033259176771323916, 0.03014368881389002, 0.016629588385661937, 0.02591534175486798, 0.016629588385661902, 0.017777777777777816, 0.03014368881389008, 0.021773242158072616, 0.021773242158072727, 0.010886621079036308, 0.029481109247603575, 0.02266230894930131, 0.02591534175486804, 0.010886621079036308, 0.04121608220220313, 0.02266230894930131, 0.014054567378526187, 0.026666666666666727, 0.010886621079036417, 0.033259176771323944, 0.021773242158072727, 0.02434322477800742, 0.024343224778007377, 0.01662958838566203, 0.010886621079036308, 0.030143688813890065, 0.01777777777777776, 0.02177324215807274, 0.02948110924760356, 0.02591534175486798, 0.02434322477800742, 0.022662308949301217, 0.0494912387807113, 0.021773242158072713, 0.02810913475705223, 0.029481109247603568, 0.03014368881389009, 0.037184890068181146, 0.03142696805273546, 0.03555555555555557, 0.01662958838566195]</t>
+          <t>[0.02810913475705223, 0.024343224778007377, 0.03142696805273546, 0.01987615979999816, 0.02177324215807274, 0.03014368881389009, 0.03325917677132392, 0.01987615979999806, 0.029481109247603523, 0.025915341754868, 0.014054567378526187, 0.04354648431614541, 0.02948110924760356, 0.036106837353937604, 0.028109134757052234, 0.02810913475705227, 0.01987615979999816, 0.016629588385661937, 0.04354648431614542, 0.026666666666666703, 0.030143688813890082, 0.02948110924760356, 0.022662308949301244, 0.016629588385661975, 0.03555555555555555, 0.02591534175486804, 0.03823255674241167, 0.03325917677132394, 0.02434322477800742, 0.025915341754868, 0.025915341754868, 0.025915341754867992, 0.022662308949301244, 0.016629588385661996, 0.03610683735393762, 0.0361068373539376, 0.028109134757052262, 0.016629588385661996, 0.025915341754867958, 0.030143688813890093, 0.02810913475705223, 0.029481109247603568, 0.032659863237109045, 0.016629588385661972, 0.01777777777777776, 0.028109134757052262, 0.028109134757052262, 0.016629588385661996, 0.01987615979999816, 0.029481109247603568]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>[18, 24, 43, 35, 21, 24, 26, 35, 35, 28, 45, 47, 35, 35, 13, 32, 43, 6, 28, 6, 10, 18, 32, 28, 10, 4, 12, 15, 15, 6, 3, 21, 6, 32, 28, 1, 18, 26, 35, 4, 45, 50, 2, 41, 17, 13, 41, 21, 47, 49]</t>
+          <t>[40, 22, 24, 22, 20, 10, 37, 40, 44, 29, 3, 50, 30, 34, 47, 24, 24, 44, 49, 10, 8, 30, 34, 30, 38, 20, 38, 13, 24, 14, 14, 43, 34, 14, 48, 8, 3, 14, 44, 10, 40, 2, 7, 30, 1, 3, 3, 14, 24, 14]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.506731573613015, 'gamma': 1.7250974150133411, 'learning_rate': 0.1633694981013501, 'max_depth': 9, 'min_child_weight': 3, 'n_estimators': 103, 'subsample': 0.6751309146095633}), OrderedDict({'colsample_bytree': 0.7581765947857015, 'gamma': 0.11018567095591238, 'learning_rate': 0.11275555653223847, 'max_depth': 8, 'min_child_weight': 6, 'n_estimators': 418, 'subsample': 0.5611898880340478}), OrderedDict({'colsample_bytree': 0.6927602615973352, 'gamma': 4.243067814712005, 'learning_rate': 0.04329425878190588, 'max_depth': 9, 'min_child_weight': 5, 'n_estimators': 286, 'subsample': 0.8936769602092114}), OrderedDict({'colsample_bytree': 0.990891740084016, 'gamma': 1.6674950723568063, 'learning_rate': 0.011627802094180281, 'max_depth': 7, 'min_child_weight': 8, 'n_estimators': 485, 'subsample': 0.8141907265175807}), OrderedDict({'colsample_bytree': 0.9535550063510222, 'gamma': 1.3387221424813665, 'learning_rate': 0.12284121472115245, 'max_depth': 11, 'min_child_weight': 9, 'n_estimators': 403, 'subsample': 0.8744528443300188}), OrderedDict({'colsample_bytree': 0.857903240028375, 'gamma': 0.26289070462581227, 'learning_rate': 0.133084321143549, 'max_depth': 11, 'min_child_weight': 10, 'n_estimators': 476, 'subsample': 0.9585383631414747}), OrderedDict({'colsample_bytree': 0.6796226734877044, 'gamma': 0.6566565358616817, 'learning_rate': 0.24729252985664263, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 228, 'subsample': 0.9158865400372553}), OrderedDict({'colsample_bytree': 0.5761642358284, 'gamma': 2.726073829319662, 'learning_rate': 0.2987879881568457, 'max_depth': 6, 'min_child_weight': 9, 'n_estimators': 244, 'subsample': 0.9951514608456242}), OrderedDict({'colsample_bytree': 0.861699476749415, 'gamma': 2.930705796992397, 'learning_rate': 0.010232856283083722, 'max_depth': 14, 'min_child_weight': 9, 'n_estimators': 489, 'subsample': 0.506598327321596}), OrderedDict({'colsample_bytree': 0.8187887306828834, 'gamma': 2.52937242700125, 'learning_rate': 0.26207413664071516, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 186, 'subsample': 0.7202443421930326}), OrderedDict({'colsample_bytree': 0.5051075080543168, 'gamma': 4.5169063832803005, 'learning_rate': 0.0220149949489723, 'max_depth': 4, 'min_child_weight': 6, 'n_estimators': 210, 'subsample': 0.5716769517482544}), OrderedDict({'colsample_bytree': 0.8613254806927217, 'gamma': 4.9865390656928525, 'learning_rate': 0.0736747877312058, 'max_depth': 13, 'min_child_weight': 2, 'n_estimators': 483, 'subsample': 0.9587000653721667}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 3.6848109600957724, 'learning_rate': 0.1952475987238135, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8242109433238951, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 10, 'n_estimators': 479, 'subsample': 0.9132375171568546}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.18123643463888983, 'learning_rate': 0.1236463453787154, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.5171661425238367}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.747064203485108, 'learning_rate': 0.13912583676617155, 'max_depth': 7, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.931455084822099, 'gamma': 0.0, 'learning_rate': 0.06114277451294398, 'max_depth': 3, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.9336925306805861}), OrderedDict({'colsample_bytree': 0.6167520526979212, 'gamma': 0.14335020173418814, 'learning_rate': 0.15788937357135452, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 424, 'subsample': 0.593513600368438}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.1735761040368855, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 68, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6161312723939429, 'gamma': 0.0, 'learning_rate': 0.18551529111835355, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 69, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.15686176928298703, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 135, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9259480918660083, 'gamma': 0.0005865656260506392, 'learning_rate': 0.02252259140861962, 'max_depth': 8, 'min_child_weight': 7, 'n_estimators': 220, 'subsample': 0.971646340349761}), OrderedDict({'colsample_bytree': 0.579882861818835, 'gamma': 4.951377168760166, 'learning_rate': 0.010720717567186823, 'max_depth': 10, 'min_child_weight': 8, 'n_estimators': 113, 'subsample': 0.9647945745580983}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.03360564654989202, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 465, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.17746832212066171, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 175, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.020182495036993278, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5773310805835359, 'gamma': 1.0620172616954828, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 321, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6475571538684846, 'gamma': 0.42012792806076177, 'learning_rate': 0.011971009495291365, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 447, 'subsample': 0.5603003228422719}), OrderedDict({'colsample_bytree': 0.8347770369703303, 'gamma': 0.0, 'learning_rate': 0.02153420000989526, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7379209405450313}), OrderedDict({'colsample_bytree': 0.8935143921490577, 'gamma': 0.0, 'learning_rate': 0.07734086702921279, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 192, 'subsample': 0.6524855764726409}), OrderedDict({'colsample_bytree': 0.806566597797902, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8623771481576088}), OrderedDict({'colsample_bytree': 0.8082028324895301, 'gamma': 0.13239625538173153, 'learning_rate': 0.08404732651830216, 'max_depth': 3, 'min_child_weight': 2, 'n_estimators': 495, 'subsample': 0.9690752835259868}), OrderedDict({'colsample_bytree': 0.941480544711182, 'gamma': 2.122189578047917, 'learning_rate': 0.010147392625778892, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 75, 'subsample': 0.5137784252777411}), OrderedDict({'colsample_bytree': 0.5703048925237161, 'gamma': 0.7430544062528357, 'learning_rate': 0.0713971529586684, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 493, 'subsample': 0.9786075585310691}), OrderedDict({'colsample_bytree': 0.5316035668979143, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8876296925215443}), OrderedDict({'colsample_bytree': 0.6838156878812397, 'gamma': 1.3875576466255535, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5388974922270591, 'gamma': 1.9290574245798635, 'learning_rate': 0.23052659314662666, 'max_depth': 3, 'min_child_weight': 9, 'n_estimators': 376, 'subsample': 0.5162537237979793}), OrderedDict({'colsample_bytree': 0.5124094954919762, 'gamma': 1.7033611365092047, 'learning_rate': 0.2750844488436318, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 495, 'subsample': 0.9631570744716489}), OrderedDict({'colsample_bytree': 0.6242522511956546, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9391276034225831, 'gamma': 4.803559069887597, 'learning_rate': 0.23897032464812962, 'max_depth': 10, 'min_child_weight': 10, 'n_estimators': 54, 'subsample': 0.903565540409135}), OrderedDict({'colsample_bytree': 0.5608398356917685, 'gamma': 3.015905450728868, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.12030486411380618, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8289053324949349}), OrderedDict({'colsample_bytree': 0.9306516262536355, 'gamma': 3.049786128234431, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6044782064459581, 'gamma': 1.2498896678264895, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6145857462923803, 'gamma': 0.22755493242167713, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9661155656620392}), OrderedDict({'colsample_bytree': 0.9632987033990301, 'gamma': 2.507080967402355, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9839750429068586, 'gamma': 1.230688595807181, 'learning_rate': 0.019282458097508646, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5233536883763309, 'gamma': 1.2117514129368148, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6084296485084616, 'gamma': 3.784016562438896, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.6340900839554316, 'gamma': 3.83768553852729, 'learning_rate': 0.011610375695770258, 'max_depth': 14, 'min_child_weight': 6, 'n_estimators': 383, 'subsample': 0.7824320223952008}), OrderedDict({'colsample_bytree': 0.9032240570634198, 'gamma': 1.008307028035064, 'learning_rate': 0.25853666880459253, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 404, 'subsample': 0.8468038131388678}), OrderedDict({'colsample_bytree': 0.5274390473652795, 'gamma': 1.2974488921375458, 'learning_rate': 0.09636016506291244, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 230, 'subsample': 0.6824756989570325}), OrderedDict({'colsample_bytree': 0.5941728240206899, 'gamma': 1.414770689530496, 'learning_rate': 0.13037307385709174, 'max_depth': 13, 'min_child_weight': 6, 'n_estimators': 200, 'subsample': 0.5101167826888157}), OrderedDict({'colsample_bytree': 0.5741836456823122, 'gamma': 1.488150983459964, 'learning_rate': 0.09634485669803573, 'max_depth': 4, 'min_child_weight': 5, 'n_estimators': 238, 'subsample': 0.6200143043578953}), OrderedDict({'colsample_bytree': 0.5688048621396762, 'gamma': 0.5823593468791117, 'learning_rate': 0.05101266104789319, 'max_depth': 2, 'min_child_weight': 3, 'n_estimators': 348, 'subsample': 0.6309483045646612}), OrderedDict({'colsample_bytree': 0.66051966854325, 'gamma': 1.6328322450043806, 'learning_rate': 0.036899884225364825, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 259, 'subsample': 0.9807728426739313}), OrderedDict({'colsample_bytree': 0.843260377343253, 'gamma': 3.202135231438832, 'learning_rate': 0.012251949779818474, 'max_depth': 5, 'min_child_weight': 6, 'n_estimators': 355, 'subsample': 0.5389335531676962}), OrderedDict({'colsample_bytree': 0.5888808648353149, 'gamma': 4.911101478505899, 'learning_rate': 0.09111943234456966, 'max_depth': 6, 'min_child_weight': 6, 'n_estimators': 413, 'subsample': 0.9751066266781421}), OrderedDict({'colsample_bytree': 0.5338771489311225, 'gamma': 1.4139408965441012, 'learning_rate': 0.011085790689678028, 'max_depth': 5, 'min_child_weight': 9, 'n_estimators': 154, 'subsample': 0.6311037389033985}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8006134041689685, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 284, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.05461270749957383, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 6, 'min_child_weight': 4, 'n_estimators': 144, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6404577007371781, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 8, 'n_estimators': 289, 'subsample': 0.8620267055130753}), OrderedDict({'colsample_bytree': 0.8376502482594388, 'gamma': 0.06433320959162508, 'learning_rate': 0.15762483923219747, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9631521599046716}), OrderedDict({'colsample_bytree': 0.7826748179383414, 'gamma': 0.27485497569008677, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.2348946784973052, 'learning_rate': 0.048765393248647905, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.6600372959814496, 'learning_rate': 0.24824940667633222, 'max_depth': 1, 'min_child_weight': 5, 'n_estimators': 413, 'subsample': 0.5800111696310118}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.6496813573377582, 'learning_rate': 0.07780746577175443, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 154, 'subsample': 0.8773191363973482}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 2.5863435366075027, 'learning_rate': 0.0925131411273034, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 150, 'subsample': 0.5421585153115952}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.68861770380947, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 65, 'subsample': 0.583280384167473}), OrderedDict({'colsample_bytree': 0.6991440717853192, 'gamma': 4.270560037084926, 'learning_rate': 0.2931691613425983, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 61, 'subsample': 0.6381133076480899}), OrderedDict({'colsample_bytree': 0.5599333528048759, 'gamma': 0.44068175799412773, 'learning_rate': 0.1474935759058295, 'max_depth': 8, 'min_child_weight': 2, 'n_estimators': 368, 'subsample': 0.761770511935395}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.1812096485199053, 'learning_rate': 0.01, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 145, 'subsample': 0.8797429262984785}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.08498578867202465, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9796260422868823, 'gamma': 3.134690558083784, 'learning_rate': 0.2920503835647108, 'max_depth': 11, 'min_child_weight': 2, 'n_estimators': 373, 'subsample': 0.7852338049831078}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.564515346168441, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8862393843964365}), OrderedDict({'colsample_bytree': 0.6308290248521284, 'gamma': 1.8273632581230164, 'learning_rate': 0.2090891321282425, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 451, 'subsample': 0.7884123757859889}), OrderedDict({'colsample_bytree': 0.5316551713311016, 'gamma': 2.1134820539060044, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 250, 'subsample': 0.8108725620157441}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.05922065804376974, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 322, 'subsample': 0.6854293854842789}), OrderedDict({'colsample_bytree': 0.6397951872343004, 'gamma': 0.0, 'learning_rate': 0.08021903707327045, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 193, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9830549578550529, 'gamma': 0.0, 'learning_rate': 0.08145203445785895, 'max_depth': 6, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5680585017687205, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 413, 'subsample': 0.8052509378868979}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.050435305379613486, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 167, 'subsample': 0.6362502887678606}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.12847663504195742, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5137422014194418, 'gamma': 0.17645343672326344, 'learning_rate': 0.11253799888353636, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 253, 'subsample': 0.6851936829106571}), OrderedDict({'colsample_bytree': 0.7461840750903401, 'gamma': 0.0, 'learning_rate': 0.011114265277137172, 'max_depth': 10, 'min_child_weight': 5, 'n_estimators': 50, 'subsample': 0.711718762861136}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.11948642111664251, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6107894159607953}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.05810019679072343, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7113445378830349}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.1273783575662178, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5908694246502649}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.267181045574061, 'max_depth': 8, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5010372068452044, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 0.678392057382369}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.15233866017678258, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 466, 'subsample': 0.7002255023552514})]</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O41" t="n">
-        <v>0.9375</v>
+        <v>0.953125</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4236,27 +4236,27 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.888888888888889, 0.9333333333333332, 0.8666666666666667, 0.8666666666666667, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.888888888888889, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.8666666666666667, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.9333333333333332, 0.888888888888889, 0.7111111111111111, 0.9555555555555556, 0.888888888888889, 0.9333333333333332, 0.9333333333333332, 0.8666666666666667, 0.9333333333333332, 0.8444444444444444, 0.8666666666666667]</t>
+          <t>[0.888888888888889, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.8444444444444444, 0.9333333333333332, 0.9555555555555556, 0.7555555555555555, 0.9111111111111111, 0.9111111111111111, 0.8444444444444444, 0.9333333333333332, 0.9111111111111111, 0.888888888888889, 0.7777777777777777, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.9111111111111111, 0.8444444444444444, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.888888888888889, 0.9333333333333332, 0.9333333333333332, 0.7999999999999999, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.8666666666666667, 0.9555555555555556, 0.888888888888889, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332]</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9111111111111111, 0.9777777777777779, 0.9333333333333332, 0.9111111111111111, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.7999999999999999, 0.9555555555555556, 0.9333333333333332, 0.9777777777777779, 0.9777777777777779, 0.9111111111111111, 0.9777777777777779, 0.8888888888888888, 0.888888888888889]</t>
+          <t>[0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.8222222222222223, 0.9333333333333332, 0.9777777777777779, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.8666666666666667, 0.9555555555555556, 0.9777777777777779, 0.9111111111111111, 0.9555555555555556, 0.9333333333333332, 0.888888888888889, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9555555555555556, 0.8666666666666667, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9555555555555556]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[0.9111111111111111, 0.9555555555555556, 0.9111111111111111, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9111111111111111, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.888888888888889, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.888888888888889, 0.9555555555555556, 0.9333333333333332, 0.888888888888889, 0.9555555555555556, 0.9777777777777779, 0.9777777777777779, 0.888888888888889, 0.9333333333333332, 0.9111111111111111, 0.8222222222222223, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.888888888888889, 0.9777777777777779, 0.9555555555555556, 0.9555555555555556, 0.888888888888889]</t>
+          <t>[0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.888888888888889, 0.9333333333333332, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.888888888888889, 0.9777777777777779, 0.9333333333333332, 0.888888888888889, 0.9777777777777779, 0.9333333333333332, 0.8666666666666667, 0.9111111111111111, 0.9111111111111111, 0.9555555555555556, 0.9777777777777779, 0.9333333333333332, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.9333333333333332, 0.9777777777777779, 0.9555555555555556, 0.9333333333333332, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9555555555555556, 0.9777777777777779]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[0.9111111111111111, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.8666666666666667, 0.8666666666666667, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.9111111111111111, 0.9333333333333332, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.9111111111111111, 0.888888888888889, 0.9555555555555556, 0.9111111111111111, 0.888888888888889, 0.9111111111111111, 0.9555555555555556, 0.888888888888889, 0.8444444444444444, 0.9333333333333332, 0.888888888888889, 0.888888888888889, 0.9555555555555556, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.9111111111111111]</t>
+          <t>[0.888888888888889, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.9333333333333332, 0.8444444444444444, 0.888888888888889, 0.8666666666666667, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.888888888888889, 0.8666666666666667, 0.9111111111111111, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.888888888888889, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.8666666666666667, 0.888888888888889, 0.9111111111111111, 0.9555555555555556, 0.888888888888889, 0.9333333333333332, 0.888888888888889, 0.9111111111111111, 0.888888888888889, 0.9111111111111111, 0.9555555555555556, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.9111111111111111, 0.888888888888889]</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>[0.9555555555555556, 0.9555555555555556, 0.888888888888889, 0.9111111111111111, 0.9333333333333332, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9333333333333332, 0.888888888888889, 0.8666666666666667, 0.888888888888889, 0.888888888888889, 0.9111111111111111, 0.9555555555555556, 0.9555555555555556, 0.888888888888889, 0.9777777777777779, 0.9333333333333332, 1.0, 0.9777777777777779, 0.9777777777777779, 0.9111111111111111, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9777777777777779, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9555555555555556, 1.0, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 1.0, 0.8666666666666667, 0.8444444444444444, 1.0, 0.888888888888889, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.8666666666666667]</t>
+          <t>[0.888888888888889, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.9111111111111111, 0.9555555555555556, 0.9111111111111111, 0.9111111111111111, 0.888888888888889, 0.9111111111111111, 0.9777777777777779, 0.8444444444444444, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.9333333333333332, 0.9555555555555556, 0.9111111111111111, 0.8444444444444444, 0.9777777777777779, 0.9555555555555556, 0.9333333333333332, 0.9111111111111111, 0.9111111111111111, 0.9333333333333332, 0.9777777777777779, 0.9333333333333332, 1.0, 0.9333333333333332, 0.9333333333333332, 0.9333333333333332, 0.888888888888889, 0.9555555555555556, 0.9333333333333332, 0.8444444444444444, 1.0, 1.0, 0.9555555555555556, 0.8666666666666667, 0.9555555555555556, 0.888888888888889, 1.0, 0.9777777777777779, 0.9555555555555556, 1.0, 1.0, 1.0, 0.9333333333333332, 0.9555555555555556, 0.9333333333333332]</t>
         </is>
       </c>
     </row>
@@ -4368,52 +4368,52 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8066188197767145</v>
+        <v>0.8241626794258373</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8521429602937738</v>
+        <v>0.8672863341721643</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8588235294117647</v>
+        <v>0.8705882352941177</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8594381438336381</v>
+        <v>0.8671895424836601</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[[11, 2, 6], [1, 43, 0], [1, 2, 19]]</t>
+          <t>[[12, 2, 5], [1, 43, 0], [3, 0, 19]]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 5, 'n_estimators': 300})</t>
+          <t>OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 8, 'n_estimators': 163})</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[0.9632478632478632, 0.9632478632478634, 0.9474358974358974, 0.9576923076923078, 0.9427350427350427, 0.9632478632478634, 0.9581196581196583, 0.9529914529914529, 0.9735042735042736, 0.9423076923076923, 0.9735042735042736, 0.9371794871794872, 0.9683760683760685, 0.9474358974358974, 0.9423076923076923, 0.9474358974358974, 0.9320512820512821, 0.9320512820512821, 0.9735042735042736, 0.9371794871794872, 0.9786324786324787, 0.9735042735042736, 0.9837606837606838, 0.9837606837606838, 0.9786324786324787, 0.9841880341880342, 0.9786324786324787, 0.9786324786324787, 0.9837606837606838, 0.9735042735042736, 0.9679487179487181, 0.9730769230769232, 0.9786324786324787, 0.9786324786324787, 0.9786324786324787, 0.9786324786324787, 0.9632478632478634, 0.9786324786324787, 0.9837606837606838, 0.9735042735042736, 0.9679487179487181, 0.9790598290598291, 0.9371794871794872, 0.9576923076923078, 0.9683760683760685, 0.9478632478632478, 0.9735042735042736, 0.9470085470085472, 0.9786324786324787, 0.9474358974358974]</t>
+          <t>[0.9474358974358974, 0.958119658119658, 0.9735042735042736, 0.9735042735042736, 0.9529914529914529, 0.9735042735042736, 0.9735042735042736, 0.9474358974358976, 0.9683760683760685, 0.9679487179487181, 0.9525641025641025, 0.9786324786324787, 0.9474358974358974, 0.936752136752137, 0.9316239316239316, 0.926923076923077, 0.9474358974358974, 0.9371794871794872, 0.9735042735042736, 0.9474358974358974, 0.9735042735042736, 0.9371794871794872, 0.9521367521367523, 0.9683760683760685, 0.9841880341880342, 0.9632478632478634, 0.9735042735042736, 0.9679487179487181, 0.9730769230769232, 0.973931623931624, 0.9735042735042736, 0.9735042735042736, 0.9735042735042736, 0.9837606837606838, 0.9786324786324787, 0.9837606837606838, 0.9632478632478634, 0.9683760683760685, 0.9786324786324787, 0.9683760683760685, 0.9786324786324787, 0.9786324786324787, 0.9837606837606838, 0.9837606837606838, 0.9837606837606838, 0.9683760683760685, 0.9786324786324787, 0.9423076923076923, 0.9786324786324787, 0.9525641025641025]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>[0.0358159433158239, 0.039869756545950756, 0.041114575968566484, 0.021723529960921122, 0.03875481726069962, 0.027510216990480504, 0.03630215484033385, 0.03841402573375084, 0.029657011235722192, 0.03898035641364575, 0.04138023397234256, 0.035999042202825106, 0.031240456209396705, 0.023469282423497446, 0.030097122840442768, 0.041114575968566484, 0.03581594331582387, 0.03581594331582387, 0.029657011235722192, 0.035999042202825106, 0.042735042735042715, 0.04138023397234256, 0.032478632478632495, 0.032478632478632495, 0.03151981011040305, 0.021264709922435395, 0.042735042735042715, 0.03151981011040305, 0.032478632478632495, 0.04138023397234256, 0.039260458385831955, 0.029657011235722192, 0.03151981011040305, 0.03151981011040305, 0.042735042735042715, 0.042735042735042715, 0.039869756545950756, 0.03151981011040305, 0.032478632478632495, 0.029657011235722192, 0.026619506841705044, 0.019879834785663224, 0.0394831092733371, 0.021723529960921122, 0.026701708293697994, 0.03314652893959887, 0.029657011235722192, 0.041397883891666126, 0.042735042735042715, 0.041114575968566484]</t>
+          <t>[0.023469282423497446, 0.03569335558601899, 0.029657011235722192, 0.04138023397234256, 0.04169678946205288, 0.029657011235722192, 0.029657011235722192, 0.02928519948549028, 0.031240456209396705, 0.026619506841705044, 0.058570398970980556, 0.042735042735042715, 0.01696532755664891, 0.03620139928982459, 0.0346918012694058, 0.04763375997638557, 0.01696532755664891, 0.03835693277319126, 0.029657011235722192, 0.0328142800349615, 0.04138023397234256, 0.04517803516718809, 0.045820256935658846, 0.0393162393162393, 0.021264709922435395, 0.039869756545950756, 0.029657011235722192, 0.039260458385831955, 0.04138023397234256, 0.016900615327594154, 0.04138023397234256, 0.04138023397234256, 0.04138023397234256, 0.032478632478632495, 0.042735042735042715, 0.032478632478632495, 0.039869756545950756, 0.04252941984487084, 0.03151981011040305, 0.025832617537961417, 0.03151981011040305, 0.03151981011040305, 0.032478632478632495, 0.032478632478632495, 0.032478632478632495, 0.0393162393162393, 0.03151981011040305, 0.030097122840442768, 0.03151981011040305, 0.030530890768361987]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>[32, 29, 38, 34, 43, 29, 33, 36, 17, 44, 17, 46, 25, 38, 44, 38, 49, 49, 17, 46, 7, 17, 2, 2, 7, 1, 7, 7, 2, 17, 27, 24, 7, 7, 7, 7, 29, 7, 2, 17, 27, 6, 46, 34, 25, 37, 17, 42, 7, 38]</t>
+          <t>[41, 35, 15, 15, 36, 15, 15, 40, 26, 31, 37, 7, 41, 48, 49, 50, 41, 46, 15, 41, 15, 46, 39, 26, 1, 33, 15, 31, 25, 14, 15, 15, 15, 2, 7, 2, 33, 26, 7, 26, 7, 7, 2, 2, 2, 26, 7, 45, 7, 37]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 15, 'n_estimators': 101}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 7, 'n_estimators': 143}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 5, 'min_samples_split': 18, 'n_estimators': 251}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 7, 'min_samples_split': 7, 'n_estimators': 66}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 5, 'min_samples_split': 16, 'n_estimators': 57}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 8, 'n_estimators': 193}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 6, 'min_samples_split': 11, 'n_estimators': 96}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 5, 'min_samples_split': 7, 'n_estimators': 220}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 297}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 6, 'min_samples_split': 12, 'n_estimators': 55}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 5, 'n_estimators': 290}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 13, 'n_estimators': 281}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 120}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 8, 'min_samples_split': 16, 'n_estimators': 170}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 298}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 160}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 129}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 179}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 193}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 121}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 247}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 295}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 69}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 155}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 271}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 94}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 100}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 234}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 276}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 184}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 237}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 267}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 112}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 88}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 50})]</t>
+          <t>[OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 9, 'min_samples_split': 5, 'n_estimators': 240}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 9, 'n_estimators': 168}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 3, 'min_samples_split': 3, 'n_estimators': 126}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 3, 'min_samples_split': 4, 'n_estimators': 275}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 7, 'min_samples_split': 4, 'n_estimators': 140}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 3, 'min_samples_split': 10, 'n_estimators': 260}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 207}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 13, 'n_estimators': 296}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 2, 'min_samples_split': 19, 'n_estimators': 214}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 3, 'min_samples_split': 17, 'n_estimators': 135}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 94}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 284}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 19, 'n_estimators': 77}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 8, 'min_samples_split': 20, 'n_estimators': 58}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 6, 'min_samples_split': 19, 'n_estimators': 52}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 8, 'min_samples_split': 3, 'n_estimators': 299}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 4, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 251}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 270}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 82}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 57}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 89}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 8, 'n_estimators': 163}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 51}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 299}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 292}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 2, 'min_samples_split': 18, 'n_estimators': 56}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 283}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 209}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 60}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 295}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 256}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 187}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 8, 'n_estimators': 300})]</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8588235294117647</v>
+        <v>0.8705882352941177</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4422,27 +4422,27 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[0.923076923076923, 1.0, 0.9743589743589745, 0.9743589743589745, 0.923076923076923, 0.9743589743589745, 0.9487179487179488, 0.8974358974358975, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9487179487179488, 0.9487179487179488, 0.923076923076923, 0.8974358974358975, 0.9743589743589745, 0.923076923076923, 0.923076923076923, 1.0, 0.9487179487179488, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9487179487179488, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 0.923076923076923, 0.9743589743589745, 0.9743589743589745, 0.923076923076923, 1.0, 0.9743589743589745, 1.0, 0.9743589743589745]</t>
+          <t>[0.923076923076923, 0.923076923076923, 0.9743589743589745, 1.0, 0.8974358974358975, 0.9743589743589745, 1.0, 0.9487179487179488, 0.9487179487179488, 1.0, 1.0, 1.0, 0.9487179487179488, 0.9487179487179488, 0.8974358974358975, 0.8717948717948718, 0.9487179487179488, 0.8717948717948718, 0.9743589743589745, 0.923076923076923, 1.0, 0.8717948717948718, 1.0, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 0.8974358974358975, 1.0, 0.923076923076923]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.923076923076923, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 1.0, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9743589743589745, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.923076923076923, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9743589743589745]</t>
+          <t>[0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 1.0, 0.9487179487179488, 0.9743589743589745, 0.923076923076923, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.923076923076923, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>[1.0, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9487179487179488, 1.0, 0.9487179487179488, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9487179487179488]</t>
+          <t>[0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 0.9487179487179488, 1.0, 0.9743589743589745, 0.9487179487179488, 1.0, 0.9487179487179488, 0.9487179487179488, 0.9722222222222222, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0]</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 0.9444444444444445, 1.0, 0.9722222222222222]</t>
+          <t>[0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9444444444444445, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>[0.9188034188034188, 0.8931623931623932, 0.8675213675213675, 0.9188034188034188, 0.8931623931623932, 0.9188034188034188, 0.8931623931623932, 0.9188034188034188, 0.9188034188034188, 0.8675213675213675, 0.8931623931623932, 0.8675213675213675, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.8675213675213675, 0.8675213675213675, 0.8675213675213675, 0.9188034188034188, 0.8675213675213675, 0.8931623931623932, 0.8931623931623932, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.9465811965811967, 0.8931623931623932, 0.9188034188034188, 0.9188034188034188, 0.8931623931623932, 0.8931623931623932, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.8931623931623932, 0.8931623931623932, 0.8931623931623932, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.9465811965811967, 0.8675213675213675, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.8675213675213675, 0.8931623931623932, 0.8675213675213675]</t>
+          <t>[0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.8931623931623932, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.8931623931623932, 0.9188034188034188, 0.9188034188034188, 0.8418803418803419, 0.8931623931623932, 0.9188034188034188, 0.8675213675213675, 0.8931623931623932, 0.8675213675213675, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.8931623931623932, 0.8931623931623932, 0.8675213675213675, 0.8931623931623932, 0.9465811965811967, 0.8931623931623932, 0.9188034188034188, 0.8931623931623932, 0.8931623931623932, 0.9465811965811967, 0.8931623931623932, 0.8931623931623932, 0.8931623931623932, 0.9188034188034188, 0.8931623931623932, 0.9188034188034188, 0.8931623931623932, 0.8931623931623932, 0.9188034188034188, 0.9209401709401709, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.8931623931623932, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188, 0.9188034188034188]</t>
         </is>
       </c>
     </row>
@@ -4572,31 +4572,31 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[0.8042735042735043, 0.9226495726495727, 0.9482905982905983, 0.823076923076923, 0.9534188034188034, 0.8811965811965811, 0.8846153846153847, 0.2858974358974359, 0.9431623931623931, 0.8132478632478634, 0.9739316239316238, 0.9482905982905983, 0.9277777777777777, 0.9277777777777777, 0.9482905982905983, 0.9739316239316238, 0.9487179487179489, 0.9589743589743591, 0.9589743589743591, 0.3085470085470086, 0.9277777777777777, 0.9277777777777777, 0.9739316239316238, 0.9739316239316238, 0.9739316239316238, 0.9739316239316238, 0.9739316239316238, 0.9277777777777777, 0.9739316239316238, 0.9739316239316238, 0.37521367521367516, 0.8491452991452991, 0.861111111111111, 0.9324786324786324, 0.4170940170940171, 0.6841880341880342, 0.37521367521367516, 0.532905982905983, 0.9534188034188034, 0.37521367521367516, 0.8816239316239317, 0.897008547008547, 0.8816239316239317, 0.9688034188034187, 0.8867521367521368, 0.8816239316239317, 0.8816239316239317, 0.8867521367521368, 0.8918803418803419, 0.8816239316239317]</t>
+          <t>[0.6905982905982906, 0.9641025641025642, 0.8196581196581196, 0.864102564102564, 0.411965811965812, 0.9482905982905983, 0.8235042735042736, 0.8914529914529915, 0.8547008547008547, 0.8658119658119657, 0.9431623931623931, 0.29615384615384616, 0.9739316239316238, 0.9431623931623931, 0.30128205128205127, 0.9431623931623931, 0.829059829059829, 0.9482905982905983, 0.9482905982905983, 0.9739316239316238, 0.8816239316239317, 0.9589743589743591, 0.9692307692307693, 0.9487179487179489, 0.8816239316239317, 0.8816239316239317, 0.8918803418803419, 0.8816239316239317, 0.8816239316239317, 0.8816239316239317, 0.8756410256410257, 0.9739316239316238, 0.9482905982905983, 0.8867521367521368, 0.9076923076923077, 0.9072649572649573, 0.9482905982905983, 0.9482905982905983, 0.8918803418803419, 0.8918803418803419, 0.9641025641025642, 0.9589743589743591, 0.9329059829059829, 0.8094017094017094, 0.9534188034188034, 0.9688034188034187, 0.9431623931623931, 0.9482905982905983, 0.8196581196581196, 0.7940170940170941]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>[0.03861791571823032, 0.028101337132946342, 0.036572808368093464, 0.05632926068113305, 0.03376879703442462, 0.08658039503176868, 0.08342642181829305, 0.01794871794871794, 0.04071283885064803, 0.05297421831672278, 0.028101337132946342, 0.036572808368093464, 0.04108791569819458, 0.04108791569819458, 0.03596859044871934, 0.028101337132946342, 0.016216808513684046, 0.026148818018424554, 0.026148818018424554, 0.16525591847667626, 0.04108791569819458, 0.04108791569819458, 0.028101337132946342, 0.028101337132946342, 0.028101337132946342, 0.028101337132946342, 0.028101337132946342, 0.04108791569819458, 0.028101337132946342, 0.028101337132946342, 0.04146840844686565, 0.06491789180088293, 0.06010315723674923, 0.06654327831979995, 0.10636133155989724, 0.1385986447905948, 0.04146840844686565, 0.1309227633426777, 0.03376879703442462, 0.04146840844686565, 0.0865276452035376, 0.07237757024389609, 0.0865276452035376, 0.02984117991469418, 0.0909965444447421, 0.0865276452035376, 0.0865276452035376, 0.07689933156769621, 0.06745642229872015, 0.0865276452035376]</t>
+          <t>[0.1932616415475452, 0.02051282051282049, 0.05903935474513869, 0.07407599164732522, 0.096871962282617, 0.023422546335119247, 0.06804943350209591, 0.057436914927902406, 0.07403160079706067, 0.059483126888187646, 0.04432099884603138, 0.011750194089630366, 0.028101337132946342, 0.04071283885064803, 0.01901589355665554, 0.04071283885064803, 0.07650646918789814, 0.023422546335119247, 0.036572808368093464, 0.028101337132946342, 0.0865276452035376, 0.026148818018424554, 0.019187986598840703, 0.016216808513684046, 0.0865276452035376, 0.0865276452035376, 0.06745642229872015, 0.0865276452035376, 0.0865276452035376, 0.0865276452035376, 0.07110474166083107, 0.028101337132946342, 0.036572808368093464, 0.07689933156769621, 0.0598046348189262, 0.055119922520978554, 0.036572808368093464, 0.036572808368093464, 0.06745642229872015, 0.06745642229872015, 0.02051282051282049, 0.026148818018424554, 0.047194658777020615, 0.034859852153048085, 0.03376879703442462, 0.02984117991469418, 0.04432099884603138, 0.036572808368093464, 0.06719873150342588, 0.051292733930075114]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>[42, 26, 16, 40, 13, 37, 31, 50, 19, 41, 1, 16, 21, 21, 16, 1, 15, 11, 11, 49, 21, 21, 1, 1, 1, 1, 1, 21, 1, 1, 46, 39, 38, 20, 45, 43, 46, 44, 13, 46, 32, 27, 32, 10, 29, 32, 32, 29, 28, 32]</t>
+          <t>[47, 6, 43, 39, 48, 12, 42, 29, 40, 38, 19, 50, 1, 19, 49, 19, 41, 12, 12, 1, 31, 8, 4, 11, 31, 31, 26, 31, 31, 31, 37, 1, 12, 30, 24, 25, 12, 12, 26, 26, 6, 8, 23, 45, 10, 5, 19, 12, 43, 46]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'relu', 'alpha': 0.07576221456524863, 'learning_rate_init': 0.00021074178645302474, 'max_iter': 2056, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.026914526357720844, 'learning_rate_init': 0.0037225541168377685, 'max_iter': 2635, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.011177672246849922, 'learning_rate_init': 0.005429410854391043, 'max_iter': 2390, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.003457817463420592, 'learning_rate_init': 0.0025152738629922833, 'max_iter': 2122, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.07799237434624777, 'learning_rate_init': 0.0021871003121253993, 'max_iter': 2828, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 7.847288456003198e-05, 'learning_rate_init': 0.0008730092280974099, 'max_iter': 827, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.1769820469407735e-05, 'learning_rate_init': 0.005580325081870914, 'max_iter': 1714, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.059641885532566545, 'learning_rate_init': 0.0003033535270791079, 'max_iter': 2945, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.000351388995583457, 'learning_rate_init': 0.0033649058935927567, 'max_iter': 724, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 3.2350203483979185e-05, 'learning_rate_init': 0.00032769382294165974, 'max_iter': 2891, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2166, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0038578259921355595, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0028002044598448156, 'learning_rate_init': 0.01, 'max_iter': 688, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00010113302591322256, 'learning_rate_init': 0.0056825981386320725, 'max_iter': 2506, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.06720233298726708, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 2.7544341394306975e-05, 'learning_rate_init': 0.01, 'max_iter': 1877, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2018, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.128204793135663e-05, 'learning_rate_init': 0.01, 'max_iter': 2065, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0001358979515335979, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00022799862949999841, 'learning_rate_init': 0.01, 'max_iter': 1830, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.010655401225255927, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.022689268463733814, 'learning_rate_init': 0.01, 'max_iter': 1801, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.05361104668831061, 'learning_rate_init': 0.01, 'max_iter': 1778, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00010476814579155737, 'learning_rate_init': 0.0001, 'max_iter': 807, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00011183369836494794, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 5.329988409498441e-06, 'learning_rate_init': 0.0011046890881429108, 'max_iter': 1345, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0016391057074888128, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.00015341758843210188, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0004135430632798231, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 8.35925038769127e-06, 'learning_rate_init': 0.0001, 'max_iter': 2709, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00027412273501379935, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0018708084059538292, 'max_iter': 533, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0014978149985712648, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0019872901622872167, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0014094176881141365, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.007615380346877177, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00151133459846725, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0014996950052963475, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0014947483940156525, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0013255431023855987, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0013485523145709835, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0014152560561461458, 'max_iter': 500, 'solver': 'adam'})]</t>
+          <t>[OrderedDict({'activation': 'tanh', 'alpha': 7.71498193210041e-05, 'learning_rate_init': 0.0004409393331506438, 'max_iter': 1946, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0003994399045214934, 'learning_rate_init': 0.00696427257863161, 'max_iter': 2621, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0008429223023994071, 'learning_rate_init': 0.0004859288848186771, 'max_iter': 980, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0004380381998512281, 'learning_rate_init': 0.003991113422934024, 'max_iter': 2244, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.008566343094170287, 'learning_rate_init': 0.00012158556145290146, 'max_iter': 1891, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.006252999255908381, 'learning_rate_init': 0.008172263981044812, 'max_iter': 1737, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 3.5219000120774177e-06, 'learning_rate_init': 0.0030720106266070644, 'max_iter': 2584, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 6.843357616877715e-06, 'learning_rate_init': 0.0011264254211027858, 'max_iter': 1823, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 4.541028812289046e-05, 'learning_rate_init': 0.0007472322518786522, 'max_iter': 2683, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.002512109552208939, 'learning_rate_init': 0.00038530771661039525, 'max_iter': 1856, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0050198809244001216, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 6.82332456278123e-05, 'learning_rate_init': 0.002804558453262899, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.6755439650607242e-05, 'learning_rate_init': 0.003733786855535478, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.014164839102589009, 'learning_rate_init': 0.00032428943547852077, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0018906572924324567, 'learning_rate_init': 0.006673181202036322, 'max_iter': 2734, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 8.218196477578546e-06, 'learning_rate_init': 0.0064338426715174635, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0008686137200432076, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 2.2325377191080467e-05, 'learning_rate_init': 0.009647682427043952, 'max_iter': 2384, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.0917608268370249e-06, 'learning_rate_init': 0.007771411103335237, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0012907020876293867, 'max_iter': 2824, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0012905225192678046, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.001369003886568216, 'max_iter': 1182, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.001428294845456957, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0014603296226385813, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0014857148659791312, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0010239744493462, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.098042955804774e-05, 'learning_rate_init': 0.01, 'max_iter': 1338, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.3621202791889884e-05, 'learning_rate_init': 0.0011610722895170542, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.004580405834767315, 'learning_rate_init': 0.0012079959053104882, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.26399771273723e-05, 'learning_rate_init': 0.002036386705425583, 'max_iter': 1000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0014747397957526884, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.1476843076082899e-05, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0013495273875274764, 'max_iter': 1745, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.2944923796074213e-05, 'learning_rate_init': 0.0013616263023315082, 'max_iter': 1859, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.007399355591651685, 'max_iter': 2772, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0015001016844417184, 'learning_rate_init': 0.0002708178629624386, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0019781911565600503, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.324281797926323e-06, 'learning_rate_init': 0.007419866644426516, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 5.0320877821759705e-05, 'learning_rate_init': 0.003987472318648397, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.804319060481674e-06, 'learning_rate_init': 0.004223354588381386, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.02541398775445931, 'learning_rate_init': 0.000269549931773, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.06023944132381759, 'learning_rate_init': 0.00025611742095635955, 'max_iter': 3000, 'solver': 'sgd'})]</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O45" t="n">
         <v>0.8235294117647058</v>
@@ -4608,27 +4608,27 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[0.7692307692307692, 0.8717948717948718, 0.8974358974358975, 0.8461538461538461, 0.8974358974358975, 0.8205128205128206, 0.8974358974358975, 0.3076923076923077, 0.8974358974358975, 0.7948717948717948, 0.923076923076923, 0.8974358974358975, 0.8717948717948718, 0.8717948717948718, 0.923076923076923, 0.923076923076923, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.38461538461538464, 0.8717948717948718, 0.8717948717948718, 0.923076923076923, 0.923076923076923, 0.923076923076923, 0.923076923076923, 0.923076923076923, 0.8717948717948718, 0.923076923076923, 0.923076923076923, 0.358974358974359, 0.8205128205128206, 0.8717948717948718, 0.8974358974358975, 0.358974358974359, 0.8205128205128206, 0.358974358974359, 0.358974358974359, 0.8974358974358975, 0.358974358974359, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.923076923076923, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718]</t>
+          <t>[0.3846153846153846, 0.9487179487179488, 0.8461538461538461, 0.8461538461538461, 0.358974358974359, 0.9487179487179488, 0.8205128205128206, 0.8974358974358975, 0.8205128205128206, 0.8974358974358975, 0.8717948717948718, 0.3076923076923077, 0.923076923076923, 0.8974358974358975, 0.3333333333333333, 0.8974358974358975, 0.7948717948717948, 0.9487179487179488, 0.8974358974358975, 0.923076923076923, 0.8717948717948718, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.8974358974358975, 0.923076923076923, 0.8974358974358975, 0.8717948717948718, 0.8974358974358975, 0.8717948717948718, 0.8974358974358975, 0.8974358974358975, 0.8717948717948718, 0.8717948717948718, 0.9487179487179488, 0.9487179487179488, 0.923076923076923, 0.7692307692307692, 0.8974358974358975, 0.923076923076923, 0.8717948717948718, 0.8974358974358975, 0.7692307692307692, 0.717948717948718]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.7948717948717948, 0.9487179487179488, 1.0, 0.923076923076923, 0.9487179487179488, 0.7948717948717948, 0.9743589743589745, 0.28205128205128205, 0.8974358974358975, 0.717948717948718, 1.0, 1.0, 1.0, 1.0, 0.8974358974358975, 1.0, 0.923076923076923, 0.923076923076923, 0.923076923076923, 0.12820512820512822, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.3333333333333333, 0.8461538461538461, 0.7692307692307693, 0.9743589743589745, 0.3333333333333333, 0.4358974358974359, 0.3333333333333333, 0.4358974358974359, 0.9487179487179488, 0.3333333333333333, 0.717948717948718, 0.7692307692307693, 0.717948717948718, 1.0, 0.717948717948718, 0.717948717948718, 0.717948717948718, 0.7435897435897436, 0.7692307692307693, 0.717948717948718]</t>
+          <t>[0.5384615384615384, 0.9487179487179488, 0.7692307692307693, 0.923076923076923, 0.3333333333333333, 0.923076923076923, 0.7435897435897436, 0.7948717948717948, 0.7948717948717948, 0.7692307692307693, 1.0, 0.28205128205128205, 1.0, 0.8974358974358975, 0.28205128205128205, 0.8974358974358975, 0.717948717948718, 0.923076923076923, 1.0, 1.0, 0.717948717948718, 0.923076923076923, 0.9487179487179488, 0.923076923076923, 0.717948717948718, 0.717948717948718, 0.7692307692307693, 0.717948717948718, 0.717948717948718, 0.717948717948718, 0.7948717948717948, 1.0, 1.0, 0.7435897435897436, 0.7948717948717948, 0.8205128205128206, 1.0, 1.0, 0.7692307692307693, 0.7692307692307693, 0.9487179487179488, 0.923076923076923, 0.8461538461538461, 0.7948717948717948, 0.9487179487179488, 1.0, 1.0, 1.0, 0.7948717948717948, 0.7948717948717948]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>[0.767094017094017, 0.9209401709401709, 0.9209401709401709, 0.7927350427350427, 0.9487179487179488, 0.8183760683760682, 0.7927350427350427, 0.30128205128205127, 0.9487179487179488, 0.844017094017094, 0.9743589743589745, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.4017094017094018, 0.9209401709401709, 0.9209401709401709, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9209401709401709, 0.9743589743589745, 0.9743589743589745, 0.44017094017094016, 0.7927350427350427, 0.8183760683760685, 0.8183760683760682, 0.44017094017094016, 0.7927350427350427, 0.44017094017094016, 0.5235042735042735, 0.9487179487179488, 0.44017094017094016, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9487179487179488, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709]</t>
+          <t>[0.844017094017094, 0.9487179487179488, 0.767094017094017, 0.7927350427350427, 0.44017094017094016, 0.9209401709401709, 0.7927350427350427, 0.9487179487179488, 0.8183760683760682, 0.8696581196581197, 0.9209401709401709, 0.30128205128205127, 0.9743589743589745, 0.9487179487179488, 0.30128205128205127, 0.9487179487179488, 0.8183760683760682, 0.9209401709401709, 0.9209401709401709, 0.9743589743589745, 0.9209401709401709, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9487179487179488, 0.9743589743589745, 0.9209401709401709, 0.9209401709401709, 0.9487179487179488, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.7927350427350427, 0.9487179487179488, 0.9487179487179488, 0.9209401709401709, 0.9209401709401709, 0.8183760683760685, 0.767094017094017]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[0.8183760683760685, 0.9487179487179488, 0.9743589743589745, 0.7692307692307693, 1.0, 1.0, 0.9743589743589745, 0.25641025641025644, 1.0, 0.844017094017094, 1.0, 0.9743589743589745, 0.923076923076923, 0.923076923076923, 1.0, 1.0, 0.9487179487179488, 1.0, 1.0, 0.10256410256410257, 0.923076923076923, 0.923076923076923, 1.0, 1.0, 1.0, 1.0, 1.0, 0.923076923076923, 1.0, 1.0, 0.40598290598290593, 0.9743589743589745, 0.923076923076923, 1.0, 0.6153846153846154, 0.641025641025641, 0.40598290598290593, 0.6153846153846154, 1.0, 0.40598290598290593, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 1.0, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488]</t>
+          <t>[0.8461538461538461, 1.0, 0.7927350427350427, 0.9743589743589745, 0.5897435897435898, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 1.0, 0.844017094017094, 0.9743589743589745, 0.3076923076923077, 1.0, 1.0, 0.3076923076923077, 1.0, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9487179487179488, 1.0, 1.0, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 1.0, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 1.0, 1.0, 0.9743589743589745, 0.8183760683760685, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 0.767094017094017, 0.8183760683760685]</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>[0.8717948717948718, 0.923076923076923, 0.9487179487179488, 0.7841880341880342, 0.9722222222222222, 0.9722222222222222, 0.7841880341880342, 0.28205128205128205, 0.9722222222222222, 0.8653846153846154, 0.9722222222222222, 0.9487179487179488, 0.923076923076923, 0.923076923076923, 0.9722222222222222, 0.9722222222222222, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.5256410256410257, 0.923076923076923, 0.923076923076923, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.923076923076923, 0.9722222222222222, 0.9722222222222222, 0.3376068376068376, 0.8119658119658119, 0.923076923076923, 0.9722222222222222, 0.3376068376068376, 0.7307692307692308, 0.3376068376068376, 0.7307692307692308, 0.9722222222222222, 0.3376068376068376, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9722222222222222, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488]</t>
+          <t>[0.8397435897435898, 0.9743589743589745, 0.923076923076923, 0.7841880341880342, 0.3376068376068376, 0.9743589743589745, 0.8119658119658119, 0.8675213675213675, 0.8397435897435898, 0.9487179487179488, 0.9487179487179488, 0.28205128205128205, 0.9722222222222222, 0.9722222222222222, 0.28205128205128205, 0.9722222222222222, 0.8653846153846154, 0.9743589743589745, 0.9487179487179488, 0.9722222222222222, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.7884615384615384, 0.9722222222222222, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9722222222222222, 0.8717948717948718, 0.9722222222222222, 0.9722222222222222, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.8717948717948718]</t>
         </is>
       </c>
     </row>
@@ -4740,52 +4740,52 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.6678628389154705</v>
+        <v>0.7507974481658692</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7285227660640748</v>
+        <v>0.7790530846484935</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7294117647058823</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7286274509803922</v>
+        <v>0.7853363354911344</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[[10, 3, 6], [4, 39, 1], [6, 3, 13]]</t>
+          <t>[[13, 4, 2], [6, 37, 1], [3, 3, 16]]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3})</t>
+          <t>OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3})</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[0.7188034188034188, 0.7914529914529915, 0.773076923076923, 0.7307692307692307, 0.7217948717948718, 0.7405982905982906, 0.7311965811965812, 0.7162393162393161, 0.7974358974358975, 0.7773504273504274, 0.7264957264957264, 0.8564102564102564, 0.5376068376068377, 0.8286324786324787, 0.7217948717948718, 0.7816239316239316, 0.7264957264957264, 0.7217948717948718, 0.7008547008547008, 0.7568376068376068, 0.7457264957264957, 0.7876068376068376, 0.7264957264957264, 0.8346153846153846, 0.5709401709401709, 0.7307692307692308, 0.7256410256410256, 0.5521367521367522, 0.7217948717948718, 0.7594017094017095, 0.5709401709401709, 0.802991452991453, 0.7876068376068376, 0.7264957264957264, 0.735897435897436, 0.7568376068376068, 0.7217948717948718, 0.6974358974358975, 0.5376068376068377, 0.802991452991453, 0.7213675213675212, 0.5521367521367522, 0.7264957264957264, 0.7816239316239316, 0.7264957264957264, 0.7217948717948718, 0.5521367521367522, 0.7256410256410256, 0.7568376068376068, 0.7029914529914529]</t>
+          <t>[0.832905982905983, 0.7217948717948718, 0.7209401709401708, 0.7264957264957264, 0.7572649572649572, 0.7149572649572649, 0.711111111111111, 0.7149572649572649, 0.8021367521367522, 0.7260683760683762, 0.7705128205128206, 0.5709401709401709, 0.7029914529914529, 0.5521367521367522, 0.7307692307692308, 0.7564102564102564, 0.7256410256410256, 0.5521367521367522, 0.7264957264957264, 0.8606837606837606, 0.5521367521367522, 0.5521367521367522, 0.7816239316239316, 0.7029914529914529, 0.7867521367521368, 0.7307692307692308, 0.7264957264957264, 0.8286324786324787, 0.5709401709401709, 0.5376068376068377, 0.7256410256410256, 0.7217948717948718, 0.7307692307692308, 0.7217948717948718, 0.7705128205128206, 0.5521367521367522, 0.8448717948717949, 0.7264957264957264, 0.5521367521367522, 0.7568376068376068, 0.7029914529914529, 0.5521367521367522, 0.6905982905982906, 0.7217948717948718, 0.7568376068376068, 0.8346153846153846, 0.7307692307692308, 0.5521367521367522, 0.7256410256410256, 0.7568376068376068]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[0.06730735313983195, 0.06462182846718482, 0.07471180658632544, 0.04267089202176619, 0.055693451479127846, 0.057217099532610734, 0.041198886341863326, 0.055611411762965884, 0.06739954389354201, 0.03844729080835037, 0.04439099349973638, 0.047557017925618984, 0.03749010632386548, 0.06324786324786326, 0.03789709278187238, 0.07472402777734938, 0.04439099349973638, 0.03789709278187238, 0.03583123729274286, 0.051802910436532165, 0.07292556925709928, 0.08504810359724443, 0.04439099349973638, 0.0696148468181102, 0.0507522490232599, 0.07070034634213575, 0.033720088110391226, 0.025697942527133196, 0.03789709278187238, 0.07520153359653421, 0.0507522490232599, 0.05264221837858411, 0.08504810359724443, 0.04439099349973638, 0.07004637225059286, 0.051802910436532165, 0.03789709278187238, 0.028527041484236983, 0.03749010632386548, 0.05264221837858411, 0.029932839329636717, 0.025697942527133196, 0.04439099349973638, 0.07472402777734938, 0.04439099349973638, 0.03789709278187238, 0.025697942527133196, 0.033720088110391226, 0.051802910436532165, 0.05765272462919674]</t>
+          <t>[0.06464725845248098, 0.03789709278187238, 0.08386963087335565, 0.04439099349973638, 0.03741696434161964, 0.039529337025118565, 0.049587383604650516, 0.039529337025118565, 0.05797808297148031, 0.0282956330893108, 0.05324930373543739, 0.0507522490232599, 0.05765272462919674, 0.025697942527133196, 0.07070034634213575, 0.05999671259896199, 0.033720088110391226, 0.025697942527133196, 0.04439099349973638, 0.05346835308798754, 0.025697942527133196, 0.025697942527133196, 0.07472402777734938, 0.05765272462919674, 0.028775633965012735, 0.07070034634213575, 0.04439099349973638, 0.07107905260270699, 0.0507522490232599, 0.03749010632386548, 0.033720088110391226, 0.03789709278187238, 0.07070034634213575, 0.03789709278187238, 0.05324930373543739, 0.025697942527133196, 0.043447059921842175, 0.04439099349973638, 0.025697942527133196, 0.051802910436532165, 0.05765272462919674, 0.025697942527133196, 0.05166170011405789, 0.03789709278187238, 0.051802910436532165, 0.0696148468181102, 0.07070034634213575, 0.025697942527133196, 0.033720088110391226, 0.051802910436532165]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>[39, 7, 13, 23, 32, 19, 21, 40, 6, 12, 24, 1, 49, 3, 32, 10, 24, 32, 42, 15, 18, 8, 24, 2, 44, 22, 30, 46, 32, 14, 44, 4, 8, 24, 20, 15, 32, 43, 49, 4, 38, 46, 24, 10, 24, 32, 46, 30, 15, 41]</t>
+          <t>[4, 28, 32, 20, 11, 33, 35, 33, 6, 24, 9, 40, 36, 42, 16, 15, 25, 42, 20, 1, 42, 42, 8, 36, 7, 16, 20, 5, 40, 50, 25, 28, 16, 28, 9, 42, 2, 20, 42, 12, 36, 42, 39, 28, 12, 3, 16, 42, 25, 12]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 33}), OrderedDict({'criterion': 'entropy', 'max_depth': 45, 'max_features': None, 'min_samples_leaf': 15, 'min_samples_split': 40}), OrderedDict({'criterion': 'entropy', 'max_depth': 25, 'max_features': 'log2', 'min_samples_leaf': 6, 'min_samples_split': 13}), OrderedDict({'criterion': 'gini', 'max_depth': 58, 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 66, 'max_features': 'sqrt', 'min_samples_leaf': 10, 'min_samples_split': 45}), OrderedDict({'criterion': 'entropy', 'max_depth': 36, 'max_features': 'log2', 'min_samples_leaf': 9, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 9, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 42, 'max_features': 'log2', 'min_samples_leaf': 14, 'min_samples_split': 40}), OrderedDict({'criterion': 'entropy', 'max_depth': 11, 'max_features': None, 'min_samples_leaf': 13, 'min_samples_split': 7}), OrderedDict({'criterion': 'entropy', 'max_depth': 12, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 43}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 93, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 13, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 10, 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 9}), OrderedDict({'criterion': 'entropy', 'max_depth': 84, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 11}), OrderedDict({'criterion': 'gini', 'max_depth': 65, 'max_features': 'log2', 'min_samples_leaf': 14, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 18, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 45}), OrderedDict({'criterion': 'entropy', 'max_depth': 85, 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 36}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 11, 'min_samples_split': 7}), OrderedDict({'criterion': 'entropy', 'max_depth': 75, 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 28}), OrderedDict({'criterion': 'entropy', 'max_depth': 63, 'max_features': 'log2', 'min_samples_leaf': 11, 'min_samples_split': 17}), OrderedDict({'criterion': 'entropy', 'max_depth': 60, 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 40}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 36}), OrderedDict({'criterion': 'gini', 'max_depth': 89, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 46}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49})]</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O47" t="n">
-        <v>0.7294117647058823</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4794,27 +4794,27 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[0.6923076923076922, 0.7435897435897436, 0.7948717948717948, 0.6666666666666666, 0.7948717948717948, 0.7179487179487181, 0.6923076923076922, 0.6410256410256411, 0.7435897435897436, 0.8205128205128206, 0.6923076923076922, 0.8461538461538461, 0.5128205128205128, 0.794871794871795, 0.6923076923076924, 0.6923076923076922, 0.6923076923076922, 0.6923076923076924, 0.6923076923076922, 0.717948717948718, 0.717948717948718, 0.7692307692307692, 0.6923076923076922, 0.8717948717948718, 0.5128205128205129, 0.717948717948718, 0.6923076923076922, 0.5128205128205128, 0.6923076923076924, 0.6923076923076922, 0.5128205128205129, 0.7435897435897436, 0.7692307692307692, 0.6923076923076922, 0.717948717948718, 0.717948717948718, 0.6923076923076924, 0.6410256410256411, 0.5128205128205128, 0.7435897435897436, 0.6923076923076922, 0.5128205128205128, 0.6923076923076922, 0.6923076923076922, 0.6923076923076922, 0.6923076923076924, 0.5128205128205128, 0.6923076923076922, 0.717948717948718, 0.6923076923076922]</t>
+          <t>[0.7435897435897436, 0.6923076923076924, 0.6153846153846154, 0.6923076923076922, 0.717948717948718, 0.7179487179487181, 0.717948717948718, 0.7179487179487181, 0.8205128205128206, 0.7435897435897436, 0.7692307692307692, 0.5128205128205129, 0.6923076923076922, 0.5128205128205128, 0.717948717948718, 0.7692307692307692, 0.6923076923076922, 0.5128205128205128, 0.6923076923076922, 0.8974358974358975, 0.5128205128205128, 0.5128205128205128, 0.6923076923076922, 0.6923076923076922, 0.7435897435897436, 0.717948717948718, 0.6923076923076922, 0.7435897435897436, 0.5128205128205129, 0.5128205128205128, 0.6923076923076922, 0.6923076923076924, 0.717948717948718, 0.6923076923076924, 0.7692307692307692, 0.5128205128205128, 0.8205128205128206, 0.6923076923076922, 0.5128205128205128, 0.717948717948718, 0.6923076923076922, 0.5128205128205128, 0.6153846153846153, 0.6923076923076924, 0.717948717948718, 0.8717948717948718, 0.717948717948718, 0.5128205128205128, 0.6923076923076922, 0.717948717948718]</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.6923076923076924, 0.6923076923076922, 0.6410256410256411, 0.6923076923076924, 0.6923076923076924, 0.6923076923076924, 0.6923076923076924, 0.6923076923076924, 0.6923076923076922, 0.717948717948718, 0.6923076923076924, 0.7948717948717948, 0.5897435897435898, 0.7692307692307693, 0.6923076923076924, 0.6923076923076922, 0.6923076923076924, 0.6923076923076924, 0.6923076923076924, 0.6923076923076924, 0.6153846153846154, 0.6923076923076922, 0.6923076923076924, 0.8717948717948719, 0.5897435897435898, 0.6153846153846154, 0.6923076923076924, 0.5897435897435898, 0.6923076923076924, 0.6666666666666666, 0.5897435897435898, 0.8205128205128206, 0.6923076923076922, 0.6923076923076924, 0.6153846153846154, 0.6923076923076924, 0.6923076923076924, 0.717948717948718, 0.5897435897435898, 0.8205128205128206, 0.6923076923076922, 0.5897435897435898, 0.6923076923076924, 0.6923076923076922, 0.6923076923076924, 0.6923076923076924, 0.5897435897435898, 0.6923076923076924, 0.6923076923076924, 0.6153846153846154]</t>
+          <t>[0.8205128205128206, 0.6923076923076924, 0.6666666666666666, 0.6923076923076924, 0.7179487179487181, 0.6923076923076924, 0.6923076923076924, 0.6923076923076924, 0.6923076923076922, 0.717948717948718, 0.6923076923076922, 0.5897435897435898, 0.6153846153846154, 0.5897435897435898, 0.6153846153846154, 0.6410256410256411, 0.6923076923076924, 0.5897435897435898, 0.6923076923076924, 0.8461538461538461, 0.5897435897435898, 0.5897435897435898, 0.6923076923076922, 0.6153846153846154, 0.8205128205128206, 0.6153846153846154, 0.6923076923076924, 0.794871794871795, 0.5897435897435898, 0.5897435897435898, 0.6923076923076924, 0.6923076923076924, 0.6153846153846154, 0.6923076923076924, 0.6923076923076922, 0.5897435897435898, 0.8974358974358975, 0.6923076923076924, 0.5897435897435898, 0.6923076923076924, 0.6153846153846154, 0.5897435897435898, 0.717948717948718, 0.6923076923076924, 0.6923076923076924, 0.8717948717948719, 0.6153846153846154, 0.5897435897435898, 0.6923076923076924, 0.6923076923076924]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[0.8183760683760685, 0.8696581196581197, 0.8717948717948718, 0.764957264957265, 0.717948717948718, 0.6858974358974358, 0.7927350427350427, 0.7927350427350427, 0.844017094017094, 0.8183760683760682, 0.7927350427350427, 0.8974358974358975, 0.5641025641025641, 0.9444444444444445, 0.7692307692307692, 0.844017094017094, 0.7927350427350427, 0.7692307692307692, 0.7051282051282052, 0.844017094017094, 0.7927350427350427, 0.844017094017094, 0.7927350427350427, 0.7393162393162394, 0.6153846153846154, 0.7927350427350427, 0.764957264957265, 0.5641025641025641, 0.7692307692307692, 0.8696581196581197, 0.6153846153846154, 0.8952991452991452, 0.844017094017094, 0.7927350427350427, 0.7927350427350427, 0.844017094017094, 0.7692307692307692, 0.7051282051282052, 0.5641025641025641, 0.8952991452991452, 0.7414529914529915, 0.5641025641025641, 0.7927350427350427, 0.844017094017094, 0.7927350427350427, 0.7692307692307692, 0.5641025641025641, 0.764957264957265, 0.844017094017094, 0.7927350427350427]</t>
+          <t>[0.8162393162393163, 0.7692307692307692, 0.844017094017094, 0.7927350427350427, 0.8183760683760682, 0.6858974358974358, 0.717948717948718, 0.6858974358974358, 0.8183760683760682, 0.7136752136752137, 0.844017094017094, 0.6153846153846154, 0.7927350427350427, 0.5641025641025641, 0.7927350427350427, 0.767094017094017, 0.764957264957265, 0.5641025641025641, 0.7927350427350427, 0.8696581196581197, 0.5641025641025641, 0.5641025641025641, 0.844017094017094, 0.7927350427350427, 0.8141025641025642, 0.7927350427350427, 0.7927350427350427, 0.9444444444444445, 0.6153846153846154, 0.5641025641025641, 0.764957264957265, 0.7692307692307692, 0.7927350427350427, 0.7692307692307692, 0.844017094017094, 0.5641025641025641, 0.7905982905982906, 0.7927350427350427, 0.5641025641025641, 0.844017094017094, 0.7927350427350427, 0.5641025641025641, 0.7051282051282052, 0.7692307692307692, 0.844017094017094, 0.7393162393162394, 0.7927350427350427, 0.5641025641025641, 0.764957264957265, 0.844017094017094]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.767094017094017, 0.8376068376068376, 0.7692307692307692, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.8653846153846154, 0.767094017094017, 0.767094017094017, 0.923076923076923, 0.5384615384615384, 0.8461538461538461, 0.767094017094017, 0.8653846153846154, 0.767094017094017, 0.767094017094017, 0.6517094017094017, 0.767094017094017, 0.8162393162393163, 0.9209401709401709, 0.767094017094017, 0.767094017094017, 0.6282051282051282, 0.8162393162393163, 0.767094017094017, 0.5384615384615384, 0.767094017094017, 0.7542735042735043, 0.6282051282051282, 0.767094017094017, 0.9209401709401709, 0.767094017094017, 0.8162393162393163, 0.767094017094017, 0.767094017094017, 0.7136752136752138, 0.5384615384615384, 0.767094017094017, 0.7692307692307692, 0.5384615384615384, 0.767094017094017, 0.8653846153846154, 0.767094017094017, 0.767094017094017, 0.5384615384615384, 0.767094017094017, 0.767094017094017, 0.7264957264957266]</t>
+          <t>[0.9444444444444445, 0.767094017094017, 0.7905982905982906, 0.767094017094017, 0.7692307692307692, 0.7905982905982906, 0.7905982905982906, 0.7905982905982906, 0.8653846153846154, 0.7692307692307692, 0.80982905982906, 0.6282051282051282, 0.7264957264957266, 0.5384615384615384, 0.8162393162393163, 0.8119658119658121, 0.767094017094017, 0.5384615384615384, 0.767094017094017, 0.767094017094017, 0.5384615384615384, 0.5384615384615384, 0.8653846153846154, 0.7264957264957266, 0.767094017094017, 0.8162393162393163, 0.767094017094017, 0.8717948717948718, 0.6282051282051282, 0.5384615384615384, 0.767094017094017, 0.767094017094017, 0.8162393162393163, 0.767094017094017, 0.80982905982906, 0.5384615384615384, 0.8205128205128206, 0.767094017094017, 0.5384615384615384, 0.767094017094017, 0.7264957264957266, 0.5384615384615384, 0.6517094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.8162393162393163, 0.5384615384615384, 0.767094017094017, 0.767094017094017]</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>[0.6239316239316239, 0.8141025641025642, 0.7884615384615384, 0.7628205128205128, 0.6367521367521368, 0.8397435897435898, 0.7115384615384616, 0.6880341880341879, 0.8418803418803419, 0.7628205128205128, 0.6880341880341879, 0.8205128205128206, 0.48290598290598297, 0.7884615384615384, 0.6880341880341879, 0.8141025641025642, 0.6880341880341879, 0.6880341880341879, 0.7628205128205128, 0.7628205128205128, 0.7863247863247863, 0.7115384615384616, 0.6880341880341879, 0.923076923076923, 0.5085470085470085, 0.7115384615384616, 0.7115384615384616, 0.5555555555555555, 0.6880341880341879, 0.8141025641025642, 0.5085470085470085, 0.7884615384615384, 0.7115384615384616, 0.6880341880341879, 0.7371794871794872, 0.7628205128205128, 0.6880341880341879, 0.7094017094017094, 0.48290598290598297, 0.7884615384615384, 0.7115384615384616, 0.5555555555555555, 0.6880341880341879, 0.8141025641025642, 0.6880341880341879, 0.6880341880341879, 0.5555555555555555, 0.7115384615384616, 0.7628205128205128, 0.6880341880341881]</t>
+          <t>[0.8397435897435898, 0.6880341880341879, 0.6880341880341879, 0.6880341880341879, 0.7628205128205128, 0.6880341880341879, 0.6367521367521368, 0.6880341880341879, 0.8141025641025642, 0.685897435897436, 0.7371794871794872, 0.5085470085470085, 0.6880341880341881, 0.5555555555555555, 0.7115384615384616, 0.7927350427350427, 0.7115384615384616, 0.5555555555555555, 0.6880341880341879, 0.923076923076923, 0.5555555555555555, 0.5555555555555555, 0.8141025641025642, 0.6880341880341881, 0.7884615384615384, 0.7115384615384616, 0.6880341880341879, 0.7884615384615384, 0.5085470085470085, 0.48290598290598297, 0.7115384615384616, 0.6880341880341879, 0.7115384615384616, 0.6880341880341879, 0.7371794871794872, 0.5555555555555555, 0.8952991452991453, 0.6880341880341879, 0.5555555555555555, 0.7628205128205128, 0.6880341880341881, 0.5555555555555555, 0.7628205128205128, 0.6880341880341879, 0.7628205128205128, 0.923076923076923, 0.7115384615384616, 0.5555555555555555, 0.7115384615384616, 0.7628205128205128]</t>
         </is>
       </c>
     </row>
@@ -4926,52 +4926,52 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.826555023923445</v>
+        <v>0.8744019138755981</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8698778061949417</v>
+        <v>0.9058286459607077</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8705882352941177</v>
+        <v>0.9058823529411765</v>
       </c>
       <c r="G49" t="n">
-        <v>0.8709342560553633</v>
+        <v>0.9087889273356402</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[[13, 0, 6], [1, 43, 0], [3, 1, 18]]</t>
+          <t>[[14, 0, 5], [1, 43, 0], [2, 0, 20]]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.9543679207978897, 'gamma': 0.07701388018404977, 'learning_rate': 0.018647480442408507, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 465, 'subsample': 0.7112849338232075})</t>
+          <t>OrderedDict({'colsample_bytree': 0.7914807888591988, 'gamma': 0.03196341030190167, 'learning_rate': 0.029793959738635523, 'max_depth': 14, 'min_child_weight': 2, 'n_estimators': 363, 'subsample': 0.7296844096422831})</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[0.9735042735042736, 0.9790598290598291, 0.9679487179487181, 0.9316239316239316, 0.9474358974358974, 0.9307692307692308, 0.9311965811965812, 0.9897435897435898, 0.9841880341880342, 0.9213675213675213, 0.9897435897435898, 0.9897435897435898, 0.9786324786324787, 0.9679487179487181, 0.9786324786324787, 0.926068376068376, 0.9427350427350427, 0.9688034188034187, 0.962820512820513, 0.9688034188034189, 0.9790598290598291, 0.8952991452991453, 0.9841880341880342, 0.9897435897435898, 0.8696581196581196, 0.9841880341880342, 0.9841880341880342, 0.9790598290598291, 0.9841880341880342, 0.9897435897435898, 0.9841880341880342, 0.8841880341880343, 0.9264957264957265, 0.9846153846153847, 0.9794871794871796, 0.8901709401709402, 0.9525641025641025, 0.9683760683760685, 0.9846153846153847, 0.9735042735042736, 0.9786324786324787, 0.9790598290598291, 0.9790598290598291, 0.9841880341880342, 0.9846153846153847, 0.9846153846153847, 0.9841880341880342, 0.9786324786324787, 0.9055555555555556, 0.8901709401709402]</t>
+          <t>[0.9256410256410256, 0.9055555555555556, 0.926068376068376, 0.962820512820513, 0.9311965811965812, 0.9739316239316238, 0.9158119658119658, 0.9576923076923076, 0.9529914529914532, 0.9534188034188034, 0.8645299145299147, 0.9153846153846154, 0.9897435897435898, 0.9735042735042736, 0.9790598290598291, 0.9790598290598291, 0.9846153846153847, 0.9632478632478634, 0.9790598290598291, 0.9897435897435898, 0.947008547008547, 0.9423076923076923, 0.9636752136752138, 0.8487179487179487, 0.926923076923077, 0.9735042735042736, 0.9846153846153847, 0.9841880341880342, 0.9688034188034189, 0.9897435897435898, 0.9897435897435898, 0.9320512820512821, 0.9790598290598291, 0.9743589743589745, 0.9841880341880342, 0.9679487179487181, 0.9897435897435898, 0.9897435897435898, 0.9316239316239316, 0.9632478632478634, 0.9790598290598291, 0.9739316239316238, 0.9423076923076923, 0.9683760683760685, 0.9525641025641025, 0.9683760683760685, 0.9790598290598291, 0.9688034188034187, 0.9581196581196583, 0.9841880341880342]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[0.028877001549617372, 0.019320777017875726, 0.031170226544975164, 0.04885645328898395, 0.044197208457599634, 0.02804278584021015, 0.052031559846921115, 0.020512820512820485, 0.03162393162393164, 0.04916201870927139, 0.020512820512820485, 0.01256148586042651, 0.030787031887739978, 0.030787031887739964, 0.030787031887739978, 0.04868044740478001, 0.019555660151534336, 0.05055756041425727, 0.02691289998945948, 0.041775553537948484, 0.030709819184994346, 0.05092468071714953, 0.03162393162393164, 0.020512820512820485, 0.044739324199324394, 0.020743010426515527, 0.020743010426515527, 0.019320777017875726, 0.012933970897796175, 0.01256148586042651, 0.03162393162393164, 0.05455040742383072, 0.05080979127419439, 0.01256148586042651, 0.0299023174094631, 0.061745851867203425, 0.05628060729283532, 0.03844729080835036, 0.01256148586042651, 0.028877001549617372, 0.019998904199653972, 0.030709819184994346, 0.030709819184994346, 0.020743010426515527, 0.020512820512820478, 0.020512820512820478, 0.020743010426515527, 0.03151981011040305, 0.0665954035071573, 0.04777158499993891]</t>
+          <t>[0.048262225989355145, 0.05605299976775928, 0.05131053340103807, 0.03918129946137466, 0.04943984568881908, 0.052136752136752125, 0.05581137681133166, 0.05912899335530932, 0.044718909265932374, 0.04774864178961853, 0.0545872217156778, 0.058072504753224154, 0.020512820512820485, 0.04055553303972066, 0.04188034188034186, 0.030709819184994346, 0.020512820512820478, 0.026253371886166974, 0.04188034188034186, 0.01256148586042651, 0.05773819004877834, 0.05113940274068922, 0.03912065809007113, 0.06727749967232284, 0.06272595942532913, 0.028877001549617372, 0.020512820512820478, 0.03162393162393164, 0.03849950642582976, 0.020512820512820485, 0.020512820512820485, 0.052849962746905815, 0.04188034188034186, 0.028088336282316235, 0.03162393162393164, 0.03839024731876188, 0.020512820512820485, 0.020512820512820485, 0.046106338322260465, 0.04921770956884775, 0.04188034188034186, 0.052136752136752125, 0.03898035641364575, 0.05051780963690556, 0.030530890768362, 0.03844729080835036, 0.04188034188034186, 0.05055756041425727, 0.020432535192960587, 0.020743010426515527]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>[28, 19, 33, 39, 37, 41, 40, 1, 10, 44, 1, 1, 24, 33, 24, 43, 38, 31, 35, 30, 19, 46, 10, 1, 50, 10, 10, 19, 10, 1, 10, 49, 42, 6, 18, 47, 36, 32, 6, 28, 24, 19, 19, 10, 6, 6, 10, 24, 45, 47]</t>
+          <t>[45, 48, 44, 31, 42, 19, 46, 33, 35, 34, 49, 47, 1, 21, 12, 12, 7, 29, 12, 1, 37, 38, 28, 50, 43, 21, 7, 9, 23, 1, 1, 40, 12, 18, 9, 27, 1, 1, 41, 29, 12, 19, 38, 25, 36, 25, 12, 24, 32, 9]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.5487627621167886, 'gamma': 1.6571879961745086, 'learning_rate': 0.180759414050447, 'max_depth': 6, 'min_child_weight': 4, 'n_estimators': 299, 'subsample': 0.6529942579128648}), OrderedDict({'colsample_bytree': 0.9263337019976605, 'gamma': 1.1439818322357467, 'learning_rate': 0.035926314972688625, 'max_depth': 8, 'min_child_weight': 6, 'n_estimators': 285, 'subsample': 0.7192726707665331}), OrderedDict({'colsample_bytree': 0.8212281113885727, 'gamma': 2.4253009599856994, 'learning_rate': 0.15871327842577845, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 326, 'subsample': 0.7414116397701764}), OrderedDict({'colsample_bytree': 0.5655008435116119, 'gamma': 1.246266030861932, 'learning_rate': 0.04156657862182209, 'max_depth': 6, 'min_child_weight': 7, 'n_estimators': 84, 'subsample': 0.5415980562565577}), OrderedDict({'colsample_bytree': 0.6856523315540656, 'gamma': 2.4763603817017503, 'learning_rate': 0.0239553551475035, 'max_depth': 3, 'min_child_weight': 3, 'n_estimators': 60, 'subsample': 0.5845354157193603}), OrderedDict({'colsample_bytree': 0.8691693806555301, 'gamma': 4.131313964375321, 'learning_rate': 0.26026122389470957, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 334, 'subsample': 0.7662602193083871}), OrderedDict({'colsample_bytree': 0.5945220760987511, 'gamma': 4.854657164036242, 'learning_rate': 0.03150045414694729, 'max_depth': 13, 'min_child_weight': 3, 'n_estimators': 286, 'subsample': 0.7756386441684213}), OrderedDict({'colsample_bytree': 0.9543679207978897, 'gamma': 0.07701388018404977, 'learning_rate': 0.018647480442408507, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 465, 'subsample': 0.7112849338232075}), OrderedDict({'colsample_bytree': 0.9466574977512335, 'gamma': 0.6216576249772278, 'learning_rate': 0.02598352886754996, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 351, 'subsample': 0.6695097144476673}), OrderedDict({'colsample_bytree': 0.9805435507742895, 'gamma': 3.679733121744626, 'learning_rate': 0.08023956688023377, 'max_depth': 9, 'min_child_weight': 8, 'n_estimators': 497, 'subsample': 0.9681330865081174}), OrderedDict({'colsample_bytree': 0.578803691973191, 'gamma': 0.0, 'learning_rate': 0.16196497677997862, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 112, 'subsample': 0.8109772722930717}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.7409979402070487}), OrderedDict({'colsample_bytree': 0.529599340294322, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5424249456281441, 'gamma': 0.0, 'learning_rate': 0.11862881550008333, 'max_depth': 12, 'min_child_weight': 10, 'n_estimators': 122, 'subsample': 0.9497797370614613}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.5145142190540588, 'learning_rate': 0.29999999999999993, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7616141916339692}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.04041886811712168, 'max_depth': 3, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.6780592671263596}), OrderedDict({'colsample_bytree': 0.8781954192708967, 'gamma': 0.0, 'learning_rate': 0.011119859259536036, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8068421556770758, 'gamma': 0.0, 'learning_rate': 0.037558598747462306, 'max_depth': 7, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 0.8125781588498935}), OrderedDict({'colsample_bytree': 0.9941281045963744, 'gamma': 0.0, 'learning_rate': 0.02411080190620799, 'max_depth': 11, 'min_child_weight': 8, 'n_estimators': 500, 'subsample': 0.7323893883969815}), OrderedDict({'colsample_bytree': 0.8411518755992562, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 4, 'n_estimators': 353, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8494021010639297, 'gamma': 1.3386450883830534, 'learning_rate': 0.06016057135041105, 'max_depth': 9, 'min_child_weight': 4, 'n_estimators': 290, 'subsample': 0.7638808134584177}), OrderedDict({'colsample_bytree': 0.9466723782262736, 'gamma': 0.0, 'learning_rate': 0.07692160991203272, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7578086111637599, 'gamma': 0.0, 'learning_rate': 0.11549928893915654, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 62, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7059918840200516, 'gamma': 0.0, 'learning_rate': 0.1487410929969557, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 109, 'subsample': 0.5348434254000191}), OrderedDict({'colsample_bytree': 0.7819317302770765, 'gamma': 5.0, 'learning_rate': 0.2532952380893006, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 238, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7732039207770333}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 269, 'subsample': 0.7768253330237963}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.5233049244436545, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.7941773005578429, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8206957947925504}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.9705648536988409, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 279, 'subsample': 0.6422210208491028}), OrderedDict({'colsample_bytree': 0.5234778559074876, 'gamma': 2.237112465779305, 'learning_rate': 0.062187087364294825, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 437, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 2.2677705954916636, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5706433759654004, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.16034179132783744, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 490, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6540365520673324, 'gamma': 2.026568681091325, 'learning_rate': 0.02651260088249624, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 101, 'subsample': 0.8462145147638241}), OrderedDict({'colsample_bytree': 0.6850941604489329, 'gamma': 0.7165221219952934, 'learning_rate': 0.10639629161713966, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 269, 'subsample': 0.9463425404947364}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 10, 'n_estimators': 279, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.628626675969054, 'learning_rate': 0.01, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.706746642457414, 'learning_rate': 0.09184067993602314, 'max_depth': 9, 'min_child_weight': 5, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.7641678424450405, 'learning_rate': 0.01, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.7531403650037776, 'learning_rate': 0.08425915274633805, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 388, 'subsample': 0.8419367479720639}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.04379288964504136, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.013184045622411883, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.16925929194043457, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7105944029964264, 'gamma': 0.12609286452826493, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5541544435629538}), OrderedDict({'colsample_bytree': 0.55606619849922, 'gamma': 5.0, 'learning_rate': 0.026310226620502693, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 237, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.051049027523192576, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 426, 'subsample': 1.0})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.669262144054463, 'gamma': 3.6315928292477633, 'learning_rate': 0.0820655131532383, 'max_depth': 9, 'min_child_weight': 7, 'n_estimators': 185, 'subsample': 0.5826386604642857}), OrderedDict({'colsample_bytree': 0.5576977778286069, 'gamma': 4.82226585487866, 'learning_rate': 0.26980703005440676, 'max_depth': 11, 'min_child_weight': 5, 'n_estimators': 471, 'subsample': 0.5868810528786853}), OrderedDict({'colsample_bytree': 0.6090989246894675, 'gamma': 4.725637084425973, 'learning_rate': 0.03027297881296512, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 465, 'subsample': 0.6856941591839911}), OrderedDict({'colsample_bytree': 0.836673522229095, 'gamma': 0.5964797244972498, 'learning_rate': 0.03148764688825086, 'max_depth': 3, 'min_child_weight': 9, 'n_estimators': 358, 'subsample': 0.8882811634503344}), OrderedDict({'colsample_bytree': 0.9927882658187694, 'gamma': 3.3943960441302625, 'learning_rate': 0.12587321500179544, 'max_depth': 14, 'min_child_weight': 2, 'n_estimators': 369, 'subsample': 0.7365767575660995}), OrderedDict({'colsample_bytree': 0.8398600347936617, 'gamma': 2.2593453756674418, 'learning_rate': 0.026312945800842102, 'max_depth': 11, 'min_child_weight': 4, 'n_estimators': 215, 'subsample': 0.6586968238217095}), OrderedDict({'colsample_bytree': 0.9903887393127945, 'gamma': 4.280010846356493, 'learning_rate': 0.022319535839661217, 'max_depth': 6, 'min_child_weight': 8, 'n_estimators': 109, 'subsample': 0.819113218020159}), OrderedDict({'colsample_bytree': 0.6732402463438929, 'gamma': 1.9111309492496127, 'learning_rate': 0.0279333838690265, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 349, 'subsample': 0.8689208907179478}), OrderedDict({'colsample_bytree': 0.5580353408783368, 'gamma': 2.7932051461466703, 'learning_rate': 0.061203971143895274, 'max_depth': 13, 'min_child_weight': 6, 'n_estimators': 195, 'subsample': 0.8081650326014171}), OrderedDict({'colsample_bytree': 0.7623399432376317, 'gamma': 0.9567324312377021, 'learning_rate': 0.02866598162621592, 'max_depth': 3, 'min_child_weight': 4, 'n_estimators': 103, 'subsample': 0.9605629559643172}), OrderedDict({'colsample_bytree': 0.6965216021312313, 'gamma': 1.6427339865301416, 'learning_rate': 0.012967449997373941, 'max_depth': 11, 'min_child_weight': 10, 'n_estimators': 120, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5038782268000357, 'gamma': 4.259349577223355, 'learning_rate': 0.16080000621408666, 'max_depth': 12, 'min_child_weight': 9, 'n_estimators': 81, 'subsample': 0.5450651595662703}), OrderedDict({'colsample_bytree': 0.7914807888591988, 'gamma': 0.03196341030190167, 'learning_rate': 0.029793959738635523, 'max_depth': 14, 'min_child_weight': 2, 'n_estimators': 363, 'subsample': 0.7296844096422831}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 127, 'subsample': 0.762512723760882}), OrderedDict({'colsample_bytree': 0.8348673225466052, 'gamma': 0.0, 'learning_rate': 0.13147929458205102, 'max_depth': 7, 'min_child_weight': 4, 'n_estimators': 292, 'subsample': 0.9794042920099943}), OrderedDict({'colsample_bytree': 0.6838452901107221, 'gamma': 0.0, 'learning_rate': 0.010223762920687239, 'max_depth': 11, 'min_child_weight': 4, 'n_estimators': 489, 'subsample': 0.7389251276290412}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.07922130889828963, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 273, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8695186826028236, 'gamma': 0.0, 'learning_rate': 0.18874498923112423, 'max_depth': 13, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.9471697883137482}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 468, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6352468410813182, 'gamma': 0.2563005583117013, 'learning_rate': 0.01, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 359, 'subsample': 0.8334451839267363}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.572659432906605, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 86, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7307129864216775, 'gamma': 2.1206476968622825, 'learning_rate': 0.0947769453973441, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.984338094959743}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.8350903124409459, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 6, 'n_estimators': 403, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.0333529829436405, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 213, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.1345722192710065, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 2, 'n_estimators': 329, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.007728561788815585, 'learning_rate': 0.025687068818825914, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 325, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 387, 'subsample': 0.6380928833220401}), OrderedDict({'colsample_bytree': 0.9123118042364656, 'gamma': 0.0, 'learning_rate': 0.03547642033650389, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 210, 'subsample': 0.6244984437373161}), OrderedDict({'colsample_bytree': 0.7333193287402705, 'gamma': 0.2828998100095463, 'learning_rate': 0.010550773894679778, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 108, 'subsample': 0.9982818654536889}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.2868359729356371, 'learning_rate': 0.019721036763933022, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.594838193702541}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.15503049638277308, 'learning_rate': 0.05976691517447892, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 460, 'subsample': 0.7250958015925438}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 2.456187935744738, 'learning_rate': 0.03202702720493163, 'max_depth': 11, 'min_child_weight': 8, 'n_estimators': 194, 'subsample': 0.8763599491954732}), OrderedDict({'colsample_bytree': 0.7314712330246524, 'gamma': 0.0, 'learning_rate': 0.06082157429873842, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 296, 'subsample': 0.9065828725032556}), OrderedDict({'colsample_bytree': 0.8583354341455179, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 483, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5337714605387163, 'gamma': 0.43243738289889005, 'learning_rate': 0.014432426071423367, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 435, 'subsample': 0.6373888450647823}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.07359109200355277, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 274, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.2666345858560847, 'learning_rate': 0.025978426965768974, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8973229187879577, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8791027225209276, 'gamma': 0.0, 'learning_rate': 0.01358941707749738, 'max_depth': 8, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8945345526097627, 'gamma': 0.0, 'learning_rate': 0.013475632929177039, 'max_depth': 1, 'min_child_weight': 2, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7580002447973515, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7368120445066377}), OrderedDict({'colsample_bytree': 0.7861912367949095, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 403, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.5819978994759639, 'learning_rate': 0.11508320667451553, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 0.5384970107717103}), OrderedDict({'colsample_bytree': 0.6926631086605465, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 435, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.5497299147534775, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 8, 'n_estimators': 500, 'subsample': 0.9913221421435462}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.3027134321034124, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5845098805481235}), OrderedDict({'colsample_bytree': 0.7832639469389536, 'gamma': 0.0, 'learning_rate': 0.2724985486042503, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 79, 'subsample': 0.9290379831034605}), OrderedDict({'colsample_bytree': 0.821332975804201, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 7, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 362, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7316692067826918, 'gamma': 0.0, 'learning_rate': 0.13219715902464976, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 0.6264328829308838})]</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8705882352941177</v>
+        <v>0.9058823529411765</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4980,27 +4980,27 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[1.0, 1.0, 1.0, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 1.0, 1.0, 0.8717948717948718, 1.0, 1.0, 1.0, 1.0, 1.0, 0.923076923076923, 0.9487179487179488, 0.9743589743589745, 1.0, 1.0, 1.0, 0.8974358974358975, 1.0, 1.0, 0.8461538461538461, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.8717948717948719, 0.8974358974358975, 1.0, 1.0, 0.8461538461538461, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.8461538461538461, 0.8461538461538461]</t>
+          <t>[0.923076923076923, 0.8717948717948719, 0.923076923076923, 1.0, 0.9743589743589745, 1.0, 0.8717948717948718, 1.0, 0.9743589743589745, 1.0, 0.8205128205128206, 0.8974358974358975, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 0.794871794871795, 0.8974358974358975, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.8974358974358975, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9487179487179488, 0.9743589743589745, 1.0, 1.0, 0.9487179487179488, 1.0, 0.923076923076923, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0]</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[1.0, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9487179487179488, 0.9487179487179488, 1.0, 1.0, 0.9487179487179488, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 0.923076923076923, 1.0, 0.9743589743589745, 1.0, 0.9743589743589745, 0.923076923076923, 1.0, 1.0, 0.923076923076923, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 1.0, 0.923076923076923, 0.9743589743589745, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 0.8974358974358975]</t>
+          <t>[0.9743589743589745, 0.9743589743589745, 0.9487179487179488, 1.0, 0.9743589743589745, 1.0, 0.9487179487179488, 0.9743589743589745, 0.9487179487179488, 0.9487179487179488, 0.8974358974358975, 0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9487179487179488, 1.0, 0.8461538461538461, 0.9743589743589745, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 0.9487179487179488, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 1.0, 0.9743589743589745, 0.9743589743589745, 1.0]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>[0.9743589743589745, 1.0, 1.0, 0.9209401709401709, 0.9487179487179488, 0.9209401709401709, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 1.0, 0.9465811965811967, 1.0, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9465811965811967, 0.9487179487179488, 1.0, 0.9743589743589745, 1.0, 1.0, 0.923076923076923, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9209401709401709, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9465811965811967, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 1.0, 1.0, 0.9209401709401709, 0.9743589743589745]</t>
+          <t>[0.9722222222222222, 0.9465811965811967, 1.0, 0.9465811965811967, 0.9487179487179488, 1.0, 1.0, 1.0, 1.0, 0.9487179487179488, 0.8696581196581197, 0.9722222222222222, 1.0, 1.0, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9465811965811967, 1.0, 0.9743589743589745, 0.9465811965811967, 0.9743589743589745, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9743589743589745, 1.0, 0.9743589743589745, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9743589743589745, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9487179487179488, 1.0, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9465811965811967, 1.0]</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9166666666666666, 1.0, 1.0, 0.9166666666666666, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9465811965811967, 1.0, 0.9722222222222222, 1.0, 1.0, 0.8397435897435898, 1.0, 1.0, 0.8397435897435898, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 0.8910256410256411, 0.9444444444444445, 1.0, 1.0, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9444444444444445, 0.8910256410256411]</t>
+          <t>[0.9166666666666666, 0.9188034188034188, 0.9166666666666666, 0.9722222222222222, 0.9166666666666666, 1.0, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9444444444444445, 0.9166666666666666, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9465811965811967, 0.9722222222222222, 1.0, 0.7863247863247863, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9444444444444445, 1.0, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>[0.9209401709401709, 0.9487179487179488, 0.9209401709401709, 0.8418803418803419, 0.8675213675213675, 0.8931623931623932, 0.8418803418803419, 0.9487179487179488, 0.9209401709401709, 0.8696581196581197, 0.9487179487179488, 0.9743589743589745, 0.9209401709401709, 0.9209401709401709, 0.9209401709401709, 0.8418803418803419, 0.9209401709401709, 0.8696581196581197, 0.9209401709401709, 0.8952991452991453, 0.9209401709401709, 0.8418803418803419, 0.9209401709401709, 0.9487179487179488, 0.8162393162393163, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9743589743589745, 0.9743589743589745, 0.9209401709401709, 0.7884615384615384, 0.8418803418803419, 0.9743589743589745, 0.923076923076923, 0.7905982905982908, 0.8418803418803419, 0.8952991452991453, 0.9743589743589745, 0.9209401709401709, 0.9465811965811967, 0.9209401709401709, 0.9209401709401709, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9487179487179488, 0.9188034188034188, 0.8162393162393163, 0.8418803418803419]</t>
+          <t>[0.8418803418803419, 0.8162393162393163, 0.8418803418803419, 0.8952991452991453, 0.8418803418803419, 0.8696581196581197, 0.8418803418803419, 0.8418803418803419, 0.8696581196581197, 0.8696581196581197, 0.7905982905982908, 0.8162393162393163, 0.9487179487179488, 0.8952991452991453, 0.8952991452991453, 0.9209401709401709, 0.9487179487179488, 0.923076923076923, 0.8952991452991453, 0.9743589743589745, 0.8418803418803419, 0.8418803418803419, 0.8952991452991453, 0.8418803418803419, 0.8162393162393163, 0.9209401709401709, 0.9487179487179488, 0.9209401709401709, 0.8952991452991453, 0.9487179487179488, 0.9487179487179488, 0.844017094017094, 0.8952991452991453, 0.923076923076923, 0.9209401709401709, 0.8952991452991453, 0.9487179487179488, 0.9487179487179488, 0.8418803418803419, 0.8675213675213675, 0.8952991452991453, 0.8696581196581197, 0.8675213675213675, 0.8696581196581197, 0.9209401709401709, 0.8952991452991453, 0.8952991452991453, 0.8696581196581197, 0.923076923076923, 0.9487179487179488]</t>
         </is>
       </c>
     </row>
@@ -5112,52 +5112,52 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.501427316644708</v>
+        <v>0.5462231005709267</v>
       </c>
       <c r="E51" t="n">
-        <v>0.553555032599051</v>
+        <v>0.6016778252803098</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5460710786797743</v>
+        <v>0.6005016722408026</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[[2, 8, 1], [3, 17, 3], [4, 1, 7]]</t>
+          <t>[[3, 7, 1], [3, 18, 2], [4, 1, 7]]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 141})</t>
+          <t>OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300})</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[0.6703703703703703, 0.6851851851851852, 0.6930283224400872, 0.7002178649237474, 0.7080610021786493, 0.6969498910675381, 0.7302832244008715, 0.6891067538126362, 0.6967320261437908, 0.6854030501089324, 0.6971677559912854, 0.7331154684095861, 0.6777777777777778, 0.6294117647058824, 0.69760348583878, 0.7379084967320261, 0.7230936819172112, 0.6932461873638345, 0.6893246187363834, 0.6962962962962962, 0.7453159041394335, 0.6596949891067538, 0.7407407407407407, 0.7002178649237473, 0.7413943355119826, 0.6786492374727668, 0.6745098039215686, 0.6995642701525053, 0.7337690631808279, 0.7111111111111111, 0.7296296296296296, 0.7413943355119826, 0.7376906318082789, 0.7450980392156863, 0.7302832244008715, 0.7490196078431373, 0.74880174291939, 0.7115468409586057, 0.7115468409586058, 0.7004357298474946, 0.7374727668845316, 0.7413943355119825, 0.7222222222222222, 0.7300653594771241, 0.7339869281045751, 0.7150326797385621, 0.6782135076252722, 0.7222222222222222, 0.7189542483660131, 0.7374727668845316]</t>
+          <t>[0.7117647058823529, 0.6812636165577343, 0.7154684095860567, 0.7152505446623094, 0.7119825708061003, 0.6784313725490196, 0.7045751633986927, 0.722875816993464, 0.6923747276688453, 0.6923747276688454, 0.7233115468409587, 0.6261437908496733, 0.6782135076252722, 0.7119825708061003, 0.6671023965141613, 0.6374727668845315, 0.6854030501089324, 0.6483660130718955, 0.7407407407407407, 0.678649237472767, 0.7450980392156863, 0.7376906318082789, 0.7374727668845316, 0.6995642701525053, 0.696078431372549, 0.7071895424836603, 0.7333333333333333, 0.7185185185185186, 0.7333333333333333, 0.6847494553376906, 0.7191721132897604, 0.7337690631808279, 0.6784313725490195, 0.6823529411764706, 0.6965141612200436, 0.6782135076252722, 0.6481481481481481, 0.722875816993464, 0.6557734204793028, 0.6775599128540306, 0.7196078431372549, 0.6823529411764706, 0.6782135076252722, 0.707843137254902, 0.6823529411764706, 0.707843137254902, 0.6823529411764706, 0.6782135076252722, 0.6823529411764706, 0.707843137254902]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[0.04572361420233388, 0.043719796245249215, 0.057840572874567744, 0.05354958507508864, 0.06776614821348931, 0.051109643798576264, 0.04346173160927199, 0.050891865860053, 0.051559012701144415, 0.048336562899846294, 0.05444879895335565, 0.03238794934056314, 0.033719128165416515, 0.06103096115254484, 0.0829450420951367, 0.02800729647324417, 0.06884462645472596, 0.06177767267146194, 0.059415243891663666, 0.03704600685948279, 0.05854610607638358, 0.06474144984627393, 0.02812905319665255, 0.05590857127230966, 0.04252330422224266, 0.0635292025662179, 0.06580242064655277, 0.048272692557188766, 0.03049019413251379, 0.0614572197280579, 0.017021372535620548, 0.03548992190727187, 0.04432574177862611, 0.03750188866887131, 0.06019777764340398, 0.06766310735506292, 0.05479465253984622, 0.06887219904787933, 0.0638734479592186, 0.06385338078323682, 0.043605652242298044, 0.06527809021369063, 0.038930212447802745, 0.04259468203869258, 0.039435356667343074, 0.047545494457642765, 0.07491069261580659, 0.05008524589356274, 0.04195243538792475, 0.03970883343137007]</t>
+          <t>[0.06421141291233562, 0.03656368021320184, 0.044111056825082734, 0.044380320266705825, 0.051852767242610974, 0.07080241317700503, 0.061348998538712556, 0.041757380568927055, 0.031845562653803464, 0.04094817463244291, 0.07030322514784243, 0.047424545153031086, 0.07491069261580659, 0.06195030384874661, 0.07593647460659414, 0.07090290014651839, 0.04662207561041044, 0.06333989442247161, 0.02812905319665255, 0.06694872481006617, 0.037501888668871344, 0.04432574177862611, 0.043605652242298044, 0.048272692557188766, 0.04595349182840847, 0.03978883988293969, 0.047454561324195656, 0.03798979587641877, 0.0310210887016876, 0.03890338000394157, 0.03388762656539471, 0.03049019413251379, 0.06359043842591004, 0.05293086498646117, 0.05183445635594547, 0.07491069261580659, 0.06301156803476934, 0.04732034168274795, 0.054107752771330335, 0.04508277556311937, 0.07269836179848856, 0.05293086498646117, 0.07491069261580659, 0.06828388601413747, 0.05293086498646117, 0.06828388601413747, 0.05293086498646117, 0.07491069261580659, 0.05293086498646117, 0.06828388601413747]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>[48, 43, 39, 30, 28, 35, 16, 41, 36, 42, 34, 15, 46, 50, 33, 9, 20, 38, 40, 37, 3, 49, 8, 31, 5, 44, 47, 32, 14, 27, 19, 5, 10, 4, 16, 1, 2, 26, 25, 29, 11, 7, 21, 18, 13, 24, 45, 21, 23, 11]</t>
+          <t>[18, 36, 14, 15, 16, 38, 23, 9, 28, 27, 8, 50, 40, 16, 45, 49, 29, 47, 2, 37, 1, 3, 4, 24, 26, 22, 6, 13, 6, 30, 12, 5, 39, 31, 25, 40, 48, 9, 46, 44, 11, 31, 40, 19, 31, 19, 31, 40, 31, 19]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 7, 'min_samples_split': 18, 'n_estimators': 129}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 6, 'min_samples_split': 8, 'n_estimators': 139}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 9, 'min_samples_split': 15, 'n_estimators': 156}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 6, 'min_samples_split': 7, 'n_estimators': 285}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 7, 'min_samples_split': 7, 'n_estimators': 276}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 8, 'min_samples_split': 18, 'n_estimators': 166}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 2, 'min_samples_split': 6, 'n_estimators': 251}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 14, 'n_estimators': 177}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 9, 'min_samples_split': 3, 'n_estimators': 293}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 6, 'min_samples_split': 8, 'n_estimators': 180}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 8, 'min_samples_split': 20, 'n_estimators': 236}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 235}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 14, 'n_estimators': 68}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 19, 'n_estimators': 59}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 4, 'n_estimators': 81}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 6, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 220}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 18, 'n_estimators': 93}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 209}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 181}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 172}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 176}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 141}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 175}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 17, 'n_estimators': 263}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 5, 'min_samples_split': 15, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 139}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 94}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 93})]</t>
+          <t>[OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 5, 'min_samples_split': 18, 'n_estimators': 268}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 7, 'min_samples_split': 8, 'n_estimators': 268}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 10, 'n_estimators': 228}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 9, 'n_estimators': 250}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 4, 'min_samples_split': 11, 'n_estimators': 222}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 76}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 8, 'min_samples_split': 17, 'n_estimators': 174}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 3, 'min_samples_split': 3, 'n_estimators': 98}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 4, 'min_samples_split': 15, 'n_estimators': 246}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 7, 'min_samples_split': 16, 'n_estimators': 197}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 241}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 9, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 98}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 5, 'n_estimators': 91}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 10, 'min_samples_split': 4, 'n_estimators': 267}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 7, 'n_estimators': 102}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 299}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 247}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 6, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 18, 'n_estimators': 256}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 157}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 230}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 8, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 6, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 10, 'min_samples_split': 6, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 10, 'min_samples_split': 6, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 8, 'min_samples_split': 5, 'n_estimators': 300})]</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="O51" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -5166,27 +5166,27 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>[0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.7037037037037037, 0.7037037037037037, 0.7407407407407408, 0.6851851851851852, 0.7037037037037037, 0.7037037037037037, 0.7222222222222222, 0.7777777777777777, 0.6851851851851852, 0.6481481481481483, 0.7407407407407408, 0.7592592592592592, 0.7592592592592592, 0.6851851851851851, 0.6666666666666666, 0.6851851851851851, 0.7407407407407408, 0.648148148148148, 0.7777777777777778, 0.7222222222222223, 0.7592592592592594, 0.6851851851851851, 0.6851851851851851, 0.7037037037037037, 0.7222222222222223, 0.7592592592592592, 0.7222222222222223, 0.7407407407407408, 0.7222222222222222, 0.7407407407407408, 0.7592592592592594, 0.7777777777777778, 0.7592592592592592, 0.7592592592592592, 0.7037037037037037, 0.7037037037037037, 0.7407407407407408, 0.7592592592592592, 0.7592592592592592, 0.7407407407407408, 0.7592592592592592, 0.7222222222222223, 0.6851851851851851, 0.7592592592592592, 0.7592592592592592, 0.7777777777777778]</t>
+          <t>[0.7037037037037037, 0.6851851851851851, 0.7222222222222223, 0.7407407407407408, 0.6851851851851851, 0.6666666666666666, 0.6851851851851851, 0.7222222222222223, 0.7037037037037037, 0.7037037037037037, 0.7592592592592594, 0.6666666666666666, 0.6851851851851851, 0.7407407407407408, 0.6851851851851851, 0.6851851851851851, 0.6666666666666666, 0.6851851851851851, 0.7777777777777778, 0.6666666666666666, 0.7407407407407408, 0.7222222222222222, 0.7407407407407408, 0.7037037037037037, 0.6851851851851851, 0.7222222222222223, 0.7592592592592592, 0.7407407407407408, 0.7777777777777778, 0.6851851851851851, 0.7222222222222222, 0.7222222222222223, 0.6851851851851851, 0.6666666666666666, 0.6666666666666666, 0.6851851851851851, 0.648148148148148, 0.7962962962962963, 0.6296296296296297, 0.6481481481481483, 0.7037037037037037, 0.6666666666666666, 0.6851851851851851, 0.6851851851851851, 0.6666666666666666, 0.6851851851851851, 0.6666666666666666, 0.6851851851851851, 0.6666666666666666, 0.6851851851851851]</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.5925925925925926, 0.6111111111111112, 0.5925925925925926, 0.6111111111111112, 0.5925925925925926, 0.6111111111111112, 0.648148148148148, 0.5925925925925926, 0.6111111111111112, 0.5925925925925926, 0.5925925925925926, 0.6851851851851852, 0.6111111111111112, 0.5370370370370371, 0.5370370370370371, 0.6851851851851851, 0.5925925925925926, 0.5925925925925926, 0.5925925925925926, 0.648148148148148, 0.648148148148148, 0.5555555555555556, 0.7037037037037037, 0.5925925925925926, 0.6666666666666666, 0.5740740740740741, 0.5555555555555556, 0.6111111111111112, 0.6851851851851851, 0.5925925925925926, 0.7037037037037037, 0.6851851851851852, 0.6666666666666666, 0.6851851851851852, 0.6296296296296297, 0.6296296296296297, 0.648148148148148, 0.5925925925925926, 0.5925925925925926, 0.5925925925925926, 0.7037037037037037, 0.6296296296296297, 0.6851851851851852, 0.6851851851851852, 0.6666666666666666, 0.6296296296296297, 0.5555555555555555, 0.6296296296296297, 0.648148148148148, 0.6851851851851851]</t>
+          <t>[0.5925925925925926, 0.6111111111111112, 0.6296296296296297, 0.6296296296296297, 0.6296296296296297, 0.5740740740740741, 0.5925925925925926, 0.648148148148148, 0.6296296296296297, 0.6111111111111112, 0.5925925925925926, 0.5370370370370371, 0.5555555555555555, 0.6296296296296297, 0.5370370370370371, 0.5, 0.6111111111111112, 0.5370370370370371, 0.7037037037037037, 0.5740740740740741, 0.6851851851851851, 0.6666666666666666, 0.7037037037037037, 0.6111111111111112, 0.6111111111111112, 0.6296296296296297, 0.6481481481481483, 0.648148148148148, 0.7037037037037037, 0.6111111111111112, 0.6666666666666666, 0.6851851851851851, 0.5555555555555555, 0.5925925925925926, 0.6111111111111112, 0.5555555555555555, 0.5370370370370371, 0.648148148148148, 0.5925925925925926, 0.6111111111111112, 0.5925925925925926, 0.5925925925925926, 0.5555555555555555, 0.5925925925925926, 0.5925925925925926, 0.5925925925925926, 0.5925925925925926, 0.5555555555555555, 0.5925925925925926, 0.5925925925925926]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>[0.6830065359477123, 0.7189542483660131, 0.7200435729847494, 0.7374727668845317, 0.7570806100217865, 0.7396514161220044, 0.7766884531590413, 0.7189542483660132, 0.7015250544662309, 0.7015250544662309, 0.7396514161220044, 0.75599128540305, 0.7004357298474945, 0.6830065359477123, 0.721132897603486, 0.7581699346405228, 0.7745098039215685, 0.7766884531590413, 0.7004357298474945, 0.75599128540305, 0.8322440087145969, 0.7200435729847494, 0.7570806100217865, 0.75599128540305, 0.7952069716775599, 0.681917211328976, 0.7570806100217865, 0.699346405228758, 0.7755991285403049, 0.7374727668845317, 0.75599128540305, 0.7952069716775599, 0.7952069716775599, 0.7952069716775599, 0.8137254901960785, 0.8322440087145969, 0.8137254901960785, 0.79520697167756, 0.7570806100217865, 0.7189542483660132, 0.7941176470588235, 0.8322440087145969, 0.7178649237472766, 0.7755991285403049, 0.7581699346405228, 0.7755991285403049, 0.6830065359477123, 0.7189542483660131, 0.75599128540305, 0.7755991285403051]</t>
+          <t>[0.7766884531590413, 0.6993464052287582, 0.738562091503268, 0.738562091503268, 0.7766884531590413, 0.7004357298474945, 0.738562091503268, 0.7766884531590413, 0.7004357298474945, 0.7189542483660132, 0.79520697167756, 0.6459694989106753, 0.6830065359477123, 0.7015250544662309, 0.7581699346405228, 0.6840958605664488, 0.7004357298474945, 0.7026143790849674, 0.7570806100217865, 0.7200435729847494, 0.7952069716775599, 0.7952069716775599, 0.7941176470588235, 0.699346405228758, 0.7178649237472766, 0.7374727668845317, 0.7374727668845317, 0.7570806100217865, 0.738562091503268, 0.7189542483660132, 0.7200435729847494, 0.7755991285403049, 0.7015250544662309, 0.7026143790849672, 0.7374727668845317, 0.6830065359477123, 0.7015250544662309, 0.7189542483660131, 0.7015250544662309, 0.7374727668845317, 0.7570806100217865, 0.7026143790849672, 0.6830065359477123, 0.7570806100217865, 0.7026143790849672, 0.7570806100217865, 0.7026143790849672, 0.6830065359477123, 0.7026143790849672, 0.7570806100217865]</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[0.7352941176470589, 0.7352941176470589, 0.7538126361655774, 0.7538126361655774, 0.7919389978213508, 0.7549019607843137, 0.7352941176470589, 0.7352941176470589, 0.7734204793028323, 0.7342047930283225, 0.7352941176470589, 0.7342047930283225, 0.6971677559912854, 0.6971677559912854, 0.7745098039215687, 0.7538126361655774, 0.7745098039215685, 0.7342047930283225, 0.7734204793028323, 0.7167755991285403, 0.7549019607843137, 0.7363834422657951, 0.7527233115468409, 0.7167755991285403, 0.7538126361655774, 0.7745098039215685, 0.6982570806100218, 0.7527233115468409, 0.7538126361655774, 0.7538126361655774, 0.7342047930283225, 0.7538126361655774, 0.7723311546840957, 0.7723311546840957, 0.7167755991285403, 0.7734204793028322, 0.7723311546840957, 0.7156862745098039, 0.772331154684096, 0.7919389978213508, 0.7734204793028323, 0.7538126361655774, 0.7734204793028323, 0.7734204793028323, 0.7734204793028322, 0.7156862745098039, 0.7919389978213508, 0.772331154684096, 0.7352941176470589, 0.7538126361655774]</t>
+          <t>[0.7527233115468409, 0.7167755991285403, 0.7538126361655774, 0.7156862745098039, 0.7538126361655774, 0.7930283224400871, 0.7549019607843137, 0.7352941176470589, 0.7145969498910675, 0.7156862745098039, 0.75599128540305, 0.6612200435729848, 0.7919389978213508, 0.8126361655773421, 0.7167755991285403, 0.6797385620915032, 0.7538126361655774, 0.6982570806100218, 0.7527233115468409, 0.7745098039215685, 0.7723311546840957, 0.7723311546840957, 0.7734204793028323, 0.7527233115468409, 0.7342047930283225, 0.7342047930283225, 0.7908496732026143, 0.7342047930283225, 0.7527233115468409, 0.7145969498910675, 0.7734204793028322, 0.7538126361655774, 0.7352941176470589, 0.7538126361655774, 0.7538126361655774, 0.7919389978213508, 0.7156862745098039, 0.7352941176470589, 0.7363834422657952, 0.6775599128540305, 0.8115468409586057, 0.7538126361655774, 0.7919389978213508, 0.7919389978213508, 0.7538126361655774, 0.7919389978213508, 0.7538126361655774, 0.7919389978213508, 0.7538126361655774, 0.7919389978213508]</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>[0.6742919389978214, 0.6938997821350763, 0.7320261437908496, 0.7320261437908497, 0.6949891067538126, 0.6753812636165577, 0.7505446623093682, 0.7135076252723311, 0.6938997821350763, 0.6949891067538126, 0.6960784313725491, 0.7124183006535948, 0.6949891067538125, 0.5816993464052288, 0.7145969498910675, 0.7331154684095861, 0.7145969498910675, 0.6775599128540305, 0.7135076252723311, 0.6753812636165577, 0.7505446623093682, 0.6383442265795207, 0.7124183006535948, 0.7135076252723311, 0.7320261437908496, 0.6775599128540305, 0.676470588235294, 0.7309368191721132, 0.7320261437908496, 0.7124183006535948, 0.7320261437908496, 0.7320261437908496, 0.7320261437908496, 0.7320261437908496, 0.7320261437908496, 0.7320261437908496, 0.7505446623093682, 0.6949891067538126, 0.7320261437908496, 0.6949891067538126, 0.6753812636165577, 0.7320261437908496, 0.6753812636165577, 0.6753812636165577, 0.7124183006535948, 0.7320261437908496, 0.6753812636165577, 0.7309368191721132, 0.6960784313725491, 0.6949891067538126]</t>
+          <t>[0.7331154684095861, 0.6938997821350763, 0.7331154684095861, 0.7516339869281046, 0.7145969498910675, 0.6579520697167757, 0.7516339869281046, 0.7320261437908497, 0.7135076252723311, 0.7124183006535948, 0.7135076252723311, 0.6198257080610022, 0.6753812636165577, 0.6753812636165577, 0.6383442265795207, 0.6383442265795207, 0.6949891067538125, 0.6187363834422658, 0.7124183006535948, 0.6579520697167757, 0.7320261437908496, 0.7320261437908496, 0.6753812636165577, 0.7309368191721132, 0.7320261437908497, 0.7124183006535948, 0.7309368191721132, 0.7124183006535948, 0.6938997821350763, 0.6938997821350762, 0.7135076252723311, 0.7320261437908496, 0.7145969498910675, 0.6960784313725491, 0.7135076252723311, 0.6753812636165577, 0.6383442265795207, 0.7156862745098039, 0.6187363834422658, 0.7135076252723311, 0.7331154684095861, 0.6960784313725491, 0.6753812636165577, 0.7124183006535948, 0.6960784313725491, 0.7124183006535948, 0.6960784313725491, 0.6753812636165577, 0.6960784313725491, 0.7124183006535948]</t>
         </is>
       </c>
     </row>
@@ -5298,52 +5298,52 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.5727931488801054</v>
+        <v>0.6150636802810716</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5965424127457333</v>
+        <v>0.6378858981225212</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5907091097308489</v>
+        <v>0.6301759834368531</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[[3, 7, 1], [3, 16, 4], [2, 1, 9]]</t>
+          <t>[[3, 7, 1], [3, 17, 3], [2, 0, 10]]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008394611737210211, 'max_iter': 3000, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006881526929236978, 'max_iter': 500, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[0.46732026143790845, 0.35511982570806094, 0.6318082788671024, 0.5549019607843136, 0.6137254901960784, 0.46688453159041393, 0.34400871459694987, 0.5873638344226579, 0.5507625272331154, 0.35511982570806094, 0.6283224400871459, 0.6246187363834422, 0.48845315904139436, 0.6021786492374728, 0.603921568627451, 0.6374727668845316, 0.6152505446623093, 0.6145969498910675, 0.6394335511982571, 0.603267973856209, 0.6394335511982571, 0.6453159041394334, 0.5403050108932461, 0.5958605664488017, 0.6318082788671024, 0.5854030501089323, 0.6453159041394334, 0.6374727668845316, 0.6265795206971678, 0.5854030501089323, 0.644880174291939, 0.6374727668845317, 0.37734204793028325, 0.4, 0.4, 0.39259259259259266, 0.39259259259259266, 0.4525054466230937, 0.4111111111111111, 0.4342047930283225, 0.6283224400871459, 0.6827886710239651, 0.6827886710239651, 0.644880174291939, 0.6344226579520698, 0.6793028322440087, 0.6793028322440087, 0.6793028322440087, 0.6793028322440087, 0.6337690631808279]</t>
+          <t>[0.4305010893246187, 0.3514161220043573, 0.6357298474945534, 0.4854030501089325, 0.3627450980392157, 0.4148148148148148, 0.3784313725490196, 0.4379084967320261, 0.6318082788671024, 0.5583877995642701, 0.6241830065359476, 0.643355119825708, 0.5403050108932461, 0.5403050108932461, 0.3627450980392157, 0.629847494553377, 0.3326797385620915, 0.37734204793028325, 0.5854030501089323, 0.3437908496732026, 0.6093681917211329, 0.6145969498910675, 0.5403050108932461, 0.5958605664488017, 0.6383442265795206, 0.6265795206971678, 0.6298474945533769, 0.5958605664488017, 0.6525054466230937, 0.6383442265795206, 0.6344226579520698, 0.6233115468409586, 0.6374727668845317, 0.6283224400871459, 0.47581699346405226, 0.6061002178649237, 0.5799564270152505, 0.6320261437908495, 0.6374727668845317, 0.4673202614379085, 0.6, 0.5965141612200436, 0.629847494553377, 0.6335511982570806, 0.6076252723311548, 0.6335511982570805, 0.6335511982570805, 0.6335511982570805, 0.6335511982570805, 0.6076252723311548]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[0.07766815780082978, 0.04361109444540718, 0.10236869783956913, 0.11717528258160238, 0.054285539057037695, 0.12984201125998956, 0.07006110502046511, 0.07963074725990417, 0.10219838988760752, 0.05836178004445568, 0.07531133810176993, 0.07200295648919697, 0.15722784912887092, 0.07541525799152919, 0.10596525260956845, 0.050323496293663325, 0.04963496598134425, 0.11010135391582826, 0.08142728849204744, 0.10743502364967261, 0.08142728849204744, 0.08558126885106604, 0.1305427279802938, 0.06437530631925723, 0.10236869783956913, 0.0780327561071239, 0.08558126885106604, 0.050323496293663325, 0.04288343273313144, 0.0780327561071239, 0.04515115855351354, 0.03893265084387467, 0.06750860272545295, 0.07759295274330487, 0.08517766266257434, 0.08309654941340038, 0.08309654941340038, 0.0992340648322284, 0.09347040011758154, 0.11650498674125644, 0.07498922068657406, 0.07472290488317627, 0.07472290488317627, 0.06349557242398562, 0.0744913277045096, 0.07151347675918207, 0.07151347675918207, 0.07151347675918207, 0.07151347675918207, 0.06078158059152311]</t>
+          <t>[0.11634558095531948, 0.05903536455554785, 0.08552578881927114, 0.13655039305789976, 0.0508937311583423, 0.09139271254671014, 0.03298046095018085, 0.04588113221928689, 0.09419729543563916, 0.11222391192095633, 0.09787689297597389, 0.09015133661321058, 0.1305427279802938, 0.1305427279802938, 0.0508937311583423, 0.050675961983645636, 0.07008549012233989, 0.06750860272545295, 0.0780327561071239, 0.07834841897366707, 0.08498296040624685, 0.11010135391582826, 0.1305427279802938, 0.06437530631925723, 0.07561199842735634, 0.04288343273313144, 0.07191984796761838, 0.06437530631925723, 0.1039765912170372, 0.07561199842735634, 0.0744913277045096, 0.07580134063245965, 0.06482863586369425, 0.07498922068657406, 0.08794675650160909, 0.047744738906203114, 0.06398926842212542, 0.09191059871769089, 0.07083592467235308, 0.08481915465365161, 0.11495631914594696, 0.10477830668541449, 0.06823521064444515, 0.07144707365026363, 0.10409840487665771, 0.07688687442064548, 0.07688687442064548, 0.07688687442064548, 0.07688687442064548, 0.10517800099289645]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>[38, 48, 18, 34, 26, 39, 50, 31, 35, 48, 20, 23, 37, 29, 27, 14, 24, 25, 11, 28, 11, 7, 36, 30, 18, 32, 7, 14, 22, 32, 9, 13, 47, 43, 43, 45, 45, 40, 42, 41, 20, 1, 1, 9, 16, 3, 3, 3, 3, 17]</t>
+          <t>[42, 48, 7, 38, 46, 43, 44, 41, 15, 34, 21, 2, 35, 35, 46, 16, 50, 45, 32, 49, 24, 23, 35, 30, 3, 20, 18, 30, 1, 3, 8, 22, 5, 19, 39, 27, 33, 14, 5, 40, 28, 29, 16, 9, 25, 10, 10, 10, 10, 25]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'logistic', 'alpha': 0.0005886493986092625, 'learning_rate_init': 0.0015219948895074675, 'max_iter': 1089, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.03641969902986806, 'learning_rate_init': 0.0008308367227672931, 'max_iter': 2292, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0029264736428852, 'learning_rate_init': 0.0009072483152025532, 'max_iter': 2606, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00011121632791131522, 'learning_rate_init': 0.0006970709462221523, 'max_iter': 2139, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.010292242190731589, 'learning_rate_init': 0.004348557766739441, 'max_iter': 1404, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 3.3653400115242036e-05, 'learning_rate_init': 0.0004778923781735364, 'max_iter': 2838, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.011336970245281124, 'learning_rate_init': 0.00017965501097027558, 'max_iter': 2005, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 3.6080731395542517e-06, 'learning_rate_init': 0.005314210908604987, 'max_iter': 2551, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0006200753030308882, 'learning_rate_init': 0.0010056273086388023, 'max_iter': 2780, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0394287814468333, 'learning_rate_init': 0.00010918111342611203, 'max_iter': 911, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0008331873191300813, 'learning_rate_init': 0.0023150674744473994, 'max_iter': 654, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.010774267773616288, 'learning_rate_init': 0.0023607377057017795, 'max_iter': 844, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0024353567714612964, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.002967809024271536, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.5201734188399325e-05, 'learning_rate_init': 0.00333723932707412, 'max_iter': 1147, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.011759783390834524, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.035435957033833634, 'learning_rate_init': 0.005658734938859322, 'max_iter': 789, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.005560832580901664, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0009916674682216183, 'max_iter': 1439, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00478181018595249, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0011725665808134998, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.009622452924977725, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.000903586357569947, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.003173790658774381, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.7482211511430874e-05, 'learning_rate_init': 0.009741881016016848, 'max_iter': 1021, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.006950182599026623, 'max_iter': 1914, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 811, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.028368911858487323, 'learning_rate_init': 0.00019953305699225713, 'max_iter': 544, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0005161171751408046, 'learning_rate_init': 0.00013819404149736767, 'max_iter': 653, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0016491332342724236, 'learning_rate_init': 0.00015534120086531549, 'max_iter': 540, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00039944790752126786, 'max_iter': 2641, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0006210475730280919, 'max_iter': 1193, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.08083139702557496, 'learning_rate_init': 0.0004318314217427404, 'max_iter': 1465, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0007213077161008456, 'max_iter': 754, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0016860866386118015, 'max_iter': 2475, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008394611737210211, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008396945369630381, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.008205423197764228, 'max_iter': 2298, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008917949442276715, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008769524789645346, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008725774585011128, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008678318074512399, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008678557463800477, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.009282263813990006, 'max_iter': 3000, 'solver': 'adam'})]</t>
+          <t>[OrderedDict({'activation': 'relu', 'alpha': 0.0028770214061132676, 'learning_rate_init': 0.0005929841366032433, 'max_iter': 1757, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 7.820332675729576e-05, 'learning_rate_init': 0.00024168988864509835, 'max_iter': 2603, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.08906164946246412, 'learning_rate_init': 0.0016350472411035878, 'max_iter': 1327, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 2.0466022125195526e-05, 'learning_rate_init': 0.003586367700292714, 'max_iter': 2040, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 9.521574239715856e-06, 'learning_rate_init': 0.000699007109291994, 'max_iter': 2158, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.009148967033620533, 'learning_rate_init': 0.0005157428410467858, 'max_iter': 903, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00019767543337915588, 'learning_rate_init': 0.00012126626919624556, 'max_iter': 850, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.012511171826329642, 'learning_rate_init': 0.00023216317335686821, 'max_iter': 1625, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.09248786289626205, 'learning_rate_init': 0.0010831383289263237, 'max_iter': 2859, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.015488435891691e-06, 'learning_rate_init': 0.0007339466991190363, 'max_iter': 1053, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.07281807351002129, 'learning_rate_init': 0.0014910355669660678, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.007787347013220119, 'max_iter': 2324, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.07950707623536428, 'learning_rate_init': 0.01, 'max_iter': 2852, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.044617519071813265, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.05540113466833214, 'learning_rate_init': 0.0006109369687786543, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0007887896190505134, 'learning_rate_init': 0.008717898004269477, 'max_iter': 2827, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0010758255572876187, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0009116814857142398, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0009464000043185992, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0005989609879995112, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0020942713831718822, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0055986974187470055, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2809, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0035671606528287466, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006881526929236978, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 7.2559604433361605e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008953262018182407, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008797176192458211, 'max_iter': 703, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.008780107303266584, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 3.9161235628546454e-06, 'learning_rate_init': 0.0016871986937951162, 'max_iter': 2204, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.001707400872928292, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0017059860548708507, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0010707153472807437, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.001585476520288234, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.00850979491435351, 'max_iter': 2059, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0010529237515957642, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00010106572842367481, 'learning_rate_init': 0.00272795569222802, 'max_iter': 811, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.003681615989366617, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0035402697790229013, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0034693385909889984, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0035425081150190253, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.003350195333404519, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.003312651125537234, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.003287830706811949, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0033412963457954154, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0034154351733635666, 'max_iter': 500, 'solver': 'adam'})]</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O53" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5352,27 +5352,27 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[0.3888888888888889, 0.3703703703703704, 0.7222222222222222, 0.38888888888888884, 0.6296296296296297, 0.38888888888888884, 0.29629629629629634, 0.6111111111111112, 0.40740740740740744, 0.35185185185185186, 0.6666666666666666, 0.6666666666666666, 0.3333333333333333, 0.6296296296296297, 0.6296296296296297, 0.5925925925925926, 0.5740740740740741, 0.6296296296296297, 0.7222222222222222, 0.6296296296296297, 0.7222222222222222, 0.6666666666666666, 0.35185185185185186, 0.6296296296296297, 0.7222222222222222, 0.6111111111111112, 0.6666666666666666, 0.5925925925925926, 0.5740740740740741, 0.6111111111111112, 0.6111111111111112, 0.6111111111111112, 0.3333333333333333, 0.35185185185185186, 0.3333333333333333, 0.3333333333333333, 0.3333333333333333, 0.3333333333333333, 0.35185185185185186, 0.3333333333333333, 0.6851851851851851, 0.7592592592592592, 0.7592592592592592, 0.6481481481481483, 0.6296296296296297, 0.7592592592592592, 0.7592592592592592, 0.7592592592592592, 0.7592592592592592, 0.6111111111111112]</t>
+          <t>[0.3333333333333333, 0.3333333333333333, 0.7222222222222222, 0.3703703703703704, 0.3703703703703704, 0.3703703703703704, 0.3703703703703704, 0.4259259259259259, 0.7222222222222222, 0.40740740740740744, 0.7222222222222222, 0.7592592592592592, 0.35185185185185186, 0.35185185185185186, 0.3703703703703704, 0.5740740740740741, 0.3148148148148148, 0.3333333333333333, 0.6111111111111112, 0.29629629629629634, 0.6666666666666666, 0.6296296296296297, 0.35185185185185186, 0.6296296296296297, 0.6666666666666666, 0.5740740740740741, 0.6296296296296297, 0.6296296296296297, 0.7592592592592592, 0.6666666666666666, 0.6296296296296297, 0.6296296296296297, 0.6111111111111112, 0.6851851851851851, 0.3333333333333333, 0.5925925925925926, 0.5925925925925926, 0.6851851851851851, 0.5925925925925926, 0.40740740740740744, 0.6296296296296297, 0.6296296296296297, 0.6481481481481481, 0.6481481481481481, 0.6481481481481483, 0.6481481481481481, 0.6481481481481481, 0.6481481481481481, 0.6481481481481481, 0.6296296296296297]</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.5925925925925926, 0.4074074074074074, 0.5925925925925926, 0.5555555555555555, 0.5555555555555555, 0.5555555555555555, 0.46296296296296297, 0.5555555555555555, 0.5555555555555555, 0.4444444444444445, 0.5740740740740741, 0.5740740740740741, 0.5185185185185185, 0.5740740740740741, 0.5740740740740741, 0.5925925925925926, 0.5740740740740741, 0.5740740740740741, 0.5925925925925926, 0.5740740740740741, 0.5925925925925926, 0.5555555555555555, 0.5740740740740741, 0.48148148148148145, 0.5925925925925926, 0.5555555555555555, 0.5555555555555555, 0.5925925925925926, 0.6111111111111112, 0.5555555555555555, 0.5925925925925926, 0.5925925925925926, 0.5, 0.5, 0.5185185185185185, 0.5370370370370371, 0.5370370370370371, 0.6111111111111112, 0.5555555555555555, 0.6111111111111112, 0.5740740740740741, 0.5555555555555555, 0.5555555555555555, 0.5370370370370371, 0.5740740740740741, 0.5555555555555555, 0.5555555555555555, 0.5555555555555555, 0.5555555555555555, 0.5370370370370371]</t>
+          <t>[0.6111111111111112, 0.4444444444444445, 0.5925925925925926, 0.5740740740740741, 0.4259259259259259, 0.5555555555555555, 0.40740740740740744, 0.4259259259259259, 0.5925925925925926, 0.5555555555555555, 0.5925925925925926, 0.5740740740740741, 0.5740740740740741, 0.5740740740740741, 0.4259259259259259, 0.6111111111111112, 0.4444444444444445, 0.5, 0.5555555555555555, 0.48148148148148157, 0.5925925925925926, 0.5740740740740741, 0.5740740740740741, 0.48148148148148145, 0.5555555555555555, 0.6111111111111112, 0.6111111111111112, 0.48148148148148145, 0.5740740740740741, 0.5555555555555555, 0.5740740740740741, 0.5370370370370371, 0.5370370370370371, 0.5740740740740741, 0.6111111111111112, 0.5555555555555555, 0.5555555555555555, 0.5925925925925926, 0.5370370370370371, 0.6111111111111112, 0.5740740740740741, 0.5555555555555556, 0.6111111111111112, 0.6111111111111112, 0.5925925925925926, 0.5925925925925926, 0.5925925925925926, 0.5925925925925926, 0.5925925925925926, 0.5925925925925926]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[0.38235294117647056, 0.38235294117647056, 0.7200435729847494, 0.6459694989106753, 0.6830065359477123, 0.2647058823529412, 0.2647058823529412, 0.6830065359477123, 0.6459694989106753, 0.2647058823529412, 0.7015250544662309, 0.6830065359477123, 0.5141612200435729, 0.6830065359477123, 0.721132897603486, 0.7026143790849674, 0.7004357298474945, 0.6274509803921569, 0.7200435729847494, 0.6830065359477123, 0.7200435729847494, 0.6840958605664488, 0.4379084967320262, 0.5697167755991285, 0.7200435729847494, 0.6830065359477123, 0.6840958605664488, 0.7026143790849674, 0.7004357298474945, 0.6830065359477123, 0.7026143790849674, 0.7026143790849674, 0.360566448801743, 0.360566448801743, 0.360566448801743, 0.360566448801743, 0.360566448801743, 0.360566448801743, 0.360566448801743, 0.49564270152505446, 0.7015250544662309, 0.664488017429194, 0.664488017429194, 0.7026143790849674, 0.664488017429194, 0.664488017429194, 0.664488017429194, 0.664488017429194, 0.664488017429194, 0.7026143790849674]</t>
+          <t>[0.49564270152505446, 0.2647058823529412, 0.7015250544662309, 0.6808278867102396, 0.40196078431372556, 0.360566448801743, 0.42374727668845313, 0.4422657952069717, 0.7200435729847494, 0.6459694989106753, 0.7015250544662309, 0.7015250544662309, 0.4379084967320262, 0.4379084967320262, 0.40196078431372556, 0.7004357298474945, 0.2647058823529412, 0.360566448801743, 0.6830065359477123, 0.2647058823529412, 0.664488017429194, 0.6274509803921569, 0.4379084967320262, 0.5697167755991285, 0.6840958605664488, 0.7004357298474945, 0.6830065359477123, 0.5697167755991285, 0.7015250544662309, 0.6840958605664488, 0.664488017429194, 0.664488017429194, 0.7026143790849674, 0.7015250544662309, 0.47712418300653586, 0.6830065359477123, 0.6459694989106753, 0.7200435729847494, 0.721132897603486, 0.360566448801743, 0.7396514161220044, 0.721132897603486, 0.6830065359477123, 0.7015250544662309, 0.721132897603486, 0.7200435729847494, 0.7200435729847494, 0.7200435729847494, 0.7200435729847494, 0.721132897603486]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[0.5, 0.3333333333333333, 0.6742919389978214, 0.7145969498910675, 0.6546840958605665, 0.6372549019607843, 0.377995642701525, 0.6361655773420479, 0.676470588235294, 0.377995642701525, 0.6917211328976034, 0.6917211328976034, 0.7538126361655774, 0.6546840958605665, 0.678649237472767, 0.6949891067538126, 0.6427015250544662, 0.7919389978213508, 0.6546840958605664, 0.7178649237472766, 0.6546840958605664, 0.7745098039215685, 0.7189542483660131, 0.6568627450980392, 0.6742919389978214, 0.6252723311546841, 0.7745098039215685, 0.6949891067538126, 0.6427015250544662, 0.6252723311546841, 0.6949891067538126, 0.6579520697167757, 0.3888888888888889, 0.4836601307189543, 0.4836601307189543, 0.4281045751633987, 0.4281045751633987, 0.4836601307189543, 0.4836601307189543, 0.44662309368191727, 0.6732026143790849, 0.7570806100217865, 0.7570806100217865, 0.7135076252723311, 0.7581699346405228, 0.7396514161220044, 0.7396514161220044, 0.7396514161220044, 0.7396514161220044, 0.6949891067538126]</t>
+          <t>[0.4281045751633987, 0.377995642701525, 0.6732026143790849, 0.5, 0.3333333333333333, 0.4836601307189543, 0.3333333333333333, 0.5185185185185185, 0.6546840958605664, 0.7145969498910675, 0.6546840958605664, 0.6732026143790849, 0.7189542483660131, 0.7189542483660131, 0.3333333333333333, 0.678649237472767, 0.377995642701525, 0.3888888888888889, 0.6252723311546841, 0.377995642701525, 0.6732026143790849, 0.7919389978213508, 0.7189542483660131, 0.6568627450980392, 0.7396514161220044, 0.6427015250544662, 0.7178649237472766, 0.6568627450980392, 0.738562091503268, 0.7396514161220044, 0.7581699346405228, 0.7396514161220044, 0.7135076252723311, 0.6732026143790849, 0.4836601307189543, 0.6361655773420479, 0.6361655773420479, 0.6928104575163397, 0.7135076252723311, 0.4836601307189543, 0.6601307189542484, 0.6601307189542484, 0.6993464052287582, 0.6993464052287582, 0.6601307189542484, 0.6993464052287582, 0.6993464052287582, 0.6993464052287582, 0.6993464052287582, 0.678649237472767]</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>[0.47276688453159044, 0.2821350762527233, 0.4498910675381264, 0.46949891067538124, 0.545751633986928, 0.48801742919389984, 0.31808278867102396, 0.45098039215686275, 0.46840958605664484, 0.33660130718954245, 0.5076252723311546, 0.5076252723311546, 0.3224400871459695, 0.46949891067538124, 0.41612200435729846, 0.6045751633986929, 0.5849673202614379, 0.4498910675381264, 0.5076252723311546, 0.411764705882353, 0.5076252723311546, 0.545751633986928, 0.6187363834422658, 0.6416122004357299, 0.4498910675381264, 0.45206971677559915, 0.545751633986928, 0.6045751633986929, 0.6045751633986929, 0.45206971677559915, 0.6230936819172114, 0.6230936819172114, 0.30392156862745096, 0.30392156862745096, 0.30392156862745096, 0.30392156862745096, 0.30392156862745096, 0.4738562091503267, 0.30392156862745096, 0.2843137254901961, 0.5076252723311546, 0.6775599128540306, 0.6775599128540306, 0.6230936819172114, 0.545751633986928, 0.6775599128540306, 0.6775599128540306, 0.6775599128540306, 0.6775599128540306, 0.6230936819172114]</t>
+          <t>[0.2843137254901961, 0.33660130718954245, 0.4891067538126362, 0.30174291938997827, 0.2821350762527233, 0.30392156862745096, 0.35729847494553374, 0.3769063180827887, 0.46949891067538124, 0.46840958605664484, 0.4498910675381264, 0.5087145969498911, 0.6187363834422658, 0.6187363834422658, 0.2821350762527233, 0.5849673202614379, 0.261437908496732, 0.30392156862745096, 0.45206971677559915, 0.298474945533769, 0.4498910675381264, 0.4498910675381264, 0.6187363834422658, 0.6416122004357299, 0.545751633986928, 0.6045751633986929, 0.5076252723311546, 0.6416122004357299, 0.4891067538126362, 0.545751633986928, 0.545751633986928, 0.545751633986928, 0.6230936819172114, 0.5076252723311546, 0.4738562091503267, 0.5631808278867102, 0.46949891067538124, 0.46949891067538124, 0.6230936819172114, 0.4738562091503267, 0.39651416122004357, 0.41612200435729846, 0.5076252723311546, 0.5076252723311546, 0.41612200435729846, 0.5076252723311546, 0.5076252723311546, 0.5076252723311546, 0.5076252723311546, 0.41612200435729846]</t>
         </is>
       </c>
     </row>
@@ -5484,52 +5484,52 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.4801273605621432</v>
+        <v>0.5198726394378568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4830084019903745</v>
+        <v>0.5227839835023199</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5015421776291342</v>
+        <v>0.5258201942984551</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[[6, 4, 1], [5, 11, 7], [4, 3, 5]]</t>
+          <t>[[5, 6, 0], [5, 12, 6], [2, 3, 7]]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
+          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 3})</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[0.5137254901960784, 0.5895424836601307, 0.5091503267973856, 0.5544662309368192, 0.6030501089324619, 0.5694989106753813, 0.6061002178649237, 0.5808278867102397, 0.5701525054466231, 0.48692810457516345, 0.5335511982570806, 0.659912854030501, 0.5087145969498911, 0.5054466230936818, 0.46535947712418296, 0.5420479302832244, 0.5535947712418301, 0.5958605664488018, 0.5442265795206971, 0.5350762527233115, 0.5699346405228758, 0.6324618736383443, 0.5420479302832244, 0.46535947712418296, 0.5124183006535948, 0.5773420479302833, 0.5958605664488018, 0.5311546840958605, 0.5385620915032681, 0.5420479302832244, 0.5054466230936818, 0.5054466230936818, 0.5058823529411764, 0.46535947712418296, 0.6405228758169936, 0.5283224400871459, 0.46535947712418296, 0.5335511982570806, 0.6078431372549018, 0.6189542483660131, 0.5468409586056644, 0.6067538126361656, 0.5128540305010894, 0.5838779956427016, 0.5564270152505447, 0.5163398692810459, 0.5054466230936818, 0.46535947712418296, 0.5124183006535948, 0.5311546840958605]</t>
+          <t>[0.550326797385621, 0.5276688453159041, 0.5433551198257082, 0.6145969498910675, 0.5318082788671024, 0.5771241830065359, 0.5993464052287582, 0.5618736383442267, 0.48692810457516345, 0.532244008714597, 0.5054466230936818, 0.5054466230936818, 0.5350762527233115, 0.5431372549019607, 0.5958605664488018, 0.46535947712418296, 0.5736383442265796, 0.6261437908496731, 0.46535947712418296, 0.6030501089324619, 0.46535947712418296, 0.5699346405228758, 0.5420479302832244, 0.5385620915032681, 0.6516339869281046, 0.46535947712418296, 0.5572984749455338, 0.5276688453159041, 0.6261437908496731, 0.5958605664488018, 0.5372549019607843, 0.5385620915032681, 0.5311546840958605, 0.46535947712418296, 0.5546840958605664, 0.5054466230936818, 0.5128540305010894, 0.46535947712418296, 0.6189542483660131, 0.5699346405228758, 0.5420479302832244, 0.5054466230936818, 0.5311546840958605, 0.5087145969498911, 0.5773420479302833, 0.6078431372549018, 0.5137254901960784, 0.5311546840958605, 0.5514161220043573, 0.5838779956427016]</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[0.08868627855058349, 0.04251660640828949, 0.06396701154266043, 0.08936446318951495, 0.050050169200200396, 0.058448737426118114, 0.0234809474253725, 0.0718835403130328, 0.0886996576058874, 0.07322984243075341, 0.03126494497416843, 0.03188875723491416, 0.05342801341491481, 0.04101997904959199, 0.04883480050609596, 0.09015133661321062, 0.0352268112094253, 0.02715020057459585, 0.06981406610196167, 0.07187363504224217, 0.04124154809447314, 0.03341653080042929, 0.09015133661321062, 0.04883480050609596, 0.05203552172041857, 0.02929452952326204, 0.0592736750375416, 0.037258086984340084, 0.08540916344666315, 0.09015133661321062, 0.04101997904959199, 0.04101997904959199, 0.059691013337063246, 0.04883480050609596, 0.04875016726863911, 0.10360387718307569, 0.04883480050609596, 0.03126494497416843, 0.06284185229566862, 0.027188634697990263, 0.044664966178483353, 0.0400361995103177, 0.07020323204232407, 0.039239886021505604, 0.04676946461605749, 0.06988337936297126, 0.04101997904959199, 0.04883480050609596, 0.05203552172041857, 0.037258086984340084]</t>
+          <t>[0.059678289094154506, 0.02589386714536127, 0.08102817997720259, 0.048267775953226594, 0.05541397654664042, 0.06872731952572399, 0.028267081813303868, 0.09888619853967369, 0.07322984243075341, 0.0516280113840024, 0.04101997904959199, 0.04101997904959199, 0.07187363504224217, 0.04136336417324651, 0.026243455636432298, 0.04883480050609596, 0.04676540494289197, 0.024322938103621537, 0.04883480050609596, 0.03675788688476405, 0.04883480050609596, 0.04124154809447314, 0.09015133661321062, 0.08540916344666315, 0.060452707418314315, 0.04883480050609596, 0.03729628605146384, 0.0765279812433125, 0.024322938103621537, 0.02715020057459585, 0.030543077230991884, 0.08540916344666315, 0.037258086984340084, 0.04883480050609596, 0.08126215632394614, 0.04101997904959199, 0.07020323204232407, 0.04883480050609596, 0.027188634697990263, 0.04124154809447314, 0.09015133661321062, 0.04101997904959199, 0.037258086984340084, 0.08743416398870889, 0.02929452952326204, 0.06284185229566862, 0.08868627855058349, 0.037258086984340084, 0.049968544460178045, 0.039239886021505604]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>[34, 11, 38, 19, 8, 17, 7, 13, 15, 45, 28, 1, 39, 41, 46, 23, 20, 9, 22, 27, 16, 3, 23, 46, 36, 14, 9, 30, 26, 23, 41, 41, 40, 46, 2, 32, 46, 28, 5, 4, 21, 6, 35, 12, 18, 33, 41, 46, 36, 30]</t>
+          <t>[21, 35, 22, 5, 31, 13, 8, 17, 44, 30, 40, 40, 29, 23, 9, 45, 14, 2, 45, 7, 45, 15, 24, 26, 1, 45, 18, 35, 2, 9, 28, 26, 32, 45, 19, 40, 38, 45, 4, 15, 24, 40, 32, 39, 12, 6, 37, 32, 20, 11]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 72, 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 18, 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 7}), OrderedDict({'criterion': 'gini', 'max_depth': 85, 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 23}), OrderedDict({'criterion': 'gini', 'max_depth': 86, 'max_features': 'log2', 'min_samples_leaf': 16, 'min_samples_split': 19}), OrderedDict({'criterion': 'gini', 'max_depth': 48, 'max_features': None, 'min_samples_leaf': 13, 'min_samples_split': 17}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': 'sqrt', 'min_samples_leaf': 18, 'min_samples_split': 37}), OrderedDict({'criterion': 'entropy', 'max_depth': 50, 'max_features': None, 'min_samples_leaf': 16, 'min_samples_split': 25}), OrderedDict({'criterion': 'entropy', 'max_depth': 35, 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 31}), OrderedDict({'criterion': 'entropy', 'max_depth': 33, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 22}), OrderedDict({'criterion': 'gini', 'max_depth': 77, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 45}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 6, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 9, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 92, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 90, 'max_features': 'sqrt', 'min_samples_leaf': 16, 'min_samples_split': 8}), OrderedDict({'criterion': 'gini', 'max_depth': 27, 'max_features': 'log2', 'min_samples_leaf': 17, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 88, 'max_features': 'sqrt', 'min_samples_leaf': 6, 'min_samples_split': 27}), OrderedDict({'criterion': 'entropy', 'max_depth': 90, 'max_features': None, 'min_samples_leaf': 6, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 16, 'min_samples_split': 39}), OrderedDict({'criterion': 'entropy', 'max_depth': 30, 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 32}), OrderedDict({'criterion': 'entropy', 'max_depth': 82, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 38}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 26}), OrderedDict({'criterion': 'gini', 'max_depth': 16, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 46}), OrderedDict({'criterion': 'entropy', 'max_depth': 9, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 37}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 7}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 92, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50})]</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="O55" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -5538,27 +5538,27 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>[0.48148148148148145, 0.5370370370370371, 0.5740740740740741, 0.5925925925925926, 0.5925925925925926, 0.5, 0.6111111111111112, 0.6481481481481481, 0.5925925925925926, 0.4259259259259259, 0.5555555555555555, 0.7037037037037037, 0.5, 0.48148148148148145, 0.5, 0.5925925925925926, 0.5185185185185185, 0.5925925925925926, 0.5, 0.5925925925925926, 0.5555555555555555, 0.6666666666666666, 0.5925925925925926, 0.5, 0.5, 0.5925925925925926, 0.6296296296296297, 0.5185185185185185, 0.5370370370370371, 0.5925925925925926, 0.48148148148148145, 0.48148148148148145, 0.5, 0.5, 0.6481481481481483, 0.48148148148148145, 0.5, 0.5555555555555555, 0.648148148148148, 0.6296296296296297, 0.5925925925925926, 0.5925925925925926, 0.48148148148148145, 0.611111111111111, 0.48148148148148157, 0.5185185185185185, 0.48148148148148145, 0.5, 0.5, 0.5185185185185185]</t>
+          <t>[0.5925925925925926, 0.5555555555555556, 0.5370370370370371, 0.5925925925925926, 0.5, 0.6296296296296297, 0.5555555555555555, 0.6296296296296297, 0.4259259259259259, 0.5925925925925926, 0.48148148148148145, 0.48148148148148145, 0.5925925925925926, 0.5740740740740741, 0.5740740740740741, 0.5, 0.5555555555555555, 0.648148148148148, 0.5, 0.5925925925925926, 0.5, 0.5555555555555555, 0.5925925925925926, 0.5370370370370371, 0.6666666666666666, 0.5, 0.5185185185185185, 0.5185185185185185, 0.648148148148148, 0.5925925925925926, 0.48148148148148157, 0.5370370370370371, 0.5185185185185185, 0.5, 0.5740740740740741, 0.48148148148148145, 0.48148148148148145, 0.5, 0.6296296296296297, 0.5555555555555555, 0.5925925925925926, 0.48148148148148145, 0.5185185185185185, 0.5185185185185185, 0.5925925925925926, 0.648148148148148, 0.48148148148148145, 0.5185185185185185, 0.5555555555555555, 0.611111111111111]</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.46296296296296297, 0.5740740740740741, 0.4814814814814814, 0.48148148148148145, 0.5925925925925926, 0.5555555555555555, 0.6111111111111112, 0.5185185185185185, 0.5185185185185185, 0.48148148148148145, 0.5, 0.6481481481481481, 0.48148148148148157, 0.5185185185185185, 0.3888888888888889, 0.6111111111111112, 0.5740740740740741, 0.6296296296296297, 0.5, 0.5, 0.5185185185185185, 0.6666666666666666, 0.6111111111111112, 0.3888888888888889, 0.5, 0.5370370370370371, 0.5925925925925926, 0.5, 0.5185185185185185, 0.6111111111111112, 0.5185185185185185, 0.5185185185185185, 0.40740740740740744, 0.3888888888888889, 0.7037037037037037, 0.46296296296296297, 0.3888888888888889, 0.5, 0.5, 0.5740740740740741, 0.5, 0.6481481481481483, 0.5185185185185185, 0.5370370370370371, 0.5370370370370371, 0.5, 0.5185185185185185, 0.3888888888888889, 0.5, 0.5]</t>
+          <t>[0.46296296296296297, 0.48148148148148145, 0.4259259259259259, 0.7037037037037037, 0.46296296296296297, 0.5185185185185185, 0.6111111111111112, 0.40740740740740744, 0.48148148148148145, 0.5, 0.5185185185185185, 0.5185185185185185, 0.5, 0.5, 0.6296296296296297, 0.3888888888888889, 0.6111111111111112, 0.6111111111111112, 0.3888888888888889, 0.6296296296296297, 0.3888888888888889, 0.5185185185185185, 0.6111111111111112, 0.5185185185185185, 0.7592592592592592, 0.3888888888888889, 0.5740740740740741, 0.5, 0.6111111111111112, 0.6296296296296297, 0.5555555555555555, 0.5185185185185185, 0.5, 0.3888888888888889, 0.5, 0.5185185185185185, 0.5185185185185185, 0.3888888888888889, 0.5740740740740741, 0.5185185185185185, 0.6111111111111112, 0.5185185185185185, 0.5, 0.48148148148148157, 0.5370370370370371, 0.5, 0.46296296296296297, 0.5, 0.5, 0.5370370370370371]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>[0.644880174291939, 0.5697167755991285, 0.5849673202614379, 0.5893246187363834, 0.5860566448801743, 0.6078431372549019, 0.5675381263616558, 0.6263616557734205, 0.7200435729847494, 0.5294117647058824, 0.5697167755991285, 0.6078431372549019, 0.5816993464052288, 0.5326797385620915, 0.5315904139433552, 0.6078431372549019, 0.5664488017429194, 0.5653594771241831, 0.681917211328976, 0.6078431372549019, 0.55119825708061, 0.6416122004357298, 0.6078431372549019, 0.5315904139433552, 0.5816993464052288, 0.5653594771241831, 0.664488017429194, 0.6034858387799565, 0.5849673202614379, 0.6078431372549019, 0.5326797385620915, 0.5326797385620915, 0.5816993464052288, 0.5315904139433552, 0.5686274509803922, 0.644880174291939, 0.5315904139433552, 0.5697167755991285, 0.6830065359477123, 0.6459694989106753, 0.6078431372549019, 0.5653594771241831, 0.5849673202614379, 0.5806100217864923, 0.5697167755991285, 0.6034858387799565, 0.5326797385620915, 0.5315904139433552, 0.5816993464052288, 0.6034858387799565]</t>
+          <t>[0.6274509803921569, 0.5305010893246188, 0.6427015250544663, 0.5860566448801743, 0.6078431372549019, 0.6263616557734205, 0.5871459694989106, 0.6067538126361656, 0.5294117647058824, 0.55119825708061, 0.5326797385620915, 0.5326797385620915, 0.6078431372549019, 0.6078431372549019, 0.5653594771241831, 0.5315904139433552, 0.5860566448801743, 0.6067538126361656, 0.5315904139433552, 0.5653594771241831, 0.5315904139433552, 0.55119825708061, 0.6078431372549019, 0.5849673202614379, 0.6067538126361656, 0.5315904139433552, 0.5849673202614379, 0.644880174291939, 0.6067538126361656, 0.5653594771241831, 0.5326797385620915, 0.5849673202614379, 0.6034858387799565, 0.5315904139433552, 0.6078431372549019, 0.5326797385620915, 0.5849673202614379, 0.5315904139433552, 0.6459694989106753, 0.55119825708061, 0.6078431372549019, 0.5326797385620915, 0.6034858387799565, 0.644880174291939, 0.5653594771241831, 0.6830065359477123, 0.644880174291939, 0.6034858387799565, 0.5860566448801743, 0.5806100217864923]</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[0.5827886710239651, 0.6633986928104575, 0.4934640522875817, 0.6808278867102396, 0.5468409586056645, 0.6612200435729848, 0.6002178649237472, 0.6394335511982572, 0.5664488017429194, 0.6013071895424837, 0.5501089324618736, 0.6775599128540305, 0.55119825708061, 0.5555555555555556, 0.443355119825708, 0.5261437908496732, 0.6013071895424837, 0.5675381263616558, 0.5315904139433552, 0.5631808278867102, 0.5827886710239651, 0.5849673202614379, 0.5261437908496732, 0.443355119825708, 0.55119825708061, 0.5675381263616558, 0.6045751633986929, 0.5261437908496732, 0.6557734204793029, 0.5261437908496732, 0.5555555555555556, 0.5555555555555556, 0.55119825708061, 0.443355119825708, 0.6775599128540305, 0.6557734204793029, 0.443355119825708, 0.5501089324618736, 0.6241830065359477, 0.6427015250544663, 0.5261437908496732, 0.5675381263616558, 0.5827886710239651, 0.5479302832244008, 0.5697167755991285, 0.5631808278867102, 0.5555555555555556, 0.443355119825708, 0.55119825708061, 0.5261437908496732]</t>
+          <t>[0.5653594771241831, 0.5479302832244008, 0.6220043572984749, 0.5664488017429193, 0.5860566448801743, 0.6394335511982572, 0.6013071895424836, 0.676470588235294, 0.6013071895424837, 0.5686274509803921, 0.5555555555555556, 0.5555555555555556, 0.5631808278867102, 0.5261437908496732, 0.5860566448801743, 0.443355119825708, 0.6230936819172114, 0.6623093681917211, 0.443355119825708, 0.5675381263616558, 0.443355119825708, 0.5827886710239651, 0.5261437908496732, 0.6557734204793029, 0.6394335511982572, 0.443355119825708, 0.6013071895424837, 0.5631808278867102, 0.6623093681917211, 0.5675381263616558, 0.5708061002178648, 0.6557734204793029, 0.5261437908496732, 0.443355119825708, 0.6612200435729848, 0.5555555555555556, 0.5827886710239651, 0.443355119825708, 0.6427015250544663, 0.5827886710239651, 0.5261437908496732, 0.5555555555555556, 0.5261437908496732, 0.5261437908496732, 0.5675381263616558, 0.6241830065359477, 0.5827886710239651, 0.5261437908496732, 0.6230936819172114, 0.5479302832244008]</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>[0.39651416122004357, 0.6034858387799564, 0.411764705882353, 0.4281045751633987, 0.6971677559912854, 0.522875816993464, 0.6405228758169934, 0.47167755991285404, 0.45315904139433544, 0.39651416122004357, 0.4923747276688453, 0.6623093681917211, 0.4291938997821351, 0.4389978213507626, 0.46296296296296297, 0.37254901960784315, 0.5076252723311546, 0.6241830065359477, 0.5076252723311546, 0.411764705882353, 0.6416122004357299, 0.6023965141612201, 0.37254901960784315, 0.46296296296296297, 0.4291938997821351, 0.6241830065359477, 0.48801742919389984, 0.5076252723311546, 0.39651416122004357, 0.37254901960784315, 0.4389978213507626, 0.4389978213507626, 0.48910675381263613, 0.46296296296296297, 0.6045751633986928, 0.39651416122004357, 0.46296296296296297, 0.4923747276688453, 0.5838779956427015, 0.6023965141612201, 0.5076252723311546, 0.6601307189542484, 0.39651416122004357, 0.6427015250544662, 0.6241830065359477, 0.39651416122004357, 0.4389978213507626, 0.46296296296296297, 0.4291938997821351, 0.5076252723311546]</t>
+          <t>[0.5032679738562091, 0.522875816993464, 0.4891067538126362, 0.6241830065359478, 0.5021786492374728, 0.47167755991285404, 0.6416122004357299, 0.4891067538126362, 0.39651416122004357, 0.44880174291938996, 0.4389978213507626, 0.4389978213507626, 0.411764705882353, 0.5076252723311546, 0.6241830065359477, 0.46296296296296297, 0.4923747276688453, 0.60239651416122, 0.46296296296296297, 0.6601307189542484, 0.46296296296296297, 0.6416122004357299, 0.37254901960784315, 0.39651416122004357, 0.5860566448801743, 0.46296296296296297, 0.5076252723311546, 0.411764705882353, 0.60239651416122, 0.6241830065359477, 0.545751633986928, 0.39651416122004357, 0.5076252723311546, 0.46296296296296297, 0.4302832244008714, 0.4389978213507626, 0.39651416122004357, 0.46296296296296297, 0.6023965141612201, 0.6416122004357299, 0.37254901960784315, 0.4389978213507626, 0.5076252723311546, 0.37254901960784315, 0.6241830065359477, 0.5838779956427015, 0.39651416122004357, 0.5076252723311546, 0.4923747276688453, 0.6427015250544662]</t>
         </is>
       </c>
     </row>
@@ -5670,52 +5670,52 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5753184014053579</v>
+        <v>0.5463328941589811</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6054358838817673</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6028985507246377</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[[4, 6, 1], [4, 16, 3], [2, 2, 8]]</t>
+          <t>[[4, 7, 0], [5, 14, 4], [2, 2, 8]]</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.9231422529035429, 'gamma': 0.07163712786154508, 'learning_rate': 0.021656618683745743, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 421, 'subsample': 0.5})</t>
+          <t>OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.014769972973987928, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 1.0})</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[0.6370370370370371, 0.6851851851851852, 0.6296296296296297, 0.696078431372549, 0.7076252723311548, 0.6925925925925925, 0.6786492374727668, 0.6516339869281045, 0.6553376906318082, 0.7413943355119825, 0.7145969498910676, 0.726797385620915, 0.7263616557734205, 0.7224400871459695, 0.6742919389978212, 0.5808278867102395, 0.7113289760348585, 0.6666666666666667, 0.6522875816993464, 0.7076252723311547, 0.7080610021786493, 0.7261437908496732, 0.6633986928104576, 0.722004357298475, 0.7185185185185186, 0.7185185185185186, 0.7520697167755992, 0.6636165577342048, 0.7446623093681918, 0.7074074074074075, 0.744880174291939, 0.7294117647058824, 0.7296296296296296, 0.6777777777777778, 0.7374727668845316, 0.7113289760348583, 0.722875816993464, 0.7150326797385621, 0.7183006535947712, 0.6553376906318082, 0.7187363834422658, 0.6549019607843137, 0.7224400871459695, 0.7309368191721133, 0.6666666666666667, 0.7, 0.6300653594771242, 0.6631808278867102, 0.7148148148148149, 0.711764705882353]</t>
+          <t>[0.6701525054466231, 0.6703703703703704, 0.662962962962963, 0.7183006535947712, 0.6596949891067538, 0.6440087145969499, 0.6520697167755991, 0.6407407407407407, 0.7113289760348585, 0.6527233115468409, 0.6442265795206972, 0.6958605664488018, 0.7224400871459695, 0.7302832244008715, 0.667755991285403, 0.7067538126361655, 0.7002178649237473, 0.7145969498910676, 0.696078431372549, 0.7261437908496732, 0.6481481481481481, 0.7037037037037037, 0.7032679738562091, 0.7265795206971677, 0.6923747276688454, 0.6777777777777778, 0.7152505446623094, 0.722875816993464, 0.7270152505446623, 0.711111111111111, 0.6888888888888889, 0.7002178649237473, 0.6965141612200435, 0.7300653594771241, 0.722875816993464, 0.7148148148148149, 0.7418300653594772, 0.7265795206971677, 0.729847494553377, 0.6211328976034858, 0.6627450980392158, 0.7261437908496732, 0.7337690631808279, 0.7145969498910676, 0.725925925925926, 0.5888888888888888, 0.715032679738562, 0.7450980392156863, 0.7372549019607842, 0.7296296296296296]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[0.07608259889210962, 0.05126542666570861, 0.07417332835110763, 0.05073025800710886, 0.05271070628406786, 0.03645186839152956, 0.060623630942925694, 0.065690519667575, 0.05637020718615713, 0.050648792144709, 0.05707478890639264, 0.042382427850201666, 0.07663582567361417, 0.036288736930121156, 0.052055585542918704, 0.06236951863050874, 0.07568101897885894, 0.030810752992877832, 0.0726160491674126, 0.022959696823856617, 0.047287229129248536, 0.04768505298541234, 0.05473571676668309, 0.06515363373747417, 0.032922843049871184, 0.018812229320194305, 0.037340802240746936, 0.07236723776464415, 0.03766354637752891, 0.03255313165790278, 0.06351948902069009, 0.06470111408969459, 0.04868391471236037, 0.08708440090886083, 0.044355714752728384, 0.028903048281964307, 0.03162120053441209, 0.052163068887058225, 0.041040801962546294, 0.022907955430230744, 0.0487861786571796, 0.06413300976641118, 0.03839865418190549, 0.07265721713934557, 0.06027814959589073, 0.03670619890744833, 0.07026473113830496, 0.07611378565462096, 0.022550861385846114, 0.05115698517277268]</t>
+          <t>[0.04807563620713832, 0.08264406589050804, 0.05718943873836425, 0.05378484459598116, 0.06929543156435332, 0.058383734778681265, 0.062015395009641955, 0.06752547495533079, 0.05306699413208553, 0.09509348465661027, 0.06077064682643948, 0.05200723683263886, 0.03596685302794547, 0.043226289578526686, 0.06626461132229716, 0.025214041410334342, 0.04212969124296797, 0.045777562939979755, 0.0475275214872579, 0.04620893975437337, 0.08505944394163151, 0.014500707008534862, 0.028167836791100635, 0.060494306653223626, 0.040890175998998794, 0.0149582953322631, 0.05302493889166546, 0.03409847066930519, 0.033551198257080625, 0.030238521259952026, 0.03914057197437013, 0.0426559269237847, 0.035543378665852915, 0.04199427644605818, 0.05229030493997738, 0.02346881570282397, 0.06553715862925638, 0.036410176341696396, 0.02596160193423311, 0.017997277932952836, 0.059754593908798115, 0.03838752754126756, 0.035093163625336, 0.05757984874249461, 0.0562015498737403, 0.0682567711618545, 0.04460967194146493, 0.047542499434419176, 0.032906980440880036, 0.04465114903868744]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>[47, 33, 49, 31, 27, 32, 34, 46, 42, 4, 22, 9, 10, 13, 36, 50, 24, 37, 45, 28, 26, 11, 40, 15, 17, 17, 1, 39, 3, 29, 2, 8, 7, 35, 5, 25, 12, 20, 19, 42, 16, 44, 13, 6, 37, 30, 48, 41, 21, 23]</t>
+          <t>[38, 37, 40, 18, 42, 47, 44, 48, 24, 43, 46, 33, 17, 5, 39, 26, 29, 22, 32, 12, 45, 27, 28, 10, 34, 36, 19, 15, 9, 25, 35, 29, 31, 6, 15, 21, 2, 10, 7, 49, 41, 12, 4, 22, 14, 50, 20, 1, 3, 8]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.6067310887175446, 'gamma': 4.9787691257038915, 'learning_rate': 0.05509637718676001, 'max_depth': 9, 'min_child_weight': 3, 'n_estimators': 488, 'subsample': 0.6867899729502899}), OrderedDict({'colsample_bytree': 0.6665211009797011, 'gamma': 1.810801724284348, 'learning_rate': 0.01598219984043401, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 437, 'subsample': 0.8205614049520153}), OrderedDict({'colsample_bytree': 0.8338229285196869, 'gamma': 4.721849074023621, 'learning_rate': 0.02389759311118216, 'max_depth': 3, 'min_child_weight': 6, 'n_estimators': 394, 'subsample': 0.6814737559041567}), OrderedDict({'colsample_bytree': 0.6446620787069323, 'gamma': 1.2789867764509675, 'learning_rate': 0.11341973568046324, 'max_depth': 7, 'min_child_weight': 10, 'n_estimators': 245, 'subsample': 0.9279020094617826}), OrderedDict({'colsample_bytree': 0.5734572370364024, 'gamma': 0.9931752776897975, 'learning_rate': 0.10137566364631181, 'max_depth': 2, 'min_child_weight': 6, 'n_estimators': 71, 'subsample': 0.7717869639483002}), OrderedDict({'colsample_bytree': 0.9162325079379734, 'gamma': 1.8640110822766434, 'learning_rate': 0.055496472235866255, 'max_depth': 2, 'min_child_weight': 5, 'n_estimators': 341, 'subsample': 0.9662452073086516}), OrderedDict({'colsample_bytree': 0.6227237132367935, 'gamma': 1.6042864101193286, 'learning_rate': 0.0218489690203172, 'max_depth': 1, 'min_child_weight': 2, 'n_estimators': 405, 'subsample': 0.6253080850733486}), OrderedDict({'colsample_bytree': 0.7924729068814695, 'gamma': 3.03350945377728, 'learning_rate': 0.16997685987428462, 'max_depth': 6, 'min_child_weight': 8, 'n_estimators': 207, 'subsample': 0.8737658041344404}), OrderedDict({'colsample_bytree': 0.7975277017108744, 'gamma': 3.1461177919875594, 'learning_rate': 0.1611671116288511, 'max_depth': 14, 'min_child_weight': 2, 'n_estimators': 463, 'subsample': 0.8907920669006942}), OrderedDict({'colsample_bytree': 0.950349351764657, 'gamma': 0.922391278316348, 'learning_rate': 0.07298778560929638, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 178, 'subsample': 0.5912145699384376}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.6708676041015295, 'learning_rate': 0.09641981016460123, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.8895663802958491, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8413056856397376}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.5347872956771692, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.0648852376305096, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 231, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.9876181659253903, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.9082193477571324}), OrderedDict({'colsample_bytree': 0.8263465551325406, 'gamma': 0.18890571596333366, 'learning_rate': 0.012911481704881983, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.02687751424597989, 'max_depth': 8, 'min_child_weight': 10, 'n_estimators': 55, 'subsample': 0.8293911271816936}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 3.558355921760703, 'learning_rate': 0.014669265570081583, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 99, 'subsample': 0.5577784793069465}), OrderedDict({'colsample_bytree': 0.8949734635595827, 'gamma': 1.2590966717411887, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.9164280370738352, 'learning_rate': 0.04681160434762486, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9881602486662472, 'gamma': 0.11424512583503471, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 430, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.526092747997638, 'gamma': 4.991295031912247, 'learning_rate': 0.23491307499584593, 'max_depth': 3, 'min_child_weight': 4, 'n_estimators': 245, 'subsample': 0.594891534852504}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.6717298545671433, 'learning_rate': 0.019376566196047895, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 265, 'subsample': 0.9159593422804295}), OrderedDict({'colsample_bytree': 0.8421405963865845, 'gamma': 0.0, 'learning_rate': 0.12193030779019601, 'max_depth': 7, 'min_child_weight': 3, 'n_estimators': 442, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.9858547219074038, 'learning_rate': 0.03354408316585953, 'max_depth': 10, 'min_child_weight': 3, 'n_estimators': 409, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9231422529035429, 'gamma': 0.07163712786154508, 'learning_rate': 0.021656618683745743, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 421, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.878554852579079, 'gamma': 0.0, 'learning_rate': 0.011265645802445295, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 387, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.23042516926554818, 'learning_rate': 0.029926107729088283, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 397, 'subsample': 0.5367621853219834}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 392, 'subsample': 0.641508332600728}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 488, 'subsample': 0.6752073026799816}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.033240212212241646, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.0518694943921965, 'learning_rate': 0.09269192095135212, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 385, 'subsample': 0.6284670578091183}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.9809283737895145, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 319, 'subsample': 0.6657866833744779}), OrderedDict({'colsample_bytree': 0.9058424946715101, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 434, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.0441252209616168, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 375, 'subsample': 0.549413336532254}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5123956651314873}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.44415959653806464, 'learning_rate': 0.022788414161178664, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7941271448149061, 'gamma': 0.0, 'learning_rate': 0.10421201105242647, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8604744473062073, 'gamma': 0.9127484408837168, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.9945812054214986, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 327, 'subsample': 0.5961722596235605}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 6, 'n_estimators': 102, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.028704747073268616, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.6382727285223628, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 389, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6325250047385931, 'gamma': 1.4087781455844752, 'learning_rate': 0.2479375479562003, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6853106087284474, 'gamma': 4.977538948120956, 'learning_rate': 0.010112203994955238, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 271, 'subsample': 0.5257000410241167}), OrderedDict({'colsample_bytree': 0.8945101826426096, 'gamma': 3.4660200310448945, 'learning_rate': 0.28006114147362704, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 364, 'subsample': 0.9257082515048769}), OrderedDict({'colsample_bytree': 0.6025466467760188, 'gamma': 0.05004985337962176, 'learning_rate': 0.2534213339469129, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 175, 'subsample': 0.6603501389176275}), OrderedDict({'colsample_bytree': 0.5781287914151868, 'gamma': 0.1924581601295511, 'learning_rate': 0.01229835220688029, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 106, 'subsample': 0.6486642260947972})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.7021240476342698, 'gamma': 2.1183461676644146, 'learning_rate': 0.0615371322029724, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 94, 'subsample': 0.8434518122194969}), OrderedDict({'colsample_bytree': 0.6269843155886543, 'gamma': 2.625789867056447, 'learning_rate': 0.11316762276699992, 'max_depth': 3, 'min_child_weight': 9, 'n_estimators': 481, 'subsample': 0.7045637661491372}), OrderedDict({'colsample_bytree': 0.9102243961337424, 'gamma': 2.2271959961952104, 'learning_rate': 0.08961133091990892, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 119, 'subsample': 0.9243458847375963}), OrderedDict({'colsample_bytree': 0.9855317683440386, 'gamma': 0.05544703954399211, 'learning_rate': 0.2440148481178432, 'max_depth': 9, 'min_child_weight': 8, 'n_estimators': 335, 'subsample': 0.5074616349141859}), OrderedDict({'colsample_bytree': 0.6037225412057832, 'gamma': 3.665129869045079, 'learning_rate': 0.04549345693092097, 'max_depth': 10, 'min_child_weight': 6, 'n_estimators': 378, 'subsample': 0.9669294950937966}), OrderedDict({'colsample_bytree': 0.740455499598949, 'gamma': 3.0353506026231165, 'learning_rate': 0.08485411186723754, 'max_depth': 3, 'min_child_weight': 9, 'n_estimators': 190, 'subsample': 0.5216402382839017}), OrderedDict({'colsample_bytree': 0.5740336908858314, 'gamma': 3.1284549705388436, 'learning_rate': 0.035114815929304814, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 464, 'subsample': 0.6568697292363049}), OrderedDict({'colsample_bytree': 0.5942830495391416, 'gamma': 3.8997775962335486, 'learning_rate': 0.014874296796004596, 'max_depth': 10, 'min_child_weight': 3, 'n_estimators': 438, 'subsample': 0.9529794372993985}), OrderedDict({'colsample_bytree': 0.5176929913493268, 'gamma': 0.9020270274460824, 'learning_rate': 0.03837512608825554, 'max_depth': 12, 'min_child_weight': 8, 'n_estimators': 214, 'subsample': 0.8783638222318553}), OrderedDict({'colsample_bytree': 0.8878193029756312, 'gamma': 4.371889309183219, 'learning_rate': 0.1589900537880058, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 413, 'subsample': 0.9361615492769775}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6523412133339649, 'gamma': 0.0, 'learning_rate': 0.11371456136459966, 'max_depth': 13, 'min_child_weight': 9, 'n_estimators': 50, 'subsample': 0.963364216786219}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.4813244925642184, 'learning_rate': 0.014636885270625847, 'max_depth': 10, 'min_child_weight': 9, 'n_estimators': 491, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6282634579758148, 'gamma': 0.6086443986771984, 'learning_rate': 0.08608747126400275, 'max_depth': 4, 'min_child_weight': 7, 'n_estimators': 500, 'subsample': 0.9704874290062556}), OrderedDict({'colsample_bytree': 0.5021244669722307, 'gamma': 0.0, 'learning_rate': 0.010804089016995326, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 0.5399627040458534}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.49059485804718694, 'learning_rate': 0.1310753548485195, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 125, 'subsample': 0.8230891959446547}), OrderedDict({'colsample_bytree': 0.9155438134733824, 'gamma': 0.6565587053309332, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5883797437214126, 'gamma': 0.7294741335596622, 'learning_rate': 0.27699823868273116, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 461, 'subsample': 0.5895370178819581}), OrderedDict({'colsample_bytree': 0.7622008767815216, 'gamma': 0.4199530428048628, 'learning_rate': 0.026884691081148365, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 122, 'subsample': 0.6472735295468823}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6586193407647379, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 387, 'subsample': 0.902873351835604}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6432385056226662, 'learning_rate': 0.1014818094206753, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 0.540424790441658}), OrderedDict({'colsample_bytree': 0.6319565696775463, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.1317596338556455, 'learning_rate': 0.13595090657701867, 'max_depth': 5, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.9664143663502636}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.032249950210993, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 9, 'n_estimators': 500, 'subsample': 0.8178686166770344}), OrderedDict({'colsample_bytree': 0.7484961644284452, 'gamma': 0.6042365729790568, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 10, 'n_estimators': 377, 'subsample': 0.6053625998460856}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 7, 'n_estimators': 500, 'subsample': 0.7685542771470484}), OrderedDict({'colsample_bytree': 0.5995342496461603, 'gamma': 0.9038224022714132, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 9, 'n_estimators': 500, 'subsample': 0.9527804738231604}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6611751809450546, 'learning_rate': 0.22278249039216444, 'max_depth': 6, 'min_child_weight': 9, 'n_estimators': 500, 'subsample': 0.8972030775328563}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.9863499413990071, 'learning_rate': 0.0579990329998938, 'max_depth': 13, 'min_child_weight': 5, 'n_estimators': 411, 'subsample': 0.8974929524946325}), OrderedDict({'colsample_bytree': 0.5897466261140357, 'gamma': 0.11963344645141957, 'learning_rate': 0.0346169875381219, 'max_depth': 9, 'min_child_weight': 8, 'n_estimators': 269, 'subsample': 0.9038040736648538}), OrderedDict({'colsample_bytree': 0.7544457112061851, 'gamma': 1.307014777333462, 'learning_rate': 0.11947667693969244, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8415699231177254}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.8455109078444351, 'learning_rate': 0.0656783348972867, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 455, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6371844241125465, 'gamma': 0.761794005863601, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.2689348796758353, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.610983422359789, 'learning_rate': 0.25813064752339515, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7513836175077987}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.8454771044866362, 'learning_rate': 0.010920841813797415, 'max_depth': 9, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 0.9834788834129599}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.8058390562568505, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.7852447221589486, 'learning_rate': 0.1222841514007948, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.033039765331153, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6276376810826392}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5144149415406423, 'gamma': 0.0, 'learning_rate': 0.01352837548189637, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.55655296931354, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.5999875459895677, 'learning_rate': 0.01, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.5048816014954574, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.2238808552567609, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.2151659000582382, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 492, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.5730254788986584, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.014769972973987928, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.726321596941685, 'gamma': 0.0, 'learning_rate': 0.2084471536384856, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9202203581383088, 'gamma': 0.0, 'learning_rate': 0.2788197374130301, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 1.0})]</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="O57" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -5724,27 +5724,27 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[0.5925925925925926, 0.7222222222222223, 0.5925925925925926, 0.6666666666666666, 0.7222222222222223, 0.7037037037037037, 0.6851851851851851, 0.648148148148148, 0.6111111111111112, 0.7592592592592592, 0.6666666666666666, 0.7222222222222222, 0.7037037037037037, 0.7407407407407408, 0.7037037037037037, 0.5740740740740741, 0.7407407407407408, 0.6481481481481483, 0.6481481481481483, 0.7037037037037037, 0.7592592592592594, 0.7407407407407408, 0.6666666666666666, 0.7222222222222222, 0.7592592592592592, 0.7407407407407408, 0.7962962962962963, 0.6296296296296297, 0.7407407407407408, 0.7037037037037037, 0.7407407407407408, 0.6481481481481481, 0.7777777777777778, 0.6666666666666666, 0.7222222222222222, 0.7407407407407408, 0.7222222222222222, 0.7037037037037037, 0.7407407407407408, 0.6481481481481481, 0.7777777777777777, 0.7222222222222222, 0.7037037037037037, 0.7037037037037037, 0.6111111111111112, 0.7037037037037037, 0.611111111111111, 0.7037037037037037, 0.7407407407407408, 0.7037037037037037]</t>
+          <t>[0.6851851851851852, 0.6666666666666666, 0.6296296296296297, 0.8148148148148149, 0.5925925925925926, 0.6666666666666666, 0.6296296296296297, 0.5925925925925926, 0.7222222222222222, 0.5555555555555555, 0.6481481481481483, 0.7037037037037037, 0.7037037037037037, 0.7222222222222222, 0.6296296296296297, 0.7407407407407408, 0.6666666666666666, 0.7222222222222222, 0.7037037037037037, 0.7407407407407408, 0.6851851851851851, 0.7222222222222222, 0.7222222222222222, 0.6666666666666666, 0.7407407407407408, 0.6851851851851852, 0.7407407407407408, 0.7037037037037037, 0.7407407407407408, 0.7222222222222222, 0.6851851851851851, 0.7037037037037037, 0.7037037037037037, 0.7592592592592592, 0.7037037037037037, 0.7407407407407408, 0.7777777777777778, 0.7777777777777777, 0.7407407407407408, 0.6296296296296297, 0.6481481481481483, 0.7407407407407408, 0.7592592592592592, 0.6666666666666666, 0.7962962962962963, 0.5740740740740741, 0.7592592592592592, 0.7222222222222222, 0.7777777777777777, 0.7407407407407408]</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.5925925925925926, 0.6111111111111112, 0.5370370370370371, 0.6666666666666666, 0.6111111111111112, 0.648148148148148, 0.5740740740740741, 0.6111111111111112, 0.5740740740740741, 0.648148148148148, 0.6481481481481483, 0.648148148148148, 0.6111111111111112, 0.6666666666666666, 0.5740740740740741, 0.5370370370370371, 0.5740740740740741, 0.6296296296296297, 0.5740740740740741, 0.6666666666666666, 0.6296296296296297, 0.648148148148148, 0.5740740740740741, 0.6111111111111112, 0.6851851851851851, 0.6851851851851851, 0.7037037037037037, 0.5740740740740741, 0.6851851851851851, 0.6481481481481483, 0.648148148148148, 0.6666666666666666, 0.6851851851851851, 0.5740740740740741, 0.6666666666666666, 0.7037037037037037, 0.6851851851851851, 0.6296296296296297, 0.6851851851851851, 0.6481481481481483, 0.6666666666666666, 0.5740740740740741, 0.6666666666666666, 0.6296296296296297, 0.5925925925925926, 0.648148148148148, 0.5370370370370371, 0.5740740740740741, 0.6851851851851851, 0.6296296296296297]</t>
+          <t>[0.6111111111111112, 0.5555555555555555, 0.5925925925925926, 0.6851851851851851, 0.5925925925925926, 0.5555555555555555, 0.5740740740740741, 0.5740740740740741, 0.6296296296296297, 0.6296296296296297, 0.5925925925925926, 0.6666666666666666, 0.6851851851851851, 0.6666666666666666, 0.5740740740740741, 0.6666666666666666, 0.7037037037037037, 0.7037037037037037, 0.6296296296296297, 0.6481481481481483, 0.5185185185185185, 0.7037037037037037, 0.6666666666666666, 0.648148148148148, 0.6481481481481483, 0.6666666666666666, 0.6296296296296297, 0.6666666666666666, 0.6851851851851851, 0.6851851851851851, 0.6296296296296297, 0.648148148148148, 0.6666666666666666, 0.6851851851851851, 0.6666666666666666, 0.7037037037037037, 0.6666666666666666, 0.6666666666666666, 0.7222222222222223, 0.5925925925925926, 0.5925925925925926, 0.6851851851851851, 0.6666666666666666, 0.6296296296296297, 0.7037037037037037, 0.5555555555555555, 0.6666666666666666, 0.6666666666666666, 0.7037037037037037, 0.6666666666666666]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>[0.6623093681917211, 0.644880174291939, 0.6623093681917211, 0.7396514161220044, 0.7200435729847494, 0.6623093681917211, 0.664488017429194, 0.644880174291939, 0.681917211328976, 0.7755991285403049, 0.7919389978213508, 0.7396514161220044, 0.8126361655773421, 0.7581699346405228, 0.7015250544662309, 0.5141612200435729, 0.7570806100217865, 0.6830065359477123, 0.681917211328976, 0.7200435729847494, 0.7015250544662309, 0.7952069716775599, 0.7015250544662309, 0.7538126361655774, 0.7396514161220044, 0.7200435729847494, 0.7766884531590413, 0.644880174291939, 0.7952069716775599, 0.7396514161220044, 0.8322440087145969, 0.8115468409586057, 0.79520697167756, 0.7015250544662309, 0.7952069716775599, 0.6830065359477123, 0.738562091503268, 0.7189542483660132, 0.7581699346405228, 0.6830065359477123, 0.7374727668845317, 0.644880174291939, 0.7755991285403049, 0.7962962962962963, 0.664488017429194, 0.7189542483660132, 0.6252723311546841, 0.681917211328976, 0.721132897603486, 0.7581699346405228]</t>
+          <t>[0.644880174291939, 0.6830065359477123, 0.7026143790849674, 0.7396514161220044, 0.7004357298474945, 0.6263616557734205, 0.6830065359477123, 0.681917211328976, 0.7581699346405228, 0.7015250544662309, 0.6437908496732027, 0.721132897603486, 0.7777777777777778, 0.7962962962962963, 0.6830065359477123, 0.7200435729847494, 0.7766884531590413, 0.79520697167756, 0.7396514161220044, 0.7200435729847494, 0.6067538126361656, 0.7015250544662309, 0.7396514161220044, 0.7581699346405228, 0.7015250544662309, 0.7026143790849674, 0.7015250544662309, 0.7581699346405228, 0.7777777777777778, 0.7592592592592592, 0.6830065359477123, 0.7407407407407408, 0.7581699346405228, 0.7777777777777778, 0.7777777777777778, 0.7200435729847494, 0.8137254901960785, 0.7396514161220044, 0.7200435729847494, 0.6078431372549019, 0.664488017429194, 0.7200435729847494, 0.7581699346405228, 0.7734204793028322, 0.7200435729847494, 0.5141612200435729, 0.738562091503268, 0.7941176470588235, 0.7766884531590413, 0.7930283224400871]</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[0.7745098039215685, 0.7527233115468409, 0.7549019607843137, 0.7712418300653595, 0.772331154684096, 0.7527233115468409, 0.75599128540305, 0.7734204793028322, 0.7342047930283225, 0.7919389978213508, 0.7712418300653595, 0.7538126361655774, 0.8104575163398692, 0.7538126361655774, 0.7178649237472766, 0.6949891067538126, 0.7919389978213508, 0.7178649237472766, 0.7734204793028322, 0.7352941176470589, 0.7549019607843137, 0.7352941176470589, 0.7342047930283225, 0.8104575163398692, 0.7342047930283225, 0.7156862745098039, 0.772331154684096, 0.7919389978213508, 0.772331154684096, 0.7342047930283225, 0.7908496732026143, 0.789760348583878, 0.7156862745098039, 0.8289760348583878, 0.7723311546840957, 0.6797385620915032, 0.7734204793028323, 0.7919389978213506, 0.7527233115468409, 0.6775599128540305, 0.75599128540305, 0.7342047930283225, 0.7538126361655774, 0.8300653594771242, 0.7538126361655774, 0.7549019607843137, 0.7549019607843137, 0.7745098039215687, 0.7352941176470589, 0.7734204793028322]</t>
+          <t>[0.7538126361655774, 0.8104575163398694, 0.7527233115468409, 0.6775599128540305, 0.7734204793028322, 0.7352941176470589, 0.7549019607843137, 0.7538126361655774, 0.772331154684096, 0.8115468409586057, 0.7538126361655774, 0.7712418300653594, 0.7516339869281046, 0.7538126361655774, 0.7745098039215687, 0.7135076252723311, 0.6971677559912854, 0.6960784313725491, 0.7527233115468409, 0.7919389978213508, 0.7755991285403049, 0.6786492374727668, 0.7135076252723311, 0.8104575163398692, 0.64161220043573, 0.6601307189542484, 0.7919389978213508, 0.7538126361655774, 0.7363834422657951, 0.7156862745098039, 0.7527233115468409, 0.7527233115468409, 0.6971677559912853, 0.7538126361655774, 0.7919389978213508, 0.7342047930283225, 0.7919389978213508, 0.7352941176470589, 0.772331154684096, 0.6383442265795206, 0.772331154684096, 0.7919389978213506, 0.7538126361655774, 0.772331154684096, 0.7734204793028323, 0.7167755991285404, 0.7549019607843137, 0.7919389978213508, 0.7167755991285404, 0.7538126361655774]</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>[0.5631808278867102, 0.6949891067538126, 0.6013071895424836, 0.6361655773420479, 0.7124183006535948, 0.6960784313725491, 0.7135076252723311, 0.5806100217864923, 0.6753812636165577, 0.7320261437908497, 0.6949891067538126, 0.7701525054466231, 0.6938997821350763, 0.69281045751634, 0.6742919389978214, 0.5838779956427015, 0.69281045751634, 0.6546840958605665, 0.5838779956427015, 0.7124183006535948, 0.6949891067538126, 0.7113289760348583, 0.6405228758169935, 0.7124183006535948, 0.6742919389978214, 0.7309368191721134, 0.7113289760348583, 0.6775599128540305, 0.7298474945533769, 0.7113289760348583, 0.7124183006535948, 0.7309368191721134, 0.6742919389978214, 0.6176470588235294, 0.7309368191721134, 0.7494553376906318, 0.6949891067538126, 0.7309368191721134, 0.6546840958605665, 0.6198257080610022, 0.6557734204793029, 0.5991285403050108, 0.7124183006535948, 0.6949891067538126, 0.7113289760348583, 0.6742919389978214, 0.6220043572984749, 0.5816993464052288, 0.6917211328976035, 0.6938997821350763]</t>
+          <t>[0.6557734204793029, 0.6361655773420479, 0.6372549019607843, 0.6742919389978214, 0.6394335511982571, 0.6361655773420479, 0.6187363834422658, 0.6013071895424836, 0.6742919389978214, 0.565359477124183, 0.5827886710239651, 0.6165577342047931, 0.6938997821350763, 0.7124183006535948, 0.6775599128540305, 0.6928104575163397, 0.6568627450980392, 0.6557734204793029, 0.6546840958605665, 0.7298474945533769, 0.6546840958605665, 0.7124183006535948, 0.6742919389978214, 0.7494553376906318, 0.7298474945533769, 0.6742919389978214, 0.7124183006535948, 0.7320261437908496, 0.6949891067538126, 0.6732026143790849, 0.6938997821350763, 0.6557734204793028, 0.6568627450980392, 0.6742919389978214, 0.6742919389978214, 0.6753812636165577, 0.659041394335512, 0.7135076252723311, 0.6938997821350763, 0.6372549019607843, 0.6361655773420479, 0.69281045751634, 0.7309368191721134, 0.7309368191721134, 0.6361655773420479, 0.5838779956427015, 0.6557734204793029, 0.7505446623093682, 0.7113289760348583, 0.6938997821350763]</t>
         </is>
       </c>
     </row>
@@ -5874,31 +5874,31 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300})</t>
+          <t>OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 234})</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[0.7011111111111112, 0.696388888888889, 0.7358333333333333, 0.6880555555555555, 0.7183333333333334, 0.7486111111111111, 0.7272222222222222, 0.7138888888888888, 0.6969444444444445, 0.7008333333333333, 0.7058333333333333, 0.6875000000000001, 0.6877777777777778, 0.7486111111111111, 0.7230555555555556, 0.675, 0.7311111111111112, 0.7316666666666667, 0.7100000000000001, 0.7313888888888889, 0.7572222222222222, 0.7227777777777777, 0.7486111111111111, 0.7005555555555555, 0.7530555555555555, 0.7486111111111111, 0.7313888888888889, 0.71, 0.7180555555555557, 0.6838888888888889, 0.7533333333333333, 0.7533333333333333, 0.7355555555555555, 0.7355555555555555, 0.7486111111111111, 0.7572222222222222, 0.7444444444444444, 0.7572222222222222, 0.7444444444444444, 0.7444444444444444, 0.7572222222222222, 0.7572222222222222, 0.7655555555555555, 0.7697222222222223, 0.7397222222222222, 0.7391666666666666, 0.7569444444444444, 0.7477777777777778, 0.7483333333333333, 0.7652777777777778]</t>
+          <t>[0.7186111111111112, 0.7180555555555556, 0.6833333333333333, 0.74, 0.7313888888888889, 0.6880555555555555, 0.7269444444444444, 0.7313888888888889, 0.74, 0.7355555555555555, 0.7488888888888888, 0.7091666666666667, 0.7183333333333334, 0.7355555555555555, 0.74, 0.6794444444444444, 0.675, 0.7358333333333333, 0.6969444444444444, 0.7269444444444444, 0.7486111111111111, 0.7783333333333333, 0.7530555555555555, 0.7227777777777779, 0.7138888888888888, 0.7477777777777778, 0.68, 0.7058333333333333, 0.7438888888888889, 0.7141666666666666, 0.7655555555555555, 0.7655555555555555, 0.7655555555555555, 0.7572222222222222, 0.7697222222222223, 0.74, 0.7572222222222222, 0.7275, 0.7230555555555556, 0.7058333333333333, 0.7488888888888889, 0.7183333333333334, 0.7141666666666667, 0.706388888888889, 0.7397222222222222, 0.7105555555555556, 0.7366666666666666, 0.735, 0.7269444444444445, 0.74]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[0.059921502148670244, 0.03652117599826565, 0.0385240825753399, 0.06542005770875846, 0.03749897117930272, 0.028639414263960022, 0.037655029339623426, 0.03557291243018251, 0.06694041020578315, 0.0636868786997645, 0.04653420353638203, 0.027540654573212073, 0.02764412289916604, 0.03348345823400926, 0.047259788978803015, 0.026672453075906218, 0.04779553933419851, 0.03761197274575161, 0.045460605656619524, 0.04725978897880297, 0.03476552854924895, 0.03525261569841656, 0.0372574460202336, 0.040641081812178625, 0.02919178812315478, 0.023943735488344435, 0.03315461348080729, 0.0666400409793421, 0.02929205850325351, 0.060301454643306635, 0.02469880288996883, 0.02469880288996883, 0.030512596063241137, 0.030512596063241137, 0.03151278400198175, 0.021790954063839102, 0.044996570514036875, 0.021790954063839102, 0.044996570514036875, 0.044996570514036875, 0.03476552854924895, 0.02081295299436577, 0.027448042948968066, 0.02803216847009526, 0.024947475688130796, 0.025600805349986593, 0.02950204010522611, 0.03835546864931573, 0.028509799051822673, 0.03637722459363552]</t>
+          <t>[0.037511315165321774, 0.04243731760992824, 0.035311663515712674, 0.03482097069296029, 0.037716453494430396, 0.0816335911857156, 0.03692041825265009, 0.04009633461281364, 0.03482097069296029, 0.03375428642190278, 0.02739176230138014, 0.03384560076816519, 0.03749897117930272, 0.04031703068137537, 0.03534879116797404, 0.0639818164755126, 0.026672453075906218, 0.04902915484373923, 0.08270783771658578, 0.03592473270259762, 0.03151278400198175, 0.029022128636908843, 0.04147548733146748, 0.039796938277916534, 0.03557291243018251, 0.03835546864931573, 0.04608600387413103, 0.04326918328582391, 0.037603765900193376, 0.03958114029012643, 0.027448042948968066, 0.027448042948968066, 0.027448042948968066, 0.028725499490655566, 0.02803216847009526, 0.043438263271560286, 0.028725499490655566, 0.025630927498716174, 0.03194565215108348, 0.04653420353638203, 0.026965913554470238, 0.057583809024138025, 0.06514703218466009, 0.05076270138449937, 0.034645470728153015, 0.050419536190147905, 0.061203213423261835, 0.02903276140100873, 0.032543892488016944, 0.05065466475783251]</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>[41, 45, 25, 46, 35, 13, 32, 37, 44, 42, 40, 48, 47, 13, 33, 50, 31, 28, 38, 29, 4, 34, 13, 43, 12, 13, 29, 39, 36, 49, 10, 10, 26, 26, 13, 4, 20, 4, 20, 20, 4, 4, 2, 1, 23, 24, 9, 19, 18, 3]</t>
+          <t>[33, 36, 47, 14, 25, 46, 29, 25, 14, 22, 10, 41, 34, 22, 14, 49, 50, 21, 45, 29, 11, 1, 8, 32, 39, 12, 48, 43, 13, 38, 3, 3, 3, 6, 2, 14, 6, 27, 31, 43, 9, 34, 37, 42, 19, 40, 20, 24, 28, 14]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 188}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 8, 'min_samples_split': 17, 'n_estimators': 146}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 5, 'min_samples_split': 11, 'n_estimators': 190}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 5, 'n_estimators': 226}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 9, 'min_samples_split': 19, 'n_estimators': 299}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 16, 'n_estimators': 287}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 6, 'min_samples_split': 3, 'n_estimators': 173}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 258}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 5, 'min_samples_split': 15, 'n_estimators': 150}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 9, 'min_samples_split': 14, 'n_estimators': 149}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 10, 'min_samples_split': 16, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 9, 'min_samples_split': 3, 'n_estimators': 54}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 9, 'min_samples_split': 11, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 205}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 7, 'min_samples_split': 14, 'n_estimators': 128}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 5, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 5, 'min_samples_split': 9, 'n_estimators': 77}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 14, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 8, 'min_samples_split': 4, 'n_estimators': 188}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 6, 'min_samples_split': 16, 'n_estimators': 282}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 199}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 75}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 7, 'min_samples_split': 17, 'n_estimators': 283}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 9, 'n_estimators': 123}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 193}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 238}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 227}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 235}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 231}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 172}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 175}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 4, 'min_samples_split': 10, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 120})]</t>
+          <t>[OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 6, 'min_samples_split': 3, 'n_estimators': 73}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 150}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 9, 'min_samples_split': 9, 'n_estimators': 119}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 5, 'min_samples_split': 4, 'n_estimators': 263}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 6, 'min_samples_split': 13, 'n_estimators': 274}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 4, 'min_samples_split': 12, 'n_estimators': 292}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 8, 'min_samples_split': 15, 'n_estimators': 124}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 8, 'min_samples_split': 3, 'n_estimators': 242}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 6, 'min_samples_split': 14, 'n_estimators': 288}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 20, 'n_estimators': 283}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 238}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 16, 'n_estimators': 57}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 19, 'n_estimators': 298}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 18, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 286}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 5, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 5, 'n_estimators': 282}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 70}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 8, 'min_samples_split': 6, 'n_estimators': 116}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 187}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 234}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 234}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 61}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 19, 'n_estimators': 283}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 269}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 287}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 8, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 18, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 52}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 284}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 271}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 2, 'min_samples_split': 13, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 300})]</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="O59" t="n">
         <v>0.6176470588235294</v>
@@ -5910,27 +5910,27 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[0.5944444444444444, 0.6402777777777778, 0.6611111111111111, 0.5736111111111111, 0.6611111111111111, 0.7041666666666666, 0.6833333333333332, 0.6611111111111111, 0.5750000000000001, 0.5972222222222222, 0.6402777777777778, 0.6402777777777778, 0.6402777777777778, 0.6819444444444445, 0.6388888888888888, 0.6402777777777778, 0.6388888888888888, 0.6597222222222222, 0.6416666666666667, 0.6402777777777778, 0.7041666666666666, 0.7041666666666666, 0.6805555555555555, 0.6611111111111111, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.5944444444444444, 0.6833333333333332, 0.5736111111111111, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.725, 0.6597222222222222, 0.725, 0.6597222222222222, 0.6597222222222222, 0.7041666666666666, 0.725, 0.7236111111111111, 0.7236111111111111, 0.7041666666666666, 0.725, 0.725, 0.7027777777777778, 0.7041666666666666, 0.7027777777777778]</t>
+          <t>[0.6611111111111111, 0.6833333333333332, 0.6194444444444445, 0.7041666666666666, 0.6833333333333332, 0.5319444444444444, 0.6611111111111111, 0.6833333333333332, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.6597222222222222, 0.6611111111111111, 0.7041666666666666, 0.6805555555555555, 0.5527777777777777, 0.6402777777777778, 0.6402777777777778, 0.5527777777777777, 0.6625, 0.7041666666666666, 0.7236111111111111, 0.6833333333333332, 0.6625, 0.6611111111111111, 0.7027777777777778, 0.6416666666666667, 0.6416666666666667, 0.6833333333333332, 0.6625, 0.7236111111111111, 0.7236111111111111, 0.7236111111111111, 0.7027777777777778, 0.7236111111111111, 0.6611111111111111, 0.7027777777777778, 0.7027777777777778, 0.6819444444444445, 0.6402777777777778, 0.7041666666666666, 0.6152777777777777, 0.5944444444444444, 0.6388888888888888, 0.7041666666666666, 0.6180555555555555, 0.6180555555555555, 0.7041666666666666, 0.7027777777777778, 0.6388888888888888]</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[0.7444444444444445, 0.6986111111111111, 0.7652777777777778, 0.7222222222222222, 0.6986111111111111, 0.7430555555555555, 0.7000000000000001, 0.6986111111111111, 0.7666666666666666, 0.7208333333333333, 0.7430555555555555, 0.7208333333333333, 0.7208333333333333, 0.7652777777777778, 0.7652777777777778, 0.6569444444444444, 0.7652777777777778, 0.7444444444444445, 0.6777777777777777, 0.7652777777777778, 0.7458333333333332, 0.7013888888888888, 0.7875, 0.7013888888888888, 0.7666666666666666, 0.7430555555555555, 0.7013888888888888, 0.7458333333333332, 0.7208333333333333, 0.7222222222222222, 0.7666666666666666, 0.7666666666666666, 0.7222222222222222, 0.7222222222222222, 0.7875, 0.7875, 0.7875, 0.7875, 0.7875, 0.7875, 0.7458333333333332, 0.7666666666666666, 0.8097222222222222, 0.8097222222222222, 0.7458333333333332, 0.7875, 0.7666666666666666, 0.8097222222222222, 0.7430555555555555, 0.8097222222222222]</t>
+          <t>[0.7222222222222222, 0.6791666666666667, 0.6777777777777777, 0.7000000000000001, 0.7000000000000001, 0.7222222222222222, 0.7430555555555555, 0.7000000000000001, 0.7000000000000001, 0.7430555555555555, 0.7458333333333332, 0.7638888888888888, 0.6986111111111111, 0.6791666666666667, 0.7666666666666666, 0.7208333333333333, 0.6569444444444444, 0.7652777777777778, 0.7638888888888888, 0.7430555555555555, 0.7875, 0.8097222222222222, 0.7458333333333332, 0.7000000000000001, 0.6986111111111111, 0.8097222222222222, 0.6583333333333333, 0.6777777777777777, 0.7875, 0.6777777777777777, 0.8097222222222222, 0.8097222222222222, 0.8097222222222222, 0.7875, 0.8097222222222222, 0.7875, 0.7875, 0.7652777777777778, 0.7444444444444445, 0.7430555555555555, 0.7458333333333332, 0.7444444444444445, 0.7444444444444445, 0.725, 0.7000000000000001, 0.7027777777777778, 0.7888888888888889, 0.7875, 0.7652777777777778, 0.7652777777777778]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>[0.7486111111111112, 0.7472222222222222, 0.7486111111111112, 0.7708333333333334, 0.7708333333333334, 0.7916666666666666, 0.7916666666666666, 0.7708333333333334, 0.7486111111111112, 0.7916666666666666, 0.7708333333333334, 0.7027777777777778, 0.7027777777777778, 0.7708333333333334, 0.7708333333333334, 0.6819444444444445, 0.7708333333333334, 0.7708333333333334, 0.7694444444444445, 0.7708333333333334, 0.8125, 0.7916666666666666, 0.7708333333333334, 0.7666666666666666, 0.7916666666666666, 0.7694444444444445, 0.7916666666666666, 0.7694444444444445, 0.7694444444444445, 0.75, 0.7694444444444445, 0.7694444444444445, 0.7916666666666666, 0.7916666666666666, 0.7694444444444445, 0.7694444444444445, 0.7708333333333334, 0.7694444444444445, 0.7708333333333334, 0.7708333333333334, 0.8125, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7694444444444445, 0.7263888888888889, 0.7916666666666666, 0.7694444444444445, 0.7916666666666666, 0.7916666666666666]</t>
+          <t>[0.7708333333333334, 0.7916666666666666, 0.725, 0.7916666666666666, 0.7916666666666666, 0.7708333333333334, 0.7708333333333334, 0.7916666666666666, 0.7916666666666666, 0.7916666666666666, 0.7708333333333334, 0.7027777777777778, 0.7708333333333334, 0.7916666666666666, 0.7708333333333334, 0.7055555555555556, 0.6819444444444445, 0.7708333333333334, 0.7708333333333334, 0.7694444444444445, 0.7694444444444445, 0.7916666666666666, 0.8125, 0.7694444444444445, 0.7708333333333334, 0.7694444444444445, 0.7694444444444445, 0.7694444444444445, 0.7694444444444445, 0.7694444444444445, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7486111111111112, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7708333333333334, 0.7916666666666666, 0.7277777777777779, 0.7708333333333334, 0.7263888888888889, 0.7486111111111112, 0.7708333333333334]</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[0.6749999999999999, 0.6763888888888889, 0.7402777777777777, 0.6749999999999999, 0.7180555555555556, 0.7625000000000001, 0.7194444444444444, 0.7180555555555556, 0.6958333333333333, 0.7180555555555556, 0.6763888888888889, 0.6972222222222223, 0.6986111111111111, 0.7611111111111111, 0.7194444444444444, 0.7194444444444444, 0.7388888888888889, 0.7416666666666667, 0.7416666666666667, 0.7388888888888889, 0.7611111111111111, 0.6972222222222223, 0.7402777777777777, 0.7180555555555556, 0.7611111111111111, 0.7625000000000001, 0.7402777777777777, 0.6763888888888889, 0.6972222222222223, 0.6958333333333333, 0.7625000000000001, 0.7625000000000001, 0.7180555555555556, 0.7180555555555556, 0.7625000000000001, 0.7625000000000001, 0.7402777777777777, 0.7625000000000001, 0.7402777777777777, 0.7402777777777777, 0.7611111111111111, 0.7819444444444444, 0.7611111111111111, 0.7819444444444444, 0.7611111111111111, 0.7152777777777777, 0.7819444444444444, 0.7166666666666667, 0.7611111111111111, 0.7597222222222223]</t>
+          <t>[0.6972222222222223, 0.7388888888888889, 0.6972222222222223, 0.7625000000000001, 0.7402777777777777, 0.7166666666666667, 0.7180555555555556, 0.7625000000000001, 0.7625000000000001, 0.6972222222222223, 0.7833333333333333, 0.7208333333333333, 0.7180555555555556, 0.7388888888888889, 0.7180555555555556, 0.6972222222222223, 0.7194444444444444, 0.7388888888888889, 0.7402777777777777, 0.7402777777777777, 0.7625000000000001, 0.7819444444444444, 0.7611111111111111, 0.7625000000000001, 0.7180555555555556, 0.7166666666666667, 0.6763888888888889, 0.7208333333333333, 0.7597222222222223, 0.7416666666666667, 0.7611111111111111, 0.7611111111111111, 0.7611111111111111, 0.7611111111111111, 0.7819444444444444, 0.7388888888888889, 0.7611111111111111, 0.7000000000000001, 0.6972222222222223, 0.6763888888888889, 0.7819444444444444, 0.6972222222222223, 0.6972222222222223, 0.6555555555555556, 0.7611111111111111, 0.7388888888888889, 0.7416666666666667, 0.7152777777777777, 0.6763888888888889, 0.7611111111111111]</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>[0.7430555555555557, 0.7194444444444444, 0.763888888888889, 0.6986111111111111, 0.7430555555555557, 0.7416666666666667, 0.7416666666666667, 0.7208333333333333, 0.6986111111111111, 0.6763888888888889, 0.6986111111111111, 0.6763888888888889, 0.6763888888888889, 0.763888888888889, 0.7208333333333333, 0.6763888888888889, 0.7416666666666667, 0.7416666666666667, 0.7194444444444444, 0.7416666666666667, 0.7625000000000001, 0.7194444444444444, 0.763888888888889, 0.6555555555555556, 0.7416666666666667, 0.763888888888889, 0.7194444444444444, 0.763888888888889, 0.7194444444444444, 0.6777777777777777, 0.763888888888889, 0.763888888888889, 0.7416666666666667, 0.7416666666666667, 0.7194444444444444, 0.7416666666666667, 0.763888888888889, 0.7416666666666667, 0.763888888888889, 0.763888888888889, 0.7625000000000001, 0.7416666666666667, 0.7625000000000001, 0.7625000000000001, 0.7180555555555556, 0.7416666666666667, 0.7194444444444444, 0.7402777777777777, 0.7416666666666667, 0.7625000000000001]</t>
+          <t>[0.7416666666666667, 0.6972222222222223, 0.6972222222222223, 0.7416666666666667, 0.7416666666666667, 0.6986111111111111, 0.7416666666666667, 0.7194444444444444, 0.7416666666666667, 0.7416666666666667, 0.7402777777777777, 0.6986111111111111, 0.7430555555555557, 0.763888888888889, 0.763888888888889, 0.7208333333333332, 0.6763888888888889, 0.763888888888889, 0.6569444444444444, 0.7194444444444444, 0.7194444444444444, 0.7847222222222223, 0.7625000000000001, 0.7194444444444444, 0.7208333333333333, 0.7402777777777777, 0.6541666666666667, 0.7194444444444444, 0.7194444444444444, 0.7194444444444444, 0.7625000000000001, 0.7625000000000001, 0.7625000000000001, 0.763888888888889, 0.7625000000000001, 0.7416666666666667, 0.763888888888889, 0.7208333333333333, 0.7208333333333333, 0.6986111111111111, 0.7416666666666667, 0.763888888888889, 0.763888888888889, 0.7416666666666667, 0.7416666666666667, 0.7652777777777778, 0.763888888888889, 0.7416666666666667, 0.7416666666666667, 0.763888888888889]</t>
         </is>
       </c>
     </row>
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.5497004357298475</v>
+        <v>0.4581971677559913</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5558914622759673</v>
+        <v>0.4985567171165548</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="G61" t="n">
-        <v>0.5622409383543523</v>
+        <v>0.5001616031027796</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[[5, 8, 3], [9, 19, 6], [2, 2, 14]]</t>
+          <t>[[5, 7, 4], [4, 21, 9], [4, 6, 8]]</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'relu', 'alpha': 2.952452747872631e-06, 'learning_rate_init': 0.007063498498356844, 'max_iter': 3000, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.009195098557277511, 'max_iter': 500, 'solver': 'sgd'})</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[0.4097222222222222, 0.5877777777777778, 0.35833333333333334, 0.6788888888888889, 0.5394444444444444, 0.6063888888888889, 0.4658333333333333, 0.5833333333333334, 0.4658333333333333, 0.4261111111111111, 0.691111111111111, 0.6708333333333332, 0.6519444444444444, 0.6027777777777779, 0.4144444444444444, 0.6108333333333335, 0.6063888888888889, 0.6138888888888889, 0.5175, 0.6938888888888889, 0.7086111111111111, 0.7136111111111111, 0.7180555555555556, 0.7097222222222224, 0.7266666666666667, 0.7225, 0.7175, 0.7266666666666667, 0.705, 0.7094444444444444, 0.7180555555555556, 0.7180555555555556, 0.7225, 0.6925, 0.6925, 0.6925, 0.6925, 0.6925, 0.6925, 0.7097222222222223, 0.7177777777777778, 0.7177777777777778, 0.7136111111111112, 0.7136111111111112, 0.7136111111111111, 0.7097222222222223, 0.7094444444444444, 0.6647222222222222, 0.7094444444444444, 0.7052777777777778]</t>
+          <t>[0.6558333333333334, 0.4144444444444444, 0.6063888888888889, 0.5536111111111112, 0.3927777777777778, 0.6177777777777778, 0.6347222222222222, 0.6530555555555556, 0.4019444444444444, 0.6338888888888888, 0.6569444444444443, 0.6883333333333332, 0.7086111111111111, 0.6558333333333334, 0.6713888888888889, 0.6258333333333332, 0.6605555555555556, 0.6611111111111111, 0.705, 0.6758333333333334, 0.7044444444444445, 0.6702777777777779, 0.6069444444444445, 0.6941666666666667, 0.7141666666666666, 0.6788888888888889, 0.6388888888888888, 0.6744444444444444, 0.6830555555555555, 0.6702777777777778, 0.6983333333333334, 0.6983333333333334, 0.638888888888889, 0.7136111111111111, 0.6786111111111112, 0.7136111111111111, 0.6983333333333334, 0.7055555555555556, 0.7086111111111111, 0.6786111111111112, 0.7052777777777778, 0.7086111111111111, 0.5194444444444444, 0.5152777777777777, 0.5152777777777777, 0.5152777777777777, 0.5152777777777777, 0.5152777777777777, 0.5152777777777777, 0.5152777777777777]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>[0.08027249117540934, 0.09889981213079312, 0.04837641757899998, 0.06323579233392086, 0.13995038803487153, 0.07678232017436062, 0.0173605555466664, 0.07368706772980782, 0.0173605555466664, 0.0927270320302327, 0.05967763193262964, 0.03531166351571265, 0.09270289726051625, 0.061626613619221705, 0.024667542526992586, 0.0751408143109232, 0.07678232017436062, 0.10269891869554695, 0.13530543865046618, 0.05002005770527966, 0.05937820816543954, 0.07321117772041284, 0.03527887137412559, 0.030719258446553904, 0.03608332264134644, 0.042286135836117934, 0.04424085313847093, 0.039385715277258024, 0.04247003300803643, 0.037826765623442664, 0.03527887137412559, 0.03527887137412559, 0.04176285194367281, 0.06757825824667518, 0.06628711399270211, 0.06757825824667518, 0.06757825824667518, 0.06757825824667518, 0.06757825824667518, 0.07088505736771814, 0.03286006619922247, 0.03286006619922247, 0.02455467570067732, 0.02455467570067732, 0.03569633587725395, 0.07788682831320942, 0.055593042907841346, 0.11298284585188195, 0.055593042907841346, 0.06262271902649712]</t>
+          <t>[0.10324368871393189, 0.024667542526992586, 0.07678232017436062, 0.09478126214775254, 0.06686544439634713, 0.07610502814296814, 0.10492869418894685, 0.06443247015190821, 0.025633937766798502, 0.08821620466463122, 0.08130399440478207, 0.06916945554395318, 0.05937820816543954, 0.11629039852938618, 0.04504455955694333, 0.10321453744865951, 0.12265265117194235, 0.08249579113843057, 0.06803344311966023, 0.08205312943077017, 0.035674713526322635, 0.05440900206926092, 0.0684765887721968, 0.06080351882279981, 0.0650166170592346, 0.06323579233392086, 0.11904649470368527, 0.058647303201762854, 0.04831576947795525, 0.06007068881177395, 0.052992254267446304, 0.052992254267446304, 0.08903200284652815, 0.07321117772041284, 0.058581482769359705, 0.07321117772041284, 0.052992254267446304, 0.057446969641467206, 0.05937820816543954, 0.05690445750510779, 0.051395645201505316, 0.05937820816543954, 0.08263130217275674, 0.07104271884742706, 0.07104271884742706, 0.07104271884742706, 0.07104271884742706, 0.07104271884742706, 0.07104271884742706, 0.07104271884742706]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>[49, 41, 50, 32, 43, 38, 45, 42, 45, 47, 31, 33, 35, 40, 48, 37, 38, 36, 44, 24, 21, 13, 5, 15, 1, 3, 10, 1, 23, 18, 5, 5, 3, 25, 25, 25, 25, 25, 25, 16, 8, 8, 11, 11, 13, 16, 18, 34, 18, 22]</t>
+          <t>[28, 48, 38, 39, 50, 36, 33, 30, 49, 34, 27, 15, 4, 28, 22, 35, 26, 25, 9, 20, 10, 23, 37, 14, 1, 17, 32, 21, 16, 24, 11, 11, 31, 2, 18, 2, 11, 7, 4, 18, 8, 4, 40, 41, 41, 41, 41, 41, 41, 41]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'tanh', 'alpha': 9.17666622547567e-06, 'learning_rate_init': 0.000285989299563078, 'max_iter': 1228, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.040471230027525694, 'learning_rate_init': 0.0006824422341442504, 'max_iter': 897, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.001417582088915673, 'learning_rate_init': 0.0001838850273360628, 'max_iter': 1051, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.06089114234863755, 'learning_rate_init': 0.0016191248444279748, 'max_iter': 508, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00045068959940404153, 'learning_rate_init': 0.0006026216820208544, 'max_iter': 834, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 6.527872302555973e-05, 'learning_rate_init': 0.001146749966046137, 'max_iter': 2144, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 6.251510687992399e-05, 'learning_rate_init': 0.0002448199360659703, 'max_iter': 2730, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.015810178821457268, 'learning_rate_init': 0.0005193787615336351, 'max_iter': 614, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00015224920962216923, 'learning_rate_init': 0.00011465856806896623, 'max_iter': 1692, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.1927883882314985e-05, 'learning_rate_init': 0.00036472738154750997, 'max_iter': 1137, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0026273477280006276, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.07499886490166831, 'learning_rate_init': 0.0065377631781913, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0028799268018084496, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.024788645396232375, 'learning_rate_init': 0.0007667317059649263, 'max_iter': 2318, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 2.0499541501221655e-05, 'learning_rate_init': 0.00017566760902729887, 'max_iter': 2448, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0005782127276728463, 'learning_rate_init': 0.0015380365208174768, 'max_iter': 2614, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.023850358152614732, 'learning_rate_init': 0.0011221360551190566, 'max_iter': 2552, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.005947645383596918, 'learning_rate_init': 0.0017699634046034387, 'max_iter': 2788, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0005259770882194599, 'max_iter': 2394, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 2.2292832818072063e-05, 'learning_rate_init': 0.0091970302591319, 'max_iter': 2973, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1053, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0073693621986223885, 'max_iter': 2273, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008766376694927264, 'max_iter': 2765, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.952452747872631e-06, 'learning_rate_init': 0.007063498498356844, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 3.283509512095064e-05, 'learning_rate_init': 0.00805678506244223, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006221980070018994, 'max_iter': 2456, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.510063241505355e-06, 'learning_rate_init': 0.0059093343154188, 'max_iter': 1144, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.551330503286605e-06, 'learning_rate_init': 0.0057885367501481705, 'max_iter': 769, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.005528066444115664, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.007183221323637255, 'max_iter': 2754, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.007182663178235043, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006990044767591861, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006674702041377657, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00647943807923376, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006683893005329174, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006681760056013349, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006684555151611352, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00668975678092696, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006429558533111341, 'max_iter': 1486, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.007617299562321216, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0076172597406137885, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.007970009199965997, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.007973083527164563, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.007522351865752, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.009915725398612903, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006869759240491966, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0070480481983065954, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006864156487727313, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.006831965905589162, 'max_iter': 500, 'solver': 'adam'})]</t>
+          <t>[OrderedDict({'activation': 'logistic', 'alpha': 0.0004883528738567214, 'learning_rate_init': 0.0011121620720390272, 'max_iter': 2721, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0003352223898992247, 'learning_rate_init': 0.0002717407744249439, 'max_iter': 1299, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0029221560050127207, 'learning_rate_init': 0.003313080392664399, 'max_iter': 910, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0002200024708217611, 'learning_rate_init': 0.0005862734165726853, 'max_iter': 2382, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.202356037784835e-06, 'learning_rate_init': 0.00015780590690308357, 'max_iter': 2491, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 6.496796606318795e-06, 'learning_rate_init': 0.0005995650958867325, 'max_iter': 2397, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 5.8971257161465015e-06, 'learning_rate_init': 0.002202176397867447, 'max_iter': 1836, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0008985962473584874, 'learning_rate_init': 0.0019621417363454192, 'max_iter': 889, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.976951961754809e-05, 'learning_rate_init': 0.0001260601872115888, 'max_iter': 799, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 3.8012732723901963e-06, 'learning_rate_init': 0.0009475802397872372, 'max_iter': 2536, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0014258854834472761, 'max_iter': 1159, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2227, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.036754097838004186, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.08211239053321197, 'learning_rate_init': 0.0017188905389079671, 'max_iter': 1052, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.8837739939175284e-06, 'learning_rate_init': 0.007202107719640903, 'max_iter': 2029, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0062779805874587985, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.04055413257068292, 'learning_rate_init': 0.0013274277880450502, 'max_iter': 2736, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.007951059438093834, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.005609746456187362, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008546010310404882, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.7297173556932816e-05, 'learning_rate_init': 0.0022552397728286796, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.03649645245664296, 'learning_rate_init': 0.0019483726629531072, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.008062309906543351, 'max_iter': 1829, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.009195098557277511, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0016216921452082093, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0019362026574586445, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0016009116146251732, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0015720317942650498, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0015260619011929952, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0031000679821618503, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.002575812651945325, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0008331277000589484, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0035979172143429197, 'max_iter': 2468, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1246, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0013650542423884395, 'learning_rate_init': 0.005255069035187765, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 4.436528424926377e-05, 'learning_rate_init': 0.0012161196614187996, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1.0768463159856738e-06, 'learning_rate_init': 0.0012708429153073394, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0012648684337560146, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 7.837620531409786e-06, 'learning_rate_init': 0.0012617460754571377, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0012633027824446707, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0012557587601380647, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 4.8008733584325215e-05, 'learning_rate_init': 0.0012558401729358033, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.001261895203636253, 'max_iter': 3000, 'solver': 'sgd'})]</t>
         </is>
       </c>
       <c r="N61" t="n">
         <v>24</v>
       </c>
       <c r="O61" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -6096,27 +6096,27 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>[0.2833333333333333, 0.6819444444444445, 0.2847222222222222, 0.6416666666666667, 0.2847222222222222, 0.5569444444444445, 0.4763888888888889, 0.5361111111111111, 0.4763888888888889, 0.2833333333333333, 0.6625, 0.6611111111111111, 0.7027777777777778, 0.5569444444444445, 0.39305555555555555, 0.5569444444444445, 0.5569444444444445, 0.7013888888888888, 0.2833333333333333, 0.6194444444444445, 0.6194444444444445, 0.7027777777777778, 0.6819444444444445, 0.6819444444444445, 0.6819444444444445, 0.7027777777777778, 0.7027777777777778, 0.7027777777777778, 0.6819444444444445, 0.6819444444444445, 0.6819444444444445, 0.6819444444444445, 0.6611111111111111, 0.5763888888888888, 0.5763888888888888, 0.5763888888888888, 0.5763888888888888, 0.5763888888888888, 0.5763888888888888, 0.7027777777777778, 0.7027777777777778, 0.7027777777777778, 0.7027777777777778, 0.7027777777777778, 0.6819444444444445, 0.7027777777777778, 0.6180555555555555, 0.7027777777777778, 0.6180555555555555, 0.5972222222222222]</t>
+          <t>[0.7027777777777778, 0.39305555555555555, 0.5569444444444445, 0.5569444444444445, 0.34722222222222215, 0.6597222222222222, 0.7013888888888888, 0.6194444444444445, 0.39305555555555555, 0.7027777777777778, 0.6625, 0.5555555555555555, 0.6194444444444445, 0.6611111111111111, 0.6805555555555555, 0.6805555555555555, 0.7027777777777778, 0.6625, 0.7027777777777778, 0.6194444444444445, 0.6611111111111111, 0.6625, 0.5569444444444445, 0.5986111111111111, 0.7027777777777778, 0.6416666666666667, 0.6611111111111111, 0.6625, 0.6625, 0.6416666666666667, 0.6194444444444445, 0.6194444444444445, 0.6819444444444445, 0.7027777777777778, 0.6416666666666667, 0.7027777777777778, 0.6194444444444445, 0.6625, 0.6194444444444445, 0.7013888888888888, 0.6194444444444445, 0.6194444444444445, 0.47222222222222215, 0.4930555555555555, 0.4930555555555555, 0.4930555555555555, 0.4930555555555555, 0.4930555555555555, 0.4930555555555555, 0.4930555555555555]</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[0.46527777777777773, 0.5041666666666667, 0.35833333333333334, 0.5930555555555556, 0.5263888888888889, 0.5263888888888889, 0.4583333333333333, 0.5694444444444444, 0.4583333333333333, 0.5263888888888889, 0.5930555555555556, 0.6138888888888889, 0.5902777777777778, 0.5263888888888889, 0.4166666666666667, 0.5263888888888889, 0.5263888888888889, 0.5722222222222223, 0.5263888888888889, 0.6805555555555555, 0.6569444444444444, 0.6805555555555555, 0.7236111111111111, 0.725, 0.7236111111111111, 0.7013888888888888, 0.6791666666666667, 0.7013888888888888, 0.6569444444444444, 0.7013888888888888, 0.7236111111111111, 0.7236111111111111, 0.7236111111111111, 0.7236111111111111, 0.7013888888888888, 0.7236111111111111, 0.7236111111111111, 0.7236111111111111, 0.7236111111111111, 0.6805555555555555, 0.7013888888888888, 0.7013888888888888, 0.7013888888888888, 0.7013888888888888, 0.7013888888888888, 0.6805555555555555, 0.7013888888888888, 0.6805555555555555, 0.7013888888888888, 0.7013888888888888]</t>
+          <t>[0.5694444444444444, 0.4166666666666667, 0.5263888888888889, 0.4583333333333333, 0.35833333333333334, 0.5930555555555556, 0.5722222222222223, 0.5930555555555556, 0.375, 0.5694444444444444, 0.5263888888888889, 0.7027777777777778, 0.6569444444444444, 0.7000000000000001, 0.5916666666666667, 0.6124999999999999, 0.7013888888888888, 0.548611111111111, 0.6583333333333333, 0.5472222222222222, 0.7000000000000001, 0.5930555555555556, 0.5263888888888889, 0.6597222222222222, 0.6805555555555555, 0.5930555555555556, 0.6138888888888889, 0.5930555555555556, 0.6361111111111111, 0.5930555555555556, 0.6805555555555555, 0.6805555555555555, 0.5694444444444444, 0.6805555555555555, 0.5930555555555556, 0.6805555555555555, 0.6805555555555555, 0.6138888888888889, 0.6569444444444444, 0.5916666666666667, 0.6777777777777777, 0.6569444444444444, 0.4583333333333333, 0.4583333333333333, 0.4583333333333333, 0.4583333333333333, 0.4583333333333333, 0.4583333333333333, 0.4583333333333333, 0.4583333333333333]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>[0.35555555555555557, 0.4375, 0.35555555555555557, 0.6569444444444444, 0.5694444444444444, 0.5694444444444444, 0.4375, 0.4791666666666667, 0.4375, 0.35555555555555557, 0.6986111111111111, 0.6805555555555555, 0.5, 0.5916666666666667, 0.4375, 0.5916666666666667, 0.5694444444444444, 0.4375, 0.5694444444444444, 0.7708333333333334, 0.7680555555555556, 0.7041666666666666, 0.7041666666666666, 0.6819444444444445, 0.7472222222222222, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.6819444444444445, 0.7041666666666666, 0.7041666666666666, 0.7472222222222222, 0.6819444444444445, 0.7041666666666666, 0.6819444444444445, 0.6819444444444445, 0.6819444444444445, 0.6819444444444445, 0.725, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.7041666666666666, 0.7472222222222222, 0.48055555555555557, 0.7472222222222222, 0.7472222222222222]</t>
+          <t>[0.5, 0.4375, 0.5694444444444444, 0.4375, 0.37777777777777777, 0.4791666666666667, 0.4791666666666667, 0.5916666666666667, 0.4166666666666667, 0.5, 0.6138888888888889, 0.7458333333333332, 0.7680555555555556, 0.4375, 0.6597222222222222, 0.4375, 0.4583333333333333, 0.5916666666666667, 0.7041666666666666, 0.7708333333333334, 0.7486111111111112, 0.6347222222222223, 0.5916666666666667, 0.7708333333333334, 0.725, 0.6569444444444444, 0.4375, 0.6347222222222223, 0.6347222222222223, 0.6347222222222223, 0.7708333333333334, 0.7708333333333334, 0.5, 0.7041666666666666, 0.6777777777777777, 0.7041666666666666, 0.7708333333333334, 0.7486111111111112, 0.7680555555555556, 0.6805555555555555, 0.7486111111111112, 0.7680555555555556, 0.4375, 0.4375, 0.4375, 0.4375, 0.4375, 0.4375, 0.4375, 0.4375]</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>[0.5069444444444444, 0.6388888888888888, 0.35555555555555557, 0.7625000000000001, 0.6152777777777777, 0.6375000000000001, 0.4680555555555556, 0.6555555555555556, 0.4680555555555556, 0.5069444444444444, 0.7611111111111111, 0.7236111111111111, 0.7444444444444445, 0.6375000000000001, 0.38055555555555554, 0.6375000000000001, 0.6375000000000001, 0.7222222222222222, 0.5069444444444444, 0.6791666666666667, 0.7583333333333333, 0.85, 0.7833333333333333, 0.7625000000000001, 0.7833333333333333, 0.8069444444444445, 0.8041666666666667, 0.8041666666666667, 0.7833333333333333, 0.7833333333333333, 0.7833333333333333, 0.7833333333333333, 0.7833333333333333, 0.7833333333333333, 0.7833333333333333, 0.7833333333333333, 0.7833333333333333, 0.7833333333333333, 0.7833333333333333, 0.8291666666666666, 0.7833333333333333, 0.7833333333333333, 0.7625000000000001, 0.7625000000000001, 0.7833333333333333, 0.85, 0.7833333333333333, 0.8291666666666666, 0.7833333333333333, 0.7833333333333333]</t>
+          <t>[0.7652777777777778, 0.38055555555555554, 0.6375000000000001, 0.6388888888888888, 0.35555555555555557, 0.6805555555555555, 0.7847222222222222, 0.7416666666666667, 0.38055555555555554, 0.6555555555555556, 0.7416666666666667, 0.7402777777777777, 0.7583333333333333, 0.7833333333333333, 0.7027777777777778, 0.7430555555555555, 0.8291666666666666, 0.7625000000000001, 0.8291666666666666, 0.7000000000000001, 0.6708333333333334, 0.7416666666666667, 0.6375000000000001, 0.7000000000000001, 0.8291666666666666, 0.7625000000000001, 0.8055555555555555, 0.7416666666666667, 0.7416666666666667, 0.7416666666666667, 0.6791666666666667, 0.6791666666666667, 0.7236111111111111, 0.85, 0.7611111111111111, 0.85, 0.6791666666666667, 0.7611111111111111, 0.7583333333333333, 0.7652777777777778, 0.7597222222222223, 0.7583333333333333, 0.5736111111111111, 0.5541666666666667, 0.5541666666666667, 0.5541666666666667, 0.5541666666666667, 0.5541666666666667, 0.5541666666666667, 0.5541666666666667]</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>[0.4375, 0.6763888888888889, 0.4375, 0.7402777777777777, 0.701388888888889, 0.7416666666666667, 0.48888888888888893, 0.6763888888888889, 0.48888888888888893, 0.4583333333333333, 0.7402777777777777, 0.6749999999999999, 0.7222222222222223, 0.701388888888889, 0.4444444444444444, 0.7416666666666667, 0.7416666666666667, 0.6361111111111112, 0.701388888888889, 0.7194444444444444, 0.7402777777777777, 0.6305555555555556, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.7208333333333333, 0.6986111111111111, 0.6986111111111111, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.611111111111111, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.6972222222222223, 0.611111111111111, 0.6972222222222223, 0.6305555555555556, 0.6972222222222223, 0.6972222222222223]</t>
+          <t>[0.7416666666666667, 0.4444444444444444, 0.7416666666666667, 0.6763888888888889, 0.525, 0.6763888888888889, 0.6361111111111112, 0.7194444444444444, 0.4444444444444444, 0.7416666666666667, 0.7402777777777777, 0.6972222222222223, 0.7402777777777777, 0.6972222222222223, 0.7222222222222223, 0.6555555555555556, 0.611111111111111, 0.7402777777777777, 0.6305555555555556, 0.7416666666666667, 0.7416666666666667, 0.7194444444444444, 0.7222222222222223, 0.7416666666666667, 0.6333333333333334, 0.7402777777777777, 0.6763888888888889, 0.7402777777777777, 0.7402777777777777, 0.7402777777777777, 0.7416666666666667, 0.7416666666666667, 0.7194444444444444, 0.6305555555555556, 0.7194444444444444, 0.6305555555555556, 0.7416666666666667, 0.7416666666666667, 0.7402777777777777, 0.6541666666666667, 0.7208333333333333, 0.7402777777777777, 0.6555555555555556, 0.6333333333333333, 0.6333333333333333, 0.6333333333333333, 0.6333333333333333, 0.6333333333333333, 0.6333333333333333, 0.6333333333333333]</t>
         </is>
       </c>
     </row>
@@ -6228,52 +6228,52 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.4276960784313726</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4572530651604905</v>
+        <v>0.4767991994094936</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4854543124439317</v>
+        <v>0.4861197110423117</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[[5, 9, 2], [12, 16, 6], [7, 2, 9]]</t>
+          <t>[[4, 8, 4], [13, 17, 4], [2, 5, 11]]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3})</t>
+          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4})</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[0.5491666666666666, 0.5427777777777777, 0.581388888888889, 0.5444444444444445, 0.4877777777777778, 0.5988888888888889, 0.5380555555555555, 0.5972222222222222, 0.6255555555555555, 0.6088888888888888, 0.5449999999999999, 0.6013888888888889, 0.6447222222222222, 0.5844444444444443, 0.4447222222222222, 0.6533333333333333, 0.5561111111111112, 0.445, 0.5847222222222223, 0.5486111111111112, 0.5802777777777777, 0.606111111111111, 0.4447222222222222, 0.445, 0.5802777777777778, 0.6875, 0.5449999999999999, 0.5727777777777778, 0.4447222222222222, 0.4955555555555556, 0.5463888888888889, 0.5716666666666667, 0.5519444444444445, 0.5519444444444445, 0.5722222222222222, 0.445, 0.5688888888888889, 0.5716666666666667, 0.6783333333333333, 0.5805555555555555, 0.62, 0.5802777777777777, 0.5449999999999999, 0.5797222222222222, 0.5688888888888889, 0.4877777777777778, 0.5802777777777778, 0.5955555555555555, 0.4447222222222222, 0.6575]</t>
+          <t>[0.5722222222222222, 0.5983333333333334, 0.5486111111111112, 0.5541666666666666, 0.6205555555555555, 0.5747222222222221, 0.5697222222222222, 0.5883333333333334, 0.6108333333333333, 0.5841666666666667, 0.5486111111111112, 0.5716666666666667, 0.5716666666666667, 0.4922222222222222, 0.4447222222222222, 0.5955555555555555, 0.5888888888888888, 0.5449999999999999, 0.5425000000000001, 0.5802777777777778, 0.4447222222222222, 0.5472222222222223, 0.5891666666666666, 0.4447222222222222, 0.445, 0.5688888888888889, 0.4447222222222222, 0.5716666666666667, 0.5727777777777778, 0.7130555555555556, 0.5802777777777777, 0.5697222222222222, 0.5888888888888888, 0.4447222222222222, 0.5802777777777778, 0.445, 0.5847222222222223, 0.5449999999999999, 0.6258333333333332, 0.5891666666666666, 0.5486111111111112, 0.445, 0.5561111111111112, 0.5449999999999999, 0.7130555555555556, 0.5472222222222223, 0.5688888888888889, 0.5561111111111112, 0.5888888888888888, 0.6013888888888889]</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[0.10608274780903841, 0.09488215562891751, 0.05730980352650766, 0.072579245749596, 0.030787002227772, 0.06564259758178338, 0.03630928527981325, 0.024072293381436984, 0.0821518091893686, 0.051179000805572514, 0.09650769175511988, 0.032773069341672505, 0.01943253603599191, 0.050715558768829175, 0.010408329997330667, 0.03859612019137624, 0.03211428281145052, 0.054451530151157994, 0.05029235516114074, 0.06639992934698012, 0.05226652966724297, 0.03060097634204538, 0.010408329997330667, 0.054451530151157994, 0.04640136226182465, 0.03170806261139112, 0.09650769175511988, 0.07348574229731682, 0.010408329997330667, 0.059280667429307855, 0.04558095497891774, 0.030002571906215865, 0.03780840261954973, 0.03780840261954973, 0.054800423536256394, 0.054451530151157994, 0.06662961933584423, 0.030002571906215865, 0.06091255622753689, 0.03988796037297529, 0.04971834249295641, 0.05226652966724297, 0.09650769175511988, 0.01860489116626708, 0.06662961933584423, 0.030787002227772, 0.04640136226182465, 0.06030657274335345, 0.010408329997330667, 0.0039868611373353536]</t>
+          <t>[0.054800423536256394, 0.07118594153064868, 0.04077755071084222, 0.10488456323472138, 0.039785303447006294, 0.06729679059725924, 0.0666400409793421, 0.03865604898921757, 0.021844003612597192, 0.03518689079686661, 0.06639992934698012, 0.030002571906215865, 0.030002571906215865, 0.027507013695949146, 0.010408329997330667, 0.06030657274335345, 0.048296601623665614, 0.09650769175511988, 0.06480383504883826, 0.04640136226182465, 0.010408329997330667, 0.07452006938228614, 0.04638473035252596, 0.010408329997330667, 0.054451530151157994, 0.06662961933584423, 0.010408329997330667, 0.030002571906215865, 0.07348574229731682, 0.04191223929199127, 0.05226652966724297, 0.0666400409793421, 0.027102913150334355, 0.010408329997330667, 0.04640136226182465, 0.054451530151157994, 0.05029235516114074, 0.09650769175511988, 0.06412155701536007, 0.049139195087294196, 0.04077755071084222, 0.054451530151157994, 0.03211428281145052, 0.09650769175511988, 0.04191223929199127, 0.07452006938228614, 0.06662961933584423, 0.03211428281145052, 0.027102913150334355, 0.032773069341672505]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>[32, 39, 16, 38, 42, 11, 40, 12, 6, 8, 35, 10, 5, 15, 47, 4, 29, 44, 14, 33, 20, 9, 47, 44, 18, 1, 35, 23, 47, 41, 34, 25, 30, 30, 24, 44, 27, 25, 2, 17, 7, 20, 35, 22, 27, 42, 18, 13, 47, 3]</t>
+          <t>[22, 7, 33, 32, 4, 20, 26, 14, 5, 16, 33, 23, 23, 42, 46, 8, 11, 38, 41, 17, 46, 36, 9, 46, 43, 28, 46, 23, 21, 1, 19, 26, 11, 46, 17, 43, 15, 38, 3, 9, 33, 43, 30, 38, 1, 36, 28, 30, 11, 6]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 23, 'max_features': 'log2', 'min_samples_leaf': 14, 'min_samples_split': 43}), OrderedDict({'criterion': 'entropy', 'max_depth': 84, 'max_features': 'log2', 'min_samples_leaf': 14, 'min_samples_split': 7}), OrderedDict({'criterion': 'entropy', 'max_depth': 49, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 32}), OrderedDict({'criterion': 'entropy', 'max_depth': 37, 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 44}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 34}), OrderedDict({'criterion': 'gini', 'max_depth': 84, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 35}), OrderedDict({'criterion': 'gini', 'max_depth': 57, 'max_features': 'log2', 'min_samples_leaf': 13, 'min_samples_split': 14}), OrderedDict({'criterion': 'gini', 'max_depth': 74, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 29}), OrderedDict({'criterion': 'entropy', 'max_depth': 66, 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 12}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 9}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 54, 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 44}), OrderedDict({'criterion': 'entropy', 'max_depth': 52, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 29}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 21}), OrderedDict({'criterion': 'entropy', 'max_depth': 72, 'max_features': 'sqrt', 'min_samples_leaf': 16, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 69, 'max_features': 'sqrt', 'min_samples_leaf': 7, 'min_samples_split': 23}), OrderedDict({'criterion': 'gini', 'max_depth': 30, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 43}), OrderedDict({'criterion': 'gini', 'max_depth': 57, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 44}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 25}), OrderedDict({'criterion': 'entropy', 'max_depth': 38, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 28}), OrderedDict({'criterion': 'gini', 'max_depth': 52, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 41}), OrderedDict({'criterion': 'entropy', 'max_depth': 92, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 15, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 44}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 92, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 92, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 10, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48})]</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O63" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -6282,27 +6282,27 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>[0.5277777777777778, 0.5569444444444445, 0.5972222222222222, 0.425, 0.4680555555555556, 0.4875, 0.4875, 0.5541666666666667, 0.4694444444444444, 0.5555555555555555, 0.5277777777777778, 0.5736111111111111, 0.6611111111111111, 0.5736111111111111, 0.45, 0.6583333333333333, 0.5569444444444445, 0.3875, 0.5527777777777777, 0.45, 0.5527777777777777, 0.6402777777777778, 0.45, 0.3875, 0.5736111111111111, 0.7027777777777778, 0.5277777777777778, 0.5083333333333333, 0.45, 0.4069444444444444, 0.5083333333333333, 0.5277777777777778, 0.5569444444444445, 0.5569444444444445, 0.5736111111111111, 0.3875, 0.4875, 0.5277777777777778, 0.6833333333333332, 0.5736111111111111, 0.5347222222222222, 0.5527777777777777, 0.5277777777777778, 0.548611111111111, 0.4875, 0.4680555555555556, 0.5736111111111111, 0.4930555555555555, 0.45, 0.6611111111111111]</t>
+          <t>[0.5736111111111111, 0.5541666666666667, 0.5569444444444445, 0.5736111111111111, 0.6388888888888888, 0.5083333333333333, 0.4875, 0.5750000000000001, 0.5750000000000001, 0.5291666666666667, 0.45, 0.5277777777777778, 0.5277777777777778, 0.4680555555555556, 0.45, 0.4930555555555555, 0.5736111111111111, 0.5277777777777778, 0.44722222222222224, 0.5736111111111111, 0.45, 0.425, 0.5527777777777777, 0.45, 0.3875, 0.4875, 0.45, 0.5277777777777778, 0.5083333333333333, 0.7652777777777778, 0.5527777777777777, 0.4875, 0.5736111111111111, 0.45, 0.5736111111111111, 0.3875, 0.5527777777777777, 0.5277777777777778, 0.5347222222222222, 0.5347222222222222, 0.5569444444444445, 0.3875, 0.5569444444444445, 0.5277777777777778, 0.7652777777777778, 0.425, 0.4875, 0.5569444444444445, 0.5736111111111111, 0.5736111111111111]</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[0.6777777777777777, 0.5930555555555556, 0.6569444444444444, 0.6194444444444445, 0.4847222222222222, 0.5930555555555556, 0.5944444444444444, 0.6166666666666667, 0.6152777777777777, 0.6819444444444445, 0.6777777777777777, 0.6569444444444444, 0.6388888888888888, 0.6777777777777777, 0.45, 0.5958333333333333, 0.5944444444444444, 0.45694444444444443, 0.6777777777777777, 0.5305555555555556, 0.6777777777777777, 0.5736111111111111, 0.45, 0.45694444444444443, 0.6569444444444444, 0.6597222222222222, 0.6777777777777777, 0.5680555555555555, 0.45, 0.4861111111111111, 0.5263888888888889, 0.6152777777777777, 0.5944444444444444, 0.5944444444444444, 0.6361111111111111, 0.45694444444444443, 0.5680555555555555, 0.6152777777777777, 0.7236111111111111, 0.6361111111111111, 0.6152777777777777, 0.6777777777777777, 0.6777777777777777, 0.5930555555555556, 0.5680555555555555, 0.4847222222222222, 0.6569444444444444, 0.6805555555555555, 0.45, 0.6597222222222222]</t>
+          <t>[0.6361111111111111, 0.7013888888888888, 0.5944444444444444, 0.6777777777777777, 0.6597222222222222, 0.5986111111111111, 0.5722222222222223, 0.5944444444444444, 0.6333333333333333, 0.6361111111111111, 0.5305555555555556, 0.6152777777777777, 0.6152777777777777, 0.4861111111111111, 0.45, 0.6805555555555555, 0.6777777777777777, 0.6777777777777777, 0.5680555555555555, 0.6569444444444444, 0.45, 0.6124999999999999, 0.6777777777777777, 0.45, 0.45694444444444443, 0.5680555555555555, 0.45, 0.6152777777777777, 0.5680555555555555, 0.6583333333333333, 0.6777777777777777, 0.5722222222222223, 0.6361111111111111, 0.45, 0.6569444444444444, 0.45694444444444443, 0.6777777777777777, 0.6777777777777777, 0.6388888888888888, 0.5708333333333333, 0.5944444444444444, 0.45694444444444443, 0.5944444444444444, 0.6777777777777777, 0.6583333333333333, 0.6124999999999999, 0.5680555555555555, 0.5944444444444444, 0.6361111111111111, 0.6569444444444444]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>[0.3597222222222222, 0.3611111111111111, 0.4916666666666667, 0.49722222222222223, 0.45694444444444443, 0.6444444444444445, 0.5125000000000001, 0.6166666666666667, 0.6861111111111112, 0.5805555555555556, 0.3819444444444444, 0.6180555555555555, 0.6625, 0.5333333333333333, 0.43472222222222223, 0.6430555555555556, 0.5166666666666667, 0.39444444444444443, 0.5333333333333333, 0.5194444444444445, 0.5333333333333333, 0.6222222222222222, 0.43472222222222223, 0.39444444444444443, 0.5125000000000001, 0.6402777777777778, 0.3819444444444444, 0.49722222222222223, 0.43472222222222223, 0.4791666666666667, 0.5194444444444445, 0.5555555555555555, 0.49583333333333335, 0.49583333333333335, 0.4708333333333334, 0.39444444444444443, 0.5194444444444445, 0.5555555555555555, 0.6847222222222222, 0.5125000000000001, 0.6625, 0.5333333333333333, 0.3819444444444444, 0.5972222222222222, 0.5194444444444445, 0.45694444444444443, 0.5125000000000001, 0.6027777777777777, 0.43472222222222223, 0.6611111111111111]</t>
+          <t>[0.4708333333333334, 0.4916666666666667, 0.49583333333333335, 0.3597222222222222, 0.6236111111111111, 0.49722222222222223, 0.5194444444444445, 0.6583333333333333, 0.6013888888888889, 0.5972222222222222, 0.5194444444444445, 0.5555555555555555, 0.5555555555555555, 0.4777777777777778, 0.43472222222222223, 0.6027777777777777, 0.5333333333333333, 0.3819444444444444, 0.49583333333333335, 0.5125000000000001, 0.43472222222222223, 0.49722222222222223, 0.5555555555555555, 0.43472222222222223, 0.39444444444444443, 0.5194444444444445, 0.43472222222222223, 0.5555555555555555, 0.49722222222222223, 0.6847222222222222, 0.5333333333333333, 0.5194444444444445, 0.5541666666666667, 0.43472222222222223, 0.5125000000000001, 0.39444444444444443, 0.5333333333333333, 0.3819444444444444, 0.5791666666666667, 0.5569444444444445, 0.49583333333333335, 0.39444444444444443, 0.5166666666666667, 0.3819444444444444, 0.6847222222222222, 0.49722222222222223, 0.5194444444444445, 0.5166666666666667, 0.5541666666666667, 0.6180555555555555]</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>[0.5902777777777778, 0.6361111111111111, 0.6152777777777777, 0.5930555555555556, 0.5458333333333333, 0.6819444444444445, 0.5499999999999999, 0.611111111111111, 0.6791666666666667, 0.6583333333333333, 0.5902777777777778, 0.5680555555555555, 0.6097222222222222, 0.5902777777777778, 0.4583333333333333, 0.7166666666666667, 0.5236111111111111, 0.5388888888888889, 0.5680555555555555, 0.6375000000000001, 0.5902777777777778, 0.6291666666666667, 0.4583333333333333, 0.5388888888888889, 0.5680555555555555, 0.7152777777777777, 0.5902777777777778, 0.7027777777777778, 0.4583333333333333, 0.5902777777777778, 0.6347222222222223, 0.5680555555555555, 0.5236111111111111, 0.5236111111111111, 0.5902777777777778, 0.5388888888888889, 0.6819444444444445, 0.5680555555555555, 0.736111111111111, 0.5902777777777778, 0.6763888888888889, 0.5902777777777778, 0.5902777777777778, 0.5680555555555555, 0.6819444444444445, 0.5458333333333333, 0.5680555555555555, 0.6138888888888889, 0.4583333333333333, 0.6541666666666667]</t>
+          <t>[0.5902777777777778, 0.6333333333333333, 0.5069444444444444, 0.5694444444444444, 0.6361111111111111, 0.6819444444444445, 0.6819444444444445, 0.5708333333333333, 0.6333333333333333, 0.5680555555555555, 0.6375000000000001, 0.5680555555555555, 0.5680555555555555, 0.5458333333333333, 0.4583333333333333, 0.6138888888888889, 0.5680555555555555, 0.5902777777777778, 0.6347222222222223, 0.5680555555555555, 0.4583333333333333, 0.6138888888888889, 0.5680555555555555, 0.4583333333333333, 0.5388888888888889, 0.6819444444444445, 0.4583333333333333, 0.5680555555555555, 0.7027777777777778, 0.7583333333333333, 0.5902777777777778, 0.6819444444444445, 0.5902777777777778, 0.4583333333333333, 0.5680555555555555, 0.5388888888888889, 0.5680555555555555, 0.5902777777777778, 0.7208333333333333, 0.6749999999999999, 0.5069444444444444, 0.5388888888888889, 0.5236111111111111, 0.5902777777777778, 0.7583333333333333, 0.6138888888888889, 0.6819444444444445, 0.5236111111111111, 0.5902777777777778, 0.5680555555555555]</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>[0.5902777777777778, 0.5666666666666665, 0.5458333333333334, 0.5875, 0.48333333333333334, 0.5875, 0.5458333333333333, 0.5875, 0.6777777777777777, 0.5680555555555555, 0.5472222222222222, 0.5902777777777778, 0.6513888888888889, 0.5472222222222222, 0.4305555555555555, 0.6527777777777777, 0.5888888888888889, 0.44722222222222224, 0.5916666666666667, 0.6055555555555555, 0.5472222222222222, 0.5652777777777778, 0.4305555555555555, 0.44722222222222224, 0.5902777777777778, 0.7194444444444444, 0.5472222222222222, 0.5875, 0.4305555555555555, 0.5152777777777778, 0.5430555555555555, 0.5916666666666667, 0.5888888888888889, 0.5888888888888889, 0.5902777777777778, 0.44722222222222224, 0.5875, 0.5916666666666667, 0.5638888888888888, 0.5902777777777778, 0.6111111111111112, 0.5472222222222222, 0.5472222222222222, 0.5916666666666667, 0.5875, 0.48333333333333334, 0.5902777777777778, 0.5875, 0.4305555555555555, 0.6513888888888889]</t>
+          <t>[0.5902777777777778, 0.611111111111111, 0.5888888888888889, 0.5902777777777778, 0.5444444444444444, 0.5875, 0.5875, 0.5430555555555556, 0.611111111111111, 0.5902777777777778, 0.6055555555555555, 0.5916666666666667, 0.5916666666666667, 0.48333333333333334, 0.4305555555555555, 0.5875, 0.5916666666666667, 0.5472222222222222, 0.5666666666666667, 0.5902777777777778, 0.4305555555555555, 0.5875, 0.5916666666666667, 0.4305555555555555, 0.44722222222222224, 0.5875, 0.4305555555555555, 0.5916666666666667, 0.5875, 0.6986111111111111, 0.5472222222222222, 0.5875, 0.5902777777777778, 0.4305555555555555, 0.5902777777777778, 0.44722222222222224, 0.5916666666666667, 0.5472222222222222, 0.6555555555555556, 0.6083333333333333, 0.5888888888888889, 0.44722222222222224, 0.5888888888888889, 0.5472222222222222, 0.6986111111111111, 0.5875, 0.5875, 0.5888888888888889, 0.5902777777777778, 0.5902777777777778]</t>
         </is>
       </c>
     </row>
@@ -6414,52 +6414,52 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.5581427015250545</v>
+        <v>0.5616830065359477</v>
       </c>
       <c r="E65" t="n">
-        <v>0.589162291919056</v>
+        <v>0.5940734188412207</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5899723303955728</v>
+        <v>0.5901960784313726</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[[3, 11, 2], [3, 26, 5], [1, 4, 13]]</t>
+          <t>[[5, 9, 2], [4, 24, 6], [3, 3, 12]]</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.6863200587635109, 'gamma': 0.0, 'learning_rate': 0.19329883629936662, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9224612715238787})</t>
+          <t>OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.1291639014903707, 'max_depth': 5, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 0.851361840747725})</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[0.648611111111111, 0.7174999999999999, 0.6622222222222222, 0.6966666666666667, 0.6661111111111111, 0.6922222222222223, 0.6716666666666666, 0.7052777777777777, 0.6888888888888889, 0.6797222222222222, 0.7052777777777777, 0.7183333333333334, 0.7094444444444444, 0.6766666666666666, 0.7358333333333333, 0.6575, 0.7183333333333334, 0.6927777777777778, 0.7219444444444444, 0.6799999999999999, 0.74, 0.7275, 0.5897222222222223, 0.6683333333333332, 0.6280555555555555, 0.6836111111111111, 0.6888888888888889, 0.7352777777777778, 0.6394444444444445, 0.6411111111111111, 0.7305555555555556, 0.7047222222222221, 0.7305555555555555, 0.7005555555555556, 0.7177777777777778, 0.6461111111111111, 0.7352777777777778, 0.7180555555555556, 0.7094444444444444, 0.7047222222222221, 0.6922222222222222, 0.7266666666666667, 0.7355555555555555, 0.7311111111111112, 0.7091666666666667, 0.7180555555555556, 0.726388888888889, 0.6930555555555555, 0.726388888888889, 0.7094444444444444]</t>
+          <t>[0.6405555555555555, 0.6663888888888889, 0.6749999999999999, 0.7097222222222224, 0.6755555555555556, 0.7397222222222223, 0.6747222222222222, 0.6663888888888889, 0.7052777777777778, 0.6619444444444443, 0.6458333333333333, 0.7177777777777777, 0.6613888888888888, 0.7180555555555557, 0.6794444444444444, 0.7224999999999999, 0.6447222222222222, 0.5986111111111111, 0.6783333333333333, 0.7216666666666668, 0.678888888888889, 0.701388888888889, 0.7008333333333333, 0.7008333333333333, 0.7102777777777778, 0.6530555555555556, 0.7100000000000001, 0.7480555555555555, 0.6927777777777778, 0.6577777777777778, 0.731111111111111, 0.6933333333333334, 0.7052777777777778, 0.7269444444444445, 0.7219444444444444, 0.7313888888888889, 0.7225, 0.7177777777777778, 0.7005555555555556, 0.7438888888888889, 0.6538888888888889, 0.6288888888888889, 0.7272222222222222, 0.726388888888889, 0.7352777777777778, 0.7388888888888888, 0.6613888888888889, 0.6675, 0.7391666666666666, 0.7016666666666667]</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>[0.04052129450846774, 0.06165540437697973, 0.04597536914371912, 0.05893603982389262, 0.022679326529944668, 0.033616849831484726, 0.07300114154358593, 0.04126098806139368, 0.053315969395600356, 0.03541639433446497, 0.06640225342004036, 0.05038738819276991, 0.06913486551393319, 0.05589755841749294, 0.054859528809811764, 0.04077376607575024, 0.03985312540991322, 0.05873801427514941, 0.03707474931860012, 0.0569722154504574, 0.0373443270850085, 0.043224578627568684, 0.05491716545606115, 0.07515108239530009, 0.07466695601795785, 0.06665161867205432, 0.02737203673572223, 0.045292260805670684, 0.07512643663505865, 0.04151453709393199, 0.04613954946346308, 0.023840390045694822, 0.04907320055127521, 0.0781074362973096, 0.034498165991688944, 0.03331480966792214, 0.06805612244661856, 0.007708020514173129, 0.033337962641505535, 0.048865208911610176, 0.007484551991837529, 0.024301983864554906, 0.03118790126291263, 0.037879764297179555, 0.030053963810797783, 0.050154083570188315, 0.05520025272799545, 0.05146016078626406, 0.053726846865176016, 0.06485025486114576]</t>
+          <t>[0.0641023005692589, 0.049732308101834634, 0.04311375994153486, 0.050007715454100404, 0.03616022301362452, 0.04256984094431989, 0.05486656091074822, 0.03584732715555696, 0.035457764825489936, 0.049430397505288895, 0.05604644238222173, 0.04996449356577081, 0.050241699762863606, 0.0403399902679068, 0.049248989461337794, 0.05269291422835279, 0.056706140935114675, 0.0713840249099592, 0.01864631827426491, 0.06366870270159199, 0.03942487777602259, 0.06078828875188641, 0.02936572285867228, 0.034163278964842156, 0.052569765520816075, 0.04257709057668582, 0.055579161651436816, 0.03406149123548744, 0.053944701910359376, 0.03659504790083213, 0.06815242538912138, 0.049264654396834126, 0.06837735709255635, 0.05256242614240052, 0.04973230810183459, 0.0393484748006299, 0.05919600211726015, 0.03532695609814828, 0.04691567165578664, 0.0641636603432346, 0.04195640006212207, 0.056549443022658005, 0.04226058198988108, 0.06585149772849834, 0.05176364852521482, 0.053683744694688056, 0.05584922383049865, 0.03661612678507571, 0.052244380641768305, 0.04791485503821684]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>[45, 19, 43, 29, 42, 32, 40, 24, 34, 38, 24, 14, 20, 39, 2, 44, 14, 31, 13, 37, 1, 9, 50, 41, 49, 36, 34, 4, 48, 47, 7, 26, 8, 28, 18, 46, 4, 16, 20, 26, 33, 10, 3, 6, 23, 16, 11, 30, 11, 20]</t>
+          <t>[48, 38, 35, 21, 34, 3, 36, 38, 22, 40, 46, 18, 42, 16, 31, 13, 47, 50, 33, 15, 32, 25, 26, 26, 19, 45, 20, 1, 30, 43, 8, 29, 22, 10, 14, 7, 12, 17, 28, 2, 44, 49, 9, 11, 6, 5, 41, 37, 4, 24]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.8683337430525278, 'gamma': 3.505042441289297, 'learning_rate': 0.018250961343578623, 'max_depth': 1, 'min_child_weight': 8, 'n_estimators': 491, 'subsample': 0.7980346853880954}), OrderedDict({'colsample_bytree': 0.7619072083019136, 'gamma': 1.1578190912676432, 'learning_rate': 0.08628753397041024, 'max_depth': 8, 'min_child_weight': 6, 'n_estimators': 251, 'subsample': 0.9188129194805306}), OrderedDict({'colsample_bytree': 0.6044408136334654, 'gamma': 4.109581295015169, 'learning_rate': 0.011251114512355003, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 497, 'subsample': 0.6316803694660718}), OrderedDict({'colsample_bytree': 0.732583199055844, 'gamma': 2.512863636502561, 'learning_rate': 0.05490802065355316, 'max_depth': 13, 'min_child_weight': 3, 'n_estimators': 200, 'subsample': 0.9325872519698843}), OrderedDict({'colsample_bytree': 0.8606192629841134, 'gamma': 3.7870924471220335, 'learning_rate': 0.010558436306226212, 'max_depth': 11, 'min_child_weight': 4, 'n_estimators': 334, 'subsample': 0.5087326335474983}), OrderedDict({'colsample_bytree': 0.7078750198900636, 'gamma': 2.265921198781382, 'learning_rate': 0.08074291376914446, 'max_depth': 2, 'min_child_weight': 8, 'n_estimators': 235, 'subsample': 0.8630308686682476}), OrderedDict({'colsample_bytree': 0.9114837809066918, 'gamma': 4.848166198091801, 'learning_rate': 0.2626848356871488, 'max_depth': 12, 'min_child_weight': 5, 'n_estimators': 195, 'subsample': 0.522085694660575}), OrderedDict({'colsample_bytree': 0.6809728496318801, 'gamma': 1.203429054573554, 'learning_rate': 0.026676351831593552, 'max_depth': 4, 'min_child_weight': 6, 'n_estimators': 200, 'subsample': 0.6990398662861612}), OrderedDict({'colsample_bytree': 0.5099673949672549, 'gamma': 0.38252864814105286, 'learning_rate': 0.042360122801023525, 'max_depth': 10, 'min_child_weight': 9, 'n_estimators': 419, 'subsample': 0.5165325055060084}), OrderedDict({'colsample_bytree': 0.8011887108944143, 'gamma': 3.6071114260220076, 'learning_rate': 0.0629906808049077, 'max_depth': 5, 'min_child_weight': 4, 'n_estimators': 250, 'subsample': 0.865046852879124}), OrderedDict({'colsample_bytree': 0.8712616235324264, 'gamma': 0.0, 'learning_rate': 0.2432466571898446, 'max_depth': 6, 'min_child_weight': 5, 'n_estimators': 150, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.765280445782311, 'gamma': 0.8884724576449747, 'learning_rate': 0.03182937106921065, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 282, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.1621124279470734, 'learning_rate': 0.011006605661065276, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 192, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6908228665251376, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 10, 'n_estimators': 257, 'subsample': 0.5926402848216636}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.071467589813888, 'learning_rate': 0.012121542191051366, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 144, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.4685738302186304, 'learning_rate': 0.11603425484610183, 'max_depth': 1, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.3156593460099985, 'learning_rate': 0.023624916783378115, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 164, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.327222944010846, 'learning_rate': 0.17213922632757095, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 235, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6099348750910614, 'gamma': 0.41563886388457655, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.5882632408759134, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 103, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6863200587635109, 'gamma': 0.0, 'learning_rate': 0.19329883629936662, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9224612715238787}), OrderedDict({'colsample_bytree': 0.7232749844835233, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 156, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.1487294380024986, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 10, 'n_estimators': 65, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 312, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 9, 'n_estimators': 319, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.569054171607703, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 7, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.9552378044008465, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 384, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.27565285230117825, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 136, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.671779691208051, 'gamma': 1.021887190562454, 'learning_rate': 0.020662514743885148, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 451, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6813066793242939, 'gamma': 0.24961223070931188, 'learning_rate': 0.10177299630973916, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 444, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8757816524414548, 'gamma': 0.0, 'learning_rate': 0.119609461905656, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.10288184098941264, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7719526904987695, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.020708567050160512, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9143220428478229, 'gamma': 1.228932001290562, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6317789125937461, 'gamma': 0.6550246203583956, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7982950837432881, 'gamma': 1.4981020336613229, 'learning_rate': 0.04634928947306548, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 336, 'subsample': 0.5686078333178365}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.499525253294984, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.001918442272814, 'learning_rate': 0.012404012486063968, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6745215823416271, 'gamma': 0.35142338943143675, 'learning_rate': 0.02049105144453232, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7646455831896863}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.05836180187243343, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 189, 'subsample': 0.5566217660358359}), OrderedDict({'colsample_bytree': 0.8964412695877841, 'gamma': 1.5896753244572073, 'learning_rate': 0.18524503985379473, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 483, 'subsample': 0.8509924067773265}), OrderedDict({'colsample_bytree': 0.9235124916438251, 'gamma': 1.1577673191055449, 'learning_rate': 0.20025603989865276, 'max_depth': 10, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8324615909001437, 'gamma': 0.8945541413471858, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 478, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8862880562637301, 'gamma': 0.658724181131669, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 7, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5856837998647288, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 410, 'subsample': 0.7262224416427414}), OrderedDict({'colsample_bytree': 0.8214432219565706, 'gamma': 1.0661630110883362, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 7, 'n_estimators': 500, 'subsample': 1.0})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.8411946690060892, 'gamma': 4.569774884202805, 'learning_rate': 0.011959140063396174, 'max_depth': 4, 'min_child_weight': 5, 'n_estimators': 149, 'subsample': 0.9437813814402256}), OrderedDict({'colsample_bytree': 0.6570466436873375, 'gamma': 3.9223971419207397, 'learning_rate': 0.03148326349445256, 'max_depth': 12, 'min_child_weight': 6, 'n_estimators': 498, 'subsample': 0.7704744005476489}), OrderedDict({'colsample_bytree': 0.5839833937417864, 'gamma': 3.0840706262442015, 'learning_rate': 0.0519147756916461, 'max_depth': 14, 'min_child_weight': 6, 'n_estimators': 100, 'subsample': 0.6394540363811415}), OrderedDict({'colsample_bytree': 0.9754645128485255, 'gamma': 0.24032374219906288, 'learning_rate': 0.29177733962189517, 'max_depth': 4, 'min_child_weight': 6, 'n_estimators': 287, 'subsample': 0.8087309928809037}), OrderedDict({'colsample_bytree': 0.6760713111924003, 'gamma': 1.7281664178015712, 'learning_rate': 0.0855881202597667, 'max_depth': 6, 'min_child_weight': 8, 'n_estimators': 222, 'subsample': 0.6509947770183756}), OrderedDict({'colsample_bytree': 0.9462726602811699, 'gamma': 0.9037686008760949, 'learning_rate': 0.1548131461070456, 'max_depth': 2, 'min_child_weight': 3, 'n_estimators': 218, 'subsample': 0.8206323535536519}), OrderedDict({'colsample_bytree': 0.8034576235537354, 'gamma': 4.079861717753501, 'learning_rate': 0.03105578188089181, 'max_depth': 11, 'min_child_weight': 2, 'n_estimators': 77, 'subsample': 0.9110474757474221}), OrderedDict({'colsample_bytree': 0.6864596513801109, 'gamma': 4.01955858213959, 'learning_rate': 0.09797619437923637, 'max_depth': 10, 'min_child_weight': 5, 'n_estimators': 139, 'subsample': 0.6036390019207069}), OrderedDict({'colsample_bytree': 0.8035952449671687, 'gamma': 2.0010477005692673, 'learning_rate': 0.1545849136670998, 'max_depth': 2, 'min_child_weight': 6, 'n_estimators': 393, 'subsample': 0.5908175146494888}), OrderedDict({'colsample_bytree': 0.9435877850326896, 'gamma': 3.6865090436566432, 'learning_rate': 0.017598036051526232, 'max_depth': 6, 'min_child_weight': 7, 'n_estimators': 263, 'subsample': 0.740746221120135}), OrderedDict({'colsample_bytree': 0.6673917788094386, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.2583283477149414, 'learning_rate': 0.06220315355134569, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 238, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 4.638960501452091, 'learning_rate': 0.13542069065340892, 'max_depth': 8, 'min_child_weight': 7, 'n_estimators': 383, 'subsample': 0.592411069501024}), OrderedDict({'colsample_bytree': 0.9293103066265893, 'gamma': 1.3746716918124782, 'learning_rate': 0.23791647848544406, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 174, 'subsample': 0.5340548437370328}), OrderedDict({'colsample_bytree': 0.9374277840268037, 'gamma': 1.3058713197212268, 'learning_rate': 0.1483663099572093, 'max_depth': 1, 'min_child_weight': 4, 'n_estimators': 395, 'subsample': 0.5162650014327318}), OrderedDict({'colsample_bytree': 0.9819529065999311, 'gamma': 0.3715245394896879, 'learning_rate': 0.2324213025843929, 'max_depth': 9, 'min_child_weight': 3, 'n_estimators': 183, 'subsample': 0.9656458420969418}), OrderedDict({'colsample_bytree': 0.5162140680807049, 'gamma': 0.4551910477283182, 'learning_rate': 0.016179667350116122, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 198, 'subsample': 0.6057970116331148}), OrderedDict({'colsample_bytree': 0.8796872239528879, 'gamma': 0.4599609423349974, 'learning_rate': 0.01063313920143997, 'max_depth': 1, 'min_child_weight': 8, 'n_estimators': 165, 'subsample': 0.9514004606063982}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 3.770560449954918, 'learning_rate': 0.16831033839666765, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 227, 'subsample': 0.6254314806759551}), OrderedDict({'colsample_bytree': 0.8345506844267782, 'gamma': 1.3975492721097995, 'learning_rate': 0.21612441258899645, 'max_depth': 11, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 0.8486294193670127}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.1346512770855908, 'learning_rate': 0.13746694207362814, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 308, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9101379129345075, 'gamma': 1.2547063398439606, 'learning_rate': 0.29999999999999993, 'max_depth': 3, 'min_child_weight': 3, 'n_estimators': 243, 'subsample': 0.7924596543865995}), OrderedDict({'colsample_bytree': 0.5325514878126241, 'gamma': 0.0, 'learning_rate': 0.1347464433629424, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.54819999832617}), OrderedDict({'colsample_bytree': 0.8860705571496086, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.8478397884599242}), OrderedDict({'colsample_bytree': 0.7471948155634576, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 116, 'subsample': 0.5489937163077548}), OrderedDict({'colsample_bytree': 0.8317651874760446, 'gamma': 2.2415158472470327, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.6446135407620031}), OrderedDict({'colsample_bytree': 0.6065318793293878, 'gamma': 0.0, 'learning_rate': 0.1548955890582465, 'max_depth': 3, 'min_child_weight': 6, 'n_estimators': 365, 'subsample': 0.7646227047911064}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.1291639014903707, 'max_depth': 5, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 0.851361840747725}), OrderedDict({'colsample_bytree': 0.7387056281305766, 'gamma': 0.0, 'learning_rate': 0.13760824554707493, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 52, 'subsample': 0.9511626971870855}), OrderedDict({'colsample_bytree': 0.9140350138553996, 'gamma': 4.357285472006545, 'learning_rate': 0.1313277198182185, 'max_depth': 6, 'min_child_weight': 9, 'n_estimators': 381, 'subsample': 0.8684262008587499}), OrderedDict({'colsample_bytree': 0.9886216011170164, 'gamma': 0.0, 'learning_rate': 0.10465875910434799, 'max_depth': 8, 'min_child_weight': 2, 'n_estimators': 348, 'subsample': 0.7861910918291087}), OrderedDict({'colsample_bytree': 0.9370443819995757, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 369, 'subsample': 0.6550567521350632}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.12387405299294084, 'max_depth': 3, 'min_child_weight': 2, 'n_estimators': 374, 'subsample': 0.8476192903676385}), OrderedDict({'colsample_bytree': 0.5375149450915618, 'gamma': 0.0, 'learning_rate': 0.06785363291870482, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 395, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.10745871638937733, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6539006383177447, 'gamma': 0.0, 'learning_rate': 0.034549796388107824, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 453, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.06597698665801471, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 79, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 191, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.12614796039235776, 'max_depth': 7, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9560990150651938, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 316, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9483801557021714, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 169, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.09621543204694474, 'max_depth': 9, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.03950193414603454, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9498278928627224, 'gamma': 0.06419352824139206, 'learning_rate': 0.04349187371464109, 'max_depth': 14, 'min_child_weight': 3, 'n_estimators': 158, 'subsample': 0.9521642562965386}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.053290579638012626, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.846366046262288}), OrderedDict({'colsample_bytree': 0.7608346755360127, 'gamma': 4.6791328704043575, 'learning_rate': 0.011157580472165042, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 429, 'subsample': 0.8368613804540532}), OrderedDict({'colsample_bytree': 0.9893462030661158, 'gamma': 0.2002803844302276, 'learning_rate': 0.28702505027677644, 'max_depth': 5, 'min_child_weight': 10, 'n_estimators': 250, 'subsample': 0.531538056534663}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.10955721525767138, 'max_depth': 8, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5643038290733448, 'gamma': 0.002575510765689854, 'learning_rate': 0.08896004157071809, 'max_depth': 13, 'min_child_weight': 5, 'n_estimators': 357, 'subsample': 0.9318616628302581})]</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O65" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -6468,27 +6468,27 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>[0.6180555555555555, 0.6180555555555555, 0.6388888888888888, 0.5972222222222222, 0.6611111111111111, 0.6388888888888888, 0.5569444444444445, 0.6833333333333332, 0.6, 0.6194444444444445, 0.5763888888888888, 0.6194444444444445, 0.5986111111111111, 0.5791666666666667, 0.6416666666666667, 0.6388888888888888, 0.6416666666666667, 0.6416666666666667, 0.6833333333333332, 0.6416666666666667, 0.7041666666666666, 0.6625, 0.49027777777777776, 0.6194444444444445, 0.5125000000000001, 0.6194444444444445, 0.6416666666666667, 0.6833333333333332, 0.5555555555555555, 0.6180555555555555, 0.6402777777777778, 0.6625, 0.6416666666666667, 0.5555555555555555, 0.6625, 0.6, 0.6625, 0.7041666666666666, 0.6625, 0.6388888888888888, 0.6833333333333332, 0.6833333333333332, 0.6833333333333332, 0.6625, 0.6833333333333332, 0.6416666666666667, 0.6194444444444445, 0.6416666666666667, 0.6625, 0.5972222222222222]</t>
+          <t>[0.5541666666666667, 0.6166666666666667, 0.6194444444444445, 0.6208333333333333, 0.6194444444444445, 0.6625, 0.5958333333333333, 0.6611111111111111, 0.6402777777777778, 0.6180555555555555, 0.5569444444444445, 0.6180555555555555, 0.6194444444444445, 0.6625, 0.6, 0.6208333333333333, 0.5958333333333333, 0.5125000000000001, 0.6819444444444445, 0.6194444444444445, 0.6402777777777778, 0.6, 0.6833333333333332, 0.6416666666666667, 0.6208333333333333, 0.6194444444444445, 0.6208333333333333, 0.6833333333333332, 0.6625, 0.6402777777777778, 0.5986111111111111, 0.6013888888888889, 0.5763888888888888, 0.6416666666666667, 0.6625, 0.6833333333333332, 0.6416666666666667, 0.6819444444444445, 0.6625, 0.6208333333333333, 0.6208333333333333, 0.5763888888888888, 0.7041666666666666, 0.5972222222222222, 0.6416666666666667, 0.6388888888888888, 0.6375000000000001, 0.6208333333333333, 0.6402777777777778, 0.6208333333333333]</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[0.6569444444444444, 0.6791666666666667, 0.6555555555555556, 0.6791666666666667, 0.6763888888888889, 0.6791666666666667, 0.6777777777777777, 0.6361111111111111, 0.7222222222222222, 0.6791666666666667, 0.7652777777777778, 0.7444444444444445, 0.7000000000000001, 0.7013888888888888, 0.7888888888888889, 0.6791666666666667, 0.7444444444444445, 0.6138888888888889, 0.7236111111111111, 0.6361111111111111, 0.7444444444444445, 0.7027777777777778, 0.6583333333333333, 0.6152777777777777, 0.6361111111111111, 0.7236111111111111, 0.7027777777777778, 0.7875, 0.6777777777777777, 0.6194444444444445, 0.7444444444444445, 0.7222222222222222, 0.7652777777777778, 0.7861111111111111, 0.7430555555555555, 0.6152777777777777, 0.6569444444444444, 0.7236111111111111, 0.6791666666666667, 0.6569444444444444, 0.7013888888888888, 0.7458333333333332, 0.7666666666666666, 0.7236111111111111, 0.7013888888888888, 0.6777777777777777, 0.7444444444444445, 0.6583333333333333, 0.7666666666666666, 0.6777777777777777]</t>
+          <t>[0.6583333333333333, 0.6777777777777777, 0.6777777777777777, 0.7236111111111111, 0.6791666666666667, 0.7444444444444445, 0.6361111111111111, 0.6777777777777777, 0.7236111111111111, 0.6777777777777777, 0.7236111111111111, 0.7444444444444445, 0.7208333333333333, 0.7013888888888888, 0.7027777777777778, 0.7652777777777778, 0.6347222222222223, 0.5708333333333333, 0.7000000000000001, 0.7000000000000001, 0.6986111111111111, 0.7013888888888888, 0.7236111111111111, 0.7013888888888888, 0.7236111111111111, 0.6347222222222223, 0.7027777777777778, 0.7666666666666666, 0.7000000000000001, 0.6569444444444444, 0.7666666666666666, 0.7027777777777778, 0.7444444444444445, 0.7652777777777778, 0.7666666666666666, 0.7027777777777778, 0.6597222222222222, 0.7652777777777778, 0.7666666666666666, 0.7652777777777778, 0.6138888888888889, 0.6375000000000001, 0.6805555555555555, 0.7444444444444445, 0.7430555555555555, 0.7444444444444445, 0.6555555555555556, 0.6375000000000001, 0.7430555555555555, 0.7027777777777778]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>[0.7236111111111111, 0.7888888888888889, 0.7486111111111112, 0.7708333333333334, 0.7027777777777778, 0.7055555555555556, 0.7694444444444445, 0.7472222222222222, 0.725, 0.7277777777777779, 0.7263888888888889, 0.7277777777777779, 0.8125, 0.7055555555555556, 0.7902777777777779, 0.7263888888888889, 0.7472222222222222, 0.7694444444444445, 0.7902777777777779, 0.7902777777777779, 0.7055555555555556, 0.725, 0.5986111111111111, 0.6861111111111112, 0.7472222222222222, 0.7472222222222222, 0.7041666666666666, 0.7902777777777779, 0.7236111111111111, 0.7041666666666666, 0.7680555555555556, 0.7263888888888889, 0.7472222222222222, 0.7263888888888889, 0.7263888888888889, 0.6847222222222222, 0.8333333333333334, 0.7263888888888889, 0.7458333333333332, 0.7472222222222222, 0.6833333333333332, 0.7472222222222222, 0.7472222222222222, 0.7680555555555556, 0.7680555555555556, 0.7694444444444445, 0.7486111111111112, 0.7680555555555556, 0.8097222222222222, 0.7694444444444445]</t>
+          <t>[0.7486111111111112, 0.7486111111111112, 0.7236111111111111, 0.7680555555555556, 0.725, 0.7902777777777779, 0.7486111111111112, 0.7236111111111111, 0.7236111111111111, 0.7486111111111112, 0.6833333333333332, 0.7472222222222222, 0.7236111111111111, 0.7666666666666666, 0.7458333333333332, 0.7263888888888889, 0.7472222222222222, 0.7263888888888889, 0.6611111111111111, 0.8111111111111112, 0.7472222222222222, 0.7902777777777779, 0.7472222222222222, 0.7458333333333332, 0.7041666666666666, 0.725, 0.7902777777777779, 0.7472222222222222, 0.7916666666666666, 0.7236111111111111, 0.7902777777777779, 0.7472222222222222, 0.7680555555555556, 0.7902777777777779, 0.7888888888888889, 0.7902777777777779, 0.7680555555555556, 0.7472222222222222, 0.7472222222222222, 0.7472222222222222, 0.725, 0.7277777777777779, 0.7902777777777779, 0.7472222222222222, 0.7263888888888889, 0.7902777777777779, 0.7694444444444445, 0.7263888888888889, 0.7472222222222222, 0.7694444444444445]</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>[0.6124999999999999, 0.7374999999999999, 0.6124999999999999, 0.7374999999999999, 0.6555555555555556, 0.6958333333333333, 0.6333333333333333, 0.7180555555555556, 0.6555555555555556, 0.6749999999999999, 0.7180555555555556, 0.7583333333333333, 0.7374999999999999, 0.6555555555555556, 0.7166666666666667, 0.6124999999999999, 0.7166666666666667, 0.6958333333333333, 0.7166666666666667, 0.6541666666666667, 0.7388888888888889, 0.7625000000000001, 0.5916666666666667, 0.6124999999999999, 0.6124999999999999, 0.7402777777777777, 0.6763888888888889, 0.6958333333333333, 0.6972222222222223, 0.673611111111111, 0.7583333333333333, 0.6944444444444443, 0.7805555555555556, 0.7388888888888889, 0.7597222222222223, 0.6541666666666667, 0.7805555555555556, 0.7166666666666667, 0.7180555555555556, 0.7180555555555556, 0.6958333333333333, 0.7166666666666667, 0.7180555555555556, 0.7388888888888889, 0.6958333333333333, 0.7374999999999999, 0.7791666666666667, 0.6555555555555556, 0.6958333333333333, 0.7388888888888889]</t>
+          <t>[0.6333333333333333, 0.6124999999999999, 0.6333333333333333, 0.7388888888888889, 0.6555555555555556, 0.7388888888888889, 0.6749999999999999, 0.6124999999999999, 0.6972222222222223, 0.6124999999999999, 0.6333333333333333, 0.7374999999999999, 0.6333333333333333, 0.6972222222222223, 0.6541666666666667, 0.7597222222222223, 0.6555555555555556, 0.5708333333333333, 0.6958333333333333, 0.7583333333333333, 0.6541666666666667, 0.6972222222222223, 0.6749999999999999, 0.6972222222222223, 0.7180555555555556, 0.6763888888888889, 0.7388888888888889, 0.7805555555555556, 0.6333333333333333, 0.6124999999999999, 0.7597222222222223, 0.6958333333333333, 0.6972222222222223, 0.6972222222222223, 0.673611111111111, 0.7180555555555556, 0.7805555555555556, 0.6749999999999999, 0.673611111111111, 0.8013888888888889, 0.6777777777777777, 0.5708333333333333, 0.6972222222222223, 0.7805555555555556, 0.7805555555555556, 0.7805555555555556, 0.6333333333333333, 0.6763888888888889, 0.7805555555555556, 0.6958333333333333]</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>[0.6319444444444443, 0.763888888888889, 0.6555555555555556, 0.6986111111111111, 0.6347222222222223, 0.7416666666666667, 0.7208333333333333, 0.7416666666666667, 0.7416666666666667, 0.6972222222222223, 0.7402777777777777, 0.7416666666666667, 0.6986111111111111, 0.7416666666666667, 0.7416666666666667, 0.6305555555555555, 0.7416666666666667, 0.7430555555555557, 0.6958333333333334, 0.6777777777777777, 0.8069444444444445, 0.7847222222222223, 0.6097222222222223, 0.8083333333333332, 0.6319444444444443, 0.5874999999999999, 0.7194444444444444, 0.7194444444444444, 0.5430555555555556, 0.5902777777777778, 0.7416666666666667, 0.7180555555555556, 0.7180555555555556, 0.6958333333333334, 0.6972222222222223, 0.6763888888888889, 0.7430555555555557, 0.7194444444444444, 0.7416666666666667, 0.7624999999999998, 0.6972222222222223, 0.7402777777777777, 0.7625000000000001, 0.7625000000000001, 0.6972222222222223, 0.763888888888889, 0.7402777777777777, 0.7416666666666667, 0.6972222222222223, 0.763888888888889]</t>
+          <t>[0.6083333333333333, 0.6763888888888889, 0.7208333333333333, 0.6972222222222223, 0.6986111111111111, 0.7625000000000001, 0.7180555555555556, 0.6569444444444444, 0.7416666666666667, 0.6527777777777778, 0.6319444444444445, 0.7416666666666666, 0.6097222222222222, 0.7625000000000001, 0.6944444444444443, 0.7402777777777777, 0.5902777777777777, 0.6124999999999999, 0.6527777777777778, 0.7194444444444444, 0.6541666666666667, 0.7180555555555556, 0.6749999999999999, 0.7180555555555556, 0.7847222222222223, 0.6097222222222222, 0.6972222222222223, 0.7625000000000001, 0.6763888888888889, 0.6555555555555556, 0.7402777777777777, 0.7194444444444444, 0.7402777777777777, 0.7402777777777777, 0.7180555555555556, 0.7625000000000001, 0.7625000000000001, 0.7194444444444444, 0.6527777777777777, 0.7847222222222223, 0.6319444444444445, 0.6319444444444444, 0.763888888888889, 0.7625000000000001, 0.7847222222222223, 0.7402777777777777, 0.611111111111111, 0.6763888888888889, 0.7847222222222223, 0.7194444444444444]</t>
         </is>
       </c>
     </row>
@@ -6600,49 +6600,49 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.3991582491582492</v>
+        <v>0.3926767676767677</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4496954132823698</v>
+        <v>0.446274409657508</v>
       </c>
       <c r="F67" t="n">
         <v>0.4615384615384616</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4413625590096178</v>
+        <v>0.4358469584713929</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[[3, 14, 5], [9, 29, 7], [6, 8, 10]]</t>
+          <t>[[3, 13, 6], [8, 30, 7], [6, 9, 9]]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 139})</t>
+          <t>OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 217})</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>[0.6853479853479852, 0.6901098901098901, 0.6952380952380952, 0.7153846153846154, 0.6952380952380952, 0.7106227106227107, 0.6604395604395605, 0.6758241758241759, 0.6750915750915751, 0.6853479853479854, 0.7249084249084248, 0.7402930402930402, 0.6794871794871795, 0.7003663003663003, 0.7007326007326007, 0.7054945054945054, 0.7102564102564102, 0.6857142857142857, 0.7000000000000001, 0.6805860805860806, 0.7153846153846153, 0.7102564102564102, 0.6545787545787546, 0.6706959706959708, 0.6600732600732601, 0.6406593406593407, 0.6505494505494506, 0.6608058608058608, 0.6505494505494506, 0.6604395604395605, 0.6959706959706959, 0.701098901098901, 0.6952380952380952, 0.6901098901098901, 0.6703296703296703, 0.7102564102564102, 0.6948717948717948, 0.6959706959706959, 0.6644688644688646, 0.6553113553113553, 0.7351648351648351, 0.7, 0.7098901098901098, 0.6959706959706959, 0.7, 0.6948717948717948, 0.7, 0.680952380952381, 0.6853479853479854, 0.6853479853479854]</t>
+          <t>[0.673992673992674, 0.7106227106227107, 0.6655677655677656, 0.7043956043956043, 0.6904761904761904, 0.6956043956043956, 0.6904761904761905, 0.6857142857142857, 0.7095238095238094, 0.7054945054945054, 0.7007326007326008, 0.6655677655677656, 0.6805860805860806, 0.6608058608058609, 0.6805860805860806, 0.6805860805860806, 0.665934065934066, 0.6501831501831502, 0.6904761904761905, 0.6703296703296704, 0.6952380952380952, 0.7007326007326007, 0.6604395604395605, 0.6904761904761905, 0.6608058608058608, 0.7106227106227105, 0.6956043956043956, 0.6644688644688644, 0.6743589743589744, 0.6695970695970697, 0.6952380952380952, 0.6853479853479854, 0.6952380952380952, 0.7062271062271063, 0.7051282051282051, 0.7054945054945054, 0.7106227106227107, 0.72014652014652, 0.7146520146520147, 0.6846153846153846, 0.6754578754578754, 0.6857142857142857, 0.6952380952380952, 0.6659340659340659, 0.6904761904761905, 0.6956043956043955, 0.6857142857142857, 0.675091575091575, 0.6699633699633699, 0.6952380952380952]</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>[0.06683752207678145, 0.09059104987043934, 0.06796426665696073, 0.06688969656978973, 0.0822635924053314, 0.05647444138742647, 0.047046430353120394, 0.06496024853834508, 0.05265814614376333, 0.06105689827403552, 0.04563932051918691, 0.04464358504149703, 0.04602866913538396, 0.04361282363703214, 0.06481136128921307, 0.06496437942439662, 0.06679736012021868, 0.05514736867704118, 0.07556271389846819, 0.07393099376728417, 0.0658994618188479, 0.05816453054810845, 0.07052209634055963, 0.0724441746103275, 0.09063695287269005, 0.0596113754327864, 0.0565266863719195, 0.07852338498879056, 0.06512940002282576, 0.05738887587070212, 0.0634345094642495, 0.05986966303069959, 0.044541281079347704, 0.06217834079442988, 0.07601946149645677, 0.034777321469356554, 0.04338147060488036, 0.05259950818414326, 0.055108426228066526, 0.06399677298684531, 0.06199681042557883, 0.07289653389952089, 0.07965327593151703, 0.06731361016569899, 0.07289653389952089, 0.07823407516021973, 0.05830277633941678, 0.07833519821421546, 0.08054777644443131, 0.08054777644443131]</t>
+          <t>[0.07101883042154035, 0.06487757558274983, 0.051576860609021564, 0.06739926739926742, 0.07524776038159024, 0.06731759663990614, 0.07886949618951954, 0.03358397096689259, 0.08368660778242622, 0.06367096988142049, 0.08014029212865663, 0.040286379735875545, 0.07393099376728417, 0.03576637508786564, 0.06815155885455082, 0.07393099376728417, 0.06099313585364768, 0.0814719869627756, 0.08404977220207886, 0.06781999596209885, 0.07195355119076388, 0.054264404373292614, 0.05738887587070212, 0.07454909922279968, 0.07852338498879056, 0.06880209161537813, 0.07653311234941851, 0.06623253567811804, 0.0629717101016685, 0.057866183705399886, 0.06842663401515384, 0.05350242887455605, 0.030899775397748217, 0.0752709374019108, 0.05829817342808135, 0.07401986951715525, 0.06487757558274983, 0.05744496078598836, 0.026877562385119645, 0.05638408602777148, 0.07492073839524323, 0.06758812527393246, 0.07137313524557948, 0.05816683733708197, 0.05350995188959752, 0.07806066213265073, 0.059342920410954535, 0.06229906717827854, 0.0635866206758357, 0.06292055170711472]</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>[33, 27, 22, 4, 22, 6, 43, 37, 38, 30, 3, 1, 36, 14, 13, 11, 7, 29, 15, 35, 5, 7, 47, 39, 45, 50, 48, 42, 48, 43, 19, 12, 22, 27, 40, 7, 25, 19, 41, 46, 2, 16, 10, 19, 16, 25, 16, 34, 30, 30]</t>
+          <t>[38, 3, 44, 11, 26, 14, 22, 27, 6, 8, 12, 44, 32, 47, 32, 32, 42, 50, 22, 39, 17, 13, 49, 22, 48, 5, 14, 46, 37, 41, 17, 30, 17, 7, 10, 8, 3, 1, 2, 31, 35, 27, 17, 43, 22, 16, 27, 36, 40, 17]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 5, 'min_samples_split': 15, 'n_estimators': 204}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 5, 'min_samples_split': 10, 'n_estimators': 278}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 12, 'n_estimators': 129}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 259}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 6, 'min_samples_split': 9, 'n_estimators': 296}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 112}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 6, 'min_samples_split': 5, 'n_estimators': 149}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 7, 'min_samples_split': 8, 'n_estimators': 158}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 4, 'min_samples_split': 12, 'n_estimators': 239}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 7, 'min_samples_split': 19, 'n_estimators': 259}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 139}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 74}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 227}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 2, 'min_samples_split': 11, 'n_estimators': 298}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 299}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 168}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 165}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 53}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 151}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 99}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 9, 'min_samples_split': 19, 'n_estimators': 92}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 9, 'min_samples_split': 17, 'n_estimators': 212}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 9, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 9, 'min_samples_split': 19, 'n_estimators': 223}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 278}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 55}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 295}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 282}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300})]</t>
+          <t>[OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 285}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 298}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 7, 'min_samples_split': 12, 'n_estimators': 62}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 4, 'min_samples_split': 4, 'n_estimators': 295}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 5, 'min_samples_split': 11, 'n_estimators': 163}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 2, 'min_samples_split': 15, 'n_estimators': 109}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 6, 'min_samples_split': 9, 'n_estimators': 276}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 3, 'min_samples_split': 15, 'n_estimators': 98}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 257}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 11, 'n_estimators': 162}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 259}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 4, 'min_samples_split': 18, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 296}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 7, 'n_estimators': 56}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 6, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 4, 'n_estimators': 278}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 208}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 76}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 282}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 70}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 11, 'n_estimators': 212}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 201}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 4, 'n_estimators': 203}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 5, 'min_samples_split': 3, 'n_estimators': 246}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 290}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 19, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 99}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 197}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 266}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 133}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 3, 'min_samples_split': 15, 'n_estimators': 178}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 217}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 250}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 18, 'n_estimators': 230}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 220}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 255}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 20, 'n_estimators': 215}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 20, 'n_estimators': 297}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 246}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 246}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 3, 'n_estimators': 218}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 17, 'n_estimators': 222}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 3, 'n_estimators': 209})]</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="O67" t="n">
         <v>0.4615384615384616</v>
@@ -6654,27 +6654,27 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>[0.6593406593406593, 0.6593406593406593, 0.6593406593406593, 0.7087912087912088, 0.6611721611721612, 0.7087912087912088, 0.6336996336996337, 0.6117216117216117, 0.6336996336996337, 0.683150183150183, 0.7802197802197802, 0.7326007326007327, 0.706959706959707, 0.683150183150183, 0.6593406593406593, 0.7087912087912088, 0.683150183150183, 0.6135531135531136, 0.6575091575091575, 0.6611721611721612, 0.7087912087912088, 0.7326007326007326, 0.6098901098901099, 0.6611721611721612, 0.6373626373626373, 0.6117216117216117, 0.6117216117216117, 0.5879120879120879, 0.6117216117216117, 0.6117216117216117, 0.6593406593406593, 0.6593406593406593, 0.683150183150183, 0.6336996336996337, 0.6355311355311356, 0.683150183150183, 0.683150183150183, 0.6593406593406593, 0.6355311355311356, 0.6593406593406593, 0.7564102564102564, 0.7326007326007327, 0.7087912087912088, 0.7087912087912088, 0.7326007326007327, 0.6593406593406593, 0.683150183150183, 0.7087912087912088, 0.6611721611721612, 0.6611721611721612]</t>
+          <t>[0.6355311355311356, 0.7087912087912088, 0.6355311355311356, 0.706959706959707, 0.6593406593406593, 0.6593406593406593, 0.6355311355311356, 0.6849816849816849, 0.6593406593406593, 0.6593406593406593, 0.683150183150183, 0.6355311355311356, 0.6611721611721612, 0.6611721611721612, 0.6117216117216117, 0.6611721611721612, 0.6373626373626373, 0.6336996336996337, 0.6849816849816849, 0.6373626373626373, 0.6593406593406593, 0.6593406593406593, 0.6117216117216117, 0.6593406593406593, 0.5879120879120879, 0.683150183150183, 0.6593406593406593, 0.6336996336996337, 0.5860805860805861, 0.6355311355311355, 0.683150183150183, 0.6593406593406593, 0.683150183150183, 0.6593406593406593, 0.683150183150183, 0.7087912087912088, 0.7087912087912088, 0.7326007326007326, 0.7326007326007327, 0.7087912087912088, 0.6593406593406593, 0.6593406593406593, 0.7087912087912088, 0.6593406593406593, 0.6593406593406593, 0.6611721611721612, 0.6593406593406593, 0.6593406593406593, 0.6575091575091575, 0.6849816849816849]</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[0.7527472527472527, 0.8003663003663003, 0.728937728937729, 0.7527472527472527, 0.8003663003663003, 0.7271062271062272, 0.728937728937729, 0.7527472527472527, 0.7527472527472527, 0.7527472527472527, 0.6776556776556776, 0.7783882783882784, 0.6794871794871794, 0.7527472527472527, 0.7527472527472527, 0.728937728937729, 0.728937728937729, 0.7765567765567766, 0.7051282051282052, 0.7783882783882784, 0.7783882783882784, 0.7032967032967034, 0.6794871794871794, 0.7765567765567766, 0.8003663003663003, 0.6556776556776557, 0.6813186813186812, 0.728937728937729, 0.7051282051282052, 0.7051282051282052, 0.7545787545787546, 0.728937728937729, 0.728937728937729, 0.7527472527472527, 0.7032967032967034, 0.6813186813186812, 0.6813186813186812, 0.7051282051282052, 0.7271062271062272, 0.728937728937729, 0.7783882783882784, 0.7527472527472527, 0.7765567765567766, 0.6556776556776557, 0.7527472527472527, 0.7527472527472527, 0.6794871794871794, 0.7783882783882784, 0.8021978021978021, 0.8021978021978021]</t>
+          <t>[0.7765567765567766, 0.728937728937729, 0.7051282051282052, 0.7765567765567766, 0.728937728937729, 0.7051282051282052, 0.728937728937729, 0.6813186813186812, 0.8003663003663003, 0.7527472527472527, 0.7051282051282052, 0.728937728937729, 0.7783882783882784, 0.7051282051282052, 0.7765567765567766, 0.7783882783882784, 0.7527472527472527, 0.7527472527472527, 0.8260073260073261, 0.7765567765567766, 0.7527472527472527, 0.728937728937729, 0.7051282051282052, 0.7051282051282052, 0.728937728937729, 0.728937728937729, 0.7271062271062272, 0.6794871794871794, 0.7527472527472527, 0.7271062271062272, 0.7271062271062272, 0.7051282051282052, 0.7051282051282052, 0.728937728937729, 0.728937728937729, 0.728937728937729, 0.728937728937729, 0.7783882783882784, 0.7032967032967034, 0.7509157509157509, 0.7545787545787546, 0.7783882783882784, 0.7527472527472527, 0.728937728937729, 0.728937728937729, 0.7527472527472527, 0.7545787545787546, 0.7527472527472527, 0.7527472527472527, 0.7527472527472527]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>[0.694139194139194, 0.6684981684981685, 0.694139194139194, 0.7197802197802199, 0.6684981684981685, 0.695970695970696, 0.6446886446886447, 0.6684981684981685, 0.6428571428571429, 0.694139194139194, 0.717948717948718, 0.7197802197802199, 0.6428571428571429, 0.6684981684981685, 0.7197802197802199, 0.694139194139194, 0.694139194139194, 0.695970695970696, 0.717948717948718, 0.6428571428571429, 0.6684981684981685, 0.694139194139194, 0.6923076923076924, 0.6190476190476191, 0.5934065934065934, 0.6172161172161172, 0.6172161172161172, 0.6428571428571429, 0.6172161172161172, 0.6428571428571429, 0.694139194139194, 0.694139194139194, 0.6923076923076922, 0.6190476190476191, 0.694139194139194, 0.717948717948718, 0.6923076923076922, 0.7197802197802199, 0.6923076923076924, 0.5952380952380952, 0.7197802197802199, 0.6703296703296703, 0.694139194139194, 0.7197802197802199, 0.6703296703296703, 0.6923076923076924, 0.717948717948718, 0.6446886446886447, 0.6428571428571429, 0.6428571428571429]</t>
+          <t>[0.6666666666666666, 0.7197802197802199, 0.6190476190476191, 0.6684981684981685, 0.694139194139194, 0.7197802197802199, 0.717948717948718, 0.6684981684981685, 0.7435897435897436, 0.695970695970696, 0.717948717948718, 0.6446886446886446, 0.6428571428571429, 0.6190476190476191, 0.6190476190476191, 0.6428571428571429, 0.6190476190476191, 0.6208791208791209, 0.6446886446886447, 0.6190476190476191, 0.6703296703296703, 0.7197802197802199, 0.6428571428571429, 0.717948717948718, 0.6428571428571429, 0.7454212454212454, 0.7197802197802199, 0.6666666666666666, 0.694139194139194, 0.6428571428571429, 0.7197802197802199, 0.717948717948718, 0.6684981684981685, 0.7197802197802199, 0.694139194139194, 0.7197802197802199, 0.7197802197802199, 0.694139194139194, 0.717948717948718, 0.6428571428571429, 0.6684981684981685, 0.6446886446886447, 0.6703296703296703, 0.6446886446886447, 0.6684981684981685, 0.694139194139194, 0.6684981684981685, 0.6684981684981685, 0.6446886446886447, 0.6684981684981685]</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>[0.7490842490842491, 0.7747252747252747, 0.7985347985347985, 0.7985347985347985, 0.7728937728937729, 0.7985347985347985, 0.6978021978021979, 0.7472527472527473, 0.7234432234432234, 0.7234432234432234, 0.7747252747252747, 0.7985347985347985, 0.7490842490842491, 0.7509157509157509, 0.7747252747252747, 0.7985347985347985, 0.8241758241758242, 0.695970695970696, 0.8241758241758242, 0.7472527472527473, 0.7985347985347985, 0.8003663003663003, 0.7472527472527473, 0.7234432234432234, 0.7216117216117216, 0.7472527472527473, 0.7472527472527473, 0.7728937728937729, 0.7472527472527473, 0.7472527472527473, 0.7728937728937729, 0.7985347985347985, 0.7509157509157509, 0.7728937728937729, 0.7728937728937729, 0.7747252747252746, 0.7747252747252746, 0.7747252747252746, 0.695970695970696, 0.7216117216117216, 0.7985347985347985, 0.7728937728937729, 0.7985347985347985, 0.7985347985347985, 0.7728937728937729, 0.7985347985347985, 0.7985347985347985, 0.7234432234432234, 0.7472527472527473, 0.7472527472527473]</t>
+          <t>[0.7216117216117216, 0.7985347985347985, 0.7472527472527473, 0.7728937728937729, 0.7985347985347985, 0.7985347985347985, 0.7985347985347985, 0.7472527472527473, 0.7728937728937729, 0.7985347985347985, 0.8241758241758242, 0.695970695970696, 0.7472527472527473, 0.695970695970696, 0.7472527472527473, 0.7472527472527473, 0.7234432234432234, 0.7216117216117216, 0.7234432234432234, 0.7216117216117216, 0.7985347985347985, 0.7747252747252746, 0.7472527472527473, 0.7985347985347985, 0.7728937728937729, 0.8003663003663003, 0.8003663003663003, 0.7728937728937729, 0.7216117216117216, 0.7472527472527473, 0.7747252747252747, 0.7490842490842491, 0.7509157509157509, 0.8241758241758242, 0.7985347985347985, 0.7985347985347985, 0.7985347985347985, 0.7728937728937729, 0.7490842490842491, 0.7234432234432234, 0.7472527472527473, 0.7490842490842491, 0.7728937728937729, 0.7252747252747254, 0.7728937728937729, 0.7985347985347985, 0.7490842490842491, 0.7234432234432234, 0.7234432234432234, 0.7728937728937729]</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>[0.5714285714285714, 0.5476190476190476, 0.5952380952380952, 0.5970695970695971, 0.5732600732600733, 0.6227106227106227, 0.5970695970695971, 0.5989010989010989, 0.6227106227106227, 0.5732600732600733, 0.6739926739926739, 0.6721611721611721, 0.619047619047619, 0.6465201465201466, 0.5970695970695971, 0.5970695970695971, 0.6208791208791209, 0.6465201465201466, 0.5952380952380952, 0.5732600732600733, 0.6227106227106227, 0.6208791208791209, 0.5439560439560439, 0.5732600732600733, 0.5476190476190476, 0.5714285714285714, 0.5952380952380952, 0.5714285714285714, 0.5714285714285714, 0.5952380952380952, 0.5989010989010989, 0.6245421245421245, 0.6208791208791209, 0.6721611721611721, 0.5457875457875457, 0.694139194139194, 0.6428571428571429, 0.6208791208791209, 0.5714285714285714, 0.5714285714285714, 0.6227106227106227, 0.5714285714285714, 0.5714285714285714, 0.5970695970695971, 0.5714285714285714, 0.5714285714285714, 0.6208791208791209, 0.5494505494505494, 0.5732600732600733, 0.5732600732600733]</t>
+          <t>[0.5695970695970696, 0.5970695970695971, 0.6208791208791209, 0.5970695970695971, 0.5714285714285714, 0.5952380952380952, 0.5714285714285714, 0.6465201465201466, 0.5714285714285714, 0.6208791208791209, 0.5732600732600733, 0.6227106227106227, 0.5732600732600733, 0.6227106227106227, 0.6483516483516484, 0.5732600732600733, 0.5970695970695971, 0.521978021978022, 0.5732600732600733, 0.5970695970695971, 0.5952380952380952, 0.6208791208791209, 0.5952380952380952, 0.5714285714285714, 0.5714285714285714, 0.5952380952380952, 0.5714285714285714, 0.5695970695970696, 0.6172161172161172, 0.5952380952380952, 0.5714285714285714, 0.5952380952380952, 0.6684981684981685, 0.5989010989010989, 0.6208791208791209, 0.5714285714285714, 0.5970695970695971, 0.6227106227106227, 0.6703296703296703, 0.5970695970695971, 0.5476190476190476, 0.5970695970695971, 0.5714285714285714, 0.5714285714285714, 0.6227106227106227, 0.5714285714285714, 0.5970695970695971, 0.5714285714285714, 0.5714285714285714, 0.5970695970695971]</t>
         </is>
       </c>
     </row>
@@ -6786,52 +6786,52 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.4760942760942761</v>
+        <v>0.4624579124579125</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4868620840517796</v>
+        <v>0.4974499185025501</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4835164835164835</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5199547074547075</v>
+        <v>0.4978277536417072</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[[6, 7, 9], [11, 22, 12], [5, 3, 16]]</t>
+          <t>[[4, 9, 9], [8, 28, 9], [4, 6, 14]]</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.006373179650851829, 'max_iter': 2311, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0070245675488851385, 'max_iter': 500, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[0.6073260073260073, 0.6512820512820513, 0.4315018315018316, 0.5655677655677656, 0.39780219780219783, 0.35750915750915746, 0.6505494505494505, 0.6315018315018315, 0.352014652014652, 0.627106227106227, 0.5714285714285714, 0.6073260073260074, 0.591941391941392, 0.6406593406593407, 0.48168498168498175, 0.49304029304029307, 0.6377289377289377, 0.6677655677655677, 0.3875457875457876, 0.3875457875457876, 0.663003663003663, 0.5564102564102564, 0.6644688644688644, 0.6652014652014652, 0.5772893772893773, 0.5824175824175826, 0.5666666666666667, 0.6175824175824176, 0.5322344322344323, 0.6377289377289377, 0.6787545787545788, 0.6721611721611721, 0.6787545787545788, 0.6805860805860806, 0.6417582417582417, 0.6717948717948719, 0.6377289377289377, 0.6516483516483517, 0.6670329670329671, 0.6765567765567766, 0.6721611721611721, 0.6787545787545788, 0.6721611721611721, 0.6721611721611721, 0.6721611721611721, 0.4831501831501831, 0.6622710622710622, 0.6868131868131868, 0.6315018315018315, 0.4534798534798535]</t>
+          <t>[0.5974358974358974, 0.6322344322344322, 0.41684981684981687, 0.6278388278388278, 0.6611721611721612, 0.45677655677655676, 0.41282051282051285, 0.3875457875457876, 0.41684981684981687, 0.612087912087912, 0.6516483516483517, 0.6864468864468866, 0.6413919413919413, 0.6564102564102564, 0.6571428571428571, 0.6721611721611721, 0.6805860805860806, 0.6721611721611721, 0.6787545787545788, 0.6124542124542124, 0.6831501831501832, 0.6644688644688646, 0.7073260073260073, 0.6164835164835164, 0.652014652014652, 0.6527472527472528, 0.6681318681318681, 0.6388278388278389, 0.6791208791208792, 0.6783882783882784, 0.5564102564102564, 0.3875457875457876, 0.6516483516483517, 0.6868131868131868, 0.5974358974358974, 0.6721611721611721, 0.48168498168498175, 0.4717948717948718, 0.6172161172161171, 0.38717948717948714, 0.547985347985348, 0.6073260073260074, 0.5769230769230769, 0.5871794871794872, 0.47619047619047616, 0.591941391941392, 0.5761904761904761, 0.591941391941392, 0.47619047619047616, 0.5970695970695972]</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>[0.06196433832612605, 0.05545066511404036, 0.049424766036396686, 0.1371470836204193, 0.046296077141712286, 0.05516926172473068, 0.030524053708424388, 0.09072425248593534, 0.05664524576718266, 0.0755733672877024, 0.06625886625403674, 0.02128328065396916, 0.0336597948942422, 0.03978028723879358, 0.10623342156293578, 0.09601262959944835, 0.09635440447739398, 0.07439234892230265, 0.03544985226940723, 0.03544985226940723, 0.08263301108226793, 0.07081449193095661, 0.022353327915593225, 0.027224768023534088, 0.06797216305139392, 0.07538137592401717, 0.08098966539000665, 0.016641489658022802, 0.08679541092488234, 0.031283852707393624, 0.07941709575578729, 0.019623582763339035, 0.07941709575578729, 0.06674913387475, 0.10312249878241352, 0.08868252151823032, 0.09635440447739398, 0.09634744159867312, 0.09347049455372516, 0.08722718552318529, 0.019623582763339035, 0.07941709575578729, 0.019623582763339035, 0.019623582763339035, 0.019623582763339035, 0.10228507308753264, 0.06211572955672228, 0.012950673648105275, 0.07515319548003219, 0.06567511215960276]</t>
+          <t>[0.13194645618574674, 0.07765567765567759, 0.051576860609021564, 0.009438900166098994, 0.09163368089111423, 0.07767468148145994, 0.10309647286301707, 0.03544985226940723, 0.051576860609021564, 0.07977783156026773, 0.09634744159867312, 0.010514798603961447, 0.10330319777988808, 0.096474087334526, 0.05808373521733275, 0.019623582763339035, 0.06674913387475, 0.019623582763339035, 0.07941709575578729, 0.07533330162980374, 0.07274544520033063, 0.06727772126818087, 0.07353793460119915, 0.05793570379419061, 0.029960593474986794, 0.08415825650259867, 0.07030104728899533, 0.07168077949578368, 0.033599948118589386, 0.07148584160367698, 0.10423417890297423, 0.03544985226940723, 0.09634744159867312, 0.012950673648105275, 0.13194645618574674, 0.019623582763339035, 0.10623342156293578, 0.15524654809333854, 0.0681161114554012, 0.09902041371613662, 0.08892427075609871, 0.02128328065396916, 0.03722952658541223, 0.03526009685306632, 0.07406154992586148, 0.0336597948942422, 0.06865176409288193, 0.0336597948942422, 0.07406154992586148, 0.027313336091292665]</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>[32, 20, 45, 38, 46, 49, 21, 27, 50, 29, 36, 31, 33, 23, 43, 41, 24, 13, 47, 47, 17, 39, 16, 15, 35, 34, 37, 30, 40, 24, 3, 7, 3, 2, 22, 12, 24, 19, 14, 6, 7, 3, 7, 7, 7, 42, 18, 1, 27, 44]</t>
+          <t>[30, 23, 45, 24, 14, 44, 47, 48, 45, 28, 19, 3, 21, 16, 15, 9, 5, 9, 7, 27, 4, 13, 1, 26, 18, 17, 12, 22, 6, 8, 38, 48, 19, 2, 30, 9, 40, 43, 25, 50, 39, 29, 36, 35, 41, 33, 37, 33, 41, 32]</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'tanh', 'alpha': 0.014821636205431026, 'learning_rate_init': 0.0010632379080807981, 'max_iter': 2188, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.007783625635578887, 'learning_rate_init': 0.001763645343888686, 'max_iter': 1433, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0004888038573884374, 'learning_rate_init': 0.00022175334378442325, 'max_iter': 932, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0001688454008003675, 'learning_rate_init': 0.00039684123975410003, 'max_iter': 2743, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 8.820781521800893e-06, 'learning_rate_init': 0.0003229634629836077, 'max_iter': 1384, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 3.7081006501887432e-06, 'learning_rate_init': 0.00026332720467164253, 'max_iter': 2915, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 6.30642035961553e-05, 'learning_rate_init': 0.002504345882481275, 'max_iter': 1225, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 8.641257836897572e-06, 'learning_rate_init': 0.0004629138823924032, 'max_iter': 2273, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00021890327123920677, 'learning_rate_init': 0.00019518199974961185, 'max_iter': 1779, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.4581592495143677e-06, 'learning_rate_init': 0.0011401921753597913, 'max_iter': 2235, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0031317243139235527, 'learning_rate_init': 0.0010457956555313687, 'max_iter': 907, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0006463781045896609, 'learning_rate_init': 0.001278919143971306, 'max_iter': 2492, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0014227341399813969, 'learning_rate_init': 0.0011564940848931865, 'max_iter': 1700, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0029183197047943695, 'learning_rate_init': 0.002636087972112149, 'max_iter': 641, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00016310202013842138, 'max_iter': 2524, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00022327305572313326, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.00032337714786601155, 'learning_rate_init': 0.005042566885443723, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 1639, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.9993648939252385e-06, 'learning_rate_init': 0.005106706799396665, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.0440615072593313e-06, 'learning_rate_init': 0.004678070098376086, 'max_iter': 2665, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.00850476454194251, 'max_iter': 2202, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.005957044587831689, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.7956010927733313e-05, 'learning_rate_init': 0.006000176837289414, 'max_iter': 2187, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 4.387416210534607e-06, 'learning_rate_init': 0.004600249593744288, 'max_iter': 2729, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 2.7081140476085693e-05, 'learning_rate_init': 0.004394006570791779, 'max_iter': 2818, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.003769695750411939, 'max_iter': 1037, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0019371240972566332, 'max_iter': 2802, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0023070903343555774, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.107978193145233e-06, 'learning_rate_init': 0.003763047849729769, 'max_iter': 641, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.007834803653091624, 'max_iter': 2710, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1053, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.009231420189000606, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.013419150392449671, 'learning_rate_init': 0.009161424235743168, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.513368700692582e-05, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00031919021685172555, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00668252851781666, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.011938546393095103, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.002446451900972884, 'learning_rate_init': 0.000842215527323614, 'max_iter': 1444, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.004851871574425052, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.006373179650851829, 'max_iter': 2311, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.0245588589102728e-06, 'learning_rate_init': 0.0006926128256531387, 'max_iter': 705, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 5.5020725274776455e-06, 'learning_rate_init': 0.0007229732392462973, 'max_iter': 2862, 'solver': 'sgd'})]</t>
+          <t>[OrderedDict({'activation': 'tanh', 'alpha': 0.004589010543890282, 'learning_rate_init': 0.002984046354716441, 'max_iter': 2509, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.003704733999349697, 'learning_rate_init': 0.0022437984713322714, 'max_iter': 2972, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00020749949597387562, 'learning_rate_init': 0.0001161024006046154, 'max_iter': 1615, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 7.043033778656983e-05, 'learning_rate_init': 0.005709381096224683, 'max_iter': 2295, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 2.137450291690876e-06, 'learning_rate_init': 0.004029006148972581, 'max_iter': 813, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0006159153336750857, 'learning_rate_init': 0.0007187063461262858, 'max_iter': 2412, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00011035411849465865, 'learning_rate_init': 0.0004247363980533367, 'max_iter': 923, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.004165656798430336, 'learning_rate_init': 0.00011860159024740091, 'max_iter': 2751, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.012710533935752819, 'learning_rate_init': 0.00011846931485766913, 'max_iter': 802, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.015235285556122372, 'learning_rate_init': 0.0007263211590715391, 'max_iter': 2533, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0065208824260913996, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.004111451297837627, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.004876885004754277, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.198545789371072e-06, 'learning_rate_init': 0.0049265580408139505, 'max_iter': 2825, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2801, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00030651407625147136, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0013986774147971446, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.007598673053946436, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.016944124313519486, 'learning_rate_init': 0.007176337348461115, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0070245675488851385, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.01481799572596428, 'learning_rate_init': 0.0047685428393059726, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0057979636038328775, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.004782902041414704, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 5.0920573585249617e-05, 'learning_rate_init': 0.003914701050969728, 'max_iter': 503, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.005952521599908703, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.04471303529991189, 'learning_rate_init': 0.006898194815612308, 'max_iter': 1481, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006039479882765355, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.001111133065854448, 'learning_rate_init': 0.009996880359797256, 'max_iter': 1228, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 2.8714978400058765e-06, 'learning_rate_init': 0.006329653265157617, 'max_iter': 1734, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0003805413125352977, 'learning_rate_init': 0.0025667488549089945, 'max_iter': 1944, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 5.046165404600339e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0001711555075911052, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0003278549047126798, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0010317176594723907, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00019130735604451702, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 4.607430131940684e-06, 'learning_rate_init': 0.002199897335951749, 'max_iter': 1079, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0012866889661129527, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0018305880906047422, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0019291652734314798, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.037013939098804696, 'learning_rate_init': 0.0014017068806276506, 'max_iter': 597, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0015448076661688781, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.001035647487368994, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0015443958046310498, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0014025383326212012, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0015177477971234428, 'max_iter': 3000, 'solver': 'sgd'})]</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="O69" t="n">
-        <v>0.4835164835164835</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -6840,27 +6840,27 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>[0.5421245421245421, 0.5897435897435898, 0.44505494505494503, 0.3534798534798535, 0.3534798534798535, 0.29853479853479853, 0.683150183150183, 0.683150183150183, 0.29853479853479853, 0.6593406593406593, 0.6135531135531136, 0.6135531135531136, 0.6135531135531136, 0.5897435897435898, 0.5421245421245421, 0.5183150183150184, 0.6593406593406593, 0.6849816849816851, 0.3534798534798535, 0.3534798534798535, 0.6849816849816851, 0.6336996336996337, 0.6794871794871794, 0.6794871794871794, 0.6336996336996337, 0.6849816849816851, 0.6593406593406593, 0.6153846153846154, 0.6135531135531136, 0.6373626373626373, 0.6868131868131869, 0.6391941391941391, 0.6868131868131869, 0.6336996336996337, 0.565934065934066, 0.5897435897435898, 0.6593406593406593, 0.5897435897435898, 0.565934065934066, 0.663003663003663, 0.6391941391941391, 0.6868131868131869, 0.6391941391941391, 0.6391941391941391, 0.6391941391941391, 0.4468864468864469, 0.5421245421245421, 0.663003663003663, 0.683150183150183, 0.3534798534798535]</t>
+          <t>[0.5897435897435898, 0.6575091575091575, 0.3974358974358974, 0.6153846153846154, 0.5897435897435898, 0.47069597069597063, 0.2747252747252747, 0.3534798534798535, 0.3974358974358974, 0.683150183150183, 0.5897435897435898, 0.6868131868131869, 0.5897435897435898, 0.5897435897435898, 0.5421245421245421, 0.6391941391941391, 0.6336996336996337, 0.6391941391941391, 0.6868131868131869, 0.5183150183150184, 0.6868131868131869, 0.7106227106227107, 0.7106227106227107, 0.6575091575091575, 0.663003663003663, 0.6868131868131869, 0.6849816849816851, 0.6153846153846154, 0.6575091575091575, 0.6868131868131869, 0.6098901098901099, 0.3534798534798535, 0.5897435897435898, 0.663003663003663, 0.5897435897435898, 0.6391941391941391, 0.5421245421245421, 0.3534798534798535, 0.6593406593406593, 0.2747252747252747, 0.6373626373626373, 0.6135531135531136, 0.5384615384615384, 0.5384615384615384, 0.3534798534798535, 0.6135531135531136, 0.6373626373626373, 0.6135531135531136, 0.3534798534798535, 0.6135531135531136]</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[0.7087912087912088, 0.7087912087912088, 0.42124542124542125, 0.7014652014652015, 0.4267399267399268, 0.3534798534798535, 0.6043956043956044, 0.7014652014652015, 0.326007326007326, 0.63003663003663, 0.4523809523809524, 0.6062271062271062, 0.5805860805860806, 0.7087912087912088, 0.3956043956043956, 0.4761904761904762, 0.6062271062271062, 0.7051282051282052, 0.4267399267399268, 0.4267399267399268, 0.706959706959707, 0.6282051282051282, 0.7014652014652015, 0.7032967032967031, 0.652014652014652, 0.6282051282051282, 0.652014652014652, 0.6062271062271062, 0.6043956043956044, 0.6575091575091575, 0.706959706959707, 0.6849816849816849, 0.706959706959707, 0.8040293040293042, 0.8315018315018315, 0.8333333333333334, 0.6062271062271062, 0.8315018315018315, 0.8333333333333334, 0.8333333333333334, 0.6849816849816849, 0.706959706959707, 0.6849816849816849, 0.6849816849816849, 0.6849816849816849, 0.3791208791208791, 0.6831501831501833, 0.6831501831501833, 0.6776556776556776, 0.5274725274725275]</t>
+          <t>[0.782051282051282, 0.7032967032967031, 0.3956043956043956, 0.6318681318681318, 0.8315018315018315, 0.3791208791208791, 0.3534798534798535, 0.4267399267399268, 0.3956043956043956, 0.63003663003663, 0.8315018315018315, 0.6831501831501833, 0.8315018315018315, 0.8315018315018315, 0.6831501831501833, 0.6849816849816849, 0.8040293040293042, 0.6849816849816849, 0.706959706959707, 0.7087912087912088, 0.6813186813186812, 0.6355311355311355, 0.8003663003663003, 0.5073260073260073, 0.7032967032967031, 0.6813186813186812, 0.6813186813186812, 0.5567765567765568, 0.6739926739926739, 0.706959706959707, 0.6282051282051282, 0.4267399267399268, 0.8315018315018315, 0.6831501831501833, 0.782051282051282, 0.6849816849816849, 0.3956043956043956, 0.7728937728937728, 0.63003663003663, 0.326007326007326, 0.6043956043956044, 0.6062271062271062, 0.5805860805860806, 0.6062271062271062, 0.532967032967033, 0.5805860805860806, 0.4523809523809524, 0.5805860805860806, 0.532967032967033, 0.5805860805860806]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>[0.5915750915750916, 0.5915750915750916, 0.34249084249084255, 0.6190476190476191, 0.33699633699633696, 0.34249084249084255, 0.6721611721611721, 0.6190476190476191, 0.34249084249084255, 0.6703296703296703, 0.5952380952380952, 0.5952380952380952, 0.5439560439560439, 0.6153846153846154, 0.34249084249084255, 0.34249084249084255, 0.6721611721611721, 0.6208791208791209, 0.33699633699633696, 0.33699633699633696, 0.6208791208791209, 0.4926739926739927, 0.6465201465201464, 0.6721611721611721, 0.5732600732600733, 0.5714285714285715, 0.4926739926739927, 0.5952380952380952, 0.4926739926739927, 0.6465201465201464, 0.6978021978021979, 0.6684981684981685, 0.6978021978021979, 0.695970695970696, 0.5915750915750916, 0.6410256410256411, 0.6721611721611721, 0.6410256410256411, 0.6410256410256411, 0.5915750915750916, 0.6684981684981685, 0.6978021978021979, 0.6684981684981685, 0.6684981684981685, 0.6684981684981685, 0.5915750915750916, 0.694139194139194, 0.694139194139194, 0.6446886446886447, 0.5183150183150184]</t>
+          <t>[0.565934065934066, 0.6721611721611721, 0.34249084249084255, 0.6208791208791209, 0.6410256410256411, 0.5915750915750916, 0.5677655677655679, 0.33699633699633696, 0.34249084249084255, 0.6190476190476191, 0.6410256410256411, 0.6684981684981685, 0.565934065934066, 0.6410256410256411, 0.694139194139194, 0.6684981684981685, 0.695970695970696, 0.6684981684981685, 0.6978021978021979, 0.5659340659340659, 0.7216117216117216, 0.5989010989010989, 0.6483516483516484, 0.6721611721611721, 0.6483516483516484, 0.5952380952380952, 0.6465201465201464, 0.6208791208791209, 0.6721611721611721, 0.6721611721611721, 0.5714285714285715, 0.33699633699633696, 0.6410256410256411, 0.694139194139194, 0.565934065934066, 0.6684981684981685, 0.34249084249084255, 0.3626373626373626, 0.6446886446886446, 0.5421245421245421, 0.5476190476190476, 0.5952380952380952, 0.5439560439560439, 0.5695970695970697, 0.467032967032967, 0.5439560439560439, 0.5695970695970697, 0.5439560439560439, 0.467032967032967, 0.5695970695970697]</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[0.6428571428571429, 0.7197802197802199, 0.4871794871794872, 0.694139194139194, 0.4102564102564103, 0.4615384615384615, 0.6684981684981685, 0.694139194139194, 0.4615384615384615, 0.694139194139194, 0.6428571428571429, 0.6428571428571429, 0.6428571428571429, 0.6428571428571429, 0.6428571428571429, 0.6428571428571429, 0.7728937728937729, 0.7728937728937729, 0.4102564102564103, 0.4102564102564103, 0.7728937728937729, 0.5695970695970697, 0.6465201465201464, 0.6465201465201464, 0.5695970695970697, 0.5695970695970697, 0.5695970695970697, 0.6428571428571429, 0.5695970695970697, 0.6684981684981685, 0.771062271062271, 0.6703296703296703, 0.771062271062271, 0.6208791208791209, 0.6684981684981685, 0.6941391941391942, 0.7728937728937729, 0.6446886446886446, 0.6941391941391942, 0.6941391941391942, 0.6703296703296703, 0.771062271062271, 0.6703296703296703, 0.6703296703296703, 0.6703296703296703, 0.6172161172161172, 0.7197802197802199, 0.695970695970696, 0.6684981684981685, 0.4102564102564103]</t>
+          <t>[0.6684981684981685, 0.6465201465201464, 0.4871794871794872, 0.6428571428571429, 0.6684981684981685, 0.4615384615384615, 0.4871794871794872, 0.4102564102564103, 0.4871794871794872, 0.6684981684981685, 0.6446886446886446, 0.695970695970696, 0.6684981684981685, 0.6684981684981685, 0.6941391941391942, 0.6703296703296703, 0.6208791208791209, 0.6703296703296703, 0.771062271062271, 0.694139194139194, 0.7728937728937729, 0.7728937728937729, 0.7728937728937729, 0.6208791208791209, 0.6208791208791209, 0.7728937728937729, 0.7728937728937729, 0.7728937728937729, 0.7435897435897436, 0.7728937728937729, 0.6208791208791209, 0.4102564102564103, 0.6446886446886446, 0.695970695970696, 0.6684981684981685, 0.6703296703296703, 0.6428571428571429, 0.4102564102564103, 0.6684981684981685, 0.4615384615384615, 0.5695970695970697, 0.6428571428571429, 0.6428571428571429, 0.6428571428571429, 0.5695970695970697, 0.6428571428571429, 0.6428571428571429, 0.6428571428571429, 0.5695970695970697, 0.6428571428571429]</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>[0.5512820512820512, 0.6465201465201466, 0.4615384615384615, 0.4597069597069597, 0.4615384615384615, 0.3315018315018315, 0.6245421245421245, 0.4597069597069597, 0.3315018315018315, 0.48168498168498175, 0.553113553113553, 0.5787545787545788, 0.5787545787545788, 0.6465201465201466, 0.4853479853479854, 0.4853479853479854, 0.47802197802197804, 0.554945054945055, 0.4102564102564103, 0.4102564102564103, 0.5293040293040293, 0.45787545787545786, 0.6483516483516484, 0.6245421245421245, 0.45787545787545786, 0.45787545787545786, 0.4597069597069597, 0.6282051282051282, 0.38095238095238093, 0.5787545787545788, 0.5311355311355311, 0.6978021978021979, 0.5311355311355311, 0.6483516483516484, 0.5512820512820512, 0.6007326007326007, 0.47802197802197804, 0.5512820512820512, 0.6007326007326007, 0.6007326007326007, 0.6978021978021979, 0.5311355311355311, 0.6978021978021979, 0.6978021978021979, 0.6978021978021979, 0.38095238095238093, 0.6721611721611721, 0.6978021978021979, 0.4835164835164835, 0.45787545787545786]</t>
+          <t>[0.38095238095238093, 0.48168498168498175, 0.4615384615384615, 0.6282051282051282, 0.575091575091575, 0.38095238095238093, 0.38095238095238093, 0.4102564102564103, 0.4615384615384615, 0.4597069597069597, 0.5512820512820512, 0.6978021978021979, 0.5512820512820512, 0.5512820512820512, 0.6721611721611721, 0.6978021978021979, 0.6483516483516484, 0.6978021978021979, 0.5311355311355311, 0.575091575091575, 0.553113553113553, 0.6043956043956044, 0.6043956043956044, 0.6245421245421245, 0.6245421245421245, 0.5274725274725275, 0.554945054945055, 0.6282051282051282, 0.6483516483516484, 0.553113553113553, 0.3516483516483517, 0.4102564102564103, 0.5512820512820512, 0.6978021978021979, 0.38095238095238093, 0.6978021978021979, 0.4853479853479854, 0.4597069597069597, 0.4835164835164835, 0.3315018315018315, 0.38095238095238093, 0.5787545787545788, 0.5787545787545788, 0.5787545787545788, 0.45787545787545786, 0.5787545787545788, 0.5787545787545788, 0.5787545787545788, 0.45787545787545786, 0.5787545787545788]</t>
         </is>
       </c>
     </row>
@@ -6972,52 +6972,52 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.3345959595959596</v>
+        <v>0.364983164983165</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3866347327885789</v>
+        <v>0.4108028180138467</v>
       </c>
       <c r="F71" t="n">
-        <v>0.4175824175824176</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3712760201864318</v>
+        <v>0.4352640602640603</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[[1, 16, 5], [9, 30, 6], [4, 13, 7]]</t>
+          <t>[[6, 10, 6], [15, 22, 8], [11, 5, 8]]</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 6})</t>
+          <t>OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2})</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[0.5864468864468865, 0.5963369963369963, 0.5084249084249085, 0.6113553113553113, 0.5879120879120879, 0.49743589743589745, 0.4886446886446887, 0.512087912087912, 0.552014652014652, 0.528937728937729, 0.4344322344322345, 0.6311355311355311, 0.4608058608058608, 0.4886446886446887, 0.6296703296703297, 0.4205128205128205, 0.5641025641025641, 0.4882783882783883, 0.5417582417582417, 0.5963369963369962, 0.4882783882783883, 0.4205128205128205, 0.5146520146520146, 0.47582417582417574, 0.5512820512820513, 0.48278388278388285, 0.4205128205128205, 0.5417582417582417, 0.5241758241758242, 0.626007326007326, 0.5505494505494506, 0.6249084249084248, 0.5293040293040293, 0.5146520146520146, 0.5417582417582417, 0.563003663003663, 0.4886446886446887, 0.5472527472527473, 0.4882783882783883, 0.44029304029304034, 0.621978021978022, 0.554945054945055, 0.4344322344322345, 0.48278388278388285, 0.5461538461538462, 0.47582417582417574, 0.4205128205128205, 0.4205128205128205, 0.621978021978022, 0.5241758241758242]</t>
+          <t>[0.5432234432234433, 0.567032967032967, 0.5641025641025641, 0.5391941391941392, 0.49230769230769234, 0.512087912087912, 0.5648351648351648, 0.5388278388278389, 0.5128205128205129, 0.5761904761904763, 0.4344322344322345, 0.5142857142857142, 0.5340659340659342, 0.5457875457875458, 0.4344322344322345, 0.5142857142857142, 0.47582417582417574, 0.626007326007326, 0.563003663003663, 0.48278388278388285, 0.5417582417582417, 0.6461538461538463, 0.5241758241758242, 0.5293040293040293, 0.5293040293040293, 0.5472527472527473, 0.4205128205128205, 0.42417582417582417, 0.5512820512820513, 0.554945054945055, 0.5073260073260073, 0.5468864468864469, 0.4205128205128205, 0.6260073260073259, 0.5142857142857142, 0.5897435897435898, 0.5501831501831502, 0.5241758241758242, 0.4344322344322345, 0.4344322344322345, 0.6512820512820513, 0.4362637362637362, 0.5758241758241758, 0.4886446886446887, 0.5501831501831502, 0.5293040293040293, 0.5271062271062271, 0.5714285714285714, 0.6065934065934064, 0.48278388278388285]</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>[0.054496336226927705, 0.08366255460705878, 0.094528208077776, 0.04456838439342164, 0.04276468534123448, 0.0664973900498459, 0.08226196134006171, 0.06413499964319207, 0.041143211962194795, 0.075669180296234, 0.05866983923240825, 0.09449271572178314, 0.07941709575578729, 0.08226196134006171, 0.0692627404519171, 0.049937905061448365, 0.05719449155833505, 0.07103394322278, 0.06695786340950897, 0.04488636976422097, 0.07103394322278, 0.049937905061448365, 0.07716689077351832, 0.08535977531797513, 0.059887589421708624, 0.07299034595284422, 0.049937905061448365, 0.06695786340950897, 0.06308879162376843, 0.029358922944342634, 0.043257576390430846, 0.08875058004927654, 0.07529232524210427, 0.07716689077351832, 0.06695786340950897, 0.09910845174403944, 0.08226196134006171, 0.05372766110654966, 0.07103394322278, 0.052184626574382775, 0.02165823516350838, 0.04240233297725358, 0.05866983923240825, 0.07299034595284422, 0.04162629368746297, 0.08535977531797513, 0.049937905061448365, 0.049937905061448365, 0.02165823516350838, 0.06308879162376843]</t>
+          <t>[0.07264947004435557, 0.046284482832203704, 0.04604324208782613, 0.06419773155441982, 0.06366043234268236, 0.06413499964319207, 0.04696079270487134, 0.03660072086973419, 0.08537234949132434, 0.04543601319658806, 0.05866983923240825, 0.07665573638063862, 0.10029943496043858, 0.048179290981560104, 0.05866983923240825, 0.07665573638063862, 0.08535977531797513, 0.029358922944342634, 0.09910845174403944, 0.07299034595284422, 0.06695786340950897, 0.06426875369805514, 0.06308879162376843, 0.07529232524210427, 0.07529232524210427, 0.05372766110654966, 0.049937905061448365, 0.05143358042041937, 0.059887589421708624, 0.04240233297725358, 0.07156463044191272, 0.07361270443337271, 0.049937905061448365, 0.04082893712261618, 0.07665573638063862, 0.052904730329321054, 0.05191395091354446, 0.06308879162376843, 0.05866983923240825, 0.05866983923240825, 0.05125064449052807, 0.058176063578291054, 0.07508353392128328, 0.08226196134006171, 0.05191395091354446, 0.07529232524210427, 0.06013799781680419, 0.048193213620481415, 0.06252265485902553, 0.07299034595284422]</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>[11, 8, 30, 7, 10, 31, 32, 29, 15, 24, 44, 1, 42, 32, 2, 46, 12, 35, 20, 9, 35, 46, 27, 40, 16, 38, 46, 20, 25, 3, 17, 4, 23, 27, 20, 13, 32, 18, 35, 43, 5, 14, 44, 38, 19, 40, 46, 46, 5, 25]</t>
+          <t>[21, 10, 12, 23, 38, 36, 11, 24, 35, 7, 44, 32, 25, 20, 44, 32, 42, 3, 13, 40, 22, 2, 30, 26, 26, 18, 49, 48, 15, 14, 37, 19, 49, 4, 32, 6, 16, 30, 44, 44, 1, 43, 8, 39, 16, 26, 29, 9, 5, 40]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 81, 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 38}), OrderedDict({'criterion': 'gini', 'max_depth': 92, 'max_features': None, 'min_samples_leaf': 4, 'min_samples_split': 9}), OrderedDict({'criterion': 'entropy', 'max_depth': 88, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 26}), OrderedDict({'criterion': 'gini', 'max_depth': 44, 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 16}), OrderedDict({'criterion': 'gini', 'max_depth': 23, 'max_features': None, 'min_samples_leaf': 6, 'min_samples_split': 14}), OrderedDict({'criterion': 'entropy', 'max_depth': 21, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 24, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 40}), OrderedDict({'criterion': 'entropy', 'max_depth': 21, 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 41}), OrderedDict({'criterion': 'gini', 'max_depth': 54, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 33}), OrderedDict({'criterion': 'gini', 'max_depth': 64, 'max_features': 'sqrt', 'min_samples_leaf': 14, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 9, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 93, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 18, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 45}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 93, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3})]</t>
+          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 61, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 35}), OrderedDict({'criterion': 'entropy', 'max_depth': 58, 'max_features': None, 'min_samples_leaf': 6, 'min_samples_split': 38}), OrderedDict({'criterion': 'gini', 'max_depth': 74, 'max_features': None, 'min_samples_leaf': 16, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 36, 'max_features': 'log2', 'min_samples_leaf': 15, 'min_samples_split': 10}), OrderedDict({'criterion': 'entropy', 'max_depth': 28, 'max_features': 'sqrt', 'min_samples_leaf': 16, 'min_samples_split': 23}), OrderedDict({'criterion': 'entropy', 'max_depth': 59, 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 42}), OrderedDict({'criterion': 'gini', 'max_depth': 78, 'max_features': None, 'min_samples_leaf': 17, 'min_samples_split': 11}), OrderedDict({'criterion': 'gini', 'max_depth': 56, 'max_features': 'sqrt', 'min_samples_leaf': 7, 'min_samples_split': 28}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 15, 'min_samples_split': 46}), OrderedDict({'criterion': 'entropy', 'max_depth': 85, 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 40}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 10, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 93, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 48})]</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="O71" t="n">
-        <v>0.4175824175824176</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -7026,27 +7026,27 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>[0.5586080586080587, 0.6849816849816851, 0.34432234432234426, 0.5604395604395603, 0.6135531135531136, 0.39194139194139194, 0.34432234432234426, 0.4157509157509158, 0.510989010989011, 0.39194139194139194, 0.326007326007326, 0.6098901098901099, 0.5164835164835164, 0.34432234432234426, 0.6098901098901098, 0.326007326007326, 0.5347985347985348, 0.39194139194139194, 0.43956043956043955, 0.5586080586080585, 0.39194139194139194, 0.326007326007326, 0.39194139194139194, 0.5164835164835164, 0.5384615384615384, 0.39194139194139194, 0.326007326007326, 0.43956043956043955, 0.4395604395604396, 0.6336996336996337, 0.5347985347985348, 0.7326007326007327, 0.39194139194139194, 0.39194139194139194, 0.43956043956043955, 0.4432234432234432, 0.34432234432234426, 0.5347985347985348, 0.39194139194139194, 0.3663003663003663, 0.6336996336996337, 0.5586080586080587, 0.326007326007326, 0.39194139194139194, 0.5347985347985348, 0.5164835164835164, 0.326007326007326, 0.326007326007326, 0.6336996336996337, 0.4395604395604396]</t>
+          <t>[0.4157509157509158, 0.5347985347985348, 0.5824175824175825, 0.4157509157509158, 0.36813186813186816, 0.4157509157509158, 0.5824175824175825, 0.48901098901098905, 0.39194139194139194, 0.5586080586080587, 0.326007326007326, 0.39194139194139194, 0.6062271062271063, 0.5824175824175825, 0.326007326007326, 0.39194139194139194, 0.5164835164835164, 0.6336996336996337, 0.4432234432234432, 0.39194139194139194, 0.43956043956043955, 0.7087912087912088, 0.4395604395604396, 0.39194139194139194, 0.39194139194139194, 0.5347985347985348, 0.326007326007326, 0.3461538461538461, 0.5384615384615384, 0.5586080586080587, 0.39194139194139194, 0.43956043956043955, 0.326007326007326, 0.608058608058608, 0.39194139194139194, 0.6575091575091575, 0.5347985347985348, 0.4395604395604396, 0.326007326007326, 0.326007326007326, 0.7326007326007327, 0.3461538461538461, 0.6098901098901099, 0.34432234432234426, 0.5347985347985348, 0.39194139194139194, 0.43956043956043955, 0.5347985347985348, 0.608058608058608, 0.39194139194139194]</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[0.652014652014652, 0.6263736263736264, 0.4816849816849817, 0.6465201465201466, 0.6538461538461539, 0.4816849816849817, 0.4816849816849817, 0.5567765567765568, 0.6025641025641025, 0.553113553113553, 0.4358974358974359, 0.7032967032967034, 0.46336996336996333, 0.4816849816849817, 0.7509157509157509, 0.4358974358974359, 0.6428571428571429, 0.4358974358974359, 0.6227106227106227, 0.6538461538461539, 0.4358974358974359, 0.4358974358974359, 0.47985347985347987, 0.5384615384615384, 0.6062271062271062, 0.4816849816849817, 0.4358974358974359, 0.6227106227106227, 0.47985347985347987, 0.6776556776556776, 0.5750915750915752, 0.6538461538461539, 0.5293040293040293, 0.47985347985347987, 0.6227106227106227, 0.6556776556776557, 0.4816849816849817, 0.5347985347985348, 0.4358974358974359, 0.4816849816849817, 0.6556776556776557, 0.5732600732600733, 0.4358974358974359, 0.4816849816849817, 0.553113553113553, 0.5384615384615384, 0.4358974358974359, 0.4358974358974359, 0.6556776556776557, 0.47985347985347987]</t>
+          <t>[0.6025641025641025, 0.6263736263736264, 0.6208791208791209, 0.576923076923077, 0.521978021978022, 0.5567765567765568, 0.6245421245421245, 0.5256410256410255, 0.4816849816849817, 0.6263736263736264, 0.4358974358974359, 0.47985347985347987, 0.3534798534798535, 0.5036630036630036, 0.4358974358974359, 0.47985347985347987, 0.5384615384615384, 0.6776556776556776, 0.6556776556776557, 0.4816849816849817, 0.6227106227106227, 0.6538461538461539, 0.47985347985347987, 0.5293040293040293, 0.5293040293040293, 0.5347985347985348, 0.4358974358974359, 0.4816849816849817, 0.6062271062271062, 0.5732600732600733, 0.5567765567765568, 0.6483516483516484, 0.4358974358974359, 0.554945054945055, 0.47985347985347987, 0.6062271062271063, 0.6227106227106227, 0.47985347985347987, 0.4358974358974359, 0.4358974358974359, 0.6282051282051282, 0.4816849816849817, 0.7051282051282052, 0.4816849816849817, 0.6227106227106227, 0.5293040293040293, 0.553113553113553, 0.6263736263736264, 0.5274725274725275, 0.4816849816849817]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>[0.6245421245421245, 0.6501831501831502, 0.6208791208791209, 0.6007326007326007, 0.5732600732600733, 0.5183150183150184, 0.5970695970695972, 0.5183150183150184, 0.49633699633699635, 0.6208791208791209, 0.4743589743589744, 0.7728937728937729, 0.4926739926739927, 0.5970695970695972, 0.6465201465201464, 0.4743589743589744, 0.6208791208791209, 0.5183150183150184, 0.5989010989010989, 0.575091575091575, 0.5183150183150184, 0.4743589743589744, 0.6227106227106227, 0.4926739926739927, 0.598901098901099, 0.5970695970695972, 0.4743589743589744, 0.5989010989010989, 0.6227106227106227, 0.5970695970695972, 0.6208791208791209, 0.694139194139194, 0.6208791208791209, 0.6227106227106227, 0.5989010989010989, 0.6501831501831502, 0.5970695970695972, 0.6501831501831502, 0.5183150183150184, 0.5036630036630036, 0.5970695970695972, 0.6208791208791209, 0.4743589743589744, 0.5970695970695972, 0.6208791208791209, 0.4926739926739927, 0.4743589743589744, 0.4743589743589744, 0.5970695970695972, 0.6227106227106227]</t>
+          <t>[0.6208791208791209, 0.5989010989010989, 0.5952380952380952, 0.5989010989010989, 0.5274725274725275, 0.5183150183150184, 0.5952380952380952, 0.5989010989010989, 0.6208791208791209, 0.5989010989010989, 0.4743589743589744, 0.6208791208791209, 0.5934065934065934, 0.6208791208791209, 0.4743589743589744, 0.6208791208791209, 0.4926739926739927, 0.5970695970695972, 0.6501831501831502, 0.5970695970695972, 0.5989010989010989, 0.7197802197802199, 0.6227106227106227, 0.6208791208791209, 0.6208791208791209, 0.6501831501831502, 0.4743589743589744, 0.4780219780219781, 0.598901098901099, 0.6208791208791209, 0.5183150183150184, 0.5989010989010989, 0.4743589743589744, 0.6483516483516484, 0.6208791208791209, 0.5952380952380952, 0.5989010989010989, 0.6227106227106227, 0.4743589743589744, 0.4743589743589744, 0.6721611721611721, 0.5036630036630036, 0.5476190476190476, 0.5970695970695972, 0.5989010989010989, 0.6208791208791209, 0.6208791208791209, 0.5989010989010989, 0.5457875457875457, 0.5970695970695972]</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>[0.6007326007326007, 0.575091575091575, 0.521978021978022, 0.6776556776556776, 0.5274725274725275, 0.49633699633699635, 0.4981684981684982, 0.47069597069597063, 0.5805860805860806, 0.5567765567765567, 0.49633699633699635, 0.521978021978022, 0.5238095238095238, 0.4981684981684982, 0.598901098901099, 0.4267399267399268, 0.5256410256410257, 0.49633699633699635, 0.5512820512820512, 0.5476190476190476, 0.49633699633699635, 0.4267399267399268, 0.5567765567765567, 0.5238095238095238, 0.5714285714285715, 0.42124542124542125, 0.4267399267399268, 0.5512820512820512, 0.5567765567765567, 0.5989010989010989, 0.5256410256410257, 0.5, 0.5567765567765567, 0.5567765567765567, 0.5512820512820512, 0.6245421245421245, 0.4981684981684982, 0.5238095238095238, 0.49633699633699635, 0.456043956043956, 0.6007326007326007, 0.5256410256410257, 0.49633699633699635, 0.42124542124542125, 0.5256410256410257, 0.5238095238095238, 0.4267399267399268, 0.4267399267399268, 0.6007326007326007, 0.5567765567765567]</t>
+          <t>[0.554945054945055, 0.5787545787545788, 0.5256410256410257, 0.5567765567765567, 0.5, 0.47069597069597063, 0.5256410256410257, 0.554945054945055, 0.47069597069597074, 0.6007326007326007, 0.49633699633699635, 0.5567765567765567, 0.49633699633699635, 0.5256410256410257, 0.49633699633699635, 0.5567765567765567, 0.5238095238095238, 0.5989010989010989, 0.6245421245421245, 0.42124542124542125, 0.5512820512820512, 0.5531135531135531, 0.5567765567765567, 0.5567765567765567, 0.5567765567765567, 0.5238095238095238, 0.4267399267399268, 0.42124542124542125, 0.5714285714285715, 0.5256410256410257, 0.47069597069597063, 0.5512820512820512, 0.4267399267399268, 0.6483516483516484, 0.5567765567765567, 0.5952380952380952, 0.4981684981684982, 0.5567765567765567, 0.49633699633699635, 0.49633699633699635, 0.576923076923077, 0.456043956043956, 0.521978021978022, 0.4981684981684982, 0.4981684981684982, 0.5567765567765567, 0.5256410256410257, 0.6007326007326007, 0.6758241758241758, 0.42124542124542125]</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>[0.49633699633699635, 0.4450549450549451, 0.5732600732600733, 0.5714285714285714, 0.5714285714285715, 0.5989010989010989, 0.521978021978022, 0.5989010989010989, 0.5695970695970697, 0.521978021978022, 0.43956043956043955, 0.5476190476190476, 0.3076923076923077, 0.521978021978022, 0.5421245421245421, 0.43956043956043955, 0.49633699633699635, 0.5989010989010989, 0.49633699633699635, 0.6465201465201466, 0.5989010989010989, 0.43956043956043955, 0.521978021978022, 0.3076923076923077, 0.44139194139194143, 0.521978021978022, 0.43956043956043955, 0.49633699633699635, 0.521978021978022, 0.6227106227106227, 0.49633699633699635, 0.5439560439560439, 0.5476190476190476, 0.521978021978022, 0.49633699633699635, 0.4413919413919414, 0.521978021978022, 0.4926739926739927, 0.5989010989010989, 0.3937728937728939, 0.6227106227106227, 0.49633699633699635, 0.43956043956043955, 0.521978021978022, 0.49633699633699635, 0.3076923076923077, 0.43956043956043955, 0.43956043956043955, 0.6227106227106227, 0.521978021978022]</t>
+          <t>[0.521978021978022, 0.49633699633699635, 0.49633699633699635, 0.5476190476190476, 0.5439560439560439, 0.5989010989010989, 0.49633699633699635, 0.5256410256410257, 0.5989010989010989, 0.49633699633699635, 0.43956043956043955, 0.521978021978022, 0.6208791208791209, 0.49633699633699635, 0.43956043956043955, 0.521978021978022, 0.3076923076923077, 0.6227106227106227, 0.4413919413919414, 0.521978021978022, 0.49633699633699635, 0.5952380952380952, 0.521978021978022, 0.5476190476190476, 0.5476190476190476, 0.4926739926739927, 0.43956043956043955, 0.3937728937728939, 0.44139194139194143, 0.49633699633699635, 0.5989010989010989, 0.49633699633699635, 0.43956043956043955, 0.6703296703296703, 0.521978021978022, 0.4945054945054945, 0.49633699633699635, 0.521978021978022, 0.43956043956043955, 0.43956043956043955, 0.6465201465201466, 0.3937728937728939, 0.4945054945054945, 0.521978021978022, 0.49633699633699635, 0.5476190476190476, 0.49633699633699635, 0.49633699633699635, 0.6758241758241758, 0.521978021978022]</t>
         </is>
       </c>
     </row>
@@ -7158,52 +7158,52 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.3917508417508417</v>
+        <v>0.4334175084175084</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4416779402296189</v>
+        <v>0.4783969113922525</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4505494505494506</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4342490842490843</v>
+        <v>0.4753066482389791</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[[3, 12, 7], [9, 28, 8], [6, 8, 10]]</t>
+          <t>[[3, 12, 7], [9, 28, 8], [7, 4, 13]]</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.7598297610780329, 'gamma': 0.5549885387465423, 'learning_rate': 0.2322073012382025, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 474, 'subsample': 0.8088181415994822})</t>
+          <t>OrderedDict({'colsample_bytree': 0.9814446598801292, 'gamma': 0.0, 'learning_rate': 0.08717778441172372, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 66, 'subsample': 0.9194649269854771})</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[0.7003663003663003, 0.6699633699633699, 0.6556776556776557, 0.6714285714285714, 0.6805860805860806, 0.6670329670329671, 0.6663003663003664, 0.6813186813186813, 0.6868131868131868, 0.6761904761904762, 0.6813186813186813, 0.6813186813186813, 0.6710622710622711, 0.6765567765567766, 0.6901098901098901, 0.6410256410256411, 0.6754578754578755, 0.6952380952380952, 0.6758241758241759, 0.6564102564102564, 0.6915750915750916, 0.6512820512820513, 0.6758241758241759, 0.6267399267399267, 0.6512820512820513, 0.7065934065934065, 0.6560439560439562, 0.6761904761904762, 0.6959706959706959, 0.6611721611721612, 0.680952380952381, 0.6912087912087912, 0.680952380952381, 0.6659340659340659, 0.6809523809523809, 0.6959706959706959, 0.6860805860805861, 0.7, 0.7062271062271063, 0.6802197802197802, 0.6853479853479854, 0.665934065934066, 0.6611721611721612, 0.6864468864468865, 0.6124542124542125, 0.6208791208791209, 0.652014652014652, 0.6956043956043956, 0.6362637362637363, 0.6619047619047619]</t>
+          <t>[0.6362637362637363, 0.6461538461538462, 0.6706959706959708, 0.6857142857142857, 0.6564102564102564, 0.636996336996337, 0.641025641025641, 0.6461538461538462, 0.6663003663003664, 0.6952380952380952, 0.6263736263736265, 0.6706959706959708, 0.6761904761904762, 0.6465201465201466, 0.716117216117216, 0.7007326007326007, 0.6622710622710624, 0.6358974358974359, 0.6413919413919414, 0.6857142857142857, 0.671062271062271, 0.6959706959706959, 0.6505494505494507, 0.6663003663003663, 0.7058608058608058, 0.6963369963369963, 0.6714285714285715, 0.701098901098901, 0.7007326007326007, 0.6912087912087912, 0.6710622710622711, 0.665934065934066, 0.7014652014652014, 0.7007326007326007, 0.7014652014652014, 0.7003663003663003, 0.6967032967032967, 0.652014652014652, 0.6912087912087912, 0.6860805860805861, 0.6655677655677656, 0.6860805860805861, 0.654945054945055, 0.6912087912087912, 0.6663003663003664, 0.631868131868132, 0.7102564102564102, 0.6813186813186813, 0.665934065934066, 0.7014652014652014]</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[0.05305162487979977, 0.07766431633476233, 0.05859661060353332, 0.04792239250234809, 0.06345142871759142, 0.03962821490490409, 0.07256446313146234, 0.053195591562074894, 0.046823446685054365, 0.06335408130606288, 0.04733643949934098, 0.057801222850034806, 0.04747230136065178, 0.07358535842981634, 0.04253502818166968, 0.045809518537328925, 0.05842921430502685, 0.05019250734933517, 0.03498120552765812, 0.045169454531765234, 0.07310973585577786, 0.04843759704753395, 0.042890003369117864, 0.04348650315914143, 0.045035583558399095, 0.05130036303099482, 0.055906124654159506, 0.041610173834909704, 0.06304198510817849, 0.02723954936641497, 0.049163459131239026, 0.055704157949324776, 0.05385238308390288, 0.07794197001831109, 0.0645187951833084, 0.05415797678615742, 0.06309091836757472, 0.04872483357669309, 0.07534220659119638, 0.03884511330430308, 0.09924915015473819, 0.04264843832330515, 0.047689437971763865, 0.0701194967027197, 0.06208331965683937, 0.03282427372486421, 0.06598492137235101, 0.05669260010229373, 0.08471443388468956, 0.07733710312320383]</t>
+          <t>[0.05509868631526009, 0.07622568924231246, 0.0599592413901115, 0.0618451280924853, 0.07191624636080371, 0.05746831334631958, 0.09032108429258574, 0.04185131969632705, 0.05993685935140937, 0.07107171116633684, 0.043971303822483904, 0.06572412649231092, 0.05309965714394358, 0.039332541232369574, 0.06110742116085497, 0.0576920169769988, 0.06394643466784466, 0.0787111218376108, 0.03050206706456566, 0.0351839081364414, 0.04260122078844936, 0.05279047882872935, 0.06943686979849362, 0.06032734615689432, 0.057095876244391816, 0.07026286509668875, 0.047711940951886925, 0.062027102380967376, 0.06387295350650618, 0.05593251867143265, 0.049884138998204215, 0.0447066558311864, 0.0727362223229306, 0.0576920169769988, 0.061697422461883034, 0.08071584623683974, 0.0751817559087788, 0.07825465314711551, 0.054830160704032606, 0.0681220206361698, 0.09062955073519188, 0.034178003063529326, 0.06005092053134993, 0.06185597488003429, 0.050002348024139, 0.06661230323816653, 0.07092808599166998, 0.056569396379049466, 0.04953323706785874, 0.050264632653229085]</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>[3, 32, 42, 30, 22, 33, 34, 16, 12, 25, 16, 16, 31, 24, 11, 46, 29, 8, 27, 40, 9, 44, 27, 48, 44, 1, 41, 25, 5, 38, 19, 10, 19, 36, 21, 5, 14, 4, 2, 23, 15, 35, 38, 13, 50, 49, 43, 7, 47, 37]</t>
+          <t>[47, 42, 28, 21, 37, 46, 45, 42, 30, 15, 50, 28, 24, 41, 1, 8, 36, 48, 44, 21, 27, 14, 40, 32, 3, 13, 25, 7, 8, 16, 26, 33, 4, 8, 4, 11, 12, 39, 16, 19, 35, 19, 38, 16, 30, 49, 2, 23, 33, 4]</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.5869294558317241, 'gamma': 0.4852633027588461, 'learning_rate': 0.28584503280716084, 'max_depth': 5, 'min_child_weight': 2, 'n_estimators': 346, 'subsample': 0.8018359664411949}), OrderedDict({'colsample_bytree': 0.6293516051405494, 'gamma': 3.5178229687257505, 'learning_rate': 0.24369365445557886, 'max_depth': 6, 'min_child_weight': 6, 'n_estimators': 418, 'subsample': 0.628081019864982}), OrderedDict({'colsample_bytree': 0.7940230609899578, 'gamma': 2.6858422857068494, 'learning_rate': 0.0627644000477771, 'max_depth': 3, 'min_child_weight': 2, 'n_estimators': 471, 'subsample': 0.6430533464833746}), OrderedDict({'colsample_bytree': 0.7480883670964273, 'gamma': 1.499240722172355, 'learning_rate': 0.08726222601446969, 'max_depth': 2, 'min_child_weight': 5, 'n_estimators': 366, 'subsample': 0.6526187854051781}), OrderedDict({'colsample_bytree': 0.9041476086410547, 'gamma': 1.619930685420384, 'learning_rate': 0.2085685336207033, 'max_depth': 12, 'min_child_weight': 9, 'n_estimators': 78, 'subsample': 0.7154044389607415}), OrderedDict({'colsample_bytree': 0.538052806173429, 'gamma': 1.6899908715492626, 'learning_rate': 0.01885520247702383, 'max_depth': 8, 'min_child_weight': 3, 'n_estimators': 481, 'subsample': 0.9886119566260683}), OrderedDict({'colsample_bytree': 0.9798349485088143, 'gamma': 3.4880325964306613, 'learning_rate': 0.015871928106415453, 'max_depth': 14, 'min_child_weight': 7, 'n_estimators': 129, 'subsample': 0.5545402465351607}), OrderedDict({'colsample_bytree': 0.8440362809789785, 'gamma': 3.915338861313388, 'learning_rate': 0.06908120499241857, 'max_depth': 2, 'min_child_weight': 2, 'n_estimators': 323, 'subsample': 0.616879702442805}), OrderedDict({'colsample_bytree': 0.8733107931377313, 'gamma': 0.6268373006988344, 'learning_rate': 0.29546858007380733, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 249, 'subsample': 0.6634214459573068}), OrderedDict({'colsample_bytree': 0.5935839697817724, 'gamma': 4.352627820782223, 'learning_rate': 0.0553254054234712, 'max_depth': 4, 'min_child_weight': 6, 'n_estimators': 55, 'subsample': 0.722022697458711}), OrderedDict({'colsample_bytree': 0.6098122330994131, 'gamma': 0.0, 'learning_rate': 0.018052808715748877, 'max_depth': 13, 'min_child_weight': 6, 'n_estimators': 308, 'subsample': 0.9305189665342987}), OrderedDict({'colsample_bytree': 0.8653871427094748, 'gamma': 0.03861753578394882, 'learning_rate': 0.02549400994866832, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 74, 'subsample': 0.662451639773884}), OrderedDict({'colsample_bytree': 0.9340529138028131, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 7, 'n_estimators': 308, 'subsample': 0.9323482941370711}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6456815001700633, 'learning_rate': 0.20037449140791738, 'max_depth': 14, 'min_child_weight': 6, 'n_estimators': 470, 'subsample': 0.784865965201565}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6639445443604141, 'learning_rate': 0.010822532676922257, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 342, 'subsample': 0.5831684958899737}), OrderedDict({'colsample_bytree': 0.9489067636390102, 'gamma': 5.0, 'learning_rate': 0.02579872968924607, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 61, 'subsample': 0.5493700061549942}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.32346672806919496, 'learning_rate': 0.011465205464028839, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 411, 'subsample': 0.6798419736473363}), OrderedDict({'colsample_bytree': 0.5985201218812136, 'gamma': 0.5214997289788613, 'learning_rate': 0.01, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 316, 'subsample': 0.5660473690796098}), OrderedDict({'colsample_bytree': 0.690750518736444, 'gamma': 0.4373816946208433, 'learning_rate': 0.0695381329764916, 'max_depth': 9, 'min_child_weight': 8, 'n_estimators': 335, 'subsample': 0.6260376409360551}), OrderedDict({'colsample_bytree': 0.7595245264823232, 'gamma': 4.131331634510209, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 7, 'n_estimators': 307, 'subsample': 0.7973767587290342}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.47990916011422846, 'learning_rate': 0.016734828136792917, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 288, 'subsample': 0.7195716194883756}), OrderedDict({'colsample_bytree': 0.5532518727836351, 'gamma': 0.8715606062803385, 'learning_rate': 0.012909524632685559, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 186, 'subsample': 0.5994410688694961}), OrderedDict({'colsample_bytree': 0.5106531108764932, 'gamma': 2.1666255051046903, 'learning_rate': 0.017584165463817275, 'max_depth': 12, 'min_child_weight': 10, 'n_estimators': 491, 'subsample': 0.7551749922299926}), OrderedDict({'colsample_bytree': 0.9639429646187632, 'gamma': 3.77968095649917, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 10, 'n_estimators': 78, 'subsample': 0.9838795692202884}), OrderedDict({'colsample_bytree': 0.589661116556096, 'gamma': 0.0, 'learning_rate': 0.01750085939386127, 'max_depth': 15, 'min_child_weight': 8, 'n_estimators': 50, 'subsample': 0.5329715662131072}), OrderedDict({'colsample_bytree': 0.7598297610780329, 'gamma': 0.5549885387465423, 'learning_rate': 0.2322073012382025, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 474, 'subsample': 0.8088181415994822}), OrderedDict({'colsample_bytree': 0.9542784382961254, 'gamma': 4.24642626700405, 'learning_rate': 0.024706956883843407, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8716847926913875, 'gamma': 3.630520739072525, 'learning_rate': 0.10086119560410241, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8280657837221936}), OrderedDict({'colsample_bytree': 0.6480238228296262, 'gamma': 0.0, 'learning_rate': 0.022755763708536034, 'max_depth': 3, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9611704926847218, 'gamma': 0.5540877985299619, 'learning_rate': 0.010271166533950327, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7161929103467278, 'gamma': 0.0, 'learning_rate': 0.17467355168014226, 'max_depth': 11, 'min_child_weight': 5, 'n_estimators': 491, 'subsample': 0.9443271378062282}), OrderedDict({'colsample_bytree': 0.7132534584583611, 'gamma': 0.37840152175345354, 'learning_rate': 0.21248983557756546, 'max_depth': 5, 'min_child_weight': 2, 'n_estimators': 439, 'subsample': 0.8104823696715002}), OrderedDict({'colsample_bytree': 0.7096290376493695, 'gamma': 0.4428519421653354, 'learning_rate': 0.2621323585633106, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 499, 'subsample': 0.6519801005207893}), OrderedDict({'colsample_bytree': 0.6912254952565089, 'gamma': 1.0142695094264025, 'learning_rate': 0.2532905948748029, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 357, 'subsample': 0.8179680841724771}), OrderedDict({'colsample_bytree': 0.7547598169250325, 'gamma': 0.0, 'learning_rate': 0.047961846903003966, 'max_depth': 14, 'min_child_weight': 4, 'n_estimators': 445, 'subsample': 0.7366237878100024}), OrderedDict({'colsample_bytree': 0.5221971081360344, 'gamma': 0.5847289150766728, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 385, 'subsample': 0.7914172020969142}), OrderedDict({'colsample_bytree': 0.7057448763802813, 'gamma': 0.5519378793644526, 'learning_rate': 0.012464549592758454, 'max_depth': 13, 'min_child_weight': 3, 'n_estimators': 411, 'subsample': 0.8695210154329247}), OrderedDict({'colsample_bytree': 0.6237210170660237, 'gamma': 0.5915165101611679, 'learning_rate': 0.13737678731284564, 'max_depth': 11, 'min_child_weight': 2, 'n_estimators': 101, 'subsample': 0.536361603117117}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.5381773837874253, 'learning_rate': 0.027950446194683613, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 386, 'subsample': 0.7885416610365366}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.15674437923068935, 'learning_rate': 0.16840131476634349, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 337, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.8551982637440148, 'learning_rate': 0.21819238014379408, 'max_depth': 13, 'min_child_weight': 8, 'n_estimators': 101, 'subsample': 0.5817029306179702}), OrderedDict({'colsample_bytree': 0.612932142871701, 'gamma': 2.0612952159279594, 'learning_rate': 0.03434571223567164, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 288, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7753198122914811, 'gamma': 0.5381818434846427, 'learning_rate': 0.2371694571177259, 'max_depth': 10, 'min_child_weight': 10, 'n_estimators': 492, 'subsample': 0.7803298126084395}), OrderedDict({'colsample_bytree': 0.6908448914803665, 'gamma': 0.588309395798871, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 6, 'n_estimators': 296, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.09074084679034494, 'max_depth': 3, 'min_child_weight': 10, 'n_estimators': 493, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.6377567890077227, 'learning_rate': 0.29999999999999993, 'max_depth': 3, 'min_child_weight': 10, 'n_estimators': 290, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9777585267214091, 'gamma': 4.679595325506144, 'learning_rate': 0.04513797314775619, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 496, 'subsample': 0.5337995277852443}), OrderedDict({'colsample_bytree': 0.9006284783051386, 'gamma': 0.0, 'learning_rate': 0.17020958845262377, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 83, 'subsample': 0.6419431572728566}), OrderedDict({'colsample_bytree': 0.9532154525554688, 'gamma': 1.2736898131494292, 'learning_rate': 0.05614574272191923, 'max_depth': 6, 'min_child_weight': 10, 'n_estimators': 80, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7929063163697712, 'gamma': 1.5992365712136203, 'learning_rate': 0.010524825721646152, 'max_depth': 7, 'min_child_weight': 10, 'n_estimators': 474, 'subsample': 0.5})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.6723317716207754, 'gamma': 1.2471004955799128, 'learning_rate': 0.018010312404895402, 'max_depth': 5, 'min_child_weight': 9, 'n_estimators': 412, 'subsample': 0.9936443523830378}), OrderedDict({'colsample_bytree': 0.8529666980192352, 'gamma': 2.2689922139000416, 'learning_rate': 0.09071426390409412, 'max_depth': 9, 'min_child_weight': 6, 'n_estimators': 100, 'subsample': 0.5330073038409411}), OrderedDict({'colsample_bytree': 0.5833943640420115, 'gamma': 2.7336099069123536, 'learning_rate': 0.012933955681834959, 'max_depth': 11, 'min_child_weight': 2, 'n_estimators': 494, 'subsample': 0.7941777880413683}), OrderedDict({'colsample_bytree': 0.7166114602767049, 'gamma': 4.245918006630282, 'learning_rate': 0.016137885954537617, 'max_depth': 4, 'min_child_weight': 5, 'n_estimators': 421, 'subsample': 0.6327003812908971}), OrderedDict({'colsample_bytree': 0.7086866826444527, 'gamma': 1.899445017923792, 'learning_rate': 0.08387146361832026, 'max_depth': 11, 'min_child_weight': 7, 'n_estimators': 213, 'subsample': 0.7426179591640547}), OrderedDict({'colsample_bytree': 0.968757381524662, 'gamma': 3.0539623980994706, 'learning_rate': 0.10758925673880064, 'max_depth': 14, 'min_child_weight': 2, 'n_estimators': 135, 'subsample': 0.9937402427003625}), OrderedDict({'colsample_bytree': 0.6855567008790121, 'gamma': 3.433675608224635, 'learning_rate': 0.010913482515949568, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 68, 'subsample': 0.9718882177180679}), OrderedDict({'colsample_bytree': 0.538826439580426, 'gamma': 3.1783251210823913, 'learning_rate': 0.25580697256903095, 'max_depth': 10, 'min_child_weight': 3, 'n_estimators': 390, 'subsample': 0.8942683047406419}), OrderedDict({'colsample_bytree': 0.859844834848758, 'gamma': 4.31888749786096, 'learning_rate': 0.05712604070532214, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 236, 'subsample': 0.8127492601789978}), OrderedDict({'colsample_bytree': 0.84034566986025, 'gamma': 1.0689271152415123, 'learning_rate': 0.1168948953251047, 'max_depth': 10, 'min_child_weight': 2, 'n_estimators': 258, 'subsample': 0.9168686562061515}), OrderedDict({'colsample_bytree': 0.5175899958488088, 'gamma': 4.081731704253651, 'learning_rate': 0.02955182790575589, 'max_depth': 7, 'min_child_weight': 2, 'n_estimators': 274, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9634171325939962, 'gamma': 1.2268001790303737, 'learning_rate': 0.23103234176530127, 'max_depth': 7, 'min_child_weight': 8, 'n_estimators': 288, 'subsample': 0.9255048450329393}), OrderedDict({'colsample_bytree': 0.5858494344516875, 'gamma': 1.2189183314216847, 'learning_rate': 0.19280399801667283, 'max_depth': 3, 'min_child_weight': 4, 'n_estimators': 247, 'subsample': 0.9112487041370607}), OrderedDict({'colsample_bytree': 0.7020056559560797, 'gamma': 0.14305822327152712, 'learning_rate': 0.02053947450756995, 'max_depth': 3, 'min_child_weight': 8, 'n_estimators': 465, 'subsample': 0.6399982572812015}), OrderedDict({'colsample_bytree': 0.9814446598801292, 'gamma': 0.0, 'learning_rate': 0.08717778441172372, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 66, 'subsample': 0.9194649269854771}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 432, 'subsample': 0.8375492200179471}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 242, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 88, 'subsample': 0.8995365728531595}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.05893028305153972, 'max_depth': 3, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.9210503731369502}), OrderedDict({'colsample_bytree': 0.9652807351409693, 'gamma': 0.0, 'learning_rate': 0.029004766778367008, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9239564808241353}), OrderedDict({'colsample_bytree': 0.6072770514331411, 'gamma': 0.0, 'learning_rate': 0.07283314230137915, 'max_depth': 5, 'min_child_weight': 9, 'n_estimators': 492, 'subsample': 0.9053901980624833}), OrderedDict({'colsample_bytree': 0.8176564919537823, 'gamma': 0.0, 'learning_rate': 0.09996319926580262, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9323106366802051}), OrderedDict({'colsample_bytree': 0.8927782680141089, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.8248794848263594}), OrderedDict({'colsample_bytree': 0.7754494281019669, 'gamma': 0.0, 'learning_rate': 0.09296326418274599, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 134, 'subsample': 0.8980562258373326}), OrderedDict({'colsample_bytree': 0.9860943840800265, 'gamma': 1.3251909817618959, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 327, 'subsample': 0.8478998836188252}), OrderedDict({'colsample_bytree': 0.9650670075272363, 'gamma': 0.0, 'learning_rate': 0.02320952166028702, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8487831934822065}), OrderedDict({'colsample_bytree': 0.9378296964048278, 'gamma': 2.6560167077424444, 'learning_rate': 0.021900140571630845, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 398, 'subsample': 0.8401568399846651}), OrderedDict({'colsample_bytree': 0.6954967115549913, 'gamma': 0.0, 'learning_rate': 0.14945297094868037, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 358, 'subsample': 0.9213577784026309}), OrderedDict({'colsample_bytree': 0.8127862319007582, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8538437606556084}), OrderedDict({'colsample_bytree': 0.9667812210377227, 'gamma': 0.1850053442672209, 'learning_rate': 0.13018047195893767, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 154, 'subsample': 0.927073449827434}), OrderedDict({'colsample_bytree': 0.6093571078019944, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 289, 'subsample': 0.6087787454610208}), OrderedDict({'colsample_bytree': 0.5429110026770047, 'gamma': 0.0, 'learning_rate': 0.09059989985204892, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 54, 'subsample': 0.9099565890013745}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.13035989638695622, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 177, 'subsample': 0.9050275898662221}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8216449584198082}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 75, 'subsample': 0.9783268285135753}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9079884968824025}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.848171720722732}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5899183224957636}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.09546639394715485, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9239595584892164}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.74592258791509}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.63631916453002}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7846640380331993}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9189002760337233}), OrderedDict({'colsample_bytree': 0.5134896430823128, 'gamma': 4.983481366193263, 'learning_rate': 0.02660660446268746, 'max_depth': 1, 'min_child_weight': 9, 'n_estimators': 211, 'subsample': 0.6930454387594666}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.8343487852240632}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.8376224705636366, 'learning_rate': 0.01, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7421613663815179}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.8760950123901499, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6560619047432186}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 2.046075994082877, 'learning_rate': 0.01, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7112446219339714}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 367, 'subsample': 0.7453749819229404})]</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O73" t="n">
-        <v>0.4505494505494506</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -7212,27 +7212,27 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>[0.7564102564102564, 0.6611721611721612, 0.6593406593406593, 0.6611721611721612, 0.6849816849816849, 0.6355311355311356, 0.6373626373626373, 0.6849816849816849, 0.6849816849816849, 0.6355311355311355, 0.6611721611721612, 0.6611721611721612, 0.7087912087912088, 0.7087912087912088, 0.7326007326007326, 0.6117216117216117, 0.7326007326007326, 0.7326007326007326, 0.6373626373626373, 0.6611721611721612, 0.7087912087912088, 0.6593406593406593, 0.6611721611721612, 0.565934065934066, 0.6611721611721612, 0.7087912087912088, 0.6117216117216117, 0.6593406593406593, 0.7087912087912088, 0.6611721611721612, 0.7087912087912088, 0.7326007326007326, 0.6849816849816849, 0.7087912087912088, 0.6849816849816849, 0.7326007326007326, 0.7087912087912088, 0.7087912087912088, 0.7326007326007327, 0.7069597069597068, 0.7344322344322345, 0.6611721611721612, 0.6373626373626373, 0.6868131868131869, 0.5164835164835165, 0.6117216117216117, 0.6373626373626373, 0.7087912087912088, 0.5897435897435898, 0.6391941391941391]</t>
+          <t>[0.5879120879120879, 0.6373626373626373, 0.6355311355311356, 0.6611721611721612, 0.6117216117216117, 0.5641025641025641, 0.5622710622710623, 0.6117216117216117, 0.6373626373626373, 0.7326007326007327, 0.6117216117216117, 0.5879120879120879, 0.6611721611721612, 0.6135531135531136, 0.7564102564102564, 0.7564102564102564, 0.6135531135531136, 0.5641025641025641, 0.6355311355311356, 0.6849816849816849, 0.6373626373626373, 0.7564102564102564, 0.6611721611721612, 0.6849816849816849, 0.7087912087912088, 0.7564102564102564, 0.6373626373626373, 0.7326007326007326, 0.7564102564102564, 0.7326007326007327, 0.6611721611721612, 0.7087912087912088, 0.7326007326007327, 0.7564102564102564, 0.7326007326007327, 0.7564102564102564, 0.7087912087912088, 0.6849816849816849, 0.7326007326007327, 0.6593406593406593, 0.7087912087912088, 0.7106227106227107, 0.7326007326007326, 0.7326007326007327, 0.683150183150183, 0.6135531135531136, 0.7564102564102564, 0.6849816849816849, 0.6355311355311356, 0.7326007326007326]</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[0.6318681318681318, 0.8003663003663003, 0.7545787545787546, 0.63003663003663, 0.7527472527472527, 0.7051282051282052, 0.7765567765567766, 0.7527472527472527, 0.6575091575091575, 0.7765567765567766, 0.6575091575091575, 0.6813186813186812, 0.6794871794871794, 0.6556776556776557, 0.6575091575091575, 0.7252747252747254, 0.6318681318681318, 0.6575091575091575, 0.7307692307692308, 0.7252747252747254, 0.6575091575091575, 0.6575091575091575, 0.7271062271062272, 0.6758241758241758, 0.7307692307692308, 0.6813186813186812, 0.7014652014652015, 0.7271062271062272, 0.6062271062271062, 0.6794871794871794, 0.6318681318681318, 0.6318681318681318, 0.6538461538461539, 0.6556776556776557, 0.63003663003663, 0.6575091575091575, 0.6336996336996337, 0.63003663003663, 0.706959706959707, 0.6538461538461539, 0.8534798534798536, 0.7051282051282052, 0.7545787545787546, 0.7783882783882784, 0.6776556776556776, 0.6758241758241758, 0.7527472527472527, 0.6556776556776557, 0.7527472527472527, 0.7765567765567766]</t>
+          <t>[0.6794871794871794, 0.7765567765567766, 0.7765567765567766, 0.7765567765567766, 0.7051282051282052, 0.7252747252747253, 0.7527472527472527, 0.7271062271062272, 0.7252747252747254, 0.728937728937729, 0.7014652014652015, 0.7032967032967034, 0.6538461538461539, 0.7051282051282052, 0.706959706959707, 0.6813186813186812, 0.7527472527472527, 0.7032967032967034, 0.7014652014652015, 0.7051282051282052, 0.6794871794871794, 0.6556776556776557, 0.7252747252747254, 0.608058608058608, 0.7051282051282052, 0.6575091575091575, 0.7527472527472527, 0.6318681318681318, 0.6813186813186812, 0.6556776556776557, 0.7509157509157509, 0.6080586080586081, 0.6575091575091575, 0.6813186813186812, 0.683150183150183, 0.6062271062271062, 0.6794871794871794, 0.7527472527472527, 0.6318681318681318, 0.728937728937729, 0.7783882783882784, 0.6282051282051282, 0.6025641025641025, 0.6556776556776557, 0.728937728937729, 0.7051282051282052, 0.728937728937729, 0.6813186813186812, 0.728937728937729, 0.7087912087912088]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>[0.7197802197802199, 0.6190476190476191, 0.5934065934065934, 0.6190476190476191, 0.6190476190476191, 0.6465201465201464, 0.5934065934065934, 0.6190476190476191, 0.6446886446886446, 0.6190476190476191, 0.6446886446886447, 0.694139194139194, 0.5934065934065934, 0.5934065934065934, 0.6684981684981685, 0.6190476190476191, 0.6684981684981685, 0.6684981684981685, 0.6666666666666666, 0.5934065934065934, 0.6446886446886447, 0.6446886446886447, 0.6428571428571429, 0.5934065934065934, 0.6428571428571429, 0.695970695970696, 0.6703296703296703, 0.6465201465201464, 0.695970695970696, 0.6446886446886446, 0.6190476190476191, 0.6684981684981685, 0.7197802197802199, 0.694139194139194, 0.6190476190476191, 0.694139194139194, 0.6446886446886447, 0.717948717948718, 0.6684981684981685, 0.694139194139194, 0.6172161172161172, 0.6190476190476191, 0.6428571428571429, 0.6190476190476191, 0.6172161172161172, 0.6190476190476191, 0.5952380952380952, 0.6684981684981685, 0.5677655677655679, 0.5934065934065934]</t>
+          <t>[0.5934065934065934, 0.5677655677655679, 0.6190476190476191, 0.5934065934065934, 0.5934065934065934, 0.5952380952380952, 0.5952380952380952, 0.6446886446886447, 0.5952380952380952, 0.6703296703296703, 0.6446886446886447, 0.6172161172161172, 0.6190476190476191, 0.6428571428571429, 0.694139194139194, 0.6684981684981685, 0.5952380952380952, 0.6172161172161172, 0.6190476190476191, 0.6923076923076924, 0.6428571428571429, 0.695970695970696, 0.5677655677655679, 0.6446886446886447, 0.694139194139194, 0.6446886446886447, 0.6446886446886446, 0.6446886446886447, 0.694139194139194, 0.6703296703296703, 0.6190476190476191, 0.6428571428571429, 0.6684981684981685, 0.6684981684981685, 0.6684981684981685, 0.6428571428571429, 0.6703296703296703, 0.5695970695970697, 0.6684981684981685, 0.694139194139194, 0.5695970695970697, 0.6684981684981685, 0.694139194139194, 0.694139194139194, 0.5934065934065934, 0.6172161172161172, 0.6684981684981685, 0.6684981684981685, 0.6190476190476191, 0.6446886446886447]</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>[0.7509157509157509, 0.6978021978021979, 0.6721611721611721, 0.7509157509157509, 0.7472527472527473, 0.7234432234432234, 0.7252747252747254, 0.7252747252747254, 0.7765567765567766, 0.7252747252747254, 0.7747252747252747, 0.7747252747252747, 0.7271062271062272, 0.8021978021978023, 0.7490842490842491, 0.652014652014652, 0.7490842490842491, 0.7747252747252746, 0.6996336996336997, 0.6776556776556776, 0.8260073260073261, 0.7234432234432234, 0.7252747252747254, 0.6739926739926739, 0.6245421245421245, 0.8003663003663003, 0.7234432234432234, 0.7234432234432234, 0.8003663003663003, 0.6996336996336997, 0.7509157509157509, 0.7783882783882784, 0.7509157509157509, 0.7490842490842491, 0.8003663003663003, 0.7747252747252747, 0.8003663003663003, 0.7747252747252746, 0.8260073260073261, 0.7271062271062272, 0.6483516483516484, 0.7234432234432234, 0.6501831501831502, 0.7490842490842491, 0.6776556776556776, 0.6245421245421245, 0.6996336996336997, 0.8003663003663003, 0.7234432234432234, 0.7252747252747254]</t>
+          <t>[0.7234432234432234, 0.6739926739926739, 0.6978021978021979, 0.7252747252747254, 0.7747252747252747, 0.6758241758241758, 0.7472527472527473, 0.6227106227106227, 0.7490842490842491, 0.7747252747252747, 0.6007326007326007, 0.7747252747252747, 0.7765567765567766, 0.6739926739926739, 0.8021978021978021, 0.7765567765567766, 0.7252747252747254, 0.7490842490842491, 0.6263736263736264, 0.7252747252747254, 0.7509157509157509, 0.7509157509157509, 0.7252747252747254, 0.7747252747252747, 0.8003663003663003, 0.8021978021978021, 0.6978021978021979, 0.8021978021978021, 0.7765567765567766, 0.7765567765567766, 0.7014652014652015, 0.7271062271062272, 0.8278388278388279, 0.7765567765567766, 0.8021978021978021, 0.8278388278388279, 0.8278388278388279, 0.7014652014652015, 0.7765567765567766, 0.7747252747252746, 0.7234432234432234, 0.7234432234432234, 0.6758241758241758, 0.7765567765567766, 0.7014652014652015, 0.6996336996336997, 0.8003663003663003, 0.7747252747252747, 0.7234432234432234, 0.7747252747252747]</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>[0.6428571428571429, 0.5714285714285714, 0.5989010989010989, 0.6959706959706958, 0.5989010989010989, 0.6245421245421245, 0.5989010989010989, 0.6245421245421245, 0.6703296703296703, 0.6245421245421245, 0.6684981684981685, 0.5952380952380952, 0.6465201465201466, 0.6227106227106227, 0.6428571428571429, 0.5970695970695971, 0.5952380952380952, 0.6428571428571429, 0.6446886446886447, 0.6245421245421245, 0.6208791208791209, 0.5714285714285714, 0.6227106227106227, 0.6245421245421245, 0.5970695970695971, 0.6465201465201466, 0.5732600732600733, 0.6245421245421245, 0.6684981684981685, 0.6208791208791209, 0.694139194139194, 0.6446886446886447, 0.5952380952380952, 0.521978021978022, 0.6703296703296703, 0.6208791208791209, 0.6428571428571429, 0.6684981684981685, 0.5970695970695971, 0.6190476190476191, 0.5732600732600733, 0.6208791208791209, 0.6208791208791209, 0.5989010989010989, 0.5732600732600733, 0.5732600732600733, 0.575091575091575, 0.6446886446886447, 0.5476190476190476, 0.575091575091575]</t>
+          <t>[0.5970695970695971, 0.575091575091575, 0.6245421245421245, 0.6721611721611721, 0.5970695970695971, 0.6245421245421245, 0.5476190476190476, 0.6245421245421245, 0.6245421245421245, 0.5695970695970696, 0.5732600732600733, 0.6703296703296703, 0.6703296703296703, 0.5970695970695971, 0.6208791208791209, 0.6208791208791209, 0.6245421245421245, 0.5457875457875457, 0.6245421245421245, 0.6208791208791209, 0.6446886446886447, 0.6208791208791209, 0.5732600732600733, 0.619047619047619, 0.6208791208791209, 0.6208791208791209, 0.6245421245421245, 0.694139194139194, 0.5952380952380952, 0.6208791208791209, 0.6227106227106227, 0.6428571428571429, 0.6208791208791209, 0.6208791208791209, 0.6208791208791209, 0.6684981684981685, 0.5970695970695971, 0.5512820512820512, 0.6465201465201466, 0.5732600732600733, 0.5476190476190476, 0.6996336996336997, 0.5695970695970696, 0.5970695970695971, 0.6245421245421245, 0.5238095238095238, 0.5970695970695971, 0.5970695970695971, 0.6227106227106227, 0.6465201465201466]</t>
         </is>
       </c>
     </row>
@@ -7362,31 +7362,31 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 164})</t>
+          <t>OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300})</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>[0.9470588235294117, 0.9470588235294117, 0.9473039215686274, 0.9431372549019608, 0.9144607843137255, 0.9512254901960784, 0.955392156862745, 0.9468137254901962, 0.9392156862745098, 0.9678921568627452, 0.9799019607843137, 0.9348039215686275, 0.9590686274509805, 0.9431372549019608, 0.9470588235294117, 0.9556372549019608, 0.9470588235294117, 0.9514705882352941, 0.9512254901960784, 0.9517156862745096, 0.9799019607843137, 0.9801470588235294, 0.9799019607843137, 0.9588235294117649, 0.9590686274509805, 0.9799019607843137, 0.9799019607843137, 0.9470588235294116, 0.9512254901960784, 0.906372549019608, 0.9838235294117649, 0.9799019607843137, 0.8980392156862745, 0.9017156862745098, 0.9428921568627452, 0.9840686274509803, 0.9799019607843137, 0.9801470588235294, 0.9801470588235294, 0.9306372549019608, 0.9801470588235294, 0.9593137254901961, 0.9588235294117649, 0.9588235294117649, 0.9470588235294117, 0.9348039215686275, 0.9431372549019608, 0.9507352941176471, 0.9507352941176471, 0.9629901960784313]</t>
+          <t>[0.9512254901960784, 0.9514705882352942, 0.9473039215686274, 0.9799019607843137, 0.9473039215686274, 0.9590686274509803, 0.9799019607843137, 0.9632352941176471, 0.9757352941176471, 0.9551470588235293, 0.9799019607843137, 0.9556372549019608, 0.9796568627450981, 0.9759803921568627, 0.9389705882352942, 0.9595588235294118, 0.942892156862745, 0.9676470588235293, 0.9433823529411764, 0.9757352941176471, 0.9556372549019606, 0.9551470588235293, 0.9514705882352942, 0.9350490196078433, 0.9387254901960784, 0.9512254901960784, 0.906127450980392, 0.9392156862745098, 0.9392156862745098, 0.9507352941176471, 0.9840686274509803, 0.9799019607843137, 0.9799019607843137, 0.9225490196078431, 0.9637254901960783, 0.9718137254901962, 0.9514705882352941, 0.9473039215686274, 0.9470588235294117, 0.9595588235294118, 0.9799019607843137, 0.955392156862745, 0.9838235294117649, 0.9838235294117649, 0.9838235294117647, 0.9267156862745098, 0.9678921568627452, 0.9595588235294118, 0.9634803921568628, 0.9512254901960784]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>[0.04670002103456687, 0.04670002103456687, 0.05445370226274044, 0.05415280188094695, 0.052529947885340614, 0.04503005318805635, 0.049831511579805976, 0.043559927918460105, 0.061785127342948123, 0.04491651446649141, 0.031326559428765624, 0.04615007988211634, 0.017819824244405386, 0.0542470125431599, 0.04680923394939982, 0.04256104691311808, 0.04680923394939982, 0.050120002092632406, 0.046700021034566885, 0.056969347336508186, 0.031326559428765624, 0.030851213681489357, 0.02193045437085053, 0.028944407731832357, 0.017819824244405386, 0.031326559428765624, 0.031326559428765624, 0.048628340440948166, 0.048523222025542594, 0.051374794143427056, 0.023793453136297205, 0.031326559428765624, 0.06703957842178875, 0.046306019099511125, 0.04289285713714065, 0.023329419675079986, 0.031326559428765624, 0.030851213681489357, 0.030851213681489357, 0.06573746907545176, 0.030851213681489357, 0.03354710861955212, 0.028944407731832357, 0.028944407731832357, 0.04680923394939982, 0.04615007988211634, 0.0542470125431599, 0.02739621638199718, 0.03774350645995079, 0.027198152938394234]</t>
+          <t>[0.05017869835448662, 0.06071608283099822, 0.056025144365992444, 0.031326559428765624, 0.056025144365992444, 0.03398476771665643, 0.031326559428765624, 0.02968621946792109, 0.029720600767106135, 0.04308848624701065, 0.031326559428765624, 0.04256104691311808, 0.018087504634799096, 0.038982147749158945, 0.051978123263179875, 0.0418321397055112, 0.044757076381256346, 0.027078619499282624, 0.058574841960748324, 0.029720600767106135, 0.049357901314230596, 0.03453708814472264, 0.05744713230771943, 0.06367362142488424, 0.04933720643171032, 0.039080649858813245, 0.05882148689264356, 0.061785127342948123, 0.056247730527928703, 0.02739621638199718, 0.023329419675079986, 0.02193045437085053, 0.02193045437085053, 0.05527707983925667, 0.042654101289159196, 0.03726779962499653, 0.050120002092632406, 0.040946780004928476, 0.04670002103456687, 0.05086596320718801, 0.031326559428765624, 0.049831511579805976, 0.023793453136297205, 0.023793453136297205, 0.015136664369259313, 0.06765505067881439, 0.04491651446649141, 0.05086596320718801, 0.03444826565352673, 0.046700021034566885]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>[32, 32, 31, 39, 47, 26, 23, 38, 43, 14, 7, 44, 17, 39, 32, 22, 32, 25, 26, 24, 7, 3, 7, 19, 17, 7, 7, 37, 26, 48, 2, 7, 50, 49, 42, 1, 7, 3, 3, 46, 3, 16, 19, 19, 32, 44, 39, 29, 29, 15]</t>
+          <t>[33, 30, 37, 5, 37, 24, 5, 20, 13, 28, 5, 25, 11, 12, 45, 21, 42, 17, 41, 13, 26, 28, 30, 47, 46, 33, 50, 43, 43, 36, 1, 5, 5, 49, 18, 15, 32, 37, 40, 21, 5, 27, 2, 2, 4, 48, 16, 21, 19, 33]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 8, 'min_samples_split': 14, 'n_estimators': 106}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 127}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 6, 'min_samples_split': 18, 'n_estimators': 133}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 9, 'min_samples_split': 5, 'n_estimators': 91}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 15, 'n_estimators': 212}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 5, 'min_samples_split': 6, 'n_estimators': 69}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 215}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 5, 'min_samples_split': 6, 'n_estimators': 260}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 9, 'min_samples_split': 11, 'n_estimators': 149}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 6, 'min_samples_split': 18, 'n_estimators': 276}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 11, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 83}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 91}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 80}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 249}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 261}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 19, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 54}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 299}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 19, 'n_estimators': 295}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 19, 'n_estimators': 182}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 19, 'n_estimators': 299}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 256}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 164}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 206}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 150}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 180}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 145}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 144}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 230}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 18, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 10, 'min_samples_split': 18, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 165}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 300})]</t>
+          <t>[OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 7, 'n_estimators': 196}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 4, 'min_samples_split': 17, 'n_estimators': 249}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 8, 'min_samples_split': 5, 'n_estimators': 264}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 269}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 8, 'min_samples_split': 15, 'n_estimators': 211}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 3, 'min_samples_split': 17, 'n_estimators': 93}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 12, 'n_estimators': 287}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 2, 'min_samples_split': 4, 'n_estimators': 254}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 11, 'n_estimators': 299}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 3, 'min_samples_split': 7, 'n_estimators': 228}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 203}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 292}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 63}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 18, 'n_estimators': 287}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 3, 'n_estimators': 97}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 276}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 76}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 54}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 142}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 237}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 52}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 197}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 110}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 199}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 219}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 243}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 104}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 11, 'n_estimators': 138}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 81}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 7, 'min_samples_split': 13, 'n_estimators': 53}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 12, 'n_estimators': 124}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 13, 'n_estimators': 146}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 4, 'min_samples_split': 14, 'n_estimators': 292}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 14, 'n_estimators': 273}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 8, 'n_estimators': 104}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 9, 'n_estimators': 171}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 210}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 176}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 7, 'n_estimators': 54}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 6, 'min_samples_split': 3, 'n_estimators': 137}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 4, 'n_estimators': 194}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 8, 'min_samples_split': 14, 'n_estimators': 145})]</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O75" t="n">
         <v>0.8536585365853658</v>
@@ -7398,27 +7398,27 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>[0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9166666666666666, 0.9791666666666666, 1.0, 0.9583333333333334, 0.9583333333333334, 1.0, 1.0, 0.9375, 0.9791666666666666, 0.9583333333333334, 0.9583333333333334, 1.0, 0.9583333333333334, 1.0, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9583333333333334, 0.9583333333333334, 1.0, 1.0, 0.9375, 0.9583333333333334, 0.8958333333333334, 1.0, 1.0, 0.9375, 0.9166666666666666, 0.9375, 1.0, 1.0, 1.0, 1.0, 0.9583333333333334, 1.0, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9375, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334]</t>
+          <t>[0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 0.9583333333333334, 1.0, 0.9791666666666666, 0.9583333333333334, 1.0, 1.0, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9583333333333334, 0.9375, 0.9583333333333334, 0.9166666666666666, 0.9583333333333334, 0.9791666666666666, 0.9583333333333334, 1.0, 1.0, 1.0, 0.9375, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9583333333333334, 1.0, 1.0, 1.0, 0.9791666666666666]</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[0.8590686274509803, 0.8590686274509803, 0.8394607843137255, 0.8394607843137255, 0.8198529411764706, 0.8799019607843137, 0.8590686274509803, 0.8786764705882352, 0.8198529411764706, 0.8799019607843137, 0.9191176470588235, 0.8602941176470589, 0.9399509803921569, 0.8394607843137255, 0.8590686274509803, 0.8799019607843137, 0.8590686274509803, 0.8590686274509803, 0.8590686274509803, 0.8406862745098039, 0.9191176470588235, 0.9203431372549019, 0.9399509803921569, 0.9387254901960785, 0.9399509803921569, 0.9191176470588235, 0.9191176470588235, 0.8590686274509803, 0.8590686274509803, 0.8198529411764706, 0.9387254901960785, 0.9191176470588235, 0.8002450980392157, 0.8394607843137255, 0.8799019607843137, 0.9399509803921569, 0.9191176470588235, 0.9203431372549019, 0.9203431372549019, 0.8186274509803922, 0.9203431372549019, 0.8995098039215685, 0.9387254901960785, 0.9387254901960785, 0.8590686274509803, 0.8602941176470589, 0.8394607843137255, 0.9191176470588235, 0.8982843137254902, 0.9178921568627452]</t>
+          <t>[0.8590686274509803, 0.8382352941176471, 0.8394607843137255, 0.9191176470588235, 0.8394607843137255, 0.9191176470588235, 0.9191176470588235, 0.9191176470588235, 0.9191176470588235, 0.8786764705882352, 0.9191176470588235, 0.8799019607843137, 0.9595588235294118, 0.8995098039215685, 0.8394607843137255, 0.8799019607843137, 0.8799019607843137, 0.9203431372549019, 0.8394607843137255, 0.9191176470588235, 0.8602941176470589, 0.8995098039215685, 0.8394607843137255, 0.8198529411764706, 0.8590686274509803, 0.8799019607843137, 0.8198529411764706, 0.8198529411764706, 0.8406862745098039, 0.9191176470588235, 0.9399509803921569, 0.9399509803921569, 0.9399509803921569, 0.8198529411764706, 0.8799019607843137, 0.8995098039215685, 0.8590686274509803, 0.8799019607843137, 0.8590686274509803, 0.8590686274509803, 0.9191176470588235, 0.8590686274509803, 0.9387254901960785, 0.9387254901960785, 0.9595588235294118, 0.7990196078431372, 0.8799019607843137, 0.8590686274509803, 0.8995098039215685, 0.8590686274509803]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>[0.9387254901960785, 0.9387254901960785, 0.9595588235294118, 0.9387254901960785, 0.9399509803921569, 0.9178921568627452, 0.9595588235294118, 0.9178921568627452, 0.9595588235294118, 0.9803921568627452, 0.9803921568627452, 0.9178921568627452, 0.9387254901960785, 0.9595588235294118, 0.9595588235294118, 0.9399509803921569, 0.9595588235294118, 0.9399509803921569, 0.9595588235294118, 0.9595588235294118, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9178921568627452, 0.9387254901960785, 0.9803921568627452, 0.9803921568627452, 0.9595588235294118, 0.9595588235294118, 0.9203431372549019, 0.9803921568627452, 0.9803921568627452, 0.8774509803921569, 0.8774509803921569, 0.9178921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.8970588235294118, 0.9803921568627452, 0.9595588235294118, 0.9178921568627452, 0.9178921568627452, 0.9595588235294118, 0.9178921568627452, 0.9595588235294118, 0.9178921568627452, 0.9178921568627452, 0.9595588235294118]</t>
+          <t>[0.9387254901960785, 0.9399509803921569, 0.9595588235294118, 0.9803921568627452, 0.9595588235294118, 0.9178921568627452, 0.9803921568627452, 0.9387254901960785, 0.9803921568627452, 0.9387254901960785, 0.9803921568627452, 0.9399509803921569, 0.9595588235294118, 0.9803921568627452, 0.9387254901960785, 0.9595588235294118, 0.8970588235294118, 0.9803921568627452, 0.9191176470588235, 0.9803921568627452, 0.9595588235294118, 0.9387254901960785, 0.9595588235294118, 0.9178921568627452, 0.9178921568627452, 0.9595588235294118, 0.8774509803921569, 0.9595588235294118, 0.9178921568627452, 0.9178921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9178921568627452, 0.9803921568627452, 0.9803921568627452, 0.9399509803921569, 0.9191176470588235, 0.9387254901960785, 0.9803921568627452, 0.9803921568627452, 0.9595588235294118, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9178921568627452, 0.9803921568627452, 0.9803921568627452, 0.9595588235294118, 0.9595588235294118]</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>[0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9166666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 1.0, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9166666666666666, 1.0, 1.0, 0.875, 0.8958333333333334, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666]</t>
+          <t>[0.9791666666666666, 1.0, 0.9583333333333334, 1.0, 0.9583333333333334, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9166666666666666, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666]</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>[0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0]</t>
+          <t>[1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9583333333333334, 1.0, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666]</t>
         </is>
       </c>
     </row>
@@ -7548,31 +7548,31 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'relu', 'alpha': 3.0859310045717483e-06, 'learning_rate_init': 0.002076907727613659, 'max_iter': 2054, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0024419908270837485, 'max_iter': 3000, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>[0.9431372549019608, 0.9012254901960783, 0.8301470588235293, 0.7117647058823529, 0.9098039215686274, 0.963970588235294, 0.8926470588235293, 0.8686274509803921, 0.8852941176470589, 0.9676470588235293, 0.4090686274509803, 0.7063725490196078, 0.4090686274509803, 0.6674019607843138, 0.4090686274509803, 0.4090686274509803, 0.3252450980392157, 0.5419117647058823, 0.4090686274509803, 0.933578431372549, 0.9262254901960784, 0.933578431372549, 0.9299019607843138, 0.9470588235294117, 0.9178921568627452, 0.9715686274509803, 0.933578431372549, 0.9377450980392157, 0.9338235294117647, 0.963970588235294, 0.9377450980392157, 0.8973039215686274, 0.8975490196078433, 0.9056372549019608, 0.9051470588235293, 0.9049019607843138, 0.9463235294117647, 0.8931372549019608, 0.9676470588235293, 0.871813725490196, 0.9593137254901961, 0.963970588235294, 0.5625, 0.9553921568627451, 0.8553921568627452, 0.8598039215686274, 0.9595588235294118, 0.9715686274509803, 0.9426470588235295, 0.9637254901960783]</t>
+          <t>[0.9470588235294117, 0.6715686274509804, 0.9220588235294118, 0.9512254901960784, 0.9093137254901962, 0.9306372549019608, 0.946078431372549, 0.9465686274509805, 0.9465686274509804, 0.3252450980392157, 0.942156862745098, 0.9676470588235293, 0.5357843137254902, 0.9093137254901962, 0.8769607843137255, 0.9556372549019608, 0.4375, 0.9137254901960784, 0.9512254901960784, 0.5357843137254902, 0.8970588235294118, 0.9593137254901961, 0.9676470588235293, 0.9098039215686274, 0.8553921568627452, 0.8343137254901961, 0.9470588235294117, 0.8301470588235293, 0.8301470588235293, 0.9009803921568628, 0.9634803921568628, 0.8970588235294118, 0.9634803921568628, 0.8159313725490197, 0.9632352941176471, 0.9426470588235294, 0.9634803921568628, 0.9049019607843137, 0.9598039215686274, 0.9676470588235293, 0.9676470588235293, 0.9556372549019608, 0.8509803921568627, 0.9715686274509803, 0.8551470588235294, 0.9431372549019608, 0.8428921568627452, 0.9634803921568628, 0.9556372549019608, 0.8262254901960784]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>[0.028757009409144614, 0.06114004854702178, 0.035683446343438036, 0.11666615175368326, 0.02137558442197562, 0.018611319124087915, 0.020145806458857378, 0.03656317312001766, 0.02846304861545871, 0.009448203562449175, 0.21842127357229355, 0.1370043230865581, 0.21842127357229355, 0.05642367672932628, 0.21842127357229355, 0.21842127357229355, 0.016795923234325293, 0.2567715187500649, 0.21842127357229355, 0.03032091587096493, 0.03577423978533128, 0.03032091587096493, 0.04221382380708038, 0.02665152395895722, 0.06496254059165968, 0.009846720307157174, 0.03032091587096493, 0.029118224725239644, 0.03504987658351739, 0.018611319124087915, 0.029118224725239644, 0.04169116926605971, 0.037433460125231896, 0.05413837873715451, 0.01140693752766672, 0.028599906168264366, 0.044567424049728264, 0.057005188389022764, 0.015590239111558128, 0.07573727708553195, 0.022615524263573068, 0.018611319124087915, 0.2807480087987169, 0.02019048561433229, 0.09073594294319985, 0.08381707921519391, 0.02149329536117035, 0.009846720307157174, 0.05708943151827974, 0.014304153393544012]</t>
+          <t>[0.02665152395895722, 0.05995140124585737, 0.03543002156782875, 0.02645923867072175, 0.05909353880362267, 0.07258627157013697, 0.0278269940774215, 0.04982548359865721, 0.049517083526174094, 0.016795923234325293, 0.04777463152288304, 0.023656722572575808, 0.036274509803921544, 0.05909353880362267, 0.04148315991711524, 0.03402716478196219, 0.2297341458681704, 0.040300557664837415, 0.02645923867072175, 0.036274509803921544, 0.052812798231631104, 0.018133942463817596, 0.023656722572575808, 0.02137558442197562, 0.09073594294319985, 0.031970030540319196, 0.02665152395895722, 0.03554006084187768, 0.04187232980233771, 0.06440251224321311, 0.01471405001941537, 0.07977931764097942, 0.01471405001941537, 0.0473705463964448, 0.026793150868965016, 0.05988322450153521, 0.015353391924868426, 0.028240570040851138, 0.017005636037942834, 0.023656722572575808, 0.023656722572575808, 0.03402716478196219, 0.07122027766576143, 0.009846720307157174, 0.0656542576346683, 0.025957259401713176, 0.06497363644813862, 0.01471405001941537, 0.03402716478196219, 0.043977172873531575]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>[14, 29, 39, 40, 25, 5, 33, 36, 34, 3, 45, 41, 45, 42, 45, 45, 50, 44, 45, 19, 23, 19, 22, 12, 24, 1, 19, 16, 18, 5, 16, 31, 30, 26, 27, 28, 13, 32, 3, 35, 10, 5, 43, 11, 38, 37, 9, 1, 15, 8]</t>
+          <t>[18, 46, 27, 16, 30, 26, 22, 20, 21, 50, 25, 2, 47, 30, 36, 13, 49, 28, 16, 47, 34, 12, 2, 29, 37, 41, 18, 42, 42, 33, 6, 34, 6, 45, 10, 24, 6, 32, 11, 2, 2, 13, 39, 1, 38, 23, 40, 6, 13, 44]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'relu', 'alpha': 2.1454549596046843e-05, 'learning_rate_init': 0.007011296086810581, 'max_iter': 2780, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0028449316243212494, 'learning_rate_init': 0.00020932518884935519, 'max_iter': 1509, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 4.198247117735114e-06, 'learning_rate_init': 0.0007787554452038075, 'max_iter': 2607, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.6307225196846483e-05, 'learning_rate_init': 0.00020767393568755832, 'max_iter': 2799, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0013537000526474192, 'learning_rate_init': 0.00060107909233583, 'max_iter': 1067, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 3.6307775534637067e-06, 'learning_rate_init': 0.007375377834657306, 'max_iter': 843, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 3.951654139821221e-06, 'learning_rate_init': 0.00093561226904761, 'max_iter': 808, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.9996577371605125e-06, 'learning_rate_init': 0.0005769751604063092, 'max_iter': 2254, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.4532214423140304e-05, 'learning_rate_init': 0.0006393593567334984, 'max_iter': 2880, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.498400518166001e-05, 'learning_rate_init': 0.0019266208854384465, 'max_iter': 1131, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001248700540560188, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001097622839557198, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0005608749178134168, 'learning_rate_init': 0.00018327447529516586, 'max_iter': 2360, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.002209174292128728, 'learning_rate_init': 0.0004481070293723809, 'max_iter': 790, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.00382060418715163, 'learning_rate_init': 0.0001, 'max_iter': 1174, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0024110650169918858, 'max_iter': 709, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 2.2679644244120024e-05, 'learning_rate_init': 0.0022394117716239806, 'max_iter': 2866, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.008776098565127302, 'learning_rate_init': 0.0020529211650122015, 'max_iter': 2238, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00024291847351672313, 'learning_rate_init': 0.0064299609416321015, 'max_iter': 1347, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00045490535235815727, 'learning_rate_init': 0.005918959337506723, 'max_iter': 2229, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.005048774348073948, 'learning_rate_init': 0.0017097569466946415, 'max_iter': 925, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 3.0859310045717483e-06, 'learning_rate_init': 0.002076907727613659, 'max_iter': 2054, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.9198053793763777e-05, 'learning_rate_init': 0.001971279643238473, 'max_iter': 2705, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 5.576745992199107e-06, 'learning_rate_init': 0.0046292395144808905, 'max_iter': 2815, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 3.4049875682398086e-05, 'learning_rate_init': 0.005099458860346991, 'max_iter': 2526, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 4.256287514135726e-05, 'learning_rate_init': 0.006840048663468891, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0006109230835288782, 'learning_rate_init': 0.0035409087475242016, 'max_iter': 1798, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0034433230537112298, 'learning_rate_init': 0.00040121197776149927, 'max_iter': 698, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.1860458858763884e-05, 'learning_rate_init': 0.0004390399652610952, 'max_iter': 699, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 2.9440873676169645e-05, 'learning_rate_init': 0.0002967306195991795, 'max_iter': 542, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.002772836125670789, 'learning_rate_init': 0.001099138206304297, 'max_iter': 1353, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.022952417669194654, 'learning_rate_init': 0.0011742276005730485, 'max_iter': 758, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.2627239016516243e-06, 'learning_rate_init': 0.0019621247362963997, 'max_iter': 2154, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 2.9801688898577555e-06, 'learning_rate_init': 0.00032926226413859547, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0019991193687417777, 'max_iter': 2298, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.001412742073394e-06, 'learning_rate_init': 0.0034318591442175977, 'max_iter': 1933, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.06504905042190089, 'learning_rate_init': 0.0014649151195214275, 'max_iter': 1036, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0004552496720225963, 'learning_rate_init': 0.0070272741648584654, 'max_iter': 2769, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.002663661297455142, 'learning_rate_init': 0.00015753255571468428, 'max_iter': 1440, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0016363763494876143, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.05207558386500066, 'learning_rate_init': 0.01, 'max_iter': 2751, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.029669863807380327, 'learning_rate_init': 0.009072748082868596, 'max_iter': 2275, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.003683745934003818, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.026215964778880135, 'learning_rate_init': 0.0034819242823613114, 'max_iter': 1254, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.023415558767313237, 'learning_rate_init': 0.003558717496553142, 'max_iter': 973, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0023352540167316934, 'max_iter': 500, 'solver': 'adam'})]</t>
+          <t>[OrderedDict({'activation': 'relu', 'alpha': 0.0001036149317251309, 'learning_rate_init': 0.0032654203569822573, 'max_iter': 1594, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 8.756543017691419e-06, 'learning_rate_init': 0.00011119312907869115, 'max_iter': 2827, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0029799442435216503, 'learning_rate_init': 0.0024194484964544976, 'max_iter': 717, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0034838569967220673, 'learning_rate_init': 0.0024999366611301375, 'max_iter': 2070, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0058529770068467745, 'learning_rate_init': 0.0005784124937482074, 'max_iter': 2244, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.005152764791900761, 'learning_rate_init': 0.006491978847936701, 'max_iter': 1461, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00015737246854883777, 'learning_rate_init': 0.0034677861174745796, 'max_iter': 1670, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 3.187519217489893e-05, 'learning_rate_init': 0.0042964578109338505, 'max_iter': 1852, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 9.96527882169954e-05, 'learning_rate_init': 0.005814175840277003, 'max_iter': 1417, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.001747464857610529, 'learning_rate_init': 0.00018894865503324448, 'max_iter': 2159, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0017144858535029753, 'max_iter': 2884, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2732, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00045625614264771644, 'learning_rate_init': 0.0009657563872098147, 'max_iter': 1438, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0014505663561877541, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 857, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.04947243989984189, 'learning_rate_init': 0.0002455997661056426, 'max_iter': 2006, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.2529885601599498e-06, 'learning_rate_init': 0.0076821387400660525, 'max_iter': 2916, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.1961376499812074e-06, 'learning_rate_init': 0.0001, 'max_iter': 1383, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0003838478322752159, 'max_iter': 2652, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0005577072406378914, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0006032942978611443, 'max_iter': 1804, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.011789144335214009, 'learning_rate_init': 0.00092965557710437, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0029998356904332854, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0007998057300251411, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0031181063876922627, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.004325516176579372, 'learning_rate_init': 0.0012055372544544829, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1.205120025725471e-06, 'learning_rate_init': 0.0010547231649541563, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00028466763897890137, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0008180482947034113, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0003219362152052759, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0011184339794900091, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.001108740111854572, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0039131849368833965, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0008732807476959298, 'learning_rate_init': 0.01, 'max_iter': 2999, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.158059922646116e-05, 'learning_rate_init': 0.0029995275690607188, 'max_iter': 2721, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0024419908270837485, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0029897567394103425, 'max_iter': 2883, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.003323161448742147, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.003248828091067808, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0016060283968535, 'learning_rate_init': 0.0007853742697516059, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 2.42924151144379e-06, 'learning_rate_init': 0.0031335612529469004, 'max_iter': 2613, 'solver': 'sgd'})]</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="O77" t="n">
         <v>0.8780487804878049</v>
@@ -7584,27 +7584,27 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>[0.9583333333333334, 0.9203431372549019, 0.8357843137254902, 0.7598039215686274, 0.9399509803921569, 0.9791666666666666, 0.8958333333333334, 0.7977941176470589, 0.9007352941176471, 0.9791666666666666, 0.2659313725490196, 0.8774509803921569, 0.2659313725490196, 0.636029411764706, 0.2659313725490196, 0.2659313725490196, 0.3333333333333333, 0.3333333333333333, 0.2659313725490196, 0.9583333333333334, 0.9399509803921569, 0.9583333333333334, 0.9791666666666666, 0.9375, 0.9583333333333334, 0.9791666666666666, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 0.9583333333333334, 0.9203431372549019, 0.9203431372549019, 0.9203431372549019, 0.8958333333333334, 0.8958333333333334, 0.875, 0.9203431372549019, 0.9791666666666666, 0.8149509803921569, 0.9178921568627452, 0.9791666666666666, 0.3333333333333333, 0.9178921568627452, 0.7953431372549019, 0.7757352941176471, 0.9791666666666666, 0.9791666666666666, 0.8357843137254902, 0.9791666666666666]</t>
+          <t>[0.9375, 0.636029411764706, 0.9399509803921569, 0.9583333333333334, 0.9583333333333334, 0.7953431372549019, 0.9583333333333334, 0.8553921568627452, 0.9791666666666666, 0.3333333333333333, 0.875, 0.9791666666666666, 0.5379901960784313, 0.9583333333333334, 0.7977941176470589, 1.0, 0.3333333333333333, 0.9203431372549019, 0.9583333333333334, 0.5379901960784313, 0.9399509803921569, 0.9583333333333334, 0.9791666666666666, 0.9399509803921569, 0.7953431372549019, 0.8357843137254902, 0.9375, 0.8357843137254902, 0.8149509803921569, 0.9375, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.7401960784313726, 0.9791666666666666, 0.8357843137254902, 0.9387254901960785, 0.8958333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 0.8149509803921569, 0.9791666666666666, 0.8149509803921569, 0.9375, 0.7953431372549019, 0.9583333333333334, 1.0, 0.7953431372549019]</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[0.9191176470588235, 0.9791666666666666, 0.8137254901960785, 0.7365196078431372, 0.9191176470588235, 0.9411764705882352, 0.9191176470588235, 0.8774509803921569, 0.9191176470588235, 0.9607843137254902, 0.5465686274509803, 0.5465686274509803, 0.5465686274509803, 0.5882352941176471, 0.5465686274509803, 0.5465686274509803, 0.33455882352941174, 0.8137254901960785, 0.5465686274509803, 0.9791666666666666, 0.9595588235294118, 0.9791666666666666, 0.9595588235294118, 0.9595588235294118, 0.9203431372549019, 0.9803921568627452, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9411764705882352, 0.9791666666666666, 0.9595588235294118, 0.9399509803921569, 0.9803921568627452, 0.9191176470588235, 0.9595588235294118, 1.0, 0.9595588235294118, 0.9803921568627452, 0.9595588235294118, 0.9803921568627452, 0.9411764705882352, 0.8958333333333334, 0.9607843137254902, 0.9595588235294118, 0.9595588235294118, 0.9203431372549019, 0.9803921568627452, 1.0, 0.9411764705882352]</t>
+          <t>[0.9595588235294118, 0.5882352941176471, 0.9595588235294118, 0.9595588235294118, 0.9399509803921569, 1.0, 0.9791666666666666, 1.0, 0.9595588235294118, 0.33455882352941174, 1.0, 0.9803921568627452, 0.5159313725490197, 0.9399509803921569, 0.8774509803921569, 0.9399509803921569, 0.8958333333333334, 0.9791666666666666, 0.9595588235294118, 0.5159313725490197, 0.9595588235294118, 0.9803921568627452, 0.9803921568627452, 0.9191176470588235, 0.9595588235294118, 0.8137254901960785, 0.9595588235294118, 0.8137254901960785, 0.8137254901960785, 0.9399509803921569, 0.9803921568627452, 0.8774509803921569, 0.9803921568627452, 0.8174019607843137, 0.9595588235294118, 0.9791666666666666, 0.9803921568627452, 0.9595588235294118, 0.9411764705882352, 0.9803921568627452, 0.9803921568627452, 0.9399509803921569, 0.9595588235294118, 0.9803921568627452, 0.9595588235294118, 0.9399509803921569, 0.9595588235294118, 0.9803921568627452, 0.9399509803921569, 0.8137254901960785]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>[0.9007352941176471, 0.8982843137254902, 0.8137254901960785, 0.5, 0.8774509803921569, 0.9411764705882352, 0.8566176470588235, 0.8970588235294118, 0.8357843137254902, 0.9607843137254902, 0.7745098039215685, 0.7745098039215685, 0.7745098039215685, 0.6544117647058824, 0.7745098039215685, 0.7745098039215685, 0.3333333333333333, 0.3333333333333333, 0.7745098039215685, 0.8970588235294118, 0.8566176470588235, 0.8970588235294118, 0.8566176470588235, 0.9007352941176471, 0.7941176470588235, 0.9607843137254902, 0.8970588235294118, 0.8970588235294118, 0.8774509803921569, 0.9411764705882352, 0.8970588235294118, 0.8357843137254902, 0.8357843137254902, 0.8982843137254902, 0.9191176470588235, 0.8982843137254902, 0.9191176470588235, 0.8774509803921569, 0.9411764705882352, 0.7720588235294118, 0.9607843137254902, 0.9411764705882352, 0.3333333333333333, 0.9607843137254902, 0.7303921568627452, 0.7720588235294118, 0.9607843137254902, 0.9607843137254902, 0.9399509803921569, 0.9607843137254902]</t>
+          <t>[0.9007352941176471, 0.6544117647058824, 0.8566176470588235, 0.9007352941176471, 0.7941176470588235, 0.9203431372549019, 0.8970588235294118, 0.9399509803921569, 0.8566176470588235, 0.3333333333333333, 0.8982843137254902, 0.9203431372549019, 0.5, 0.7941176470588235, 0.8970588235294118, 0.9007352941176471, 0.3333333333333333, 0.8982843137254902, 0.9007352941176471, 0.5, 0.8357843137254902, 0.9411764705882352, 0.9203431372549019, 0.8774509803921569, 0.7303921568627452, 0.8137254901960785, 0.9007352941176471, 0.7928921568627452, 0.7720588235294118, 0.7732843137254902, 0.9411764705882352, 0.7536764705882352, 0.9411764705882352, 0.7928921568627452, 0.9191176470588235, 0.9191176470588235, 0.9607843137254902, 0.8774509803921569, 0.9411764705882352, 0.9203431372549019, 0.9203431372549019, 0.9007352941176471, 0.7512254901960785, 0.9607843137254902, 0.7720588235294118, 0.9007352941176471, 0.7720588235294118, 0.9411764705882352, 0.9007352941176471, 0.7720588235294118]</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>[0.9791666666666666, 0.7916666666666666, 0.7916666666666666, 0.8541666666666666, 0.9166666666666666, 0.9791666666666666, 0.8958333333333334, 0.875, 0.875, 0.9791666666666666, 0.20833333333333334, 0.7916666666666666, 0.20833333333333334, 0.75, 0.20833333333333334, 0.20833333333333334, 0.3333333333333333, 0.3333333333333333, 0.20833333333333334, 0.9166666666666666, 0.9375, 0.9166666666666666, 0.9375, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9166666666666666, 0.9375, 0.9375, 0.9791666666666666, 0.9375, 0.875, 0.875, 0.8125, 0.8958333333333334, 0.8958333333333334, 0.9583333333333334, 0.7916666666666666, 0.9791666666666666, 0.8541666666666666, 0.9791666666666666, 0.9791666666666666, 0.3333333333333333, 0.9791666666666666, 0.8333333333333334, 0.8333333333333334, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666]</t>
+          <t>[0.9791666666666666, 0.75, 0.9375, 0.9791666666666666, 0.9166666666666666, 0.9583333333333334, 0.9375, 0.9583333333333334, 0.9375, 0.3333333333333333, 0.9583333333333334, 0.9791666666666666, 0.5208333333333334, 0.9166666666666666, 0.9166666666666666, 0.9791666666666666, 0.3333333333333333, 0.8541666666666666, 0.9791666666666666, 0.5208333333333334, 0.8333333333333334, 0.9791666666666666, 0.9791666666666666, 0.9166666666666666, 0.8333333333333334, 0.8125, 0.9791666666666666, 0.8125, 0.8541666666666666, 0.9166666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.8541666666666666, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.8958333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.8333333333333334, 0.9791666666666666, 0.8333333333333334, 0.9791666666666666, 0.8333333333333334, 0.9791666666666666, 0.9791666666666666, 0.8541666666666666]</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>[0.9583333333333334, 0.9166666666666666, 0.8958333333333334, 0.7083333333333334, 0.8958333333333334, 0.9791666666666666, 0.8958333333333334, 0.8958333333333334, 0.8958333333333334, 0.9583333333333334, 0.25, 0.5416666666666666, 0.25, 0.7083333333333334, 0.25, 0.25, 0.2916666666666667, 0.8958333333333334, 0.25, 0.9166666666666666, 0.9375, 0.9166666666666666, 0.9166666666666666, 0.9583333333333334, 0.9375, 0.9583333333333334, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9791666666666666, 0.9166666666666666, 0.8958333333333334, 0.9166666666666666, 0.9166666666666666, 0.8958333333333334, 0.875, 0.9791666666666666, 0.9166666666666666, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 0.9166666666666666, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 0.9583333333333334]</t>
+          <t>[0.9583333333333334, 0.7291666666666666, 0.9166666666666666, 0.9583333333333334, 0.9375, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 1.0, 0.2916666666666667, 0.9791666666666666, 0.9791666666666666, 0.6041666666666666, 0.9375, 0.8958333333333334, 0.9583333333333334, 0.2916666666666667, 0.9166666666666666, 0.9583333333333334, 0.6041666666666666, 0.9166666666666666, 0.9375, 0.9791666666666666, 0.8958333333333334, 0.9583333333333334, 0.8958333333333334, 0.9583333333333334, 0.8958333333333334, 0.8958333333333334, 0.9375, 0.9583333333333334, 0.9166666666666666, 0.9583333333333334, 0.875, 1.0, 1.0, 0.9583333333333334, 0.8958333333333334, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.8958333333333334, 0.9583333333333334, 0.8958333333333334, 0.9583333333333334, 0.8541666666666666, 0.9583333333333334, 0.9583333333333334, 0.8958333333333334]</t>
         </is>
       </c>
     </row>
@@ -7716,52 +7716,52 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.7351851851851853</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7788809182209468</v>
+        <v>0.7610136770264023</v>
       </c>
       <c r="F79" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7788461538461539</v>
+        <v>0.7699848290348933</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[[5, 1, 3], [1, 18, 1], [2, 1, 9]]</t>
+          <t>[[6, 2, 1], [3, 16, 1], [2, 1, 9]]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 11, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 2})</t>
+          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>[0.7649509803921568, 0.7737745098039216, 0.8230392156862745, 0.8066176470588236, 0.8350490196078431, 0.8772058823529413, 0.8605392156862746, 0.7747549019607842, 0.8933823529411764, 0.725, 0.592156862745098, 0.7566176470588235, 0.7649509803921568, 0.7526960784313725, 0.7318627450980393, 0.592156862745098, 0.7156862745098039, 0.7566176470588235, 0.592156862745098, 0.8431372549019608, 0.7568627450980392, 0.8147058823529412, 0.8715686274509805, 0.592156862745098, 0.7524509803921569, 0.7318627450980393, 0.7705882352941177, 0.6852941176470588, 0.592156862745098, 0.7897058823529413, 0.7328431372549019, 0.8477941176470587, 0.592156862745098, 0.7524509803921569, 0.7897058823529413, 0.790686274509804, 0.7566176470588235, 0.7156862745098039, 0.6781862745098038, 0.6754901960784314, 0.6852941176470588, 0.7649509803921568, 0.8644607843137255, 0.7526960784313725, 0.592156862745098, 0.7328431372549019, 0.880392156862745, 0.592156862745098, 0.592156862745098, 0.6852941176470588]</t>
+          <t>[0.7865196078431372, 0.7990196078431373, 0.7897058823529413, 0.8232843137254904, 0.7328431372549019, 0.7649509803921568, 0.7732843137254902, 0.7232843137254902, 0.7781862745098038, 0.7980392156862746, 0.8683823529411765, 0.592156862745098, 0.8477941176470587, 0.8147058823529412, 0.7156862745098039, 0.8142156862745098, 0.592156862745098, 0.7284313725490197, 0.7897058823529413, 0.7328431372549019, 0.8688725490196078, 0.7649509803921568, 0.7524509803921569, 0.7318627450980393, 0.6754901960784314, 0.7107843137254901, 0.6852941176470588, 0.592156862745098, 0.8683823529411765, 0.8801470588235294, 0.7664215686274509, 0.7328431372549019, 0.592156862745098, 0.8348039215686274, 0.592156862745098, 0.7524509803921569, 0.6980392156862745, 0.7566176470588235, 0.7328431372549019, 0.592156862745098, 0.7566176470588235, 0.880392156862745, 0.7897058823529413, 0.6852941176470588, 0.7705882352941177, 0.6781862745098038, 0.592156862745098, 0.592156862745098, 0.7156862745098039, 0.7225490196078431]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>[0.028734021352456608, 0.0753516043821768, 0.04024835194984967, 0.029670026247314626, 0.06371889106102605, 0.050500903109918116, 0.05803909148105419, 0.04569879067803471, 0.03869910990276697, 0.05638107352427164, 0.017058541805201267, 0.03548931588118775, 0.05532596253071444, 0.035241313985961586, 0.029221196348409417, 0.017058541805201267, 0.019127071583457507, 0.03548931588118775, 0.017058541805201267, 0.06689425541218838, 0.03068721416841087, 0.04208555300368879, 0.05427911759313829, 0.017058541805201267, 0.03692774307186118, 0.029221196348409417, 0.044909826779116584, 0.03894977246514418, 0.017058541805201267, 0.031896663696073406, 0.03170208363628435, 0.06927825173179694, 0.017058541805201267, 0.03692774307186118, 0.031896663696073406, 0.03971344638675773, 0.03548931588118775, 0.019127071583457507, 0.05654067002076948, 0.0632685351147254, 0.03894977246514418, 0.05532596253071444, 0.07285887065196484, 0.035241313985961586, 0.017058541805201267, 0.03170208363628435, 0.0557219490119617, 0.017058541805201267, 0.017058541805201267, 0.03894977246514418]</t>
+          <t>[0.05522271498824389, 0.05332220363975605, 0.022053376233729393, 0.03012214018772003, 0.03170208363628435, 0.04201412222983555, 0.03815193275690333, 0.05081515453873821, 0.06208290274112769, 0.035941770156516374, 0.019586385317653977, 0.017058541805201267, 0.06927825173179694, 0.04208555300368879, 0.019127071583457507, 0.01955569044639088, 0.017058541805201267, 0.02962139347114896, 0.031896663696073406, 0.03170208363628435, 0.07263756520223039, 0.05179867423810994, 0.03692774307186118, 0.029221196348409417, 0.0632685351147254, 0.04745670237741195, 0.03894977246514418, 0.017058541805201267, 0.019586385317653977, 0.0350361624573606, 0.04751742431177938, 0.03170208363628435, 0.017058541805201267, 0.0586107261868044, 0.017058541805201267, 0.03692774307186118, 0.02239128548148287, 0.03548931588118775, 0.03170208363628435, 0.017058541805201267, 0.03548931588118775, 0.0557219490119617, 0.031896663696073406, 0.03894977246514418, 0.044909826779116584, 0.05654067002076948, 0.017058541805201267, 0.017058541805201267, 0.019127071583457507, 0.04626188968820914]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>[19, 17, 10, 12, 9, 3, 6, 16, 1, 34, 42, 23, 19, 26, 32, 42, 35, 23, 42, 8, 22, 11, 4, 42, 28, 32, 18, 37, 42, 14, 30, 7, 42, 28, 14, 13, 23, 35, 40, 41, 37, 19, 5, 26, 42, 30, 2, 42, 42, 37]</t>
+          <t>[16, 11, 13, 8, 27, 21, 18, 33, 17, 12, 4, 43, 6, 9, 35, 10, 43, 32, 13, 27, 3, 21, 25, 31, 42, 37, 39, 43, 4, 2, 20, 27, 43, 7, 43, 25, 38, 23, 27, 43, 23, 1, 13, 39, 19, 41, 43, 43, 35, 34]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 11, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 34}), OrderedDict({'criterion': 'gini', 'max_depth': 89, 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 13}), OrderedDict({'criterion': 'gini', 'max_depth': 89, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 27}), OrderedDict({'criterion': 'gini', 'max_depth': 64, 'max_features': None, 'min_samples_leaf': 9, 'min_samples_split': 16}), OrderedDict({'criterion': 'entropy', 'max_depth': 77, 'max_features': None, 'min_samples_leaf': 7, 'min_samples_split': 26}), OrderedDict({'criterion': 'entropy', 'max_depth': 21, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 8}), OrderedDict({'criterion': 'gini', 'max_depth': 72, 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 11}), OrderedDict({'criterion': 'entropy', 'max_depth': 66, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 45}), OrderedDict({'criterion': 'entropy', 'max_depth': 11, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 7}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 10, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 9, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 44}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 9, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 86, 'max_features': 'sqrt', 'min_samples_leaf': 15, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 83, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 8}), OrderedDict({'criterion': 'gini', 'max_depth': 90, 'max_features': None, 'min_samples_leaf': 10, 'min_samples_split': 46}), OrderedDict({'criterion': 'entropy', 'max_depth': 31, 'max_features': 'sqrt', 'min_samples_leaf': 6, 'min_samples_split': 29}), OrderedDict({'criterion': 'gini', 'max_depth': 85, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 19}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 6, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 87, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 45}), OrderedDict({'criterion': 'gini', 'max_depth': 50, 'max_features': 'log2', 'min_samples_leaf': 16, 'min_samples_split': 21}), OrderedDict({'criterion': 'entropy', 'max_depth': 44, 'max_features': 'log2', 'min_samples_leaf': 13, 'min_samples_split': 31}), OrderedDict({'criterion': 'entropy', 'max_depth': 49, 'max_features': 'log2', 'min_samples_leaf': 11, 'min_samples_split': 40}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 93, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3})]</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="O79" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -7770,27 +7770,27 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>[0.8137254901960785, 0.6678921568627452, 0.8137254901960785, 0.8137254901960785, 0.8958333333333334, 0.9375, 0.8958333333333334, 0.8541666666666666, 0.9375, 0.7916666666666666, 0.6066176470588235, 0.7524509803921569, 0.7316176470588235, 0.8149509803921569, 0.7524509803921569, 0.6066176470588235, 0.7083333333333334, 0.7524509803921569, 0.6066176470588235, 0.8958333333333334, 0.8149509803921569, 0.8541666666666666, 0.8958333333333334, 0.6066176470588235, 0.7316176470588235, 0.7524509803921569, 0.8541666666666666, 0.6274509803921569, 0.6066176470588235, 0.8345588235294118, 0.7524509803921569, 0.9791666666666666, 0.6066176470588235, 0.7316176470588235, 0.8345588235294118, 0.7941176470588235, 0.7524509803921569, 0.7083333333333334, 0.6274509803921569, 0.7941176470588235, 0.6274509803921569, 0.7316176470588235, 0.9583333333333334, 0.8149509803921569, 0.6066176470588235, 0.7524509803921569, 0.9583333333333334, 0.6066176470588235, 0.6066176470588235, 0.6274509803921569]</t>
+          <t>[0.6887254901960785, 0.8541666666666666, 0.8137254901960785, 0.8137254901960785, 0.7524509803921569, 0.7720588235294118, 0.7524509803921569, 0.6887254901960785, 0.6678921568627452, 0.7524509803921569, 0.8958333333333334, 0.6066176470588235, 0.9791666666666666, 0.8541666666666666, 0.7083333333333334, 0.7916666666666666, 0.6066176470588235, 0.7524509803921569, 0.8345588235294118, 0.7524509803921569, 0.9583333333333334, 0.7524509803921569, 0.7316176470588235, 0.7524509803921569, 0.7941176470588235, 0.6691176470588235, 0.6274509803921569, 0.6066176470588235, 0.8958333333333334, 0.9375, 0.8541666666666666, 0.7524509803921569, 0.6066176470588235, 0.9166666666666666, 0.6066176470588235, 0.7316176470588235, 0.6691176470588235, 0.7524509803921569, 0.7524509803921569, 0.6066176470588235, 0.7524509803921569, 0.9583333333333334, 0.8345588235294118, 0.6274509803921569, 0.8541666666666666, 0.6274509803921569, 0.6066176470588235, 0.6066176470588235, 0.7083333333333334, 0.6691176470588235]</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[0.7769607843137255, 0.7769607843137255, 0.7585784313725491, 0.7794117647058824, 0.7144607843137255, 0.8382352941176471, 0.7573529411764706, 0.7205882352941176, 0.8382352941176471, 0.6311274509803922, 0.6041666666666666, 0.7953431372549019, 0.8578431372549019, 0.7561274509803922, 0.7352941176470589, 0.6041666666666666, 0.7352941176470589, 0.7953431372549019, 0.6041666666666666, 0.7549019607843137, 0.7561274509803922, 0.738970588235294, 0.9178921568627452, 0.6041666666666666, 0.7953431372549019, 0.7352941176470589, 0.7205882352941176, 0.7414215686274509, 0.6041666666666666, 0.7585784313725491, 0.7769607843137255, 0.7965686274509803, 0.6041666666666666, 0.7953431372549019, 0.7585784313725491, 0.7585784313725491, 0.7953431372549019, 0.7352941176470589, 0.7794117647058824, 0.6311274509803922, 0.7414215686274509, 0.8578431372549019, 0.7365196078431372, 0.7561274509803922, 0.6041666666666666, 0.7769607843137255, 0.8786764705882352, 0.6041666666666666, 0.6041666666666666, 0.7414215686274509]</t>
+          <t>[0.8002450980392157, 0.7205882352941176, 0.7585784313725491, 0.8382352941176471, 0.7769607843137255, 0.7769607843137255, 0.7953431372549019, 0.7769607843137255, 0.7794117647058824, 0.8566176470588235, 0.8394607843137255, 0.6041666666666666, 0.7965686274509803, 0.738970588235294, 0.7352941176470589, 0.8174019607843137, 0.6041666666666666, 0.7181372549019608, 0.7585784313725491, 0.7769607843137255, 0.7365196078431372, 0.8578431372549019, 0.7953431372549019, 0.7352941176470589, 0.6311274509803922, 0.7120098039215685, 0.7414215686274509, 0.6041666666666666, 0.8394607843137255, 0.8970588235294118, 0.7205882352941176, 0.7769607843137255, 0.6041666666666666, 0.7965686274509803, 0.6041666666666666, 0.7953431372549019, 0.7352941176470589, 0.7953431372549019, 0.7769607843137255, 0.6041666666666666, 0.7953431372549019, 0.8786764705882352, 0.7585784313725491, 0.7414215686274509, 0.7205882352941176, 0.7794117647058824, 0.6041666666666666, 0.6041666666666666, 0.7352941176470589, 0.75]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>[0.7549019607843137, 0.7156862745098039, 0.8553921568627452, 0.8149509803921569, 0.8566176470588235, 0.8186274509803922, 0.8370098039215685, 0.7573529411764706, 0.8786764705882352, 0.7022058823529411, 0.6041666666666666, 0.7977941176470589, 0.7977941176470589, 0.7340686274509803, 0.7132352941176471, 0.6041666666666666, 0.738970588235294, 0.7977941176470589, 0.6041666666666666, 0.8774509803921569, 0.7340686274509803, 0.8137254901960785, 0.7732843137254902, 0.6041666666666666, 0.7977941176470589, 0.7132352941176471, 0.7573529411764706, 0.6617647058823529, 0.6041666666666666, 0.7928921568627452, 0.738970588235294, 0.8174019607843137, 0.6041666666666666, 0.7977941176470589, 0.7928921568627452, 0.7340686274509803, 0.7977941176470589, 0.738970588235294, 0.6924019607843137, 0.6397058823529412, 0.6617647058823529, 0.7977941176470589, 0.8982843137254902, 0.7340686274509803, 0.6041666666666666, 0.738970588235294, 0.7941176470588235, 0.6041666666666666, 0.6041666666666666, 0.6617647058823529]</t>
+          <t>[0.8602941176470589, 0.8370098039215685, 0.7928921568627452, 0.8602941176470589, 0.738970588235294, 0.7132352941176471, 0.7977941176470589, 0.6924019607843137, 0.8602941176470589, 0.7977941176470589, 0.8774509803921569, 0.6041666666666666, 0.8174019607843137, 0.8137254901960785, 0.738970588235294, 0.8370098039215685, 0.6041666666666666, 0.7132352941176471, 0.7928921568627452, 0.738970588235294, 0.8786764705882352, 0.7769607843137255, 0.7977941176470589, 0.7132352941176471, 0.6397058823529412, 0.7977941176470589, 0.6617647058823529, 0.6041666666666666, 0.8774509803921569, 0.8370098039215685, 0.7573529411764706, 0.738970588235294, 0.6041666666666666, 0.8774509803921569, 0.6041666666666666, 0.7977941176470589, 0.6899509803921569, 0.7977941176470589, 0.738970588235294, 0.6041666666666666, 0.7977941176470589, 0.7941176470588235, 0.7928921568627452, 0.6617647058823529, 0.7573529411764706, 0.6924019607843137, 0.6041666666666666, 0.6041666666666666, 0.738970588235294, 0.7977941176470589]</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>[0.7291666666666666, 0.875, 0.875, 0.7708333333333334, 0.875, 0.8541666666666666, 0.8958333333333334, 0.75, 0.875, 0.7291666666666666, 0.5625, 0.7083333333333334, 0.7083333333333334, 0.7083333333333334, 0.7708333333333334, 0.5625, 0.7083333333333334, 0.7083333333333334, 0.5625, 0.9166666666666666, 0.7291666666666666, 0.8125, 0.8541666666666666, 0.5625, 0.7083333333333334, 0.7708333333333334, 0.7708333333333334, 0.6875, 0.5625, 0.75, 0.7083333333333334, 0.8541666666666666, 0.5625, 0.7083333333333334, 0.75, 0.8333333333333334, 0.7083333333333334, 0.7083333333333334, 0.6666666666666666, 0.625, 0.6875, 0.7083333333333334, 0.8541666666666666, 0.7083333333333334, 0.5625, 0.7083333333333334, 0.8541666666666666, 0.5625, 0.5625, 0.6875]</t>
+          <t>[0.7916666666666666, 0.75, 0.7708333333333334, 0.8333333333333334, 0.7083333333333334, 0.7291666666666666, 0.7083333333333334, 0.7916666666666666, 0.7916666666666666, 0.7708333333333334, 0.8541666666666666, 0.5625, 0.8541666666666666, 0.8125, 0.7083333333333334, 0.8333333333333334, 0.5625, 0.7708333333333334, 0.75, 0.7083333333333334, 0.875, 0.7083333333333334, 0.7083333333333334, 0.7708333333333334, 0.625, 0.7083333333333334, 0.6875, 0.5625, 0.8541666666666666, 0.8541666666666666, 0.7708333333333334, 0.7083333333333334, 0.5625, 0.8333333333333334, 0.5625, 0.7083333333333334, 0.7083333333333334, 0.7083333333333334, 0.7083333333333334, 0.5625, 0.7083333333333334, 0.8541666666666666, 0.75, 0.6875, 0.7708333333333334, 0.6666666666666666, 0.5625, 0.5625, 0.7083333333333334, 0.7083333333333334]</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>[0.75, 0.8333333333333334, 0.8125, 0.8541666666666666, 0.8333333333333334, 0.9375, 0.9166666666666666, 0.7916666666666666, 0.9375, 0.7708333333333334, 0.5833333333333334, 0.7291666666666666, 0.7291666666666666, 0.75, 0.6875, 0.5833333333333334, 0.6875, 0.7291666666666666, 0.5833333333333334, 0.7708333333333334, 0.75, 0.8541666666666666, 0.9166666666666666, 0.5833333333333334, 0.7291666666666666, 0.6875, 0.75, 0.7083333333333334, 0.5833333333333334, 0.8125, 0.6875, 0.7916666666666666, 0.5833333333333334, 0.7291666666666666, 0.8125, 0.8333333333333334, 0.7291666666666666, 0.6875, 0.625, 0.6875, 0.7083333333333334, 0.7291666666666666, 0.875, 0.75, 0.5833333333333334, 0.6875, 0.9166666666666666, 0.5833333333333334, 0.5833333333333334, 0.7083333333333334]</t>
+          <t>[0.7916666666666666, 0.8333333333333334, 0.8125, 0.7708333333333334, 0.6875, 0.8333333333333334, 0.8125, 0.6666666666666666, 0.7916666666666666, 0.8125, 0.875, 0.5833333333333334, 0.7916666666666666, 0.8541666666666666, 0.6875, 0.7916666666666666, 0.5833333333333334, 0.6875, 0.8125, 0.6875, 0.8958333333333334, 0.7291666666666666, 0.7291666666666666, 0.6875, 0.6875, 0.6666666666666666, 0.7083333333333334, 0.5833333333333334, 0.875, 0.875, 0.7291666666666666, 0.6875, 0.5833333333333334, 0.75, 0.5833333333333334, 0.7291666666666666, 0.6875, 0.7291666666666666, 0.6875, 0.5833333333333334, 0.7291666666666666, 0.9166666666666666, 0.8125, 0.7083333333333334, 0.75, 0.625, 0.5833333333333334, 0.5833333333333334, 0.6875, 0.6875]</t>
         </is>
       </c>
     </row>
@@ -7920,31 +7920,31 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.5126988921604752, 'gamma': 1.057889015748872, 'learning_rate': 0.026621685137227447, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 402, 'subsample': 0.6253443956895097})</t>
+          <t>OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.8944125212912301, 'learning_rate': 0.01, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 391, 'subsample': 0.5})</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[0.9433823529411764, 0.9551470588235293, 0.9632352941176471, 0.9352941176470588, 0.9509803921568627, 0.9424019607843137, 0.8973039215686274, 0.9593137254901961, 0.9637254901960783, 0.9433823529411764, 0.9553921568627451, 0.9757352941176471, 0.9595588235294118, 0.9262254901960784, 0.9674019607843137, 0.9593137254901961, 0.9595588235294118, 0.9509803921568627, 0.9715686274509805, 0.9674019607843137, 0.9757352941176471, 0.9348039215686275, 0.9389705882352942, 0.9595588235294118, 0.9757352941176471, 0.9676470588235293, 0.9634803921568628, 0.9593137254901961, 0.9634803921568628, 0.9348039215686275, 0.9715686274509803, 0.9715686274509803, 0.9387254901960784, 0.9757352941176471, 0.9308823529411765, 0.9632352941176471, 0.9674019607843137, 0.9431372549019608, 0.9634803921568628, 0.9634803921568628, 0.9389705882352942, 0.9757352941176471, 0.9509803921568627, 0.9590686274509805, 0.9718137254901962, 0.9634803921568628, 0.9593137254901961, 0.9674019607843137, 0.955392156862745, 0.9634803921568628]</t>
+          <t>[0.9551470588235296, 0.9551470588235293, 0.955392156862745, 0.935049019607843, 0.955392156862745, 0.9551470588235293, 0.9676470588235293, 0.9551470588235296, 0.934313725490196, 0.9218137254901961, 0.9715686274509803, 0.9676470588235293, 0.9632352941176471, 0.9345588235294118, 0.9757352941176471, 0.9715686274509803, 0.9713235294117647, 0.967156862745098, 0.9632352941176471, 0.9470588235294117, 0.9428921568627452, 0.9715686274509803, 0.9468137254901962, 0.9720588235294118, 0.9100490196078432, 0.9468137254901962, 0.9715686274509803, 0.9718137254901962, 0.926470588235294, 0.9674019607843137, 0.9593137254901961, 0.9801470588235294, 0.9637254901960783, 0.9590686274509805, 0.9634803921568628, 0.9384803921568627, 0.9470588235294117, 0.9553921568627451, 0.9634803921568628, 0.9632352941176471, 0.8644607843137255, 0.8892156862745099, 0.9757352941176471, 0.9593137254901961, 0.9676470588235293, 0.9799019607843137, 0.9468137254901962, 0.9431372549019608, 0.9799019607843137, 0.9757352941176471]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>[0.06664864231543914, 0.029763016950713466, 0.04556450995538138, 0.06392972551107637, 0.020196435367110466, 0.039192701597567346, 0.05816832817051749, 0.0361750092695982, 0.029295111802958997, 0.05571548012092983, 0.04993387592235347, 0.029720600767106135, 0.03590498054358823, 0.027198152938394317, 0.030332800989029386, 0.025593681337660025, 0.030857054686309265, 0.030138090488116442, 0.020585317253525554, 0.020978445026010442, 0.01956797417275694, 0.034317226712131686, 0.04183501170714212, 0.03590498054358823, 0.01956797417275694, 0.02385900690909403, 0.026763987636703335, 0.02499999999999998, 0.026391038784113363, 0.0407216949528238, 0.02739621638199722, 0.02739621638199722, 0.033399947855114055, 0.01956797417275694, 0.03868824220073652, 0.034903888468466454, 0.02769282472645681, 0.04641745328260267, 0.026763987636703335, 0.02329592073961657, 0.051978123263179875, 0.029720600767106135, 0.03543341248725724, 0.03398476771665643, 0.03977843770327126, 0.029323806385171625, 0.028429259556370642, 0.02750781930705531, 0.049831511579805976, 0.02329592073961657]</t>
+          <t>[0.019632337641667448, 0.03223388671132075, 0.029120287726037544, 0.044138067169640985, 0.03901295637465011, 0.014553953764023056, 0.030273328738518658, 0.029763016950713466, 0.02976301695071348, 0.030171956879361098, 0.02739621638199722, 0.027255519107133294, 0.034903888468466454, 0.04117792947929099, 0.01956797417275694, 0.02739621638199722, 0.03821957947553096, 0.021061324567589027, 0.03002826107017994, 0.056497091751644114, 0.038881851123495896, 0.02739621638199722, 0.027255519107133277, 0.046700021034566885, 0.043165097966179074, 0.03554851129277626, 0.02739621638199722, 0.02019643536711045, 0.051941126507203984, 0.02414682198382411, 0.017544637419777714, 0.017544637419777714, 0.03888185112349588, 0.028599906168264348, 0.019736100136468034, 0.046873357974572066, 0.04159740494818981, 0.031962513486243925, 0.026763987636703335, 0.034903888468466454, 0.054495607546205665, 0.06561398568340893, 0.007490542544086324, 0.028429259556370642, 0.03270566781798262, 0.02193045437085053, 0.023871592765805767, 0.05460573094095104, 0.012415612884229345, 0.007490542544086324]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>[38, 34, 22, 45, 35, 41, 50, 27, 15, 38, 32, 1, 24, 49, 11, 27, 24, 35, 7, 11, 1, 46, 42, 24, 1, 10, 16, 27, 16, 46, 8, 8, 44, 1, 48, 22, 11, 40, 16, 16, 42, 1, 35, 31, 6, 16, 27, 11, 33, 16]</t>
+          <t>[31, 33, 29, 43, 29, 33, 14, 31, 45, 47, 9, 14, 22, 44, 4, 9, 13, 18, 22, 35, 41, 9, 37, 7, 48, 37, 9, 8, 46, 17, 25, 1, 19, 27, 20, 42, 35, 28, 20, 22, 50, 49, 4, 25, 14, 2, 37, 40, 2, 4]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.9496523343607204, 'gamma': 4.045505283099417, 'learning_rate': 0.04147143819996444, 'max_depth': 4, 'min_child_weight': 4, 'n_estimators': 487, 'subsample': 0.57604172938422}), OrderedDict({'colsample_bytree': 0.5638710780506749, 'gamma': 4.044605085682216, 'learning_rate': 0.05808863366827831, 'max_depth': 9, 'min_child_weight': 3, 'n_estimators': 233, 'subsample': 0.8359715907250735}), OrderedDict({'colsample_bytree': 0.8530967607231807, 'gamma': 0.6011486482500928, 'learning_rate': 0.11383452886843283, 'max_depth': 7, 'min_child_weight': 5, 'n_estimators': 297, 'subsample': 0.9147118524941174}), OrderedDict({'colsample_bytree': 0.5070181340694465, 'gamma': 4.931908873610497, 'learning_rate': 0.21905006179408032, 'max_depth': 2, 'min_child_weight': 3, 'n_estimators': 178, 'subsample': 0.5269118789625042}), OrderedDict({'colsample_bytree': 0.8599895156539248, 'gamma': 2.1975902138784886, 'learning_rate': 0.07619113429550602, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 115, 'subsample': 0.929852796530847}), OrderedDict({'colsample_bytree': 0.5286501580416586, 'gamma': 0.07318703793155303, 'learning_rate': 0.2798874227653285, 'max_depth': 5, 'min_child_weight': 9, 'n_estimators': 383, 'subsample': 0.6335243568304941}), OrderedDict({'colsample_bytree': 0.6579591699312785, 'gamma': 2.6488847842807193, 'learning_rate': 0.01880440294354736, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 102, 'subsample': 0.7475847114534008}), OrderedDict({'colsample_bytree': 0.7490148918783375, 'gamma': 1.9589264002609768, 'learning_rate': 0.018320146589812004, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 354, 'subsample': 0.79031589577853}), OrderedDict({'colsample_bytree': 0.8222059038361805, 'gamma': 0.9966397368235567, 'learning_rate': 0.2564139851084766, 'max_depth': 3, 'min_child_weight': 5, 'n_estimators': 475, 'subsample': 0.5783882645003395}), OrderedDict({'colsample_bytree': 0.9630091710166473, 'gamma': 3.5063696971983616, 'learning_rate': 0.05670262513127864, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 153, 'subsample': 0.7219646426636726}), OrderedDict({'colsample_bytree': 0.8133518831171886, 'gamma': 0.9207058604510896, 'learning_rate': 0.2825838721762722, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 461, 'subsample': 0.7622801519994578}), OrderedDict({'colsample_bytree': 0.5126988921604752, 'gamma': 1.057889015748872, 'learning_rate': 0.026621685137227447, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 402, 'subsample': 0.6253443956895097}), OrderedDict({'colsample_bytree': 0.5698711871393922, 'gamma': 0.0, 'learning_rate': 0.013553107819619454, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.9939781371234377}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.013443132118142735, 'max_depth': 12, 'min_child_weight': 10, 'n_estimators': 467, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5086934547047884, 'gamma': 0.015185674510606536, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 8, 'n_estimators': 451, 'subsample': 0.9179345581960401}), OrderedDict({'colsample_bytree': 0.5805728358321982, 'gamma': 2.455282926073881, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 8, 'n_estimators': 168, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.502047974222875, 'learning_rate': 0.010930810448569628, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 372, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5142903333025093, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7264609772071708}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.019079026210332497, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 418, 'subsample': 0.6279738654372855}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 219, 'subsample': 0.5341251652713671}), OrderedDict({'colsample_bytree': 0.5447568145230725, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 171, 'subsample': 0.6853925614045364}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 448, 'subsample': 0.5518798091246574}), OrderedDict({'colsample_bytree': 0.8033082371623044, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 307, 'subsample': 0.918413418674062}), OrderedDict({'colsample_bytree': 0.7872898252248992, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 10, 'n_estimators': 475, 'subsample': 0.811271112960257}), OrderedDict({'colsample_bytree': 0.7248275659674295, 'gamma': 0.0, 'learning_rate': 0.03340040336324899, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 375, 'subsample': 0.8263430533494991}), OrderedDict({'colsample_bytree': 0.6306976138282624, 'gamma': 1.8996033320409733, 'learning_rate': 0.21899358653562792, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 212, 'subsample': 0.5235442954026991}), OrderedDict({'colsample_bytree': 0.8857905018445628, 'gamma': 0.0, 'learning_rate': 0.059943694428537767, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 413, 'subsample': 0.5891115759249704}), OrderedDict({'colsample_bytree': 0.7196546935522097, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 58, 'subsample': 0.674813777040787}), OrderedDict({'colsample_bytree': 0.7612028671517772, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 338, 'subsample': 0.5069516465499968}), OrderedDict({'colsample_bytree': 0.678123141980616, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 487, 'subsample': 0.9594174363368172}), OrderedDict({'colsample_bytree': 0.6401013231151268, 'gamma': 0.14315457808563695, 'learning_rate': 0.01, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 117, 'subsample': 0.9961724972587471}), OrderedDict({'colsample_bytree': 0.5499857740706291, 'gamma': 1.4656765399017635, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 403, 'subsample': 0.9107168962258292}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 431, 'subsample': 0.5701644713783105}), OrderedDict({'colsample_bytree': 0.6822001048450067, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 86, 'subsample': 0.77965812212259}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 354, 'subsample': 0.9252250740320274}), OrderedDict({'colsample_bytree': 0.8188613345313017, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 104, 'subsample': 0.7547486186549532}), OrderedDict({'colsample_bytree': 0.673722685008038, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 471, 'subsample': 0.5163801357616749}), OrderedDict({'colsample_bytree': 0.544551452204648, 'gamma': 2.6851709092587632, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 310, 'subsample': 0.5017189207050026}), OrderedDict({'colsample_bytree': 0.5441760222663903, 'gamma': 1.384516143961851, 'learning_rate': 0.028209813275753205, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 402, 'subsample': 0.5352909041977145}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.5339314331499945, 'learning_rate': 0.24994686373455793, 'max_depth': 14, 'min_child_weight': 2, 'n_estimators': 241, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.5806036825195666, 'learning_rate': 0.059347771645800546, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 393, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5923129174358622, 'gamma': 1.1314546755917347, 'learning_rate': 0.030639661487692073, 'max_depth': 13, 'min_child_weight': 2, 'n_estimators': 472, 'subsample': 0.6212814985011216}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.1130989327918086, 'learning_rate': 0.012379855863009449, 'max_depth': 1, 'min_child_weight': 2, 'n_estimators': 402, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5107409762876022, 'gamma': 1.2571941276156429, 'learning_rate': 0.09603083160566285, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 116, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.7708140081314105, 'learning_rate': 0.01993692577538077, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 494, 'subsample': 0.8182635778123268}), OrderedDict({'colsample_bytree': 0.6259330630239429, 'gamma': 0.7633318734486748, 'learning_rate': 0.19916456153733628, 'max_depth': 8, 'min_child_weight': 8, 'n_estimators': 363, 'subsample': 0.8050120430124514}), OrderedDict({'colsample_bytree': 0.6965068932027205, 'gamma': 0.06689069739864006, 'learning_rate': 0.02096566910260959, 'max_depth': 8, 'min_child_weight': 8, 'n_estimators': 173, 'subsample': 0.6047256498680952}), OrderedDict({'colsample_bytree': 0.7240537653443253, 'gamma': 1.1387227693423327, 'learning_rate': 0.10855493313895169, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 491, 'subsample': 0.9530115261534113}), OrderedDict({'colsample_bytree': 0.9887756728745285, 'gamma': 1.418734056915008, 'learning_rate': 0.19945902436163088, 'max_depth': 7, 'min_child_weight': 5, 'n_estimators': 337, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.880943340303974, 'learning_rate': 0.046841553696409396, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 322, 'subsample': 0.750380664901333})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.6104472548153346, 'gamma': 3.454912003665659, 'learning_rate': 0.12477355072164616, 'max_depth': 5, 'min_child_weight': 4, 'n_estimators': 273, 'subsample': 0.762775960395581}), OrderedDict({'colsample_bytree': 0.7732010820010612, 'gamma': 3.3072372885614736, 'learning_rate': 0.011775512481694098, 'max_depth': 11, 'min_child_weight': 2, 'n_estimators': 356, 'subsample': 0.7370240452924162}), OrderedDict({'colsample_bytree': 0.5189731370731169, 'gamma': 0.2058235812574505, 'learning_rate': 0.015805945428764016, 'max_depth': 7, 'min_child_weight': 8, 'n_estimators': 472, 'subsample': 0.5311755503642681}), OrderedDict({'colsample_bytree': 0.8141751715062442, 'gamma': 4.884382087895012, 'learning_rate': 0.040381689524738314, 'max_depth': 7, 'min_child_weight': 9, 'n_estimators': 463, 'subsample': 0.7795200737027426}), OrderedDict({'colsample_bytree': 0.7233903056050672, 'gamma': 3.2555071237630315, 'learning_rate': 0.05526807603531102, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 289, 'subsample': 0.8922321329185318}), OrderedDict({'colsample_bytree': 0.5192130784993931, 'gamma': 4.281226886659669, 'learning_rate': 0.02919357106581778, 'max_depth': 3, 'min_child_weight': 9, 'n_estimators': 189, 'subsample': 0.8143879943708063}), OrderedDict({'colsample_bytree': 0.7469786105476829, 'gamma': 0.2534711394383716, 'learning_rate': 0.13904427759465374, 'max_depth': 11, 'min_child_weight': 3, 'n_estimators': 378, 'subsample': 0.7771176819486364}), OrderedDict({'colsample_bytree': 0.7734819593489374, 'gamma': 0.6249739569694541, 'learning_rate': 0.021113454485484896, 'max_depth': 4, 'min_child_weight': 7, 'n_estimators': 67, 'subsample': 0.7605953234509797}), OrderedDict({'colsample_bytree': 0.6955217193606021, 'gamma': 3.3503667808272923, 'learning_rate': 0.03786831357286089, 'max_depth': 13, 'min_child_weight': 8, 'n_estimators': 368, 'subsample': 0.5074551447572675}), OrderedDict({'colsample_bytree': 0.6216845663257576, 'gamma': 4.6523015271752275, 'learning_rate': 0.04773113679815956, 'max_depth': 9, 'min_child_weight': 9, 'n_estimators': 137, 'subsample': 0.5961066847084323}), OrderedDict({'colsample_bytree': 0.7735591942058401, 'gamma': 0.1622242751127032, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6771686572749874, 'gamma': 0.0, 'learning_rate': 0.11906855956535276, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 306, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9241515653265322, 'gamma': 0.0, 'learning_rate': 0.010673254162660396, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.657966131877953, 'gamma': 0.0, 'learning_rate': 0.02479325730133124, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8735213047528574}), OrderedDict({'colsample_bytree': 0.9041478537607022, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 476, 'subsample': 0.9900481107663477}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.2064865511277629, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6049183720631538}), OrderedDict({'colsample_bytree': 0.7306930081664303, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 355, 'subsample': 0.9527593832787642}), OrderedDict({'colsample_bytree': 0.7476376437197522, 'gamma': 1.43394234043118, 'learning_rate': 0.02849833084111297, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 285, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6650215313659696, 'gamma': 3.9431705673226842, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 173, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6089420279974499, 'gamma': 0.4946649931200731, 'learning_rate': 0.01, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 57, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5842772128717595, 'gamma': 2.485718196671361, 'learning_rate': 0.29999999999999993, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 253, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.837038415163718, 'gamma': 0.8037340030162993, 'learning_rate': 0.29999999999999993, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 80, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8948381172881253, 'gamma': 1.954613707779099, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 318, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6398415216487627, 'gamma': 3.707000068487625, 'learning_rate': 0.013620117227165393, 'max_depth': 6, 'min_child_weight': 10, 'n_estimators': 172, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6912204212516038, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7133635840665478}), OrderedDict({'colsample_bytree': 0.5377626143629864, 'gamma': 1.543411097945656, 'learning_rate': 0.010174800226218828, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 419, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7971004695377597, 'gamma': 3.721237002832512, 'learning_rate': 0.2751729530472513, 'max_depth': 1, 'min_child_weight': 8, 'n_estimators': 83, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.7287419475735429, 'learning_rate': 0.11446711873214936, 'max_depth': 1, 'min_child_weight': 4, 'n_estimators': 141, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.417872821411104, 'learning_rate': 0.04768344313424853, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 81, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.8944125212912301, 'learning_rate': 0.01, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 391, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.012921870539539516, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 217, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.3997268495780562, 'learning_rate': 0.023898163026545124, 'max_depth': 6, 'min_child_weight': 10, 'n_estimators': 351, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6923840441872378, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5660088930873725}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 2, 'n_estimators': 498, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 448, 'subsample': 0.5844963922100734}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.0931703799540509, 'learning_rate': 0.054718713672996674, 'max_depth': 4, 'min_child_weight': 9, 'n_estimators': 86, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 163, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.4557769745842553, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 8, 'n_estimators': 156, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7346451093296211, 'gamma': 3.0180550146807223, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 9, 'n_estimators': 253, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5896532951595977, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 78, 'subsample': 0.5121585889643138}), OrderedDict({'colsample_bytree': 0.8705048515455456, 'gamma': 1.5309474921963857, 'learning_rate': 0.01, 'max_depth': 13, 'min_child_weight': 4, 'n_estimators': 397, 'subsample': 0.5625413443196532}), OrderedDict({'colsample_bytree': 0.9047287356136802, 'gamma': 0.0, 'learning_rate': 0.14768957133249666, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 414, 'subsample': 0.9301327137147236}), OrderedDict({'colsample_bytree': 0.8402291544697613, 'gamma': 0.0, 'learning_rate': 0.0334836313120472, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 372, 'subsample': 0.5827805524148736}), OrderedDict({'colsample_bytree': 0.737004119749742, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 2, 'min_child_weight': 8, 'n_estimators': 240, 'subsample': 0.8489159284628612}), OrderedDict({'colsample_bytree': 0.9232907536352435, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 10, 'min_child_weight': 5, 'n_estimators': 250, 'subsample': 0.9487698877703379}), OrderedDict({'colsample_bytree': 0.6999401148591781, 'gamma': 0.4665332977000338, 'learning_rate': 0.01, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 255, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5598700905713263, 'gamma': 1.657768586350186, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 59, 'subsample': 0.6041363046148928})]</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="O81" t="n">
         <v>0.8780487804878049</v>
@@ -7956,27 +7956,27 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>[1.0, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9583333333333334, 1.0, 1.0, 1.0, 0.9375, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9791666666666666, 0.9583333333333334, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 0.9375, 1.0, 1.0, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0]</t>
+          <t>[0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 0.9583333333333334, 1.0, 0.9791666666666666, 0.9583333333333334, 1.0, 1.0, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9583333333333334, 1.0, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666]</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[0.8186274509803922, 0.8982843137254902, 0.8774509803921569, 0.8198529411764706, 0.9191176470588235, 0.9583333333333334, 0.8578431372549019, 0.8982843137254902, 0.9191176470588235, 0.8394607843137255, 0.8590686274509803, 0.9191176470588235, 0.9191176470588235, 0.8786764705882352, 0.9191176470588235, 0.9399509803921569, 0.8995098039215685, 0.8982843137254902, 0.9399509803921569, 0.9595588235294118, 0.9399509803921569, 0.8786764705882352, 0.8590686274509803, 0.9191176470588235, 0.9399509803921569, 0.9399509803921569, 0.9191176470588235, 0.9387254901960785, 0.9595588235294118, 0.8590686274509803, 0.9191176470588235, 0.9191176470588235, 0.8982843137254902, 0.9399509803921569, 0.8602941176470589, 0.8982843137254902, 0.9595588235294118, 0.8590686274509803, 0.9191176470588235, 0.9399509803921569, 0.8394607843137255, 0.9191176470588235, 0.8982843137254902, 0.8982843137254902, 0.8982843137254902, 0.9387254901960785, 0.9399509803921569, 0.9191176470588235, 0.8590686274509803, 0.9399509803921569]</t>
+          <t>[0.9191176470588235, 0.8982843137254902, 0.9191176470588235, 0.8602941176470589, 0.8786764705882352, 0.9399509803921569, 0.9191176470588235, 0.8982843137254902, 0.8982843137254902, 0.8982843137254902, 0.9191176470588235, 0.9399509803921569, 0.8982843137254902, 0.8578431372549019, 0.9399509803921569, 0.9191176470588235, 0.8970588235294118, 0.9387254901960785, 0.9387254901960785, 0.8382352941176471, 0.8786764705882352, 0.9191176470588235, 0.8982843137254902, 0.8799019607843137, 0.8590686274509803, 0.8774509803921569, 0.9191176470588235, 0.9399509803921569, 0.8382352941176471, 0.9387254901960785, 0.9399509803921569, 0.9607843137254902, 0.8995098039215685, 0.9191176470588235, 0.9399509803921569, 0.8774509803921569, 0.8786764705882352, 0.9191176470588235, 0.9191176470588235, 0.8982843137254902, 0.8566176470588235, 0.8774509803921569, 0.9607843137254902, 0.9191176470588235, 0.9191176470588235, 0.9399509803921569, 0.9178921568627452, 0.8382352941176471, 0.9607843137254902, 0.9607843137254902]</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>[0.9399509803921569, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 0.9399509803921569, 0.8786764705882352, 0.8786764705882352, 0.9399509803921569, 0.9411764705882352, 0.9399509803921569, 0.9803921568627452, 0.9803921568627452, 0.9203431372549019, 0.9399509803921569, 0.9595588235294118, 0.9399509803921569, 0.9607843137254902, 0.9399509803921569, 0.9803921568627452, 0.9607843137254902, 0.9803921568627452, 0.9203431372549019, 0.9399509803921569, 0.9203431372549019, 0.9803921568627452, 0.9399509803921569, 0.9607843137254902, 0.9203431372549019, 0.9203431372549019, 0.9399509803921569, 0.9803921568627452, 0.9803921568627452, 0.8995098039215685, 0.9803921568627452, 0.9399509803921569, 0.9595588235294118, 0.9399509803921569, 0.9399509803921569, 0.9607843137254902, 0.9399509803921569, 0.9387254901960785, 0.9803921568627452, 0.9399509803921569, 0.9595588235294118, 0.9607843137254902, 0.9203431372549019, 0.9191176470588235, 0.9803921568627452, 0.9595588235294118, 0.9399509803921569]</t>
+          <t>[0.9607843137254902, 0.9399509803921569, 0.9203431372549019, 0.9191176470588235, 0.9607843137254902, 0.9399509803921569, 0.9607843137254902, 0.9607843137254902, 0.9191176470588235, 0.9191176470588235, 0.9803921568627452, 0.9399509803921569, 0.9595588235294118, 0.9399509803921569, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9803921568627452, 0.9399509803921569, 0.9595588235294118, 0.9191176470588235, 0.9803921568627452, 0.9399509803921569, 0.9803921568627452, 0.8786764705882352, 0.9607843137254902, 0.9803921568627452, 0.9607843137254902, 0.9191176470588235, 0.9399509803921569, 0.9399509803921569, 0.9607843137254902, 0.9399509803921569, 0.9387254901960785, 0.9607843137254902, 0.9399509803921569, 0.9399509803921569, 0.9203431372549019, 0.9607843137254902, 0.9595588235294118, 0.8406862745098039, 0.8394607843137255, 0.9803921568627452, 0.9399509803921569, 0.9399509803921569, 0.9803921568627452, 0.9203431372549019, 0.9399509803921569, 0.9803921568627452, 0.9803921568627452]</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>[0.9583333333333334, 0.9791666666666666, 0.9583333333333334, 0.9166666666666666, 0.9583333333333334, 0.9166666666666666, 0.8333333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9583333333333334, 0.9166666666666666, 0.9583333333333334, 0.9375, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9375, 0.9791666666666666, 0.9375, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9375, 0.9791666666666666, 0.9375, 0.9583333333333334, 0.9791666666666666, 1.0, 0.9583333333333334, 0.9791666666666666, 0.9375, 0.9583333333333334, 1.0, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334]</t>
+          <t>[0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9375, 0.9791666666666666, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9166666666666666, 0.8958333333333334, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9375, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9375, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 0.9583333333333334, 1.0, 0.8958333333333334, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9583333333333334, 0.8958333333333334, 0.9375, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 0.7916666666666666, 0.8125, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666]</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>[1.0, 0.9583333333333334, 1.0, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9166666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 1.0, 0.9583333333333334, 1.0, 1.0, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9375, 0.9791666666666666, 1.0, 0.9583333333333334, 0.9583333333333334, 0.9583333333333334, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 1.0, 0.9791666666666666, 1.0, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666]</t>
+          <t>[0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9583333333333334, 1.0, 0.9791666666666666, 0.9583333333333334, 0.9166666666666666, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9583333333333334, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 0.9375, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.9166666666666666, 0.9791666666666666, 0.9791666666666666, 1.0, 1.0, 0.9791666666666666, 0.9583333333333334, 0.9791666666666666, 1.0, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666, 0.875, 0.9166666666666666, 0.9791666666666666, 1.0, 1.0, 1.0, 0.9583333333333334, 0.9791666666666666, 0.9791666666666666, 0.9791666666666666]</t>
         </is>
       </c>
     </row>
@@ -8106,31 +8106,31 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 298})</t>
+          <t>OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 223})</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[0.9523809523809526, 0.9428571428571428, 0.9571428571428573, 0.9380952380952381, 0.961904761904762, 0.9095238095238095, 0.9333333333333333, 0.9238095238095237, 0.9523809523809523, 0.961904761904762, 0.9571428571428571, 0.9666666666666668, 0.9761904761904763, 0.9523809523809523, 0.9714285714285713, 0.9428571428571431, 0.9476190476190476, 0.9619047619047618, 0.9380952380952381, 0.9619047619047618, 0.9523809523809526, 0.9761904761904763, 0.9761904761904763, 0.9666666666666668, 0.9476190476190478, 0.9380952380952381, 0.9714285714285715, 0.9476190476190478, 0.9333333333333333, 0.9714285714285715, 0.9666666666666666, 0.9761904761904763, 0.9666666666666666, 0.9857142857142858, 0.9761904761904763, 0.9666666666666666, 0.9238095238095237, 0.9476190476190476, 0.9285714285714285, 0.919047619047619, 0.9857142857142858, 0.9761904761904763, 0.9714285714285715, 0.9666666666666668, 0.980952380952381, 0.9761904761904763, 0.980952380952381, 0.980952380952381, 0.9761904761904763, 0.9619047619047618]</t>
+          <t>[0.9666666666666668, 0.9714285714285715, 0.9428571428571428, 0.9571428571428571, 0.9523809523809526, 0.9333333333333333, 0.9523809523809526, 0.9523809523809526, 0.9476190476190476, 0.9333333333333333, 0.9761904761904763, 0.9666666666666668, 0.9666666666666668, 0.9380952380952381, 0.9523809523809523, 0.9238095238095237, 0.9142857142857143, 0.9238095238095237, 0.9142857142857143, 0.961904761904762, 0.9761904761904763, 0.9666666666666666, 0.9666666666666668, 0.9714285714285715, 0.9761904761904763, 0.9761904761904763, 0.9476190476190476, 0.9666666666666668, 0.980952380952381, 0.9428571428571431, 0.9761904761904763, 0.9619047619047618, 0.9619047619047618, 0.9761904761904763, 0.9619047619047618, 0.9571428571428571, 0.9761904761904763, 0.9619047619047618, 0.9619047619047618, 0.9761904761904763, 0.9761904761904763, 0.9142857142857143, 0.9380952380952381, 0.9047619047619048, 0.9047619047619048, 0.9476190476190476, 0.9476190476190478, 0.919047619047619, 0.9761904761904763, 0.9761904761904763]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[0.03688555567816592, 0.035634832254989965, 0.04096345365258396, 0.0322968094434537, 0.032296809443453665, 0.03809523809523809, 0.0349927106111883, 0.02776643759450146, 0.030116930096841757, 0.02428104530282281, 0.027766437594501474, 0.035634832254989916, 0.02129588549999797, 0.03367175148507371, 0.02776643759450145, 0.04416008807378907, 0.027766437594501477, 0.028571428571428626, 0.04416008807378908, 0.028571428571428626, 0.026082026547865084, 0.026082026547865084, 0.02129588549999797, 0.024281045302822817, 0.0349927106111883, 0.0322968094434537, 0.02332847374079221, 0.0349927106111883, 0.04096345365258394, 0.03499271061118826, 0.0322968094434537, 0.026082026547865084, 0.0322968094434537, 0.019047619047619018, 0.02129588549999797, 0.0322968094434537, 0.04096345365258394, 0.03158690276528953, 0.03367175148507373, 0.04151332327181595, 0.019047619047619018, 0.026082026547865084, 0.02332847374079221, 0.024281045302822817, 0.027766437594501456, 0.015058465048420835, 0.027766437594501456, 0.01781741612749493, 0.026082026547865084, 0.028571428571428626]</t>
+          <t>[0.024281045302822817, 0.03499271061118826, 0.035634832254989965, 0.03499271061118829, 0.03688555567816592, 0.04096345365258394, 0.03688555567816592, 0.0398409536444798, 0.027766437594501477, 0.023328473740792197, 0.026082026547865084, 0.024281045302822817, 0.03229680944345367, 0.04416008807378908, 0.03367175148507371, 0.03499271061118829, 0.03229680944345367, 0.027766437594501456, 0.024281045302822796, 0.032296809443453665, 0.026082026547865084, 0.0322968094434537, 0.024281045302822817, 0.03499271061118826, 0.026082026547865084, 0.026082026547865084, 0.017817416127495028, 0.024281045302822817, 0.01781741612749493, 0.04416008807378907, 0.026082026547865084, 0.028571428571428626, 0.028571428571428626, 0.026082026547865084, 0.028571428571428626, 0.03499271061118829, 0.026082026547865084, 0.028571428571428626, 0.028571428571428626, 0.026082026547865084, 0.02129588549999797, 0.03868589716493315, 0.04416008807378908, 0.03367175148507367, 0.03367175148507367, 0.03158690276528953, 0.0349927106111883, 0.041513323271815956, 0.026082026547865084, 0.02129588549999797]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>[31, 40, 29, 41, 24, 50, 44, 47, 33, 24, 30, 18, 6, 33, 17, 39, 37, 26, 41, 26, 31, 6, 6, 18, 35, 41, 14, 35, 44, 14, 21, 6, 21, 1, 6, 21, 47, 37, 46, 49, 1, 6, 14, 18, 3, 6, 3, 3, 6, 26]</t>
+          <t>[15, 13, 38, 27, 29, 41, 29, 29, 34, 41, 2, 15, 15, 39, 32, 43, 46, 43, 46, 21, 2, 20, 15, 13, 2, 2, 34, 15, 1, 37, 2, 22, 22, 2, 22, 27, 2, 22, 22, 2, 2, 46, 39, 49, 49, 34, 33, 45, 2, 2]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 8, 'min_samples_split': 9, 'n_estimators': 164}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 7, 'min_samples_split': 17, 'n_estimators': 275}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 5, 'min_samples_split': 7, 'n_estimators': 222}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 6, 'min_samples_split': 18, 'n_estimators': 83}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 4, 'min_samples_split': 10, 'n_estimators': 173}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 14, 'n_estimators': 52}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 113}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 9, 'min_samples_split': 9, 'n_estimators': 72}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 3, 'min_samples_split': 10, 'n_estimators': 234}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 2, 'min_samples_split': 16, 'n_estimators': 57}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 122}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 132}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 224}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 16, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 10, 'min_samples_split': 5, 'n_estimators': 235}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 157}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 268}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 14, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 171}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 8, 'min_samples_split': 18, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 298}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 286}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 7, 'min_samples_split': 8, 'n_estimators': 55}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 14, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 298}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 106}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 148}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 67}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 153}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 186}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50})]</t>
+          <t>[OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 6, 'min_samples_split': 15, 'n_estimators': 200}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 3, 'min_samples_split': 9, 'n_estimators': 251}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 18, 'n_estimators': 125}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 193}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 8, 'min_samples_split': 14, 'n_estimators': 189}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 9, 'min_samples_split': 14, 'n_estimators': 114}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 9, 'min_samples_split': 3, 'n_estimators': 241}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 5, 'min_samples_split': 7, 'n_estimators': 104}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 3, 'min_samples_split': 14, 'n_estimators': 113}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 6, 'min_samples_split': 16, 'n_estimators': 260}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 190}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 147}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 11, 'n_estimators': 51}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 170}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 128}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 10, 'n_estimators': 52}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 267}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 211}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 4, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 3, 'min_samples_split': 14, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 252}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 223}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 206}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 259}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 254}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 266}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 280}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 242}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 54}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 143}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 58}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 300})]</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O83" t="n">
         <v>0.9180327868852459</v>
@@ -8142,27 +8142,27 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>[0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 0.9523809523809524, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 0.9761904761904763]</t>
+          <t>[0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.9761904761904763, 1.0, 1.0, 0.9761904761904763, 1.0, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 1.0, 1.0]</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 0.880952380952381, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9047619047619048, 0.9523809523809524, 0.9047619047619048, 0.9047619047619048, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763]</t>
+          <t>[0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9047619047619048, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9523809523809524, 0.880952380952381, 0.9285714285714285, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763]</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>[0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9047619047619048, 0.8809523809523809, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.9761904761904763, 0.9523809523809524, 0.9047619047619048, 0.9285714285714285, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.9285714285714285, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 0.9285714285714285, 1.0, 0.9523809523809524, 0.9285714285714285, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 1.0, 0.9761904761904763, 1.0, 1.0, 0.9761904761904763, 0.9285714285714285]</t>
+          <t>[0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9047619047619048, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9047619047619048, 0.9047619047619048, 0.9047619047619048, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.9523809523809524, 0.8809523809523809, 0.9285714285714285, 0.9285714285714285, 0.9047619047619048, 0.9285714285714285, 0.9523809523809524, 0.8809523809523809, 0.9761904761904763, 0.9523809523809524]</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>[0.9761904761904763, 0.9761904761904763, 1.0, 0.9523809523809524, 1.0, 0.9047619047619048, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 0.9761904761904763, 1.0, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 1.0, 1.0, 1.0, 0.9761904761904763, 0.9523809523809524, 1.0, 0.9523809523809524, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9285714285714285, 1.0, 0.9285714285714285, 0.9047619047619048, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0]</t>
+          <t>[1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9523809523809524, 1.0, 1.0, 1.0, 0.9761904761904763, 1.0, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9523809523809524, 1.0, 1.0, 0.9523809523809524, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 1.0, 0.9523809523809524, 0.9761904761904763, 0.9047619047619048, 0.880952380952381, 1.0, 0.9761904761904763, 0.9523809523809524, 1.0, 1.0]</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>[0.8809523809523809, 0.8809523809523809, 0.8809523809523809, 0.8809523809523809, 0.9047619047619048, 0.8571428571428572, 0.8809523809523809, 0.9047619047619048, 0.9047619047619048, 0.9285714285714285, 0.9285714285714285, 0.9047619047619048, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.8571428571428572, 0.9047619047619048, 0.9285714285714285, 0.8571428571428572, 0.9285714285714285, 0.9047619047619048, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.8809523809523809, 0.8809523809523809, 0.9285714285714285, 0.8809523809523809, 0.8571428571428572, 0.9047619047619048, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 0.9523809523809524, 0.9285714285714285, 0.8571428571428572, 0.9047619047619048, 0.8809523809523809, 0.8571428571428572, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285]</t>
+          <t>[0.9285714285714285, 0.9047619047619048, 0.8809523809523809, 0.9047619047619048, 0.8809523809523809, 0.8571428571428572, 0.8809523809523809, 0.8809523809523809, 0.9047619047619048, 0.9047619047619048, 0.9285714285714285, 0.9285714285714285, 0.9047619047619048, 0.8571428571428572, 0.9047619047619048, 0.8571428571428571, 0.8571428571428571, 0.8809523809523809, 0.8809523809523809, 0.9047619047619048, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9047619047619048, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 0.8571428571428572, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9047619047619048, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 0.8571428571428572, 0.8571428571428572, 0.8571428571428572, 0.8571428571428572, 0.9047619047619048, 0.8809523809523809, 0.8571428571428572, 0.9285714285714285, 0.9523809523809524]</t>
         </is>
       </c>
     </row>
@@ -8292,31 +8292,31 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>[0.8190476190476191, 0.5142857142857142, 0.8190476190476191, 0.8476190476190476, 0.9, 0.33809523809523806, 0.9380952380952381, 0.6857142857142857, 0.9428571428571428, 0.9142857142857144, 0.9380952380952381, 0.9476190476190476, 0.9476190476190476, 0.9428571428571428, 0.8952380952380953, 0.9238095238095239, 0.9380952380952381, 0.9476190476190476, 0.8952380952380953, 0.9523809523809523, 0.9428571428571428, 0.9333333333333333, 0.9523809523809523, 0.9523809523809523, 0.9428571428571428, 0.9428571428571428, 0.9428571428571428, 0.9428571428571428, 0.9619047619047618, 0.9047619047619048, 0.9285714285714286, 0.9238095238095239, 0.9095238095238095, 0.9238095238095239, 0.9333333333333333, 0.9380952380952381, 0.9380952380952381, 0.9857142857142858, 0.9333333333333333, 0.9238095238095239, 0.9857142857142858, 0.9857142857142858, 0.9285714285714285, 0.9238095238095237, 0.9285714285714286, 0.9285714285714285, 0.9238095238095237, 0.9857142857142858, 0.9238095238095237, 0.9285714285714286]</t>
+          <t>[0.8428571428571429, 0.9380952380952381, 0.9095238095238095, 0.8476190476190476, 0.8761904761904763, 0.33809523809523806, 0.9333333333333333, 0.8476190476190476, 0.8142857142857143, 0.8047619047619048, 0.9047619047619048, 0.9380952380952381, 0.9428571428571428, 0.9857142857142858, 0.3571428571428571, 0.8761904761904763, 0.9380952380952381, 0.9428571428571428, 0.9333333333333333, 0.9428571428571428, 0.9857142857142858, 0.9857142857142858, 0.9571428571428571, 0.9428571428571428, 0.9333333333333333, 0.9380952380952381, 0.33809523809523806, 0.9523809523809523, 0.9714285714285715, 0.9428571428571428, 0.8952380952380953, 0.9047619047619048, 0.9333333333333333, 0.8714285714285713, 0.919047619047619, 0.9142857142857143, 0.9380952380952381, 0.9238095238095239, 0.9285714285714286, 0.8666666666666666, 0.9857142857142858, 0.919047619047619, 0.8761904761904763, 0.8952380952380953, 0.8857142857142858, 0.8619047619047618, 0.8666666666666668, 0.8619047619047618, 0.8619047619047618, 0.8619047619047618]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>[0.06494372236659933, 0.23357616130344233, 0.053452248382484864, 0.06317380553057907, 0.04616837959444125, 0.031586902765289526, 0.06834619092574921, 0.1263476110611581, 0.06834619092574921, 0.10056529562829944, 0.07766431633476235, 0.07438333024673009, 0.05909368402852789, 0.09110060223670952, 0.06317380553057901, 0.09331389496316875, 0.07766431633476235, 0.060982135594598544, 0.06998542122237655, 0.07221786137191957, 0.044160088073789114, 0.06281383789653773, 0.04994327848429297, 0.04994327848429297, 0.044160088073789114, 0.044160088073789114, 0.044160088073789114, 0.07911070345636265, 0.03868589716493316, 0.07063046178186345, 0.07221786137191956, 0.09331389496316875, 0.09920317455237934, 0.09331389496316875, 0.05909368402852789, 0.04416008807378912, 0.05345224838248489, 0.019047619047619018, 0.06632565846278157, 0.09331389496316875, 0.019047619047619018, 0.019047619047619018, 0.06563832739090587, 0.06281383789653776, 0.06388765649999403, 0.06563832739090587, 0.06281383789653776, 0.019047619047619018, 0.06281383789653776, 0.06388765649999403]</t>
+          <t>[0.06834619092574915, 0.07766431633476235, 0.0696606611348943, 0.055532875189002885, 0.06632565846278153, 0.031586902765289526, 0.04856209060564559, 0.059476171413318055, 0.11208192662799829, 0.09209085526577959, 0.07063046178186345, 0.07766431633476235, 0.03868589716493317, 0.019047619047619018, 0.063887656499994, 0.06632565846278153, 0.08857654875113469, 0.09110060223670952, 0.06632565846278157, 0.05753831415997415, 0.019047619047619018, 0.019047619047619018, 0.027766437594501474, 0.03868589716493317, 0.06632565846278157, 0.07766431633476235, 0.031586902765289526, 0.03367175148507371, 0.01781741612749494, 0.09110060223670952, 0.0715871256112996, 0.04994327848429297, 0.06632565846278157, 0.049026810195176185, 0.0683461909257492, 0.06494372236659936, 0.07766431633476235, 0.09331389496316875, 0.08384198505551914, 0.04665694748158433, 0.019047619047619018, 0.0683461909257492, 0.0883201761475781, 0.06317380553057908, 0.07438333024673006, 0.11208192662799828, 0.11527350892295435, 0.11208192662799828, 0.11208192662799828, 0.11208192662799828]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>[46, 49, 46, 45, 42, 50, 19, 48, 12, 39, 19, 9, 9, 12, 43, 32, 19, 9, 43, 6, 12, 24, 6, 6, 12, 12, 12, 12, 5, 41, 27, 32, 40, 32, 24, 19, 19, 1, 24, 32, 1, 1, 30, 36, 27, 30, 36, 1, 36, 27]</t>
+          <t>[45, 13, 27, 43, 33, 49, 18, 43, 46, 47, 28, 13, 8, 1, 48, 33, 13, 8, 18, 8, 1, 1, 6, 8, 18, 13, 49, 7, 5, 8, 30, 28, 18, 36, 24, 26, 13, 23, 22, 38, 1, 24, 33, 30, 32, 39, 37, 39, 39, 39]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'logistic', 'alpha': 3.17433123802204e-06, 'learning_rate_init': 0.003268880908281485, 'max_iter': 1124, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.02571496534288107, 'learning_rate_init': 0.0003852008740263382, 'max_iter': 1824, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 3.5561013486287288e-06, 'learning_rate_init': 0.003921966305507076, 'max_iter': 2774, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.023708647082031766, 'learning_rate_init': 0.008546963446873423, 'max_iter': 2524, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0031236856375305706, 'learning_rate_init': 0.0012681030238788425, 'max_iter': 2531, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.4545410341179711e-05, 'learning_rate_init': 0.00012254209117979595, 'max_iter': 1828, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00014003837302701297, 'learning_rate_init': 0.0081672451122596, 'max_iter': 1795, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.04278894882404092, 'learning_rate_init': 0.00015240634424941611, 'max_iter': 1659, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 8.289553797257477e-05, 'learning_rate_init': 0.002207902464465088, 'max_iter': 1348, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 5.407040009381009e-05, 'learning_rate_init': 0.0038155418662235317, 'max_iter': 2541, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008708392173548251, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.004021095230376504, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.001563920650591538, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0022633709844135153, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0008555004026042486, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0012862286518260356, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 7.933284515999924e-05, 'learning_rate_init': 0.005617036198213989, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.006559447562578891, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.005790674072564012, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0057660868752379595, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00560326581683812, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.005578317128995668, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.005669958062123256, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.00535527575187147, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.005946259372153057, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.009877265961452995, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.002245394079996867, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0026065320961540625, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 5.505550656980884e-05, 'learning_rate_init': 0.002446902876406684, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0026360876722010696, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.002948637391461675, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0024250843290472414, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0022910889006664127, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.002516905040699271, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008057786966235337, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0075858523665394625, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.005957980584731831, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.005396150345822855, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006057878935473097, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006084091441625994, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00590556699052092, 'max_iter': 500, 'solver': 'sgd'})]</t>
+          <t>[OrderedDict({'activation': 'tanh', 'alpha': 1.4479949826819308e-05, 'learning_rate_init': 0.00024238981961576317, 'max_iter': 2314, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.04247646714852449, 'learning_rate_init': 0.003445954476039453, 'max_iter': 2060, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.0912582668688997e-06, 'learning_rate_init': 0.0008791692505375248, 'max_iter': 2575, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0023171908925233857, 'learning_rate_init': 0.008752344810198884, 'max_iter': 2995, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0071381958912526055, 'learning_rate_init': 0.0011580454553458998, 'max_iter': 1424, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0002602517211274568, 'learning_rate_init': 0.0003204679922266356, 'max_iter': 2582, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 2.738463739156976e-05, 'learning_rate_init': 0.002274482232335108, 'max_iter': 1222, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0064032587257283, 'learning_rate_init': 0.0003059922231907983, 'max_iter': 606, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0010327209159163577, 'learning_rate_init': 0.00022082799819128445, 'max_iter': 2039, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00032577113524026477, 'learning_rate_init': 0.00023432767598375706, 'max_iter': 769, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1.0000993455958676e-06, 'learning_rate_init': 0.009900514345942612, 'max_iter': 1552, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0035838189276456655, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.00031997518933068585, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.009340222235168713, 'max_iter': 903, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006488003701651316, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2055, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2466, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 7.382312381548322e-05, 'learning_rate_init': 0.008446789469638937, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.003714994788732109, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.060002515310338705, 'learning_rate_init': 0.00021887323779811515, 'max_iter': 509, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 8.259611283656556e-06, 'learning_rate_init': 0.008168756111653429, 'max_iter': 870, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.008807407918618155, 'max_iter': 548, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0006480393040831974, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0007381423515266201, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0039153856065052535, 'max_iter': 2051, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0006203306497214526, 'max_iter': 2705, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.002555687092523778, 'max_iter': 613, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.003176919217932043, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1721, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0006165888060364396, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0007473848183342811, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0006323939768946087, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1852, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0028907826628696877, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0024728086764981504, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0025413803030703754, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0025819138586509432, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1.2177692279529267e-05, 'learning_rate_init': 0.002325105874597731, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0022538678958908213, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0022904754730172527, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0023033510505762965, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.002286107915107328, 'max_iter': 3000, 'solver': 'sgd'})]</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="O85" t="n">
         <v>0.9016393442622951</v>
@@ -8328,27 +8328,27 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>[0.8333333333333334, 0.8333333333333334, 0.8095238095238096, 0.7857142857142857, 0.8809523809523809, 0.3333333333333333, 1.0, 0.9047619047619048, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9523809523809524, 0.9761904761904763, 0.8095238095238096, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.8571428571428572, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9047619047619048, 0.8095238095238096, 0.9523809523809524, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 0.9047619047619048, 0.9285714285714285, 0.9523809523809524, 1.0, 1.0, 0.9523809523809524, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0]</t>
+          <t>[0.9047619047619048, 0.9523809523809524, 0.9761904761904763, 0.8333333333333334, 1.0, 0.3333333333333333, 0.9047619047619048, 0.9047619047619048, 0.9047619047619048, 0.9285714285714285, 0.8095238095238096, 0.9761904761904763, 0.9285714285714285, 1.0, 0.3333333333333333, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9523809523809524, 1.0, 1.0, 0.9285714285714285, 0.9285714285714285, 1.0, 0.9761904761904763, 0.3333333333333333, 0.9047619047619048, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9285714285714285, 1.0, 0.9047619047619048, 1.0, 1.0, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.8809523809523809, 1.0, 1.0, 0.8095238095238096, 0.8333333333333334, 0.7857142857142857, 0.8095238095238096, 0.8095238095238096, 0.8095238095238096, 0.8095238095238096, 0.8095238095238096]</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[0.9047619047619048, 0.3333333333333333, 0.9047619047619048, 0.9523809523809524, 0.9523809523809524, 0.3333333333333333, 0.9761904761904763, 0.5476190476190476, 1.0, 0.9523809523809524, 1.0, 1.0, 1.0, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 1.0, 1.0, 0.8571428571428571, 1.0, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524]</t>
+          <t>[0.8809523809523809, 1.0, 0.880952380952381, 0.9523809523809524, 0.8571428571428572, 0.3333333333333333, 0.9523809523809524, 0.8809523809523809, 0.8571428571428572, 0.8571428571428572, 0.9761904761904763, 1.0, 0.9523809523809524, 0.9523809523809524, 0.3333333333333333, 0.8571428571428571, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 1.0, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 1.0, 0.3333333333333333, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.8333333333333334, 0.9285714285714285, 0.9761904761904763, 0.8571428571428571, 0.9761904761904763, 0.9523809523809524, 1.0, 0.9761904761904763, 0.9761904761904763, 0.8571428571428571, 0.9523809523809524, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285]</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>[0.8571428571428572, 0.35714285714285715, 0.8333333333333334, 0.8809523809523809, 0.9523809523809524, 0.35714285714285715, 0.9761904761904763, 0.6428571428571429, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 1.0, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.8571428571428572, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 1.0, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285, 1.0, 0.9285714285714285, 0.9523809523809524]</t>
+          <t>[0.8333333333333334, 0.9761904761904763, 0.8809523809523809, 0.8333333333333334, 0.8333333333333334, 0.35714285714285715, 0.9523809523809524, 0.8333333333333334, 0.8333333333333334, 0.8333333333333334, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 1.0, 0.35714285714285715, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9523809523809524, 1.0, 1.0, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.35714285714285715, 0.9523809523809524, 0.9761904761904763, 1.0, 0.8809523809523809, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 1.0, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763]</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>[0.7142857142857143, 0.7619047619047619, 0.7380952380952381, 0.8333333333333334, 0.8809523809523809, 0.38095238095238093, 0.9285714285714285, 0.7380952380952381, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 1.0, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 1.0, 1.0, 1.0, 0.9761904761904763, 1.0, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9285714285714285, 0.9761904761904763, 1.0, 1.0, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 1.0, 0.9285714285714285, 0.9285714285714285]</t>
+          <t>[0.8809523809523809, 0.9761904761904763, 1.0, 0.8333333333333334, 0.8809523809523809, 0.38095238095238093, 1.0, 0.8809523809523809, 0.8809523809523809, 0.7380952380952381, 0.9285714285714285, 0.9761904761904763, 1.0, 1.0, 0.4761904761904762, 0.8809523809523809, 1.0, 1.0, 0.9285714285714285, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 0.9285714285714285, 0.9761904761904763, 0.38095238095238093, 1.0, 1.0, 1.0, 1.0, 0.9047619047619048, 0.9523809523809524, 0.8809523809523809, 0.8809523809523809, 0.8809523809523809, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.8809523809523809, 1.0, 0.8809523809523809, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285]</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>[0.7857142857142857, 0.2857142857142857, 0.8095238095238096, 0.7857142857142857, 0.8333333333333334, 0.2857142857142857, 0.8095238095238094, 0.5952380952380952, 0.8095238095238094, 0.7142857142857143, 0.7857142857142857, 0.8095238095238094, 0.8333333333333334, 0.7619047619047619, 0.8333333333333334, 0.738095238095238, 0.7857142857142857, 0.8333333333333334, 0.8095238095238094, 0.8095238095238094, 0.8571428571428571, 0.8571428571428571, 0.8571428571428571, 0.8571428571428571, 0.8571428571428571, 0.8571428571428571, 0.8571428571428571, 0.7857142857142857, 0.9285714285714285, 0.8333333333333334, 0.7857142857142857, 0.738095238095238, 0.7142857142857143, 0.738095238095238, 0.8333333333333334, 0.8571428571428571, 0.8333333333333334, 0.9761904761904763, 0.8095238095238094, 0.738095238095238, 0.9761904761904763, 0.9761904761904763, 0.8095238095238094, 0.8095238095238094, 0.8095238095238094, 0.8095238095238094, 0.8095238095238094, 0.9761904761904763, 0.8095238095238094, 0.8095238095238094]</t>
+          <t>[0.7142857142857143, 0.7857142857142857, 0.8095238095238094, 0.7857142857142857, 0.8095238095238094, 0.2857142857142857, 0.8571428571428571, 0.7380952380952381, 0.5952380952380952, 0.6666666666666666, 0.8333333333333334, 0.7857142857142857, 0.8809523809523809, 0.9761904761904763, 0.2857142857142857, 0.7619047619047619, 0.7619047619047619, 0.7619047619047619, 0.8095238095238094, 0.8333333333333334, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.8809523809523809, 0.8095238095238094, 0.7857142857142857, 0.2857142857142857, 0.9285714285714285, 0.9523809523809524, 0.7619047619047619, 0.8095238095238094, 0.8095238095238094, 0.8095238095238094, 0.7857142857142857, 0.8095238095238094, 0.8095238095238094, 0.7857142857142857, 0.738095238095238, 0.7619047619047619, 0.7857142857142857, 0.9761904761904763, 0.8095238095238094, 0.7380952380952381, 0.8095238095238094, 0.8095238095238094, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666]</t>
         </is>
       </c>
     </row>
@@ -8460,52 +8460,52 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.7826108110738091</v>
+        <v>0.7354644090886975</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8311229753852705</v>
+        <v>0.784608378870674</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8391192542590807</v>
+        <v>0.7853164954114048</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[[8, 1, 4], [0, 30, 1], [1, 3, 13]]</t>
+          <t>[[7, 1, 5], [2, 28, 1], [2, 2, 13]]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3})</t>
+          <t>OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>[0.7666666666666668, 0.8714285714285713, 0.7619047619047619, 0.7666666666666668, 0.761904761904762, 0.8047619047619048, 0.8, 0.7476190476190476, 0.7619047619047619, 0.838095238095238, 0.7238095238095239, 0.6904761904761905, 0.7380952380952381, 0.7238095238095239, 0.5857142857142857, 0.7523809523809524, 0.7238095238095239, 0.7380952380952381, 0.5857142857142857, 0.819047619047619, 0.7666666666666668, 0.7380952380952381, 0.7428571428571429, 0.7142857142857143, 0.7523809523809524, 0.5857142857142857, 0.6380952380952382, 0.7380952380952381, 0.5857142857142857, 0.7285714285714286, 0.7476190476190476, 0.5857142857142857, 0.819047619047619, 0.6904761904761905, 0.7666666666666668, 0.8714285714285713, 0.7523809523809524, 0.7238095238095239, 0.6904761904761905, 0.7380952380952381, 0.7285714285714285, 0.5857142857142857, 0.8809523809523808, 0.7238095238095239, 0.7523809523809524, 0.5857142857142857, 0.7238095238095239, 0.7380952380952381, 0.8571428571428571, 0.7476190476190476]</t>
+          <t>[0.7666666666666667, 0.761904761904762, 0.7428571428571429, 0.761904761904762, 0.7285714285714285, 0.7619047619047619, 0.7285714285714285, 0.761904761904762, 0.7666666666666667, 0.7619047619047619, 0.8428571428571429, 0.7238095238095239, 0.5857142857142857, 0.7238095238095239, 0.5857142857142857, 0.7238095238095239, 0.7428571428571429, 0.5857142857142857, 0.8142857142857143, 0.7666666666666667, 0.7476190476190476, 0.5857142857142857, 0.5857142857142857, 0.819047619047619, 0.7238095238095239, 0.5857142857142857, 0.7238095238095238, 0.7476190476190476, 0.7666666666666668, 0.7238095238095239, 0.6380952380952382, 0.819047619047619, 0.5857142857142857, 0.7238095238095239, 0.7666666666666667, 0.7476190476190476, 0.5857142857142857, 0.819047619047619, 0.7380952380952381, 0.7476190476190476, 0.7523809523809524, 0.5857142857142857, 0.7238095238095239, 0.7666666666666668, 0.5857142857142857, 0.7476190476190476, 0.7666666666666667, 0.7285714285714285, 0.8571428571428571, 0.7476190476190476]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>[0.06281383789653776, 0.06317380553057908, 0.039840953644479864, 0.06281383789653776, 0.02608202654786508, 0.043643578047198484, 0.07158712561129954, 0.08464947064110086, 0.04994327848429297, 0.04616837959444123, 0.07468755781599107, 0.06734350297014738, 0.054294067861863735, 0.07468755781599107, 0.03229680944345368, 0.04665694748158439, 0.024281045302822726, 0.054294067861863735, 0.03229680944345368, 0.08597842897746565, 0.06281383789653776, 0.054294067861863735, 0.05909368402852788, 0.03367175148507368, 0.04665694748158439, 0.03229680944345368, 0.05909368402852787, 0.054294067861863735, 0.03229680944345368, 0.08053111678708458, 0.0322968094434536, 0.03229680944345368, 0.03868589716493317, 0.06734350297014738, 0.06281383789653776, 0.038685897164933154, 0.04665694748158439, 0.07468755781599107, 0.06734350297014738, 0.054294067861863735, 0.05128728387747152, 0.03229680944345368, 0.026082026547865043, 0.07468755781599107, 0.04665694748158439, 0.03229680944345368, 0.024281045302822726, 0.054294067861863735, 0.03367175148507371, 0.0322968094434536]</t>
+          <t>[0.040963453652583914, 0.04259177099999593, 0.0870269851547479, 0.08518354199999198, 0.07911070345636266, 0.04994327848429292, 0.08597842897746565, 0.04259177099999597, 0.09085135251589962, 0.07824607964359517, 0.04151332327181595, 0.04902681019517623, 0.03229680944345368, 0.024281045302822726, 0.03229680944345368, 0.04902681019517623, 0.05909368402852788, 0.03229680944345368, 0.03499271061118826, 0.040963453652583935, 0.0322968094434536, 0.03229680944345368, 0.03229680944345368, 0.08597842897746565, 0.07468755781599107, 0.03229680944345368, 0.08053111678708458, 0.0322968094434536, 0.06281383789653776, 0.04902681019517623, 0.05909368402852787, 0.03868589716493317, 0.03229680944345368, 0.07468755781599107, 0.040963453652583935, 0.0322968094434536, 0.03229680944345368, 0.08597842897746565, 0.054294067861863735, 0.024281045302822764, 0.04665694748158439, 0.03229680944345368, 0.07468755781599107, 0.06281383789653776, 0.03229680944345368, 0.0322968094434536, 0.040963453652583935, 0.08597842897746565, 0.03367175148507371, 0.0322968094434536]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>[10, 2, 15, 10, 14, 8, 9, 21, 15, 5, 33, 40, 25, 33, 44, 17, 33, 25, 44, 6, 10, 25, 24, 39, 17, 44, 43, 25, 44, 31, 21, 44, 6, 40, 10, 2, 17, 33, 40, 25, 32, 44, 1, 33, 17, 44, 33, 25, 4, 21]</t>
+          <t>[9, 14, 26, 14, 29, 17, 29, 14, 9, 17, 2, 32, 41, 32, 41, 32, 26, 41, 6, 9, 20, 41, 41, 3, 32, 41, 39, 20, 7, 32, 40, 3, 41, 32, 9, 20, 41, 3, 28, 20, 19, 41, 32, 7, 41, 20, 9, 29, 1, 20]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 89, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 42, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 8}), OrderedDict({'criterion': 'gini', 'max_depth': 18, 'max_features': None, 'min_samples_leaf': 15, 'min_samples_split': 32}), OrderedDict({'criterion': 'gini', 'max_depth': 49, 'max_features': 'sqrt', 'min_samples_leaf': 7, 'min_samples_split': 37}), OrderedDict({'criterion': 'gini', 'max_depth': 41, 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 28}), OrderedDict({'criterion': 'entropy', 'max_depth': 56, 'max_features': None, 'min_samples_leaf': 13, 'min_samples_split': 13}), OrderedDict({'criterion': 'entropy', 'max_depth': 45, 'max_features': 'log2', 'min_samples_leaf': 6, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 31}), OrderedDict({'criterion': 'gini', 'max_depth': 61, 'max_features': None, 'min_samples_leaf': 13, 'min_samples_split': 8}), OrderedDict({'criterion': 'entropy', 'max_depth': 46, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 16, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 90, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 46}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 23, 'max_features': None, 'min_samples_leaf': 17, 'min_samples_split': 13}), OrderedDict({'criterion': 'gini', 'max_depth': 54, 'max_features': 'sqrt', 'min_samples_leaf': 15, 'min_samples_split': 28}), OrderedDict({'criterion': 'entropy', 'max_depth': 14, 'max_features': 'sqrt', 'min_samples_leaf': 17, 'min_samples_split': 29}), OrderedDict({'criterion': 'entropy', 'max_depth': 92, 'max_features': 'sqrt', 'min_samples_leaf': 15, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 45, 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 25}), OrderedDict({'criterion': 'gini', 'max_depth': 22, 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 35}), OrderedDict({'criterion': 'entropy', 'max_depth': 19, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 25}), OrderedDict({'criterion': 'gini', 'max_depth': 86, 'max_features': 'log2', 'min_samples_leaf': 13, 'min_samples_split': 32}), OrderedDict({'criterion': 'entropy', 'max_depth': 77, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 29}), OrderedDict({'criterion': 'entropy', 'max_depth': 75, 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 21}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 90, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 91, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 14, 'min_samples_split': 40}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3})]</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="O87" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -8514,27 +8514,27 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>[0.8095238095238096, 0.9761904761904763, 0.7619047619047619, 0.8095238095238096, 0.8095238095238096, 0.8809523809523809, 0.7619047619047619, 0.7619047619047619, 0.7857142857142857, 0.8809523809523809, 0.7619047619047619, 0.6666666666666666, 0.7857142857142857, 0.7619047619047619, 0.6428571428571429, 0.7380952380952381, 0.7619047619047619, 0.7857142857142857, 0.6428571428571429, 0.8095238095238096, 0.8095238095238096, 0.7857142857142857, 0.7619047619047619, 0.7619047619047619, 0.7380952380952381, 0.6428571428571429, 0.6666666666666666, 0.7857142857142857, 0.6428571428571429, 0.7619047619047619, 0.7619047619047619, 0.6428571428571429, 0.8809523809523809, 0.6666666666666666, 0.8095238095238096, 0.8809523809523809, 0.7380952380952381, 0.7619047619047619, 0.6666666666666666, 0.7857142857142857, 0.7619047619047619, 0.6428571428571429, 0.8809523809523809, 0.7619047619047619, 0.7380952380952381, 0.6428571428571429, 0.7619047619047619, 0.7857142857142857, 0.9047619047619048, 0.7619047619047619]</t>
+          <t>[0.7857142857142857, 0.7857142857142857, 0.8095238095238094, 0.7857142857142857, 0.7619047619047619, 0.7857142857142857, 0.7142857142857143, 0.7857142857142857, 0.8571428571428572, 0.7619047619047619, 0.8809523809523809, 0.7142857142857143, 0.6428571428571429, 0.7619047619047619, 0.6428571428571429, 0.7142857142857143, 0.7619047619047619, 0.6428571428571429, 0.7857142857142857, 0.7857142857142857, 0.7619047619047619, 0.6428571428571429, 0.6428571428571429, 0.8095238095238096, 0.7619047619047619, 0.6428571428571429, 0.7142857142857143, 0.7619047619047619, 0.8095238095238096, 0.7142857142857143, 0.6666666666666666, 0.8809523809523809, 0.6428571428571429, 0.7619047619047619, 0.7857142857142857, 0.7619047619047619, 0.6428571428571429, 0.8095238095238096, 0.7857142857142857, 0.7619047619047619, 0.7380952380952381, 0.6428571428571429, 0.7619047619047619, 0.8095238095238096, 0.6428571428571429, 0.7619047619047619, 0.7857142857142857, 0.7142857142857143, 0.9047619047619048, 0.7619047619047619]</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[0.8333333333333334, 0.9047619047619048, 0.8095238095238096, 0.8333333333333334, 0.7380952380952381, 0.8095238095238094, 0.9047619047619048, 0.7619047619047619, 0.8095238095238096, 0.9047619047619048, 0.8095238095238096, 0.7380952380952381, 0.8095238095238096, 0.8095238095238096, 0.5952380952380952, 0.7380952380952381, 0.6904761904761906, 0.8095238095238096, 0.5952380952380952, 0.9285714285714285, 0.8333333333333334, 0.8095238095238096, 0.8333333333333334, 0.6904761904761906, 0.7380952380952381, 0.5952380952380952, 0.6666666666666666, 0.8095238095238096, 0.5952380952380952, 0.8333333333333334, 0.6904761904761906, 0.5952380952380952, 0.8333333333333334, 0.7380952380952381, 0.8333333333333334, 0.9285714285714285, 0.7380952380952381, 0.8095238095238096, 0.7380952380952381, 0.8095238095238096, 0.6666666666666666, 0.5952380952380952, 0.9285714285714285, 0.8095238095238096, 0.7380952380952381, 0.5952380952380952, 0.6904761904761906, 0.8095238095238096, 0.8809523809523809, 0.6904761904761906]</t>
+          <t>[0.6904761904761906, 0.8095238095238094, 0.8095238095238096, 0.8095238095238094, 0.6904761904761904, 0.8095238095238094, 0.8333333333333334, 0.8095238095238096, 0.7142857142857143, 0.7857142857142857, 0.9047619047619048, 0.8095238095238096, 0.5952380952380952, 0.6904761904761906, 0.5952380952380952, 0.8095238095238096, 0.8333333333333334, 0.5952380952380952, 0.7857142857142857, 0.8333333333333334, 0.6904761904761906, 0.5952380952380952, 0.5952380952380952, 0.9285714285714285, 0.8095238095238096, 0.5952380952380952, 0.8095238095238096, 0.6904761904761906, 0.8333333333333334, 0.8095238095238096, 0.6666666666666666, 0.8333333333333334, 0.5952380952380952, 0.8095238095238096, 0.8333333333333334, 0.6904761904761906, 0.5952380952380952, 0.9285714285714285, 0.8095238095238096, 0.7380952380952381, 0.7380952380952381, 0.5952380952380952, 0.8095238095238096, 0.8333333333333334, 0.5952380952380952, 0.6904761904761906, 0.8333333333333334, 0.8333333333333334, 0.8809523809523809, 0.6904761904761906]</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>[0.6904761904761904, 0.8095238095238094, 0.6904761904761904, 0.6904761904761904, 0.7380952380952381, 0.7619047619047619, 0.8095238095238096, 0.7619047619047619, 0.6666666666666666, 0.7857142857142857, 0.6904761904761906, 0.761904761904762, 0.6666666666666666, 0.6904761904761906, 0.5476190476190476, 0.761904761904762, 0.7142857142857144, 0.6666666666666666, 0.5476190476190476, 0.8571428571428571, 0.6904761904761904, 0.6666666666666666, 0.6904761904761906, 0.7142857142857144, 0.761904761904762, 0.5476190476190476, 0.5476190476190477, 0.6666666666666666, 0.5476190476190476, 0.6904761904761906, 0.7380952380952381, 0.5476190476190476, 0.8095238095238094, 0.761904761904762, 0.6904761904761904, 0.8809523809523809, 0.761904761904762, 0.6904761904761906, 0.761904761904762, 0.6666666666666666, 0.7142857142857144, 0.5476190476190476, 0.8809523809523809, 0.6904761904761906, 0.761904761904762, 0.5476190476190476, 0.7142857142857144, 0.6666666666666666, 0.8333333333333334, 0.7380952380952381]</t>
+          <t>[0.8095238095238096, 0.7857142857142857, 0.6904761904761906, 0.7857142857142857, 0.7142857142857143, 0.6666666666666666, 0.6904761904761906, 0.7857142857142856, 0.7857142857142857, 0.7857142857142857, 0.8095238095238094, 0.6666666666666666, 0.5476190476190476, 0.7142857142857144, 0.5476190476190476, 0.6666666666666666, 0.6904761904761906, 0.5476190476190476, 0.8809523809523809, 0.7142857142857143, 0.7380952380952381, 0.5476190476190476, 0.5476190476190476, 0.8571428571428571, 0.6904761904761906, 0.5476190476190476, 0.6904761904761906, 0.7380952380952381, 0.6904761904761904, 0.6666666666666666, 0.5476190476190477, 0.8095238095238094, 0.5476190476190476, 0.6904761904761906, 0.7142857142857143, 0.7380952380952381, 0.5476190476190476, 0.8571428571428571, 0.6666666666666666, 0.7142857142857143, 0.761904761904762, 0.5476190476190476, 0.6904761904761906, 0.6904761904761904, 0.5476190476190476, 0.7380952380952381, 0.7142857142857143, 0.6904761904761906, 0.8333333333333334, 0.7380952380952381]</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>[0.6904761904761906, 0.8095238095238096, 0.7619047619047619, 0.6904761904761906, 0.7619047619047619, 0.7619047619047619, 0.6904761904761906, 0.5952380952380952, 0.7619047619047619, 0.8095238095238094, 0.5952380952380952, 0.5714285714285715, 0.6904761904761906, 0.5952380952380952, 0.5714285714285715, 0.6904761904761904, 0.7142857142857144, 0.6904761904761906, 0.5714285714285715, 0.6666666666666666, 0.6904761904761906, 0.6904761904761906, 0.6666666666666666, 0.6666666666666666, 0.6904761904761904, 0.5714285714285715, 0.7142857142857143, 0.6904761904761906, 0.5714285714285715, 0.5952380952380952, 0.7619047619047619, 0.5714285714285715, 0.7619047619047619, 0.5714285714285715, 0.6904761904761906, 0.8095238095238094, 0.6904761904761904, 0.5952380952380952, 0.5714285714285715, 0.6904761904761906, 0.6904761904761904, 0.5714285714285715, 0.8571428571428571, 0.5952380952380952, 0.6904761904761904, 0.5714285714285715, 0.7142857142857144, 0.6904761904761906, 0.8571428571428571, 0.7619047619047619]</t>
+          <t>[0.7619047619047619, 0.6904761904761906, 0.5952380952380952, 0.5952380952380952, 0.619047619047619, 0.7619047619047619, 0.5952380952380952, 0.6904761904761906, 0.619047619047619, 0.619047619047619, 0.8095238095238096, 0.6904761904761906, 0.5714285714285715, 0.7142857142857144, 0.5714285714285715, 0.6904761904761906, 0.6666666666666666, 0.5714285714285715, 0.8095238095238094, 0.7619047619047619, 0.7619047619047619, 0.5714285714285715, 0.5714285714285715, 0.6666666666666666, 0.5952380952380952, 0.5714285714285715, 0.5952380952380952, 0.7619047619047619, 0.6904761904761906, 0.6904761904761906, 0.7142857142857143, 0.7619047619047619, 0.5714285714285715, 0.5952380952380952, 0.7619047619047619, 0.7619047619047619, 0.5714285714285715, 0.6666666666666666, 0.6904761904761906, 0.7380952380952381, 0.6904761904761904, 0.5714285714285715, 0.5952380952380952, 0.6904761904761906, 0.5714285714285715, 0.7619047619047619, 0.7619047619047619, 0.5952380952380952, 0.8571428571428571, 0.7619047619047619]</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>[0.8095238095238096, 0.8571428571428571, 0.7857142857142857, 0.8095238095238096, 0.7619047619047619, 0.8095238095238096, 0.8333333333333334, 0.8571428571428572, 0.7857142857142857, 0.8095238095238096, 0.7619047619047619, 0.7142857142857143, 0.7380952380952381, 0.7619047619047619, 0.5714285714285715, 0.8333333333333334, 0.7380952380952381, 0.7380952380952381, 0.5714285714285715, 0.8333333333333334, 0.8095238095238096, 0.7380952380952381, 0.7619047619047619, 0.7380952380952381, 0.8333333333333334, 0.5714285714285715, 0.5952380952380952, 0.7380952380952381, 0.5714285714285715, 0.7619047619047619, 0.7857142857142857, 0.5714285714285715, 0.8095238095238094, 0.7142857142857143, 0.8095238095238096, 0.8571428571428571, 0.8333333333333334, 0.7619047619047619, 0.7142857142857143, 0.7380952380952381, 0.8095238095238096, 0.5714285714285715, 0.8571428571428571, 0.7619047619047619, 0.8333333333333334, 0.5714285714285715, 0.7380952380952381, 0.7380952380952381, 0.8095238095238094, 0.7857142857142857]</t>
+          <t>[0.7857142857142856, 0.7380952380952381, 0.8095238095238094, 0.8333333333333334, 0.8571428571428572, 0.7857142857142857, 0.8095238095238094, 0.7380952380952381, 0.8571428571428571, 0.8571428571428571, 0.8095238095238094, 0.7380952380952381, 0.5714285714285715, 0.7380952380952381, 0.5714285714285715, 0.7380952380952381, 0.7619047619047619, 0.5714285714285715, 0.8095238095238094, 0.7380952380952381, 0.7857142857142857, 0.5714285714285715, 0.5714285714285715, 0.8333333333333334, 0.7619047619047619, 0.5714285714285715, 0.8095238095238094, 0.7857142857142857, 0.8095238095238096, 0.7380952380952381, 0.5952380952380952, 0.8095238095238094, 0.5714285714285715, 0.7619047619047619, 0.7380952380952381, 0.7857142857142857, 0.5714285714285715, 0.8333333333333334, 0.7380952380952381, 0.7857142857142857, 0.8333333333333334, 0.5714285714285715, 0.7619047619047619, 0.8095238095238096, 0.5714285714285715, 0.7857142857142857, 0.7380952380952381, 0.8095238095238094, 0.8095238095238094, 0.7857142857142857]</t>
         </is>
       </c>
     </row>
@@ -8646,52 +8646,52 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.8521870286576169</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8961505682817158</v>
+        <v>0.9305888814085536</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9016393442622951</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9047017304189435</v>
+        <v>0.9423155737704918</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[[8, 1, 4], [0, 31, 0], [1, 0, 16]]</t>
+          <t>[[9, 1, 3], [0, 31, 0], [0, 0, 17]]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.05034495527242267, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 383, 'subsample': 0.5})</t>
+          <t>OrderedDict({'colsample_bytree': 0.7072396130936593, 'gamma': 0.0, 'learning_rate': 0.06425605765011286, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5})</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>[0.9285714285714285, 0.8904761904761905, 0.980952380952381, 0.9047619047619048, 0.9238095238095237, 0.9761904761904763, 0.9142857142857143, 0.9238095238095237, 0.9095238095238095, 0.8952380952380953, 0.7714285714285716, 0.8428571428571429, 0.9761904761904763, 0.8476190476190475, 0.9714285714285715, 0.9571428571428571, 0.9428571428571428, 0.9380952380952381, 0.9476190476190475, 0.9619047619047618, 0.980952380952381, 0.9, 0.9571428571428571, 0.980952380952381, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9714285714285715, 0.9666666666666668, 0.8476190476190476, 0.980952380952381, 0.9666666666666666, 0.9142857142857143, 0.980952380952381, 0.9857142857142858, 0.9333333333333333, 0.9761904761904763, 0.980952380952381, 0.9714285714285715, 0.980952380952381, 0.9714285714285713, 0.9761904761904763, 0.8857142857142858, 0.961904761904762, 0.8952380952380953, 0.9761904761904763, 0.980952380952381, 0.9333333333333333, 0.9761904761904763]</t>
+          <t>[0.9238095238095239, 0.8904761904761905, 0.9571428571428571, 0.9047619047619048, 0.9285714285714285, 0.919047619047619, 0.880952380952381, 0.9142857142857143, 0.8761904761904763, 0.9571428571428573, 0.9476190476190478, 0.9428571428571428, 0.9476190476190476, 0.938095238095238, 0.9523809523809526, 0.9714285714285715, 0.980952380952381, 0.9428571428571428, 0.9714285714285715, 0.8476190476190476, 0.9571428571428571, 0.819047619047619, 0.9095238095238095, 0.980952380952381, 0.9761904761904763, 0.9761904761904763, 0.9666666666666668, 0.9761904761904763, 0.9619047619047618, 0.9238095238095237, 0.9857142857142858, 0.9714285714285715, 0.9666666666666668, 0.980952380952381, 0.980952380952381, 0.9666666666666668, 0.9666666666666668, 0.9333333333333332, 0.9047619047619048, 0.8428571428571427, 0.980952380952381, 0.980952380952381, 0.8571428571428573, 0.9619047619047618, 0.9714285714285715, 0.9619047619047618, 0.9714285714285715, 0.9666666666666668, 0.9761904761904763, 0.9571428571428573]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>[0.01505846504842087, 0.011664236870396097, 0.01781741612749493, 0.0150584650484208, 0.023328473740792183, 0.015058465048420835, 0.02857142857142856, 0.017817416127494965, 0.023328473740792117, 0.019047619047619015, 0.04902681019517621, 0.024281045302822796, 0.02129588549999797, 0.03229680944345369, 0.01781741612749494, 0.03499271061118829, 0.03229680944345369, 0.03229680944345366, 0.03499271061118829, 0.01904761904761911, 0.01781741612749493, 0.050843229771577694, 0.03499271061118829, 0.027766437594501456, 0.026082026547865084, 0.015058465048420835, 0.026082026547865084, 0.026082026547865084, 0.01781741612749494, 0.024281045302822817, 0.011664236870396045, 0.009523809523809488, 0.024281045302822817, 0.041513323271815956, 0.01781741612749493, 0.011664236870396045, 0.031586902765289526, 0.015058465048420835, 0.01781741612749493, 0.02776643759450145, 0.009523809523809488, 0.0349927106111883, 0.015058465048420835, 0.05512303287042967, 0.01904761904761911, 0.032296809443453624, 0.026082026547865084, 0.009523809523809488, 0.031586902765289526, 0.015058465048420835]</t>
+          <t>[0.0349927106111883, 0.01166423687039608, 0.027766437594501474, 0.030116930096841653, 0.04259177099999602, 0.019047619047619056, 0.021295885499997995, 0.019047619047619018, 0.027766437594501425, 0.031586902765289526, 0.0349927106111883, 0.035634832254989965, 0.03158690276528953, 0.03229680944345367, 0.026082026547865084, 0.01781741612749494, 0.027766437594501456, 0.024281045302822823, 0.01781741612749494, 0.028571428571428605, 0.03499271061118829, 0.028571428571428602, 0.01781741612749493, 0.01781741612749493, 0.015058465048420835, 0.026082026547865084, 0.035634832254989916, 0.015058465048420835, 0.028571428571428626, 0.03499271061118829, 0.028571428571428602, 0.02332847374079221, 0.024281045302822817, 0.009523809523809488, 0.027766437594501456, 0.024281045302822817, 0.01904761904761903, 0.03158690276528957, 0.026082026547865043, 0.028571428571428602, 0.01781741612749493, 0.009523809523809488, 0.021295885499997995, 0.032296809443453686, 0.02776643759450145, 0.03868589716493316, 0.009523809523809535, 0.024281045302822817, 0.026082026547865084, 0.017817416127495014]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>[35, 45, 2, 41, 36, 10, 38, 36, 40, 43, 50, 49, 10, 48, 20, 28, 31, 32, 30, 27, 2, 42, 28, 2, 10, 10, 10, 10, 20, 24, 47, 2, 25, 38, 2, 1, 33, 10, 2, 20, 2, 23, 10, 46, 26, 43, 10, 2, 33, 10]</t>
+          <t>[37, 44, 27, 42, 36, 39, 45, 40, 46, 25, 30, 32, 31, 34, 29, 12, 2, 32, 12, 48, 27, 50, 41, 2, 8, 8, 17, 8, 22, 38, 1, 12, 17, 2, 2, 17, 17, 35, 42, 49, 2, 2, 47, 22, 12, 22, 12, 17, 8, 25]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.6658928320231758, 'gamma': 2.4382748344361844, 'learning_rate': 0.049447547470957844, 'max_depth': 14, 'min_child_weight': 3, 'n_estimators': 171, 'subsample': 0.7862310360891399}), OrderedDict({'colsample_bytree': 0.5396184849485601, 'gamma': 3.680605295201464, 'learning_rate': 0.2355585274403944, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 241, 'subsample': 0.9439553412344283}), OrderedDict({'colsample_bytree': 0.6503862420578975, 'gamma': 0.010368820178647266, 'learning_rate': 0.11494785000733625, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 167, 'subsample': 0.6572746789970999}), OrderedDict({'colsample_bytree': 0.543808285343502, 'gamma': 3.56733510148177, 'learning_rate': 0.03152741394725612, 'max_depth': 3, 'min_child_weight': 5, 'n_estimators': 464, 'subsample': 0.647909027190035}), OrderedDict({'colsample_bytree': 0.8851352508008977, 'gamma': 1.6514322255452127, 'learning_rate': 0.11017945578816749, 'max_depth': 2, 'min_child_weight': 5, 'n_estimators': 123, 'subsample': 0.7409906698092866}), OrderedDict({'colsample_bytree': 0.9671806969004069, 'gamma': 0.08599792236433203, 'learning_rate': 0.06275726361736075, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 369, 'subsample': 0.7080868812171126}), OrderedDict({'colsample_bytree': 0.5562352441209965, 'gamma': 2.970693271810469, 'learning_rate': 0.24677863786941265, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 391, 'subsample': 0.8932864366237583}), OrderedDict({'colsample_bytree': 0.5870540416119832, 'gamma': 2.774365247116365, 'learning_rate': 0.08348839628173003, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 410, 'subsample': 0.7337228191892207}), OrderedDict({'colsample_bytree': 0.6585165575120271, 'gamma': 3.0587173130014103, 'learning_rate': 0.2982677546633319, 'max_depth': 2, 'min_child_weight': 9, 'n_estimators': 253, 'subsample': 0.7798206271433971}), OrderedDict({'colsample_bytree': 0.8903919203872551, 'gamma': 3.1537309826047357, 'learning_rate': 0.06468921814604976, 'max_depth': 3, 'min_child_weight': 5, 'n_estimators': 97, 'subsample': 0.6339130116567265}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 5.0, 'learning_rate': 0.031077566005635947, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 496, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.7311936391629399, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9489470706750137, 'gamma': 1.0524884451009933, 'learning_rate': 0.27907606296268717, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 300, 'subsample': 0.5416837430563004}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.7829724422111057, 'learning_rate': 0.018422505813231863, 'max_depth': 13, 'min_child_weight': 6, 'n_estimators': 185, 'subsample': 0.6352407751147647}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9149922535782441}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.04472874722575223, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7644919059262905, 'gamma': 0.0, 'learning_rate': 0.057159485850034164, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.07908849340422881, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.14104183855560498, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5244735770734945, 'gamma': 0.24210701796175133, 'learning_rate': 0.03547828218855994, 'max_depth': 3, 'min_child_weight': 3, 'n_estimators': 337, 'subsample': 0.5530111346404158}), OrderedDict({'colsample_bytree': 0.7165614122040347, 'gamma': 0.0, 'learning_rate': 0.05513694541080464, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.772767722634589}), OrderedDict({'colsample_bytree': 0.5518988805445307, 'gamma': 0.8394530166243037, 'learning_rate': 0.05220878189893931, 'max_depth': 3, 'min_child_weight': 2, 'n_estimators': 276, 'subsample': 0.5041358848086296}), OrderedDict({'colsample_bytree': 0.5322545252894074, 'gamma': 0.03771461861886537, 'learning_rate': 0.10355911493476631, 'max_depth': 4, 'min_child_weight': 3, 'n_estimators': 447, 'subsample': 0.5705923573283703}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.03660758797727002, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.11357283241050574, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 170, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.7749148392979294, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.02211407006990172, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 307, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.05034495527242267, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 383, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.60553390705841, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6708460105192044, 'learning_rate': 0.03829368372649127, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 154, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.06467971971061691, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 301, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.7577599534913544, 'learning_rate': 0.055618667290084224, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 412, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 152, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 223, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.9379600885311068, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 238, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9917763372040758, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.17936147462069893, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 190, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.043002297980820336, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.059562350246403654, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 339, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.0416969435346777, 'learning_rate': 0.027317137063473083, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6290906841441883, 'gamma': 0.800308577215454, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 7, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.5648452482581836, 'learning_rate': 0.0252721174641848, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 345, 'subsample': 0.5})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.759582786046531, 'gamma': 1.4194105845085905, 'learning_rate': 0.028069203693848646, 'max_depth': 8, 'min_child_weight': 3, 'n_estimators': 476, 'subsample': 0.922575632687971}), OrderedDict({'colsample_bytree': 0.5625117728990626, 'gamma': 3.180024270183326, 'learning_rate': 0.10100996467698764, 'max_depth': 12, 'min_child_weight': 7, 'n_estimators': 374, 'subsample': 0.7706420608287403}), OrderedDict({'colsample_bytree': 0.531035555743958, 'gamma': 0.8135411907418073, 'learning_rate': 0.2051092305091623, 'max_depth': 9, 'min_child_weight': 5, 'n_estimators': 60, 'subsample': 0.9973170516283456}), OrderedDict({'colsample_bytree': 0.6095471388103496, 'gamma': 1.271005392912913, 'learning_rate': 0.10785187782592673, 'max_depth': 9, 'min_child_weight': 9, 'n_estimators': 158, 'subsample': 0.5358314619750982}), OrderedDict({'colsample_bytree': 0.6547576620551584, 'gamma': 2.60428968610955, 'learning_rate': 0.1219832629189369, 'max_depth': 1, 'min_child_weight': 4, 'n_estimators': 378, 'subsample': 0.5177082878111965}), OrderedDict({'colsample_bytree': 0.9966335920648673, 'gamma': 1.7091579786419206, 'learning_rate': 0.04671103563795529, 'max_depth': 10, 'min_child_weight': 2, 'n_estimators': 334, 'subsample': 0.8132146560847868}), OrderedDict({'colsample_bytree': 0.6574519944826275, 'gamma': 3.146026488533287, 'learning_rate': 0.0169574033220825, 'max_depth': 10, 'min_child_weight': 10, 'n_estimators': 232, 'subsample': 0.9631968180808834}), OrderedDict({'colsample_bytree': 0.8416271125088091, 'gamma': 2.506046357909063, 'learning_rate': 0.1431389051806871, 'max_depth': 6, 'min_child_weight': 6, 'n_estimators': 165, 'subsample': 0.9571484813066173}), OrderedDict({'colsample_bytree': 0.6296087892494322, 'gamma': 2.4369538829426722, 'learning_rate': 0.014118431720630912, 'max_depth': 8, 'min_child_weight': 7, 'n_estimators': 134, 'subsample': 0.503467755639693}), OrderedDict({'colsample_bytree': 0.5876818851888596, 'gamma': 0.9319428682266174, 'learning_rate': 0.04219878955783337, 'max_depth': 11, 'min_child_weight': 6, 'n_estimators': 485, 'subsample': 0.7346226554708579}), OrderedDict({'colsample_bytree': 0.9841113520804885, 'gamma': 0.05285941869902989, 'learning_rate': 0.04904867840334885, 'max_depth': 14, 'min_child_weight': 6, 'n_estimators': 476, 'subsample': 0.6153477325472422}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.7617724273964578, 'learning_rate': 0.25442774737238155, 'max_depth': 9, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 0.5063577476352786}), OrderedDict({'colsample_bytree': 0.6410421886928954, 'gamma': 0.5083232438194517, 'learning_rate': 0.10199899989088017, 'max_depth': 12, 'min_child_weight': 6, 'n_estimators': 455, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5895722137534535, 'gamma': 0.3458350964717962, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 5, 'n_estimators': 129, 'subsample': 0.6010388731953378}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.0270826841285896, 'learning_rate': 0.08077590832177975, 'max_depth': 4, 'min_child_weight': 5, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7121804058530079, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 13, 'min_child_weight': 3, 'n_estimators': 264, 'subsample': 0.9392326072601844}), OrderedDict({'colsample_bytree': 0.803904852085294, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 324, 'subsample': 0.6415901247827784}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.919714546988697, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 315, 'subsample': 0.9413950813278419}), OrderedDict({'colsample_bytree': 0.616586707335466, 'gamma': 0.0, 'learning_rate': 0.03668404454988159, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 116, 'subsample': 0.605415133251049}), OrderedDict({'colsample_bytree': 0.769038611884423, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 355, 'subsample': 0.957708475449857}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5169411390783055, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 85, 'subsample': 0.5082271033375729}), OrderedDict({'colsample_bytree': 0.7857843270443168, 'gamma': 2.934820337032224, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 53, 'subsample': 0.8157576405470159}), OrderedDict({'colsample_bytree': 0.9465073299592063, 'gamma': 0.31037431537001525, 'learning_rate': 0.1238959436925409, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.674018069155502}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.632534232654341, 'gamma': 1.2665420881838756, 'learning_rate': 0.2851313445978986, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 434, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5409155629019423, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 13, 'min_child_weight': 10, 'n_estimators': 497, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7072396130936593, 'gamma': 0.0, 'learning_rate': 0.06425605765011286, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.11790603660257443, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5612237200267693}), OrderedDict({'colsample_bytree': 0.6065394012236318, 'gamma': 0.0, 'learning_rate': 0.10232537548095082, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.07296291522770712, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.08947860230355945, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9038897171775544, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.6560538676974841}), OrderedDict({'colsample_bytree': 0.7843731313612328, 'gamma': 0.21173906852197052, 'learning_rate': 0.011032737989048653, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 188, 'subsample': 0.5113500635557224}), OrderedDict({'colsample_bytree': 0.6537673938054271, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 496, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8263784436784372, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 229, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9715156225585758, 'gamma': 4.712606293419413, 'learning_rate': 0.023353257803862184, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 384, 'subsample': 0.5114987002428353}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.06236435423749561, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6367034387246263, 'gamma': 0.8373000217442651, 'learning_rate': 0.05003700493443849, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 208, 'subsample': 0.5121323789958272}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.05988537760927376, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 5, 'n_estimators': 156, 'subsample': 0.8040116594094295}), OrderedDict({'colsample_bytree': 0.5721410426693704, 'gamma': 0.04816979413180413, 'learning_rate': 0.16394528396804187, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 256, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6046752599198982, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01250818182006103, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8709316304002493, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.04041823224068889, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.607534435920556}), OrderedDict({'colsample_bytree': 0.5481408902718113, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 0.6790125679123299})]</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O89" t="n">
-        <v>0.9016393442622951</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8700,27 +8700,27 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>[0.9285714285714285, 0.9047619047619048, 1.0, 0.9285714285714285, 0.9523809523809524, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.8095238095238096, 0.8809523809523809, 1.0, 0.8809523809523809, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 1.0, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 1.0, 0.9761904761904763, 1.0, 0.8571428571428571, 0.9761904761904763, 0.9761904761904763, 0.8571428571428571, 1.0, 1.0, 0.9285714285714285, 0.9761904761904763, 1.0, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9047619047619048, 0.9761904761904763, 0.9047619047619048, 1.0, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763]</t>
+          <t>[0.9047619047619048, 0.9047619047619048, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285, 0.9047619047619048, 0.9047619047619048, 0.9047619047619048, 0.9047619047619048, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 1.0, 1.0, 0.9523809523809524, 0.9761904761904763, 0.8809523809523809, 0.9285714285714285, 0.8333333333333334, 0.9047619047619048, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 1.0, 1.0, 1.0, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9047619047619048, 0.8809523809523809, 1.0, 0.9761904761904763, 0.8809523809523809, 1.0, 1.0, 1.0, 0.9761904761904763, 0.9523809523809524, 1.0, 0.9761904761904763]</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[0.9285714285714285, 0.9047619047619048, 0.9761904761904763, 0.880952380952381, 0.9285714285714285, 0.9761904761904763, 0.8571428571428571, 0.9047619047619048, 0.880952380952381, 0.880952380952381, 0.7142857142857143, 0.8571428571428571, 0.9761904761904763, 0.8571428571428571, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.880952380952381, 0.9047619047619048, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.8333333333333334, 0.9761904761904763, 0.9761904761904763, 0.880952380952381, 0.9761904761904763, 0.9761904761904763, 0.880952380952381, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9047619047619048, 0.9523809523809524, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763]</t>
+          <t>[0.9523809523809524, 0.880952380952381, 0.9285714285714285, 0.9285714285714285, 0.880952380952381, 0.9285714285714285, 0.9047619047619048, 0.9285714285714285, 0.8571428571428571, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9523809523809524, 0.9047619047619048, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9285714285714285, 0.9761904761904763, 0.880952380952381, 0.9761904761904763, 0.7857142857142856, 0.9285714285714285, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 1.0, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9523809523809524, 0.9285714285714285, 0.9047619047619048, 0.8571428571428571, 0.9761904761904763, 0.9761904761904763, 0.8571428571428571, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9523809523809524]</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>[0.9285714285714285, 0.8809523809523809, 1.0, 0.9047619047619048, 0.9285714285714285, 1.0, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.8809523809523809, 0.7857142857142857, 0.8333333333333334, 1.0, 0.8095238095238094, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 1.0, 1.0, 1.0, 0.9761904761904763, 0.8571428571428571, 1.0, 1.0, 0.9761904761904763, 1.0, 1.0, 0.9285714285714285, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9523809523809524, 0.9761904761904763, 0.9285714285714285, 1.0, 1.0, 0.9761904761904763, 1.0]</t>
+          <t>[0.9761904761904763, 0.9047619047619048, 1.0, 0.9285714285714285, 0.9761904761904763, 0.9523809523809524, 0.8571428571428572, 0.9285714285714285, 0.9047619047619048, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 0.8095238095238094, 0.9761904761904763, 0.8571428571428571, 0.9047619047619048, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9523809523809524, 1.0, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 1.0, 1.0, 0.9523809523809524, 0.9285714285714285, 0.8095238095238094, 1.0, 1.0, 0.8333333333333334, 1.0, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763]</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>[0.9047619047619048, 0.8809523809523809, 0.9761904761904763, 0.9047619047619048, 0.9285714285714285, 0.9761904761904763, 0.9285714285714285, 0.9047619047619048, 0.9285714285714285, 0.8809523809523809, 0.7142857142857143, 0.8095238095238094, 0.9523809523809524, 0.8095238095238094, 0.9761904761904763, 1.0, 0.9047619047619048, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.8095238095238094, 1.0, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.8333333333333334, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9285714285714285, 0.9523809523809524, 0.7857142857142857, 0.9761904761904763, 0.8571428571428571, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763]</t>
+          <t>[0.8809523809523809, 0.8809523809523809, 0.9285714285714285, 0.8809523809523809, 0.9761904761904763, 0.9047619047619048, 0.8571428571428571, 0.8809523809523809, 0.8333333333333334, 0.9761904761904763, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9047619047619048, 0.9523809523809524, 0.8333333333333334, 1.0, 0.7857142857142857, 0.8809523809523809, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9523809523809524, 0.9761904761904763, 0.9285714285714285, 1.0, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 1.0, 0.9523809523809524, 0.9523809523809524, 0.9285714285714285, 0.8571428571428571, 0.8095238095238094, 0.9761904761904763, 0.9761904761904763, 0.8333333333333334, 0.9285714285714285, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 1.0, 0.9761904761904763, 0.9523809523809524]</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>[0.9523809523809524, 0.8809523809523809, 0.9523809523809524, 0.9047619047619048, 0.8809523809523809, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 0.8809523809523809, 0.9047619047619048, 0.8333333333333334, 0.8333333333333334, 0.9523809523809524, 0.8809523809523809, 0.9761904761904763, 0.9047619047619048, 0.9047619047619048, 0.9523809523809524, 0.9761904761904763, 0.9523809523809524, 0.9523809523809524, 0.880952380952381, 0.9047619047619048, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285, 0.9523809523809524, 0.9285714285714285, 0.8571428571428571, 0.9761904761904763, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 0.9761904761904763, 0.9761904761904763, 0.9761904761904763, 0.9523809523809524, 0.9285714285714285, 0.9761904761904763, 0.9285714285714285, 0.9761904761904763, 0.880952380952381, 0.9285714285714285, 0.8571428571428572, 0.9285714285714285, 0.9761904761904763, 0.880952380952381, 0.9523809523809524]</t>
+          <t>[0.9047619047619048, 0.8809523809523809, 0.9761904761904763, 0.8571428571428572, 0.8809523809523809, 0.9047619047619048, 0.8809523809523809, 0.9285714285714285, 0.8809523809523809, 0.9047619047619048, 0.8809523809523809, 0.8809523809523809, 0.9047619047619048, 1.0, 0.9047619047619048, 0.9523809523809524, 0.9285714285714285, 0.9523809523809524, 0.9523809523809524, 0.8333333333333334, 0.9047619047619048, 0.8333333333333334, 0.9285714285714285, 0.9523809523809524, 0.9761904761904763, 0.9285714285714285, 0.9047619047619048, 0.9761904761904763, 0.9285714285714285, 0.8571428571428571, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.9285714285714285, 0.9285714285714285, 0.9761904761904763, 0.8809523809523809, 0.9285714285714285, 0.8571428571428571, 0.9523809523809524, 0.9761904761904763, 0.880952380952381, 0.9285714285714285, 0.9285714285714285, 0.9047619047619048, 0.9523809523809524, 0.9285714285714285, 0.9285714285714285, 0.9285714285714285]</t>
         </is>
       </c>
     </row>
@@ -8832,52 +8832,52 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.8413848631239936</v>
+        <v>0.859903381642512</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8828749321799413</v>
+        <v>0.8969060523938573</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9012345679012346</v>
       </c>
       <c r="G91" t="n">
-        <v>0.88769049880161</v>
+        <v>0.8993062904174014</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[[11, 2, 5], [0, 40, 0], [2, 0, 21]]</t>
+          <t>[[12, 2, 4], [0, 40, 0], [2, 0, 21]]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 207})</t>
+          <t>OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 255})</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>[0.9833333333333334, 0.9722222222222221, 0.9944444444444445, 0.9888888888888889, 0.9666666666666666, 0.9722222222222221, 0.9944444444444445, 0.9777777777777776, 0.9722222222222221, 0.9722222222222221, 0.9888888888888889, 0.9777777777777776, 0.9615384615384615, 0.9666666666666666, 0.961111111111111, 0.9833333333333332, 0.9888888888888889, 0.9833333333333332, 0.9833333333333334, 0.9722222222222221, 0.9833333333333334, 0.9888888888888889, 0.9833333333333332, 0.9777777777777776, 0.9888888888888889, 0.9944444444444445, 0.9888888888888889, 0.9944444444444445, 0.9833333333333332, 0.9888888888888889, 0.9944444444444445, 0.9888888888888889, 0.9944444444444445, 0.9833333333333332, 0.9833333333333332, 0.9944444444444445, 0.9833333333333332, 0.9833333333333332, 0.9833333333333334, 0.9722222222222221, 0.9944444444444445, 0.9777777777777776, 0.9777777777777776, 0.9777777777777776, 0.9944444444444445, 0.9944444444444445, 0.9833333333333334, 0.9944444444444445, 0.9944444444444445, 0.9944444444444445]</t>
+          <t>[0.95, 0.9777777777777776, 0.9722222222222221, 0.9888888888888889, 0.9833333333333334, 0.9777777777777776, 0.9722222222222221, 0.9722222222222221, 0.9666666666666666, 0.9833333333333332, 0.9833333333333332, 0.9833333333333334, 0.9833333333333332, 0.9666666666666666, 0.9833333333333332, 0.9833333333333332, 0.9782051282051281, 0.9777777777777776, 0.9504273504273504, 0.9888888888888889, 0.9722222222222221, 0.9944444444444445, 0.9888888888888889, 0.9944444444444445, 0.9777777777777776, 0.9833333333333332, 0.9833333333333334, 0.9777777777777776, 0.9888888888888889, 0.9888888888888889, 0.9777777777777776, 0.967094017094017, 0.9888888888888889, 0.9777777777777776, 0.9833333333333334, 0.9777777777777776, 0.9666666666666666, 0.9666666666666666, 0.9777777777777776, 0.9722222222222221, 0.9833333333333332, 0.9833333333333332, 0.9833333333333332, 0.9777777777777776, 0.9777777777777776, 0.9722222222222221, 0.9777777777777776, 0.9833333333333332, 0.9722222222222221, 0.9777777777777776]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>[0.013608276348795441, 0.01756820922315771, 0.011111111111111117, 0.013608276348795441, 0.027216552697590882, 0.030429030972509243, 0.011111111111111117, 0.03239417719358502, 0.01756820922315771, 0.030429030972509243, 0.013608276348795441, 0.011111111111111117, 0.04083377499347436, 0.020786985482077507, 0.02832788618662661, 0.022222222222222268, 0.013608276348795441, 0.022222222222222268, 0.013608276348795441, 0.04303314829119354, 0.013608276348795441, 0.013608276348795441, 0.022222222222222268, 0.020786985482077497, 0.013608276348795441, 0.011111111111111117, 0.013608276348795441, 0.011111111111111117, 0.022222222222222268, 0.013608276348795441, 0.011111111111111117, 0.013608276348795441, 0.011111111111111117, 0.022222222222222268, 0.022222222222222268, 0.011111111111111117, 0.022222222222222268, 0.022222222222222268, 0.013608276348795441, 0.01756820922315771, 0.011111111111111117, 0.020786985482077497, 0.020786985482077497, 0.020786985482077497, 0.011111111111111117, 0.011111111111111117, 0.022222222222222192, 0.011111111111111117, 0.011111111111111117, 0.011111111111111117]</t>
+          <t>[0.020786985482077462, 0.020786985482077497, 0.017568209223157636, 0.013608276348795441, 0.013608276348795441, 0.020786985482077497, 0.024845199749997673, 0.024845199749997725, 0.020786985482077507, 0.022222222222222268, 0.022222222222222268, 0.022222222222222192, 0.022222222222222268, 0.03239417719358503, 0.022222222222222268, 0.022222222222222268, 0.020690116986171334, 0.03239417719358502, 0.03196284094241908, 0.013608276348795441, 0.01756820922315771, 0.011111111111111117, 0.013608276348795441, 0.011111111111111117, 0.020786985482077497, 0.022222222222222268, 0.013608276348795441, 0.03239417719358502, 0.013608276348795441, 0.013608276348795441, 0.020786985482077497, 0.031739221585687455, 0.013608276348795441, 0.020786985482077497, 0.013608276348795441, 0.020786985482077497, 0.020786985482077507, 0.020786985482077462, 0.020786985482077497, 0.030429030972509243, 0.022222222222222268, 0.022222222222222268, 0.022222222222222268, 0.011111111111111117, 0.011111111111111117, 0.024845199749997673, 0.020786985482077497, 0.022222222222222268, 0.01756820922315771, 0.020786985482077497]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>[22, 41, 1, 14, 47, 41, 1, 35, 41, 41, 14, 35, 49, 47, 50, 27, 14, 27, 22, 41, 22, 14, 27, 35, 14, 1, 14, 1, 27, 14, 1, 14, 1, 27, 27, 1, 27, 27, 22, 41, 1, 35, 35, 35, 1, 1, 22, 1, 1, 1]</t>
+          <t>[50, 24, 37, 3, 9, 24, 37, 37, 45, 13, 13, 9, 13, 45, 13, 13, 23, 24, 49, 3, 37, 1, 3, 1, 24, 13, 9, 24, 3, 3, 24, 44, 3, 24, 9, 24, 45, 45, 24, 37, 13, 13, 13, 24, 24, 37, 24, 13, 37, 24]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 6, 'min_samples_split': 5, 'n_estimators': 261}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 6, 'min_samples_split': 4, 'n_estimators': 168}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 207}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 4, 'min_samples_split': 15, 'n_estimators': 190}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 51}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 8, 'n_estimators': 146}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 234}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 6, 'min_samples_split': 13, 'n_estimators': 286}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 14, 'n_estimators': 166}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 19, 'n_estimators': 279}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 119}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 4, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 229}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 3, 'min_samples_split': 8, 'n_estimators': 286}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 66}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 273}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 74}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 159}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 182}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 154}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 171}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 3, 'min_samples_split': 15, 'n_estimators': 229}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 126}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 247}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 65}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 3, 'min_samples_split': 14, 'n_estimators': 103}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 3, 'min_samples_split': 14, 'n_estimators': 296}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 298}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 290}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 297}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 298}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 290}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 87}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 13, 'n_estimators': 223}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 297}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 294}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 18, 'n_estimators': 289}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 7, 'min_samples_split': 20, 'n_estimators': 296}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 246}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 68}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 176}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 223})]</t>
+          <t>[OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 7, 'min_samples_split': 11, 'n_estimators': 59}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 8, 'min_samples_split': 15, 'n_estimators': 149}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 7, 'n_estimators': 65}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 3, 'min_samples_split': 7, 'n_estimators': 59}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 4, 'min_samples_split': 10, 'n_estimators': 179}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 7, 'min_samples_split': 16, 'n_estimators': 293}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 8, 'min_samples_split': 15, 'n_estimators': 223}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 9, 'min_samples_split': 3, 'n_estimators': 128}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 9, 'min_samples_split': 9, 'n_estimators': 162}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 18, 'n_estimators': 102}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 4, 'min_samples_split': 11, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 140}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 7, 'min_samples_split': 18, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 241}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 137}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 243}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 3, 'n_estimators': 111}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 8, 'min_samples_split': 20, 'n_estimators': 65}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 11, 'n_estimators': 58}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 18, 'n_estimators': 60}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 255}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 207}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 3, 'min_samples_split': 16, 'n_estimators': 273}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 194}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 230}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 12, 'n_estimators': 195}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 19, 'n_estimators': 207}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 4, 'n_estimators': 201}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 10, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 19, 'n_estimators': 220}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 10, 'n_estimators': 248}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 5, 'min_samples_split': 4, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 5, 'min_samples_split': 19, 'n_estimators': 245}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 7, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 5, 'n_estimators': 157}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 7, 'min_samples_split': 19, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 6, 'min_samples_split': 5, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 3, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 3, 'min_samples_split': 4, 'n_estimators': 272}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 5, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 4, 'min_samples_split': 3, 'n_estimators': 85}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 61}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 5, 'min_samples_split': 18, 'n_estimators': 91}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 18, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 6, 'min_samples_split': 3, 'n_estimators': 170}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 148})]</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="O91" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9012345679012346</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>[1.0, 0.9722222222222222, 1.0, 1.0, 0.9166666666666666, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.8910256410256411, 0.9444444444444443, 0.9444444444444443, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0]</t>
+          <t>[0.9166666666666666, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 0.9444444444444443, 0.9444444444444443, 1.0, 1.0, 1.0, 1.0, 0.9444444444444443, 1.0, 1.0, 0.9743589743589745, 1.0, 0.9188034188034188, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9188034188034188, 1.0, 1.0, 1.0, 1.0, 0.9444444444444443, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 1.0, 1.0, 0.9722222222222222, 1.0]</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0]</t>
+          <t>[0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9444444444444445, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>[0.9722222222222222, 0.9444444444444443, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 1.0, 0.9166666666666666, 0.9444444444444443, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9166666666666666, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.8888888888888888, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9444444444444443, 1.0, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 1.0, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 1.0, 1.0, 0.9444444444444445, 1.0, 1.0, 1.0]</t>
+          <t>[0.9444444444444443, 0.9444444444444443, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444445, 0.9444444444444443, 0.9166666666666666, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9166666666666666, 0.9166666666666666, 1.0, 0.9444444444444443, 1.0, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9166666666666666, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443]</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>[1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0]</t>
+          <t>[0.9722222222222222, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0]</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -9036,31 +9036,31 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'relu', 'alpha': 0.0588113716430782, 'learning_rate_init': 0.00961178101183512, 'max_iter': 1498, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>[0.808974358974359, 0.9012820512820513, 0.7773504273504274, 0.9559829059829058, 0.5666666666666667, 0.3384615384615385, 0.8632478632478632, 0.8358974358974359, 0.8914529914529913, 0.8572649572649572, 0.9341880341880341, 0.8581196581196581, 0.3, 0.3, 0.3, 0.9235042735042736, 0.9081196581196581, 0.9286324786324786, 0.3, 0.9235042735042736, 0.8961538461538462, 0.9282051282051282, 0.9239316239316239, 0.9239316239316239, 0.9559829059829058, 0.9559829059829058, 0.826923076923077, 0.9559829059829058, 0.9559829059829058, 0.9282051282051282, 0.9286324786324786, 0.9277777777777778, 0.9128205128205128, 0.9397435897435896, 0.905982905982906, 0.8948717948717949, 0.9277777777777778, 0.9128205128205128, 0.929059829059829, 0.8517094017094017, 0.897008547008547, 0.9559829059829058, 0.8905982905982907, 0.9397435897435896, 0.9448717948717947, 0.9226495726495727, 0.923076923076923, 0.9397435897435896, 0.9128205128205128, 0.9235042735042734]</t>
+          <t>[0.3, 0.9448717948717947, 0.8688034188034187, 0.9397435897435896, 0.87991452991453, 0.7717948717948718, 0.8683760683760683, 0.7717948717948718, 0.3, 0.6222222222222221, 0.3384615384615385, 0.8568376068376068, 0.9183760683760684, 0.8517094017094017, 0.8572649572649572, 0.9277777777777778, 0.6829059829059829, 0.929059829059829, 0.3384615384615385, 0.8517094017094017, 0.4551282051282051, 0.6393162393162394, 0.8914529914529913, 0.9504273504273503, 0.8739316239316238, 0.9286324786324786, 0.9128205128205128, 0.9076923076923077, 0.8213675213675213, 0.9025641025641026, 0.9448717948717947, 0.9559829059829058, 0.9397435897435896, 0.9226495726495727, 0.8794871794871796, 0.9170940170940172, 0.9226495726495727, 0.9170940170940172, 0.929059829059829, 0.9239316239316239, 0.9559829059829058, 0.9282051282051282, 0.9282051282051282, 0.9282051282051282, 0.9226495726495726, 0.8910256410256411, 0.917094017094017, 0.9282051282051282, 0.9559829059829058, 0.9282051282051282]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>[0.038380731827893505, 0.07042081539674559, 0.03244487674547402, 0.028172734570682954, 0.08407406924689187, 0.02034295766737079, 0.08246866774754837, 0.024114078597719458, 0.12275747955765262, 0.04084271898109526, 0.032947581653669046, 0.12641629522742873, 0.053249303735437334, 0.053249303735437334, 0.053249303735437334, 0.05245106322244873, 0.10381185462901886, 0.04138023397234257, 0.053249303735437334, 0.05245106322244873, 0.05107865647695406, 0.0639827940930355, 0.056800643465615516, 0.07059177139246747, 0.028172734570682954, 0.028172734570682954, 0.08875112598689579, 0.028172734570682954, 0.028172734570682954, 0.0639827940930355, 0.03746574152872425, 0.0906083690572227, 0.09516970243938173, 0.03184836048527644, 0.03749984780936803, 0.04413104493478832, 0.0906083690572227, 0.09516970243938173, 0.04989945329032561, 0.05014042666209824, 0.03330592780922859, 0.028172734570682954, 0.08072738933414271, 0.03184836048527644, 0.030441032168389972, 0.03196284094241908, 0.06785323614496001, 0.03184836048527644, 0.0686479636818975, 0.07125868152852896]</t>
+          <t>[0.053249303735437334, 0.030441032168389972, 0.10009127254049502, 0.03184836048527644, 0.025115701290453162, 0.06506962841256166, 0.08969880852611398, 0.06506962841256166, 0.053249303735437334, 0.04938440533307591, 0.02034295766737079, 0.03265807380263724, 0.06527978860192743, 0.036999762088740784, 0.04084271898109526, 0.0906083690572227, 0.2643969813593143, 0.04989945329032561, 0.02034295766737079, 0.05014042666209824, 0.21721007732846603, 0.24015192916819447, 0.12275747955765262, 0.03233210311004743, 0.09163652802811847, 0.051363894804928284, 0.09516970243938173, 0.09093028993295897, 0.08550853835859287, 0.10093615427283371, 0.030441032168389972, 0.028172734570682954, 0.03184836048527644, 0.08703062537875352, 0.06923340714611362, 0.09806179240119794, 0.08703062537875352, 0.09806179240119794, 0.04989945329032561, 0.056800643465615516, 0.028172734570682954, 0.0639827940930355, 0.0639827940930355, 0.0639827940930355, 0.06105879058467404, 0.05058284009888991, 0.030048539882473406, 0.0639827940930355, 0.028172734570682954, 0.0639827940930355]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>[43, 31, 44, 1, 45, 46, 37, 41, 35, 39, 11, 38, 47, 47, 47, 21, 29, 13, 47, 21, 33, 15, 19, 19, 1, 1, 42, 1, 1, 15, 13, 17, 26, 8, 30, 34, 17, 26, 12, 40, 32, 1, 36, 8, 7, 25, 24, 8, 26, 23]</t>
+          <t>[49, 5, 34, 7, 31, 41, 35, 41, 49, 45, 47, 37, 22, 38, 36, 17, 43, 9, 47, 38, 46, 44, 29, 4, 33, 11, 26, 27, 40, 28, 5, 1, 7, 19, 32, 23, 19, 23, 9, 18, 1, 12, 12, 12, 21, 30, 25, 12, 1, 12]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'logistic', 'alpha': 0.0029679148475450032, 'learning_rate_init': 0.0009300059343932538, 'max_iter': 2635, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.024926020579269605, 'learning_rate_init': 0.0034574715834928592, 'max_iter': 2102, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00017766450921513245, 'learning_rate_init': 0.0004524735838582561, 'max_iter': 1802, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0588113716430782, 'learning_rate_init': 0.00961178101183512, 'max_iter': 1498, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.8328191905617938e-05, 'learning_rate_init': 0.00011627359796148429, 'max_iter': 847, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 2.63957998630567e-06, 'learning_rate_init': 0.00030899808410724547, 'max_iter': 2889, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 7.143524589840308e-05, 'learning_rate_init': 0.0005551777177544224, 'max_iter': 2059, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0011785050677282467, 'learning_rate_init': 0.005114648529955345, 'max_iter': 1083, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 3.04111201231423e-06, 'learning_rate_init': 0.002938062352663756, 'max_iter': 2627, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.000261796605392449, 'learning_rate_init': 0.0027810482934649866, 'max_iter': 769, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.019300153875581687, 'learning_rate_init': 0.0018831213423751633, 'max_iter': 1881, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.001009276724201168, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0006859616918840327, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0022927801404990563, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.1091417679683047e-06, 'learning_rate_init': 0.0042851336436072794, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0012743046708869907, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0030545491665317707, 'max_iter': 690, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 9.974573300917125e-06, 'learning_rate_init': 0.00017586582029385233, 'max_iter': 1132, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.005893757099812437, 'max_iter': 1077, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1.8349494763615316e-06, 'learning_rate_init': 0.0010253495622458196, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.001656360599559398, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0011451291083087111, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0015824012285333563, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 4.2806571626466034e-05, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0013914994209396259, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.005460010889916394, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.005505212851388136, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0014376493463170864, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0015301491691137286, 'max_iter': 524, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0052716858777073225, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0014056023624271488, 'learning_rate_init': 0.01, 'max_iter': 788, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 2.902923370206229e-05, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.02312800652449977, 'learning_rate_init': 0.0007627471658754553, 'max_iter': 869, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.03274301286025521, 'learning_rate_init': 0.009145711422345536, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0063003495823173595, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.000883112120265069, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0006553404022911196, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.000815982667769214, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 4.149071591621091e-06, 'learning_rate_init': 0.01, 'max_iter': 1249, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.000753536606285996, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008011251334151636, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00040250595815895766, 'learning_rate_init': 0.008241958939234614, 'max_iter': 3000, 'solver': 'sgd'})]</t>
+          <t>[OrderedDict({'activation': 'relu', 'alpha': 0.01062775283051042, 'learning_rate_init': 0.00017059733211121145, 'max_iter': 2598, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.390201331732701e-05, 'learning_rate_init': 0.0005007548027698422, 'max_iter': 2263, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.004835257706528e-06, 'learning_rate_init': 0.006362239046134572, 'max_iter': 2800, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 2.3797554509233133e-05, 'learning_rate_init': 0.005392867504722752, 'max_iter': 1593, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00025852881963944855, 'learning_rate_init': 0.00031276727969837236, 'max_iter': 2118, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 6.778392959432913e-06, 'learning_rate_init': 0.0004603144273048716, 'max_iter': 2275, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0001417442563802001, 'learning_rate_init': 0.00027382541261363223, 'max_iter': 618, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.2936043012821384e-06, 'learning_rate_init': 0.00045250556145919084, 'max_iter': 2910, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0031696137964368387, 'learning_rate_init': 0.00011023371154672395, 'max_iter': 1935, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.04785549088161969, 'learning_rate_init': 0.00013709912237363665, 'max_iter': 2483, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.02269170320509925, 'learning_rate_init': 0.00014455286114075952, 'max_iter': 1748, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.00280857607960105, 'max_iter': 733, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1.5424288028781994e-05, 'learning_rate_init': 0.009258741851927703, 'max_iter': 712, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 9.431398147843201e-06, 'learning_rate_init': 0.0026223424596202513, 'max_iter': 2647, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 3.015000318243668e-06, 'learning_rate_init': 0.002749830038554587, 'max_iter': 1604, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.365078109104902e-06, 'learning_rate_init': 0.00019630142166442884, 'max_iter': 2832, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.002494058754367357, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.00038245112599787073, 'max_iter': 1144, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0005964137370422053, 'max_iter': 2053, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0031014405247285983, 'max_iter': 891, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.008225503732709003, 'max_iter': 1012, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0008648295700340609, 'learning_rate_init': 0.0004357156488011318, 'max_iter': 958, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0030656355069671004, 'learning_rate_init': 0.006306916635218481, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.004774680189776209, 'max_iter': 2749, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.00428714881715552, 'max_iter': 606, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.001309845260859452, 'max_iter': 546, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 7.1881267326958975e-06, 'learning_rate_init': 0.001870832249434146, 'max_iter': 2690, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.6280257206849194e-06, 'learning_rate_init': 0.0006026853049850707, 'max_iter': 2167, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0038027914477736804, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.008787975613740095, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.006943936802719246, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.008630741753968102, 'max_iter': 780, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.009808489291974002, 'max_iter': 1036, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.008700284671897077, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2365, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.001673251829842719, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.009644768526089025, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.009037866246822363, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0007645807164355015, 'learning_rate_init': 0.01, 'max_iter': 1590, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 984, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.009617960150835627, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0005542693539266156, 'max_iter': 527, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0011924199284078017, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 557, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 8.781398657114748e-05, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2232, 'solver': 'adam'})]</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O93" t="n">
         <v>0.8641975308641975</v>
@@ -9072,27 +9072,27 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>[0.8376068376068376, 0.8397435897435898, 0.732905982905983, 0.9465811965811964, 0.6773504273504273, 0.3611111111111111, 0.8418803418803419, 0.8141025641025642, 0.6495726495726496, 0.8397435897435898, 0.9209401709401709, 0.6495726495726496, 0.34188034188034183, 0.34188034188034183, 0.34188034188034183, 0.8675213675213675, 0.7051282051282052, 0.9209401709401709, 0.34188034188034183, 0.8675213675213675, 0.8141025641025642, 0.8076923076923078, 0.8418803418803419, 0.8141025641025642, 0.9465811965811964, 0.9465811965811964, 0.7585470085470085, 0.9465811965811964, 0.9465811965811964, 0.8076923076923078, 0.9209401709401709, 1.0, 0.7307692307692308, 0.9209401709401709, 0.8910256410256411, 0.8632478632478632, 1.0, 0.7307692307692308, 0.8675213675213675, 0.8141025641025642, 0.8910256410256411, 0.9465811965811964, 0.8141025641025642, 0.9209401709401709, 0.9465811965811964, 0.8910256410256411, 0.8376068376068376, 0.9209401709401709, 0.8141025641025642, 0.8119658119658119]</t>
+          <t>[0.34188034188034183, 0.9465811965811964, 0.732905982905983, 0.9209401709401709, 0.8888888888888888, 0.6495726495726496, 0.8418803418803419, 0.6495726495726496, 0.34188034188034183, 0.6773504273504273, 0.3611111111111111, 0.8376068376068376, 0.8141025641025642, 0.8119658119658119, 0.8397435897435898, 1.0, 0.3611111111111111, 0.8675213675213675, 0.3611111111111111, 0.8141025641025642, 0.3611111111111111, 0.8376068376068376, 0.6495726495726496, 0.9465811965811964, 0.8418803418803419, 0.9209401709401709, 0.7307692307692308, 0.7307692307692308, 0.7585470085470085, 0.7051282051282052, 0.9465811965811964, 0.9465811965811964, 0.9209401709401709, 0.9743589743589745, 0.7863247863247862, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.8675213675213675, 0.8418803418803419, 0.9465811965811964, 0.8076923076923078, 0.8076923076923078, 0.8076923076923078, 0.8076923076923078, 0.8888888888888888, 0.8910256410256411, 0.8076923076923078, 0.9465811965811964, 0.8076923076923078]</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>[0.75, 0.8333333333333334, 0.8333333333333334, 0.9166666666666666, 0.6388888888888888, 0.3333333333333333, 0.7222222222222222, 0.8055555555555555, 0.9166666666666666, 0.8055555555555555, 0.9166666666666666, 0.9166666666666666, 0.2222222222222222, 0.2222222222222222, 0.2222222222222222, 0.888888888888889, 0.9166666666666666, 0.888888888888889, 0.2222222222222222, 0.888888888888889, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.8888888888888888, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.888888888888889, 0.75, 0.9166666666666666, 0.9166666666666666, 0.8888888888888888, 0.8611111111111112, 0.75, 0.9166666666666666, 0.9166666666666666, 0.8055555555555555, 0.8888888888888888, 0.9166666666666666, 0.8055555555555555, 0.9166666666666666, 0.9166666666666666, 0.8888888888888888, 0.861111111111111, 0.9166666666666666, 0.9166666666666666, 0.8888888888888888]</t>
+          <t>[0.2222222222222222, 0.9166666666666666, 0.8888888888888888, 0.9166666666666666, 0.8611111111111112, 0.8333333333333334, 0.7222222222222222, 0.8333333333333334, 0.2222222222222222, 0.6388888888888888, 0.3333333333333333, 0.8333333333333334, 0.9166666666666666, 0.8333333333333334, 0.8055555555555555, 0.75, 0.8611111111111112, 0.9166666666666666, 0.3333333333333333, 0.8055555555555555, 0.3333333333333333, 0.3333333333333333, 0.9166666666666666, 0.9166666666666666, 0.7222222222222222, 0.888888888888889, 0.9166666666666666, 0.9166666666666666, 0.861111111111111, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.75, 0.8333333333333334, 0.7222222222222222, 0.75, 0.7222222222222222, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.8333333333333334, 0.8888888888888888, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>[0.7905982905982906, 0.9722222222222222, 0.764957264957265, 1.0, 0.5726495726495727, 0.358974358974359, 0.9743589743589745, 0.8653846153846154, 0.9743589743589745, 0.9188034188034188, 1.0, 0.9743589743589745, 0.3525641025641026, 0.3525641025641026, 0.3525641025641026, 0.9722222222222222, 0.9743589743589745, 1.0, 0.3525641025641026, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 1.0, 0.764957264957265, 1.0, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9444444444444443, 0.844017094017094, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 1.0]</t>
+          <t>[0.3525641025641026, 1.0, 1.0, 1.0, 0.844017094017094, 0.8205128205128206, 1.0, 0.8205128205128206, 0.3525641025641026, 0.5726495726495727, 0.358974358974359, 0.9188034188034188, 0.9722222222222222, 0.9188034188034188, 0.9188034188034188, 0.9722222222222222, 0.358974358974359, 0.9722222222222222, 0.358974358974359, 0.9444444444444443, 0.358974358974359, 0.358974358974359, 0.9743589743589745, 1.0, 1.0, 1.0, 1.0, 0.9743589743589745, 0.764957264957265, 0.9743589743589745, 1.0, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.844017094017094, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>[0.8055555555555555, 0.8611111111111112, 0.7777777777777777, 0.9444444444444443, 0.47222222222222227, 0.3333333333333333, 0.8888888888888888, 0.8333333333333334, 0.9444444444444443, 0.8333333333333334, 0.9166666666666666, 0.9722222222222222, 0.25, 0.25, 0.25, 0.8888888888888888, 0.9722222222222222, 0.8888888888888888, 0.25, 0.8888888888888888, 0.8888888888888888, 0.9722222222222222, 0.8888888888888888, 0.8888888888888888, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9166666666666666, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.8611111111111112, 0.8611111111111112, 0.9722222222222222, 0.9444444444444443, 0.8888888888888888, 0.8333333333333334, 0.9444444444444445, 0.9444444444444443, 0.8611111111111112, 0.9444444444444443, 0.9444444444444443, 0.9444444444444445, 0.9166666666666666, 0.9444444444444443, 0.861111111111111, 0.9166666666666666]</t>
+          <t>[0.25, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.8888888888888888, 0.7777777777777777, 0.8888888888888888, 0.7777777777777777, 0.25, 0.6666666666666666, 0.3333333333333333, 0.8333333333333334, 0.8888888888888888, 0.8333333333333334, 0.8333333333333334, 0.9722222222222222, 0.9166666666666666, 0.8888888888888888, 0.3333333333333333, 0.8333333333333334, 0.3333333333333333, 0.8055555555555555, 0.9444444444444443, 0.9166666666666666, 0.9166666666666666, 0.8611111111111112, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.8611111111111112, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.8888888888888888, 0.8888888888888888, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9166666666666666, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222]</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>[0.861111111111111, 1.0, 0.7777777777777778, 0.9722222222222222, 0.47222222222222215, 0.3055555555555555, 0.888888888888889, 0.861111111111111, 0.9722222222222222, 0.8888888888888888, 0.9166666666666666, 0.7777777777777778, 0.3333333333333333, 0.3333333333333333, 0.3333333333333333, 1.0, 0.9722222222222222, 0.9444444444444443, 0.3333333333333333, 1.0, 0.888888888888889, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.75, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9444444444444443, 0.9722222222222222, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.9444444444444443, 0.9722222222222222, 1.0, 0.861111111111111, 0.9166666666666666, 0.9722222222222222, 1.0, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 1.0, 0.9166666666666666, 1.0, 1.0]</t>
+          <t>[0.3333333333333333, 0.9166666666666666, 0.7777777777777778, 0.9166666666666666, 0.9166666666666666, 0.7777777777777778, 0.888888888888889, 0.7777777777777778, 0.3333333333333333, 0.5555555555555556, 0.3055555555555555, 0.8611111111111112, 1.0, 0.861111111111111, 0.8888888888888888, 0.9444444444444443, 0.9166666666666666, 1.0, 0.3055555555555555, 0.861111111111111, 0.8888888888888888, 0.861111111111111, 0.9722222222222222, 0.9722222222222222, 0.888888888888889, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.75, 0.9722222222222222, 0.9166666666666666, 0.9722222222222222, 0.9166666666666666, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 0.9444444444444443, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222]</t>
         </is>
       </c>
     </row>
@@ -9204,52 +9204,52 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.7565619967793881</v>
+        <v>0.6884057971014492</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8098292502374841</v>
+        <v>0.7587801680451348</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.7654320987654321</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8078336272780717</v>
+        <v>0.7550531151306346</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[[10, 2, 6], [0, 39, 1], [5, 1, 17]]</t>
+          <t>[[9, 2, 7], [0, 40, 0], [9, 1, 13]]</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4})</t>
+          <t>OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 4})</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>[0.8021367521367522, 0.802991452991453, 0.8576923076923076, 0.8205128205128206, 0.8132478632478632, 0.8102564102564103, 0.8038461538461539, 0.8316239316239316, 0.8123931623931624, 0.8243589743589744, 0.7123931623931623, 0.8957264957264958, 0.7833333333333333, 0.5837606837606837, 0.5837606837606837, 0.9068376068376068, 0.7987179487179488, 0.7833333333333333, 0.5837606837606837, 0.7867521367521367, 0.7833333333333333, 0.8303418803418804, 0.7833333333333333, 0.5837606837606837, 0.7914529914529915, 0.7987179487179488, 0.5837606837606837, 0.7957264957264957, 0.8303418803418804, 0.8730769230769232, 0.7311965811965812, 0.5837606837606837, 0.5837606837606837, 0.8354700854700855, 0.8730769230769232, 0.7927350427350428, 0.8021367521367522, 0.7867521367521367, 0.7833333333333333, 0.5837606837606837, 0.7987179487179488, 0.7311965811965812, 0.8021367521367522, 0.7927350427350428, 0.8893162393162394, 0.7833333333333333, 0.5837606837606837, 0.5837606837606837, 0.7123931623931623, 0.8354700854700855]</t>
+          <t>[0.8461538461538461, 0.8846153846153845, 0.8632478632478634, 0.802991452991453, 0.7987179487179488, 0.8136752136752137, 0.8576923076923076, 0.8846153846153847, 0.8679487179487179, 0.8346153846153846, 0.7987179487179488, 0.8487179487179487, 0.7914529914529915, 0.9179487179487179, 0.7833333333333333, 0.7867521367521367, 0.7867521367521367, 0.7833333333333333, 0.8735042735042734, 0.8303418803418804, 0.7914529914529915, 0.8948717948717949, 0.5837606837606837, 0.6974358974358974, 0.7970085470085471, 0.7833333333333333, 0.7799145299145299, 0.8303418803418804, 0.8145299145299145, 0.7987179487179488, 0.8730769230769232, 0.5837606837606837, 0.7833333333333333, 0.8021367521367522, 0.7927350427350428, 0.7867521367521367, 0.8303418803418804, 0.5837606837606837, 0.905982905982906, 0.7833333333333333, 0.7867521367521367, 0.7833333333333333, 0.7927350427350428, 0.7867521367521367, 0.8021367521367522, 0.7914529914529915, 0.5837606837606837, 0.5837606837606837, 0.7833333333333333, 0.8354700854700855]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[0.07954459832204146, 0.08051218538229171, 0.051665235075922786, 0.04844352157587449, 0.07539556483846854, 0.07391309485707336, 0.08546367497327256, 0.06603082711356043, 0.08263900974582183, 0.09272027138255072, 0.04775246642351385, 0.019320777017875726, 0.07302067110716998, 0.0531600571119475, 0.0531600571119475, 0.04388620486304355, 0.07471180658632548, 0.07302067110716998, 0.0531600571119475, 0.07227656884073554, 0.07302067110716998, 0.08504810359724443, 0.07302067110716998, 0.0531600571119475, 0.07498264829595223, 0.07471180658632548, 0.0531600571119475, 0.07769790206744281, 0.08504810359724443, 0.03236597645942131, 0.03179096566392701, 0.0531600571119475, 0.0531600571119475, 0.07569050484654147, 0.03236597645942131, 0.07252377242938951, 0.07954459832204146, 0.07227656884073554, 0.07302067110716998, 0.0531600571119475, 0.07471180658632548, 0.03179096566392701, 0.07954459832204146, 0.07252377242938951, 0.029650852578977163, 0.07302067110716998, 0.0531600571119475, 0.0531600571119475, 0.04775246642351385, 0.07569050484654147]</t>
+          <t>[0.0618847096725496, 0.08621470513603424, 0.05451021802194308, 0.0805121853822917, 0.07471180658632548, 0.08388922632741674, 0.06267061597825004, 0.07918101130753402, 0.10795484211604044, 0.10487600908228996, 0.07471180658632548, 0.08383478320139387, 0.07498264829595223, 0.05582773562893276, 0.07302067110716998, 0.07227656884073554, 0.07227656884073554, 0.07302067110716998, 0.040685915334741495, 0.08504810359724443, 0.07498264829595223, 0.036145864023573455, 0.0531600571119475, 0.07035854659194007, 0.07881111258954362, 0.07302067110716998, 0.06188470967254961, 0.08504810359724443, 0.07211213984469757, 0.07471180658632548, 0.03236597645942131, 0.0531600571119475, 0.07302067110716998, 0.07954459832204146, 0.07252377242938951, 0.07227656884073554, 0.08504810359724443, 0.0531600571119475, 0.027662482619969654, 0.07302067110716998, 0.07227656884073554, 0.07302067110716998, 0.07252377242938951, 0.07227656884073554, 0.07954459832204146, 0.07498264829595223, 0.0531600571119475, 0.0531600571119475, 0.07302067110716998, 0.07569050484654147]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>[19, 18, 6, 13, 14, 16, 17, 9, 15, 12, 39, 2, 31, 41, 41, 1, 22, 31, 41, 29, 31, 10, 31, 41, 28, 22, 41, 25, 10, 4, 37, 41, 41, 7, 4, 26, 19, 29, 31, 41, 22, 37, 19, 26, 3, 31, 41, 41, 39, 7]</t>
+          <t>[12, 5, 9, 20, 23, 19, 10, 4, 8, 14, 23, 11, 29, 1, 37, 32, 32, 37, 6, 15, 29, 3, 46, 45, 26, 37, 44, 15, 18, 23, 7, 46, 37, 21, 27, 32, 15, 46, 2, 37, 32, 37, 27, 32, 21, 29, 46, 46, 37, 13]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 66, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 28}), OrderedDict({'criterion': 'gini', 'max_depth': 56, 'max_features': 'sqrt', 'min_samples_leaf': 16, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 75, 'max_features': None, 'min_samples_leaf': 10, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 15, 'max_features': 'sqrt', 'min_samples_leaf': 7, 'min_samples_split': 14}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 8, 'min_samples_split': 37}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': 'log2', 'min_samples_leaf': 9, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 15, 'min_samples_split': 20}), OrderedDict({'criterion': 'gini', 'max_depth': 75, 'max_features': 'sqrt', 'min_samples_leaf': 4, 'min_samples_split': 26}), OrderedDict({'criterion': 'entropy', 'max_depth': 62, 'max_features': 'log2', 'min_samples_leaf': 14, 'min_samples_split': 36}), OrderedDict({'criterion': 'entropy', 'max_depth': 46, 'max_features': None, 'min_samples_leaf': 14, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 7, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 83, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 10, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 87, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 46}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 6, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 45}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 11, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 15, 'max_features': 'sqrt', 'min_samples_leaf': 12, 'min_samples_split': 19}), OrderedDict({'criterion': 'gini', 'max_depth': 42, 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 66, 'max_features': 'sqrt', 'min_samples_leaf': 6, 'min_samples_split': 7}), OrderedDict({'criterion': 'gini', 'max_depth': 67, 'max_features': 'log2', 'min_samples_leaf': 17, 'min_samples_split': 19}), OrderedDict({'criterion': 'gini', 'max_depth': 69, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 28, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 31}), OrderedDict({'criterion': 'entropy', 'max_depth': 17, 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 27}), OrderedDict({'criterion': 'entropy', 'max_depth': 54, 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 13}), OrderedDict({'criterion': 'entropy', 'max_depth': 57, 'max_features': None, 'min_samples_leaf': 9, 'min_samples_split': 31}), OrderedDict({'criterion': 'entropy', 'max_depth': 36, 'max_features': None, 'min_samples_leaf': 14, 'min_samples_split': 35}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 6}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 3, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 11, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 93, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49})]</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O95" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.7654320987654321</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -9258,27 +9258,27 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>[0.673076923076923, 0.6474358974358975, 0.7564102564102564, 0.7307692307692308, 0.673076923076923, 0.6794871794871794, 0.6474358974358975, 0.7029914529914528, 0.6688034188034188, 0.673076923076923, 0.6688034188034188, 0.8910256410256411, 0.6538461538461539, 0.5, 0.5, 0.8376068376068376, 0.6538461538461539, 0.6538461538461539, 0.5, 0.6538461538461539, 0.6538461538461539, 0.673076923076923, 0.6538461538461539, 0.5, 0.6474358974358975, 0.6538461538461539, 0.5, 0.673076923076923, 0.673076923076923, 0.8888888888888888, 0.6688034188034188, 0.5, 0.5, 0.7286324786324786, 0.8888888888888888, 0.6538461538461539, 0.673076923076923, 0.6538461538461539, 0.6538461538461539, 0.5, 0.6538461538461539, 0.6688034188034188, 0.673076923076923, 0.6538461538461539, 0.8354700854700855, 0.6538461538461539, 0.5, 0.5, 0.6688034188034188, 0.7286324786324786]</t>
+          <t>[0.8076923076923078, 0.7286324786324786, 0.782051282051282, 0.6474358974358975, 0.6538461538461539, 0.6474358974358975, 0.8354700854700855, 0.7564102564102564, 0.673076923076923, 0.673076923076923, 0.6538461538461539, 0.7072649572649573, 0.6474358974358975, 0.8119658119658121, 0.6538461538461539, 0.6538461538461539, 0.6538461538461539, 0.6538461538461539, 0.8632478632478632, 0.673076923076923, 0.6474358974358975, 0.8354700854700855, 0.5, 0.6538461538461539, 0.6474358974358975, 0.6538461538461539, 0.673076923076923, 0.673076923076923, 0.6816239316239318, 0.6538461538461539, 0.8888888888888888, 0.5, 0.6538461538461539, 0.673076923076923, 0.6538461538461539, 0.6538461538461539, 0.673076923076923, 0.5, 0.8632478632478632, 0.6538461538461539, 0.6538461538461539, 0.6538461538461539, 0.6538461538461539, 0.6538461538461539, 0.673076923076923, 0.6474358974358975, 0.5, 0.5, 0.6538461538461539, 0.7286324786324786]</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[0.8376068376068376, 0.8376068376068376, 0.8910256410256411, 0.8141025641025642, 0.8632478632478633, 0.7863247863247863, 0.7863247863247863, 0.8418803418803419, 0.8076923076923078, 0.9209401709401709, 0.6410256410256411, 0.8653846153846154, 0.7606837606837606, 0.5555555555555555, 0.5555555555555555, 0.9188034188034188, 0.8376068376068376, 0.7606837606837606, 0.5555555555555555, 0.7777777777777777, 0.7606837606837606, 0.8931623931623932, 0.7606837606837606, 0.5555555555555555, 0.8076923076923078, 0.8376068376068376, 0.5555555555555555, 0.8055555555555555, 0.8931623931623932, 0.8376068376068376, 0.7350427350427351, 0.5555555555555555, 0.5555555555555555, 0.9209401709401709, 0.8376068376068376, 0.8076923076923078, 0.8376068376068376, 0.7777777777777777, 0.7606837606837606, 0.5555555555555555, 0.8376068376068376, 0.7350427350427351, 0.8376068376068376, 0.8076923076923078, 0.8888888888888888, 0.7606837606837606, 0.5555555555555555, 0.5555555555555555, 0.6410256410256411, 0.9209401709401709]</t>
+          <t>[0.782051282051282, 0.9722222222222222, 0.8376068376068376, 0.8376068376068376, 0.8376068376068376, 0.8632478632478633, 0.7564102564102564, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.8376068376068376, 0.8141025641025642, 0.8076923076923078, 0.9722222222222222, 0.7606837606837606, 0.7777777777777777, 0.7777777777777777, 0.7606837606837606, 0.8376068376068376, 0.8931623931623932, 0.8076923076923078, 0.8888888888888888, 0.5555555555555555, 0.75, 0.8076923076923078, 0.7606837606837606, 0.8376068376068376, 0.8931623931623932, 0.8055555555555555, 0.8376068376068376, 0.8376068376068376, 0.5555555555555555, 0.7606837606837606, 0.8376068376068376, 0.8076923076923078, 0.7777777777777777, 0.8931623931623932, 0.5555555555555555, 0.8888888888888888, 0.7606837606837606, 0.7777777777777777, 0.7606837606837606, 0.8076923076923078, 0.7777777777777777, 0.8376068376068376, 0.8076923076923078, 0.5555555555555555, 0.5555555555555555, 0.7606837606837606, 0.9209401709401709]</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>[0.7777777777777778, 0.8632478632478633, 0.8632478632478633, 0.8632478632478633, 0.8354700854700855, 0.891025641025641, 0.891025641025641, 0.8632478632478633, 0.8632478632478633, 0.7777777777777778, 0.7521367521367521, 0.9166666666666666, 0.8632478632478633, 0.6410256410256411, 0.6410256410256411, 0.8888888888888888, 0.8632478632478633, 0.8632478632478633, 0.6410256410256411, 0.8632478632478633, 0.8632478632478633, 0.8354700854700855, 0.8632478632478633, 0.6410256410256411, 0.8632478632478633, 0.8632478632478633, 0.6410256410256411, 0.7777777777777778, 0.8354700854700855, 0.8888888888888888, 0.7521367521367521, 0.6410256410256411, 0.6410256410256411, 0.7777777777777778, 0.8888888888888888, 0.8632478632478633, 0.7777777777777778, 0.8632478632478633, 0.8632478632478633, 0.6410256410256411, 0.8632478632478633, 0.7521367521367521, 0.7777777777777778, 0.8632478632478633, 0.8888888888888888, 0.8632478632478633, 0.6410256410256411, 0.6410256410256411, 0.7521367521367521, 0.7777777777777778]</t>
+          <t>[0.9465811965811967, 0.861111111111111, 0.9465811965811967, 0.8632478632478633, 0.8632478632478633, 0.8632478632478633, 0.9465811965811967, 0.8333333333333334, 0.8333333333333334, 0.7777777777777778, 0.8632478632478633, 0.9166666666666666, 0.8632478632478633, 0.9166666666666666, 0.8632478632478633, 0.8632478632478633, 0.8632478632478633, 0.8632478632478633, 0.8888888888888888, 0.8354700854700855, 0.8632478632478633, 0.8888888888888888, 0.6410256410256411, 0.6111111111111112, 0.8632478632478633, 0.8632478632478633, 0.75, 0.8354700854700855, 0.8632478632478633, 0.8632478632478633, 0.8888888888888888, 0.6410256410256411, 0.8632478632478633, 0.7777777777777778, 0.8632478632478633, 0.8632478632478633, 0.8354700854700855, 0.6410256410256411, 0.9166666666666666, 0.8632478632478633, 0.8632478632478633, 0.8632478632478633, 0.8632478632478633, 0.8632478632478633, 0.7777777777777778, 0.8632478632478633, 0.6410256410256411, 0.6410256410256411, 0.8632478632478633, 0.7777777777777778]</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>[0.8055555555555555, 0.8055555555555555, 0.8888888888888888, 0.8333333333333334, 0.8055555555555555, 0.8333333333333334, 0.8333333333333334, 0.8888888888888888, 0.8055555555555555, 0.8333333333333334, 0.75, 0.9166666666666666, 0.8055555555555555, 0.5833333333333334, 0.5833333333333334, 0.9166666666666666, 0.8055555555555555, 0.8055555555555555, 0.5833333333333334, 0.8055555555555555, 0.8055555555555555, 0.8333333333333334, 0.8055555555555555, 0.5833333333333334, 0.8055555555555555, 0.8055555555555555, 0.5833333333333334, 0.8055555555555555, 0.8333333333333334, 0.8333333333333334, 0.75, 0.5833333333333334, 0.5833333333333334, 0.8333333333333334, 0.8333333333333334, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.5833333333333334, 0.8055555555555555, 0.75, 0.8055555555555555, 0.8055555555555555, 0.9166666666666666, 0.8055555555555555, 0.5833333333333334, 0.5833333333333334, 0.75, 0.8333333333333334]</t>
+          <t>[0.8888888888888888, 0.9166666666666666, 0.8888888888888888, 0.8055555555555555, 0.8055555555555555, 0.8333333333333334, 0.8888888888888888, 0.9166666666666666, 0.9166666666666666, 0.8333333333333334, 0.8055555555555555, 0.8611111111111112, 0.8055555555555555, 0.9444444444444443, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8333333333333334, 0.8333333333333334, 0.8055555555555555, 0.9166666666666666, 0.5833333333333334, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8333333333333334, 0.8888888888888888, 0.8055555555555555, 0.8333333333333334, 0.5833333333333334, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8333333333333334, 0.5833333333333334, 0.9166666666666666, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.8055555555555555, 0.5833333333333334, 0.5833333333333334, 0.8055555555555555, 0.8333333333333334]</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>[0.9166666666666666, 0.8611111111111112, 0.8888888888888888, 0.8611111111111112, 0.8888888888888888, 0.8611111111111112, 0.8611111111111112, 0.8611111111111112, 0.9166666666666666, 0.9166666666666666, 0.75, 0.8888888888888888, 0.8333333333333334, 0.6388888888888888, 0.6388888888888888, 0.9722222222222222, 0.8333333333333334, 0.8333333333333334, 0.6388888888888888, 0.8333333333333334, 0.8333333333333334, 0.9166666666666666, 0.8333333333333334, 0.6388888888888888, 0.8333333333333334, 0.8333333333333334, 0.6388888888888888, 0.9166666666666666, 0.9166666666666666, 0.9166666666666666, 0.75, 0.6388888888888888, 0.6388888888888888, 0.9166666666666666, 0.9166666666666666, 0.8333333333333334, 0.9166666666666666, 0.8333333333333334, 0.8333333333333334, 0.6388888888888888, 0.8333333333333334, 0.75, 0.9166666666666666, 0.8333333333333334, 0.9166666666666666, 0.8333333333333334, 0.6388888888888888, 0.6388888888888888, 0.75, 0.9166666666666666]</t>
+          <t>[0.8055555555555555, 0.9444444444444443, 0.8611111111111112, 0.861111111111111, 0.8333333333333334, 0.8611111111111112, 0.8611111111111112, 0.9444444444444443, 0.9444444444444443, 0.9166666666666666, 0.8333333333333334, 0.9444444444444443, 0.8333333333333334, 0.9444444444444445, 0.8333333333333334, 0.8333333333333334, 0.8333333333333334, 0.8333333333333334, 0.9444444444444443, 0.9166666666666666, 0.8333333333333334, 0.9444444444444443, 0.6388888888888888, 0.6666666666666666, 0.861111111111111, 0.8333333333333334, 0.8333333333333334, 0.9166666666666666, 0.8333333333333334, 0.8333333333333334, 0.9166666666666666, 0.6388888888888888, 0.8333333333333334, 0.9166666666666666, 0.8333333333333334, 0.8333333333333334, 0.9166666666666666, 0.6388888888888888, 0.9444444444444443, 0.8333333333333334, 0.8333333333333334, 0.8333333333333334, 0.8333333333333334, 0.8333333333333334, 0.9166666666666666, 0.8333333333333334, 0.6388888888888888, 0.6388888888888888, 0.8333333333333334, 0.9166666666666666]</t>
         </is>
       </c>
     </row>
@@ -9390,49 +9390,49 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.8268921095008052</v>
+        <v>0.8309178743961353</v>
       </c>
       <c r="E97" t="n">
-        <v>0.8711858877848038</v>
+        <v>0.873213241936341</v>
       </c>
       <c r="F97" t="n">
         <v>0.8765432098765432</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8720752498530278</v>
+        <v>0.8715461493239272</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[[11, 2, 5], [0, 40, 0], [3, 0, 20]]</t>
+          <t>[[12, 2, 4], [0, 40, 0], [4, 0, 19]]</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.3687505026300946, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 194, 'subsample': 0.851536055443745})</t>
+          <t>OrderedDict({'colsample_bytree': 0.7855881904116242, 'gamma': 0.43464934424969875, 'learning_rate': 0.2800504706636576, 'max_depth': 10, 'min_child_weight': 2, 'n_estimators': 411, 'subsample': 0.6500961185813666})</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>[0.967094017094017, 0.9619658119658119, 0.9452991452991453, 0.967094017094017, 0.9452991452991453, 0.9837606837606838, 0.9837606837606838, 0.9619658119658119, 0.9282051282051282, 0.9726495726495725, 0.9666666666666666, 0.8910256410256411, 0.9670940170940172, 0.9726495726495727, 0.9341880341880342, 0.9452991452991453, 0.9175213675213676, 0.9230769230769231, 0.9452991452991453, 0.9782051282051283, 0.9619658119658121, 0.9393162393162393, 0.9670940170940172, 0.9508547008547008, 0.9619658119658119, 0.9782051282051283, 0.9726495726495725, 0.9833333333333334, 0.9670940170940172, 0.9670940170940172, 0.9670940170940172, 0.9726495726495727, 0.967094017094017, 0.9837606837606838, 0.9508547008547008, 0.967094017094017, 0.9726495726495725, 0.9726495726495725, 0.9777777777777779, 0.9833333333333334, 0.9397435897435897, 0.9504273504273504, 0.9619658119658119, 0.9777777777777779, 0.9888888888888889, 0.9777777777777779, 0.9619658119658121, 0.9893162393162394, 0.9397435897435896, 0.9833333333333334]</t>
+          <t>[0.9726495726495727, 0.9615384615384615, 0.9452991452991453, 0.9837606837606838, 0.9341880341880342, 0.9452991452991453, 0.9777777777777776, 0.9341880341880342, 0.9559829059829059, 0.9286324786324787, 0.9504273504273504, 0.9893162393162394, 0.9782051282051283, 0.9833333333333334, 0.9393162393162393, 0.9615384615384615, 0.8905982905982907, 0.9452991452991453, 0.9726495726495727, 0.9833333333333334, 0.9777777777777779, 0.8961538461538462, 0.9615384615384615, 0.9726495726495727, 0.9619658119658121, 0.9615384615384615, 0.9837606837606838, 0.9726495726495727, 0.9559829059829059, 0.9448717948717948, 0.9726495726495727, 0.9722222222222221, 0.9782051282051283, 0.9722222222222223, 0.9837606837606838, 0.9615384615384617, 0.967094017094017, 0.9619658119658119, 0.9782051282051283, 0.9504273504273504, 0.9777777777777779, 0.9619658119658119, 0.9564102564102563, 0.9670940170940172, 0.9508547008547008, 0.9559829059829059, 0.9726495726495725, 0.9726495726495727, 0.9508547008547008, 0.9564102564102563]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>[0.020342957667370785, 0.013473404077294422, 0.018261419332667984, 0.02731702019572119, 0.0169114178952217, 0.013282282280273542, 0.013282282280273542, 0.013473404077294422, 0.013282282280273611, 0.016900615327594223, 0.01111111111111116, 0.03781508000962206, 0.011354983124432904, 0.017588987715603972, 0.032919854995847465, 0.0248672419247456, 0.03899440929750565, 0.031894201977855176, 0.02965701123572215, 0.010928813549183266, 0.014327397106188257, 0.040307097854877245, 0.011354983124432814, 0.011781238249649805, 0.02741045762534116, 0.010928813549183266, 0.016900615327594223, 0.013608276348795441, 0.011354983124432814, 0.011354983124432814, 0.011354983124432814, 0.017588987715603972, 0.02731702019572119, 0.013282282280273542, 0.01178123824964983, 0.020342957667370785, 0.016900615327594223, 0.016900615327594223, 0.011111111111111115, 0.013608276348795441, 0.047152073046142565, 0.010928813549183243, 0.013473404077294422, 0.020786985482077427, 0.013608276348795441, 0.011111111111111115, 0.01347340407729437, 0.013102315997227238, 0.02104022841895931, 0.013608276348795441]</t>
+          <t>[0.017588987715603972, 0.021916036589671967, 0.0248672419247456, 0.013282282280273542, 0.02784016662376465, 0.03121706387649522, 0.011111111111111117, 0.04456345014095285, 0.013282282280273533, 0.03342087999319173, 0.010928813549183267, 0.013102315997227238, 0.010928813549183266, 0.022222222222222192, 0.03211105537464822, 0.027662482619969703, 0.016954559337502006, 0.018261419332667984, 0.017588987715603972, 0.022222222222222192, 0.020786985482077427, 0.04761842146045852, 0.021367521367521382, 0.017588987715603972, 0.014327397106188257, 0.01397899763572321, 0.013282282280273542, 0.017588987715603972, 0.013282282280273573, 0.030048539882473427, 0.017588987715603972, 0.01756820922315771, 0.02069011698617126, 0.017568209223157636, 0.013282282280273542, 0.01397899763572321, 0.02731702019572119, 0.014327397106188257, 0.02069011698617126, 0.031962840942419087, 0.020786985482077427, 0.014327397106188257, 0.03680179511386491, 0.011354983124432814, 0.01178123824964983, 0.04146840844686568, 0.016900615327594223, 0.017588987715603972, 0.01178123824964983, 0.014655066837164351]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>[25, 32, 39, 25, 39, 3, 3, 32, 47, 16, 29, 50, 20, 14, 46, 39, 49, 48, 39, 9, 30, 45, 20, 36, 32, 9, 16, 6, 20, 20, 20, 14, 25, 3, 36, 25, 16, 16, 11, 6, 43, 38, 32, 11, 2, 11, 30, 1, 44, 6]</t>
+          <t>[13, 28, 41, 2, 46, 41, 12, 46, 34, 48, 39, 1, 7, 5, 45, 28, 50, 41, 13, 5, 10, 49, 28, 13, 24, 28, 2, 13, 34, 44, 13, 21, 7, 20, 2, 27, 23, 25, 7, 39, 10, 25, 32, 22, 37, 34, 19, 13, 37, 32]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.7736694564963089, 'gamma': 1.8993310852256562, 'learning_rate': 0.051313224576601445, 'max_depth': 9, 'min_child_weight': 4, 'n_estimators': 413, 'subsample': 0.6187527088202676}), OrderedDict({'colsample_bytree': 0.6832811295491101, 'gamma': 2.66841770096145, 'learning_rate': 0.029090987408361836, 'max_depth': 6, 'min_child_weight': 3, 'n_estimators': 245, 'subsample': 0.6347007911345343}), OrderedDict({'colsample_bytree': 0.9733955180212494, 'gamma': 4.05597161030651, 'learning_rate': 0.05388152862153918, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 200, 'subsample': 0.7803599616405377}), OrderedDict({'colsample_bytree': 0.6998542951573148, 'gamma': 2.726845277803809, 'learning_rate': 0.012642430262670255, 'max_depth': 3, 'min_child_weight': 4, 'n_estimators': 264, 'subsample': 0.9646433106877692}), OrderedDict({'colsample_bytree': 0.7556598214508653, 'gamma': 1.374145357899714, 'learning_rate': 0.17697797081355446, 'max_depth': 7, 'min_child_weight': 8, 'n_estimators': 434, 'subsample': 0.6997631213345993}), OrderedDict({'colsample_bytree': 0.5569445737336687, 'gamma': 0.8153338971180897, 'learning_rate': 0.02718731125255947, 'max_depth': 7, 'min_child_weight': 4, 'n_estimators': 108, 'subsample': 0.7219119407422154}), OrderedDict({'colsample_bytree': 0.5034580221872523, 'gamma': 1.5810625328754644, 'learning_rate': 0.07894611663169471, 'max_depth': 10, 'min_child_weight': 5, 'n_estimators': 194, 'subsample': 0.8551399017783091}), OrderedDict({'colsample_bytree': 0.9276486113951208, 'gamma': 2.827258013776606, 'learning_rate': 0.03146040364943813, 'max_depth': 9, 'min_child_weight': 5, 'n_estimators': 160, 'subsample': 0.5913166690246948}), OrderedDict({'colsample_bytree': 0.7240340169599296, 'gamma': 2.3981658278395166, 'learning_rate': 0.13144011346644469, 'max_depth': 13, 'min_child_weight': 8, 'n_estimators': 325, 'subsample': 0.5162744634330874}), OrderedDict({'colsample_bytree': 0.5998709977654173, 'gamma': 1.5720331568613368, 'learning_rate': 0.10147874367507043, 'max_depth': 10, 'min_child_weight': 6, 'n_estimators': 482, 'subsample': 0.7041821702226829}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.2305972770716751, 'max_depth': 1, 'min_child_weight': 5, 'n_estimators': 189, 'subsample': 0.5049978826433061}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 119, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.5169271780724558, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 79, 'subsample': 0.8319097632729375}), OrderedDict({'colsample_bytree': 0.6217766978520574, 'gamma': 1.6225486263346234, 'learning_rate': 0.07708105265300326, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 86, 'subsample': 0.7853902764499257}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.02530215790361462, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 139, 'subsample': 0.6933782655108469}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.37795609607202, 'learning_rate': 0.02903454521588627, 'max_depth': 10, 'min_child_weight': 7, 'n_estimators': 103, 'subsample': 0.9852705786569337}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 393, 'subsample': 0.8187906071202347}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.648679878212072, 'learning_rate': 0.010445882072876424, 'max_depth': 1, 'min_child_weight': 8, 'n_estimators': 335, 'subsample': 0.758734162632648}), OrderedDict({'colsample_bytree': 0.672100020386458, 'gamma': 4.490982122512977, 'learning_rate': 0.028495407470784103, 'max_depth': 8, 'min_child_weight': 8, 'n_estimators': 280, 'subsample': 0.7050390176944752}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6169073460590979, 'learning_rate': 0.022602113096157818, 'max_depth': 7, 'min_child_weight': 4, 'n_estimators': 323, 'subsample': 0.9778002071852974}), OrderedDict({'colsample_bytree': 0.8529141666501482, 'gamma': 3.0325642798998502, 'learning_rate': 0.03008888188982405, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 57, 'subsample': 0.9787020180288324}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.449724266957413, 'learning_rate': 0.037803791286354506, 'max_depth': 7, 'min_child_weight': 10, 'n_estimators': 106, 'subsample': 0.8136247210074621}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.6239110065991267, 'learning_rate': 0.08522052178477425, 'max_depth': 10, 'min_child_weight': 2, 'n_estimators': 160, 'subsample': 0.989079290258277}), OrderedDict({'colsample_bytree': 0.9603039449721542, 'gamma': 4.748462133696802, 'learning_rate': 0.06474544986839376, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 150, 'subsample': 0.7384929286952233}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.7196982765385593, 'learning_rate': 0.04516636020706413, 'max_depth': 7, 'min_child_weight': 3, 'n_estimators': 304, 'subsample': 0.5211268584658258}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.4186955472587859, 'learning_rate': 0.13969571033504805, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 171, 'subsample': 0.7500681825673505}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.8976439900399668, 'learning_rate': 0.01259096881809239, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 146, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8546988473933901, 'gamma': 0.22209753937439358, 'learning_rate': 0.2365351090547046, 'max_depth': 11, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.9632677824356672}), OrderedDict({'colsample_bytree': 0.506343531872435, 'gamma': 0.8299551179359671, 'learning_rate': 0.0855034759923556, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 234, 'subsample': 0.917638689407869}), OrderedDict({'colsample_bytree': 0.6807556989541657, 'gamma': 1.0037685002655448, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 3, 'n_estimators': 395, 'subsample': 0.8806212974477398}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.5092023571909395, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 422, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.741257042818018, 'gamma': 0.9021369361551468, 'learning_rate': 0.02700266507698215, 'max_depth': 12, 'min_child_weight': 5, 'n_estimators': 307, 'subsample': 0.9232408192066387}), OrderedDict({'colsample_bytree': 0.614534196403778, 'gamma': 1.3930427423426472, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 0.9154723991202495}), OrderedDict({'colsample_bytree': 0.5611944169117293, 'gamma': 0.0, 'learning_rate': 0.015689971722303908, 'max_depth': 13, 'min_child_weight': 5, 'n_estimators': 118, 'subsample': 0.757708042127184}), OrderedDict({'colsample_bytree': 0.831428553745317, 'gamma': 3.6452318808086086, 'learning_rate': 0.03441964500711598, 'max_depth': 14, 'min_child_weight': 5, 'n_estimators': 283, 'subsample': 0.7733520874907571}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.0913346789476487, 'max_depth': 15, 'min_child_weight': 5, 'n_estimators': 50, 'subsample': 0.5163816724534454}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.11270363225148329, 'max_depth': 6, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 5, 'n_estimators': 301, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5125388850542344, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 5, 'n_estimators': 427, 'subsample': 0.8119677902218903}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 63, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5873860682810796, 'gamma': 5.0, 'learning_rate': 0.16928828219698344, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 361, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8728145919233938, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 7, 'min_child_weight': 6, 'n_estimators': 486, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8309909152418026, 'gamma': 0.17040808166860116, 'learning_rate': 0.01, 'max_depth': 5, 'min_child_weight': 4, 'n_estimators': 78, 'subsample': 0.73178647761988}), OrderedDict({'colsample_bytree': 0.6743079517459503, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9818844024535338}), OrderedDict({'colsample_bytree': 0.5675349068683546, 'gamma': 0.0, 'learning_rate': 0.029978832763461492, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5161825973713068}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9061959106081341, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9162674189785058}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.3687505026300946, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 194, 'subsample': 0.851536055443745}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 4.860062724451689, 'learning_rate': 0.29999999999999993, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8793393484849128}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.6133311111320167})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.648306342961069, 'gamma': 1.0235881919715097, 'learning_rate': 0.020604170916671365, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 370, 'subsample': 0.6220918002990811}), OrderedDict({'colsample_bytree': 0.9477104510982339, 'gamma': 2.640182944831062, 'learning_rate': 0.045295528031544983, 'max_depth': 6, 'min_child_weight': 7, 'n_estimators': 426, 'subsample': 0.861776497464317}), OrderedDict({'colsample_bytree': 0.646503097549066, 'gamma': 3.824771447343535, 'learning_rate': 0.0670638584619096, 'max_depth': 13, 'min_child_weight': 7, 'n_estimators': 435, 'subsample': 0.9425925340647625}), OrderedDict({'colsample_bytree': 0.5946685353551967, 'gamma': 0.7323522666418021, 'learning_rate': 0.014591449375133389, 'max_depth': 2, 'min_child_weight': 4, 'n_estimators': 166, 'subsample': 0.6940986116274849}), OrderedDict({'colsample_bytree': 0.9566799337043455, 'gamma': 4.026763304289741, 'learning_rate': 0.07670734258819549, 'max_depth': 5, 'min_child_weight': 9, 'n_estimators': 128, 'subsample': 0.7602707373890011}), OrderedDict({'colsample_bytree': 0.7253234557764783, 'gamma': 3.66697447550882, 'learning_rate': 0.17844782583054936, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 80, 'subsample': 0.909460332482065}), OrderedDict({'colsample_bytree': 0.6410295778603768, 'gamma': 0.36583603183845687, 'learning_rate': 0.13259155677202777, 'max_depth': 11, 'min_child_weight': 5, 'n_estimators': 291, 'subsample': 0.5358293099624417}), OrderedDict({'colsample_bytree': 0.5438184887845225, 'gamma': 4.10010746501065, 'learning_rate': 0.033966541004300084, 'max_depth': 6, 'min_child_weight': 10, 'n_estimators': 398, 'subsample': 0.5312985336242284}), OrderedDict({'colsample_bytree': 0.534701833000318, 'gamma': 0.08280653558584207, 'learning_rate': 0.0665872835030097, 'max_depth': 5, 'min_child_weight': 6, 'n_estimators': 178, 'subsample': 0.5417883050688987}), OrderedDict({'colsample_bytree': 0.6450835881175943, 'gamma': 4.370750011045947, 'learning_rate': 0.1553927460362277, 'max_depth': 5, 'min_child_weight': 7, 'n_estimators': 484, 'subsample': 0.6069787357681367}), OrderedDict({'colsample_bytree': 0.8004265794916685, 'gamma': 0.6385657933349196, 'learning_rate': 0.09646974011027995, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 500, 'subsample': 0.6396266032935332}), OrderedDict({'colsample_bytree': 0.7855881904116242, 'gamma': 0.43464934424969875, 'learning_rate': 0.2800504706636576, 'max_depth': 10, 'min_child_weight': 2, 'n_estimators': 411, 'subsample': 0.6500961185813666}), OrderedDict({'colsample_bytree': 0.5705316332785124, 'gamma': 0.6551713838061463, 'learning_rate': 0.013197044527940719, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 241, 'subsample': 0.8007949878248748}), OrderedDict({'colsample_bytree': 0.972616849690688, 'gamma': 0.0, 'learning_rate': 0.0708779901233969, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 142, 'subsample': 0.7355918691765306}), OrderedDict({'colsample_bytree': 0.5017373213102987, 'gamma': 1.8452528334009932, 'learning_rate': 0.021810343347748385, 'max_depth': 13, 'min_child_weight': 10, 'n_estimators': 401, 'subsample': 0.7048461406095855}), OrderedDict({'colsample_bytree': 0.5830930696197784, 'gamma': 2.32726650664467, 'learning_rate': 0.19437291157990907, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 484, 'subsample': 0.5097619520561693}), OrderedDict({'colsample_bytree': 0.5287626092992697, 'gamma': 0.28637445290699687, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.6130040249759277}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 4.748489593284343, 'learning_rate': 0.01444910542236885, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 185, 'subsample': 0.8281536849986975}), OrderedDict({'colsample_bytree': 0.7498405711024725, 'gamma': 0.45361398494326355, 'learning_rate': 0.06032377436469224, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 175, 'subsample': 0.9374538802968142}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 358, 'subsample': 0.9600605329339832}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.05408176179160519, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 425, 'subsample': 0.953003984169145}), OrderedDict({'colsample_bytree': 0.9208005597503505, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 166, 'subsample': 0.7455686951644984}), OrderedDict({'colsample_bytree': 0.5588292444963899, 'gamma': 1.7354038081103438, 'learning_rate': 0.019577156098800234, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 218, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7161452676851011, 'gamma': 0.26606695965401356, 'learning_rate': 0.2075441771770218, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 443, 'subsample': 0.8393866520796733}), OrderedDict({'colsample_bytree': 0.9113515815888746, 'gamma': 0.6526736191781196, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 80, 'subsample': 0.8130082061472925}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.8297154609533453, 'learning_rate': 0.01, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 440, 'subsample': 0.862900922881622}), OrderedDict({'colsample_bytree': 0.6266763218538605, 'gamma': 0.7064689089752287, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 3, 'n_estimators': 365, 'subsample': 0.816050392849485}), OrderedDict({'colsample_bytree': 0.6728603687827842, 'gamma': 0.8221616182944993, 'learning_rate': 0.03800696476974529, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 125, 'subsample': 0.7088138636999052}), OrderedDict({'colsample_bytree': 0.8944713320620228, 'gamma': 0.7835171333805557, 'learning_rate': 0.03146086804626778, 'max_depth': 1, 'min_child_weight': 7, 'n_estimators': 455, 'subsample': 0.8215270855103498}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.09387404295716466, 'learning_rate': 0.19084735232659045, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 135, 'subsample': 0.6436165115240368}), OrderedDict({'colsample_bytree': 0.5087229631682362, 'gamma': 0.9895677089678924, 'learning_rate': 0.011422541897364254, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 131, 'subsample': 0.859286763009929}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.5217594438818344, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5902746639641865}), OrderedDict({'colsample_bytree': 0.7785377593066267, 'gamma': 0.5001149044512735, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 4, 'n_estimators': 194, 'subsample': 0.534843050166342}), OrderedDict({'colsample_bytree': 0.5976991163577015, 'gamma': 1.03408881391227, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.630785058709613}), OrderedDict({'colsample_bytree': 0.851780885944708, 'gamma': 0.0, 'learning_rate': 0.13388909071057453, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.6271838772240979}), OrderedDict({'colsample_bytree': 0.5451618369204178, 'gamma': 1.2328001486497493, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 7, 'n_estimators': 206, 'subsample': 0.8030633615084423}), OrderedDict({'colsample_bytree': 0.507830889337675, 'gamma': 3.035488638949024, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 1, 'n_estimators': 271, 'subsample': 0.9294735435066405}), OrderedDict({'colsample_bytree': 0.9917027711883879, 'gamma': 2.4081590865131712, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 313, 'subsample': 0.736897195248056}), OrderedDict({'colsample_bytree': 0.9034011611195939, 'gamma': 0.6347759274864145, 'learning_rate': 0.14880002064919548, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 203, 'subsample': 0.5593039686817306}), OrderedDict({'colsample_bytree': 0.6261819477397416, 'gamma': 3.098188459457105, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 423, 'subsample': 0.9820346869619867}), OrderedDict({'colsample_bytree': 0.7617044950731875, 'gamma': 0.32911210980249966, 'learning_rate': 0.1281428570216671, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 69, 'subsample': 0.7277938094963032}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.6824573982807993, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 260, 'subsample': 0.5877826326262668}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.8269971152634152, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 10, 'n_estimators': 182, 'subsample': 0.8114521946372175}), OrderedDict({'colsample_bytree': 0.5254508519321672, 'gamma': 1.2981659691991534, 'learning_rate': 0.06935536540846635, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 260, 'subsample': 0.8137418422870084}), OrderedDict({'colsample_bytree': 0.9863597623985744, 'gamma': 2.959492900728853, 'learning_rate': 0.060623968604276775, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 431, 'subsample': 0.5569385583035344}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 2.0968110703709817, 'learning_rate': 0.29999999999999993, 'max_depth': 5, 'min_child_weight': 10, 'n_estimators': 197, 'subsample': 0.9921294261677285}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.8301270461493481, 'learning_rate': 0.01, 'max_depth': 7, 'min_child_weight': 7, 'n_estimators': 474, 'subsample': 0.7538197352829346}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.5063154410987009, 'learning_rate': 0.18186730317716351, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 489, 'subsample': 0.9108555253189043}), OrderedDict({'colsample_bytree': 0.913212710752374, 'gamma': 3.6263429433845937, 'learning_rate': 0.01, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 192, 'subsample': 0.6297041823550044}), OrderedDict({'colsample_bytree': 0.8009021939788846, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 124, 'subsample': 0.8720536631241143})]</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="O97" t="n">
         <v>0.8765432098765432</v>
@@ -9444,27 +9444,27 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>[0.9465811965811964, 0.9465811965811964, 0.9465811965811964, 0.9743589743589745, 0.9465811965811964, 0.9743589743589745, 0.9743589743589745, 0.9465811965811964, 0.9188034188034188, 0.9465811965811964, 0.9722222222222222, 0.8910256410256411, 0.9743589743589745, 0.9743589743589745, 0.9188034188034188, 0.9188034188034188, 0.8632478632478632, 0.8910256410256411, 0.8910256410256411, 0.9743589743589745, 0.9743589743589745, 0.8910256410256411, 0.9743589743589745, 0.9465811965811964, 0.9188034188034188, 0.9743589743589745, 0.9465811965811964, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9465811965811964, 0.9465811965811964, 0.9465811965811964, 0.9465811965811964, 1.0, 1.0, 0.8632478632478632, 0.9465811965811964, 0.9465811965811964, 1.0, 1.0, 0.9722222222222222, 0.9743589743589745, 0.9743589743589745, 0.9188034188034188, 1.0]</t>
+          <t>[0.9743589743589745, 0.9465811965811964, 0.9188034188034188, 0.9743589743589745, 0.8910256410256411, 0.9743589743589745, 0.9722222222222222, 0.8910256410256411, 0.9465811965811964, 0.8910256410256411, 0.9465811965811964, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9188034188034188, 0.9188034188034188, 0.8910256410256411, 0.9465811965811964, 0.9743589743589745, 1.0, 1.0, 0.8632478632478632, 0.9188034188034188, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9465811965811964, 0.9188034188034188, 0.9743589743589745, 1.0, 0.9743589743589745, 1.0, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9188034188034188, 1.0, 0.9743589743589745, 0.8910256410256411, 0.9743589743589745, 0.9465811965811964, 0.9465811965811964, 0.9465811965811964, 0.9743589743589745, 0.9465811965811964, 0.9743589743589745]</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[1.0, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9188034188034188, 0.9722222222222222, 1.0, 0.9743589743589745, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.8675213675213675, 0.9722222222222222, 1.0, 0.9188034188034188, 0.9743589743589745, 0.9465811965811967, 0.9188034188034188, 0.9465811965811967, 0.9722222222222222, 0.9743589743589745, 0.9722222222222222, 0.9722222222222222, 0.9743589743589745, 0.9465811965811967, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 1.0, 0.9722222222222222, 0.9743589743589745, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9465811965811967, 0.9444444444444445, 0.9743589743589745, 0.9722222222222222, 1.0, 1.0, 0.9465811965811967, 1.0, 0.9743589743589745, 0.9722222222222222]</t>
+          <t>[1.0, 1.0, 0.9743589743589745, 1.0, 0.9465811965811967, 0.9743589743589745, 0.9722222222222222, 0.9188034188034188, 0.9444444444444445, 0.9743589743589745, 0.9444444444444445, 1.0, 0.9722222222222222, 1.0, 0.9444444444444445, 0.9722222222222222, 0.8931623931623932, 0.9743589743589745, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 0.8931623931623932, 0.9722222222222222, 1.0, 0.9743589743589745, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9444444444444445, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 1.0, 0.9444444444444445, 1.0, 0.9743589743589745, 0.9743589743589745, 1.0, 0.9722222222222222, 0.9743589743589745, 0.9465811965811967, 0.9722222222222222, 0.9743589743589745, 1.0, 0.9722222222222222, 1.0, 0.9743589743589745, 0.9743589743589745]</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>[0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9166666666666666, 0.9444444444444443, 1.0, 1.0, 0.9444444444444445, 0.9166666666666666, 1.0, 0.9444444444444443, 0.8354700854700855, 0.9722222222222222, 0.9444444444444445, 0.8888888888888888, 0.9166666666666666, 0.8888888888888888, 0.8888888888888888, 0.9444444444444445, 1.0, 0.9444444444444445, 0.8888888888888888, 0.9444444444444445, 0.9444444444444445, 1.0, 1.0, 1.0, 1.0, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 0.9166666666666666, 1.0, 0.9444444444444445, 1.0, 1.0, 1.0, 0.9722222222222222, 1.0, 1.0, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 1.0, 0.9722222222222222, 0.9444444444444445, 1.0, 0.9166666666666666, 1.0]</t>
+          <t>[0.9444444444444445, 0.9444444444444445, 0.9166666666666666, 1.0, 0.9166666666666666, 0.8888888888888888, 0.9722222222222222, 0.8888888888888888, 0.9722222222222222, 0.8888888888888888, 0.9444444444444443, 1.0, 1.0, 0.9444444444444445, 0.8888888888888888, 1.0, 0.8632478632478633, 0.9444444444444445, 0.9444444444444445, 1.0, 0.9444444444444445, 0.9188034188034188, 0.9722222222222222, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 1.0, 0.9444444444444445, 0.9444444444444443, 0.9166666666666666, 0.9444444444444445, 0.9444444444444443, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9444444444444445, 0.9444444444444445, 0.9166666666666666, 0.9444444444444445, 0.9444444444444445, 1.0, 0.9444444444444445, 0.9444444444444445, 0.8888888888888888, 1.0, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445]</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>[0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9444444444444445, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9722222222222222]</t>
+          <t>[0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 1.0, 0.9722222222222222, 0.9444444444444445, 0.9444444444444445, 0.9444444444444445, 1.0, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.8888888888888888, 0.9444444444444443, 1.0, 1.0, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9444444444444445, 1.0, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 1.0, 0.9722222222222222, 1.0, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443]</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>[0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9166666666666666, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222]</t>
+          <t>[0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9166666666666666, 0.9166666666666666, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.8333333333333334, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 1.0, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444445, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444443, 0.9722222222222222, 0.9722222222222222, 0.9444444444444443, 0.9444444444444445]</t>
         </is>
       </c>
     </row>
@@ -9576,52 +9576,52 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.4642857142857142</v>
+        <v>0.5238095238095237</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5382575757575758</v>
+        <v>0.6051515151515152</v>
       </c>
       <c r="F99" t="n">
-        <v>0.55</v>
+        <v>0.625</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5295652173913045</v>
+        <v>0.59375</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[[1, 5, 1], [3, 14, 4], [1, 4, 7]]</t>
+          <t>[[1, 5, 1], [2, 16, 3], [1, 3, 8]]</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50})</t>
+          <t>OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 104})</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>[0.6987745098039216, 0.733578431372549, 0.7066176470588236, 0.6901960784313725, 0.6909313725490196, 0.6745098039215687, 0.6865196078431373, 0.6860294117647059, 0.7024509803921569, 0.6980392156862745, 0.7183823529411764, 0.7419117647058824, 0.6901960784313725, 0.6708333333333333, 0.7063725490196078, 0.6546568627450979, 0.7262254901960784, 0.7063725490196079, 0.7022058823529412, 0.6551470588235294, 0.7419117647058824, 0.7465686274509803, 0.6627450980392158, 0.7142156862745097, 0.7098039215686274, 0.7502450980392156, 0.7022058823529411, 0.7183823529411765, 0.7340686274509803, 0.6585784313725489, 0.738235294117647, 0.7223039215686274, 0.734313725490196, 0.7348039215686274, 0.7026960784313725, 0.6823529411764706, 0.6987745098039215, 0.6987745098039215, 0.7142156862745097, 0.6823529411764706, 0.7419117647058824, 0.7502450980392157, 0.7463235294117647, 0.7379901960784313, 0.7463235294117646, 0.7301470588235294, 0.7387254901960785, 0.7541666666666667, 0.7379901960784314, 0.7345588235294117]</t>
+          <t>[0.6749999999999999, 0.6588235294117648, 0.6943627450980393, 0.6818627450980392, 0.6980392156862745, 0.7227941176470588, 0.6705882352941177, 0.6901960784313725, 0.6946078431372549, 0.7061274509803922, 0.7026960784313726, 0.6865196078431373, 0.666421568627451, 0.7139705882352941, 0.7306372549019607, 0.7340686274509803, 0.7019607843137254, 0.698529411764706, 0.7142156862745098, 0.7063725490196079, 0.7424019607843136, 0.7063725490196079, 0.738235294117647, 0.7024509803921568, 0.6580882352941175, 0.6703431372549019, 0.7024509803921569, 0.6551470588235293, 0.6713235294117645, 0.6389705882352941, 0.7384803921568627, 0.7147058823529411, 0.674264705882353, 0.6901960784313725, 0.6551470588235294, 0.6987745098039215, 0.7022058823529412, 0.6544117647058824, 0.7264705882352941, 0.7306372549019609, 0.7306372549019607, 0.7345588235294117, 0.7306372549019607, 0.7301470588235294, 0.718627450980392, 0.6669117647058823, 0.6708333333333333, 0.7142156862745097, 0.6904411764705882, 0.6473039215686275]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>[0.07115614412941723, 0.04709200219263717, 0.07842218083394037, 0.06976215290328192, 0.05872336242830939, 0.04986164055433496, 0.06289714268134834, 0.06961129513671832, 0.07197457393121391, 0.06520989828465079, 0.033196084222229486, 0.05448458296484907, 0.06701269052979086, 0.05976372805540461, 0.055560000783328296, 0.06326378747020266, 0.05315633475555254, 0.0670091046623584, 0.07453559924999299, 0.041886674062907955, 0.042710399210169406, 0.05562915635971256, 0.05272400081023738, 0.04969751834336054, 0.05633737180367473, 0.054477967145145814, 0.036944007218464255, 0.053296285431102576, 0.03358826963358019, 0.04490447591209183, 0.031924901666336124, 0.03870376655519977, 0.04592825967228037, 0.055990821802375315, 0.08107004366600333, 0.07255233166790598, 0.06524581620382287, 0.06524581620382287, 0.07872722997613653, 0.07255233166790598, 0.042710399210169406, 0.052581384531324986, 0.054958829090878264, 0.040986372581733634, 0.0516337283852218, 0.03612515623116217, 0.04204985278434313, 0.030213739423990124, 0.04488306606479955, 0.03871928468523083]</t>
+          <t>[0.06792975174859621, 0.04945031370544673, 0.07508805544653573, 0.06956899634051235, 0.06956899634051235, 0.04291246018063204, 0.04550778268906202, 0.06794743626200336, 0.0707115276747551, 0.06395790949406654, 0.0798192161477171, 0.07274665053044498, 0.0780836347622567, 0.06418387177777614, 0.06682417235951393, 0.041637821618788054, 0.06133036669772324, 0.07786252042965598, 0.06585068683434647, 0.0616488564947692, 0.04790647928413233, 0.06743804738072703, 0.04145418718001674, 0.07277141984548835, 0.0437553204322447, 0.038815358617312064, 0.07323224263270241, 0.071245577643232, 0.07426268359376897, 0.050922619980539374, 0.047015400717765415, 0.038044711044332505, 0.07430311890782915, 0.0729939654539683, 0.041886674062907955, 0.06524581620382287, 0.056335239145229254, 0.0654691685744759, 0.0698482110541591, 0.05165350317857438, 0.04259631869988308, 0.03871928468523083, 0.04403860020871402, 0.03612515623116217, 0.04437289993189551, 0.06612379893693038, 0.06621095688197272, 0.05631604158490178, 0.070614612446469, 0.0589785538929217]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>[34, 18, 27, 39, 38, 45, 41, 42, 31, 37, 23, 7, 39, 46, 29, 50, 20, 28, 32, 49, 7, 4, 47, 24, 26, 3, 33, 22, 17, 48, 11, 21, 16, 14, 30, 43, 35, 35, 24, 43, 7, 2, 5, 13, 6, 19, 10, 1, 12, 15]</t>
+          <t>[36, 44, 30, 35, 28, 12, 40, 32, 29, 20, 21, 34, 43, 17, 7, 5, 25, 27, 15, 18, 1, 18, 3, 23, 45, 41, 22, 47, 38, 50, 2, 14, 37, 32, 46, 26, 24, 48, 11, 6, 7, 4, 7, 10, 13, 42, 39, 16, 31, 49]</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 16, 'n_estimators': 131}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 93}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 6, 'min_samples_split': 14, 'n_estimators': 55}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 8, 'min_samples_split': 2, 'n_estimators': 226}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 7, 'min_samples_split': 9, 'n_estimators': 58}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 9, 'min_samples_split': 10, 'n_estimators': 97}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 5, 'min_samples_split': 16, 'n_estimators': 236}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 3, 'min_samples_split': 16, 'n_estimators': 191}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 3, 'min_samples_split': 15, 'n_estimators': 271}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 12, 'n_estimators': 100}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 149}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 94}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 15, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 10, 'min_samples_split': 6, 'n_estimators': 298}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 2, 'min_samples_split': 6, 'n_estimators': 174}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 4, 'min_samples_split': 3, 'n_estimators': 299}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 228}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 14, 'n_estimators': 82}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 63}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 80}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 3, 'min_samples_split': 13, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 12, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 230}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 2, 'min_samples_split': 9, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 69}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 54}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 72}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 74}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 297}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 81}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 200})]</t>
+          <t>[OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 5, 'n_estimators': 97}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 4, 'min_samples_split': 19, 'n_estimators': 232}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 3, 'min_samples_split': 17, 'n_estimators': 187}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 4, 'min_samples_split': 15, 'n_estimators': 190}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 6, 'min_samples_split': 3, 'n_estimators': 266}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 2, 'min_samples_split': 7, 'n_estimators': 237}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 6, 'min_samples_split': 5, 'n_estimators': 79}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 8, 'min_samples_split': 4, 'n_estimators': 294}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 7, 'min_samples_split': 3, 'n_estimators': 179}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 8, 'min_samples_split': 8, 'n_estimators': 114}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 6, 'min_samples_split': 14, 'n_estimators': 53}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 278}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 295}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 114}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 102}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 7, 'min_samples_split': 14, 'n_estimators': 61}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 6, 'min_samples_split': 14, 'n_estimators': 83}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 6, 'min_samples_split': 14, 'n_estimators': 89}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 7, 'min_samples_split': 14, 'n_estimators': 91}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 104}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 259}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 55}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 2, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 248}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 9, 'min_samples_split': 20, 'n_estimators': 155}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 9, 'min_samples_split': 2, 'n_estimators': 124}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 75}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 220}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 15, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 14, 'n_estimators': 89}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 18, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 65}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 185}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 200}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 192}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 245}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 226})]</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="O99" t="n">
-        <v>0.55</v>
+        <v>0.625</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -9630,27 +9630,27 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>[0.6470588235294118, 0.7254901960784315, 0.6470588235294118, 0.6078431372549019, 0.6274509803921569, 0.6470588235294118, 0.6078431372549019, 0.6274509803921569, 0.6470588235294118, 0.6470588235294118, 0.6862745098039215, 0.7058823529411765, 0.6666666666666666, 0.6274509803921569, 0.6862745098039215, 0.6078431372549019, 0.6862745098039215, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.7254901960784315, 0.6666666666666666, 0.6078431372549019, 0.6666666666666666, 0.6862745098039215, 0.6666666666666666, 0.7058823529411765, 0.7058823529411765, 0.7058823529411765, 0.6470588235294118, 0.7254901960784315, 0.6862745098039215, 0.7450980392156863, 0.7254901960784315, 0.6274509803921569, 0.6078431372549019, 0.6274509803921569, 0.6274509803921569, 0.6470588235294118, 0.6078431372549019, 0.7254901960784315, 0.7254901960784315, 0.7058823529411765, 0.7058823529411765, 0.6666666666666666, 0.7254901960784315, 0.7058823529411765, 0.7254901960784315, 0.7058823529411765, 0.6862745098039215]</t>
+          <t>[0.6078431372549019, 0.6274509803921569, 0.6470588235294118, 0.6274509803921569, 0.6274509803921569, 0.6862745098039215, 0.6274509803921569, 0.6666666666666666, 0.6078431372549019, 0.6470588235294118, 0.6470588235294118, 0.6274509803921569, 0.6274509803921569, 0.6666666666666666, 0.6862745098039215, 0.7058823529411765, 0.6470588235294118, 0.6078431372549019, 0.6666666666666666, 0.6470588235294118, 0.6862745098039215, 0.6666666666666666, 0.7058823529411765, 0.6274509803921569, 0.6470588235294118, 0.6666666666666666, 0.6666666666666666, 0.6470588235294118, 0.6666666666666666, 0.5882352941176471, 0.6666666666666666, 0.6862745098039215, 0.6078431372549019, 0.5882352941176471, 0.6470588235294118, 0.6274509803921569, 0.6666666666666666, 0.6078431372549019, 0.7058823529411765, 0.7058823529411765, 0.6862745098039215, 0.6862745098039215, 0.6666666666666666, 0.7254901960784315, 0.6862745098039215, 0.6470588235294118, 0.6470588235294118, 0.6862745098039215, 0.6862745098039215, 0.6274509803921569]</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>[0.6470588235294118, 0.6862745098039215, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.607843137254902, 0.6470588235294118, 0.6274509803921569, 0.6666666666666666, 0.6274509803921569, 0.6862745098039215, 0.6862745098039215, 0.6274509803921569, 0.6666666666666666, 0.6862745098039215, 0.6078431372549019, 0.6862745098039215, 0.6666666666666666, 0.6862745098039215, 0.5882352941176471, 0.7058823529411765, 0.7254901960784313, 0.6470588235294118, 0.7058823529411763, 0.6666666666666666, 0.7254901960784313, 0.6470588235294118, 0.6862745098039215, 0.7058823529411763, 0.607843137254902, 0.6862745098039215, 0.7058823529411765, 0.6862745098039215, 0.6862745098039215, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.7058823529411765, 0.6862745098039215, 0.6862745098039215, 0.7058823529411763, 0.7254901960784313, 0.6862745098039215, 0.7058823529411765, 0.7254901960784313, 0.7058823529411765, 0.7254901960784313]</t>
+          <t>[0.6470588235294118, 0.6470588235294118, 0.6666666666666666, 0.6274509803921569, 0.6274509803921569, 0.7058823529411763, 0.6470588235294118, 0.6078431372549019, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.607843137254902, 0.5882352941176471, 0.6862745098039215, 0.6862745098039215, 0.7058823529411763, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.7254901960784313, 0.6862745098039215, 0.7058823529411763, 0.6470588235294118, 0.6470588235294118, 0.6666666666666666, 0.6666666666666666, 0.6078431372549019, 0.6274509803921569, 0.6274509803921569, 0.7254901960784313, 0.6862745098039215, 0.6470588235294118, 0.6666666666666666, 0.5882352941176471, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.6862745098039215, 0.7254901960784313, 0.7254901960784313, 0.7254901960784313, 0.6862745098039215, 0.6862745098039215, 0.6078431372549019, 0.6078431372549019, 0.6470588235294117, 0.6470588235294118, 0.5882352941176471]</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>[0.6997549019607843, 0.7990196078431372, 0.6789215686274511, 0.698529411764706, 0.6997549019607843, 0.6997549019607843, 0.6997549019607843, 0.698529411764706, 0.7193627450980392, 0.6997549019607843, 0.7205882352941178, 0.8186274509803922, 0.6997549019607844, 0.6801470588235293, 0.6801470588235294, 0.6200980392156862, 0.7585784313725489, 0.6997549019607844, 0.7193627450980392, 0.6801470588235293, 0.7585784313725489, 0.801470588235294, 0.6801470588235293, 0.738970588235294, 0.7193627450980392, 0.8210784313725489, 0.7193627450980392, 0.7205882352941178, 0.738970588235294, 0.6801470588235294, 0.7818627450980392, 0.7205882352941178, 0.7205882352941178, 0.8002450980392156, 0.6997549019607843, 0.6397058823529412, 0.7009803921568626, 0.7009803921568626, 0.738970588235294, 0.6397058823529412, 0.7585784313725489, 0.7794117647058822, 0.7794117647058822, 0.738970588235294, 0.8210784313725489, 0.7193627450980392, 0.7818627450980392, 0.801470588235294, 0.7585784313725489, 0.7818627450980392]</t>
+          <t>[0.7009803921568626, 0.6409313725490197, 0.6997549019607843, 0.6580882352941176, 0.698529411764706, 0.7414215686274511, 0.6801470588235294, 0.6789215686274509, 0.7193627450980392, 0.738970588235294, 0.698529411764706, 0.6801470588235294, 0.6384803921568628, 0.7193627450980392, 0.7806372549019608, 0.7193627450980392, 0.698529411764706, 0.7181372549019608, 0.7181372549019608, 0.7193627450980392, 0.801470588235294, 0.6997549019607844, 0.738970588235294, 0.6997549019607843, 0.6580882352941176, 0.698529411764706, 0.7193627450980392, 0.6017156862745098, 0.6213235294117647, 0.6409313725490197, 0.801470588235294, 0.7414215686274511, 0.6200980392156862, 0.698529411764706, 0.6801470588235293, 0.7009803921568626, 0.738970588235294, 0.7193627450980392, 0.6997549019607844, 0.761029411764706, 0.7818627450980392, 0.7818627450980392, 0.7818627450980392, 0.7193627450980392, 0.7401960784313726, 0.6605392156862745, 0.6801470588235294, 0.7193627450980392, 0.6997549019607843, 0.6605392156862745]</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>[0.6642156862745098, 0.6813725490196078, 0.7022058823529411, 0.6825980392156863, 0.6838235294117648, 0.6629901960784313, 0.6825980392156863, 0.6617647058823529, 0.6433823529411765, 0.7009803921568628, 0.7218137254901961, 0.7022058823529411, 0.6421568627450981, 0.6029411764705882, 0.6629901960784313, 0.6629901960784313, 0.6838235294117648, 0.6825980392156863, 0.6225490196078431, 0.6458333333333334, 0.7022058823529411, 0.7218137254901961, 0.6225490196078431, 0.6629901960784313, 0.6617647058823529, 0.7414215686274509, 0.6813725490196078, 0.6617647058823529, 0.7230392156862745, 0.6237745098039216, 0.7414215686274509, 0.7022058823529411, 0.7022058823529411, 0.6642156862745098, 0.6825980392156863, 0.7034313725490197, 0.7034313725490197, 0.7034313725490197, 0.6813725490196078, 0.7034313725490197, 0.7022058823529411, 0.7230392156862745, 0.7230392156862745, 0.7230392156862745, 0.7414215686274509, 0.7230392156862745, 0.7022058823529411, 0.7414215686274509, 0.7022058823529411, 0.7022058823529411]</t>
+          <t>[0.6237745098039216, 0.6225490196078431, 0.6225490196078431, 0.6813725490196078, 0.7218137254901961, 0.6825980392156863, 0.6433823529411765, 0.6825980392156863, 0.6838235294117648, 0.6825980392156863, 0.6629901960784313, 0.7022058823529411, 0.6629901960784313, 0.6617647058823529, 0.6629901960784313, 0.7230392156862745, 0.7022058823529411, 0.6838235294117648, 0.7034313725490197, 0.7034313725490197, 0.7022058823529411, 0.6433823529411765, 0.7230392156862745, 0.7022058823529411, 0.6017156862745098, 0.6029411764705882, 0.6237745098039216, 0.625, 0.625, 0.6041666666666666, 0.7218137254901961, 0.6825980392156863, 0.6825980392156863, 0.6825980392156863, 0.6458333333333334, 0.7034313725490197, 0.6629901960784313, 0.5625, 0.7230392156862745, 0.6825980392156863, 0.6825980392156863, 0.7022058823529411, 0.7022058823529411, 0.7230392156862745, 0.6838235294117648, 0.625, 0.625, 0.7022058823529411, 0.6041666666666666, 0.6053921568627451]</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>[0.8357843137254902, 0.7757352941176471, 0.8578431372549019, 0.8149509803921569, 0.7965686274509803, 0.7549019607843137, 0.7953431372549019, 0.8149509803921569, 0.8357843137254902, 0.8149509803921569, 0.7769607843137255, 0.7965686274509803, 0.8149509803921569, 0.7769607843137255, 0.8161764705882352, 0.7745098039215685, 0.8161764705882352, 0.8357843137254902, 0.8357843137254902, 0.7144607843137255, 0.8174019607843137, 0.8174019607843137, 0.7561274509803922, 0.7965686274509803, 0.8149509803921569, 0.7965686274509803, 0.7573529411764706, 0.8174019607843137, 0.7965686274509803, 0.7340686274509803, 0.7561274509803922, 0.7965686274509803, 0.8174019607843137, 0.7977941176470589, 0.8566176470588235, 0.8137254901960785, 0.8149509803921569, 0.8149509803921569, 0.8566176470588235, 0.8137254901960785, 0.8174019607843137, 0.8370098039215685, 0.8370098039215685, 0.8161764705882352, 0.7769607843137255, 0.7965686274509803, 0.7977941176470589, 0.7769607843137255, 0.8174019607843137, 0.7769607843137255]</t>
+          <t>[0.7953431372549019, 0.7561274509803922, 0.8357843137254902, 0.8149509803921569, 0.8149509803921569, 0.7977941176470589, 0.7549019607843137, 0.8149509803921569, 0.8149509803921569, 0.8149509803921569, 0.8578431372549019, 0.8149509803921569, 0.8149509803921569, 0.8357843137254902, 0.8370098039215685, 0.8161764705882352, 0.8149509803921569, 0.8357843137254902, 0.8357843137254902, 0.8149509803921569, 0.7965686274509803, 0.8357843137254902, 0.8174019607843137, 0.8357843137254902, 0.7365196078431372, 0.7169117647058822, 0.8357843137254902, 0.7941176470588235, 0.8161764705882352, 0.7340686274509803, 0.7769607843137255, 0.7769607843137255, 0.8137254901960785, 0.8149509803921569, 0.7144607843137255, 0.8149509803921569, 0.7953431372549019, 0.7352941176470589, 0.8566176470588235, 0.8174019607843137, 0.7769607843137255, 0.7769607843137255, 0.7769607843137255, 0.7965686274509803, 0.7965686274509803, 0.7941176470588235, 0.7941176470588235, 0.8161764705882352, 0.8149509803921569, 0.7549019607843137]</t>
         </is>
       </c>
     </row>
@@ -9780,31 +9780,31 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00853943938980711, 'max_iter': 3000, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'relu', 'alpha': 2.2213529340215983e-06, 'learning_rate_init': 0.007563685839638539, 'max_iter': 1117, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>[0.6399509803921569, 0.6240196078431373, 0.5360294117647058, 0.6345588235294117, 0.5955882352941176, 0.42524509803921573, 0.5600490196078431, 0.536764705882353, 0.7019607843137254, 0.5718137254901962, 0.28946078431372546, 0.7110294117647058, 0.5453431372549019, 0.33357843137254906, 0.3803921568627451, 0.32083333333333336, 0.4411764705882352, 0.3759803921568628, 0.6169117647058824, 0.28946078431372546, 0.6345588235294117, 0.6348039215686274, 0.6384803921568627, 0.654656862745098, 0.6870098039215686, 0.7031862745098039, 0.7183823529411765, 0.7306372549019607, 0.7183823529411765, 0.7183823529411765, 0.7110294117647058, 0.7110294117647058, 0.6504901960784314, 0.6191176470588234, 0.7110294117647058, 0.6308823529411766, 0.6308823529411766, 0.6308823529411766, 0.6308823529411766, 0.5678921568627451, 0.7031862745098039, 0.6992647058823529, 0.7031862745098039, 0.6073529411764705, 0.6112745098039216, 0.7183823529411766, 0.7110294117647058, 0.7110294117647058, 0.6112745098039216, 0.5159313725490197]</t>
+          <t>[0.6237745098039216, 0.6240196078431373, 0.5676470588235294, 0.5600490196078433, 0.5093137254901962, 0.5512254901960784, 0.5764705882352941, 0.6671568627450981, 0.48504901960784325, 0.6284313725490197, 0.6867647058823529, 0.6666666666666667, 0.6666666666666667, 0.6666666666666667, 0.3411764705882353, 0.4779411764705882, 0.6544117647058824, 0.6544117647058824, 0.4174019607843137, 0.32083333333333336, 0.7110294117647058, 0.6308823529411766, 0.5953431372549021, 0.6308823529411766, 0.6384803921568627, 0.7110294117647058, 0.6303921568627451, 0.6867647058823529, 0.6752450980392157, 0.6507352941176471, 0.7267156862745098, 0.653921568627451, 0.6465686274509804, 0.6284313725490196, 0.6870098039215686, 0.6352941176470588, 0.6399509803921568, 0.6482843137254901, 0.625, 0.6480392156862745, 0.6936274509803921, 0.5355392156862745, 0.6147058823529412, 0.5394607843137255, 0.43725490196078437, 0.6066176470588236, 0.6352941176470589, 0.6284313725490197, 0.6169117647058824, 0.6208333333333333]</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>[0.10992968113439558, 0.0985202658910041, 0.045177891794093934, 0.05051874311958052, 0.08667950286451626, 0.05340100774175942, 0.0506232778766427, 0.05498614868748074, 0.018429677644223, 0.06340700959531871, 0.03000224264333206, 0.08936302743762738, 0.1141509746832926, 0.06345341617758589, 0.09465545383340325, 0.04325407533030544, 0.08549320353587529, 0.11216656769337405, 0.11576465855650235, 0.03000224264333206, 0.10968075637903382, 0.09145474612197713, 0.10798508928496368, 0.1081696261078079, 0.075768997513738, 0.10006906015962325, 0.0319324275744242, 0.06487185339230615, 0.0319324275744242, 0.0319324275744242, 0.08936302743762738, 0.08936302743762738, 0.07925956729678643, 0.08892500047423425, 0.08936302743762738, 0.08856623666830125, 0.08856623666830125, 0.08856623666830125, 0.08856623666830125, 0.04943208810178131, 0.10006906015962325, 0.0992105274563639, 0.09423182922648522, 0.09377554758914497, 0.0899459714371788, 0.06536999506873488, 0.08936302743762738, 0.08936302743762738, 0.0899459714371788, 0.04881698318190022]</t>
+          <t>[0.09238278003451206, 0.0985202658910041, 0.1059815938333135, 0.04688360967964836, 0.07376840245712596, 0.05099806443319521, 0.1045985855101986, 0.08056458672147745, 0.11854335862415348, 0.09649332686745765, 0.07005946422496695, 0.07693502129044463, 0.07693502129044463, 0.07693502129044463, 0.06430075939359385, 0.12235523894901229, 0.08829994907872192, 0.08829994907872192, 0.06899673055568713, 0.04325407533030544, 0.08936302743762738, 0.08856623666830125, 0.08627450980392158, 0.08856623666830125, 0.0539772439841795, 0.08936302743762738, 0.07636131584433238, 0.07005946422496695, 0.08632184530318777, 0.04455124614706572, 0.061259802156439065, 0.04101714038617807, 0.043532337386227526, 0.09574961239472914, 0.075768997513738, 0.09523123379056557, 0.11183670711378534, 0.10981650400597968, 0.10007986526263953, 0.10541894324442477, 0.03014805514055871, 0.0370657608404582, 0.07082273141365297, 0.04420878386191808, 0.10154693064496864, 0.06613106648643159, 0.07161142287510855, 0.09649332686745765, 0.11576465855650234, 0.11166522490418729]</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>[20, 29, 41, 23, 35, 44, 38, 40, 15, 36, 49, 6, 39, 47, 45, 48, 43, 46, 31, 49, 23, 22, 21, 18, 17, 12, 3, 1, 3, 3, 6, 6, 19, 30, 6, 25, 25, 25, 25, 37, 12, 16, 12, 34, 32, 2, 6, 6, 32, 42]</t>
+          <t>[32, 31, 39, 40, 44, 41, 38, 9, 45, 27, 6, 10, 10, 10, 49, 46, 13, 13, 48, 50, 2, 24, 37, 24, 21, 2, 26, 6, 8, 16, 1, 15, 19, 29, 5, 23, 20, 17, 30, 18, 4, 43, 35, 42, 47, 36, 22, 27, 34, 33]</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'tanh', 'alpha': 0.0005651794380108779, 'learning_rate_init': 0.0031746391798594537, 'max_iter': 1731, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00415983131478402, 'learning_rate_init': 0.0017773948315495918, 'max_iter': 2570, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0015434385270001747, 'learning_rate_init': 0.006626042629410379, 'max_iter': 666, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 5.178265423507484e-06, 'learning_rate_init': 0.002856824227312973, 'max_iter': 757, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.001361345637059742, 'learning_rate_init': 0.0024016754479548744, 'max_iter': 1507, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 8.03687057973557e-06, 'learning_rate_init': 0.0001350171378257234, 'max_iter': 1264, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0019634529637028793, 'learning_rate_init': 0.0046868444122452665, 'max_iter': 637, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0061933335028958834, 'learning_rate_init': 0.00032980879119046895, 'max_iter': 1240, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 3.597367214909815e-06, 'learning_rate_init': 0.006671555961479475, 'max_iter': 1002, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.484360967003538e-05, 'learning_rate_init': 0.0004778520715898022, 'max_iter': 522, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0012156588503536027, 'learning_rate_init': 0.0001441411730469316, 'max_iter': 641, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 6.00878003308614e-06, 'learning_rate_init': 0.0004795626360998296, 'max_iter': 2488, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.04363811109359389, 'learning_rate_init': 0.00031165959870847136, 'max_iter': 2800, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.4056187835078697e-06, 'learning_rate_init': 0.00020973335637652872, 'max_iter': 2855, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.000875232864023708, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0005715898631250832, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0008897906488378951, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 8.067371832850613e-06, 'learning_rate_init': 0.008075401130453528, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0033297436936982213, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00800654997692354, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.00762046586064751, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008818714620742121, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.009013827604085662, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008687784380713675, 'max_iter': 2605, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00853943938980711, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008584358405739963, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.008624588860014526, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.84549790934552e-05, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00016325965546808735, 'learning_rate_init': 0.00575730737988734, 'max_iter': 1662, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.004892716847601891, 'learning_rate_init': 0.007523784216166565, 'max_iter': 1847, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2299, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.009711846140388652, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1705, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.009255743218085033, 'max_iter': 1285, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.017718442339510507, 'learning_rate_init': 0.004579415006223866, 'max_iter': 1139, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.009046670317053713, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0092566776071191, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.009782290735127116, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 3.008788715007513e-06, 'learning_rate_init': 0.009446672796944992, 'max_iter': 2547, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0012413242100204672, 'learning_rate_init': 0.00720928640421137, 'max_iter': 868, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2919, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0007092464797962265, 'learning_rate_init': 0.00048580227031572995, 'max_iter': 1852, 'solver': 'sgd'})]</t>
+          <t>[OrderedDict({'activation': 'tanh', 'alpha': 0.01140872835718368, 'learning_rate_init': 0.001098390720747788, 'max_iter': 1518, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00031168055868578356, 'learning_rate_init': 0.0017883067203005114, 'max_iter': 1861, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0004097340356128191, 'learning_rate_init': 0.000337874717355312, 'max_iter': 1243, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 5.883739658376952e-06, 'learning_rate_init': 0.0006185495925238312, 'max_iter': 2705, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 9.528794718918844e-06, 'learning_rate_init': 0.0002432109881858199, 'max_iter': 2479, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 9.359626058227713e-05, 'learning_rate_init': 0.006441286111076643, 'max_iter': 2471, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 4.987941062682457e-06, 'learning_rate_init': 0.00034560445950002587, 'max_iter': 900, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00010352759960314479, 'learning_rate_init': 0.0036617099914074743, 'max_iter': 2474, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0024685687077979678, 'learning_rate_init': 0.0012301446420373908, 'max_iter': 700, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.08783527007033777, 'learning_rate_init': 0.000980676999251885, 'max_iter': 2683, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 9.545408203003887e-06, 'learning_rate_init': 0.01, 'max_iter': 1774, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0007779356334530467, 'learning_rate_init': 0.006377326438622073, 'max_iter': 768, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.006280530027570802, 'max_iter': 1188, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.006388219154856409, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.00011969483502359757, 'max_iter': 872, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0004353504903258697, 'max_iter': 979, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2508, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 612, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0034148701436734073, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.004781844413741905, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 2529, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.3149430548546047e-06, 'learning_rate_init': 0.0022990165788249707, 'max_iter': 1347, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.005475793140607212, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.004297960647756271, 'max_iter': 645, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.2213529340215983e-06, 'learning_rate_init': 0.007563685839638539, 'max_iter': 1117, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 7.529376504033776e-05, 'learning_rate_init': 0.0028989806602741554, 'max_iter': 516, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 3.6459154476717775e-06, 'learning_rate_init': 0.002680016744104983, 'max_iter': 1359, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.4445509573993728e-06, 'learning_rate_init': 0.0026150168843547933, 'max_iter': 1376, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 7.1602276341440885e-06, 'learning_rate_init': 0.008746316460513182, 'max_iter': 875, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006186574143965629, 'max_iter': 533, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 6.606437887789595e-06, 'learning_rate_init': 0.002743413584959639, 'max_iter': 1067, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.162657973240333e-06, 'learning_rate_init': 0.0034971773401071145, 'max_iter': 1937, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0022073665458317206, 'max_iter': 774, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0025508089624697353, 'max_iter': 2360, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 2.4594492442951232e-06, 'learning_rate_init': 0.006810290395945633, 'max_iter': 2906, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.0979820175701167e-06, 'learning_rate_init': 0.0008100614541169284, 'max_iter': 1964, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 2.877851040368543e-06, 'learning_rate_init': 0.0008655379924953076, 'max_iter': 779, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0008616338016567175, 'max_iter': 1042, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.027347411385387748, 'learning_rate_init': 0.0008218507482704885, 'max_iter': 2831, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0015448622776867353, 'learning_rate_init': 0.0008108471256679409, 'max_iter': 2679, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 6.662164205905302e-05, 'learning_rate_init': 0.0008068939381914431, 'max_iter': 598, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.2107121597723126e-05, 'learning_rate_init': 0.0007749744307351198, 'max_iter': 1011, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0008038013067331751, 'max_iter': 1582, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.06771660398945405, 'learning_rate_init': 0.0007908994991720568, 'max_iter': 500, 'solver': 'adam'})]</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O101" t="n">
         <v>0.55</v>
@@ -9816,27 +9816,27 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>[0.5294117647058824, 0.5098039215686274, 0.4901960784313726, 0.6666666666666666, 0.5098039215686274, 0.39215686274509803, 0.5490196078431372, 0.5098039215686274, 0.6862745098039215, 0.6470588235294118, 0.2745098039215686, 0.5882352941176471, 0.4705882352941176, 0.29411764705882354, 0.35294117647058826, 0.35294117647058826, 0.4705882352941176, 0.3137254901960784, 0.4901960784313726, 0.2745098039215686, 0.6862745098039215, 0.6862745098039215, 0.6862745098039215, 0.7058823529411765, 0.5490196078431372, 0.5490196078431372, 0.7058823529411765, 0.6862745098039215, 0.7058823529411765, 0.7058823529411765, 0.5882352941176471, 0.5882352941176471, 0.7058823529411765, 0.5490196078431372, 0.5882352941176471, 0.5686274509803921, 0.5686274509803921, 0.5686274509803921, 0.5686274509803921, 0.5490196078431372, 0.5490196078431372, 0.5686274509803921, 0.5882352941176471, 0.5098039215686274, 0.5294117647058824, 0.7058823529411765, 0.5882352941176471, 0.5882352941176471, 0.5294117647058824, 0.5098039215686274]</t>
+          <t>[0.5098039215686274, 0.5098039215686274, 0.411764705882353, 0.6078431372549019, 0.37254901960784315, 0.4901960784313726, 0.411764705882353, 0.5686274509803921, 0.4705882352941176, 0.5098039215686274, 0.5882352941176471, 0.5686274509803921, 0.5686274509803921, 0.5686274509803921, 0.35294117647058826, 0.45098039215686275, 0.7058823529411765, 0.7058823529411765, 0.3333333333333333, 0.35294117647058826, 0.5882352941176471, 0.5686274509803921, 0.5294117647058824, 0.5686274509803921, 0.6666666666666666, 0.5882352941176471, 0.6862745098039215, 0.5882352941176471, 0.6862745098039215, 0.6862745098039215, 0.6666666666666666, 0.6862745098039215, 0.6862745098039215, 0.5490196078431372, 0.5490196078431372, 0.5294117647058824, 0.5098039215686274, 0.5294117647058824, 0.5490196078431372, 0.5294117647058824, 0.7058823529411765, 0.5098039215686274, 0.6666666666666666, 0.5098039215686274, 0.4705882352941176, 0.6666666666666666, 0.7450980392156863, 0.5098039215686274, 0.4901960784313726, 0.5098039215686274]</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[0.5686274509803921, 0.5686274509803921, 0.49019607843137253, 0.5686274509803921, 0.5294117647058824, 0.39215686274509803, 0.4705882352941176, 0.5294117647058824, 0.7058823529411765, 0.5098039215686274, 0.25490196078431376, 0.7058823529411765, 0.45098039215686275, 0.25490196078431376, 0.25490196078431376, 0.25490196078431376, 0.5098039215686274, 0.25490196078431376, 0.49019607843137253, 0.25490196078431376, 0.4901960784313726, 0.4901960784313726, 0.4901960784313726, 0.4901960784313726, 0.7058823529411765, 0.7254901960784315, 0.7058823529411765, 0.7058823529411765, 0.7058823529411765, 0.7058823529411765, 0.7058823529411765, 0.7058823529411765, 0.5294117647058824, 0.5490196078431372, 0.7058823529411765, 0.5490196078431372, 0.5490196078431372, 0.5490196078431372, 0.5490196078431372, 0.4901960784313726, 0.7254901960784315, 0.7254901960784315, 0.7254901960784315, 0.5490196078431372, 0.5490196078431372, 0.7254901960784315, 0.7058823529411765, 0.7058823529411765, 0.5490196078431372, 0.45098039215686275]</t>
+          <t>[0.5490196078431372, 0.5686274509803921, 0.6078431372549019, 0.5098039215686274, 0.5490196078431372, 0.4901960784313726, 0.5490196078431372, 0.6274509803921569, 0.5098039215686275, 0.5686274509803921, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.6470588235294118, 0.25490196078431376, 0.45098039215686275, 0.5490196078431372, 0.5490196078431372, 0.39215686274509803, 0.25490196078431376, 0.7058823529411765, 0.5490196078431372, 0.5294117647058824, 0.5490196078431372, 0.5882352941176471, 0.7058823529411765, 0.5294117647058824, 0.6470588235294118, 0.5882352941176471, 0.5882352941176471, 0.7450980392156863, 0.6666666666666666, 0.5882352941176471, 0.5294117647058824, 0.7058823529411765, 0.5882352941176471, 0.5686274509803921, 0.5686274509803921, 0.5098039215686274, 0.5686274509803921, 0.7058823529411765, 0.5490196078431372, 0.5294117647058824, 0.5490196078431372, 0.5294117647058824, 0.5490196078431372, 0.5686274509803921, 0.5686274509803921, 0.4901960784313726, 0.49019607843137253]</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>[0.5637254901960784, 0.5637254901960784, 0.5245098039215687, 0.579656862745098, 0.5428921568627451, 0.36397058823529416, 0.5845588235294118, 0.5012254901960784, 0.6801470588235294, 0.5600490196078431, 0.3333333333333333, 0.6605392156862745, 0.7022058823529411, 0.4313725490196078, 0.5294117647058824, 0.37254901960784315, 0.5379901960784313, 0.5845588235294118, 0.6433823529411765, 0.3333333333333333, 0.579656862745098, 0.579656862745098, 0.5992647058823529, 0.5992647058823529, 0.6801470588235294, 0.6605392156862745, 0.6801470588235294, 0.6801470588235294, 0.6801470588235294, 0.6801470588235294, 0.6605392156862745, 0.6605392156862745, 0.5992647058823529, 0.5416666666666666, 0.6605392156862745, 0.5625, 0.5625, 0.5625, 0.5625, 0.5845588235294118, 0.6605392156862745, 0.6213235294117646, 0.6213235294117646, 0.5416666666666666, 0.5416666666666666, 0.6801470588235294, 0.6605392156862745, 0.6605392156862745, 0.5416666666666666, 0.6017156862745098]</t>
+          <t>[0.6213235294117647, 0.5637254901960784, 0.517156862745098, 0.5404411764705882, 0.5404411764705882, 0.5992647058823529, 0.6200980392156862, 0.7205882352941178, 0.5637254901960785, 0.5845588235294118, 0.6789215686274511, 0.6997549019607844, 0.6997549019607844, 0.6997549019607844, 0.37254901960784315, 0.7022058823529411, 0.579656862745098, 0.579656862745098, 0.36397058823529416, 0.37254901960784315, 0.6605392156862745, 0.5625, 0.5220588235294118, 0.5625, 0.5600490196078431, 0.6605392156862745, 0.5600490196078431, 0.6789215686274511, 0.6225490196078431, 0.6225490196078431, 0.6801470588235294, 0.579656862745098, 0.6017156862745098, 0.6041666666666666, 0.6801470588235294, 0.5625, 0.5833333333333334, 0.6041666666666666, 0.6053921568627451, 0.6041666666666666, 0.6801470588235294, 0.6017156862745098, 0.5416666666666666, 0.6213235294117647, 0.5379901960784313, 0.5208333333333334, 0.6017156862745098, 0.5845588235294118, 0.6433823529411765, 0.6433823529411765]</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>[0.7242647058823529, 0.7046568627450981, 0.6041666666666666, 0.6642156862745098, 0.6654411764705882, 0.4791666666666667, 0.6225490196078431, 0.6446078431372549, 0.704656862745098, 0.6433823529411765, 0.26838235294117646, 0.7438725490196078, 0.6654411764705882, 0.3075980392156863, 0.3272058823529412, 0.2879901960784314, 0.3075980392156863, 0.3468137254901961, 0.6654411764705882, 0.26838235294117646, 0.6017156862745098, 0.6629901960784313, 0.6017156862745098, 0.6629901960784313, 0.7242647058823529, 0.7242647058823529, 0.7242647058823529, 0.7242647058823529, 0.7242647058823529, 0.7242647058823529, 0.7438725490196078, 0.7438725490196078, 0.6629901960784313, 0.7242647058823529, 0.7438725490196078, 0.7634803921568628, 0.7634803921568628, 0.7634803921568628, 0.7634803921568628, 0.6421568627450981, 0.7242647058823529, 0.7242647058823529, 0.7242647058823529, 0.6850490196078431, 0.6850490196078431, 0.6433823529411765, 0.7438725490196078, 0.7438725490196078, 0.6850490196078431, 0.4987745098039216]</t>
+          <t>[0.6654411764705882, 0.7046568627450981, 0.5674019607843137, 0.6237745098039216, 0.5857843137254902, 0.6041666666666666, 0.5674019607843137, 0.6237745098039216, 0.26838235294117646, 0.7058823529411765, 0.7242647058823529, 0.6225490196078431, 0.6225490196078431, 0.6225490196078431, 0.2879901960784314, 0.3272058823529412, 0.6433823529411765, 0.6433823529411765, 0.4987745098039216, 0.2879901960784314, 0.7438725490196078, 0.7634803921568628, 0.6654411764705882, 0.7634803921568628, 0.6838235294117646, 0.7438725490196078, 0.6421568627450981, 0.7242647058823529, 0.6433823529411765, 0.6433823529411765, 0.704656862745098, 0.6433823529411765, 0.6629901960784313, 0.6642156862745098, 0.7242647058823529, 0.7242647058823529, 0.7242647058823529, 0.7046568627450981, 0.6654411764705882, 0.7242647058823529, 0.6433823529411765, 0.4987745098039216, 0.6225490196078431, 0.4987745098039216, 0.26838235294117646, 0.6029411764705882, 0.5674019607843137, 0.7058823529411765, 0.6654411764705882, 0.6654411764705882]</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>[0.8137254901960785, 0.7732843137254902, 0.571078431372549, 0.6936274509803922, 0.7303921568627452, 0.49877450980392163, 0.573529411764706, 0.49877450980392163, 0.7328431372549019, 0.49877450980392163, 0.3161764705882353, 0.8566176470588235, 0.4375, 0.3799019607843137, 0.4375, 0.33578431372549017, 0.3799019607843137, 0.3799019607843137, 0.7953431372549019, 0.3161764705882353, 0.8149509803921569, 0.7549019607843137, 0.8149509803921569, 0.8149509803921569, 0.7757352941176471, 0.8566176470588235, 0.7757352941176471, 0.8566176470588235, 0.7757352941176471, 0.7757352941176471, 0.8566176470588235, 0.8566176470588235, 0.7549019607843137, 0.7316176470588235, 0.8566176470588235, 0.7107843137254902, 0.7107843137254902, 0.7107843137254902, 0.7107843137254902, 0.573529411764706, 0.8566176470588235, 0.8566176470588235, 0.8566176470588235, 0.7512254901960785, 0.7512254901960785, 0.8370098039215685, 0.8566176470588235, 0.8566176470588235, 0.7512254901960785, 0.5183823529411765]</t>
+          <t>[0.7732843137254902, 0.7732843137254902, 0.7340686274509803, 0.5183823529411765, 0.49877450980392163, 0.5723039215686274, 0.7340686274509803, 0.7953431372549019, 0.6127450980392157, 0.7732843137254902, 0.7953431372549019, 0.7953431372549019, 0.7953431372549019, 0.7953431372549019, 0.4375, 0.4583333333333333, 0.7941176470588235, 0.7941176470588235, 0.49877450980392163, 0.33578431372549017, 0.8566176470588235, 0.7107843137254902, 0.7303921568627452, 0.7107843137254902, 0.6936274509803922, 0.8566176470588235, 0.7340686274509803, 0.7953431372549019, 0.8357843137254902, 0.7132352941176471, 0.8370098039215685, 0.6936274509803922, 0.6936274509803922, 0.7953431372549019, 0.7757352941176471, 0.7720588235294118, 0.8137254901960785, 0.8345588235294118, 0.7953431372549019, 0.8137254901960785, 0.7328431372549019, 0.5183823529411765, 0.7132352941176471, 0.5183823529411765, 0.3799019607843137, 0.6936274509803922, 0.6936274509803922, 0.7732843137254902, 0.7953431372549019, 0.7953431372549019]</t>
         </is>
       </c>
     </row>
@@ -9948,49 +9948,49 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.3650793650793651</v>
+        <v>0.3452380952380953</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4081196581196581</v>
+        <v>0.4233660130718954</v>
       </c>
       <c r="F103" t="n">
         <v>0.4</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4216666666666667</v>
+        <v>0.4675</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[[2, 4, 1], [1, 10, 10], [4, 4, 4]]</t>
+          <t>[[1, 2, 4], [5, 10, 6], [4, 3, 5]]</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
+          <t>OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>[0.5683823529411766, 0.5705882352941176, 0.5397058823529413, 0.5367647058823529, 0.6397058823529412, 0.5397058823529413, 0.5629901960784314, 0.586764705882353, 0.5281862745098038, 0.5703431372549019, 0.5321078431372548, 0.48725490196078436, 0.5460784313725491, 0.6367647058823529, 0.5901960784313726, 0.5031862745098039, 0.5154411764705882, 0.48725490196078436, 0.4328431372549019, 0.586764705882353, 0.6083333333333333, 0.5573529411764706, 0.5031862745098039, 0.5122549019607844, 0.5232843137254902, 0.4328431372549019, 0.5323529411764706, 0.5629901960784314, 0.6666666666666667, 0.5387254901960785, 0.48725490196078436, 0.4561274509803922, 0.5031862745098039, 0.5154411764705882, 0.509313725490196, 0.6424019607843137, 0.48725490196078436, 0.49901960784313726, 0.5232843137254902, 0.5561274509803921, 0.4328431372549019, 0.5512254901960785, 0.6664215686274509, 0.42892156862745096, 0.42892156862745096, 0.5269607843137254, 0.6546568627450979, 0.46421568627450976, 0.5154411764705882, 0.4992647058823529]</t>
+          <t>[0.5274509803921569, 0.5659313725490196, 0.557843137254902, 0.5350490196078431, 0.5561274509803921, 0.5634803921568627, 0.5874999999999999, 0.5551470588235294, 0.5874999999999999, 0.5813725490196079, 0.4946078431372549, 0.5323529411764706, 0.5561274509803921, 0.5387254901960785, 0.4992647058823529, 0.48725490196078436, 0.4666666666666667, 0.42892156862745096, 0.5561274509803921, 0.5031862745098039, 0.5031862745098039, 0.4328431372549019, 0.5583333333333333, 0.4561274509803922, 0.49901960784313726, 0.5232843137254902, 0.5343137254901961, 0.5154411764705882, 0.5666666666666667, 0.6982843137254902, 0.47058823529411764, 0.5031862745098039, 0.5629901960784314, 0.42892156862745096, 0.4943627450980393, 0.4328431372549019, 0.5031862745098039, 0.5512254901960785, 0.48725490196078436, 0.5154411764705882, 0.4313725490196078, 0.42892156862745096, 0.6669117647058823, 0.5343137254901961, 0.5823529411764706, 0.49975490196078437, 0.6666666666666667, 0.5031862745098039, 0.453921568627451, 0.5154411764705882]</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>[0.03468288813982103, 0.06918801174233966, 0.042186776892289175, 0.07657107525398679, 0.06652955912675897, 0.042186776892289175, 0.05943109437705391, 0.09198004000083067, 0.05896123587273373, 0.056194304735086346, 0.04160462509039059, 0.0532410263046128, 0.026450155512654328, 0.04913344624771251, 0.09514287905882232, 0.04732106262637385, 0.05142154526252295, 0.0532410263046128, 0.022549019607843147, 0.07731046449240075, 0.08022085407598993, 0.07775211376994173, 0.03333333333333333, 0.05621781833910089, 0.07450335369397386, 0.022549019607843147, 0.06848111148161795, 0.05943109437705391, 0.06458228689110183, 0.04429837709211256, 0.0532410263046128, 0.10461523946140122, 0.03333333333333333, 0.05142154526252295, 0.06397293587458436, 0.026696566282725678, 0.0532410263046128, 0.02428079284520688, 0.07450335369397386, 0.04052946393842032, 0.022549019607843147, 0.06140378519766762, 0.06714702232184042, 0.027116307227332034, 0.027116307227332034, 0.06300974366715957, 0.03860119043649026, 0.11236455386039014, 0.05142154526252295, 0.03347719819404681]</t>
+          <t>[0.06324574317074262, 0.04556714671415535, 0.052461287240948576, 0.0780343813164146, 0.04052946393842032, 0.08427381636408479, 0.07548303378297085, 0.03190043020298814, 0.07548303378297085, 0.06645095580279459, 0.030312989870079046, 0.06848111148161795, 0.04052946393842032, 0.04429837709211256, 0.03347719819404681, 0.0532410263046128, 0.07409261430156693, 0.027116307227332034, 0.04052946393842032, 0.04732106262637385, 0.03333333333333333, 0.022549019607843147, 0.08711364971212526, 0.10461523946140122, 0.02428079284520688, 0.07450335369397386, 0.04558428192852082, 0.05142154526252295, 0.04720667134315094, 0.08620136716812099, 0.07509765524910804, 0.04732106262637385, 0.05943109437705391, 0.027116307227332034, 0.050638702217229964, 0.022549019607843147, 0.03333333333333333, 0.06140378519766762, 0.0532410263046128, 0.06209064326889808, 0.09836954155181074, 0.027116307227332034, 0.08853910115694281, 0.04558428192852082, 0.08972530058769218, 0.04432413551159734, 0.06458228689110183, 0.03333333333333333, 0.06226455074216321, 0.05142154526252295]</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>[13, 11, 20, 23, 5, 20, 14, 9, 26, 12, 25, 40, 19, 6, 8, 35, 30, 40, 46, 9, 7, 16, 35, 33, 28, 46, 24, 14, 1, 22, 40, 45, 35, 30, 34, 4, 40, 39, 28, 17, 46, 18, 2, 49, 49, 27, 3, 44, 30, 38]</t>
+          <t>[24, 9, 13, 20, 14, 10, 4, 17, 4, 7, 37, 23, 14, 19, 35, 39, 42, 48, 14, 29, 29, 45, 12, 43, 36, 25, 21, 26, 8, 1, 41, 29, 11, 48, 38, 45, 29, 18, 39, 26, 47, 48, 2, 21, 6, 34, 3, 29, 44, 26]</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 43, 'max_features': 'sqrt', 'min_samples_leaf': 5, 'min_samples_split': 9}), OrderedDict({'criterion': 'entropy', 'max_depth': 20, 'max_features': None, 'min_samples_leaf': 6, 'min_samples_split': 38}), OrderedDict({'criterion': 'gini', 'max_depth': 91, 'max_features': 'log2', 'min_samples_leaf': 18, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 67, 'max_features': None, 'min_samples_leaf': 18, 'min_samples_split': 19}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 79, 'max_features': 'sqrt', 'min_samples_leaf': 18, 'min_samples_split': 27}), OrderedDict({'criterion': 'entropy', 'max_depth': 55, 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 58, 'max_features': 'log2', 'min_samples_leaf': 16, 'min_samples_split': 36}), OrderedDict({'criterion': 'gini', 'max_depth': 75, 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 36}), OrderedDict({'criterion': 'gini', 'max_depth': 86, 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 9}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 44}), OrderedDict({'criterion': 'entropy', 'max_depth': 94, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 8}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 89, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 6, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 95, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 95, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 32, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 43}), OrderedDict({'criterion': 'entropy', 'max_depth': 77, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 24}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': None, 'min_samples_leaf': 6, 'min_samples_split': 34}), OrderedDict({'criterion': 'gini', 'max_depth': 60, 'max_features': None, 'min_samples_leaf': 16, 'min_samples_split': 42}), OrderedDict({'criterion': 'gini', 'max_depth': 28, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 31}), OrderedDict({'criterion': 'gini', 'max_depth': 52, 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 33}), OrderedDict({'criterion': 'entropy', 'max_depth': 81, 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 8}), OrderedDict({'criterion': 'gini', 'max_depth': 84, 'max_features': 'log2', 'min_samples_leaf': 7, 'min_samples_split': 14}), OrderedDict({'criterion': 'entropy', 'max_depth': 86, 'max_features': None, 'min_samples_leaf': 11, 'min_samples_split': 17}), OrderedDict({'criterion': 'entropy', 'max_depth': 73, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 23}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 21, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 33}), OrderedDict({'criterion': 'entropy', 'max_depth': 13, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 91, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 48})]</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O103" t="n">
         <v>0.4</v>
@@ -10002,27 +10002,27 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>[0.5098039215686274, 0.5294117647058824, 0.607843137254902, 0.5686274509803922, 0.6470588235294118, 0.607843137254902, 0.5686274509803922, 0.607843137254902, 0.5098039215686274, 0.5098039215686274, 0.5098039215686274, 0.5294117647058824, 0.5882352941176471, 0.6470588235294118, 0.6666666666666666, 0.5098039215686274, 0.5490196078431372, 0.5294117647058824, 0.45098039215686275, 0.607843137254902, 0.4901960784313726, 0.6078431372549019, 0.5098039215686274, 0.5098039215686274, 0.6470588235294118, 0.45098039215686275, 0.5294117647058824, 0.5686274509803922, 0.6274509803921569, 0.5882352941176471, 0.5294117647058824, 0.5098039215686274, 0.5098039215686274, 0.5490196078431372, 0.5294117647058824, 0.6470588235294118, 0.5294117647058824, 0.4705882352941176, 0.6470588235294118, 0.5882352941176471, 0.45098039215686275, 0.607843137254902, 0.7058823529411765, 0.45098039215686275, 0.45098039215686275, 0.607843137254902, 0.6470588235294118, 0.5294117647058824, 0.5490196078431372, 0.5098039215686274]</t>
+          <t>[0.607843137254902, 0.5686274509803921, 0.6078431372549019, 0.5882352941176471, 0.5882352941176471, 0.5098039215686274, 0.4705882352941177, 0.5882352941176471, 0.4705882352941177, 0.5490196078431372, 0.4705882352941176, 0.5294117647058824, 0.5882352941176471, 0.5882352941176471, 0.5098039215686274, 0.5294117647058824, 0.4705882352941176, 0.45098039215686275, 0.5882352941176471, 0.5098039215686274, 0.5098039215686274, 0.45098039215686275, 0.607843137254902, 0.5098039215686274, 0.4705882352941176, 0.6470588235294118, 0.5882352941176471, 0.5490196078431372, 0.607843137254902, 0.7450980392156863, 0.4705882352941176, 0.5098039215686274, 0.5686274509803922, 0.45098039215686275, 0.43137254901960786, 0.45098039215686275, 0.5098039215686274, 0.607843137254902, 0.5294117647058824, 0.6078431372549019, 0.4705882352941176, 0.45098039215686275, 0.6666666666666666, 0.5882352941176471, 0.6470588235294118, 0.4705882352941176, 0.6274509803921569, 0.5098039215686274, 0.4705882352941176, 0.5490196078431372]</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>[0.6078431372549019, 0.4901960784313726, 0.4901960784313726, 0.411764705882353, 0.5686274509803922, 0.4901960784313726, 0.4705882352941176, 0.5294117647058824, 0.4705882352941176, 0.5490196078431372, 0.4705882352941176, 0.5686274509803921, 0.5294117647058824, 0.5882352941176471, 0.4705882352941176, 0.5882352941176471, 0.4705882352941176, 0.5686274509803921, 0.411764705882353, 0.45098039215686275, 0.5882352941176471, 0.4901960784313726, 0.5294117647058824, 0.4901960784313726, 0.4705882352941176, 0.411764705882353, 0.5098039215686274, 0.4705882352941176, 0.7450980392156863, 0.5686274509803921, 0.5686274509803921, 0.4705882352941176, 0.5294117647058824, 0.4705882352941176, 0.4705882352941176, 0.6274509803921569, 0.5686274509803921, 0.5294117647058824, 0.4705882352941176, 0.5294117647058824, 0.411764705882353, 0.4901960784313726, 0.6470588235294118, 0.45098039215686275, 0.45098039215686275, 0.4705882352941176, 0.6274509803921569, 0.4705882352941176, 0.4705882352941176, 0.5294117647058824]</t>
+          <t>[0.4705882352941176, 0.5294117647058824, 0.4901960784313726, 0.411764705882353, 0.5294117647058824, 0.4705882352941176, 0.5490196078431372, 0.5490196078431372, 0.5490196078431372, 0.6666666666666666, 0.5294117647058824, 0.5098039215686274, 0.5294117647058824, 0.5686274509803921, 0.5294117647058824, 0.5686274509803921, 0.4705882352941177, 0.45098039215686275, 0.5294117647058824, 0.5882352941176471, 0.5294117647058824, 0.411764705882353, 0.4313725490196078, 0.4705882352941176, 0.5294117647058824, 0.4705882352941176, 0.5294117647058824, 0.4705882352941176, 0.5294117647058824, 0.6862745098039215, 0.4705882352941177, 0.5882352941176471, 0.4705882352941176, 0.45098039215686275, 0.5294117647058824, 0.411764705882353, 0.5294117647058824, 0.4901960784313726, 0.5686274509803921, 0.4705882352941176, 0.4705882352941177, 0.45098039215686275, 0.6666666666666666, 0.5294117647058824, 0.4705882352941176, 0.45098039215686275, 0.7450980392156863, 0.5294117647058824, 0.5294117647058824, 0.4705882352941176]</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>[0.5637254901960785, 0.5821078431372548, 0.5012254901960785, 0.5, 0.642156862745098, 0.5012254901960785, 0.5612745098039215, 0.49754901960784315, 0.5404411764705882, 0.5208333333333334, 0.5404411764705882, 0.46078431372549017, 0.5600490196078431, 0.6446078431372549, 0.4779411764705883, 0.4803921568627451, 0.4375, 0.46078431372549017, 0.45098039215686275, 0.5588235294117646, 0.7414215686274509, 0.43995098039215685, 0.4387254901960784, 0.5404411764705882, 0.4375, 0.45098039215686275, 0.5183823529411765, 0.5612745098039215, 0.579656862745098, 0.5379901960784313, 0.46078431372549017, 0.27941176470588236, 0.4387254901960784, 0.4375, 0.5049019607843138, 0.6017156862745098, 0.46078431372549017, 0.4779411764705883, 0.4375, 0.5049019607843138, 0.45098039215686275, 0.4816176470588236, 0.7193627450980392, 0.45098039215686275, 0.45098039215686275, 0.4375, 0.7242647058823529, 0.27941176470588236, 0.4375, 0.4387254901960784]</t>
+          <t>[0.4375, 0.5392156862745098, 0.49754901960784315, 0.47671568627450983, 0.5049019607843138, 0.5404411764705882, 0.6213235294117646, 0.5612745098039217, 0.6213235294117646, 0.5392156862745098, 0.49754901960784315, 0.5183823529411765, 0.5049019607843138, 0.5379901960784313, 0.4387254901960784, 0.46078431372549017, 0.4779411764705883, 0.45098039215686275, 0.5049019607843138, 0.4803921568627451, 0.4387254901960784, 0.45098039215686275, 0.47671568627450983, 0.27941176470588236, 0.4779411764705883, 0.4375, 0.5600490196078431, 0.4375, 0.5171568627450981, 0.5575980392156863, 0.49754901960784315, 0.4803921568627451, 0.5612745098039215, 0.45098039215686275, 0.43504901960784315, 0.45098039215686275, 0.4387254901960784, 0.4816176470588236, 0.46078431372549017, 0.4375, 0.30147058823529416, 0.45098039215686275, 0.6433823529411765, 0.5600490196078431, 0.4779411764705883, 0.4779411764705883, 0.579656862745098, 0.4387254901960784, 0.4779411764705883, 0.4375]</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>[0.5612745098039216, 0.5563725490196078, 0.5416666666666666, 0.5637254901960784, 0.5833333333333334, 0.5416666666666666, 0.5563725490196078, 0.5428921568627451, 0.4840686274509804, 0.6188725490196079, 0.5428921568627451, 0.42524509803921573, 0.5416666666666666, 0.5845588235294118, 0.6825980392156863, 0.44607843137254904, 0.5637254901960784, 0.42524509803921573, 0.3995098039215686, 0.6629901960784313, 0.6041666666666666, 0.6384803921568628, 0.5281862745098039, 0.42524509803921573, 0.5637254901960784, 0.3995098039215686, 0.4473039215686274, 0.5563725490196078, 0.6433823529411765, 0.5404411764705882, 0.42524509803921573, 0.42524509803921573, 0.5281862745098039, 0.5637254901960784, 0.42524509803921573, 0.6813725490196078, 0.42524509803921573, 0.5257352941176471, 0.5637254901960784, 0.5416666666666666, 0.3995098039215686, 0.5416666666666666, 0.5428921568627451, 0.3995098039215686, 0.3995098039215686, 0.5625, 0.6617647058823529, 0.42524509803921573, 0.5637254901960784, 0.5281862745098039]</t>
+          <t>[0.5625, 0.5392156862745098, 0.5992647058823529, 0.6188725490196078, 0.5416666666666666, 0.5808823529411765, 0.5992647058823529, 0.49754901960784315, 0.5992647058823529, 0.4987745098039216, 0.5245098039215687, 0.4473039215686274, 0.5416666666666666, 0.5404411764705882, 0.5281862745098039, 0.42524509803921573, 0.3406862745098039, 0.3995098039215686, 0.5416666666666666, 0.44607843137254904, 0.5281862745098039, 0.3995098039215686, 0.6433823529411765, 0.42524509803921573, 0.5257352941176471, 0.5637254901960784, 0.5416666666666666, 0.5637254901960784, 0.5416666666666666, 0.6825980392156863, 0.3406862745098039, 0.44607843137254904, 0.5563725490196078, 0.3995098039215686, 0.5257352941176471, 0.3995098039215686, 0.5281862745098039, 0.5416666666666666, 0.42524509803921573, 0.5637254901960784, 0.3406862745098039, 0.3995098039215686, 0.5404411764705882, 0.5416666666666666, 0.6825980392156863, 0.5257352941176471, 0.6433823529411765, 0.5281862745098039, 0.3406862745098039, 0.5637254901960784]</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>[0.5992647058823529, 0.6948529411764706, 0.5575980392156863, 0.6397058823529411, 0.7573529411764706, 0.5575980392156863, 0.6580882352941176, 0.7561274509803922, 0.636029411764706, 0.6531862745098039, 0.5968137254901961, 0.4522058823529412, 0.511029411764706, 0.7193627450980392, 0.6531862745098039, 0.49142156862745096, 0.5563725490196078, 0.4522058823529412, 0.45098039215686275, 0.6531862745098039, 0.6176470588235294, 0.6102941176470588, 0.5098039215686274, 0.5955882352941176, 0.49754901960784315, 0.45098039215686275, 0.6568627450980392, 0.6580882352941176, 0.7377450980392156, 0.4583333333333333, 0.4522058823529412, 0.5955882352941176, 0.5098039215686274, 0.5563725490196078, 0.6164215686274509, 0.6544117647058824, 0.4522058823529412, 0.49142156862745096, 0.49754901960784315, 0.6164215686274509, 0.45098039215686275, 0.6348039215686274, 0.7169117647058822, 0.39215686274509803, 0.39215686274509803, 0.5563725490196078, 0.6127450980392156, 0.6164215686274509, 0.5563725490196078, 0.4901960784313726]</t>
+          <t>[0.5588235294117648, 0.6531862745098039, 0.5943627450980392, 0.5796568627450981, 0.6164215686274509, 0.715686274509804, 0.6973039215686274, 0.5796568627450981, 0.6973039215686274, 0.6531862745098039, 0.45098039215686275, 0.6568627450980392, 0.6164215686274509, 0.4583333333333333, 0.4901960784313726, 0.4522058823529412, 0.573529411764706, 0.39215686274509803, 0.6164215686274509, 0.49142156862745096, 0.5098039215686274, 0.45098039215686275, 0.6323529411764706, 0.5955882352941176, 0.49142156862745096, 0.49754901960784315, 0.4522058823529412, 0.5563725490196078, 0.6372549019607843, 0.8198529411764706, 0.573529411764706, 0.49142156862745096, 0.6580882352941176, 0.39215686274509803, 0.5502450980392157, 0.45098039215686275, 0.5098039215686274, 0.6348039215686274, 0.4522058823529412, 0.49754901960784315, 0.573529411764706, 0.39215686274509803, 0.8174019607843137, 0.4522058823529412, 0.6335784313725491, 0.573529411764706, 0.7377450980392156, 0.5098039215686274, 0.45098039215686275, 0.5563725490196078]</t>
         </is>
       </c>
     </row>
@@ -10134,52 +10134,52 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.4841269841269841</v>
+        <v>0.5515873015873015</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5483822042467139</v>
+        <v>0.6296363636363637</v>
       </c>
       <c r="F105" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5477272727272726</v>
+        <v>0.6166596989966555</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[[2, 4, 1], [3, 14, 4], [2, 4, 6]]</t>
+          <t>[[1, 5, 1], [2, 16, 3], [1, 2, 9]]</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5})</t>
+          <t>OrderedDict({'colsample_bytree': 0.8743730306593507, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6331857942152197})</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>[0.7024509803921569, 0.6666666666666667, 0.7139705882352942, 0.6431372549019608, 0.6669117647058823, 0.7139705882352942, 0.6904411764705883, 0.6590686274509804, 0.6899509803921569, 0.6705882352941176, 0.7343137254901961, 0.7507352941176471, 0.7223039215686274, 0.6982843137254903, 0.7223039215686274, 0.7264705882352941, 0.7620098039215686, 0.7460784313725491, 0.7377450980392157, 0.6904411764705882, 0.6269607843137255, 0.754656862745098, 0.7627450980392158, 0.6632352941176471, 0.7497549019607843, 0.6392156862745099, 0.7539215686274511, 0.6473039215686274, 0.7416666666666667, 0.7306372549019609, 0.6901960784313725, 0.734313725490196, 0.7536764705882353, 0.6551470588235293, 0.622549019607843, 0.7301470588235294, 0.7262254901960785, 0.7303921568627451, 0.6821078431372549, 0.734313725490196, 0.746078431372549, 0.7026960784313726, 0.7338235294117648, 0.7421568627450981, 0.7340686274509804, 0.7296568627450981, 0.7340686274509804, 0.7100490196078431, 0.6352941176470589, 0.7502450980392157]</t>
+          <t>[0.6901960784313725, 0.6705882352941177, 0.6546568627450979, 0.6629901960784313, 0.6705882352941177, 0.6627450980392156, 0.7345588235294118, 0.7022058823529411, 0.6862745098039216, 0.6938725490196078, 0.6784313725490196, 0.7463235294117647, 0.7340686274509804, 0.7700980392156862, 0.6982843137254902, 0.6696078431372549, 0.7338235294117648, 0.7384803921568628, 0.6348039215686274, 0.6544117647058824, 0.634313725490196, 0.722549019607843, 0.6431372549019607, 0.7259803921568628, 0.7181372549019607, 0.6823529411764706, 0.757843137254902, 0.7063725490196078, 0.7218137254901961, 0.7218137254901962, 0.753921568627451, 0.7504901960784314, 0.5862745098039215, 0.753921568627451, 0.713970588235294, 0.7583333333333333, 0.5870098039215687, 0.6504901960784314, 0.7335784313725491, 0.6546568627450979, 0.7419117647058824, 0.7544117647058824, 0.6024509803921569, 0.7497549019607843, 0.75, 0.7188725490196078, 0.7225490196078431, 0.7223039215686274, 0.7186274509803922, 0.7419117647058824]</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>[0.07995757717942972, 0.06037576171647905, 0.05224441641477649, 0.0653516130889922, 0.0653929652770678, 0.05288441037968776, 0.0741461066846127, 0.05479133637810988, 0.05333910003425662, 0.07770574257952033, 0.056799322304278414, 0.07547109511340289, 0.05095210376543642, 0.06991268514933802, 0.06042350217864313, 0.059923337862701334, 0.07114770120242717, 0.06943415917682079, 0.05268752780604682, 0.05723236025502878, 0.04585757458971263, 0.06689156126790678, 0.07099217213483029, 0.03153488941297165, 0.06819013324106403, 0.04589685751966794, 0.04779348918641608, 0.07070727979217824, 0.05616650323921478, 0.06485796150888523, 0.06272498911837321, 0.06929559210344709, 0.06249759703185289, 0.06099741266785205, 0.07442671450744122, 0.06768168338097526, 0.035225969065140576, 0.04953163952576125, 0.06774910603620053, 0.06470495394461702, 0.06213319893456612, 0.07719459923777176, 0.059059982281682494, 0.07592740087588791, 0.07024528618121299, 0.05279345767606864, 0.05556216319797808, 0.04427803091297286, 0.073138667651813, 0.06574112430462843]</t>
+          <t>[0.06515367926938248, 0.05685746256733861, 0.0639626056171845, 0.06879356646242824, 0.06211869459653465, 0.07148464048627334, 0.0686169459746954, 0.06780848882881269, 0.07239318185920635, 0.042327515970437046, 0.05518571629826467, 0.06794124720591632, 0.05531836139354128, 0.0732412654730187, 0.05176387031411187, 0.049151782588647545, 0.059059982281682494, 0.07407315294826489, 0.07316494639516458, 0.05206242371510489, 0.0705848310725973, 0.04652087334793898, 0.06314498034577351, 0.07696858958796325, 0.0654324551726966, 0.05685746256733856, 0.06944800067787814, 0.05974864851706297, 0.07874477823933188, 0.05255624401612672, 0.07040075866390696, 0.07989444208580133, 0.047888920556156137, 0.06588716719104992, 0.04416935967067894, 0.07510725382468553, 0.0664120715299998, 0.05348194225032025, 0.05930967414457545, 0.055059298361172446, 0.052042804300219875, 0.07165335436028351, 0.06307454107357163, 0.06819013324106403, 0.06339942978481428, 0.06904460053288093, 0.058401262145804635, 0.06042350217864313, 0.06396354480043405, 0.056413028944375686]</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>[32, 41, 28, 46, 40, 28, 34, 43, 37, 39, 14, 6, 26, 33, 26, 24, 2, 9, 13, 35, 49, 3, 1, 42, 8, 47, 4, 45, 12, 20, 36, 15, 5, 44, 50, 22, 25, 21, 38, 15, 10, 31, 19, 11, 17, 23, 17, 30, 48, 7]</t>
+          <t>[32, 36, 41, 39, 36, 40, 14, 29, 33, 31, 35, 10, 15, 1, 30, 38, 16, 13, 46, 43, 47, 20, 45, 18, 26, 34, 3, 28, 23, 22, 5, 7, 50, 5, 27, 2, 49, 44, 17, 41, 11, 4, 48, 9, 8, 24, 19, 21, 25, 11]</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.8729013912105943, 'gamma': 1.0020288726890805, 'learning_rate': 0.09941011962577516, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 166, 'subsample': 0.8698191415808907}), OrderedDict({'colsample_bytree': 0.8103052704792895, 'gamma': 2.5070712165486055, 'learning_rate': 0.02722462804414315, 'max_depth': 8, 'min_child_weight': 5, 'n_estimators': 384, 'subsample': 0.8374844029351736}), OrderedDict({'colsample_bytree': 0.6889419399757986, 'gamma': 1.0344864018998958, 'learning_rate': 0.11910769318939869, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 347, 'subsample': 0.5339707749601523}), OrderedDict({'colsample_bytree': 0.5743184842283114, 'gamma': 2.6505762651427944, 'learning_rate': 0.025301705089257893, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 183, 'subsample': 0.9948666743276715}), OrderedDict({'colsample_bytree': 0.6495468011195056, 'gamma': 3.3133565728534027, 'learning_rate': 0.029638920662744664, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 468, 'subsample': 0.6496028382192446}), OrderedDict({'colsample_bytree': 0.7269853760138472, 'gamma': 1.7404550174871678, 'learning_rate': 0.181998160434766, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 399, 'subsample': 0.7658224936376353}), OrderedDict({'colsample_bytree': 0.824135166314079, 'gamma': 1.7884829692407702, 'learning_rate': 0.07617616799590768, 'max_depth': 14, 'min_child_weight': 4, 'n_estimators': 71, 'subsample': 0.7199625081778613}), OrderedDict({'colsample_bytree': 0.5597561572264463, 'gamma': 3.3747303151344825, 'learning_rate': 0.19429909295081138, 'max_depth': 9, 'min_child_weight': 8, 'n_estimators': 114, 'subsample': 0.8801974078741358}), OrderedDict({'colsample_bytree': 0.575190172643608, 'gamma': 1.6718531762099829, 'learning_rate': 0.052645600431995704, 'max_depth': 9, 'min_child_weight': 4, 'n_estimators': 130, 'subsample': 0.5098834830783763}), OrderedDict({'colsample_bytree': 0.7312858222248149, 'gamma': 3.386995648210926, 'learning_rate': 0.18145942296988077, 'max_depth': 9, 'min_child_weight': 3, 'n_estimators': 124, 'subsample': 0.772624114381433}), OrderedDict({'colsample_bytree': 0.8321929503064587, 'gamma': 1.1374322265159438, 'learning_rate': 0.29999999999999993, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6615801252606058}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7578436555289008}), OrderedDict({'colsample_bytree': 0.9376475119560603, 'gamma': 0.2733740702450294, 'learning_rate': 0.2808332371831757, 'max_depth': 14, 'min_child_weight': 7, 'n_estimators': 454, 'subsample': 0.9506576499414588}), OrderedDict({'colsample_bytree': 0.5663069376611345, 'gamma': 0.47264431934756057, 'learning_rate': 0.29168055080202177, 'max_depth': 10, 'min_child_weight': 10, 'n_estimators': 495, 'subsample': 0.7074006577342862}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5901227474093721, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8536600540678931, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6363461591007937}), OrderedDict({'colsample_bytree': 0.7218348533436714, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7820193284499559}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7078731821830193, 'gamma': 0.0, 'learning_rate': 0.04340399787498204, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6816931667138653}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 400, 'subsample': 0.6624084358290162}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.17698649834565663, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9096808126377858}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7590704990577081, 'gamma': 5.0, 'learning_rate': 0.21111823440791821, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9703157196947695, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8612381828359671}), OrderedDict({'colsample_bytree': 0.9458041587423565, 'gamma': 4.915727007635833, 'learning_rate': 0.03669267396392517, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 344, 'subsample': 0.5412107955906001}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5172768659045353}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6871785222371476}), OrderedDict({'colsample_bytree': 0.7184836053535057, 'gamma': 0.0008512357041978725, 'learning_rate': 0.07844334861674788, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 308, 'subsample': 0.6898869699041594}), OrderedDict({'colsample_bytree': 0.838565477951265, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8347205997931788, 'gamma': 2.602118396127003, 'learning_rate': 0.08327145756052967, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 407, 'subsample': 0.9579530583312961}), OrderedDict({'colsample_bytree': 0.9064785329179934, 'gamma': 4.975733893086155, 'learning_rate': 0.12299376215169774, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 71, 'subsample': 0.7266426215106089}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6561457640970341, 'gamma': 0.11850358721181345, 'learning_rate': 0.05759701600149102, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 72, 'subsample': 0.9726245409904917}), OrderedDict({'colsample_bytree': 0.5307655169942221, 'gamma': 0.05519944099276087, 'learning_rate': 0.02463992793256944, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 484, 'subsample': 0.5845249861431264}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 4, 'n_estimators': 50, 'subsample': 0.5813732936626177}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6803170435227031, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9922849000153862, 'gamma': 0.01944180853587552, 'learning_rate': 0.11486967928098041, 'max_depth': 8, 'min_child_weight': 5, 'n_estimators': 439, 'subsample': 0.5155557586512048}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.7324492327859221}), OrderedDict({'colsample_bytree': 0.8269668267397394, 'gamma': 1.1024321385530753, 'learning_rate': 0.040457996384010236, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 430, 'subsample': 0.7504492889471629}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.6009949912502126, 'learning_rate': 0.01, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6266442546435333, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8334416577962537, 'gamma': 0.23697457814375605, 'learning_rate': 0.012053680957764799, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 100, 'subsample': 0.9924060897762981}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.03285693876882577, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5170567613158781})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.7518104673486066, 'gamma': 1.6128539809647093, 'learning_rate': 0.03827090689141949, 'max_depth': 9, 'min_child_weight': 8, 'n_estimators': 110, 'subsample': 0.9277770127819938}), OrderedDict({'colsample_bytree': 0.7642309079493278, 'gamma': 1.677404843028151, 'learning_rate': 0.018866100816681237, 'max_depth': 2, 'min_child_weight': 3, 'n_estimators': 264, 'subsample': 0.9684977276642139}), OrderedDict({'colsample_bytree': 0.7605592676913248, 'gamma': 4.5473232410236815, 'learning_rate': 0.01477304610042225, 'max_depth': 9, 'min_child_weight': 9, 'n_estimators': 370, 'subsample': 0.6661870797595342}), OrderedDict({'colsample_bytree': 0.6076533683602925, 'gamma': 3.7245437904981484, 'learning_rate': 0.19678919660127078, 'max_depth': 6, 'min_child_weight': 2, 'n_estimators': 302, 'subsample': 0.6554826619701742}), OrderedDict({'colsample_bytree': 0.5873815497306294, 'gamma': 3.4133446935309246, 'learning_rate': 0.07141628918378298, 'max_depth': 6, 'min_child_weight': 4, 'n_estimators': 219, 'subsample': 0.6073369399850166}), OrderedDict({'colsample_bytree': 0.9285351123420693, 'gamma': 2.8617750409706364, 'learning_rate': 0.0117230546535085, 'max_depth': 2, 'min_child_weight': 5, 'n_estimators': 409, 'subsample': 0.6332361285438753}), OrderedDict({'colsample_bytree': 0.9144226110459106, 'gamma': 0.17138568830197823, 'learning_rate': 0.02798885190721511, 'max_depth': 5, 'min_child_weight': 3, 'n_estimators': 390, 'subsample': 0.9131281772593653}), OrderedDict({'colsample_bytree': 0.8537925728572644, 'gamma': 2.474850084966287, 'learning_rate': 0.04131658782462929, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 464, 'subsample': 0.6163882203476327}), OrderedDict({'colsample_bytree': 0.8994499682799986, 'gamma': 2.130134049102824, 'learning_rate': 0.01290930505652547, 'max_depth': 3, 'min_child_weight': 3, 'n_estimators': 446, 'subsample': 0.558573837388215}), OrderedDict({'colsample_bytree': 0.5663358837523078, 'gamma': 0.9211207253645122, 'learning_rate': 0.06066252398886822, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 190, 'subsample': 0.6088829314013444}), OrderedDict({'colsample_bytree': 0.5476371192772235, 'gamma': 0.0, 'learning_rate': 0.01447621254883501, 'max_depth': 7, 'min_child_weight': 9, 'n_estimators': 500, 'subsample': 0.6161606379996146}), OrderedDict({'colsample_bytree': 0.9507344933768452, 'gamma': 0.0, 'learning_rate': 0.041053354329136545, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 320, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8743730306593507, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6331857942152197}), OrderedDict({'colsample_bytree': 0.8298913504919434, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01096937015056865, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8029162339657328}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 5.0, 'learning_rate': 0.13482860261446777, 'max_depth': 7, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.7772134918707245}), OrderedDict({'colsample_bytree': 0.5609963903161903, 'gamma': 0.0, 'learning_rate': 0.028899365913544323, 'max_depth': 11, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.5864977638142735}), OrderedDict({'colsample_bytree': 0.8985296647072221, 'gamma': 4.9532575760982, 'learning_rate': 0.12766593001185997, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 51, 'subsample': 0.6299379764039282}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8949584132916303, 'gamma': 4.97119448294673, 'learning_rate': 0.1241048585882381, 'max_depth': 13, 'min_child_weight': 2, 'n_estimators': 491, 'subsample': 0.6620302695776011}), OrderedDict({'colsample_bytree': 0.9538869636692144, 'gamma': 0.8903245039808417, 'learning_rate': 0.012623563941571462, 'max_depth': 3, 'min_child_weight': 1, 'n_estimators': 490, 'subsample': 0.6332560771257888}), OrderedDict({'colsample_bytree': 0.7822532679260707, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9915849429333231, 'gamma': 0.4475716121713586, 'learning_rate': 0.02624955198701622, 'max_depth': 5, 'min_child_weight': 10, 'n_estimators': 494, 'subsample': 0.6256033283376382}), OrderedDict({'colsample_bytree': 0.9622916037796395, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 421, 'subsample': 0.5733282918178964}), OrderedDict({'colsample_bytree': 0.6172767437674664, 'gamma': 0.7316795355565044, 'learning_rate': 0.19851849263229518, 'max_depth': 15, 'min_child_weight': 9, 'n_estimators': 438, 'subsample': 0.9894952473815004}), OrderedDict({'colsample_bytree': 0.7279649016432447, 'gamma': 0.23803367923101898, 'learning_rate': 0.1309971283125223, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 385, 'subsample': 0.7455283488252706}), OrderedDict({'colsample_bytree': 0.964087203725563, 'gamma': 0.9041172896262331, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5495769813625208, 'gamma': 0.38274850176658665, 'learning_rate': 0.2781070989358426, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 378, 'subsample': 0.5118381282505232}), OrderedDict({'colsample_bytree': 0.5482293755768569, 'gamma': 0.0, 'learning_rate': 0.0153756563062408, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 278, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7284029529641238, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 408, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8984684698446369, 'gamma': 0.0, 'learning_rate': 0.24233853148338577, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 440, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5874753909995527, 'gamma': 5.0, 'learning_rate': 0.010389457944016838, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8719376606623923, 'gamma': 2.2576373461751, 'learning_rate': 0.11739594404357255, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7577876384700517, 'gamma': 0.7352928609725449, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6554411570026122, 'gamma': 0.0, 'learning_rate': 0.01093656855781563, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 269, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6974205290121931, 'gamma': 5.0, 'learning_rate': 0.06119816766820935, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 349, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9599631645880831, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 438, 'subsample': 0.6805552513015527}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.027197136619665926, 'max_depth': 8, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8283919380954862, 'gamma': 0.04807919964389392, 'learning_rate': 0.03974080367104519, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 237, 'subsample': 0.9777494024817928}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 287, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 418, 'subsample': 0.5})]</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="O105" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -10188,27 +10188,27 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>[0.6078431372549019, 0.6274509803921569, 0.7058823529411765, 0.6274509803921569, 0.6274509803921569, 0.6470588235294118, 0.6078431372549019, 0.5882352941176471, 0.6666666666666666, 0.6470588235294118, 0.7254901960784315, 0.7058823529411765, 0.6666666666666666, 0.6862745098039215, 0.7254901960784313, 0.7254901960784313, 0.7450980392156863, 0.7058823529411765, 0.7058823529411765, 0.6666666666666666, 0.6078431372549019, 0.7450980392156863, 0.7647058823529411, 0.6274509803921569, 0.7450980392156863, 0.6078431372549019, 0.7254901960784315, 0.6078431372549019, 0.7058823529411765, 0.7254901960784313, 0.6666666666666666, 0.7450980392156863, 0.7450980392156863, 0.6078431372549019, 0.5686274509803921, 0.6862745098039215, 0.7254901960784313, 0.7058823529411765, 0.6666666666666666, 0.7254901960784313, 0.7058823529411765, 0.7058823529411765, 0.7058823529411765, 0.7450980392156863, 0.6862745098039215, 0.6862745098039215, 0.7450980392156863, 0.7058823529411765, 0.5882352941176471, 0.7450980392156863]</t>
+          <t>[0.6078431372549019, 0.6470588235294118, 0.6274509803921569, 0.6274509803921569, 0.6470588235294118, 0.6078431372549019, 0.7058823529411765, 0.6862745098039215, 0.6078431372549019, 0.6666666666666666, 0.6078431372549019, 0.7450980392156863, 0.7254901960784315, 0.7450980392156863, 0.7058823529411765, 0.6666666666666666, 0.7058823529411765, 0.6862745098039215, 0.5882352941176471, 0.607843137254902, 0.6274509803921569, 0.7450980392156863, 0.5686274509803921, 0.6470588235294118, 0.6862745098039215, 0.6470588235294118, 0.7450980392156863, 0.6470588235294118, 0.7647058823529411, 0.7450980392156863, 0.7450980392156863, 0.7647058823529411, 0.6274509803921569, 0.7254901960784313, 0.6862745098039215, 0.7647058823529411, 0.6274509803921569, 0.6274509803921569, 0.6862745098039215, 0.6666666666666666, 0.7450980392156863, 0.7843137254901961, 0.5882352941176471, 0.7450980392156863, 0.784313725490196, 0.6862745098039215, 0.7058823529411763, 0.7254901960784313, 0.7058823529411765, 0.7058823529411765]</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>[0.6470588235294118, 0.6470588235294118, 0.6666666666666666, 0.6078431372549019, 0.6274509803921569, 0.6666666666666666, 0.6274509803921569, 0.6274509803921569, 0.6470588235294118, 0.6078431372549019, 0.6666666666666666, 0.6862745098039215, 0.6862745098039215, 0.6470588235294118, 0.6862745098039215, 0.6666666666666666, 0.6666666666666666, 0.6862745098039215, 0.6666666666666666, 0.6274509803921569, 0.5882352941176471, 0.6862745098039215, 0.7058823529411765, 0.6274509803921569, 0.6470588235294118, 0.5882352941176471, 0.7058823529411765, 0.5686274509803921, 0.6666666666666666, 0.6862745098039215, 0.6470588235294118, 0.6470588235294118, 0.6666666666666666, 0.6470588235294118, 0.6078431372549019, 0.7450980392156863, 0.6666666666666666, 0.6666666666666666, 0.6274509803921569, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6470588235294118, 0.6470588235294118, 0.6666666666666666, 0.7058823529411765, 0.6666666666666666, 0.5882352941176471, 0.6862745098039215]</t>
+          <t>[0.6862745098039215, 0.6274509803921569, 0.6078431372549019, 0.6078431372549019, 0.6274509803921569, 0.6078431372549019, 0.6470588235294118, 0.6470588235294118, 0.6274509803921569, 0.6666666666666666, 0.6470588235294118, 0.6862745098039215, 0.6666666666666666, 0.6862745098039215, 0.6470588235294118, 0.6078431372549019, 0.6666666666666666, 0.6666666666666666, 0.6078431372549019, 0.6470588235294118, 0.5686274509803921, 0.6862745098039215, 0.6078431372549019, 0.6470588235294118, 0.6666666666666666, 0.6470588235294118, 0.6666666666666666, 0.6666666666666666, 0.6666666666666666, 0.6470588235294118, 0.6470588235294118, 0.6666666666666666, 0.6470588235294118, 0.6666666666666666, 0.6666666666666666, 0.7058823529411765, 0.5490196078431372, 0.6078431372549019, 0.6666666666666666, 0.6078431372549019, 0.7254901960784315, 0.6862745098039215, 0.607843137254902, 0.6470588235294118, 0.7058823529411765, 0.6274509803921569, 0.6666666666666666, 0.6862745098039215, 0.7058823529411765, 0.6666666666666666]</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>[0.6789215686274511, 0.6004901960784313, 0.698529411764706, 0.5612745098039216, 0.6213235294117647, 0.7377450980392157, 0.6789215686274511, 0.6605392156862745, 0.6593137254901961, 0.6017156862745098, 0.7009803921568628, 0.7426470588235294, 0.7205882352941176, 0.6593137254901961, 0.6617647058823529, 0.6801470588235294, 0.7990196078431372, 0.7585784313725491, 0.7781862745098039, 0.6997549019607844, 0.5992647058823529, 0.801470588235294, 0.7034313725490197, 0.698529411764706, 0.7781862745098039, 0.6188725490196079, 0.7794117647058822, 0.6200980392156863, 0.7977941176470589, 0.681372549019608, 0.6593137254901961, 0.6997549019607843, 0.7781862745098039, 0.6213235294117647, 0.5392156862745098, 0.6801470588235294, 0.7401960784313726, 0.7205882352941176, 0.6580882352941176, 0.6997549019607843, 0.7990196078431372, 0.6004901960784315, 0.7598039215686274, 0.6997549019607844, 0.738970588235294, 0.7573529411764706, 0.6801470588235294, 0.7009803921568626, 0.5612745098039216, 0.7205882352941178]</t>
+          <t>[0.6397058823529412, 0.6200980392156862, 0.5992647058823529, 0.6200980392156862, 0.6409313725490197, 0.6200980392156862, 0.7401960784313726, 0.6593137254901961, 0.6789215686274509, 0.698529411764706, 0.6789215686274511, 0.7009803921568628, 0.7193627450980392, 0.7990196078431372, 0.6813725490196078, 0.6397058823529412, 0.7598039215686274, 0.738970588235294, 0.5392156862745098, 0.6397058823529412, 0.5588235294117647, 0.6617647058823529, 0.6213235294117647, 0.7377450980392157, 0.738970588235294, 0.6593137254901961, 0.7781862745098039, 0.6801470588235294, 0.6397058823529412, 0.6789215686274511, 0.7990196078431372, 0.7009803921568628, 0.5392156862745098, 0.7990196078431372, 0.7598039215686274, 0.6813725490196078, 0.5612745098039216, 0.6188725490196079, 0.7573529411764706, 0.6397058823529411, 0.6801470588235294, 0.6825980392156863, 0.49754901960784315, 0.7781862745098039, 0.6801470588235294, 0.7414215686274509, 0.7009803921568628, 0.6617647058823529, 0.6421568627450981, 0.7990196078431372]</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>[0.7426470588235294, 0.6838235294117648, 0.6838235294117648, 0.6629901960784313, 0.6642156862745098, 0.7230392156862745, 0.7230392156862745, 0.6654411764705882, 0.6825980392156863, 0.6813725490196078, 0.7426470588235294, 0.7218137254901961, 0.7230392156862745, 0.6629901960784313, 0.7022058823529411, 0.7230392156862745, 0.7230392156862745, 0.7034313725490197, 0.7230392156862745, 0.6629901960784313, 0.6237745098039216, 0.6838235294117648, 0.7426470588235294, 0.6654411764705882, 0.7230392156862745, 0.6654411764705882, 0.7230392156862745, 0.6654411764705882, 0.7230392156862745, 0.7034313725490197, 0.6629901960784313, 0.7230392156862745, 0.7230392156862745, 0.625, 0.6433823529411765, 0.6825980392156863, 0.7230392156862745, 0.7426470588235294, 0.6433823529411765, 0.7230392156862745, 0.7230392156862745, 0.7034313725490197, 0.7009803921568628, 0.7426470588235294, 0.7426470588235294, 0.7230392156862745, 0.7022058823529411, 0.6825980392156863, 0.6825980392156863, 0.7230392156862745]</t>
+          <t>[0.7230392156862745, 0.6825980392156863, 0.6642156862745098, 0.6642156862745098, 0.6433823529411765, 0.6838235294117646, 0.7230392156862745, 0.6838235294117646, 0.7034313725490197, 0.6629901960784313, 0.6838235294117648, 0.7230392156862745, 0.7230392156862745, 0.7230392156862745, 0.6629901960784313, 0.6789215686274509, 0.7009803921568628, 0.7230392156862745, 0.7046568627450981, 0.6225490196078431, 0.6642156862745098, 0.7242647058823529, 0.6642156862745098, 0.7426470588235294, 0.6617647058823529, 0.6629901960784313, 0.7230392156862745, 0.7230392156862745, 0.6825980392156863, 0.7426470588235294, 0.7230392156862745, 0.7230392156862745, 0.5245098039215687, 0.7230392156862745, 0.6825980392156863, 0.7426470588235294, 0.5036764705882353, 0.6433823529411765, 0.7230392156862745, 0.6041666666666666, 0.7218137254901961, 0.7426470588235294, 0.6262254901960784, 0.7230392156862745, 0.7230392156862745, 0.7034313725490197, 0.7034313725490197, 0.7022058823529411, 0.7022058823529411, 0.7230392156862745]</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>[0.8357843137254902, 0.7745098039215685, 0.8149509803921569, 0.7561274509803922, 0.7941176470588235, 0.7953431372549019, 0.8149509803921569, 0.7536764705882352, 0.7941176470588235, 0.8149509803921569, 0.8357843137254902, 0.8970588235294118, 0.8149509803921569, 0.8357843137254902, 0.8357843137254902, 0.8370098039215685, 0.8762254901960785, 0.8762254901960785, 0.8149509803921569, 0.7953431372549019, 0.7156862745098039, 0.8566176470588235, 0.8970588235294118, 0.6973039215686274, 0.8553921568627452, 0.7156862745098039, 0.8357843137254902, 0.7745098039215685, 0.8149509803921569, 0.8566176470588235, 0.8149509803921569, 0.8566176470588235, 0.8553921568627452, 0.7745098039215685, 0.7536764705882352, 0.8566176470588235, 0.7757352941176471, 0.8161764705882352, 0.8149509803921569, 0.8566176470588235, 0.8357843137254902, 0.8370098039215685, 0.8357843137254902, 0.8762254901960785, 0.8553921568627452, 0.8149509803921569, 0.8370098039215685, 0.7941176470588235, 0.7561274509803922, 0.8762254901960785]</t>
+          <t>[0.7941176470588235, 0.7757352941176471, 0.7745098039215685, 0.7953431372549019, 0.7941176470588235, 0.7941176470588235, 0.8566176470588235, 0.8345588235294118, 0.8137254901960785, 0.7745098039215685, 0.7745098039215685, 0.8762254901960785, 0.8357843137254902, 0.8970588235294118, 0.7941176470588235, 0.7549019607843137, 0.8357843137254902, 0.8774509803921569, 0.7340686274509803, 0.7549019607843137, 0.7524509803921569, 0.7953431372549019, 0.7536764705882352, 0.8553921568627452, 0.8370098039215685, 0.7953431372549019, 0.8762254901960785, 0.8149509803921569, 0.8553921568627452, 0.7953431372549019, 0.8553921568627452, 0.8970588235294118, 0.5931372549019608, 0.8553921568627452, 0.7745098039215685, 0.8970588235294118, 0.6936274509803922, 0.7549019607843137, 0.8345588235294118, 0.7549019607843137, 0.8370098039215685, 0.8762254901960785, 0.6924019607843137, 0.8553921568627452, 0.8566176470588235, 0.8357843137254902, 0.8357843137254902, 0.8357843137254902, 0.8370098039215685, 0.8149509803921569]</t>
         </is>
       </c>
     </row>
@@ -10320,52 +10320,52 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.4224041889483066</v>
+        <v>0.3143382352941176</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4417259624156176</v>
+        <v>0.3988888888888889</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="G107" t="n">
-        <v>0.458449074074074</v>
+        <v>0.4044159544159544</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[[3, 7, 1], [12, 13, 7], [1, 6, 10]]</t>
+          <t>[[0, 10, 1], [10, 17, 5], [1, 9, 7]]</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 206})</t>
+          <t>OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 188})</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>[0.7952380952380953, 0.767936507936508, 0.7955555555555556, 0.7815873015873016, 0.7723809523809525, 0.8171428571428571, 0.7634920634920636, 0.8038095238095238, 0.821904761904762, 0.8123809523809523, 0.7403174603174604, 0.8263492063492064, 0.7317460317460317, 0.8126984126984128, 0.7901587301587302, 0.7758730158730159, 0.7768253968253969, 0.8123809523809523, 0.8133333333333332, 0.8358730158730159, 0.8174603174603176, 0.839047619047619, 0.8304761904761906, 0.8038095238095238, 0.7758730158730159, 0.8212698412698414, 0.7768253968253969, 0.807936507936508, 0.7984126984126985, 0.7726984126984128, 0.8133333333333332, 0.8317460317460318, 0.834920634920635, 0.8441269841269842, 0.8441269841269842, 0.813015873015873, 0.826984126984127, 0.8393650793650794, 0.8171428571428573, 0.8171428571428571, 0.8266666666666665, 0.813015873015873, 0.8304761904761906, 0.8304761904761906, 0.8263492063492064, 0.7768253968253969, 0.7809523809523811, 0.7761904761904762, 0.7771428571428572, 0.7720634920634921]</t>
+          <t>[0.7946031746031746, 0.8187301587301586, 0.7911111111111111, 0.7768253968253969, 0.8168253968253969, 0.7634920634920636, 0.786984126984127, 0.7498412698412699, 0.7723809523809524, 0.7904761904761906, 0.7673015873015874, 0.7952380952380953, 0.807936507936508, 0.7949206349206349, 0.7904761904761906, 0.8212698412698414, 0.7358730158730158, 0.7365079365079366, 0.7546031746031747, 0.7952380952380953, 0.8215873015873016, 0.8260317460317459, 0.8215873015873016, 0.7898412698412698, 0.8266666666666665, 0.8447619047619048, 0.8352380952380953, 0.7996825396825397, 0.7952380952380953, 0.7730158730158732, 0.8311111111111111, 0.8346031746031747, 0.8355555555555556, 0.8212698412698414, 0.8257142857142858, 0.8307936507936509, 0.8304761904761906, 0.8212698412698411, 0.8352380952380953, 0.8171428571428573, 0.8352380952380953, 0.834920634920635, 0.7984126984126985, 0.8171428571428571, 0.7634920634920636, 0.7723809523809525, 0.8263492063492064, 0.74984126984127, 0.7771428571428572, 0.7726984126984127]</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>[0.04465934439818942, 0.06117518801048278, 0.06353490618039007, 0.04855793982221943, 0.04510395037164977, 0.06035420768668517, 0.05571405960248972, 0.04429225644344167, 0.054139783432922695, 0.04207277525594746, 0.041532740168701746, 0.04948309274513959, 0.04927286850461128, 0.054507113730374014, 0.059665651105931, 0.05429778014984875, 0.05444791510988785, 0.04173607220201858, 0.030575235880214675, 0.046814365125044416, 0.0569839059110537, 0.031033268342476043, 0.04048583763029809, 0.039095337986197014, 0.04443764120265991, 0.036852753932524344, 0.05444791510988785, 0.05051510928486626, 0.03157094575352839, 0.06549537958350653, 0.04381182418621212, 0.05310229625423853, 0.03155498067248048, 0.042620156055462606, 0.042620156055462606, 0.05791715267038077, 0.06101517929011178, 0.0305554524838501, 0.056854652396423705, 0.045424566948281446, 0.06233388102475217, 0.05983432236206148, 0.05194527810455474, 0.03759459388720626, 0.05703340487693937, 0.04842284567089402, 0.059603121763551085, 0.057669530554237944, 0.05420675590728, 0.049868559913292546]</t>
+          <t>[0.04914589219945673, 0.05928438620726186, 0.0687475691867386, 0.05180150887273033, 0.046490326586424095, 0.05571405960248972, 0.05226442064065188, 0.0639160447069049, 0.053410752576646285, 0.05088285817180402, 0.06571965318160855, 0.048923920658483964, 0.044738257853848426, 0.04634703191246431, 0.06166416411338489, 0.04432637377957349, 0.045637059991261546, 0.05908515618606653, 0.07784965904196608, 0.047385671509956304, 0.05658101213962391, 0.0621817166505839, 0.059734863925968454, 0.052362671172558835, 0.06233388102475217, 0.05329552703856077, 0.04717678219240616, 0.06102674035657442, 0.0355357087465542, 0.04074142787849039, 0.06068061105762726, 0.03764817036285356, 0.06043930883878515, 0.04928922871706662, 0.0349264064494605, 0.04057535316487738, 0.03759459388720626, 0.042039226304118986, 0.04487770678621535, 0.04841035643567684, 0.04487770678621535, 0.037293143252288045, 0.0367349738238542, 0.045424566948281446, 0.05546023568742216, 0.05721864462761166, 0.051840404740106316, 0.06566595876547887, 0.0559541258311741, 0.03869110703596408]</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>[33, 47, 32, 35, 45, 19, 48, 29, 15, 26, 49, 13, 50, 25, 34, 42, 38, 26, 21, 5, 17, 4, 8, 29, 42, 16, 38, 28, 31, 44, 21, 7, 6, 1, 1, 23, 11, 3, 18, 19, 12, 23, 8, 8, 13, 38, 36, 41, 37, 46]</t>
+          <t>[31, 20, 32, 38, 23, 44, 36, 48, 42, 33, 43, 27, 24, 30, 33, 17, 50, 49, 46, 27, 15, 13, 15, 35, 11, 1, 3, 25, 27, 39, 8, 7, 2, 17, 14, 9, 10, 19, 3, 21, 3, 6, 26, 22, 44, 41, 12, 47, 37, 40]</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 6, 'min_samples_split': 15, 'n_estimators': 255}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 14, 'n_estimators': 102}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 6, 'min_samples_split': 14, 'n_estimators': 120}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 8, 'min_samples_split': 9, 'n_estimators': 188}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 2, 'min_samples_split': 18, 'n_estimators': 98}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 15, 'n_estimators': 202}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 17, 'n_estimators': 282}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 4, 'min_samples_split': 7, 'n_estimators': 281}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 8, 'n_estimators': 213}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 6, 'n_estimators': 53}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 278}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 81}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 61}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 4, 'min_samples_split': 9, 'n_estimators': 124}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 184}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 200}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 74}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 293}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 236}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 98}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 267}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 61}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 93}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 63}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 176}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 4, 'n_estimators': 164}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 137}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 206}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 209}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 136}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 181}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 126}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 154}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 188}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 81}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 9, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 50})]</t>
+          <t>[OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 2, 'min_samples_split': 5, 'n_estimators': 105}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 3, 'min_samples_split': 12, 'n_estimators': 173}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 8, 'min_samples_split': 18, 'n_estimators': 226}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 8, 'min_samples_split': 4, 'n_estimators': 81}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 9, 'n_estimators': 285}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 10, 'min_samples_split': 18, 'n_estimators': 282}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 7, 'min_samples_split': 2, 'n_estimators': 227}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 10, 'min_samples_split': 11, 'n_estimators': 62}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 9, 'min_samples_split': 19, 'n_estimators': 204}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 6, 'min_samples_split': 19, 'n_estimators': 153}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 4, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 17, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 4, 'min_samples_split': 15, 'n_estimators': 169}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 72}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 122}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 5, 'min_samples_split': 3, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 199}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 113}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 16, 'n_estimators': 212}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 7, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 188}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 184}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 166}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 275}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 232}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 237}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 246}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 226}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 259}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 295}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 4, 'n_estimators': 283}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 8, 'n_estimators': 230}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 135}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 194}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 195}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 195}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 5, 'n_estimators': 204}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 177}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 211}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 175}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 9, 'min_samples_split': 6, 'n_estimators': 195}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 6, 'min_samples_split': 20, 'n_estimators': 50})]</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="O107" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -10374,27 +10374,27 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>[0.7523809523809524, 0.7063492063492064, 0.7523809523809524, 0.7285714285714286, 0.7507936507936508, 0.7952380952380952, 0.684126984126984, 0.7968253968253968, 0.8412698412698413, 0.7968253968253968, 0.7507936507936508, 0.8190476190476191, 0.7301587301587302, 0.8190476190476191, 0.7507936507936508, 0.7730158730158729, 0.7285714285714286, 0.7746031746031745, 0.7984126984126984, 0.8428571428571429, 0.8412698412698413, 0.8634920634920634, 0.8412698412698413, 0.7968253968253968, 0.7730158730158729, 0.7968253968253968, 0.7285714285714286, 0.7968253968253968, 0.7952380952380952, 0.7063492063492064, 0.8190476190476191, 0.8428571428571429, 0.8190476190476191, 0.8634920634920634, 0.8634920634920634, 0.7746031746031745, 0.8190476190476191, 0.8412698412698413, 0.8396825396825397, 0.8412698412698413, 0.7984126984126984, 0.7968253968253968, 0.8634920634920634, 0.8190476190476191, 0.8412698412698413, 0.7285714285714286, 0.7285714285714286, 0.7285714285714286, 0.7063492063492064, 0.7285714285714286]</t>
+          <t>[0.7507936507936508, 0.7984126984126984, 0.7063492063492064, 0.7507936507936508, 0.7952380952380952, 0.684126984126984, 0.753968253968254, 0.684126984126984, 0.7063492063492064, 0.7730158730158729, 0.7047619047619048, 0.7984126984126984, 0.7968253968253968, 0.7746031746031745, 0.7730158730158729, 0.8190476190476191, 0.707936507936508, 0.707936507936508, 0.707936507936508, 0.7746031746031745, 0.8174603174603176, 0.8857142857142857, 0.8174603174603176, 0.7507936507936508, 0.7984126984126984, 0.8190476190476191, 0.8412698412698413, 0.7746031746031745, 0.7968253968253968, 0.7523809523809524, 0.8412698412698413, 0.8634920634920634, 0.7730158730158729, 0.8174603174603176, 0.8190476190476191, 0.8428571428571429, 0.8190476190476191, 0.8412698412698413, 0.8412698412698413, 0.7730158730158729, 0.8412698412698413, 0.8412698412698413, 0.7952380952380952, 0.8412698412698413, 0.684126984126984, 0.7285714285714286, 0.8174603174603176, 0.6603174603174603, 0.7063492063492064, 0.7507936507936508]</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>[0.7730158730158729, 0.7507936507936508, 0.7507936507936508, 0.7507936507936508, 0.7285714285714285, 0.7952380952380952, 0.7285714285714285, 0.7952380952380952, 0.7952380952380952, 0.7714285714285715, 0.684126984126984, 0.7714285714285715, 0.6396825396825396, 0.7492063492063492, 0.7269841269841271, 0.7031746031746032, 0.7730158730158729, 0.7936507936507936, 0.7952380952380952, 0.7936507936507936, 0.7730158730158729, 0.815873015873016, 0.7936507936507936, 0.7730158730158729, 0.7253968253968254, 0.815873015873016, 0.7730158730158729, 0.7936507936507936, 0.7714285714285715, 0.7507936507936508, 0.7730158730158729, 0.7936507936507936, 0.815873015873016, 0.815873015873016, 0.815873015873016, 0.7714285714285715, 0.7714285714285715, 0.815873015873016, 0.7730158730158729, 0.7730158730158729, 0.7492063492063492, 0.7492063492063492, 0.7714285714285715, 0.815873015873016, 0.7714285714285715, 0.7730158730158729, 0.7492063492063492, 0.7492063492063492, 0.7507936507936508, 0.7730158730158729]</t>
+          <t>[0.7952380952380952, 0.7952380952380952, 0.7507936507936508, 0.7285714285714285, 0.7936507936507936, 0.7285714285714285, 0.7285714285714285, 0.684126984126984, 0.7730158730158729, 0.7492063492063492, 0.684126984126984, 0.7285714285714285, 0.7492063492063492, 0.7714285714285715, 0.7269841269841271, 0.7714285714285715, 0.6619047619047619, 0.6396825396825396, 0.638095238095238, 0.7730158730158729, 0.7714285714285715, 0.7492063492063492, 0.7936507936507936, 0.7952380952380952, 0.7492063492063492, 0.815873015873016, 0.7936507936507936, 0.7269841269841271, 0.7952380952380952, 0.7063492063492064, 0.7714285714285715, 0.815873015873016, 0.815873015873016, 0.7714285714285715, 0.815873015873016, 0.7936507936507936, 0.815873015873016, 0.7936507936507936, 0.7936507936507936, 0.815873015873016, 0.7936507936507936, 0.815873015873016, 0.7714285714285715, 0.7730158730158729, 0.7507936507936508, 0.7507936507936508, 0.7714285714285715, 0.707936507936508, 0.7730158730158729, 0.7507936507936508]</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>[0.753968253968254, 0.7063492063492064, 0.7301587301587302, 0.753968253968254, 0.7301587301587302, 0.7301587301587302, 0.753968253968254, 0.7301587301587302, 0.7301587301587302, 0.7746031746031746, 0.7317460317460318, 0.7746031746031746, 0.7777777777777778, 0.7523809523809524, 0.7523809523809524, 0.7301587301587302, 0.7063492063492064, 0.7746031746031746, 0.7761904761904761, 0.7761904761904761, 0.7301587301587302, 0.7968253968253968, 0.7746031746031746, 0.753968253968254, 0.7301587301587302, 0.7746031746031746, 0.7063492063492064, 0.7301587301587302, 0.7746031746031746, 0.7063492063492064, 0.753968253968254, 0.753968253968254, 0.7968253968253968, 0.7746031746031746, 0.7746031746031746, 0.7523809523809524, 0.7523809523809524, 0.7968253968253968, 0.7301587301587302, 0.7523809523809524, 0.7968253968253968, 0.7523809523809524, 0.7746031746031746, 0.7746031746031746, 0.7523809523809524, 0.7301587301587302, 0.7301587301587302, 0.7301587301587302, 0.753968253968254, 0.7063492063492064]</t>
+          <t>[0.7301587301587302, 0.7301587301587302, 0.753968253968254, 0.7301587301587302, 0.7746031746031746, 0.753968253968254, 0.753968253968254, 0.7317460317460318, 0.7301587301587302, 0.7301587301587302, 0.7746031746031746, 0.753968253968254, 0.7746031746031746, 0.7523809523809524, 0.7301587301587302, 0.7746031746031746, 0.753968253968254, 0.753968253968254, 0.753968253968254, 0.7301587301587302, 0.7523809523809524, 0.7523809523809524, 0.7301587301587302, 0.7301587301587302, 0.7968253968253968, 0.7746031746031746, 0.7746031746031746, 0.753968253968254, 0.7317460317460318, 0.7777777777777778, 0.7523809523809524, 0.7746031746031746, 0.7746031746031746, 0.7746031746031746, 0.7746031746031746, 0.7746031746031746, 0.7746031746031746, 0.7523809523809524, 0.7746031746031746, 0.7746031746031746, 0.7746031746031746, 0.7746031746031746, 0.7523809523809524, 0.7523809523809524, 0.7317460317460318, 0.7063492063492064, 0.7746031746031746, 0.7317460317460318, 0.7301587301587302, 0.7301587301587302]</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>[0.8603174603174604, 0.815873015873016, 0.8841269841269841, 0.8142857142857144, 0.815873015873016, 0.8587301587301588, 0.8142857142857144, 0.8603174603174604, 0.8603174603174604, 0.8365079365079365, 0.7238095238095239, 0.8841269841269841, 0.7698412698412698, 0.8603174603174604, 0.8380952380952381, 0.8380952380952381, 0.8396825396825397, 0.8365079365079365, 0.8603174603174604, 0.8603174603174603, 0.8603174603174604, 0.8365079365079365, 0.8603174603174604, 0.8603174603174604, 0.8380952380952381, 0.8365079365079365, 0.8396825396825397, 0.8365079365079365, 0.7920634920634922, 0.8396825396825397, 0.8603174603174604, 0.8619047619047618, 0.8603174603174604, 0.8841269841269841, 0.8841269841269841, 0.8841269841269841, 0.9095238095238095, 0.8603174603174604, 0.8603174603174604, 0.8603174603174604, 0.9301587301587301, 0.8841269841269842, 0.8365079365079365, 0.8603174603174604, 0.8603174603174604, 0.792063492063492, 0.8142857142857144, 0.7904761904761904, 0.861904761904762, 0.8396825396825397]</t>
+          <t>[0.8380952380952381, 0.8857142857142858, 0.8841269841269841, 0.815873015873016, 0.8142857142857144, 0.8142857142857144, 0.8619047619047618, 0.8365079365079365, 0.792063492063492, 0.8396825396825397, 0.8603174603174603, 0.8603174603174604, 0.8603174603174604, 0.7920634920634922, 0.8380952380952381, 0.8587301587301587, 0.7904761904761904, 0.8142857142857144, 0.8603174603174604, 0.8380952380952381, 0.8603174603174604, 0.8841269841269841, 0.8603174603174604, 0.7904761904761904, 0.9301587301587301, 0.9079365079365079, 0.8603174603174604, 0.8841269841269841, 0.8396825396825397, 0.8142857142857144, 0.9079365079365079, 0.8365079365079365, 0.9079365079365079, 0.8365079365079365, 0.8365079365079365, 0.8603174603174604, 0.8603174603174604, 0.8603174603174604, 0.8841269841269841, 0.815873015873016, 0.8841269841269841, 0.8603174603174604, 0.8142857142857144, 0.8603174603174604, 0.8142857142857144, 0.815873015873016, 0.8619047619047618, 0.8365079365079365, 0.815873015873016, 0.7936507936507936]</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>[0.8365079365079365, 0.8603174603174604, 0.8603174603174604, 0.8603174603174604, 0.8365079365079365, 0.9063492063492063, 0.8365079365079365, 0.8365079365079365, 0.8825396825396826, 0.8825396825396825, 0.8111111111111112, 0.8825396825396826, 0.7412698412698413, 0.8825396825396826, 0.8825396825396826, 0.834920634920635, 0.8365079365079365, 0.8825396825396826, 0.8365079365079365, 0.9063492063492063, 0.8825396825396826, 0.8825396825396826, 0.8825396825396826, 0.834920634920635, 0.8126984126984128, 0.8825396825396826, 0.8365079365079365, 0.8825396825396826, 0.8587301587301587, 0.8603174603174604, 0.8603174603174604, 0.9063492063492063, 0.8825396825396826, 0.8825396825396826, 0.8825396825396826, 0.8825396825396826, 0.8825396825396826, 0.8825396825396826, 0.8825396825396826, 0.8587301587301587, 0.8587301587301587, 0.8825396825396826, 0.9063492063492063, 0.8825396825396826, 0.9063492063492063, 0.8603174603174604, 0.8825396825396826, 0.8825396825396826, 0.8126984126984128, 0.8126984126984128]</t>
+          <t>[0.8587301587301587, 0.8841269841269841, 0.8603174603174604, 0.8587301587301587, 0.9063492063492063, 0.8365079365079365, 0.8365079365079365, 0.8126984126984128, 0.8603174603174604, 0.8603174603174604, 0.8126984126984128, 0.834920634920635, 0.8587301587301587, 0.8841269841269841, 0.8841269841269841, 0.8825396825396826, 0.765079365079365, 0.7666666666666666, 0.8126984126984128, 0.8603174603174604, 0.9063492063492063, 0.8587301587301587, 0.9063492063492063, 0.8825396825396826, 0.8587301587301587, 0.9063492063492063, 0.9063492063492063, 0.8587301587301587, 0.8126984126984128, 0.8142857142857144, 0.8825396825396826, 0.8825396825396826, 0.9063492063492063, 0.9063492063492063, 0.8825396825396826, 0.8825396825396826, 0.8825396825396826, 0.8587301587301587, 0.8825396825396826, 0.9063492063492063, 0.8825396825396826, 0.8825396825396826, 0.8587301587301587, 0.8587301587301587, 0.8365079365079365, 0.8603174603174604, 0.9063492063492063, 0.8126984126984128, 0.8603174603174604, 0.8380952380952381]</t>
         </is>
       </c>
     </row>
@@ -10524,31 +10524,31 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'tanh', 'alpha': 0.006678066877615563, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>[0.3187301587301587, 0.47269841269841273, 0.5869841269841269, 0.46603174603174596, 0.6314285714285715, 0.6311111111111111, 0.3076190476190476, 0.593968253968254, 0.6488888888888888, 0.5860317460317461, 0.6403174603174602, 0.7533333333333333, 0.7003174603174603, 0.6438095238095237, 0.7488888888888888, 0.6736507936507936, 0.7028571428571428, 0.6031746031746031, 0.6853968253968253, 0.5901587301587302, 0.7533333333333333, 0.7533333333333333, 0.5926984126984127, 0.5053968253968254, 0.3152380952380952, 0.5158730158730159, 0.2777777777777778, 0.2958730158730159, 0.4019047619047619, 0.6044444444444445, 0.48761904761904756, 0.5158730158730158, 0.5206349206349206, 0.5403174603174603, 0.6387301587301588, 0.6485714285714286, 0.6387301587301588, 0.5158730158730158, 0.6434920634920636, 0.5158730158730158, 0.7488888888888888, 0.33396825396825397, 0.3526984126984127, 0.3384126984126984, 0.7488888888888888, 0.44761904761904764, 0.393015873015873, 0.40222222222222215, 0.40222222222222215, 0.44761904761904764]</t>
+          <t>[0.6073015873015873, 0.6184126984126984, 0.3187301587301587, 0.5314285714285714, 0.42444444444444435, 0.3152380952380952, 0.3076190476190476, 0.6095238095238095, 0.4288888888888889, 0.3076190476190476, 0.5955555555555556, 0.6666666666666666, 0.7003174603174603, 0.6736507936507936, 0.6498412698412698, 0.613015873015873, 0.6079365079365079, 0.6387301587301588, 0.6139682539682539, 0.5809523809523809, 0.7488888888888888, 0.7488888888888888, 0.7488888888888888, 0.7533333333333333, 0.606984126984127, 0.598095238095238, 0.5942857142857143, 0.6038095238095238, 0.5403174603174603, 0.4022222222222222, 0.6984126984126984, 0.7076190476190477, 0.6307936507936508, 0.6222222222222222, 0.6352380952380952, 0.6171428571428571, 0.6130158730158729, 0.7488888888888888, 0.6133333333333333, 0.7488888888888888, 0.7533333333333333, 0.594920634920635, 0.5904761904761905, 0.6441269841269841, 0.5857142857142857, 0.594920634920635, 0.7488888888888888, 0.6673015873015873, 0.6485714285714285, 0.5949206349206348]</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>[0.05431633778399046, 0.11255927024109727, 0.07125127909015294, 0.14295093922548122, 0.06925002262570654, 0.04887858064897657, 0.052562456101130035, 0.025464196355752988, 0.04655314991701166, 0.041201408464527314, 0.06264997124059564, 0.08231103862708206, 0.09302941555891911, 0.030984517301730935, 0.09751459116485016, 0.07784965904196606, 0.09255696971586266, 0.0938362436096225, 0.07614019504894376, 0.05194527810455478, 0.08231103862708206, 0.08231103862708206, 0.08226817371345768, 0.08469470018754956, 0.07112528203473101, 0.04235448909246455, 0.05676240190116444, 0.059726427632350046, 0.03861288516128666, 0.05495273857549168, 0.04998765279645332, 0.06882375678945649, 0.062006428522617806, 0.0439496264478209, 0.07006170120193084, 0.07890405781793519, 0.07006170120193084, 0.06882375678945649, 0.06613240191478298, 0.06882375678945649, 0.09751459116485016, 0.06096230078008963, 0.06321686390581367, 0.05946261404559846, 0.09751459116485016, 0.12755032501700087, 0.11649798841660158, 0.11493466545939497, 0.11493466545939497, 0.12755032501700087]</t>
+          <t>[0.049053526124999906, 0.04432637377957347, 0.05431633778399046, 0.050168775365439455, 0.09701308896528886, 0.07112528203473101, 0.052562456101130035, 0.0448956686467649, 0.09600432508943572, 0.052562456101130035, 0.045546429039900846, 0.04135522303360524, 0.09302941555891911, 0.07784965904196606, 0.0768594965644722, 0.08694820252250578, 0.08904181855878154, 0.07006170120193084, 0.043717409485973344, 0.04949734742759815, 0.09751459116485016, 0.09751459116485016, 0.09751459116485016, 0.08231103862708206, 0.037436096554940755, 0.04340508043778436, 0.029773648476681576, 0.05219881754683704, 0.08467684930525017, 0.12656120047374914, 0.10289338965486894, 0.10033152402925892, 0.03592495186903721, 0.07601169500660919, 0.06305724122932882, 0.04059770120846056, 0.052274061210457134, 0.09751459116485016, 0.08679274508648326, 0.09751459116485016, 0.08231103862708206, 0.037433404375831536, 0.03616819141238376, 0.04490015798917364, 0.031570945753528444, 0.037433404375831536, 0.09751459116485016, 0.032461772777559905, 0.040575353164877294, 0.03307381972225779]</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>[46, 35, 25, 36, 18, 19, 48, 22, 11, 26, 15, 1, 8, 13, 4, 10, 7, 21, 9, 24, 1, 1, 23, 33, 47, 29, 50, 49, 41, 20, 34, 30, 28, 27, 16, 12, 16, 30, 14, 30, 4, 45, 43, 44, 4, 37, 42, 39, 39, 37]</t>
+          <t>[30, 22, 47, 43, 45, 48, 49, 28, 44, 49, 34, 14, 10, 12, 15, 26, 29, 18, 24, 41, 3, 3, 3, 1, 31, 33, 38, 32, 42, 46, 11, 9, 20, 21, 19, 23, 27, 3, 25, 3, 1, 35, 39, 17, 40, 35, 3, 13, 16, 37]</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'relu', 'alpha': 6.8798834306827765e-06, 'learning_rate_init': 0.00014994983252374495, 'max_iter': 1345, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00038980390932996076, 'learning_rate_init': 0.0002761407873689372, 'max_iter': 2299, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.001450605249965627, 'learning_rate_init': 0.003938224346065737, 'max_iter': 1366, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0037716312892358463, 'learning_rate_init': 0.0007696394956296486, 'max_iter': 2692, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0045937591521378615, 'learning_rate_init': 0.0016710710924155974, 'max_iter': 1621, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.1797539216683288e-05, 'learning_rate_init': 0.0035200081456530827, 'max_iter': 844, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.003549431860378448, 'learning_rate_init': 0.0001322311694477668, 'max_iter': 2392, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.011536024789421288, 'learning_rate_init': 0.0006162360597958845, 'max_iter': 1851, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.00044482463780564935, 'learning_rate_init': 0.0013611711682754415, 'max_iter': 1747, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 4.6195509623112076e-05, 'learning_rate_init': 0.0013034296247481192, 'max_iter': 1361, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.00034749490938040226, 'learning_rate_init': 0.0013546273907980842, 'max_iter': 1982, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.006678066877615563, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.196834903815649e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0033733513344184683, 'learning_rate_init': 0.001016458971876935, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006292708975021014, 'max_iter': 2140, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.007802848810443144, 'max_iter': 2699, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0067686445829009895, 'max_iter': 2676, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1.1537753926922306e-06, 'learning_rate_init': 0.0009800834235005281, 'max_iter': 2481, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0007426697041245693, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 2905, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0003903427811187067, 'learning_rate_init': 0.0003069385503846659, 'max_iter': 2189, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.00019758360392489394, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.00016174692609250766, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.002512663507835357, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 4.397138145034166e-06, 'learning_rate_init': 0.0026416867858365736, 'max_iter': 538, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.003207416795527738, 'max_iter': 2658, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.003133960105856265, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.002980753046578062, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0032428456012859796, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.00492392529142505, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0033103557332342277, 'max_iter': 1825, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.003296841505937588, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0033372291760194804, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.01742905706521528, 'learning_rate_init': 0.00330634924834387, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.350982840055442e-05, 'learning_rate_init': 0.00022239634340793761, 'max_iter': 1363, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00030629093528794965, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.0782887726439247e-06, 'learning_rate_init': 0.0002475993924127817, 'max_iter': 730, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.4469148690457287e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 2.2319956833237822e-06, 'learning_rate_init': 0.00038204619181135937, 'max_iter': 1676, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.08249033181877613, 'learning_rate_init': 0.0003702445629023843, 'max_iter': 1719, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 9.116012704246471e-05, 'learning_rate_init': 0.0004638477576668127, 'max_iter': 654, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.000271434157949417, 'learning_rate_init': 0.000415777202903963, 'max_iter': 652, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0845121775303459, 'learning_rate_init': 0.0003724488807406187, 'max_iter': 3000, 'solver': 'adam'})]</t>
+          <t>[OrderedDict({'activation': 'logistic', 'alpha': 6.903426779634078e-05, 'learning_rate_init': 0.0015576349937321146, 'max_iter': 585, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.00022392376959983354, 'learning_rate_init': 0.00202851974780586, 'max_iter': 1198, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 4.6918677627091876e-05, 'learning_rate_init': 0.00015544089315652404, 'max_iter': 2842, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0921356940350606, 'learning_rate_init': 0.0011179855941248335, 'max_iter': 2802, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.003371922220742348, 'learning_rate_init': 0.00023236587913411818, 'max_iter': 1309, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.5356410070464332e-06, 'learning_rate_init': 0.00010098995750562765, 'max_iter': 2911, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0003953781814162762, 'learning_rate_init': 0.00017707087824527063, 'max_iter': 1060, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.0014555153301325124, 'learning_rate_init': 0.0020732072115826204, 'max_iter': 2426, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 8.670748078023259e-06, 'learning_rate_init': 0.0002453541077057966, 'max_iter': 1832, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 4.1392318693677465e-05, 'learning_rate_init': 0.0001292502965591707, 'max_iter': 2845, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.002465009164463277, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.028270113392101164, 'learning_rate_init': 0.002399343662628626, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.007083058657630421, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.005926707534359008, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.006891044882681329, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.007654589991803073, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.003245995437167275, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0034865409789531818, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0027056731193533337, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.06692520160316759, 'learning_rate_init': 0.0008086736901771295, 'max_iter': 1526, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.08384993396315742, 'learning_rate_init': 0.0007285980237861209, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.028456512852064433, 'learning_rate_init': 0.0006200868628233646, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0007622341718915027, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1.1618125195043697e-05, 'learning_rate_init': 0.0005384877876197724, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0005773025477250053, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.06569950599586036, 'learning_rate_init': 0.0074836780991761115, 'max_iter': 1867, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.052390426716065766, 'learning_rate_init': 0.005250219773905852, 'max_iter': 2737, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0033022817818183147, 'learning_rate_init': 0.003119739369872611, 'max_iter': 1056, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.01455385795742018, 'learning_rate_init': 0.002130374158832313, 'max_iter': 2936, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.002166848717525735, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0022066951938541045, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.002723615139957764, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1322, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0019251545733217025, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1828, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.001497891061049567, 'learning_rate_init': 0.0011063728597312372, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0012274838391237535, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0035544109532192735, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0010000664053760326, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0011055423046230652, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.0002746328621776409, 'learning_rate_init': 0.01, 'max_iter': 2084, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.003288226704825392, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.003621459118739321, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0064360392453743, 'max_iter': 3000, 'solver': 'sgd'})]</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O109" t="n">
         <v>0.45</v>
@@ -10560,27 +10560,27 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>[0.37777777777777777, 0.4904761904761905, 0.665079365079365, 0.5492063492063491, 0.684126984126984, 0.6190476190476191, 0.3666666666666667, 0.6126984126984126, 0.684126984126984, 0.6142857142857143, 0.684126984126984, 0.8206349206349207, 0.7984126984126984, 0.6126984126984126, 0.7507936507936508, 0.6873015873015872, 0.7761904761904762, 0.5015873015873016, 0.7746031746031745, 0.5730158730158731, 0.8206349206349207, 0.8206349206349207, 0.4507936507936508, 0.5873015873015873, 0.26666666666666666, 0.5619047619047619, 0.24444444444444444, 0.3111111111111111, 0.37777777777777777, 0.6873015873015872, 0.526984126984127, 0.526984126984127, 0.526984126984127, 0.5047619047619047, 0.6634920634920635, 0.6158730158730159, 0.6634920634920635, 0.526984126984127, 0.6634920634920635, 0.526984126984127, 0.7507936507936508, 0.3666666666666667, 0.38888888888888884, 0.3666666666666667, 0.7507936507936508, 0.546031746031746, 0.546031746031746, 0.546031746031746, 0.546031746031746, 0.546031746031746]</t>
+          <t>[0.6174603174603175, 0.6873015873015872, 0.37777777777777777, 0.5555555555555555, 0.37777777777777777, 0.26666666666666666, 0.3666666666666667, 0.6873015873015872, 0.37777777777777777, 0.3666666666666667, 0.665079365079365, 0.684126984126984, 0.7984126984126984, 0.6873015873015872, 0.6634920634920635, 0.5730158730158731, 0.5253968253968254, 0.6634920634920635, 0.6873015873015872, 0.5492063492063491, 0.7507936507936508, 0.7507936507936508, 0.7507936507936508, 0.8206349206349207, 0.5682539682539682, 0.5682539682539682, 0.6365079365079366, 0.6142857142857143, 0.6126984126984126, 0.5682539682539682, 0.7523809523809524, 0.7761904761904762, 0.6190476190476191, 0.684126984126984, 0.684126984126984, 0.6190476190476191, 0.6190476190476191, 0.7507936507936508, 0.684126984126984, 0.7507936507936508, 0.8206349206349207, 0.6142857142857143, 0.5920634920634921, 0.6825396825396824, 0.6142857142857143, 0.6142857142857143, 0.7507936507936508, 0.6634920634920635, 0.6825396825396824, 0.6158730158730159]</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>[0.27619047619047615, 0.5047619047619047, 0.4619047619047619, 0.3904761904761904, 0.5936507936507937, 0.6206349206349207, 0.36349206349206353, 0.5523809523809523, 0.6396825396825396, 0.5063492063492063, 0.6396825396825396, 0.6809523809523809, 0.5285714285714286, 0.6603174603174603, 0.6333333333333333, 0.5507936507936507, 0.6587301587301587, 0.5317460317460317, 0.6142857142857143, 0.5095238095238095, 0.6809523809523809, 0.6809523809523809, 0.5968253968253968, 0.4396825396825397, 0.4222222222222222, 0.48888888888888893, 0.280952380952381, 0.280952380952381, 0.4222222222222222, 0.5507936507936507, 0.5047619047619047, 0.5047619047619047, 0.5047619047619047, 0.5047619047619047, 0.5952380952380952, 0.5476190476190476, 0.5952380952380952, 0.5047619047619047, 0.5952380952380952, 0.5047619047619047, 0.6333333333333333, 0.36349206349206353, 0.41269841269841273, 0.36349206349206353, 0.6333333333333333, 0.41269841269841273, 0.3904761904761904, 0.3904761904761904, 0.3904761904761904, 0.41269841269841273]</t>
+          <t>[0.5746031746031747, 0.5507936507936507, 0.27619047619047615, 0.5301587301587302, 0.4619047619047619, 0.4222222222222222, 0.36349206349206353, 0.5507936507936507, 0.4619047619047619, 0.36349206349206353, 0.5507936507936507, 0.5920634920634921, 0.5285714285714286, 0.5507936507936507, 0.5920634920634921, 0.5095238095238095, 0.5317460317460317, 0.5952380952380952, 0.5507936507936507, 0.5095238095238095, 0.6333333333333333, 0.6333333333333333, 0.6333333333333333, 0.6809523809523809, 0.5984126984126984, 0.5761904761904763, 0.5523809523809523, 0.5063492063492063, 0.5079365079365079, 0.3904761904761904, 0.6587301587301587, 0.6825396825396827, 0.6206349206349207, 0.526984126984127, 0.5920634920634921, 0.5984126984126984, 0.5539682539682539, 0.6333333333333333, 0.526984126984127, 0.6333333333333333, 0.6809523809523809, 0.5285714285714286, 0.5285714285714286, 0.5936507936507937, 0.5301587301587302, 0.5285714285714286, 0.6333333333333333, 0.6158730158730159, 0.6158730158730159, 0.5507936507936507]</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>[0.2523809523809524, 0.39206349206349206, 0.6412698412698412, 0.23015873015873015, 0.6412698412698412, 0.5523809523809523, 0.23015873015873015, 0.6174603174603175, 0.6634920634920635, 0.6190476190476191, 0.6634920634920635, 0.6412698412698412, 0.6857142857142856, 0.6412698412698412, 0.6634920634920635, 0.6412698412698412, 0.5746031746031747, 0.5746031746031747, 0.6857142857142856, 0.5746031746031747, 0.6412698412698412, 0.6412698412698412, 0.5746031746031746, 0.5063492063492063, 0.2126984126984127, 0.5079365079365079, 0.18888888888888888, 0.18888888888888888, 0.4428571428571429, 0.6412698412698412, 0.5063492063492063, 0.5063492063492063, 0.5063492063492063, 0.5063492063492063, 0.5968253968253968, 0.5968253968253968, 0.5968253968253968, 0.5063492063492063, 0.5968253968253968, 0.5063492063492063, 0.6634920634920635, 0.23015873015873015, 0.2523809523809524, 0.23015873015873015, 0.6634920634920635, 0.2523809523809524, 0.23015873015873015, 0.2523809523809524, 0.2523809523809524, 0.2523809523809524]</t>
+          <t>[0.5523809523809523, 0.6190476190476191, 0.2523809523809524, 0.5063492063492063, 0.39365079365079364, 0.2126984126984127, 0.23015873015873015, 0.6190476190476191, 0.4158730158730159, 0.23015873015873015, 0.6190476190476191, 0.6634920634920635, 0.6857142857142856, 0.6412698412698412, 0.6857142857142856, 0.5746031746031747, 0.5746031746031747, 0.5968253968253968, 0.6190476190476191, 0.5746031746031747, 0.6634920634920635, 0.6634920634920635, 0.6634920634920635, 0.6412698412698412, 0.5746031746031747, 0.5523809523809523, 0.6174603174603175, 0.6634920634920635, 0.39206349206349206, 0.23015873015873015, 0.5523809523809523, 0.5746031746031747, 0.5746031746031747, 0.6412698412698412, 0.6412698412698412, 0.5523809523809523, 0.5523809523809523, 0.6634920634920635, 0.6412698412698412, 0.6634920634920635, 0.6412698412698412, 0.6412698412698412, 0.6412698412698412, 0.6634920634920635, 0.6174603174603175, 0.6412698412698412, 0.6634920634920635, 0.6634920634920635, 0.6634920634920635, 0.6412698412698412]</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>[0.38730158730158726, 0.653968253968254, 0.5650793650793651, 0.5174603174603175, 0.5206349206349207, 0.6952380952380953, 0.273015873015873, 0.611111111111111, 0.5634920634920635, 0.5888888888888889, 0.5206349206349207, 0.8603174603174604, 0.7492063492063492, 0.611111111111111, 0.9079365079365079, 0.7000000000000001, 0.8365079365079365, 0.765079365079365, 0.5873015873015873, 0.6507936507936508, 0.8603174603174604, 0.8603174603174604, 0.6952380952380953, 0.6079365079365079, 0.3365079365079365, 0.5650793650793651, 0.3365079365079365, 0.3603174603174603, 0.42857142857142855, 0.5412698412698412, 0.5111111111111111, 0.6285714285714286, 0.6285714285714286, 0.6079365079365079, 0.765079365079365, 0.7428571428571429, 0.765079365079365, 0.6285714285714286, 0.765079365079365, 0.6285714285714286, 0.9079365079365079, 0.4047619047619047, 0.4047619047619047, 0.4047619047619047, 0.9079365079365079, 0.4047619047619047, 0.4936507936507937, 0.5174603174603175, 0.5174603174603175, 0.4047619047619047]</t>
+          <t>[0.6952380952380953, 0.6333333333333333, 0.38730158730158726, 0.6079365079365079, 0.5888888888888889, 0.3365079365079365, 0.273015873015873, 0.5888888888888889, 0.5888888888888889, 0.273015873015873, 0.5412698412698412, 0.6761904761904761, 0.7492063492063492, 0.7000000000000001, 0.5428571428571428, 0.765079365079365, 0.765079365079365, 0.765079365079365, 0.611111111111111, 0.6285714285714286, 0.9079365079365079, 0.9079365079365079, 0.9079365079365079, 0.8603174603174604, 0.6714285714285714, 0.6714285714285714, 0.5888888888888889, 0.611111111111111, 0.5650793650793651, 0.5174603174603175, 0.8603174603174604, 0.8603174603174604, 0.6714285714285714, 0.5412698412698412, 0.5412698412698412, 0.6714285714285714, 0.6714285714285714, 0.9079365079365079, 0.49682539682539684, 0.9079365079365079, 0.8603174603174604, 0.5888888888888889, 0.5888888888888889, 0.5873015873015873, 0.5888888888888889, 0.5888888888888889, 0.9079365079365079, 0.6761904761904761, 0.5873015873015873, 0.5650793650793651]</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>[0.3, 0.32222222222222224, 0.6015873015873016, 0.6428571428571429, 0.7174603174603175, 0.6682539682539682, 0.30476190476190473, 0.5761904761904763, 0.6936507936507935, 0.6015873015873016, 0.6936507936507935, 0.7634920634920634, 0.7396825396825397, 0.6936507936507935, 0.7888888888888889, 0.7888888888888889, 0.6682539682539682, 0.6428571428571429, 0.765079365079365, 0.6428571428571429, 0.7634920634920634, 0.7634920634920634, 0.6460317460317461, 0.3857142857142857, 0.33809523809523806, 0.45555555555555555, 0.33809523809523806, 0.33809523809523806, 0.33809523809523806, 0.6015873015873016, 0.38888888888888884, 0.41269841269841273, 0.4365079365079365, 0.5777777777777778, 0.5730158730158731, 0.7396825396825397, 0.5730158730158731, 0.41269841269841273, 0.5968253968253968, 0.41269841269841273, 0.7888888888888889, 0.30476190476190473, 0.30476190476190473, 0.32698412698412693, 0.7888888888888889, 0.6222222222222222, 0.30476190476190473, 0.30476190476190473, 0.30476190476190473, 0.6222222222222222]</t>
+          <t>[0.5968253968253968, 0.6015873015873016, 0.3, 0.45714285714285713, 0.3, 0.33809523809523806, 0.30476190476190473, 0.6015873015873016, 0.3, 0.30476190476190473, 0.6015873015873016, 0.7174603174603175, 0.7396825396825397, 0.7888888888888889, 0.765079365079365, 0.6428571428571429, 0.6428571428571429, 0.5730158730158731, 0.6015873015873016, 0.6428571428571429, 0.7888888888888889, 0.7888888888888889, 0.7888888888888889, 0.7634920634920634, 0.6222222222222222, 0.6222222222222222, 0.5761904761904763, 0.6238095238095238, 0.6238095238095238, 0.30476190476190473, 0.6682539682539682, 0.6444444444444445, 0.6682539682539682, 0.7174603174603175, 0.7174603174603175, 0.6444444444444445, 0.6682539682539682, 0.7888888888888889, 0.7174603174603175, 0.7888888888888889, 0.7634920634920634, 0.6015873015873016, 0.6015873015873016, 0.6936507936507935, 0.5777777777777778, 0.6015873015873016, 0.7888888888888889, 0.7174603174603175, 0.6936507936507935, 0.6015873015873016]</t>
         </is>
       </c>
     </row>
@@ -10710,31 +10710,31 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
+          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>[0.6346031746031746, 0.638095238095238, 0.6006349206349205, 0.5063492063492063, 0.5888888888888889, 0.6266666666666667, 0.5946031746031746, 0.6263492063492063, 0.5933333333333333, 0.6374603174603175, 0.6025396825396825, 0.45904761904761904, 0.42444444444444446, 0.7076190476190476, 0.5314285714285714, 0.5396825396825398, 0.5853968253968255, 0.5022222222222222, 0.42444444444444446, 0.6704761904761904, 0.5850793650793651, 0.5314285714285714, 0.45904761904761904, 0.42444444444444446, 0.45904761904761904, 0.7076190476190476, 0.4990476190476191, 0.6888888888888889, 0.512063492063492, 0.6923809523809524, 0.5314285714285714, 0.4984126984126984, 0.46952380952380945, 0.593015873015873, 0.7076190476190476, 0.48507936507936505, 0.5904761904761905, 0.45904761904761904, 0.4904761904761904, 0.6793650793650794, 0.5850793650793651, 0.5977777777777777, 0.5314285714285714, 0.42444444444444446, 0.48507936507936505, 0.5625396825396825, 0.6892063492063492, 0.5774603174603175, 0.6495238095238096, 0.5742857142857143]</t>
+          <t>[0.5926984126984127, 0.6219047619047618, 0.5828571428571429, 0.594920634920635, 0.594920634920635, 0.6114285714285714, 0.6241269841269841, 0.6092063492063492, 0.5920634920634921, 0.5101587301587301, 0.5850793650793651, 0.7076190476190476, 0.5625396825396825, 0.6025396825396825, 0.5977777777777777, 0.5441269841269841, 0.5752380952380951, 0.5904761904761905, 0.46952380952380945, 0.5266666666666666, 0.6704761904761904, 0.5022222222222222, 0.5904761904761905, 0.43238095238095237, 0.5314285714285714, 0.546984126984127, 0.5714285714285714, 0.5853968253968255, 0.6793650793650794, 0.5314285714285714, 0.42444444444444446, 0.46952380952380945, 0.5904761904761905, 0.6025396825396825, 0.48285714285714293, 0.5853968253968255, 0.6139682539682539, 0.5977777777777777, 0.6333333333333334, 0.4990476190476191, 0.5333333333333333, 0.45904761904761904, 0.5673015873015873, 0.6704761904761904, 0.5288888888888887, 0.6666666666666666, 0.4723809523809524, 0.48507936507936505, 0.5904761904761904, 0.5101587301587301]</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>[0.10065745078527005, 0.11755037302808773, 0.058447194782806605, 0.08379388983569704, 0.027179498149846337, 0.08762364837242413, 0.06363951133037046, 0.08995729789570378, 0.07627904904529965, 0.05680322348278101, 0.04495847864660436, 0.026109060565018508, 0.03686642487335607, 0.06584834114267517, 0.08871524990458889, 0.06000755810294613, 0.022923185014013577, 0.040711732956266324, 0.03686642487335607, 0.055674249622699346, 0.022773214519950413, 0.08871524990458889, 0.026109060565018508, 0.03686642487335607, 0.026109060565018508, 0.06584834114267517, 0.08029047793207393, 0.04753431615046297, 0.10667611447198955, 0.04391292146056574, 0.08871524990458889, 0.03176190079563366, 0.03115966408937621, 0.03862854220801835, 0.06584834114267517, 0.060589195756992946, 0.05693082354656481, 0.026109060565018508, 0.034935061954888325, 0.05120862235283612, 0.022773214519950413, 0.0741023377673406, 0.08871524990458889, 0.03686642487335607, 0.060589195756992946, 0.03321369307847764, 0.05202282577496629, 0.08395249949722577, 0.08760639430143997, 0.06655621992483342]</t>
+          <t>[0.0854941323227952, 0.09313227453109282, 0.08115070632975468, 0.08467565911262646, 0.03217801330390743, 0.056659329923875006, 0.05646333178025261, 0.03875617133214436, 0.047924943417411596, 0.03548746314281171, 0.022773214519950413, 0.06584834114267517, 0.03321369307847764, 0.04495847864660436, 0.0741023377673406, 0.047037721470312197, 0.05941344265443978, 0.05693082354656481, 0.03115966408937621, 0.08792791202041644, 0.05855916764171436, 0.040711732956266324, 0.05693082354656481, 0.03075599071690886, 0.08871524990458889, 0.04117938805402413, 0.032699953731601505, 0.022923185014013577, 0.05120862235283612, 0.08871524990458889, 0.03686642487335607, 0.03115966408937621, 0.05693082354656481, 0.04495847864660436, 0.043008550890903656, 0.022923185014013577, 0.06036255624159026, 0.0741023377673406, 0.05979725550715485, 0.08029047793207393, 0.06120483433546527, 0.026109060565018508, 0.025665248166866973, 0.055674249622699346, 0.1087152115783299, 0.06081664781164448, 0.08139375473989145, 0.060589195756992946, 0.06529966584358951, 0.03548746314281171]</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>[12, 10, 16, 35, 22, 13, 18, 14, 19, 11, 15, 43, 47, 1, 30, 29, 23, 36, 47, 8, 24, 30, 43, 47, 43, 1, 37, 6, 34, 4, 30, 38, 42, 20, 1, 40, 21, 43, 39, 7, 24, 17, 30, 47, 40, 28, 5, 26, 9, 27]</t>
+          <t>[18, 8, 27, 16, 16, 10, 7, 11, 19, 39, 26, 1, 31, 12, 14, 33, 28, 20, 46, 38, 3, 41, 20, 49, 35, 32, 29, 24, 2, 35, 50, 46, 20, 12, 44, 24, 9, 14, 6, 42, 34, 48, 30, 3, 37, 5, 45, 43, 23, 39]</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 7, 'min_samples_split': 7}), OrderedDict({'criterion': 'gini', 'max_depth': 62, 'max_features': 'log2', 'min_samples_leaf': 3, 'min_samples_split': 10}), OrderedDict({'criterion': 'gini', 'max_depth': 66, 'max_features': 'log2', 'min_samples_leaf': 6, 'min_samples_split': 37}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 37, 'max_features': None, 'min_samples_leaf': 6, 'min_samples_split': 45}), OrderedDict({'criterion': 'entropy', 'max_depth': 42, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 28}), OrderedDict({'criterion': 'gini', 'max_depth': 72, 'max_features': None, 'min_samples_leaf': 10, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 8, 'min_samples_split': 24}), OrderedDict({'criterion': 'gini', 'max_depth': 65, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 34}), OrderedDict({'criterion': 'gini', 'max_depth': 65, 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 42}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 89, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 9, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 92, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 7, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48})]</t>
+          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 63, 'max_features': 'log2', 'min_samples_leaf': 4, 'min_samples_split': 13}), OrderedDict({'criterion': 'entropy', 'max_depth': 58, 'max_features': 'log2', 'min_samples_leaf': 5, 'min_samples_split': 24}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 14, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 27, 'max_features': None, 'min_samples_leaf': 8, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 23, 'max_features': 'log2', 'min_samples_leaf': 14, 'min_samples_split': 30}), OrderedDict({'criterion': 'entropy', 'max_depth': 61, 'max_features': 'log2', 'min_samples_leaf': 6, 'min_samples_split': 39}), OrderedDict({'criterion': 'gini', 'max_depth': 18, 'max_features': 'sqrt', 'min_samples_leaf': 13, 'min_samples_split': 31}), OrderedDict({'criterion': 'gini', 'max_depth': 14, 'max_features': 'sqrt', 'min_samples_leaf': 14, 'min_samples_split': 36}), OrderedDict({'criterion': 'entropy', 'max_depth': 65, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 12}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 9, 'min_samples_split': 38}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 9, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 7, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 49})]</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O111" t="n">
         <v>0.3333333333333333</v>
@@ -10746,27 +10746,27 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>[0.7031746031746032, 0.6809523809523809, 0.5492063492063491, 0.5603174603174603, 0.5698412698412699, 0.5079365079365079, 0.5936507936507937, 0.6174603174603175, 0.4746031746031745, 0.5730158730158731, 0.684126984126984, 0.4777777777777778, 0.39206349206349206, 0.6603174603174603, 0.41269841269841273, 0.5301587301587302, 0.5968253968253968, 0.4777777777777778, 0.39206349206349206, 0.6142857142857143, 0.5952380952380952, 0.41269841269841273, 0.4777777777777778, 0.39206349206349206, 0.4777777777777778, 0.6603174603174603, 0.5238095238095237, 0.7253968253968255, 0.5238095238095237, 0.7047619047619048, 0.41269841269841273, 0.5015873015873016, 0.5, 0.6587301587301587, 0.6603174603174603, 0.39206349206349206, 0.5952380952380952, 0.4777777777777778, 0.4777777777777778, 0.5952380952380952, 0.5952380952380952, 0.4746031746031745, 0.41269841269841273, 0.39206349206349206, 0.39206349206349206, 0.5063492063492063, 0.7047619047619048, 0.5238095238095237, 0.6634920634920635, 0.6523809523809524]</t>
+          <t>[0.5047619047619047, 0.6174603174603175, 0.5507936507936507, 0.5063492063492063, 0.6396825396825396, 0.5317460317460317, 0.6396825396825396, 0.5730158730158731, 0.5603174603174603, 0.5015873015873016, 0.5952380952380952, 0.6603174603174603, 0.5063492063492063, 0.684126984126984, 0.4746031746031745, 0.5079365079365079, 0.5238095238095237, 0.5952380952380952, 0.5, 0.41269841269841273, 0.5904761904761905, 0.4777777777777778, 0.5952380952380952, 0.39206349206349206, 0.41269841269841273, 0.5063492063492063, 0.6174603174603175, 0.5968253968253968, 0.5952380952380952, 0.41269841269841273, 0.39206349206349206, 0.5, 0.5952380952380952, 0.684126984126984, 0.41269841269841273, 0.5968253968253968, 0.6174603174603175, 0.4746031746031745, 0.6142857142857143, 0.5238095238095237, 0.5079365079365079, 0.4777777777777778, 0.5301587301587302, 0.6142857142857143, 0.5603174603174603, 0.6809523809523809, 0.4142857142857143, 0.39206349206349206, 0.526984126984127, 0.5015873015873016]</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>[0.5253968253968254, 0.43333333333333335, 0.546031746031746, 0.5698412698412699, 0.546031746031746, 0.5920634920634921, 0.4825396825396826, 0.5698412698412699, 0.5476190476190476, 0.5698412698412699, 0.546031746031746, 0.46507936507936504, 0.41904761904761906, 0.6126984126984126, 0.5698412698412699, 0.5523809523809523, 0.546031746031746, 0.5492063492063491, 0.41904761904761906, 0.6603174603174603, 0.546031746031746, 0.5698412698412699, 0.46507936507936504, 0.41904761904761906, 0.46507936507936504, 0.6126984126984126, 0.5698412698412699, 0.6142857142857143, 0.5047619047619047, 0.6142857142857143, 0.5698412698412699, 0.5492063492063491, 0.46507936507936504, 0.546031746031746, 0.6126984126984126, 0.5492063492063491, 0.5698412698412699, 0.46507936507936504, 0.5492063492063491, 0.6587301587301587, 0.546031746031746, 0.5698412698412699, 0.5698412698412699, 0.41904761904761906, 0.5492063492063491, 0.546031746031746, 0.6142857142857143, 0.5698412698412699, 0.5698412698412699, 0.5047619047619047]</t>
+          <t>[0.480952380952381, 0.5476190476190476, 0.5698412698412699, 0.5031746031746032, 0.5476190476190476, 0.5698412698412699, 0.5476190476190476, 0.5904761904761905, 0.5476190476190476, 0.5492063492063491, 0.546031746031746, 0.6126984126984126, 0.546031746031746, 0.546031746031746, 0.5698412698412699, 0.5523809523809523, 0.5476190476190476, 0.5698412698412699, 0.46507936507936504, 0.5698412698412699, 0.7031746031746032, 0.5492063492063491, 0.5698412698412699, 0.41904761904761906, 0.5698412698412699, 0.546031746031746, 0.546031746031746, 0.546031746031746, 0.6587301587301587, 0.5698412698412699, 0.41904761904761906, 0.46507936507936504, 0.5698412698412699, 0.546031746031746, 0.5047619047619047, 0.546031746031746, 0.5047619047619047, 0.5698412698412699, 0.5444444444444444, 0.5698412698412699, 0.526984126984127, 0.46507936507936504, 0.546031746031746, 0.6603174603174603, 0.5047619047619047, 0.6142857142857143, 0.5698412698412699, 0.5492063492063491, 0.5285714285714286, 0.5492063492063491]</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>[0.7761904761904761, 0.7968253968253968, 0.5714285714285715, 0.34603174603174597, 0.6190476190476191, 0.5920634920634921, 0.6365079365079365, 0.5031746031746032, 0.6634920634920635, 0.6873015873015872, 0.5952380952380952, 0.407936507936508, 0.3825396825396825, 0.707936507936508, 0.6634920634920635, 0.4301587301587302, 0.5746031746031747, 0.5539682539682539, 0.3825396825396825, 0.684126984126984, 0.5746031746031747, 0.6634920634920635, 0.407936507936508, 0.3825396825396825, 0.407936507936508, 0.707936507936508, 0.34603174603174597, 0.7523809523809524, 0.34603174603174597, 0.6809523809523809, 0.6634920634920635, 0.5095238095238095, 0.5095238095238095, 0.5968253968253968, 0.707936507936508, 0.5539682539682539, 0.6428571428571429, 0.407936507936508, 0.5095238095238095, 0.6809523809523809, 0.5746031746031747, 0.6634920634920635, 0.6634920634920635, 0.3825396825396825, 0.5539682539682539, 0.5746031746031746, 0.7746031746031746, 0.6873015873015872, 0.6158730158730159, 0.5777777777777778]</t>
+          <t>[0.6190476190476191, 0.5031746031746032, 0.6873015873015872, 0.6619047619047619, 0.5714285714285715, 0.6190476190476191, 0.5714285714285715, 0.5714285714285715, 0.5952380952380952, 0.5539682539682539, 0.5746031746031747, 0.707936507936508, 0.5746031746031746, 0.5952380952380952, 0.6634920634920635, 0.47460317460317464, 0.5952380952380952, 0.6428571428571429, 0.5095238095238095, 0.6634920634920635, 0.7317460317460318, 0.5539682539682539, 0.6428571428571429, 0.4222222222222222, 0.6634920634920635, 0.49682539682539684, 0.5301587301587302, 0.5746031746031747, 0.6809523809523809, 0.6634920634920635, 0.3825396825396825, 0.5095238095238095, 0.6428571428571429, 0.5952380952380952, 0.5095238095238096, 0.5746031746031747, 0.6126984126984126, 0.6634920634920635, 0.7063492063492064, 0.34603174603174597, 0.5333333333333333, 0.407936507936508, 0.5746031746031746, 0.684126984126984, 0.34603174603174597, 0.7746031746031746, 0.34603174603174597, 0.5539682539682539, 0.6873015873015872, 0.5539682539682539]</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>[0.5174603174603174, 0.6317460317460317, 0.6412698412698412, 0.5, 0.611111111111111, 0.7666666666666666, 0.5888888888888889, 0.7666666666666666, 0.6825396825396824, 0.7063492063492064, 0.5888888888888889, 0.4666666666666666, 0.4444444444444444, 0.792063492063492, 0.45555555555555555, 0.5857142857142857, 0.611111111111111, 0.4698412698412698, 0.4444444444444444, 0.7698412698412698, 0.611111111111111, 0.45555555555555555, 0.4666666666666666, 0.4444444444444444, 0.4666666666666666, 0.792063492063492, 0.5, 0.6809523809523809, 0.6825396825396824, 0.7428571428571429, 0.45555555555555555, 0.45555555555555555, 0.4444444444444444, 0.5634920634920635, 0.792063492063492, 0.4698412698412698, 0.4936507936507937, 0.4666666666666666, 0.45555555555555555, 0.7428571428571429, 0.611111111111111, 0.6825396825396824, 0.45555555555555555, 0.4444444444444444, 0.4698412698412698, 0.5857142857142857, 0.6809523809523809, 0.45555555555555555, 0.5857142857142857, 0.4936507936507937]</t>
+          <t>[0.6619047619047619, 0.7666666666666666, 0.45555555555555555, 0.5857142857142857, 0.6126984126984126, 0.6412698412698412, 0.6634920634920635, 0.6634920634920635, 0.6825396825396824, 0.4698412698412698, 0.611111111111111, 0.792063492063492, 0.5857142857142857, 0.5888888888888889, 0.6825396825396824, 0.5857142857142857, 0.6825396825396824, 0.4936507936507937, 0.4444444444444444, 0.45555555555555555, 0.6095238095238095, 0.4698412698412698, 0.4936507936507937, 0.4444444444444444, 0.45555555555555555, 0.5857142857142857, 0.5634920634920635, 0.611111111111111, 0.7428571428571429, 0.45555555555555555, 0.4444444444444444, 0.4444444444444444, 0.4936507936507937, 0.5888888888888889, 0.45555555555555555, 0.611111111111111, 0.684126984126984, 0.6825396825396824, 0.6079365079365079, 0.5, 0.45555555555555555, 0.4666666666666666, 0.5857142857142857, 0.7698412698412698, 0.6825396825396824, 0.6587301587301587, 0.5, 0.4698412698412698, 0.5619047619047619, 0.4698412698412698]</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>[0.6507936507936507, 0.6476190476190476, 0.6952380952380951, 0.5555555555555555, 0.5984126984126984, 0.6746031746031745, 0.6714285714285714, 0.6746031746031745, 0.5984126984126984, 0.6507936507936508, 0.5984126984126984, 0.4777777777777778, 0.48412698412698413, 0.765079365079365, 0.5555555555555555, 0.6, 0.5984126984126984, 0.4603174603174603, 0.48412698412698413, 0.6238095238095238, 0.5984126984126984, 0.5555555555555555, 0.4777777777777778, 0.48412698412698413, 0.4777777777777778, 0.765079365079365, 0.5555555555555555, 0.6714285714285714, 0.5031746031746032, 0.7190476190476192, 0.5555555555555555, 0.4761904761904762, 0.42857142857142855, 0.6, 0.765079365079365, 0.4603174603174603, 0.6507936507936508, 0.4777777777777778, 0.4603174603174603, 0.7190476190476192, 0.5984126984126984, 0.5984126984126984, 0.5555555555555555, 0.48412698412698413, 0.4603174603174603, 0.6, 0.6714285714285714, 0.6507936507936508, 0.8126984126984128, 0.6428571428571429]</t>
+          <t>[0.6968253968253969, 0.6746031746031745, 0.6507936507936508, 0.7174603174603175, 0.6031746031746031, 0.6952380952380951, 0.6984126984126985, 0.6476190476190476, 0.5746031746031747, 0.4761904761904762, 0.5984126984126984, 0.765079365079365, 0.6, 0.5984126984126984, 0.5984126984126984, 0.6, 0.526984126984127, 0.6507936507936508, 0.42857142857142855, 0.5317460317460317, 0.7174603174603176, 0.4603174603174603, 0.6507936507936508, 0.48412698412698413, 0.5555555555555555, 0.6, 0.6, 0.5984126984126984, 0.7190476190476192, 0.5555555555555555, 0.48412698412698413, 0.42857142857142855, 0.6507936507936508, 0.5984126984126984, 0.5317460317460317, 0.5984126984126984, 0.6507936507936508, 0.5984126984126984, 0.6936507936507937, 0.5555555555555555, 0.6428571428571429, 0.4777777777777778, 0.6, 0.6238095238095238, 0.5507936507936507, 0.6047619047619048, 0.5317460317460317, 0.4603174603174603, 0.6476190476190476, 0.4761904761904762]</t>
         </is>
       </c>
     </row>
@@ -10878,52 +10878,52 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.464349376114082</v>
+        <v>0.3829099821746881</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4961919436495708</v>
+        <v>0.4270267585521823</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5185616376180102</v>
+        <v>0.4426543209876543</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[[4, 6, 1], [10, 16, 6], [3, 5, 9]]</t>
+          <t>[[2, 8, 1], [10, 14, 8], [3, 5, 9]]</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.8345073035080456, 'gamma': 0.0, 'learning_rate': 0.08243375572251625, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5412908327329824})</t>
+          <t>OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0})</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>[0.7901587301587302, 0.7361904761904762, 0.7406349206349206, 0.7488888888888889, 0.7714285714285716, 0.7365079365079366, 0.7495238095238095, 0.7406349206349206, 0.8085714285714285, 0.7453968253968253, 0.8073015873015873, 0.7269841269841271, 0.7453968253968254, 0.7987301587301587, 0.7993650793650793, 0.767936507936508, 0.7853968253968254, 0.7460317460317462, 0.8034920634920635, 0.7444444444444446, 0.8212698412698411, 0.8171428571428573, 0.7898412698412699, 0.807936507936508, 0.799047619047619, 0.7806349206349206, 0.8174603174603174, 0.8073015873015873, 0.8123809523809523, 0.813015873015873, 0.8215873015873015, 0.7590476190476191, 0.8082539682539682, 0.7050793650793651, 0.74984126984127, 0.7993650793650794, 0.7142857142857142, 0.8076190476190476, 0.7406349206349206, 0.807936507936508, 0.807936507936508, 0.7809523809523811, 0.8117460317460317, 0.8034920634920635, 0.8126984126984127, 0.7812698412698412, 0.8215873015873016, 0.799047619047619, 0.8396825396825397, 0.7711111111111111]</t>
+          <t>[0.7488888888888889, 0.7993650793650794, 0.7673015873015874, 0.7263492063492063, 0.7853968253968254, 0.7542857142857143, 0.7488888888888889, 0.7942857142857143, 0.740952380952381, 0.7447619047619047, 0.7539682539682541, 0.7542857142857143, 0.7996825396825397, 0.7361904761904763, 0.7453968253968255, 0.7717460317460317, 0.7365079365079364, 0.7273015873015873, 0.8165079365079364, 0.7809523809523811, 0.7809523809523811, 0.7863492063492064, 0.807936507936508, 0.8209523809523809, 0.7215873015873016, 0.7355555555555556, 0.7584126984126984, 0.7438095238095238, 0.7996825396825397, 0.793968253968254, 0.7907936507936508, 0.8028571428571428, 0.8114285714285714, 0.7892063492063492, 0.7974603174603174, 0.7765079365079365, 0.7441269841269841, 0.7352380952380952, 0.7895238095238096, 0.7501587301587301, 0.807936507936508, 0.7933333333333333, 0.7942857142857143, 0.8301587301587301, 0.8215873015873016, 0.8085714285714285, 0.8123809523809523, 0.7228571428571429, 0.7895238095238096, 0.7146031746031747]</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>[0.023658782074776834, 0.043428292953715905, 0.05937950762616617, 0.05936083509146722, 0.0551138906474842, 0.08028043565969392, 0.05724329797023797, 0.0688061825226365, 0.037677604950952126, 0.0431278925656932, 0.04634920634920634, 0.07863153064444979, 0.03686642487335614, 0.03725799546746261, 0.08274455648327574, 0.0710033196644788, 0.06682068376849708, 0.08583178307679858, 0.03915715698064343, 0.041851818406798726, 0.03759727452422966, 0.013446234021934789, 0.06991049959873427, 0.04762962845411188, 0.05287977969917241, 0.037661552572910005, 0.03056534578263093, 0.046010942206404414, 0.04466385749449701, 0.037875024893826624, 0.034215094819828575, 0.09160476849204537, 0.0385345045029645, 0.07157586224725056, 0.04073648022799201, 0.032321763520534424, 0.05106080537262492, 0.026089753411180146, 0.055392959341151134, 0.04487321519767525, 0.04535351469331274, 0.04880016686670435, 0.03940346310940017, 0.05873788023029177, 0.032452457619461694, 0.07062618101809202, 0.022461298985788844, 0.04770996611523698, 0.02499685039368824, 0.048721626883529615]</t>
+          <t>[0.03731205526877267, 0.0653891195953214, 0.05081943789859894, 0.06197879171396459, 0.08330173248148397, 0.061552927733556605, 0.056257694527056715, 0.050710248988559824, 0.08774433186968973, 0.05083728284720255, 0.06884571831427949, 0.08293191298883625, 0.07706770132195224, 0.07729620919331259, 0.06325033348780838, 0.07363026533835748, 0.058837311088414765, 0.06470585810081156, 0.041690167220004626, 0.0762235378002728, 0.048696798466654784, 0.054373826199381955, 0.040256171388310766, 0.03763478339433917, 0.07444156761625888, 0.056634422376625235, 0.048597357950802646, 0.054936230467601384, 0.0641741143796484, 0.05048916674574623, 0.05937781036565427, 0.02204921314817188, 0.04382102448538665, 0.04735801470783245, 0.052927404562203004, 0.050608790590758145, 0.05464007612431784, 0.06697133707730417, 0.0690839167501375, 0.05681209385831851, 0.03902309205173144, 0.022768788669258588, 0.060705518611753, 0.038802950071358845, 0.022461298985788844, 0.05886813479318606, 0.03786171813555704, 0.08708833984386137, 0.05847305370488358, 0.08192936753571474]</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>[26, 47, 43, 38, 32, 46, 37, 43, 11, 41, 17, 48, 40, 25, 22, 34, 28, 39, 19, 42, 4, 6, 27, 13, 23, 31, 5, 17, 9, 7, 3, 35, 12, 50, 36, 21, 49, 16, 43, 13, 13, 30, 10, 19, 8, 29, 2, 23, 1, 33]</t>
+          <t>[35, 13, 29, 47, 24, 31, 35, 15, 41, 38, 33, 31, 11, 43, 37, 28, 42, 46, 4, 25, 25, 23, 8, 3, 49, 44, 30, 40, 11, 17, 19, 10, 6, 22, 14, 27, 39, 45, 20, 34, 8, 18, 15, 1, 2, 7, 5, 48, 20, 50]</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.896746665635455, 'gamma': 1.0938429030193177, 'learning_rate': 0.23342006632709542, 'max_depth': 12, 'min_child_weight': 5, 'n_estimators': 63, 'subsample': 0.5852965243603038}), OrderedDict({'colsample_bytree': 0.8687092656923878, 'gamma': 4.634164363418856, 'learning_rate': 0.03087559842663337, 'max_depth': 6, 'min_child_weight': 2, 'n_estimators': 291, 'subsample': 0.7262843212293579}), OrderedDict({'colsample_bytree': 0.8195361312095271, 'gamma': 4.66985143498778, 'learning_rate': 0.010644727128187054, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 202, 'subsample': 0.8447426384137785}), OrderedDict({'colsample_bytree': 0.7594328629378453, 'gamma': 2.1058316426148274, 'learning_rate': 0.15820942199155763, 'max_depth': 5, 'min_child_weight': 9, 'n_estimators': 50, 'subsample': 0.5901762275933312}), OrderedDict({'colsample_bytree': 0.6815899667691995, 'gamma': 1.2111411791811568, 'learning_rate': 0.012008439929081434, 'max_depth': 8, 'min_child_weight': 7, 'n_estimators': 192, 'subsample': 0.7605388483795272}), OrderedDict({'colsample_bytree': 0.7071870513198952, 'gamma': 1.7176288654077867, 'learning_rate': 0.17201719702968438, 'max_depth': 9, 'min_child_weight': 10, 'n_estimators': 302, 'subsample': 0.8234594118710132}), OrderedDict({'colsample_bytree': 0.8008029965506642, 'gamma': 1.247065417157023, 'learning_rate': 0.03650638284779404, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 382, 'subsample': 0.8604518362880178}), OrderedDict({'colsample_bytree': 0.6285035981956304, 'gamma': 4.30319044584578, 'learning_rate': 0.05315964270047792, 'max_depth': 6, 'min_child_weight': 4, 'n_estimators': 323, 'subsample': 0.9464431724549737}), OrderedDict({'colsample_bytree': 0.5528377593572126, 'gamma': 0.584591246208266, 'learning_rate': 0.2520963805725206, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 97, 'subsample': 0.5990666439341433}), OrderedDict({'colsample_bytree': 0.8167676846321159, 'gamma': 0.3782987333482591, 'learning_rate': 0.012037772153859752, 'max_depth': 8, 'min_child_weight': 10, 'n_estimators': 386, 'subsample': 0.5087308062122775}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7148626735997728, 'gamma': 0.0, 'learning_rate': 0.06809803307410117, 'max_depth': 1, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.6743495218814093}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.069320911345101, 'learning_rate': 0.16033247138764034, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 369, 'subsample': 0.7543968955991324}), OrderedDict({'colsample_bytree': 0.8493775312398945, 'gamma': 0.0, 'learning_rate': 0.08161976277907965, 'max_depth': 5, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 0.7666252569141676}), OrderedDict({'colsample_bytree': 0.750397950340524, 'gamma': 0.6146163371544537, 'learning_rate': 0.060537033690775385, 'max_depth': 5, 'min_child_weight': 2, 'n_estimators': 84, 'subsample': 0.6208654885704453}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.2939463721670083, 'max_depth': 1, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 0.7900969759471963}), OrderedDict({'colsample_bytree': 0.558095444165262, 'gamma': 1.3483123762811446, 'learning_rate': 0.016760483769401514, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 339, 'subsample': 0.6716836139787894}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 3.9785340159306584, 'learning_rate': 0.012285090386283152, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 216, 'subsample': 0.5632361563402617}), OrderedDict({'colsample_bytree': 0.8063921029408133, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8922061616863282}), OrderedDict({'colsample_bytree': 0.5150095952360239, 'gamma': 3.4336870907875223, 'learning_rate': 0.10885135085201053, 'max_depth': 13, 'min_child_weight': 5, 'n_estimators': 176, 'subsample': 0.7168052157309275}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.3155941767907001, 'learning_rate': 0.0704418742474647, 'max_depth': 8, 'min_child_weight': 2, 'n_estimators': 183, 'subsample': 0.805853393743194}), OrderedDict({'colsample_bytree': 0.552464945787742, 'gamma': 0.13936872877005813, 'learning_rate': 0.1955121035426918, 'max_depth': 13, 'min_child_weight': 2, 'n_estimators': 471, 'subsample': 0.5151911760398804}), OrderedDict({'colsample_bytree': 0.5206109380867012, 'gamma': 0.3490797597359704, 'learning_rate': 0.013558844605613156, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 241, 'subsample': 0.9836182364235804}), OrderedDict({'colsample_bytree': 0.6846495145615353, 'gamma': 0.4215583242082487, 'learning_rate': 0.01731288361088788, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 67, 'subsample': 0.7148560915697214}), OrderedDict({'colsample_bytree': 0.8058522007854196, 'gamma': 0.23031284108362354, 'learning_rate': 0.29999999999999993, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 82, 'subsample': 0.5453431354191699}), OrderedDict({'colsample_bytree': 0.8951638959216515, 'gamma': 0.0, 'learning_rate': 0.04554376875330517, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 456, 'subsample': 0.6582839453921002}), OrderedDict({'colsample_bytree': 0.9352559607134763, 'gamma': 0.0, 'learning_rate': 0.2556358213064235, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 109, 'subsample': 0.6658424661469975}), OrderedDict({'colsample_bytree': 0.522340272743644, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 3, 'n_estimators': 189, 'subsample': 0.9496427438601984}), OrderedDict({'colsample_bytree': 0.759997456324655, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 2, 'n_estimators': 334, 'subsample': 0.6463429635457122}), OrderedDict({'colsample_bytree': 0.9687412546457204, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 246, 'subsample': 0.6802218442911121}), OrderedDict({'colsample_bytree': 0.6036904259319358, 'gamma': 0.0, 'learning_rate': 0.06289838894795971, 'max_depth': 13, 'min_child_weight': 2, 'n_estimators': 432, 'subsample': 0.5790324321792741}), OrderedDict({'colsample_bytree': 0.5748614274435062, 'gamma': 1.9985562841062339, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 295, 'subsample': 0.8467442619984645}), OrderedDict({'colsample_bytree': 0.8252083709926357, 'gamma': 0.3889255438491628, 'learning_rate': 0.07457969978526635, 'max_depth': 10, 'min_child_weight': 3, 'n_estimators': 481, 'subsample': 0.5812327860390063}), OrderedDict({'colsample_bytree': 0.6918059116744012, 'gamma': 5.0, 'learning_rate': 0.012698279612992573, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 422, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.9767393746608759, 'gamma': 0.0, 'learning_rate': 0.07781554231834416, 'max_depth': 1, 'min_child_weight': 7, 'n_estimators': 187, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.8482101672387683, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 56, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9408163349318941, 'gamma': 5.0, 'learning_rate': 0.03549453374922561, 'max_depth': 15, 'min_child_weight': 8, 'n_estimators': 177, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6299014452989475, 'gamma': 0.0, 'learning_rate': 0.29635590148508406, 'max_depth': 10, 'min_child_weight': 2, 'n_estimators': 367, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.8305271847064966, 'gamma': 3.101628627168723, 'learning_rate': 0.054054632926101825, 'max_depth': 1, 'min_child_weight': 6, 'n_estimators': 482, 'subsample': 0.9918071940538962}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.3000286094090283, 'learning_rate': 0.29999999999999993, 'max_depth': 6, 'min_child_weight': 3, 'n_estimators': 72, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.0378798577171403, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 71, 'subsample': 0.7753005319759798}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 4, 'n_estimators': 428, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9971668411645621, 'gamma': 0.0, 'learning_rate': 0.06884911792167976, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.6213184144195802}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.057673615159562784, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 280, 'subsample': 0.9269030248036854}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.06930587478646816, 'max_depth': 11, 'min_child_weight': 2, 'n_estimators': 50, 'subsample': 0.661099441049617}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.1582909336291864, 'learning_rate': 0.09382354158215042, 'max_depth': 8, 'min_child_weight': 3, 'n_estimators': 362, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8345073035080456, 'gamma': 0.0, 'learning_rate': 0.08243375572251625, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5412908327329824}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 1.0})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.5319177127506742, 'gamma': 0.10136626163709807, 'learning_rate': 0.01784621837144946, 'max_depth': 6, 'min_child_weight': 8, 'n_estimators': 321, 'subsample': 0.5165941541859409}), OrderedDict({'colsample_bytree': 0.5605048921415337, 'gamma': 0.433640454318251, 'learning_rate': 0.02267751607172801, 'max_depth': 5, 'min_child_weight': 4, 'n_estimators': 451, 'subsample': 0.8396008211745396}), OrderedDict({'colsample_bytree': 0.8660875719892878, 'gamma': 1.5019422148302939, 'learning_rate': 0.07735221344517099, 'max_depth': 9, 'min_child_weight': 6, 'n_estimators': 431, 'subsample': 0.7922414994865891}), OrderedDict({'colsample_bytree': 0.9583051515241626, 'gamma': 4.333338951854641, 'learning_rate': 0.10656531135610571, 'max_depth': 9, 'min_child_weight': 8, 'n_estimators': 72, 'subsample': 0.521614965575616}), OrderedDict({'colsample_bytree': 0.9884132257720442, 'gamma': 1.4827483084410096, 'learning_rate': 0.1485267266866414, 'max_depth': 4, 'min_child_weight': 3, 'n_estimators': 431, 'subsample': 0.8793573445930197}), OrderedDict({'colsample_bytree': 0.5449568344427751, 'gamma': 0.8969689095589235, 'learning_rate': 0.18206614673924768, 'max_depth': 1, 'min_child_weight': 8, 'n_estimators': 120, 'subsample': 0.798515813129373}), OrderedDict({'colsample_bytree': 0.9209276003209081, 'gamma': 0.43976569412293837, 'learning_rate': 0.011325793115002565, 'max_depth': 13, 'min_child_weight': 8, 'n_estimators': 182, 'subsample': 0.9354828098844613}), OrderedDict({'colsample_bytree': 0.9218861695546141, 'gamma': 0.17299922136390591, 'learning_rate': 0.07693522591134372, 'max_depth': 14, 'min_child_weight': 4, 'n_estimators': 104, 'subsample': 0.6675611082290641}), OrderedDict({'colsample_bytree': 0.5361216880415709, 'gamma': 2.8878258111513038, 'learning_rate': 0.017543553684352925, 'max_depth': 6, 'min_child_weight': 2, 'n_estimators': 150, 'subsample': 0.5461011103711154}), OrderedDict({'colsample_bytree': 0.5356417342532941, 'gamma': 2.7032885417344437, 'learning_rate': 0.10229622576883969, 'max_depth': 7, 'min_child_weight': 8, 'n_estimators': 67, 'subsample': 0.6584051830998361}), OrderedDict({'colsample_bytree': 0.9604974200609893, 'gamma': 3.195478935947722, 'learning_rate': 0.01, 'max_depth': 2, 'min_child_weight': 4, 'n_estimators': 500, 'subsample': 0.7253483438963483}), OrderedDict({'colsample_bytree': 0.5950295534677567, 'gamma': 0.0, 'learning_rate': 0.030131590503898117, 'max_depth': 1, 'min_child_weight': 2, 'n_estimators': 500, 'subsample': 0.9989522809884117}), OrderedDict({'colsample_bytree': 0.9787145761213434, 'gamma': 1.1189353024729864, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 4, 'n_estimators': 80, 'subsample': 0.5985335064897032}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.5588481959909971, 'learning_rate': 0.01, 'max_depth': 1, 'min_child_weight': 5, 'n_estimators': 500, 'subsample': 0.7915194584119646}), OrderedDict({'colsample_bytree': 0.8681919929434058, 'gamma': 3.188356711726942, 'learning_rate': 0.026164447497299535, 'max_depth': 7, 'min_child_weight': 3, 'n_estimators': 304, 'subsample': 0.7396785060497699}), OrderedDict({'colsample_bytree': 0.9790578369588132, 'gamma': 0.08191399694824207, 'learning_rate': 0.03520232000612674, 'max_depth': 2, 'min_child_weight': 3, 'n_estimators': 105, 'subsample': 0.9280875356766123}), OrderedDict({'colsample_bytree': 0.7573467958005244, 'gamma': 4.594147720062161, 'learning_rate': 0.05166853108960385, 'max_depth': 5, 'min_child_weight': 6, 'n_estimators': 89, 'subsample': 0.6940622214502086}), OrderedDict({'colsample_bytree': 0.9374190663472599, 'gamma': 3.539809705380801, 'learning_rate': 0.17600634558614273, 'max_depth': 10, 'min_child_weight': 10, 'n_estimators': 390, 'subsample': 0.7637372200761834}), OrderedDict({'colsample_bytree': 0.5751045828304778, 'gamma': 0.006419662694401863, 'learning_rate': 0.038435120829908465, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 200, 'subsample': 0.9057075466917408}), OrderedDict({'colsample_bytree': 0.9616551012031762, 'gamma': 1.0550087824704093, 'learning_rate': 0.0659860120782564, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 490, 'subsample': 0.8402667776193959}), OrderedDict({'colsample_bytree': 0.9061400449631106, 'gamma': 0.0007160986443582874, 'learning_rate': 0.010531590814338328, 'max_depth': 15, 'min_child_weight': 7, 'n_estimators': 296, 'subsample': 0.8650892360105595}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.13073305162382778, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 243, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6582477026689468}), OrderedDict({'colsample_bytree': 0.6433683232293127, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 2.1838769477328075, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 359, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.865755153308925, 'gamma': 2.101651521844862, 'learning_rate': 0.017813384626556336, 'max_depth': 12, 'min_child_weight': 7, 'n_estimators': 166, 'subsample': 0.6134014607386755}), OrderedDict({'colsample_bytree': 0.8411455800054334, 'gamma': 0.0, 'learning_rate': 0.044624264172343824, 'max_depth': 2, 'min_child_weight': 10, 'n_estimators': 350, 'subsample': 0.6478236983407908}), OrderedDict({'colsample_bytree': 0.849890151425809, 'gamma': 0.00048242256952268925, 'learning_rate': 0.030188792498471395, 'max_depth': 2, 'min_child_weight': 9, 'n_estimators': 301, 'subsample': 0.6151556828047454}), OrderedDict({'colsample_bytree': 0.7410643085080305, 'gamma': 0.317092344574725, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 342, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7124255858753368, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 2, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.764419112495752, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7405265982020841, 'gamma': 0.031397637568728605, 'learning_rate': 0.28328367351915196, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 102, 'subsample': 0.7131167557198135}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 3, 'n_estimators': 498, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 7, 'min_child_weight': 3, 'n_estimators': 123, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.45237615794999286, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 62, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.8766584812166962, 'learning_rate': 0.29999999999999993, 'max_depth': 10, 'min_child_weight': 4, 'n_estimators': 197, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.665720572898564, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 416, 'subsample': 0.9433581118323319}), OrderedDict({'colsample_bytree': 0.848474293538819, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 446, 'subsample': 0.5143814930850189}), OrderedDict({'colsample_bytree': 0.8730794860807847, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 116, 'subsample': 0.9552870866217731}), OrderedDict({'colsample_bytree': 0.6009016322815668, 'gamma': 4.9462523127418425, 'learning_rate': 0.133535154445925, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 343, 'subsample': 0.758980976499849}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 447, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5035745557491731, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 368, 'subsample': 0.9037640532788624}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9716816633285597}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9714539551688192, 'gamma': 0.7190583801759399, 'learning_rate': 0.01412320590665622, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 342, 'subsample': 0.5960444198970779}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7902927939576019, 'gamma': 4.969952429500673, 'learning_rate': 0.03039569419946974, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 58, 'subsample': 0.7551674410159921}), OrderedDict({'colsample_bytree': 0.7021275988617891, 'gamma': 0.8336891085783922, 'learning_rate': 0.02191302204522007, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 172, 'subsample': 0.855875124755302}), OrderedDict({'colsample_bytree': 0.8115056113236321, 'gamma': 4.97849104391464, 'learning_rate': 0.03843924618231022, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 358, 'subsample': 0.6387792810999974})]</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O113" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="P113" t="inlineStr">
         <is>
@@ -10932,27 +10932,27 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>[0.7730158730158729, 0.7269841269841271, 0.7031746031746032, 0.6825396825396824, 0.7253968253968255, 0.6365079365079366, 0.6809523809523809, 0.7031746031746032, 0.7968253968253968, 0.684126984126984, 0.7936507936507936, 0.6825396825396824, 0.684126984126984, 0.7714285714285714, 0.6809523809523809, 0.7047619047619048, 0.7253968253968255, 0.6365079365079366, 0.7730158730158729, 0.7063492063492064, 0.815873015873016, 0.8000000000000002, 0.7952380952380952, 0.7952380952380952, 0.7730158730158729, 0.7285714285714286, 0.7746031746031745, 0.7253968253968255, 0.7285714285714286, 0.7507936507936508, 0.7746031746031745, 0.6603174603174603, 0.7968253968253968, 0.6587301587301587, 0.707936507936508, 0.7730158730158729, 0.7047619047619048, 0.7777777777777778, 0.7047619047619048, 0.7952380952380952, 0.7714285714285714, 0.7269841269841271, 0.7714285714285714, 0.7730158730158729, 0.8412698412698413, 0.6587301587301587, 0.8000000000000002, 0.7746031746031745, 0.8190476190476191, 0.7253968253968255]</t>
+          <t>[0.7063492063492064, 0.7269841269841271, 0.7031746031746032, 0.6809523809523809, 0.7476190476190476, 0.7063492063492064, 0.7269841269841271, 0.7253968253968255, 0.6142857142857143, 0.6809523809523809, 0.6587301587301587, 0.6365079365079366, 0.6809523809523809, 0.6825396825396824, 0.6587301587301587, 0.7476190476190476, 0.6603174603174603, 0.6587301587301587, 0.7952380952380952, 0.7031746031746032, 0.7269841269841271, 0.7301587301587302, 0.7523809523809524, 0.7730158730158729, 0.6126984126984126, 0.6587301587301587, 0.684126984126984, 0.6365079365079366, 0.7730158730158729, 0.707936507936508, 0.7285714285714286, 0.8190476190476191, 0.7507936507936508, 0.7507936507936508, 0.7698412698412698, 0.707936507936508, 0.6380952380952382, 0.6825396825396824, 0.7492063492063492, 0.6825396825396824, 0.7492063492063492, 0.7523809523809524, 0.7285714285714286, 0.7730158730158729, 0.8000000000000002, 0.7952380952380952, 0.7523809523809524, 0.6587301587301587, 0.7253968253968255, 0.638095238095238]</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>[0.7952380952380952, 0.7285714285714285, 0.7301587301587302, 0.7285714285714285, 0.7063492063492064, 0.6619047619047619, 0.7285714285714285, 0.7063492063492064, 0.7952380952380952, 0.707936507936508, 0.7269841269841271, 0.6158730158730159, 0.7285714285714285, 0.7507936507936508, 0.7730158730158729, 0.6825396825396827, 0.7063492063492064, 0.7063492063492064, 0.7492063492063492, 0.7047619047619048, 0.7952380952380952, 0.8174603174603173, 0.6587301587301587, 0.7492063492063492, 0.7492063492063492, 0.7952380952380952, 0.7952380952380952, 0.8174603174603176, 0.8174603174603173, 0.7952380952380952, 0.815873015873016, 0.6825396825396827, 0.7492063492063492, 0.5968253968253968, 0.7063492063492064, 0.7714285714285715, 0.6428571428571429, 0.7936507936507936, 0.6619047619047619, 0.7714285714285715, 0.7730158730158729, 0.7730158730158729, 0.7730158730158729, 0.7285714285714285, 0.7714285714285715, 0.7730158730158729, 0.8396825396825397, 0.7253968253968254, 0.815873015873016, 0.7047619047619048]</t>
+          <t>[0.7285714285714285, 0.7507936507936508, 0.7507936507936508, 0.6619047619047619, 0.6825396825396827, 0.6603174603174603, 0.7047619047619048, 0.7952380952380952, 0.7063492063492064, 0.7285714285714285, 0.7507936507936508, 0.684126984126984, 0.8174603174603173, 0.6158730158730159, 0.7285714285714285, 0.6619047619047619, 0.7301587301587302, 0.7063492063492064, 0.7492063492063492, 0.7063492063492064, 0.7507936507936508, 0.7285714285714285, 0.7714285714285715, 0.7936507936507936, 0.6809523809523809, 0.7507936507936508, 0.7507936507936508, 0.7746031746031746, 0.7063492063492064, 0.8174603174603173, 0.7507936507936508, 0.7936507936507936, 0.7936507936507936, 0.7253968253968254, 0.7253968253968254, 0.726984126984127, 0.7492063492063492, 0.6603174603174603, 0.6825396825396827, 0.7301587301587302, 0.7730158730158729, 0.815873015873016, 0.7269841269841271, 0.7936507936507936, 0.8396825396825397, 0.7507936507936508, 0.8396825396825397, 0.6174603174603175, 0.7285714285714285, 0.6412698412698412]</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>[0.753968253968254, 0.665079365079365, 0.665079365079365, 0.7301587301587302, 0.7523809523809524, 0.7301587301587302, 0.707936507936508, 0.665079365079365, 0.7523809523809524, 0.753968253968254, 0.8428571428571429, 0.707936507936508, 0.7523809523809524, 0.7968253968253968, 0.7746031746031746, 0.7523809523809524, 0.7746031746031746, 0.7095238095238097, 0.8206349206349207, 0.7301587301587302, 0.7746031746031746, 0.8412698412698413, 0.7984126984126986, 0.7746031746031746, 0.7523809523809524, 0.7523809523809524, 0.8190476190476191, 0.7968253968253968, 0.8190476190476191, 0.8190476190476191, 0.7968253968253968, 0.7301587301587302, 0.7968253968253968, 0.7095238095238097, 0.7523809523809524, 0.7746031746031746, 0.6873015873015872, 0.8412698412698413, 0.7317460317460318, 0.7523809523809524, 0.7746031746031746, 0.7301587301587302, 0.7968253968253968, 0.7968253968253968, 0.7746031746031746, 0.7746031746031746, 0.8412698412698413, 0.7968253968253968, 0.8412698412698413, 0.7968253968253968]</t>
+          <t>[0.7301587301587302, 0.7746031746031746, 0.7301587301587302, 0.7095238095238097, 0.753968253968254, 0.7746031746031746, 0.6857142857142856, 0.7523809523809524, 0.707936507936508, 0.707936507936508, 0.7095238095238097, 0.7746031746031746, 0.753968253968254, 0.753968253968254, 0.7095238095238097, 0.7523809523809524, 0.6873015873015872, 0.665079365079365, 0.8190476190476191, 0.7523809523809524, 0.753968253968254, 0.7746031746031746, 0.8190476190476191, 0.8190476190476191, 0.7317460317460318, 0.6857142857142858, 0.7523809523809524, 0.7523809523809524, 0.7761904761904761, 0.8412698412698413, 0.753968253968254, 0.7746031746031746, 0.8634920634920635, 0.7968253968253968, 0.8190476190476191, 0.8190476190476191, 0.7746031746031746, 0.707936507936508, 0.7984126984126986, 0.7095238095238096, 0.8428571428571429, 0.7968253968253968, 0.7968253968253968, 0.8634920634920635, 0.8412698412698413, 0.7523809523809524, 0.8190476190476191, 0.6873015873015872, 0.7984126984126986, 0.665079365079365]</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>[0.815873015873016, 0.7936507936507936, 0.8396825396825397, 0.8603174603174604, 0.8365079365079365, 0.815873015873016, 0.7936507936507936, 0.8619047619047618, 0.861904761904762, 0.792063492063492, 0.8126984126984128, 0.7920634920634922, 0.7714285714285714, 0.815873015873016, 0.9317460317460317, 0.8396825396825397, 0.8841269841269841, 0.8873015873015874, 0.8619047619047618, 0.815873015873016, 0.8841269841269841, 0.8142857142857144, 0.8603174603174604, 0.8841269841269841, 0.8841269841269841, 0.8380952380952381, 0.861904761904762, 0.8603174603174604, 0.8603174603174604, 0.8396825396825397, 0.8603174603174604, 0.9095238095238095, 0.861904761904762, 0.7952380952380952, 0.815873015873016, 0.8412698412698413, 0.7936507936507936, 0.7888888888888889, 0.7936507936507936, 0.8603174603174604, 0.8841269841269841, 0.8380952380952381, 0.8587301587301588, 0.9063492063492063, 0.8396825396825397, 0.8634920634920634, 0.8380952380952381, 0.861904761904762, 0.8857142857142857, 0.792063492063492]</t>
+          <t>[0.7666666666666666, 0.9079365079365079, 0.815873015873016, 0.8380952380952381, 0.9301587301587301, 0.8174603174603176, 0.8365079365079365, 0.861904761904762, 0.8634920634920634, 0.8174603174603176, 0.8603174603174603, 0.8619047619047618, 0.8380952380952381, 0.815873015873016, 0.8396825396825397, 0.8825396825396825, 0.815873015873016, 0.8174603174603176, 0.8603174603174604, 0.8825396825396825, 0.8603174603174604, 0.8380952380952381, 0.8365079365079365, 0.8825396825396825, 0.8380952380952381, 0.815873015873016, 0.7682539682539682, 0.7666666666666666, 0.8841269841269842, 0.7666666666666666, 0.8841269841269841, 0.7904761904761904, 0.8603174603174604, 0.8603174603174604, 0.8841269841269841, 0.792063492063492, 0.7682539682539682, 0.8380952380952381, 0.8825396825396825, 0.8396825396825397, 0.8380952380952381, 0.8126984126984128, 0.8825396825396825, 0.8603174603174604, 0.8380952380952381, 0.9079365079365079, 0.7904761904761904, 0.8396825396825397, 0.8825396825396825, 0.815873015873016]</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>[0.8126984126984128, 0.7666666666666666, 0.765079365079365, 0.7428571428571429, 0.8365079365079365, 0.8380952380952381, 0.8365079365079365, 0.7666666666666666, 0.8365079365079365, 0.7888888888888889, 0.8603174603174604, 0.8365079365079365, 0.7904761904761907, 0.8587301587301587, 0.8365079365079365, 0.8603174603174604, 0.8365079365079365, 0.7904761904761907, 0.8126984126984128, 0.765079365079365, 0.8365079365079365, 0.8126984126984128, 0.8365079365079365, 0.8365079365079365, 0.8365079365079365, 0.7888888888888889, 0.8365079365079365, 0.8365079365079365, 0.8365079365079365, 0.8603174603174603, 0.8603174603174604, 0.8126984126984128, 0.8365079365079365, 0.765079365079365, 0.7666666666666666, 0.8365079365079365, 0.7428571428571429, 0.8365079365079365, 0.8111111111111112, 0.8603174603174604, 0.8365079365079365, 0.8365079365079365, 0.8587301587301587, 0.8126984126984128, 0.8365079365079365, 0.8365079365079365, 0.7888888888888889, 0.8365079365079365, 0.8365079365079365, 0.8365079365079365]</t>
+          <t>[0.8126984126984128, 0.8365079365079365, 0.8365079365079365, 0.7412698412698413, 0.8126984126984128, 0.8126984126984128, 0.7904761904761907, 0.8365079365079365, 0.8126984126984128, 0.7888888888888889, 0.7904761904761907, 0.8142857142857144, 0.9079365079365079, 0.8126984126984128, 0.7904761904761907, 0.8142857142857144, 0.7888888888888889, 0.7888888888888889, 0.8587301587301587, 0.8603174603174604, 0.8126984126984128, 0.8603174603174604, 0.8603174603174604, 0.8365079365079365, 0.7444444444444445, 0.7666666666666666, 0.8365079365079365, 0.7888888888888889, 0.8587301587301587, 0.8365079365079365, 0.8365079365079365, 0.8365079365079365, 0.7888888888888889, 0.8126984126984128, 0.7888888888888889, 0.8365079365079365, 0.7904761904761904, 0.7873015873015872, 0.834920634920635, 0.7888888888888889, 0.8365079365079365, 0.7888888888888889, 0.8365079365079365, 0.8603174603174604, 0.7888888888888889, 0.8365079365079365, 0.8603174603174604, 0.8111111111111112, 0.8126984126984128, 0.8126984126984128]</t>
         </is>
       </c>
     </row>
@@ -11064,52 +11064,52 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.5189786059351277</v>
+        <v>0.5269151138716356</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5496315192743764</v>
+        <v>0.5623094512195121</v>
       </c>
       <c r="F115" t="n">
-        <v>0.55</v>
+        <v>0.5625</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5514423076923076</v>
+        <v>0.563125</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[[5, 7, 3], [10, 24, 8], [0, 8, 15]]</t>
+          <t>[[5, 7, 3], [10, 25, 7], [0, 8, 15]]</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300})</t>
+          <t>OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300})</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>[0.768803418803419, 0.7478632478632479, 0.6743589743589744, 0.7841880341880343, 0.7423076923076922, 0.7585470085470086, 0.7585470085470086, 0.7581196581196582, 0.7581196581196582, 0.7115384615384617, 0.7982905982905983, 0.7474358974358974, 0.7683760683760684, 0.7474358974358974, 0.6901709401709402, 0.7632478632478633, 0.7576923076923077, 0.7470085470085471, 0.7935897435897437, 0.6743589743589743, 0.8200854700854702, 0.6957264957264957, 0.6752136752136751, 0.8149572649572651, 0.6752136752136751, 0.7102564102564103, 0.7000000000000001, 0.7995726495726496, 0.7004273504273504, 0.8094017094017094, 0.8256410256410257, 0.8200854700854702, 0.8256410256410257, 0.8307692307692308, 0.8256410256410257, 0.808974358974359, 0.8200854700854702, 0.8145299145299146, 0.8145299145299146, 0.8200854700854702, 0.814957264957265, 0.8363247863247864, 0.820940170940171, 0.7376068376068377, 0.8363247863247864, 0.8363247863247864, 0.788888888888889, 0.732051282051282, 0.768803418803419, 0.7525641025641027]</t>
+          <t>[0.7423076923076923, 0.7478632478632479, 0.7166666666666668, 0.7675213675213675, 0.8098290598290598, 0.6743589743589744, 0.7786324786324786, 0.6901709401709402, 0.7940170940170941, 0.7264957264957267, 0.7423076923076922, 0.7166666666666668, 0.705982905982906, 0.788888888888889, 0.7423076923076922, 0.7217948717948719, 0.7269230769230769, 0.7008547008547009, 0.7162393162393162, 0.7367521367521368, 0.8098290598290598, 0.8200854700854702, 0.8363247863247864, 0.8252136752136753, 0.8205128205128205, 0.8200854700854702, 0.8094017094017095, 0.7833333333333334, 0.8205128205128206, 0.7730769230769231, 0.808974358974359, 0.7683760683760684, 0.7153846153846155, 0.7311965811965813, 0.7739316239316241, 0.7628205128205129, 0.7940170940170941, 0.7474358974358976, 0.7790598290598292, 0.7576923076923078, 0.820940170940171, 0.8256410256410257, 0.8205128205128205, 0.7264957264957266, 0.7525641025641026, 0.8094017094017095, 0.7534188034188035, 0.7529914529914531, 0.8200854700854702, 0.788888888888889]</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>[0.048488739558565336, 0.023367902759815918, 0.06272887088576955, 0.03177947426081746, 0.03795006542614245, 0.04136699159087201, 0.02484519974999769, 0.057357368986445535, 0.046134057169463616, 0.05801587012494088, 0.03023636401933118, 0.03550868047494189, 0.02677683794499238, 0.05196131334554075, 0.06905379934749893, 0.05109295621309013, 0.039759669571326525, 0.05788350716553428, 0.04822815719543891, 0.06629581268639943, 0.04448141131927952, 0.09014561964742028, 0.06630132195741792, 0.03592286441652567, 0.06630132195741792, 0.046630178904117386, 0.04098110117858754, 0.056052999767759286, 0.02727687760210763, 0.048300052020704067, 0.023273929579812135, 0.020909623628589863, 0.023273929579812135, 0.023461499540702185, 0.023273929579812135, 0.03267484590361587, 0.020909623628589863, 0.019130794261196075, 0.05936018963392638, 0.022589017583594027, 0.030656250315317886, 0.03179670980809959, 0.03425207676839981, 0.05631304755565516, 0.03179670980809959, 0.03179670980809959, 0.02576182371470351, 0.05426845659278335, 0.03726534932750711, 0.04914344106483785]</t>
+          <t>[0.061360140498453244, 0.04288435454462251, 0.05910118902553988, 0.03721630949927734, 0.035678002503832164, 0.07628654012505477, 0.04100337714978116, 0.059323258778235896, 0.047905201393474456, 0.046402464284240656, 0.03816600608848909, 0.06146422397730959, 0.06604741985841671, 0.03480742340905512, 0.031217063876495216, 0.05786457345500244, 0.0560529997677593, 0.07057107151037378, 0.056668664800857395, 0.031560342628438834, 0.036886060900923244, 0.01234147784460995, 0.03179670980809959, 0.03811333357521933, 0.031721954803240415, 0.03849476247825144, 0.0468411939483582, 0.031187798787211875, 0.028443694516741426, 0.05046355356965993, 0.05744009447424861, 0.057471880263009874, 0.05754809452604022, 0.05456714427183717, 0.04246495850355445, 0.04414345814911702, 0.053317853330935264, 0.0580221655913069, 0.046078602800629184, 0.051434957227959356, 0.03425207676839981, 0.023273929579812135, 0.031721954803240415, 0.031257988970785855, 0.01629544954268171, 0.02927896262044555, 0.04951735790629396, 0.02684495517015289, 0.028996915305448498, 0.04293542763284244]</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>[24, 34, 49, 23, 38, 28, 28, 30, 30, 41, 20, 35, 26, 35, 46, 27, 32, 37, 21, 50, 9, 45, 47, 13, 47, 42, 44, 19, 43, 17, 5, 9, 5, 4, 5, 18, 9, 15, 15, 9, 14, 1, 8, 39, 1, 1, 22, 40, 24, 33]</t>
+          <t>[34, 32, 43, 26, 11, 50, 22, 49, 16, 40, 35, 43, 47, 18, 35, 42, 39, 48, 45, 37, 11, 8, 1, 3, 6, 8, 13, 20, 5, 24, 15, 25, 46, 38, 23, 27, 16, 33, 21, 28, 4, 2, 6, 41, 31, 13, 29, 30, 8, 18]</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>[OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 4, 'min_samples_split': 20, 'n_estimators': 199}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 5, 'min_samples_split': 9, 'n_estimators': 242}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 5, 'min_samples_split': 19, 'n_estimators': 62}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 4, 'min_samples_split': 14, 'n_estimators': 259}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 5, 'min_samples_split': 3, 'n_estimators': 105}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 6, 'min_samples_split': 19, 'n_estimators': 212}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 141}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 7, 'min_samples_split': 17, 'n_estimators': 211}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 7, 'min_samples_split': 6, 'n_estimators': 173}), OrderedDict({'bootstrap': True, 'max_depth': 7, 'min_samples_leaf': 7, 'min_samples_split': 17, 'n_estimators': 150}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 4, 'min_samples_split': 19, 'n_estimators': 265}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 5, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 8, 'min_samples_leaf': 8, 'min_samples_split': 2, 'n_estimators': 285}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 128}), OrderedDict({'bootstrap': True, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 5, 'n_estimators': 186}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 293}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 276}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 120}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 7, 'n_estimators': 135}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 6, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 2, 'n_estimators': 244}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 14, 'n_estimators': 283}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 10, 'min_samples_split': 9, 'n_estimators': 131}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 7, 'min_samples_split': 7, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 3, 'min_samples_leaf': 3, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 243}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 128}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 284}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 249}), OrderedDict({'bootstrap': False, 'max_depth': 12, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 2, 'min_samples_split': 8, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 269}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 1, 'min_samples_split': 9, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 13, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 10, 'n_estimators': 298}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 20, 'n_estimators': 92})]</t>
+          <t>[OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 7, 'min_samples_split': 18, 'n_estimators': 184}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 5, 'min_samples_split': 17, 'n_estimators': 223}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 7, 'min_samples_split': 8, 'n_estimators': 286}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 4, 'min_samples_split': 18, 'n_estimators': 54}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 6, 'n_estimators': 173}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 8, 'min_samples_split': 4, 'n_estimators': 77}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 6, 'n_estimators': 166}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 8, 'min_samples_split': 16, 'n_estimators': 298}), OrderedDict({'bootstrap': False, 'max_depth': 8, 'min_samples_leaf': 3, 'min_samples_split': 5, 'n_estimators': 80}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 8, 'min_samples_split': 12, 'n_estimators': 149}), OrderedDict({'bootstrap': True, 'max_depth': 6, 'min_samples_leaf': 2, 'min_samples_split': 14, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 3, 'min_samples_split': 19, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 298}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 4, 'min_samples_split': 3, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 3, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 3, 'min_samples_leaf': 4, 'min_samples_split': 20, 'n_estimators': 286}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 5, 'min_samples_split': 19, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 14, 'min_samples_leaf': 10, 'min_samples_split': 3, 'n_estimators': 297}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 240}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 297}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 209}), OrderedDict({'bootstrap': True, 'max_depth': 12, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 11, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 117}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 96}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 11, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 227}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 5, 'min_samples_split': 2, 'n_estimators': 71}), OrderedDict({'bootstrap': False, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 6, 'min_samples_leaf': 1, 'min_samples_split': 19, 'n_estimators': 77}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 4, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 7, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 50}), OrderedDict({'bootstrap': False, 'max_depth': 5, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 204}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 232}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 20, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 10, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 9, 'min_samples_leaf': 1, 'min_samples_split': 5, 'n_estimators': 299}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 5, 'min_samples_split': 11, 'n_estimators': 224}), OrderedDict({'bootstrap': True, 'max_depth': 14, 'min_samples_leaf': 4, 'min_samples_split': 11, 'n_estimators': 266}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 2, 'min_samples_split': 5, 'n_estimators': 300}), OrderedDict({'bootstrap': True, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 11, 'n_estimators': 50}), OrderedDict({'bootstrap': True, 'max_depth': 13, 'min_samples_leaf': 3, 'min_samples_split': 11, 'n_estimators': 101}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 10, 'n_estimators': 300}), OrderedDict({'bootstrap': False, 'max_depth': 15, 'min_samples_leaf': 4, 'min_samples_split': 11, 'n_estimators': 50})]</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="O115" t="n">
-        <v>0.55</v>
+        <v>0.5625</v>
       </c>
       <c r="P115" t="inlineStr">
         <is>
@@ -11118,27 +11118,27 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>[0.7072649572649573, 0.732905982905983, 0.576923076923077, 0.732905982905983, 0.7072649572649573, 0.7072649572649573, 0.7350427350427351, 0.6538461538461539, 0.6794871794871794, 0.6303418803418804, 0.7564102564102564, 0.7051282051282052, 0.732905982905983, 0.6538461538461539, 0.6047008547008548, 0.6794871794871794, 0.7051282051282052, 0.6517094017094017, 0.7307692307692308, 0.576923076923077, 0.7585470085470085, 0.5491452991452991, 0.576923076923077, 0.7585470085470085, 0.576923076923077, 0.6260683760683761, 0.6260683760683761, 0.7051282051282052, 0.6538461538461539, 0.7564102564102564, 0.8119658119658121, 0.7841880341880342, 0.8119658119658121, 0.8119658119658121, 0.8119658119658121, 0.7564102564102564, 0.7841880341880342, 0.7841880341880342, 0.7008547008547009, 0.7841880341880342, 0.7841880341880342, 0.8119658119658121, 0.8119658119658121, 0.7072649572649574, 0.8119658119658121, 0.8119658119658121, 0.8119658119658121, 0.6816239316239318, 0.7350427350427351, 0.6794871794871794]</t>
+          <t>[0.6282051282051282, 0.6816239316239318, 0.6303418803418804, 0.7051282051282052, 0.7841880341880342, 0.5512820512820512, 0.7051282051282052, 0.6047008547008548, 0.7051282051282052, 0.6816239316239318, 0.7094017094017094, 0.6816239316239318, 0.655982905982906, 0.8119658119658121, 0.7350427350427351, 0.6816239316239318, 0.6581196581196581, 0.6303418803418803, 0.655982905982906, 0.7072649572649574, 0.7585470085470085, 0.8119658119658121, 0.8119658119658121, 0.7841880341880342, 0.7841880341880342, 0.7564102564102564, 0.7841880341880342, 0.732905982905983, 0.8119658119658121, 0.6794871794871794, 0.7286324786324787, 0.6794871794871794, 0.6260683760683761, 0.6517094017094017, 0.732905982905983, 0.7051282051282052, 0.7051282051282052, 0.6517094017094017, 0.732905982905983, 0.6794871794871794, 0.8119658119658121, 0.8119658119658121, 0.7841880341880342, 0.732905982905983, 0.7585470085470085, 0.7564102564102564, 0.6816239316239318, 0.7350427350427351, 0.8119658119658121, 0.7051282051282052]</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>[0.8205128205128206, 0.7435897435897436, 0.6858974358974358, 0.8205128205128206, 0.7927350427350427, 0.7692307692307692, 0.794871794871795, 0.7948717948717948, 0.7948717948717948, 0.7136752136752138, 0.844017094017094, 0.794871794871795, 0.794871794871795, 0.7692307692307692, 0.6602564102564102, 0.8205128205128206, 0.8205128205128206, 0.794871794871795, 0.8717948717948718, 0.6858974358974358, 0.8974358974358975, 0.6645299145299145, 0.6623931623931624, 0.8717948717948718, 0.6623931623931624, 0.7692307692307692, 0.6880341880341881, 0.8717948717948718, 0.717948717948718, 0.8974358974358975, 0.8717948717948718, 0.844017094017094, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.844017094017094, 0.844017094017094, 0.844017094017094, 0.8717948717948718, 0.8461538461538461, 0.8717948717948718, 0.8974358974358975, 0.8717948717948718, 0.7414529914529915, 0.8974358974358975, 0.8974358974358975, 0.8205128205128206, 0.767094017094017, 0.8205128205128206, 0.794871794871795]</t>
+          <t>[0.7692307692307692, 0.7692307692307692, 0.6880341880341881, 0.8205128205128206, 0.8717948717948718, 0.6602564102564102, 0.8205128205128206, 0.6602564102564102, 0.8461538461538461, 0.7393162393162394, 0.7927350427350427, 0.6880341880341881, 0.6880341880341881, 0.8461538461538461, 0.7393162393162394, 0.6880341880341881, 0.7948717948717948, 0.6880341880341881, 0.6602564102564102, 0.7136752136752138, 0.8717948717948718, 0.844017094017094, 0.8974358974358975, 0.8974358974358975, 0.8717948717948718, 0.8717948717948718, 0.8974358974358975, 0.8183760683760685, 0.8717948717948718, 0.8205128205128206, 0.8974358974358975, 0.8461538461538461, 0.794871794871795, 0.794871794871795, 0.794871794871795, 0.7927350427350427, 0.8717948717948718, 0.794871794871795, 0.8205128205128206, 0.7927350427350427, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.6880341880341881, 0.7414529914529915, 0.8461538461538461, 0.7414529914529915, 0.794871794871795, 0.8717948717948718, 0.8205128205128206]</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>[0.7927350427350427, 0.7158119658119658, 0.6367521367521368, 0.7927350427350427, 0.69017094017094, 0.7927350427350427, 0.7414529914529915, 0.7927350427350427, 0.767094017094017, 0.7158119658119658, 0.8183760683760685, 0.7158119658119658, 0.7927350427350427, 0.7393162393162394, 0.6623931623931624, 0.767094017094017, 0.7414529914529915, 0.7649572649572649, 0.8183760683760685, 0.6623931623931624, 0.8183760683760685, 0.6880341880341879, 0.6880341880341879, 0.8183760683760685, 0.6880341880341879, 0.7136752136752138, 0.7158119658119658, 0.7927350427350427, 0.6858974358974358, 0.7927350427350427, 0.8183760683760685, 0.8183760683760685, 0.8183760683760685, 0.8183760683760685, 0.8183760683760685, 0.7927350427350427, 0.8183760683760685, 0.8183760683760685, 0.8183760683760685, 0.8183760683760685, 0.7927350427350427, 0.8183760683760685, 0.767094017094017, 0.6645299145299145, 0.8183760683760685, 0.8183760683760685, 0.7927350427350427, 0.6623931623931624, 0.7414529914529915, 0.7649572649572649]</t>
+          <t>[0.7649572649572649, 0.7927350427350427, 0.7158119658119658, 0.7649572649572649, 0.767094017094017, 0.6623931623931624, 0.767094017094017, 0.6880341880341879, 0.8183760683760685, 0.7136752136752138, 0.6880341880341879, 0.6645299145299145, 0.6623931623931624, 0.767094017094017, 0.69017094017094, 0.69017094017094, 0.6623931623931624, 0.6623931623931624, 0.7158119658119658, 0.7649572649572649, 0.7927350427350427, 0.8183760683760685, 0.8183760683760685, 0.8183760683760685, 0.7927350427350427, 0.8183760683760685, 0.767094017094017, 0.7905982905982906, 0.8183760683760685, 0.7649572649572649, 0.7927350427350427, 0.767094017094017, 0.7136752136752138, 0.7393162393162394, 0.8183760683760685, 0.7927350427350427, 0.7927350427350427, 0.767094017094017, 0.8183760683760685, 0.7927350427350427, 0.767094017094017, 0.8183760683760685, 0.7927350427350427, 0.7158119658119658, 0.7414529914529915, 0.8183760683760685, 0.7435897435897436, 0.7158119658119658, 0.8183760683760685, 0.7927350427350427]</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>[0.7136752136752137, 0.764957264957265, 0.7136752136752137, 0.764957264957265, 0.764957264957265, 0.7136752136752137, 0.7393162393162394, 0.7393162393162394, 0.7393162393162394, 0.6880341880341881, 0.7905982905982906, 0.7393162393162394, 0.7393162393162394, 0.764957264957265, 0.7136752136752137, 0.7393162393162394, 0.7393162393162394, 0.7136752136752137, 0.764957264957265, 0.6623931623931624, 0.8162393162393163, 0.767094017094017, 0.6645299145299145, 0.8162393162393163, 0.6645299145299145, 0.7158119658119658, 0.7414529914529915, 0.7905982905982906, 0.7158119658119658, 0.8183760683760682, 0.8162393162393163, 0.8162393162393163, 0.8162393162393163, 0.8418803418803419, 0.8162393162393163, 0.8418803418803419, 0.8162393162393163, 0.8162393162393163, 0.844017094017094, 0.8418803418803419, 0.8162393162393163, 0.8162393162393163, 0.8162393162393163, 0.7393162393162394, 0.8162393162393163, 0.8162393162393163, 0.764957264957265, 0.7393162393162394, 0.7393162393162394, 0.7136752136752137]</t>
+          <t>[0.7393162393162394, 0.7136752136752137, 0.7393162393162394, 0.764957264957265, 0.8162393162393163, 0.7136752136752137, 0.7905982905982906, 0.7136752136752137, 0.7905982905982906, 0.6880341880341881, 0.764957264957265, 0.7136752136752137, 0.6880341880341881, 0.764957264957265, 0.764957264957265, 0.7136752136752137, 0.764957264957265, 0.6880341880341881, 0.7393162393162394, 0.7136752136752137, 0.8162393162393163, 0.8162393162393163, 0.8162393162393163, 0.8162393162393163, 0.8162393162393163, 0.844017094017094, 0.8162393162393163, 0.764957264957265, 0.8162393162393163, 0.7905982905982906, 0.844017094017094, 0.7393162393162394, 0.6880341880341881, 0.6880341880341881, 0.7136752136752137, 0.7136752136752137, 0.7905982905982906, 0.7136752136752137, 0.7136752136752137, 0.7136752136752137, 0.8162393162393163, 0.8162393162393163, 0.8162393162393163, 0.7136752136752137, 0.7393162393162394, 0.8162393162393163, 0.764957264957265, 0.764957264957265, 0.8162393162393163, 0.8162393162393163]</t>
         </is>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>[0.80982905982906, 0.782051282051282, 0.7585470085470085, 0.80982905982906, 0.7564102564102564, 0.80982905982906, 0.782051282051282, 0.80982905982906, 0.80982905982906, 0.80982905982906, 0.782051282051282, 0.782051282051282, 0.782051282051282, 0.80982905982906, 0.80982905982906, 0.80982905982906, 0.782051282051282, 0.80982905982906, 0.782051282051282, 0.7841880341880342, 0.80982905982906, 0.80982905982906, 0.7841880341880342, 0.80982905982906, 0.7841880341880342, 0.7264957264957266, 0.7286324786324787, 0.8376068376068376, 0.7286324786324787, 0.782051282051282, 0.8098290598290597, 0.8376068376068376, 0.8098290598290597, 0.80982905982906, 0.8098290598290597, 0.80982905982906, 0.8376068376068376, 0.8098290598290597, 0.8376068376068376, 0.80982905982906, 0.8098290598290597, 0.8376068376068376, 0.8376068376068376, 0.8354700854700855, 0.8376068376068376, 0.8376068376068376, 0.7542735042735043, 0.8098290598290597, 0.8076923076923078, 0.80982905982906]</t>
+          <t>[0.80982905982906, 0.782051282051282, 0.80982905982906, 0.782051282051282, 0.8098290598290597, 0.7841880341880342, 0.80982905982906, 0.7841880341880342, 0.80982905982906, 0.80982905982906, 0.7564102564102564, 0.8354700854700855, 0.8354700854700855, 0.7542735042735043, 0.782051282051282, 0.8354700854700855, 0.7542735042735043, 0.8354700854700855, 0.80982905982906, 0.7841880341880342, 0.8098290598290597, 0.8098290598290597, 0.8376068376068376, 0.8098290598290597, 0.8376068376068376, 0.80982905982906, 0.782051282051282, 0.80982905982906, 0.7841880341880342, 0.80982905982906, 0.782051282051282, 0.80982905982906, 0.7542735042735043, 0.782051282051282, 0.80982905982906, 0.80982905982906, 0.80982905982906, 0.80982905982906, 0.80982905982906, 0.80982905982906, 0.8376068376068376, 0.8098290598290597, 0.8376068376068376, 0.782051282051282, 0.782051282051282, 0.80982905982906, 0.8354700854700855, 0.7542735042735043, 0.782051282051282, 0.80982905982906]</t>
         </is>
       </c>
     </row>
@@ -11250,52 +11250,52 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.5465838509316771</v>
+        <v>0.5348516218081435</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.5817565717415115</v>
       </c>
       <c r="F117" t="n">
-        <v>0.45</v>
+        <v>0.575</v>
       </c>
       <c r="G117" t="n">
-        <v>0.5205069124423962</v>
+        <v>0.5903673054587688</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[[10, 3, 2], [23, 8, 11], [2, 3, 18]]</t>
+          <t>[[5, 8, 2], [12, 26, 4], [1, 7, 15]]</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008353397201272966, 'max_iter': 737, 'solver': 'adam'})</t>
+          <t>OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'})</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>[0.7059829059829059, 0.5705128205128205, 0.5068376068376068, 0.6299145299145299, 0.6401709401709401, 0.7269230769230769, 0.667094017094017, 0.49102564102564106, 0.43888888888888894, 0.6782051282051282, 0.7158119658119657, 0.7423076923076923, 0.7094017094017094, 0.7098290598290599, 0.7320512820512821, 0.7213675213675214, 0.6777777777777778, 0.6576923076923077, 0.6893162393162393, 0.5799145299145299, 0.7106837606837606, 0.7106837606837606, 0.7106837606837606, 0.7106837606837606, 0.7106837606837606, 0.7106837606837606, 0.7106837606837606, 0.7106837606837606, 0.7106837606837606, 0.7106837606837606, 0.7209401709401709, 0.694017094017094, 0.7256410256410257, 0.7230769230769231, 0.4017094017094017, 0.4286324786324786, 0.29914529914529914, 0.2683760683760684, 0.4431623931623932, 0.43888888888888883, 0.6829059829059829, 0.7213675213675214, 0.7474358974358976, 0.6833333333333333, 0.6884615384615385, 0.7474358974358976, 0.7474358974358976, 0.6991452991452992, 0.7474358974358976, 0.7474358974358976]</t>
+          <t>[0.635042735042735, 0.29914529914529914, 0.6021367521367522, 0.7102564102564102, 0.6294871794871795, 0.4598290598290598, 0.7094017094017094, 0.6465811965811966, 0.6405982905982907, 0.7213675213675214, 0.6884615384615385, 0.7106837606837606, 0.7158119658119657, 0.6931623931623933, 0.5696581196581196, 0.6833333333333333, 0.6829059829059829, 0.7213675213675214, 0.6726495726495727, 0.6307692307692309, 0.7213675213675212, 0.714957264957265, 0.6679487179487179, 0.7059829059829059, 0.7094017094017094, 0.6628205128205128, 0.7162393162393162, 0.7307692307692307, 0.6957264957264957, 0.7098290598290597, 0.7307692307692307, 0.6987179487179488, 0.7098290598290599, 0.7098290598290599, 0.6508547008547009, 0.6508547008547009, 0.5653846153846154, 0.4965811965811965, 0.7158119658119657, 0.538034188034188, 0.6987179487179488, 0.6059829059829059, 0.6777777777777778, 0.6829059829059829, 0.6841880341880342, 0.6841880341880342, 0.6833333333333333, 0.6833333333333333, 0.6888888888888889, 0.6884615384615385]</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>[0.046767056479673344, 0.06533012644922383, 0.1224297443301039, 0.09274981173504639, 0.07254391512452288, 0.03227556852734907, 0.02155473540669823, 0.11729504236435215, 0.09968904828597148, 0.04351006627764251, 0.05950768386183701, 0.044506038844273836, 0.04798899842266593, 0.05724581897312941, 0.039759669571326525, 0.0515413671559787, 0.048975925155070744, 0.042615216623309075, 0.05268036617516229, 0.09700572306594185, 0.05345468880126095, 0.05345468880126095, 0.05345468880126095, 0.05345468880126095, 0.05345468880126095, 0.05345468880126095, 0.05345468880126095, 0.05345468880126095, 0.05345468880126095, 0.05345468880126095, 0.030982169163063004, 0.07547787707453858, 0.04809543803028526, 0.04927704377914382, 0.06729921259839157, 0.05503702789332696, 0.10040461644846779, 0.04792425903889294, 0.08139427126191477, 0.05621891922222977, 0.0529397321348784, 0.04446498539134895, 0.04344285624906159, 0.0293412716132853, 0.030078913426953506, 0.04344285624906159, 0.04344285624906159, 0.03475491557495296, 0.04344285624906159, 0.04344285624906159]</t>
+          <t>[0.09611490189496888, 0.10040461644846779, 0.07401186298405985, 0.04651253466931898, 0.10443975817259567, 0.046841193948358166, 0.040789025637572696, 0.055417316504093435, 0.04719078893495945, 0.0515413671559787, 0.030078913426953506, 0.05345468880126095, 0.05950768386183701, 0.06261230686999976, 0.11598923576124283, 0.04025722684130151, 0.054620667721950296, 0.04446498539134895, 0.0525206546862811, 0.05155553855222011, 0.037073727169737336, 0.051682906258529296, 0.04601911325118568, 0.046767056479673344, 0.07162423760210429, 0.028552637758102708, 0.050336728655475504, 0.056678332197043955, 0.05480425590266621, 0.05789612619929337, 0.056678332197043955, 0.0743761646305266, 0.05724581897312941, 0.05724581897312941, 0.059162958679758876, 0.059162958679758876, 0.060596422041520395, 0.022878220195425958, 0.04520632321917227, 0.08928863107432158, 0.0743761646305266, 0.08525185815664883, 0.04780597916982776, 0.0529397321348784, 0.03568823862583416, 0.03568823862583416, 0.04025722684130151, 0.04025722684130151, 0.04611821986821784, 0.045616530447838984]</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>[27, 41, 42, 39, 38, 8, 36, 43, 45, 34, 14, 6, 26, 25, 7, 11, 35, 37, 30, 40, 15, 15, 15, 15, 15, 15, 15, 15, 15, 15, 13, 29, 9, 10, 48, 47, 49, 50, 44, 46, 33, 11, 1, 32, 31, 1, 1, 28, 1, 1]</t>
+          <t>[40, 50, 44, 11, 42, 49, 15, 38, 39, 3, 23, 10, 7, 21, 45, 27, 30, 3, 33, 41, 5, 9, 34, 17, 15, 35, 6, 1, 20, 14, 1, 18, 12, 12, 36, 36, 46, 48, 7, 47, 18, 43, 32, 30, 25, 25, 27, 27, 22, 23]</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>[OrderedDict({'activation': 'tanh', 'alpha': 0.0007570670935694137, 'learning_rate_init': 0.001419914437201691, 'max_iter': 1542, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.488056921756442e-06, 'learning_rate_init': 0.0004959432144694865, 'max_iter': 2080, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 8.646295194701153e-06, 'learning_rate_init': 0.00018998038346474734, 'max_iter': 1546, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0036025124177716597, 'learning_rate_init': 0.0004162734344518432, 'max_iter': 2024, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 4.848807773269028e-06, 'learning_rate_init': 0.0006592775988271601, 'max_iter': 1609, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.03538114115846333, 'learning_rate_init': 0.0020709755585015723, 'max_iter': 1869, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0001388853918283932, 'learning_rate_init': 0.007271770452297812, 'max_iter': 719, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0005698823225619031, 'learning_rate_init': 0.0002218741426061934, 'max_iter': 643, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.00730024310129294, 'learning_rate_init': 0.00013539982264801977, 'max_iter': 1672, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.4051422542507024e-05, 'learning_rate_init': 0.005516370174421304, 'max_iter': 939, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 2.220142633061699e-06, 'learning_rate_init': 0.01, 'max_iter': 754, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.007840703179577066, 'max_iter': 2746, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.014600224666699106, 'learning_rate_init': 0.0053100390588893135, 'max_iter': 781, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 1023, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0027145094449722708, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.003092859996339611, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 2.9251064694386365e-05, 'learning_rate_init': 0.003582447506379727, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0024612809372767503, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0021165608550436253, 'max_iter': 2958, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.05477492260227907, 'learning_rate_init': 0.0013767548385720761, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2339, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 897, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 2508, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 633, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1607, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1363, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1162, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 1953, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.005693337056056531, 'max_iter': 2603, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.048031951403849735, 'learning_rate_init': 0.0066301886133912045, 'max_iter': 2900, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0072593264349061215, 'max_iter': 2769, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.007544449561903728, 'max_iter': 2668, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.0001, 'max_iter': 2172, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 1651, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.00015441913629026365, 'max_iter': 551, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0001, 'max_iter': 2571, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.00012493091526721573, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00014037528266654906, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 501, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.004744957357592885, 'max_iter': 2885, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008353397201272966, 'max_iter': 737, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1.1563528351368009e-06, 'learning_rate_init': 0.0009070473208848558, 'max_iter': 1920, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.000895236762966626, 'max_iter': 1022, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008352758677655689, 'max_iter': 2984, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008353831467928072, 'max_iter': 1184, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.07005968595063451, 'learning_rate_init': 0.0008828022050168229, 'max_iter': 1560, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00833932559875695, 'max_iter': 1189, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.008385380227633554, 'max_iter': 2939, 'solver': 'adam'})]</t>
+          <t>[OrderedDict({'activation': 'logistic', 'alpha': 4.605507062907773e-06, 'learning_rate_init': 0.0005782693228248202, 'max_iter': 589, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.9664368912218693e-06, 'learning_rate_init': 0.00012912037093506363, 'max_iter': 2470, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1.3433261927103623e-05, 'learning_rate_init': 0.0006608789296470327, 'max_iter': 2562, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.0002294384713221134, 'learning_rate_init': 0.0029249712250568214, 'max_iter': 1581, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 2.107691698018087e-06, 'learning_rate_init': 0.0016300930780671075, 'max_iter': 2446, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.00016468327381342053, 'learning_rate_init': 0.00017231935569020777, 'max_iter': 2801, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.0017250512140793896, 'learning_rate_init': 0.0006641652373374407, 'max_iter': 1968, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 6.725624075670276e-05, 'learning_rate_init': 0.0024132236963319313, 'max_iter': 708, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.001286451709667533, 'learning_rate_init': 0.0010317091937283595, 'max_iter': 2115, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.002494416018311215, 'learning_rate_init': 0.0031833973857721613, 'max_iter': 876, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.010339660843055265, 'learning_rate_init': 0.0009015170051379513, 'max_iter': 881, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.008205303533393566, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0007416992554799834, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006204594576281966, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 0.03817227188674983, 'learning_rate_init': 0.0007297069428202535, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.004706115544368909, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.004676772080937921, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0004993876554653169, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0023163729730049927, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.003595019089914751, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0014623497786156949, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0015918216867305797, 'max_iter': 2323, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.000840967089995753, 'learning_rate_init': 0.004949063729653426, 'max_iter': 1867, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.0019325676835856057, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.1, 'learning_rate_init': 0.004918789569416335, 'max_iter': 1701, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 0.1, 'learning_rate_init': 0.0041053417243766, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.0028690505527523467, 'max_iter': 677, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 500, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 0.1, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00047309361510016395, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0005408851580015583, 'max_iter': 3000, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00048473229091627705, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1.0915325812118342e-06, 'learning_rate_init': 0.0003341931192496527, 'max_iter': 1740, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.0018673787605624926, 'max_iter': 500, 'solver': 'adam'}), OrderedDict({'activation': 'tanh', 'alpha': 0.05403249748598683, 'learning_rate_init': 0.0002834065728352219, 'max_iter': 2846, 'solver': 'adam'}), OrderedDict({'activation': 'relu', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'logistic', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.005226647044103731, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.01, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.00577773682461054, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.005802673468449894, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006157775181092713, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006069012691555813, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006005144779864937, 'max_iter': 3000, 'solver': 'sgd'}), OrderedDict({'activation': 'tanh', 'alpha': 1e-06, 'learning_rate_init': 0.006030307327964418, 'max_iter': 3000, 'solver': 'sgd'})]</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="O117" t="n">
-        <v>0.45</v>
+        <v>0.575</v>
       </c>
       <c r="P117" t="inlineStr">
         <is>
@@ -11304,27 +11304,27 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>[0.6794871794871794, 0.46581196581196577, 0.4935897435897436, 0.4465811965811966, 0.49786324786324787, 0.6794871794871794, 0.6816239316239315, 0.4935897435897436, 0.3888888888888889, 0.6239316239316239, 0.6260683760683761, 0.7841880341880342, 0.7072649572649574, 0.6025641025641025, 0.6794871794871794, 0.6517094017094017, 0.655982905982906, 0.655982905982906, 0.6538461538461539, 0.42094017094017094, 0.6260683760683761, 0.6260683760683761, 0.6260683760683761, 0.6260683760683761, 0.6260683760683761, 0.6260683760683761, 0.6260683760683761, 0.6260683760683761, 0.6260683760683761, 0.6260683760683761, 0.6773504273504273, 0.6260683760683761, 0.7286324786324787, 0.7051282051282052, 0.34188034188034183, 0.41452991452991456, 0.20512820512820515, 0.20512820512820515, 0.36752136752136755, 0.46581196581196577, 0.6517094017094017, 0.6773504273504273, 0.7841880341880342, 0.6773504273504273, 0.702991452991453, 0.7841880341880342, 0.7841880341880342, 0.702991452991453, 0.7841880341880342, 0.7841880341880342]</t>
+          <t>[0.4465811965811966, 0.20512820512820515, 0.5192307692307693, 0.6794871794871794, 0.42094017094017094, 0.46581196581196577, 0.702991452991453, 0.655982905982906, 0.702991452991453, 0.6517094017094017, 0.702991452991453, 0.6260683760683761, 0.6260683760683761, 0.576923076923077, 0.702991452991453, 0.6517094017094017, 0.702991452991453, 0.6773504273504273, 0.6239316239316239, 0.7307692307692308, 0.6794871794871794, 0.6773504273504273, 0.6794871794871794, 0.6794871794871794, 0.655982905982906, 0.6517094017094017, 0.6517094017094017, 0.6794871794871794, 0.6816239316239315, 0.6517094017094017, 0.6794871794871794, 0.655982905982906, 0.6025641025641025, 0.6025641025641025, 0.5705128205128206, 0.5705128205128206, 0.46581196581196577, 0.46581196581196577, 0.6517094017094017, 0.5705128205128206, 0.655982905982906, 0.49786324786324787, 0.6517094017094017, 0.6517094017094017, 0.6517094017094017, 0.6517094017094017, 0.6517094017094017, 0.6517094017094017, 0.6517094017094017, 0.6517094017094017]</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>[0.7692307692307692, 0.5811965811965812, 0.35897435897435903, 0.6816239316239315, 0.6816239316239315, 0.7692307692307692, 0.6816239316239315, 0.35897435897435903, 0.35897435897435903, 0.7414529914529915, 0.7692307692307693, 0.794871794871795, 0.717948717948718, 0.7649572649572649, 0.7948717948717948, 0.7948717948717948, 0.7649572649572649, 0.5833333333333334, 0.7435897435897436, 0.5128205128205129, 0.7692307692307693, 0.7692307692307693, 0.7692307692307693, 0.7692307692307693, 0.7692307692307693, 0.7692307692307693, 0.7692307692307693, 0.7692307692307693, 0.7692307692307693, 0.7692307692307693, 0.767094017094017, 0.7948717948717948, 0.794871794871795, 0.7393162393162394, 0.3333333333333333, 0.4294871794871795, 0.4871794871794872, 0.3333333333333333, 0.358974358974359, 0.4294871794871795, 0.7414529914529915, 0.7948717948717948, 0.794871794871795, 0.7115384615384617, 0.7115384615384617, 0.794871794871795, 0.794871794871795, 0.7115384615384617, 0.794871794871795, 0.794871794871795]</t>
+          <t>[0.6816239316239315, 0.4871794871794872, 0.514957264957265, 0.7649572649572649, 0.6816239316239315, 0.4294871794871795, 0.7115384615384617, 0.608974358974359, 0.5833333333333334, 0.7948717948717948, 0.7115384615384617, 0.7692307692307693, 0.7692307692307693, 0.7649572649572649, 0.358974358974359, 0.7414529914529915, 0.7115384615384617, 0.7948717948717948, 0.7435897435897436, 0.6047008547008548, 0.767094017094017, 0.7948717948717948, 0.6068376068376068, 0.7692307692307692, 0.7948717948717948, 0.7115384615384617, 0.7948717948717948, 0.7692307692307693, 0.717948717948718, 0.7905982905982906, 0.7692307692307693, 0.7692307692307693, 0.7649572649572649, 0.7649572649572649, 0.6324786324786325, 0.6324786324786325, 0.5811965811965812, 0.5042735042735043, 0.7692307692307692, 0.6068376068376068, 0.7692307692307693, 0.5064102564102564, 0.7414529914529915, 0.7414529914529915, 0.7158119658119658, 0.7158119658119658, 0.7414529914529915, 0.7414529914529915, 0.7435897435897436, 0.7414529914529915]</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>[0.6367521367521367, 0.6346153846153846, 0.6517094017094017, 0.6581196581196581, 0.6581196581196581, 0.7414529914529915, 0.6388888888888888, 0.6004273504273504, 0.6239316239316239, 0.6346153846153846, 0.7927350427350427, 0.7414529914529915, 0.7905982905982906, 0.7158119658119658, 0.7414529914529915, 0.7414529914529915, 0.6324786324786325, 0.7158119658119658, 0.7628205128205128, 0.6581196581196581, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.767094017094017, 0.7414529914529915, 0.7414529914529915, 0.7414529914529915, 0.7905982905982906, 0.5213675213675214, 0.37393162393162394, 0.2820512820512821, 0.2820512820512821, 0.5213675213675214, 0.37393162393162394, 0.6068376068376068, 0.7414529914529915, 0.767094017094017, 0.6367521367521367, 0.6367521367521367, 0.767094017094017, 0.767094017094017, 0.6367521367521367, 0.767094017094017, 0.767094017094017]</t>
+          <t>[0.6581196581196581, 0.2820512820512821, 0.6303418803418804, 0.7158119658119658, 0.6858974358974358, 0.47863247863247854, 0.6367521367521367, 0.7158119658119658, 0.6111111111111112, 0.7414529914529915, 0.6367521367521367, 0.767094017094017, 0.7927350427350427, 0.7158119658119658, 0.5854700854700855, 0.6346153846153846, 0.5833333333333334, 0.7414529914529915, 0.6068376068376068, 0.5833333333333334, 0.7414529914529915, 0.7414529914529915, 0.6367521367521367, 0.6367521367521367, 0.7905982905982906, 0.6346153846153847, 0.7414529914529915, 0.7927350427350427, 0.7905982905982906, 0.7158119658119658, 0.7927350427350427, 0.7905982905982906, 0.7158119658119658, 0.7158119658119658, 0.6346153846153846, 0.6346153846153846, 0.6346153846153846, 0.47863247863247854, 0.7414529914529915, 0.47863247863247854, 0.7905982905982906, 0.6901709401709403, 0.6068376068376068, 0.6068376068376068, 0.6346153846153846, 0.6346153846153846, 0.6346153846153846, 0.6346153846153846, 0.6346153846153846, 0.6346153846153846]</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>[0.7435897435897436, 0.6388888888888888, 0.6410256410256411, 0.6645299145299145, 0.6645299145299145, 0.7435897435897436, 0.69017094017094, 0.6410256410256411, 0.4615384615384615, 0.6923076923076924, 0.69017094017094, 0.717948717948718, 0.6880341880341881, 0.7136752136752137, 0.7435897435897436, 0.7435897435897436, 0.6388888888888888, 0.6645299145299145, 0.6410256410256411, 0.6645299145299145, 0.69017094017094, 0.69017094017094, 0.69017094017094, 0.69017094017094, 0.69017094017094, 0.69017094017094, 0.69017094017094, 0.69017094017094, 0.69017094017094, 0.69017094017094, 0.7158119658119658, 0.717948717948718, 0.717948717948718, 0.7393162393162394, 0.40170940170940167, 0.39316239316239315, 0.29914529914529914, 0.29914529914529914, 0.5576923076923077, 0.39316239316239315, 0.7435897435897436, 0.717948717948718, 0.6901709401709403, 0.717948717948718, 0.717948717948718, 0.6901709401709403, 0.6901709401709403, 0.7435897435897436, 0.6901709401709403, 0.6901709401709403]</t>
+          <t>[0.7158119658119658, 0.29914529914529914, 0.6410256410256411, 0.6388888888888888, 0.6880341880341881, 0.39316239316239315, 0.7435897435897436, 0.6901709401709403, 0.69017094017094, 0.7435897435897436, 0.717948717948718, 0.69017094017094, 0.69017094017094, 0.7136752136752137, 0.6388888888888888, 0.717948717948718, 0.7435897435897436, 0.717948717948718, 0.717948717948718, 0.6153846153846154, 0.7435897435897436, 0.7158119658119658, 0.7435897435897436, 0.7435897435897436, 0.6880341880341881, 0.6388888888888888, 0.717948717948718, 0.764957264957265, 0.6410256410256411, 0.6388888888888888, 0.764957264957265, 0.6901709401709403, 0.7136752136752137, 0.7136752136752137, 0.6645299145299145, 0.6645299145299145, 0.6132478632478633, 0.5021367521367521, 0.7435897435897436, 0.6388888888888888, 0.6901709401709403, 0.6645299145299145, 0.717948717948718, 0.7435897435897436, 0.6923076923076924, 0.6923076923076924, 0.717948717948718, 0.717948717948718, 0.7435897435897436, 0.7435897435897436]</t>
         </is>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>[0.7008547008547009, 0.532051282051282, 0.3888888888888889, 0.6987179487179488, 0.6987179487179488, 0.7008547008547009, 0.6431623931623932, 0.36111111111111116, 0.36111111111111116, 0.6987179487179488, 0.7008547008547009, 0.673076923076923, 0.6431623931623932, 0.7521367521367521, 0.7008547008547009, 0.6752136752136751, 0.6965811965811967, 0.6688034188034188, 0.6452991452991453, 0.6431623931623932, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.702991452991453, 0.5897435897435898, 0.6452991452991453, 0.6410256410256411, 0.4102564102564103, 0.532051282051282, 0.2222222222222222, 0.2222222222222222, 0.4102564102564103, 0.532051282051282, 0.6709401709401709, 0.6752136752136751, 0.7008547008547009, 0.673076923076923, 0.673076923076923, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009, 0.7008547008547009]</t>
+          <t>[0.673076923076923, 0.2222222222222222, 0.7051282051282052, 0.7521367521367521, 0.6709401709401709, 0.532051282051282, 0.7521367521367521, 0.561965811965812, 0.6153846153846154, 0.6752136752136751, 0.673076923076923, 0.7008547008547009, 0.7008547008547009, 0.6944444444444445, 0.561965811965812, 0.6709401709401709, 0.673076923076923, 0.6752136752136751, 0.6709401709401709, 0.6196581196581197, 0.6752136752136751, 0.6452991452991453, 0.673076923076923, 0.7008547008547009, 0.6175213675213675, 0.6773504273504273, 0.6752136752136751, 0.6474358974358975, 0.6474358974358975, 0.7521367521367521, 0.6474358974358975, 0.5876068376068376, 0.7521367521367521, 0.7521367521367521, 0.7521367521367521, 0.7521367521367521, 0.532051282051282, 0.532051282051282, 0.673076923076923, 0.3952991452991453, 0.5876068376068376, 0.6709401709401709, 0.6709401709401709, 0.6709401709401709, 0.7264957264957266, 0.7264957264957266, 0.6709401709401709, 0.6709401709401709, 0.6709401709401709, 0.6709401709401709]</t>
         </is>
       </c>
     </row>
@@ -11454,31 +11454,31 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
+          <t>OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2})</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>[0.5807692307692307, 0.6034188034188034, 0.6401709401709402, 0.561965811965812, 0.6324786324786325, 0.6713675213675214, 0.6346153846153847, 0.5346153846153847, 0.6196581196581197, 0.5670940170940171, 0.6170940170940171, 0.6995726495726495, 0.5670940170940171, 0.5871794871794871, 0.6170940170940171, 0.573076923076923, 0.5782051282051281, 0.6141025641025641, 0.5982905982905983, 0.4739316239316239, 0.43589743589743596, 0.6346153846153847, 0.3807692307692308, 0.5918803418803419, 0.6141025641025641, 0.6876068376068376, 0.5782051282051281, 0.5961538461538463, 0.6884615384615385, 0.5982905982905983, 0.573076923076923, 0.632051282051282, 0.5944444444444444, 0.6196581196581197, 0.5670940170940171, 0.3807692307692308, 0.5944444444444444, 0.40555555555555556, 0.5205128205128204, 0.6346153846153847, 0.5961538461538463, 0.6995726495726495, 0.5205128205128204, 0.5982905982905983, 0.5782051282051281, 0.5782051282051281, 0.5944444444444444, 0.4042735042735043, 0.5397435897435898, 0.5944444444444444]</t>
+          <t>[0.5957264957264957, 0.6170940170940171, 0.5679487179487179, 0.6209401709401708, 0.6222222222222222, 0.6196581196581197, 0.6, 0.6243589743589744, 0.6205128205128206, 0.5576923076923077, 0.5205128205128204, 0.5752136752136752, 0.4042735042735043, 0.561965811965812, 0.6089743589743589, 0.402991452991453, 0.6995726495726495, 0.5722222222222222, 0.5205128205128204, 0.6196581196581197, 0.5944444444444444, 0.5944444444444444, 0.4739316239316239, 0.6995726495726495, 0.6346153846153847, 0.40555555555555556, 0.43589743589743596, 0.5923076923076922, 0.6948717948717948, 0.4042735042735043, 0.561965811965812, 0.6401709401709402, 0.5982905982905983, 0.6089743589743589, 0.6884615384615385, 0.6247863247863248, 0.40555555555555556, 0.5555555555555556, 0.3807692307692308, 0.6346153846153847, 0.5944444444444444, 0.6141025641025641, 0.6252136752136752, 0.6893162393162393, 0.6141025641025641, 0.4072649572649573, 0.40555555555555556, 0.5205128205128204, 0.6196581196581197, 0.5722222222222222]</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>[0.07562291540406223, 0.05689701926615632, 0.07427296332162628, 0.12290318934571147, 0.0450849637432579, 0.06992633590997759, 0.07326287133443694, 0.05368991034030567, 0.04284174712769969, 0.028269804117164492, 0.047786874353826884, 0.09890739213309417, 0.03985142983546927, 0.048789121800043016, 0.047786874353826884, 0.043673457405269095, 0.055860438892020414, 0.030952681986721027, 0.05253108545425383, 0.062229031279546654, 0.059354036087065555, 0.07326287133443694, 0.01987983478566326, 0.03876895189757854, 0.030952681986721027, 0.07029102647114259, 0.055860438892020414, 0.033946798475616206, 0.06578143369906672, 0.06654876710426261, 0.043673457405269095, 0.04037048095254548, 0.056296829760901425, 0.04284174712769969, 0.03985142983546927, 0.01987983478566326, 0.05936018963392644, 0.05355367588998478, 0.05088162757653747, 0.07326287133443694, 0.033946798475616206, 0.09890739213309417, 0.05088162757653747, 0.04885645328898396, 0.055860438892020414, 0.055860438892020414, 0.05936018963392644, 0.03714262835494148, 0.09092225580236085, 0.056296829760901425]</t>
+          <t>[0.09129109401734849, 0.047786874353826884, 0.05995712788819001, 0.07903788099134494, 0.05132476853334163, 0.04284174712769969, 0.07009589249166726, 0.009498337936279013, 0.08115833557207343, 0.10198375695539935, 0.05088162757653747, 0.048262225989355124, 0.03714262835494148, 0.06408831750518793, 0.03683651613591446, 0.0386179157182303, 0.09890739213309417, 0.03591778015290715, 0.05088162757653747, 0.04284174712769969, 0.056296829760901425, 0.05936018963392644, 0.062229031279546654, 0.09890739213309417, 0.07326287133443694, 0.044542954601009876, 0.059354036087065555, 0.05246846974176854, 0.0728303432231545, 0.03714262835494148, 0.03232080410459666, 0.07427296332162628, 0.04885645328898396, 0.03683651613591446, 0.06578143369906672, 0.051185807122249086, 0.044542954601009876, 0.0568392133954555, 0.01987983478566326, 0.07326287133443694, 0.05936018963392644, 0.030952681986721027, 0.06356756804772677, 0.08509103983967925, 0.030952681986721027, 0.062363884946853694, 0.044542954601009876, 0.05088162757653747, 0.04284174712769969, 0.06544743086205244]</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>[30, 18, 6, 40, 10, 5, 7, 42, 12, 37, 14, 1, 37, 29, 14, 35, 31, 16, 19, 45, 46, 7, 49, 28, 16, 4, 31, 22, 3, 19, 35, 11, 24, 12, 37, 49, 24, 47, 43, 7, 22, 1, 43, 19, 31, 31, 24, 48, 41, 24]</t>
+          <t>[25, 18, 33, 13, 12, 15, 23, 11, 14, 36, 38, 30, 47, 34, 21, 49, 1, 31, 38, 15, 26, 26, 41, 1, 7, 44, 42, 29, 3, 47, 34, 6, 24, 21, 5, 10, 44, 37, 50, 7, 26, 19, 9, 4, 19, 43, 44, 38, 15, 31]</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>[OrderedDict({'criterion': 'entropy', 'max_depth': 72, 'max_features': None, 'min_samples_leaf': 14, 'min_samples_split': 34}), OrderedDict({'criterion': 'entropy', 'max_depth': 26, 'max_features': 'log2', 'min_samples_leaf': 8, 'min_samples_split': 23}), OrderedDict({'criterion': 'entropy', 'max_depth': 35, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 20}), OrderedDict({'criterion': 'gini', 'max_depth': 65, 'max_features': 'sqrt', 'min_samples_leaf': 11, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 81, 'max_features': None, 'min_samples_leaf': 5, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 26, 'max_features': 'log2', 'min_samples_leaf': 10, 'min_samples_split': 43}), OrderedDict({'criterion': 'entropy', 'max_depth': 43, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 28}), OrderedDict({'criterion': 'gini', 'max_depth': 92, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 35}), OrderedDict({'criterion': 'entropy', 'max_depth': 22, 'max_features': 'sqrt', 'min_samples_leaf': 3, 'min_samples_split': 46}), OrderedDict({'criterion': 'gini', 'max_depth': 47, 'max_features': None, 'min_samples_leaf': 9, 'min_samples_split': 15}), OrderedDict({'criterion': 'gini', 'max_depth': 6, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 10, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 7}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 44}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 93, 'max_features': 'sqrt', 'min_samples_leaf': 2, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 96, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50})]</t>
+          <t>[OrderedDict({'criterion': 'gini', 'max_depth': 86, 'max_features': 'log2', 'min_samples_leaf': 14, 'min_samples_split': 37}), OrderedDict({'criterion': 'gini', 'max_depth': 75, 'max_features': 'sqrt', 'min_samples_leaf': 19, 'min_samples_split': 15}), OrderedDict({'criterion': 'gini', 'max_depth': 97, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 28}), OrderedDict({'criterion': 'gini', 'max_depth': 84, 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 68, 'max_features': 'sqrt', 'min_samples_leaf': 18, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 13, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 44}), OrderedDict({'criterion': 'gini', 'max_depth': 8, 'max_features': 'log2', 'min_samples_leaf': 17, 'min_samples_split': 29}), OrderedDict({'criterion': 'gini', 'max_depth': 13, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 5}), OrderedDict({'criterion': 'gini', 'max_depth': 9, 'max_features': 'log2', 'min_samples_leaf': 6, 'min_samples_split': 16}), OrderedDict({'criterion': 'gini', 'max_depth': 81, 'max_features': 'sqrt', 'min_samples_leaf': 9, 'min_samples_split': 36}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 19, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 3, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 43}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 94, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 4}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 4, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 2, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 97, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 2, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'log2', 'min_samples_leaf': 19, 'min_samples_split': 3}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 49}), OrderedDict({'criterion': 'entropy', 'max_depth': 5, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'gini', 'max_depth': 98, 'max_features': 'sqrt', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 100, 'max_features': None, 'min_samples_leaf': 1, 'min_samples_split': 50}), OrderedDict({'criterion': 'entropy', 'max_depth': 99, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 3}), OrderedDict({'criterion': 'gini', 'max_depth': 100, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 50}), OrderedDict({'criterion': 'gini', 'max_depth': 2, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 47}), OrderedDict({'criterion': 'gini', 'max_depth': 1, 'max_features': 'log2', 'min_samples_leaf': 20, 'min_samples_split': 2}), OrderedDict({'criterion': 'entropy', 'max_depth': 1, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 6}), OrderedDict({'criterion': 'entropy', 'max_depth': 96, 'max_features': 'log2', 'min_samples_leaf': 1, 'min_samples_split': 48}), OrderedDict({'criterion': 'gini', 'max_depth': 99, 'max_features': None, 'min_samples_leaf': 20, 'min_samples_split': 50})]</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O119" t="n">
         <v>0.4375</v>
@@ -11490,27 +11490,27 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>[0.655982905982906, 0.6217948717948718, 0.6303418803418804, 0.5256410256410257, 0.5512820512820512, 0.5555555555555555, 0.6303418803418804, 0.5256410256410257, 0.5555555555555555, 0.5726495726495727, 0.5256410256410257, 0.6837606837606837, 0.5491452991452992, 0.5170940170940171, 0.5256410256410257, 0.5170940170940171, 0.5256410256410257, 0.6303418803418804, 0.6047008547008548, 0.4358974358974359, 0.3397435897435897, 0.6303418803418804, 0.391025641025641, 0.6004273504273504, 0.6303418803418804, 0.6773504273504273, 0.5256410256410257, 0.5705128205128206, 0.7606837606837606, 0.6004273504273504, 0.5170940170940171, 0.5726495726495726, 0.6303418803418804, 0.5555555555555555, 0.5491452991452992, 0.391025641025641, 0.6004273504273504, 0.3397435897435897, 0.4358974358974359, 0.6303418803418804, 0.5705128205128206, 0.6837606837606837, 0.4358974358974359, 0.6303418803418804, 0.5256410256410257, 0.5256410256410257, 0.6004273504273504, 0.391025641025641, 0.5491452991452992, 0.6303418803418804]</t>
+          <t>[0.5256410256410257, 0.5256410256410257, 0.6025641025641025, 0.5747863247863249, 0.5256410256410257, 0.5555555555555555, 0.5256410256410257, 0.6303418803418804, 0.6260683760683761, 0.5256410256410257, 0.4358974358974359, 0.5170940170940171, 0.391025641025641, 0.5491452991452992, 0.6004273504273504, 0.391025641025641, 0.6837606837606837, 0.5491452991452992, 0.4358974358974359, 0.5555555555555555, 0.6303418803418804, 0.6004273504273504, 0.4358974358974359, 0.6837606837606837, 0.6303418803418804, 0.391025641025641, 0.3397435897435897, 0.5170940170940171, 0.655982905982906, 0.391025641025641, 0.5491452991452992, 0.6303418803418804, 0.6303418803418804, 0.6004273504273504, 0.7606837606837606, 0.5555555555555555, 0.391025641025641, 0.5491452991452992, 0.391025641025641, 0.6303418803418804, 0.6004273504273504, 0.6303418803418804, 0.6794871794871794, 0.6837606837606837, 0.6303418803418804, 0.3397435897435897, 0.391025641025641, 0.4358974358974359, 0.5555555555555555, 0.6004273504273504]</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>[0.4551282051282051, 0.6880341880341879, 0.5299145299145299, 0.7115384615384616, 0.638888888888889, 0.685897435897436, 0.5299145299145299, 0.6025641025641025, 0.685897435897436, 0.6068376068376068, 0.6581196581196581, 0.69017094017094, 0.5277777777777778, 0.6282051282051282, 0.6581196581196581, 0.6089743589743589, 0.6602564102564102, 0.6538461538461539, 0.5042735042735043, 0.3782051282051282, 0.5170940170940171, 0.5299145299145299, 0.3632478632478633, 0.6282051282051282, 0.6538461538461539, 0.8183760683760685, 0.6602564102564102, 0.6538461538461539, 0.767094017094017, 0.5021367521367521, 0.6089743589743589, 0.6153846153846154, 0.48504273504273504, 0.685897435897436, 0.5277777777777778, 0.3632478632478633, 0.5277777777777778, 0.4871794871794872, 0.5555555555555555, 0.5299145299145299, 0.6538461538461539, 0.69017094017094, 0.5555555555555555, 0.5042735042735043, 0.6602564102564102, 0.6602564102564102, 0.5277777777777778, 0.3632478632478633, 0.5277777777777778, 0.48504273504273504]</t>
+          <t>[0.7115384615384616, 0.6581196581196581, 0.5555555555555555, 0.6858974358974358, 0.6581196581196581, 0.685897435897436, 0.6581196581196581, 0.6282051282051282, 0.6901709401709403, 0.7115384615384616, 0.5555555555555555, 0.6282051282051282, 0.3632478632478633, 0.5277777777777778, 0.6282051282051282, 0.35683760683760685, 0.69017094017094, 0.5534188034188035, 0.5555555555555555, 0.685897435897436, 0.48504273504273504, 0.5277777777777778, 0.3782051282051282, 0.69017094017094, 0.5299145299145299, 0.4871794871794872, 0.5170940170940171, 0.6282051282051282, 0.69017094017094, 0.3632478632478633, 0.5277777777777778, 0.5299145299145299, 0.5042735042735043, 0.6282051282051282, 0.767094017094017, 0.7115384615384616, 0.4871794871794872, 0.5021367521367521, 0.3632478632478633, 0.5299145299145299, 0.5277777777777778, 0.6538461538461539, 0.5833333333333334, 0.69017094017094, 0.6538461538461539, 0.5170940170940171, 0.4871794871794872, 0.5555555555555555, 0.685897435897436, 0.5277777777777778]</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>[0.5341880341880342, 0.5106837606837606, 0.6153846153846154, 0.6132478632478633, 0.6581196581196581, 0.6388888888888888, 0.6132478632478633, 0.5085470085470085, 0.638888888888889, 0.532051282051282, 0.6153846153846154, 0.844017094017094, 0.532051282051282, 0.6367521367521368, 0.6153846153846154, 0.5256410256410257, 0.6132478632478633, 0.6132478632478633, 0.6132478632478633, 0.5598290598290598, 0.41452991452991456, 0.6132478632478633, 0.3846153846153846, 0.6367521367521368, 0.6132478632478633, 0.6367521367521367, 0.6132478632478633, 0.6132478632478633, 0.6602564102564102, 0.5512820512820512, 0.5256410256410257, 0.6880341880341881, 0.6132478632478633, 0.638888888888889, 0.532051282051282, 0.3846153846153846, 0.5341880341880342, 0.41452991452991456, 0.5598290598290598, 0.6132478632478633, 0.6132478632478633, 0.844017094017094, 0.5598290598290598, 0.6132478632478633, 0.6132478632478633, 0.6132478632478633, 0.5341880341880342, 0.3846153846153846, 0.532051282051282, 0.6132478632478633]</t>
+          <t>[0.6666666666666666, 0.6153846153846154, 0.48290598290598297, 0.6923076923076922, 0.6153846153846154, 0.638888888888889, 0.5042735042735043, 0.6132478632478633, 0.717948717948718, 0.5341880341880342, 0.5598290598290598, 0.6367521367521368, 0.3846153846153846, 0.532051282051282, 0.6367521367521368, 0.3846153846153846, 0.844017094017094, 0.532051282051282, 0.5598290598290598, 0.638888888888889, 0.6132478632478633, 0.5341880341880342, 0.5598290598290598, 0.844017094017094, 0.6132478632478633, 0.3846153846153846, 0.41452991452991456, 0.6367521367521368, 0.6623931623931624, 0.3846153846153846, 0.532051282051282, 0.6153846153846154, 0.6132478632478633, 0.6367521367521368, 0.6602564102564102, 0.638888888888889, 0.3846153846153846, 0.5512820512820512, 0.3846153846153846, 0.6132478632478633, 0.5341880341880342, 0.6132478632478633, 0.5256410256410257, 0.7927350427350427, 0.6132478632478633, 0.41452991452991456, 0.3846153846153846, 0.5598290598290598, 0.638888888888889, 0.5341880341880342]</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>[0.6410256410256411, 0.6025641025641025, 0.6666666666666666, 0.6132478632478633, 0.6858974358974358, 0.717948717948718, 0.6410256410256411, 0.5833333333333334, 0.6153846153846154, 0.5854700854700855, 0.6410256410256411, 0.7414529914529915, 0.6303418803418803, 0.6132478632478633, 0.6410256410256411, 0.5897435897435898, 0.5833333333333334, 0.55982905982906, 0.6666666666666666, 0.5085470085470085, 0.4358974358974359, 0.6410256410256411, 0.4102564102564103, 0.5534188034188036, 0.55982905982906, 0.6880341880341881, 0.5833333333333334, 0.55982905982906, 0.6581196581196581, 0.6880341880341881, 0.5897435897435898, 0.6645299145299145, 0.6410256410256411, 0.6153846153846154, 0.6303418803418803, 0.4102564102564103, 0.6880341880341881, 0.43162393162393164, 0.5641025641025641, 0.6410256410256411, 0.55982905982906, 0.7414529914529915, 0.5641025641025641, 0.6410256410256411, 0.5833333333333334, 0.5833333333333334, 0.6880341880341881, 0.4102564102564103, 0.6880341880341881, 0.6410256410256411]</t>
+          <t>[0.6132478632478633, 0.6410256410256411, 0.6602564102564102, 0.6645299145299145, 0.6666666666666666, 0.6153846153846154, 0.6666666666666666, 0.6367521367521368, 0.576923076923077, 0.6132478632478633, 0.5641025641025641, 0.5534188034188036, 0.4102564102564103, 0.6880341880341881, 0.6388888888888888, 0.4102564102564103, 0.7414529914529915, 0.6303418803418803, 0.5641025641025641, 0.6153846153846154, 0.6410256410256411, 0.6880341880341881, 0.5085470085470085, 0.7414529914529915, 0.6410256410256411, 0.4102564102564103, 0.4358974358974359, 0.6388888888888888, 0.6303418803418803, 0.4102564102564103, 0.6047008547008548, 0.6666666666666666, 0.6410256410256411, 0.6388888888888888, 0.6581196581196581, 0.6153846153846154, 0.4102564102564103, 0.6623931623931624, 0.4102564102564103, 0.6410256410256411, 0.6880341880341881, 0.55982905982906, 0.6388888888888888, 0.7414529914529915, 0.55982905982906, 0.4102564102564103, 0.4102564102564103, 0.5641025641025641, 0.6153846153846154, 0.6880341880341881]</t>
         </is>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>[0.6175213675213675, 0.594017094017094, 0.7585470085470085, 0.3461538461538461, 0.6282051282051282, 0.7585470085470085, 0.7585470085470085, 0.452991452991453, 0.6025641025641025, 0.5384615384615384, 0.6452991452991453, 0.5384615384615384, 0.5961538461538461, 0.5405982905982906, 0.6452991452991453, 0.6239316239316239, 0.5085470085470085, 0.6132478632478633, 0.6025641025641025, 0.4871794871794872, 0.47222222222222227, 0.7585470085470085, 0.3547008547008547, 0.5405982905982906, 0.6132478632478633, 0.6175213675213675, 0.5085470085470085, 0.5833333333333334, 0.5961538461538461, 0.6495726495726496, 0.6239316239316239, 0.6196581196581197, 0.6025641025641025, 0.6025641025641025, 0.5961538461538461, 0.3547008547008547, 0.6217948717948718, 0.3547008547008547, 0.4871794871794872, 0.7585470085470085, 0.5833333333333334, 0.5384615384615384, 0.4871794871794872, 0.6025641025641025, 0.5085470085470085, 0.5085470085470085, 0.6217948717948718, 0.47222222222222227, 0.40170940170940167, 0.6025641025641025]</t>
+          <t>[0.4615384615384615, 0.6452991452991453, 0.5384615384615384, 0.4871794871794872, 0.6452991452991453, 0.6025641025641025, 0.6452991452991453, 0.6132478632478633, 0.4914529914529915, 0.4038461538461539, 0.4871794871794872, 0.5405982905982906, 0.47222222222222227, 0.5128205128205129, 0.5405982905982906, 0.47222222222222227, 0.5384615384615384, 0.5961538461538461, 0.4871794871794872, 0.6025641025641025, 0.6025641025641025, 0.6217948717948718, 0.4871794871794872, 0.5384615384615384, 0.7585470085470085, 0.3547008547008547, 0.47222222222222227, 0.5405982905982906, 0.8354700854700855, 0.47222222222222227, 0.5961538461538461, 0.7585470085470085, 0.6025641025641025, 0.5405982905982906, 0.5961538461538461, 0.6025641025641025, 0.3547008547008547, 0.5128205128205128, 0.3547008547008547, 0.7585470085470085, 0.6217948717948718, 0.6132478632478633, 0.6987179487179488, 0.5384615384615384, 0.6132478632478633, 0.3547008547008547, 0.3547008547008547, 0.4871794871794872, 0.6025641025641025, 0.5106837606837606]</t>
         </is>
       </c>
     </row>
@@ -11622,52 +11622,52 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.5189786059351277</v>
+        <v>0.4939958592132505</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5532154994089835</v>
+        <v>0.5090951387322356</v>
       </c>
       <c r="F121" t="n">
-        <v>0.55</v>
+        <v>0.5125</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5579114819004525</v>
+        <v>0.5154094827586206</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>[[5, 8, 2], [11, 24, 7], [1, 7, 15]]</t>
+          <t>[[4, 10, 1], [11, 20, 11], [1, 5, 17]]</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>OrderedDict({'colsample_bytree': 0.5293576709335223, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8439062525684723})</t>
+          <t>OrderedDict({'colsample_bytree': 0.8872374007884396, 'gamma': 0.0, 'learning_rate': 0.011241140169194457, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9584327666845629})</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>[0.7264957264957265, 0.6692307692307693, 0.7264957264957265, 0.7, 0.7213675213675215, 0.7102564102564102, 0.7008547008547008, 0.6572649572649573, 0.7162393162393161, 0.7094017094017094, 0.6893162393162393, 0.705982905982906, 0.7572649572649574, 0.667948717948718, 0.726923076923077, 0.7717948717948718, 0.7200854700854701, 0.6525641025641026, 0.7363247863247864, 0.7252136752136752, 0.767948717948718, 0.7311965811965812, 0.6799145299145299, 0.7786324786324786, 0.7991452991452992, 0.7833333333333333, 0.7525641025641027, 0.7269230769230769, 0.7474358974358974, 0.7995726495726496, 0.7683760683760684, 0.7675213675213676, 0.7098290598290597, 0.6782051282051282, 0.7837606837606839, 0.7405982905982905, 0.7675213675213675, 0.7897435897435898, 0.7619658119658119, 0.7730769230769232, 0.7628205128205128, 0.7683760683760683, 0.7675213675213676, 0.7004273504273504, 0.767094017094017, 0.7995726495726496, 0.7884615384615384, 0.7940170940170941, 0.7576923076923076, 0.7418803418803419]</t>
+          <t>[0.661965811965812, 0.6773504273504273, 0.7209401709401708, 0.7470085470085469, 0.720940170940171, 0.7461538461538462, 0.7632478632478633, 0.7773504273504273, 0.7837606837606839, 0.6615384615384616, 0.726068376068376, 0.7675213675213676, 0.7363247863247863, 0.7833333333333334, 0.7004273504273504, 0.667948717948718, 0.7944444444444445, 0.7829059829059829, 0.655982905982906, 0.7064102564102563, 0.7675213675213675, 0.7205128205128206, 0.7991452991452992, 0.726068376068376, 0.7786324786324788, 0.7628205128205129, 0.7632478632478633, 0.7623931623931625, 0.7209401709401709, 0.652991452991453, 0.7576923076923078, 0.7311965811965812, 0.7944444444444445, 0.6517094017094018, 0.7726495726495728, 0.7987179487179488, 0.7786324786324786, 0.7576923076923077, 0.7683760683760684, 0.714957264957265, 0.788888888888889, 0.7636752136752138, 0.6948717948717948, 0.767948717948718, 0.7940170940170941, 0.7632478632478633, 0.773931623931624, 0.7311965811965812, 0.7623931623931623, 0.7786324786324788]</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>[0.06642515975290753, 0.08147052304131608, 0.06740767231839438, 0.059944942718287056, 0.07250614298086253, 0.05905481938504168, 0.07241036536637406, 0.07860924963470953, 0.06291492411372987, 0.06169258951322592, 0.0724179313624624, 0.07444488602222164, 0.04611821986821779, 0.0429609414080759, 0.05529855083631387, 0.03419871627990183, 0.07479242954326625, 0.08450956000127632, 0.05093543831626623, 0.05854232934074477, 0.052628339596803596, 0.057118066484114986, 0.04715207304614253, 0.027383793749744957, 0.053495671190721655, 0.04877414662418385, 0.046919106833122566, 0.05531506131673317, 0.056085571680420256, 0.061043833626219166, 0.056655772373253206, 0.03275300214762342, 0.042593783630642555, 0.02343034215704754, 0.042550885257757666, 0.027182981015024393, 0.06125289869117581, 0.05345468880126092, 0.014147816544655408, 0.06463313191811386, 0.026239455441040546, 0.0422320830036939, 0.031035175479256924, 0.08139202748109087, 0.060737907707486764, 0.053587766972366585, 0.050202308224233855, 0.029034679917030848, 0.05102499677469844, 0.05367289994468809]</t>
+          <t>[0.06903263829610262, 0.07057107151037374, 0.04721400322951839, 0.04460850718187996, 0.059486197064291674, 0.02518831115947238, 0.05783300349605099, 0.07093759649329237, 0.04613405716946355, 0.05127492828024152, 0.0597282422848461, 0.04615384615384611, 0.07293308180653363, 0.05374430742653841, 0.054617324042982814, 0.06524061009107099, 0.026598916785633246, 0.052105216748320964, 0.05763688379234622, 0.05965481341706611, 0.06125289869117581, 0.08281561733037489, 0.0431391153275039, 0.03919993947168762, 0.043151813885006274, 0.049043000181007816, 0.03765536884087296, 0.047422420507969555, 0.06497413186323765, 0.05221026063576875, 0.054954008224541905, 0.03801737840390465, 0.04728743997819843, 0.036009187064856264, 0.04854896468913202, 0.013405459095177936, 0.05178880673073409, 0.06147907866104085, 0.04300343072852745, 0.04992140802628129, 0.049347410492815186, 0.06480526525561488, 0.06383705698417347, 0.032702780290100854, 0.03322907209622864, 0.046763151251786275, 0.07417208068255607, 0.06703274462800404, 0.03368757636754926, 0.045238630761776796]</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>[31, 47, 31, 43, 34, 37, 41, 49, 36, 39, 44, 40, 22, 48, 29, 11, 35, 50, 27, 33, 14, 28, 45, 9, 3, 8, 23, 30, 24, 1, 12, 15, 38, 46, 7, 26, 17, 5, 20, 10, 19, 13, 15, 42, 18, 1, 6, 4, 21, 25]</t>
+          <t>[46, 44, 38, 29, 36, 30, 21, 13, 7, 47, 34, 18, 31, 8, 42, 45, 3, 9, 48, 41, 19, 39, 1, 34, 10, 24, 21, 25, 37, 49, 27, 32, 3, 50, 15, 2, 12, 28, 16, 40, 6, 20, 43, 17, 5, 21, 14, 32, 26, 10]</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>[OrderedDict({'colsample_bytree': 0.8936267807939835, 'gamma': 0.3134400406689392, 'learning_rate': 0.03513335595882734, 'max_depth': 15, 'min_child_weight': 6, 'n_estimators': 200, 'subsample': 0.6298668950872427}), OrderedDict({'colsample_bytree': 0.5873492644281648, 'gamma': 4.829894705382643, 'learning_rate': 0.020185159142883838, 'max_depth': 2, 'min_child_weight': 3, 'n_estimators': 76, 'subsample': 0.7480018090890432}), OrderedDict({'colsample_bytree': 0.7254128166680082, 'gamma': 0.22395752411817352, 'learning_rate': 0.04568624568612388, 'max_depth': 13, 'min_child_weight': 8, 'n_estimators': 124, 'subsample': 0.8624261552526018}), OrderedDict({'colsample_bytree': 0.7151338586512265, 'gamma': 3.478117704893182, 'learning_rate': 0.04313418470093699, 'max_depth': 2, 'min_child_weight': 9, 'n_estimators': 408, 'subsample': 0.6562673703564168}), OrderedDict({'colsample_bytree': 0.8916800591020684, 'gamma': 2.441685274099439, 'learning_rate': 0.02946120713930978, 'max_depth': 11, 'min_child_weight': 4, 'n_estimators': 233, 'subsample': 0.579630638055092}), OrderedDict({'colsample_bytree': 0.855774930356139, 'gamma': 4.360729017280185, 'learning_rate': 0.01400848918645908, 'max_depth': 11, 'min_child_weight': 4, 'n_estimators': 336, 'subsample': 0.7440793179838718}), OrderedDict({'colsample_bytree': 0.5522211758976323, 'gamma': 2.165742404575518, 'learning_rate': 0.05149046421937264, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 379, 'subsample': 0.5787386323442468}), OrderedDict({'colsample_bytree': 0.6275913674429648, 'gamma': 4.573454965047365, 'learning_rate': 0.02083230572896585, 'max_depth': 12, 'min_child_weight': 10, 'n_estimators': 149, 'subsample': 0.7359548115251988}), OrderedDict({'colsample_bytree': 0.5418335339914262, 'gamma': 3.114335985814596, 'learning_rate': 0.038657166438158176, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 191, 'subsample': 0.6995955032081723}), OrderedDict({'colsample_bytree': 0.8981351339308581, 'gamma': 4.2614204154310915, 'learning_rate': 0.1544356087555027, 'max_depth': 6, 'min_child_weight': 2, 'n_estimators': 249, 'subsample': 0.7411554154782249}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.8777047897530041, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.789730381696537, 'gamma': 0.6307169371349721, 'learning_rate': 0.01103214879004339, 'max_depth': 2, 'min_child_weight': 9, 'n_estimators': 465, 'subsample': 0.8819723805177564}), OrderedDict({'colsample_bytree': 0.8541185935934934, 'gamma': 0.023536540424525812, 'learning_rate': 0.10012628972325337, 'max_depth': 6, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.5076435051840459}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.799373133542004, 'gamma': 0.0, 'learning_rate': 0.07464238858367206, 'max_depth': 11, 'min_child_weight': 6, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.1827666104318955, 'max_depth': 6, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 0.8083232860215247}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 173, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.7645234041908495, 'gamma': 4.859277137381043, 'learning_rate': 0.1577834232622084, 'max_depth': 6, 'min_child_weight': 5, 'n_estimators': 50, 'subsample': 0.6178867360087678}), OrderedDict({'colsample_bytree': 0.6341192542744651, 'gamma': 0.18896549027773382, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 7, 'n_estimators': 50, 'subsample': 0.9184792276296457}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 51, 'subsample': 0.61627592214436}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.14536288930661145, 'max_depth': 6, 'min_child_weight': 4, 'n_estimators': 485, 'subsample': 0.6103466982519451}), OrderedDict({'colsample_bytree': 0.5142733729341645, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 7, 'min_child_weight': 4, 'n_estimators': 319, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6990115507326038, 'gamma': 0.3834361540659258, 'learning_rate': 0.169748375900263, 'max_depth': 4, 'min_child_weight': 10, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.08036976642134416, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7716385156901189}), OrderedDict({'colsample_bytree': 0.643918746912528, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7142141987896682}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 7, 'n_estimators': 500, 'subsample': 0.7777803369932041}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.22885812788723567, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 336, 'subsample': 0.8093134826745627}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.11823580695775109, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5293576709335223, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.8439062525684723}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 3, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.1670879942429877, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 470, 'subsample': 0.795967838081445}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 2.5336871076131073, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 170, 'subsample': 0.8663765234294825}), OrderedDict({'colsample_bytree': 0.6610499266210801, 'gamma': 0.0, 'learning_rate': 0.06128566501074492, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.646218752523702, 'gamma': 0.0, 'learning_rate': 0.11894366721769888, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 488, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 4, 'min_child_weight': 2, 'n_estimators': 410, 'subsample': 0.9617798229458179}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.052895389994288146, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 484, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6209291981778455, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 198, 'subsample': 0.6152702163861271}), OrderedDict({'colsample_bytree': 0.6105099371850923, 'gamma': 0.0, 'learning_rate': 0.13236795664603476, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7032193807162814}), OrderedDict({'colsample_bytree': 0.9312901334349282, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 366, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.7178934297779105, 'gamma': 0.04339943558922033, 'learning_rate': 0.01350026858646757, 'max_depth': 9, 'min_child_weight': 3, 'n_estimators': 493, 'subsample': 0.6108768490263229}), OrderedDict({'colsample_bytree': 0.8342276306734675, 'gamma': 0.0, 'learning_rate': 0.04464266492361318, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5677521533214247, 'gamma': 5.0, 'learning_rate': 0.01, 'max_depth': 4, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7466978876102226}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6971735139976951}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7909783579417531}), OrderedDict({'colsample_bytree': 0.5918281257457022, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 490, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5708112356873974, 'gamma': 0.785183643693233, 'learning_rate': 0.01, 'max_depth': 6, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6236731359578501}), OrderedDict({'colsample_bytree': 0.6379979661734326, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.9914192935479528})]</t>
+          <t>[OrderedDict({'colsample_bytree': 0.8773172278339918, 'gamma': 4.9891534934231485, 'learning_rate': 0.02109711956355327, 'max_depth': 5, 'min_child_weight': 2, 'n_estimators': 229, 'subsample': 0.9945069941888967}), OrderedDict({'colsample_bytree': 0.7524635353454899, 'gamma': 4.349481313282519, 'learning_rate': 0.03788445621236702, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 470, 'subsample': 0.9884384568323323}), OrderedDict({'colsample_bytree': 0.5489703832796031, 'gamma': 0.4182055065117735, 'learning_rate': 0.051002198796513284, 'max_depth': 13, 'min_child_weight': 9, 'n_estimators': 246, 'subsample': 0.6443344322790147}), OrderedDict({'colsample_bytree': 0.633957050464197, 'gamma': 0.9426932737411655, 'learning_rate': 0.2785266111459475, 'max_depth': 13, 'min_child_weight': 5, 'n_estimators': 224, 'subsample': 0.9086006370041309}), OrderedDict({'colsample_bytree': 0.8807938922222314, 'gamma': 2.4111189043569423, 'learning_rate': 0.04849933822654279, 'max_depth': 3, 'min_child_weight': 5, 'n_estimators': 218, 'subsample': 0.5200994264936023}), OrderedDict({'colsample_bytree': 0.6739075570885754, 'gamma': 0.5070573563472237, 'learning_rate': 0.06364062600273718, 'max_depth': 14, 'min_child_weight': 5, 'n_estimators': 362, 'subsample': 0.5586283378755917}), OrderedDict({'colsample_bytree': 0.8599008468785112, 'gamma': 0.8231482733411062, 'learning_rate': 0.03991078126947708, 'max_depth': 11, 'min_child_weight': 3, 'n_estimators': 163, 'subsample': 0.9766721437308709}), OrderedDict({'colsample_bytree': 0.5446122474621778, 'gamma': 0.039904362678135914, 'learning_rate': 0.09654966270974506, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 53, 'subsample': 0.8655962049416008}), OrderedDict({'colsample_bytree': 0.7845867319313502, 'gamma': 0.08102855396877164, 'learning_rate': 0.02637306982002496, 'max_depth': 12, 'min_child_weight': 2, 'n_estimators': 335, 'subsample': 0.8851434632094399}), OrderedDict({'colsample_bytree': 0.6653622468017903, 'gamma': 4.938438125249202, 'learning_rate': 0.01805214495819557, 'max_depth': 7, 'min_child_weight': 7, 'n_estimators': 314, 'subsample': 0.8841651108723603}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.6861687892156315, 'gamma': 0.0, 'learning_rate': 0.13968240779395888, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 125, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6414400880911911, 'gamma': 0.0, 'learning_rate': 0.022183356300182977, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.5542169612689591, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 5, 'min_child_weight': 10, 'n_estimators': 226, 'subsample': 0.8423861571479012}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 5, 'min_child_weight': 1, 'n_estimators': 51, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8615123818016963, 'gamma': 0.0, 'learning_rate': 0.03812405855281126, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 74, 'subsample': 0.5361609874178501}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.04495200653138843, 'max_depth': 8, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9642079616084268}), OrderedDict({'colsample_bytree': 0.9982326512169927, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 63, 'subsample': 0.980879966248831}), OrderedDict({'colsample_bytree': 0.8054794688368969, 'gamma': 0.0, 'learning_rate': 0.1363452139206983, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 117, 'subsample': 0.5151348483853732}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.050274286820390646, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.053613132617709176, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8872374007884396, 'gamma': 0.0, 'learning_rate': 0.011241140169194457, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9584327666845629}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.3726172715094558, 'learning_rate': 0.29999999999999993, 'max_depth': 7, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5609373465067328}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.6895668088206524}), OrderedDict({'colsample_bytree': 0.8724280876428312, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.862195117699132}), OrderedDict({'colsample_bytree': 0.9372895976777214, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 14, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5691343428028275}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.02969284978913797, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.931959167237542}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.09170621217901774, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 197, 'subsample': 0.6644496102985401}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.012136218792597181, 'max_depth': 15, 'min_child_weight': 10, 'n_estimators': 65, 'subsample': 0.9478892486481036}), OrderedDict({'colsample_bytree': 0.9588514771008748, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 9, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.6764893440056784}), OrderedDict({'colsample_bytree': 0.6110045472163772, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 9, 'min_child_weight': 9, 'n_estimators': 500, 'subsample': 0.890691008545534}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.9693123706890643}), OrderedDict({'colsample_bytree': 0.7362946727614607, 'gamma': 5.0, 'learning_rate': 0.29999999999999993, 'max_depth': 1, 'min_child_weight': 10, 'n_estimators': 500, 'subsample': 0.7016546429783725}), OrderedDict({'colsample_bytree': 0.9915411409591425, 'gamma': 1.0448423408283796, 'learning_rate': 0.01, 'max_depth': 13, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.8565517715352977}), OrderedDict({'colsample_bytree': 0.8761282391486114, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.842861514082315, 'gamma': 0.425813710866138, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.711936061562856}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.29999999999999993, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.9181428291678325, 'gamma': 0.6425646270921271, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6606805133770028, 'gamma': 3.6403008429280486, 'learning_rate': 0.01, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.872035226586513}), OrderedDict({'colsample_bytree': 0.751381706430595, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.7488549945972391}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 1.3364368093954564, 'learning_rate': 0.01, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 1.0}), OrderedDict({'colsample_bytree': 0.8515628679850324, 'gamma': 0.0, 'learning_rate': 0.012137197949491875, 'max_depth': 1, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 0.0, 'learning_rate': 0.037558614748058564, 'max_depth': 11, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.7161821749901104}), OrderedDict({'colsample_bytree': 0.7433481139815206, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.6433269087888991, 'gamma': 0.7216160737370959, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 1, 'n_estimators': 500, 'subsample': 0.5}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 10, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.9078675319843692}), OrderedDict({'colsample_bytree': 1.0, 'gamma': 1.8966339906089582, 'learning_rate': 0.29999999999999993, 'max_depth': 15, 'min_child_weight': 1, 'n_estimators': 50, 'subsample': 0.6835628128123351}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 12, 'min_child_weight': 3, 'n_estimators': 500, 'subsample': 0.5611707942610982}), OrderedDict({'colsample_bytree': 0.5, 'gamma': 0.0, 'learning_rate': 0.01, 'max_depth': 8, 'min_child_weight': 5, 'n_estimators': 500, 'subsample': 1.0})]</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O121" t="n">
-        <v>0.55</v>
+        <v>0.5125</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
@@ -11676,27 +11676,27 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>[0.6538461538461539, 0.5726495726495727, 0.6816239316239315, 0.6260683760683761, 0.7072649572649574, 0.6517094017094017, 0.6303418803418803, 0.5491452991452991, 0.7606837606837606, 0.7841880341880342, 0.7051282051282052, 0.6816239316239315, 0.7072649572649574, 0.6239316239316239, 0.7094017094017094, 0.7841880341880342, 0.6794871794871794, 0.547008547008547, 0.7841880341880342, 0.7585470085470085, 0.7307692307692308, 0.6794871794871794, 0.6303418803418803, 0.8119658119658121, 0.8653846153846154, 0.80982905982906, 0.7585470085470085, 0.7350427350427351, 0.7051282051282052, 0.8119658119658121, 0.8119658119658121, 0.7585470085470085, 0.7585470085470085, 0.655982905982906, 0.8376068376068376, 0.7564102564102564, 0.7307692307692308, 0.8376068376068376, 0.7564102564102564, 0.6773504273504273, 0.7863247863247863, 0.7841880341880342, 0.7841880341880342, 0.6538461538461539, 0.7564102564102564, 0.7841880341880342, 0.7841880341880342, 0.8119658119658121, 0.7585470085470085, 0.7863247863247863]</t>
+          <t>[0.5982905982905983, 0.6752136752136751, 0.655982905982906, 0.7564102564102564, 0.6794871794871794, 0.7307692307692308, 0.8119658119658121, 0.7585470085470085, 0.7585470085470085, 0.5982905982905983, 0.732905982905983, 0.7307692307692308, 0.6282051282051282, 0.7564102564102564, 0.6025641025641025, 0.5982905982905983, 0.80982905982906, 0.7841880341880342, 0.5982905982905983, 0.6047008547008547, 0.7307692307692308, 0.7051282051282052, 0.7564102564102564, 0.732905982905983, 0.8397435897435898, 0.7841880341880342, 0.732905982905983, 0.7286324786324787, 0.7585470085470085, 0.655982905982906, 0.7051282051282052, 0.7072649572649573, 0.7841880341880342, 0.6282051282051282, 0.7307692307692308, 0.7841880341880342, 0.7841880341880342, 0.8376068376068376, 0.732905982905983, 0.702991452991453, 0.7564102564102564, 0.7350427350427351, 0.6816239316239315, 0.7585470085470085, 0.7841880341880342, 0.7585470085470085, 0.7585470085470085, 0.7585470085470085, 0.7585470085470085, 0.80982905982906]</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>[0.7393162393162394, 0.608974358974359, 0.7414529914529915, 0.685897435897436, 0.6880341880341881, 0.6581196581196581, 0.7136752136752137, 0.6047008547008548, 0.6602564102564102, 0.6602564102564102, 0.6623931623931624, 0.6880341880341881, 0.7649572649572649, 0.6901709401709403, 0.6880341880341881, 0.8183760683760685, 0.7393162393162394, 0.6089743589743589, 0.6880341880341881, 0.7393162393162394, 0.767094017094017, 0.7393162393162394, 0.7136752136752137, 0.7435897435897436, 0.8461538461538461, 0.8205128205128206, 0.7393162393162394, 0.7158119658119659, 0.7692307692307693, 0.8461538461538461, 0.8205128205128206, 0.794871794871795, 0.6623931623931624, 0.6602564102564102, 0.794871794871795, 0.7414529914529915, 0.8717948717948718, 0.8205128205128206, 0.7692307692307692, 0.8205128205128206, 0.767094017094017, 0.7692307692307692, 0.7692307692307693, 0.6047008547008548, 0.8717948717948718, 0.8717948717948718, 0.8717948717948718, 0.8205128205128206, 0.7948717948717948, 0.7414529914529915]</t>
+          <t>[0.6303418803418803, 0.6303418803418803, 0.7649572649572649, 0.7948717948717948, 0.7136752136752137, 0.7649572649572649, 0.7948717948717948, 0.8974358974358975, 0.8461538461538461, 0.6047008547008548, 0.6880341880341881, 0.8461538461538461, 0.7905982905982906, 0.8717948717948718, 0.685897435897436, 0.6901709401709403, 0.794871794871795, 0.8717948717948718, 0.6303418803418803, 0.7393162393162394, 0.8717948717948718, 0.7136752136752138, 0.8461538461538461, 0.7414529914529915, 0.767094017094017, 0.7692307692307693, 0.7414529914529915, 0.794871794871795, 0.7136752136752138, 0.6581196581196581, 0.794871794871795, 0.767094017094017, 0.8461538461538461, 0.608974358974359, 0.8205128205128206, 0.8205128205128206, 0.8205128205128206, 0.7158119658119658, 0.7692307692307692, 0.6602564102564102, 0.8461538461538461, 0.8461538461538461, 0.6880341880341881, 0.7948717948717948, 0.8205128205128206, 0.7692307692307692, 0.8717948717948718, 0.7136752136752138, 0.7414529914529915, 0.7948717948717948]</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>[0.6623931623931624, 0.69017094017094, 0.6346153846153847, 0.6880341880341881, 0.6602564102564102, 0.7414529914529915, 0.6623931623931624, 0.685897435897436, 0.6367521367521368, 0.6346153846153847, 0.5833333333333334, 0.6089743589743589, 0.7136752136752137, 0.6089743589743589, 0.6880341880341881, 0.7136752136752137, 0.6089743589743589, 0.608974358974359, 0.6880341880341879, 0.6367521367521368, 0.7136752136752138, 0.6880341880341879, 0.638888888888889, 0.7649572649572649, 0.7136752136752138, 0.6880341880341879, 0.7136752136752138, 0.6367521367521368, 0.6623931623931624, 0.6880341880341879, 0.6623931623931624, 0.7136752136752138, 0.6602564102564102, 0.7136752136752137, 0.7136752136752138, 0.6880341880341879, 0.6880341880341879, 0.7136752136752138, 0.7393162393162394, 0.7136752136752138, 0.7136752136752138, 0.6880341880341879, 0.7136752136752138, 0.7414529914529915, 0.6880341880341879, 0.7136752136752138, 0.7136752136752138, 0.7393162393162394, 0.6623931623931624, 0.7136752136752138]</t>
+          <t>[0.6068376068376068, 0.6068376068376068, 0.7158119658119658, 0.6623931623931624, 0.685897435897436, 0.7136752136752138, 0.6602564102564102, 0.6880341880341879, 0.7136752136752138, 0.685897435897436, 0.6367521367521368, 0.7136752136752138, 0.69017094017094, 0.7136752136752138, 0.7393162393162394, 0.5833333333333334, 0.767094017094017, 0.7136752136752138, 0.608974358974359, 0.69017094017094, 0.6880341880341879, 0.5833333333333334, 0.7393162393162394, 0.6623931623931624, 0.7136752136752138, 0.6880341880341879, 0.7414529914529915, 0.6880341880341879, 0.6111111111111112, 0.5555555555555556, 0.6880341880341881, 0.7136752136752138, 0.7136752136752138, 0.6324786324786325, 0.7115384615384616, 0.7905982905982906, 0.6880341880341879, 0.6623931623931624, 0.7136752136752137, 0.6880341880341881, 0.7136752136752138, 0.6880341880341881, 0.6089743589743589, 0.7136752136752137, 0.7393162393162394, 0.6880341880341881, 0.6623931623931624, 0.6111111111111112, 0.7136752136752138, 0.7136752136752138]</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>[0.7393162393162394, 0.6645299145299145, 0.7393162393162394, 0.69017094017094, 0.6880341880341881, 0.69017094017094, 0.6623931623931624, 0.6645299145299145, 0.7158119658119658, 0.6880341880341881, 0.6880341880341881, 0.7136752136752137, 0.764957264957265, 0.7136752136752137, 0.7136752136752137, 0.7628205128205128, 0.7371794871794872, 0.7158119658119658, 0.7115384615384616, 0.6858974358974358, 0.7628205128205128, 0.7115384615384616, 0.6623931623931624, 0.7628205128205128, 0.7884615384615384, 0.7884615384615384, 0.7115384615384616, 0.7371794871794872, 0.8183760683760685, 0.7905982905982906, 0.764957264957265, 0.7628205128205128, 0.7136752136752137, 0.6623931623931624, 0.7628205128205128, 0.7628205128205128, 0.764957264957265, 0.7371794871794872, 0.7628205128205128, 0.8183760683760685, 0.7628205128205128, 0.7905982905982906, 0.7628205128205128, 0.6645299145299145, 0.7371794871794872, 0.7905982905982906, 0.7905982905982906, 0.7905982905982906, 0.764957264957265, 0.6581196581196581]</t>
+          <t>[0.69017094017094, 0.6645299145299145, 0.6858974358974358, 0.764957264957265, 0.6880341880341881, 0.7371794871794872, 0.7393162393162394, 0.7371794871794872, 0.8183760683760685, 0.69017094017094, 0.7628205128205128, 0.764957264957265, 0.7371794871794872, 0.764957264957265, 0.7158119658119658, 0.7393162393162394, 0.764957264957265, 0.7905982905982906, 0.69017094017094, 0.7136752136752137, 0.764957264957265, 0.764957264957265, 0.8183760683760685, 0.7115384615384616, 0.7628205128205128, 0.7371794871794872, 0.764957264957265, 0.8183760683760685, 0.7136752136752137, 0.69017094017094, 0.764957264957265, 0.6837606837606837, 0.7905982905982906, 0.6880341880341881, 0.764957264957265, 0.7905982905982906, 0.764957264957265, 0.7905982905982906, 0.7905982905982906, 0.7158119658119658, 0.7927350427350427, 0.7136752136752137, 0.6880341880341881, 0.764957264957265, 0.7905982905982906, 0.764957264957265, 0.7393162393162394, 0.764957264957265, 0.7905982905982906, 0.7393162393162394]</t>
         </is>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>[0.8376068376068376, 0.80982905982906, 0.8354700854700855, 0.8098290598290597, 0.8632478632478633, 0.8098290598290597, 0.8354700854700855, 0.782051282051282, 0.8076923076923076, 0.7799145299145299, 0.8076923076923076, 0.8376068376068376, 0.8354700854700855, 0.702991452991453, 0.8354700854700855, 0.7799145299145299, 0.8354700854700855, 0.782051282051282, 0.80982905982906, 0.8055555555555557, 0.8653846153846154, 0.8376068376068376, 0.7542735042735043, 0.8098290598290597, 0.782051282051282, 0.8098290598290597, 0.8397435897435898, 0.8098290598290597, 0.782051282051282, 0.861111111111111, 0.782051282051282, 0.8076923076923076, 0.7542735042735043, 0.6987179487179488, 0.8098290598290597, 0.7542735042735043, 0.782051282051282, 0.8397435897435898, 0.782051282051282, 0.8354700854700855, 0.7841880341880342, 0.80982905982906, 0.8076923076923078, 0.8376068376068376, 0.782051282051282, 0.8376068376068376, 0.782051282051282, 0.8076923076923078, 0.8076923076923076, 0.80982905982906]</t>
+          <t>[0.7841880341880342, 0.8098290598290597, 0.782051282051282, 0.7564102564102564, 0.8376068376068376, 0.7841880341880342, 0.80982905982906, 0.8055555555555555, 0.782051282051282, 0.7286324786324787, 0.8098290598290597, 0.782051282051282, 0.8354700854700855, 0.80982905982906, 0.7585470085470085, 0.7286324786324786, 0.8354700854700855, 0.7542735042735043, 0.7521367521367521, 0.7841880341880342, 0.782051282051282, 0.8354700854700855, 0.8354700854700855, 0.782051282051282, 0.80982905982906, 0.8354700854700855, 0.8354700854700855, 0.782051282051282, 0.8076923076923076, 0.7051282051282052, 0.8354700854700855, 0.7841880341880342, 0.8376068376068376, 0.7008547008547009, 0.8354700854700855, 0.8076923076923078, 0.8354700854700855, 0.782051282051282, 0.8354700854700855, 0.8076923076923076, 0.8354700854700855, 0.8354700854700855, 0.8076923076923076, 0.8076923076923078, 0.8354700854700855, 0.8354700854700855, 0.8376068376068376, 0.8076923076923076, 0.8076923076923076, 0.8354700854700855]</t>
         </is>
       </c>
     </row>
